--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
   <si>
     <t>ticker</t>
   </si>
@@ -61,255 +61,315 @@
     <t>close</t>
   </si>
   <si>
+    <t>SAPPHIRE</t>
+  </si>
+  <si>
+    <t>RADIANTCMS</t>
+  </si>
+  <si>
     <t>AVG</t>
   </si>
   <si>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>KANSAINER</t>
+  </si>
+  <si>
     <t>APLAPOLLO</t>
   </si>
   <si>
-    <t>RADIANTCMS</t>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
   </si>
   <si>
     <t>SAFARI</t>
   </si>
   <si>
+    <t>MAZDOCK</t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
     <t>BANKINDIA</t>
   </si>
   <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>POLICYBZR</t>
+  </si>
+  <si>
+    <t>JISLJALEQS</t>
+  </si>
+  <si>
+    <t>PATELENG</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>BHARATFORG</t>
+  </si>
+  <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>VAIBHAVGBL</t>
+  </si>
+  <si>
     <t>SHREECEM</t>
   </si>
   <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>SIGACHI</t>
+  </si>
+  <si>
+    <t>SMSPHARMA</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
+    <t>KPITTECH</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>MVGJL</t>
+  </si>
+  <si>
+    <t>PNCINFRA</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>GLAXO</t>
+  </si>
+  <si>
+    <t>THANGAMAYL</t>
+  </si>
+  <si>
+    <t>BRIGADE</t>
+  </si>
+  <si>
     <t>AVANTIFEED</t>
   </si>
   <si>
-    <t>JISLJALEQS</t>
-  </si>
-  <si>
-    <t>KANSAINER</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>PATELENG</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>BHARATFORG</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>DMART</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>IRFC</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
-  </si>
-  <si>
-    <t>THANGAMAYL</t>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>HONASA</t>
+  </si>
+  <si>
+    <t>NIITLTD</t>
+  </si>
+  <si>
+    <t>JWL</t>
+  </si>
+  <si>
+    <t>POLYPLEX</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>AETHER</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>CYIENT</t>
+  </si>
+  <si>
+    <t>CGPOWER</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>GRSE</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>TEJASNET</t>
+  </si>
+  <si>
+    <t>CONCOR</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>ECLERX</t>
+  </si>
+  <si>
+    <t>CIEINDIA</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>HUDCO</t>
+  </si>
+  <si>
+    <t>STARHEALTH</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>COLPAL</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>NBCC</t>
+  </si>
+  <si>
+    <t>CSBBANK</t>
   </si>
   <si>
     <t>TANLA</t>
   </si>
   <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>POLICYBZR</t>
-  </si>
-  <si>
-    <t>KPITTECH</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>POLYPLEX</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>VAIBHAVGBL</t>
+    <t>FINCABLES</t>
+  </si>
+  <si>
+    <t>ABFRL</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
   </si>
   <si>
     <t>ASTRAL</t>
   </si>
   <si>
-    <t>MVGJL</t>
-  </si>
-  <si>
-    <t>QUESS</t>
-  </si>
-  <si>
-    <t>NBCC</t>
+    <t>ANANTRAJ</t>
+  </si>
+  <si>
+    <t>GICRE</t>
   </si>
   <si>
     <t>FACT</t>
   </si>
   <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>VISHNU</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>FIVESTAR</t>
-  </si>
-  <si>
-    <t>ANANTRAJ</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>ZENSARTECH</t>
-  </si>
-  <si>
-    <t>STARHEALTH</t>
-  </si>
-  <si>
-    <t>HUDCO</t>
-  </si>
-  <si>
-    <t>NIITLTD</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>MAZDOCK</t>
-  </si>
-  <si>
-    <t>GRSE</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>CIEINDIA</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>GICRE</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
-  </si>
-  <si>
-    <t>CGPOWER</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>AETHER</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>CYIENT</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>HONASA</t>
-  </si>
-  <si>
     <t>OFSS</t>
   </si>
   <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>ABFRL</t>
-  </si>
-  <si>
-    <t>FINCABLES</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Consumer Defensive</t>
+    <t>Consumer Cyclical</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Communication Services</t>
   </si>
   <si>
@@ -319,19 +379,19 @@
     <t>Real Estate</t>
   </si>
   <si>
+    <t>Strong Short</t>
+  </si>
+  <si>
+    <t>No Signal</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Weak Short</t>
   </si>
   <si>
-    <t>No Signal</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
     <t>Short</t>
-  </si>
-  <si>
-    <t>Strong Short</t>
   </si>
 </sst>
 </file>
@@ -689,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,25 +807,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>0.16</v>
+        <v>-0.64</v>
       </c>
       <c r="G2">
-        <v>-0.96</v>
+        <v>-1.39</v>
       </c>
       <c r="H2">
-        <v>-6.28</v>
+        <v>-2.18</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -774,19 +834,19 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>11.80007041045685</v>
+        <v>0.3089050328978354</v>
       </c>
       <c r="L2">
-        <v>6.658923732094464</v>
+        <v>0.8027475375842406</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O2">
-        <v>243.1</v>
+        <v>326.05</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -794,25 +854,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C3">
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>150</v>
       </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
       <c r="F3">
-        <v>0.09</v>
+        <v>1.2</v>
       </c>
       <c r="G3">
-        <v>0.37</v>
+        <v>1.07</v>
       </c>
       <c r="H3">
-        <v>-2.66</v>
+        <v>0.23</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -821,19 +881,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.06959033977419994</v>
+        <v>4.410585780923993</v>
       </c>
       <c r="L3">
-        <v>0.1196887266717168</v>
+        <v>1.60944316140621</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O3">
-        <v>1502.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -841,25 +901,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>130</v>
       </c>
       <c r="F4">
-        <v>-0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
-        <v>-0.54</v>
+        <v>0.62</v>
       </c>
       <c r="H4">
-        <v>-0.28</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -868,19 +928,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>4.834159503636247</v>
+        <v>0.3544444004905258</v>
       </c>
       <c r="L4">
-        <v>3.590456335418115</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N4">
         <v>13</v>
       </c>
       <c r="O4">
-        <v>55.5</v>
+        <v>249.95</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -888,25 +948,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>130</v>
       </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
       <c r="F5">
-        <v>0.88</v>
+        <v>0.41</v>
       </c>
       <c r="G5">
-        <v>0.57</v>
+        <v>1.34</v>
       </c>
       <c r="H5">
-        <v>-2.86</v>
+        <v>1.1</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -915,19 +975,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>1.020199882422109</v>
+        <v>0.08908912084772636</v>
       </c>
       <c r="L5">
-        <v>0.5673758865248227</v>
+        <v>0.1567352625315647</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O5">
-        <v>2044.8</v>
+        <v>4005.8</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -935,25 +995,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F6">
-        <v>-0.77</v>
+        <v>-0.14</v>
       </c>
       <c r="G6">
-        <v>-1.62</v>
+        <v>0.31</v>
       </c>
       <c r="H6">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -962,19 +1022,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>1.498712680467116</v>
+        <v>0.07415465908840395</v>
       </c>
       <c r="L6">
-        <v>0.5594316386509268</v>
+        <v>0.3185199313370208</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>111.5</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -982,25 +1042,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C7">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F7">
-        <v>-0.9399999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7">
-        <v>-2.16</v>
+        <v>0.43</v>
       </c>
       <c r="H7">
-        <v>1.28</v>
+        <v>0.72</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1009,19 +1069,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.4841255920014033</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3746556473829201</v>
+        <v>0.002081432025233361</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O7">
-        <v>30535</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1029,25 +1089,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C8">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F8">
-        <v>-0.65</v>
+        <v>0.14</v>
       </c>
       <c r="G8">
-        <v>-1.47</v>
+        <v>0.62</v>
       </c>
       <c r="H8">
-        <v>-3.98</v>
+        <v>-0.18</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1056,19 +1116,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.1771164791825314</v>
+        <v>0.0682427492078896</v>
       </c>
       <c r="L8">
-        <v>0.2234281024535444</v>
+        <v>0.1238856843209229</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O8">
-        <v>692.25</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1076,25 +1136,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F9">
-        <v>2.65</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
-        <v>2.65</v>
+        <v>1.25</v>
       </c>
       <c r="H9">
-        <v>-1.53</v>
+        <v>0.32</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1103,19 +1163,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.1803232923772703</v>
+        <v>0.6105212355212355</v>
       </c>
       <c r="L9">
-        <v>0.3735574973269918</v>
+        <v>0.2156040725213698</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O9">
-        <v>51.92</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1123,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>0.04</v>
+        <v>-0.52</v>
       </c>
       <c r="G10">
-        <v>-0.64</v>
+        <v>-1.09</v>
       </c>
       <c r="H10">
-        <v>-0.45</v>
+        <v>-0.12</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1150,19 +1210,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>13.78976924078169</v>
+        <v>0.5757549978732337</v>
       </c>
       <c r="L10">
-        <v>4.398576512455516</v>
+        <v>0.4717138938141916</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O10">
-        <v>242</v>
+        <v>755.45</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1170,25 +1230,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F11">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="G11">
-        <v>-0.48</v>
+        <v>0.48</v>
       </c>
       <c r="H11">
-        <v>-0.8</v>
+        <v>0.22</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1197,19 +1257,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>1.07515584200777</v>
+        <v>0.8489056092657097</v>
       </c>
       <c r="L11">
-        <v>0.4346334084626134</v>
+        <v>0.4243614868403484</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O11">
-        <v>1074</v>
+        <v>1064.6</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,25 +1277,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F12">
-        <v>-0.05</v>
+        <v>-0.36</v>
       </c>
       <c r="G12">
-        <v>-0.49</v>
+        <v>-0.27</v>
       </c>
       <c r="H12">
-        <v>-0.82</v>
+        <v>-0.44</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1244,19 +1304,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>1.241641553603994</v>
+        <v>3.994928148774269</v>
       </c>
       <c r="L12">
-        <v>0.4848484848484849</v>
+        <v>1.391162029459902</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O12">
-        <v>5538</v>
+        <v>2047.7</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1264,25 +1324,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>-0.23</v>
+        <v>-0.57</v>
       </c>
       <c r="G13">
-        <v>-0.7</v>
+        <v>1.08</v>
       </c>
       <c r="H13">
-        <v>-0.92</v>
+        <v>-4.64</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1291,19 +1351,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>1.57448199228709</v>
+        <v>0.06152344980862833</v>
       </c>
       <c r="L13">
-        <v>1.570785784153896</v>
+        <v>0.1864213935058839</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>38.52</v>
+        <v>2716.5</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1311,25 +1371,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>-0.09</v>
+        <v>0.17</v>
       </c>
       <c r="G14">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>-0.11</v>
+        <v>-0.92</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1338,19 +1398,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.07724355365386781</v>
+        <v>0.002034830640779034</v>
       </c>
       <c r="L14">
-        <v>0.1870853815682718</v>
+        <v>0.04917926003126628</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>6578</v>
+        <v>1325.9</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1358,25 +1418,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>0.13</v>
+        <v>-0.27</v>
       </c>
       <c r="G15">
-        <v>-1.73</v>
+        <v>0.75</v>
       </c>
       <c r="H15">
-        <v>-1.25</v>
+        <v>0.48</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1385,19 +1445,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>1.038958194544655</v>
+        <v>0.07122044727621364</v>
       </c>
       <c r="L15">
-        <v>0.4492225570899495</v>
+        <v>0.3035290612544463</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O15">
-        <v>1189.6</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1405,25 +1465,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>0.16</v>
+        <v>-0.33</v>
       </c>
       <c r="G16">
-        <v>-0.51</v>
+        <v>0.24</v>
       </c>
       <c r="H16">
-        <v>-0.52</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1432,19 +1492,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.4601539210439501</v>
+        <v>0.1438106969948731</v>
       </c>
       <c r="L16">
-        <v>1.85618539134386</v>
+        <v>0.4351595006934813</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O16">
-        <v>2555</v>
+        <v>1195.7</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1452,25 +1512,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="G17">
-        <v>-0.88</v>
+        <v>0.61</v>
       </c>
       <c r="H17">
-        <v>0.51</v>
+        <v>-0.89</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1479,19 +1539,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.6552824543962095</v>
+        <v>3.382807985745909</v>
       </c>
       <c r="L17">
-        <v>1.185650783284973</v>
+        <v>1.547678909584996</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O17">
-        <v>2450.2</v>
+        <v>1791.9</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1499,25 +1559,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F18">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="G18">
-        <v>-0.93</v>
+        <v>0.33</v>
       </c>
       <c r="H18">
-        <v>-0.77</v>
+        <v>0.15</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1526,19 +1586,19 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.2547087992317</v>
+        <v>1.040765702487628</v>
       </c>
       <c r="L18">
-        <v>0.4232710528646064</v>
+        <v>0.9481564150702487</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>3948</v>
+        <v>51.99</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1546,25 +1606,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>-0.15</v>
+        <v>-0.44</v>
       </c>
       <c r="G19">
-        <v>-0.33</v>
+        <v>0.24</v>
       </c>
       <c r="H19">
-        <v>-2.13</v>
+        <v>-0.05</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1573,19 +1633,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.5799101208185857</v>
+        <v>6.073685168273659</v>
       </c>
       <c r="L19">
-        <v>0.3835728765687994</v>
+        <v>4.926122915288702</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O19">
-        <v>3388.9</v>
+        <v>38.28</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1593,25 +1653,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>-0.18</v>
+        <v>-0.06</v>
       </c>
       <c r="G20">
-        <v>-1.66</v>
+        <v>0.75</v>
       </c>
       <c r="H20">
-        <v>-0.36</v>
+        <v>0.68</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1620,19 +1680,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.9494296355076588</v>
+        <v>0.3521538201501</v>
       </c>
       <c r="L20">
-        <v>0.741426282051282</v>
+        <v>0.6441291539972208</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O20">
-        <v>131</v>
+        <v>2485.5</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1640,25 +1700,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="G21">
-        <v>-1.4</v>
+        <v>0.64</v>
       </c>
       <c r="H21">
-        <v>-0.36</v>
+        <v>-1.13</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1667,19 +1727,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.5340331930031815</v>
+        <v>0.3815727348936703</v>
       </c>
       <c r="L21">
-        <v>0.8029852438653547</v>
+        <v>0.2989164279486861</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O21">
-        <v>38.8</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1687,25 +1747,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>-4.04</v>
+        <v>0.41</v>
       </c>
       <c r="G22">
-        <v>-4.14</v>
+        <v>0.53</v>
       </c>
       <c r="H22">
-        <v>0.51</v>
+        <v>-1.19</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1714,19 +1774,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.1282266146049734</v>
+        <v>3.772482342335551</v>
       </c>
       <c r="L22">
-        <v>0.5471113672381501</v>
+        <v>2.524873545443096</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>1751.2</v>
+        <v>519.45</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1734,25 +1794,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>-1.37</v>
+        <v>-0.15</v>
       </c>
       <c r="G23">
-        <v>-2.86</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H23">
-        <v>-0.9399999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1761,19 +1821,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.4651807166538549</v>
+        <v>0.2419288101267162</v>
       </c>
       <c r="L23">
-        <v>0.5894267275664418</v>
+        <v>0.278855200461319</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O23">
-        <v>611</v>
+        <v>441.65</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1781,46 +1841,46 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G24">
+        <v>3.66</v>
+      </c>
+      <c r="H24">
+        <v>-7.03</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>70</v>
-      </c>
-      <c r="F24">
-        <v>-0.42</v>
-      </c>
-      <c r="G24">
-        <v>-0.55</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>50</v>
-      </c>
-      <c r="J24">
-        <v>0.5</v>
-      </c>
-      <c r="K24">
-        <v>1.640704062707825</v>
-      </c>
       <c r="L24">
-        <v>1.01029115167813</v>
+        <v>0.2798996857974691</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24">
-        <v>428.6</v>
+        <v>196.6</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1828,25 +1888,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>0.05</v>
+        <v>-1.38</v>
       </c>
       <c r="G25">
-        <v>-0.64</v>
+        <v>-0.12</v>
       </c>
       <c r="H25">
-        <v>-0.89</v>
+        <v>-0.67</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1855,19 +1915,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>1.025467299031569</v>
+        <v>0.288517425702935</v>
       </c>
       <c r="L25">
-        <v>0.6471104180879057</v>
+        <v>0.4660564767690034</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25">
-        <v>566</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1875,25 +1935,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>1.11</v>
+        <v>0.13</v>
       </c>
       <c r="G26">
-        <v>1.08</v>
+        <v>2.05</v>
       </c>
       <c r="H26">
-        <v>-0.25</v>
+        <v>0.71</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1902,19 +1962,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.943181704515525</v>
+        <v>0.1410134805516537</v>
       </c>
       <c r="L26">
-        <v>0.5078289093383216</v>
+        <v>0.1365986394557823</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>1789.7</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1922,25 +1982,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C27">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F27">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="G27">
-        <v>0.28</v>
+        <v>0.84</v>
       </c>
       <c r="H27">
-        <v>-3.68</v>
+        <v>-0.23</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -1949,19 +2009,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>4.836423319951003</v>
+        <v>0.04561653599429794</v>
       </c>
       <c r="L27">
-        <v>1.241803618352095</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>1197</v>
+        <v>13241</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1969,25 +2029,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
         <v>70</v>
       </c>
-      <c r="D28">
-        <v>60</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="F28">
-        <v>-1.05</v>
+        <v>0.63</v>
       </c>
       <c r="G28">
-        <v>-0.37</v>
+        <v>1.45</v>
       </c>
       <c r="H28">
-        <v>-2.23</v>
+        <v>-1.08</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -1996,19 +2056,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.5417694692224793</v>
+        <v>0.210206641110742</v>
       </c>
       <c r="L28">
-        <v>0.3945723977861096</v>
+        <v>0.3923516265209834</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O28">
-        <v>359.65</v>
+        <v>234.85</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2016,25 +2076,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <v>-0.03</v>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>70</v>
-      </c>
-      <c r="F29">
-        <v>0.48</v>
-      </c>
-      <c r="G29">
-        <v>-0.87</v>
-      </c>
       <c r="H29">
-        <v>1.24</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2043,19 +2103,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>1.876421086065924</v>
+        <v>7.733668916599932</v>
       </c>
       <c r="L29">
-        <v>0.9218245098874592</v>
+        <v>1.826039978390059</v>
       </c>
       <c r="M29" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>465.3</v>
+        <v>30445</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2063,25 +2123,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>-0.14</v>
+        <v>0.74</v>
       </c>
       <c r="G30">
-        <v>-1.51</v>
+        <v>2.06</v>
       </c>
       <c r="H30">
-        <v>-1.46</v>
+        <v>-0.34</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2090,19 +2150,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.1119337803517929</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.08720184662734035</v>
+        <v>0.05410952514227073</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>1112.3</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2110,25 +2170,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D31">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F31">
-        <v>-0.53</v>
+        <v>0.63</v>
       </c>
       <c r="G31">
-        <v>-1.49</v>
+        <v>2.17</v>
       </c>
       <c r="H31">
-        <v>0.72</v>
+        <v>1.25</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2137,19 +2197,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>6.00958237882914</v>
+        <v>1.223275509580671</v>
       </c>
       <c r="L31">
-        <v>2.584856396866841</v>
+        <v>1.438416349358106</v>
       </c>
       <c r="M31" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O31">
-        <v>3213.8</v>
+        <v>489.05</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2157,25 +2217,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F32">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G32">
-        <v>-0.72</v>
+        <v>1.65</v>
       </c>
       <c r="H32">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2184,19 +2244,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>1.981485069968941</v>
+        <v>2.63816400116808</v>
       </c>
       <c r="L32">
-        <v>0.5932510885341074</v>
+        <v>1.034731869963879</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>232.87</v>
+        <v>574.15</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2204,25 +2264,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F33">
-        <v>-0.35</v>
+        <v>0.18</v>
       </c>
       <c r="G33">
-        <v>-2.19</v>
+        <v>0.76</v>
       </c>
       <c r="H33">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2231,19 +2291,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.49179133321929</v>
+        <v>0.1150468554530133</v>
       </c>
       <c r="L33">
-        <v>0.4996127033307514</v>
+        <v>0.2893784501330123</v>
       </c>
       <c r="M33" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O33">
-        <v>1409</v>
+        <v>132.34</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2251,25 +2311,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F34">
-        <v>-0.34</v>
+        <v>0.28</v>
       </c>
       <c r="G34">
-        <v>-1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H34">
-        <v>-0.71</v>
+        <v>0.67</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2278,19 +2338,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.06503968017185331</v>
+        <v>0.5720769212487844</v>
       </c>
       <c r="L34">
-        <v>0.1748616347156493</v>
+        <v>0.5670076110512045</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>212.6</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2298,25 +2358,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>-0.17</v>
+        <v>-0.88</v>
       </c>
       <c r="G35">
-        <v>-2.41</v>
+        <v>-0.25</v>
       </c>
       <c r="H35">
-        <v>0.33</v>
+        <v>-1.81</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2325,19 +2385,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.02197159639595432</v>
+        <v>2.434892002394318</v>
       </c>
       <c r="L35">
-        <v>0.143043912943167</v>
+        <v>0.8168822328114363</v>
       </c>
       <c r="M35" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>294</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2345,25 +2405,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.04</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G36">
-        <v>-1.08</v>
+        <v>-0.6</v>
       </c>
       <c r="H36">
-        <v>1.62</v>
+        <v>-0.68</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2372,19 +2432,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.2709956903869018</v>
+        <v>2.982451650329683</v>
       </c>
       <c r="L36">
-        <v>0.44502628964235</v>
+        <v>1.739727595284422</v>
       </c>
       <c r="M36" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>108.5</v>
+        <v>1974.9</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2392,25 +2452,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C37">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>-0.02</v>
+        <v>0.85</v>
       </c>
       <c r="G37">
-        <v>-1.51</v>
+        <v>1.74</v>
       </c>
       <c r="H37">
-        <v>-1.05</v>
+        <v>-0.96</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2419,19 +2479,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0.4228487530009371</v>
+        <v>1.487569212716812</v>
       </c>
       <c r="L37">
-        <v>0.4592707525213344</v>
+        <v>1.683866448750876</v>
       </c>
       <c r="M37" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>926.95</v>
+        <v>514.75</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2439,25 +2499,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C38">
+        <v>65</v>
+      </c>
+      <c r="D38">
         <v>55</v>
       </c>
-      <c r="D38">
-        <v>45</v>
-      </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>-0.05</v>
+        <v>-0.68</v>
       </c>
       <c r="G38">
-        <v>-1.84</v>
+        <v>-1.31</v>
       </c>
       <c r="H38">
-        <v>0.17</v>
+        <v>-1.17</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2466,19 +2526,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.4341363723308738</v>
+        <v>1.209972040098695</v>
       </c>
       <c r="L38">
-        <v>0.5343350021940143</v>
+        <v>1.87550964936124</v>
       </c>
       <c r="M38" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38">
-        <v>392.4</v>
+        <v>1569.2</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2486,25 +2546,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>-0.05</v>
+        <v>2.9</v>
       </c>
       <c r="G39">
-        <v>-0.41</v>
+        <v>3.52</v>
       </c>
       <c r="H39">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2513,19 +2573,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>3.558918866584599</v>
+        <v>0.04225387804660211</v>
       </c>
       <c r="L39">
-        <v>0.7135048219431285</v>
+        <v>0.3912985807136225</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>761.35</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2533,25 +2593,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F40">
-        <v>0.49</v>
+        <v>-0.06</v>
       </c>
       <c r="G40">
-        <v>-0.15</v>
+        <v>0.79</v>
       </c>
       <c r="H40">
-        <v>-4.05</v>
+        <v>0.05</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2560,19 +2620,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.7673628134157453</v>
+        <v>1.431909643496245</v>
       </c>
       <c r="L40">
-        <v>0.7383411032523688</v>
+        <v>0.6952871747984374</v>
       </c>
       <c r="M40" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>126.18</v>
+        <v>2891.2</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2580,25 +2640,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F41">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G41">
-        <v>-0.47</v>
+        <v>1.16</v>
       </c>
       <c r="H41">
-        <v>1.43</v>
+        <v>0.34</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2607,19 +2667,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.1860150503086159</v>
+        <v>1.712609762167217</v>
       </c>
       <c r="L41">
-        <v>0.1918158567774936</v>
+        <v>1.257101105123756</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O41">
-        <v>6481.5</v>
+        <v>1217.3</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2627,46 +2687,46 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>0.86</v>
+      </c>
+      <c r="G42">
+        <v>0.06</v>
+      </c>
+      <c r="H42">
+        <v>-6.31</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>50</v>
-      </c>
-      <c r="F42">
-        <v>0.24</v>
-      </c>
-      <c r="G42">
-        <v>-0.17</v>
-      </c>
-      <c r="H42">
-        <v>-0.14</v>
-      </c>
-      <c r="I42">
-        <v>50</v>
-      </c>
-      <c r="J42">
-        <v>0.5</v>
-      </c>
-      <c r="K42">
-        <v>1.332250916031933</v>
-      </c>
       <c r="L42">
-        <v>0.9803351738835611</v>
+        <v>0.02062770093959177</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>1200</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2674,25 +2734,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C43">
         <v>50</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>0.33</v>
+        <v>-0.93</v>
       </c>
       <c r="G43">
-        <v>-0.59</v>
+        <v>-0.75</v>
       </c>
       <c r="H43">
-        <v>-0.37</v>
+        <v>-0.58</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2701,19 +2761,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>3.845043803707235</v>
+        <v>0.173876290547463</v>
       </c>
       <c r="L43">
-        <v>1.910931174089069</v>
+        <v>0.3052344047770296</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>492.5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2721,25 +2781,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>-0.16</v>
+        <v>2.55</v>
       </c>
       <c r="G44">
-        <v>-2</v>
+        <v>3.75</v>
       </c>
       <c r="H44">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2748,19 +2808,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>2.721069426330074</v>
+        <v>0.1660224807863329</v>
       </c>
       <c r="L44">
-        <v>1.635167627131843</v>
+        <v>0.2851508895125298</v>
       </c>
       <c r="M44" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>76.29000000000001</v>
+        <v>319.35</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2768,25 +2828,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F45">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="G45">
-        <v>-1.05</v>
+        <v>0.85</v>
       </c>
       <c r="H45">
-        <v>-1.37</v>
+        <v>-0.4</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2795,19 +2855,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0.6530144636975622</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.3557691294405278</v>
+        <v>0.1624492346141831</v>
       </c>
       <c r="M45" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>671.85</v>
+        <v>6580.5</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2815,25 +2875,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F46">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="G46">
-        <v>-1.59</v>
+        <v>0.22</v>
       </c>
       <c r="H46">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2842,19 +2902,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.5444245538418545</v>
+        <v>0.8878049067862898</v>
       </c>
       <c r="L46">
-        <v>0.5860893377319133</v>
+        <v>0.5290698797041843</v>
       </c>
       <c r="M46" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O46">
-        <v>562.35</v>
+        <v>1063.1</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2862,25 +2922,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F47">
-        <v>-0.2</v>
+        <v>-0.06</v>
       </c>
       <c r="G47">
-        <v>-1.55</v>
+        <v>0.46</v>
       </c>
       <c r="H47">
-        <v>0.14</v>
+        <v>0.64</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2889,19 +2949,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.5188110858214021</v>
+        <v>0.4785889490141833</v>
       </c>
       <c r="L47">
-        <v>0.3548372327274392</v>
+        <v>0.329619312906221</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>345.5</v>
+        <v>448.55</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2909,25 +2969,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C48">
         <v>40</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>1.29</v>
+        <v>0.1</v>
       </c>
       <c r="G48">
-        <v>2.56</v>
+        <v>0.03</v>
       </c>
       <c r="H48">
-        <v>-2.38</v>
+        <v>0.36</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -2936,19 +2996,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>2.019003812867015</v>
+        <v>0.1401350450423718</v>
       </c>
       <c r="L48">
-        <v>0.8245995649594621</v>
+        <v>0.6401521514453533</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>800.1</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2956,7 +3016,7 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C49">
         <v>40</v>
@@ -2968,13 +3028,13 @@
         <v>20</v>
       </c>
       <c r="F49">
-        <v>-0.62</v>
+        <v>-0.4</v>
       </c>
       <c r="G49">
-        <v>-0.3</v>
+        <v>-0.24</v>
       </c>
       <c r="H49">
-        <v>-0.49</v>
+        <v>1.1</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -2983,19 +3043,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>1.021813619387931</v>
+        <v>0.3048247742937667</v>
       </c>
       <c r="L49">
-        <v>0.4252579995431799</v>
+        <v>0.225267235813186</v>
       </c>
       <c r="M49" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49">
-        <v>421.9</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3003,25 +3063,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>-0</v>
+        <v>1.16</v>
       </c>
       <c r="G50">
-        <v>-2.09</v>
+        <v>3.24</v>
       </c>
       <c r="H50">
-        <v>1.17</v>
+        <v>-1.14</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3030,19 +3090,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>1.005222680283161</v>
+        <v>0.4397089848747399</v>
       </c>
       <c r="L50">
-        <v>0.5885710343270383</v>
+        <v>0.7504078303425775</v>
       </c>
       <c r="M50" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>214.09</v>
+        <v>1850.3</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3050,25 +3110,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F51">
-        <v>-0.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G51">
-        <v>-1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H51">
-        <v>-0.63</v>
+        <v>-0.34</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3077,19 +3137,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>1.1297109172082</v>
+        <v>0.06651574858164919</v>
       </c>
       <c r="L51">
-        <v>0.8243414788955886</v>
+        <v>0.08001748281137055</v>
       </c>
       <c r="M51" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51">
-        <v>116.98</v>
+        <v>1013.8</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3097,25 +3157,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F52">
-        <v>-0.16</v>
+        <v>0.68</v>
       </c>
       <c r="G52">
-        <v>-1.13</v>
+        <v>1.99</v>
       </c>
       <c r="H52">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3124,19 +3184,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>1.370952449920219</v>
+        <v>0.8865084495336573</v>
       </c>
       <c r="L52">
-        <v>0.7293244191869194</v>
+        <v>0.6672458731537794</v>
       </c>
       <c r="M52" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O52">
-        <v>19.32</v>
+        <v>695.6</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3144,25 +3204,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="G53">
-        <v>-1.51</v>
+        <v>1.62</v>
       </c>
       <c r="H53">
-        <v>-0.36</v>
+        <v>2.38</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3171,19 +3231,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>1.555443437313352</v>
+        <v>0.5399105134804202</v>
       </c>
       <c r="L53">
-        <v>0.9904374207918891</v>
+        <v>0.3887534672606539</v>
       </c>
       <c r="M53" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>2792.8</v>
+        <v>301.3</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3191,25 +3251,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
         <v>30</v>
       </c>
-      <c r="D54">
-        <v>20</v>
-      </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="F54">
-        <v>0.02</v>
+        <v>-0.64</v>
       </c>
       <c r="G54">
-        <v>-0.92</v>
+        <v>0.51</v>
       </c>
       <c r="H54">
-        <v>-1.08</v>
+        <v>-0.75</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3218,19 +3278,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.3673859442901862</v>
+        <v>4.621321216357625</v>
       </c>
       <c r="L54">
-        <v>0.5391139106872647</v>
+        <v>1.519965235864999</v>
       </c>
       <c r="M54" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N54">
         <v>1</v>
       </c>
       <c r="O54">
-        <v>2490</v>
+        <v>264.1</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3238,25 +3298,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
         <v>30</v>
       </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="F55">
-        <v>0.1</v>
+        <v>0.93</v>
       </c>
       <c r="G55">
-        <v>0.34</v>
+        <v>1.55</v>
       </c>
       <c r="H55">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3265,19 +3325,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.2958405777718289</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.4971829297530568</v>
+        <v>3.678572747756067</v>
       </c>
       <c r="M55" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
       <c r="O55">
-        <v>3060</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3285,25 +3345,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D56">
         <v>20</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F56">
-        <v>-0.33</v>
+        <v>0.82</v>
       </c>
       <c r="G56">
-        <v>-0.8100000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="H56">
-        <v>-1.8</v>
+        <v>0.12</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3312,19 +3372,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.4104254370220586</v>
+        <v>0.09911839226734753</v>
       </c>
       <c r="L56">
-        <v>0.4933831990794016</v>
+        <v>0.545712410829576</v>
       </c>
       <c r="M56" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>448.05</v>
+        <v>351.3</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3332,25 +3392,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="G57">
-        <v>0.19</v>
+        <v>2.21</v>
       </c>
       <c r="H57">
-        <v>-1.95</v>
+        <v>0.04</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3359,19 +3419,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0.1509698516471552</v>
+        <v>1.605351170568626</v>
       </c>
       <c r="L57">
-        <v>0.3834052827979805</v>
+        <v>0.720360180090045</v>
       </c>
       <c r="M57" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>1601</v>
+        <v>1122.9</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3379,25 +3439,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D58">
         <v>20</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>0.14</v>
+        <v>-0.49</v>
       </c>
       <c r="G58">
-        <v>-0.41</v>
+        <v>0.65</v>
       </c>
       <c r="H58">
-        <v>-0.23</v>
+        <v>-0.47</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3406,19 +3466,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.2069331318254266</v>
+        <v>0.3131875002894905</v>
       </c>
       <c r="L58">
-        <v>0.3024690309096161</v>
+        <v>0.1670745522626841</v>
       </c>
       <c r="M58" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>404.5</v>
+        <v>653.7</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3426,7 +3486,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C59">
         <v>30</v>
@@ -3438,13 +3498,13 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>-0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="G59">
-        <v>-0.61</v>
+        <v>0.5</v>
       </c>
       <c r="H59">
-        <v>-0.53</v>
+        <v>-0.49</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3453,19 +3513,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0.3519957139030364</v>
+        <v>0.2935655170920881</v>
       </c>
       <c r="L59">
-        <v>0.1643067909227928</v>
+        <v>0.8536264495784295</v>
       </c>
       <c r="M59" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59">
-        <v>2873.3</v>
+        <v>3057.1</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3473,7 +3533,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C60">
         <v>30</v>
@@ -3485,13 +3545,13 @@
         <v>10</v>
       </c>
       <c r="F60">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="G60">
-        <v>-0.01</v>
+        <v>2.35</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>-0.24</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3500,19 +3560,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0.4738881662133602</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.2164253977354164</v>
+        <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60">
-        <v>105.97</v>
+        <v>776.4</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3520,25 +3580,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="F61">
-        <v>-0.34</v>
+        <v>-0.23</v>
       </c>
       <c r="G61">
-        <v>-0.84</v>
+        <v>0.53</v>
       </c>
       <c r="H61">
-        <v>0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3547,19 +3607,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>6.280918742804904</v>
+        <v>0.09608295054280593</v>
       </c>
       <c r="L61">
-        <v>2.020872515396246</v>
+        <v>0.2412728014453057</v>
       </c>
       <c r="M61" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>370</v>
+        <v>3918.2</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3567,25 +3627,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="F62">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="G62">
-        <v>-0.41</v>
+        <v>0.93</v>
       </c>
       <c r="H62">
-        <v>0.21</v>
+        <v>-0.58</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3594,19 +3654,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>3.130784734426399</v>
+        <v>0.101697244554413</v>
       </c>
       <c r="L62">
-        <v>2.264880207749183</v>
+        <v>0.5855665752268411</v>
       </c>
       <c r="M62" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N62">
         <v>1</v>
       </c>
       <c r="O62">
-        <v>1124.9</v>
+        <v>1232.3</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3614,25 +3674,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="F63">
-        <v>0.43</v>
+        <v>0.11</v>
       </c>
       <c r="G63">
-        <v>-0.35</v>
+        <v>0.72</v>
       </c>
       <c r="H63">
-        <v>0.54</v>
+        <v>-0.02</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3641,19 +3701,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>1.531246139581314</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1.647592778947969</v>
+        <v>0.2986275812873055</v>
       </c>
       <c r="M63" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>1063</v>
+        <v>659.45</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3661,25 +3721,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0.98</v>
+        <v>0.26</v>
       </c>
       <c r="G64">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="H64">
-        <v>4.75</v>
+        <v>0.41</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3688,19 +3748,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.7808630129891528</v>
+        <v>0.3577230452772057</v>
       </c>
       <c r="L64">
-        <v>0.6128830519074422</v>
+        <v>0.5405891169940011</v>
       </c>
       <c r="M64" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64">
-        <v>3779</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3708,25 +3768,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="F65">
-        <v>0.03</v>
+        <v>0.46</v>
       </c>
       <c r="G65">
-        <v>-0.45</v>
+        <v>2.14</v>
       </c>
       <c r="H65">
-        <v>0.29</v>
+        <v>-1.31</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3735,19 +3795,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.5651950033724723</v>
+        <v>0.3239486591349323</v>
       </c>
       <c r="L65">
-        <v>0.5369155581109688</v>
+        <v>0.7417275003996376</v>
       </c>
       <c r="M65" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>658.2</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3755,25 +3815,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>10</v>
       </c>
       <c r="F66">
-        <v>0.63</v>
+        <v>0.13</v>
       </c>
       <c r="G66">
-        <v>-0.19</v>
+        <v>0.66</v>
       </c>
       <c r="H66">
-        <v>-0.8100000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3782,19 +3842,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.63323119926894</v>
+        <v>0.06474156430607809</v>
       </c>
       <c r="L66">
-        <v>0.3375527426160337</v>
+        <v>0.1519853879176276</v>
       </c>
       <c r="M66" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
       <c r="O66">
-        <v>358.95</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3802,25 +3862,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67">
-        <v>-0.16</v>
+        <v>0.13</v>
       </c>
       <c r="G67">
-        <v>-0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H67">
-        <v>-1.23</v>
+        <v>1.32</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3829,19 +3889,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>2.422765073537603</v>
+        <v>0.2185688445410247</v>
       </c>
       <c r="L67">
-        <v>2.826793843485801</v>
+        <v>0.5080738857364159</v>
       </c>
       <c r="M67" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
       <c r="O67">
-        <v>761</v>
+        <v>78.51000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3849,25 +3909,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D68">
         <v>10</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G68">
-        <v>-0.64</v>
+        <v>1.81</v>
       </c>
       <c r="H68">
-        <v>0.58</v>
+        <v>1.76</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3876,19 +3936,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>1.883487605126035</v>
+        <v>2.789491940047832</v>
       </c>
       <c r="L68">
-        <v>1.686736981978241</v>
+        <v>1.55454687744561</v>
       </c>
       <c r="M68" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>8080</v>
+        <v>594.7</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3896,25 +3956,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69">
-        <v>0.87</v>
+        <v>0.15</v>
       </c>
       <c r="G69">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H69">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -3923,19 +3983,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>2.040517772428078</v>
+        <v>0.0301156224792011</v>
       </c>
       <c r="L69">
-        <v>0.3677108814014046</v>
+        <v>0.1739326857917325</v>
       </c>
       <c r="M69" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N69">
         <v>1</v>
       </c>
       <c r="O69">
-        <v>1239.8</v>
+        <v>592.7</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3943,25 +4003,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="F70">
-        <v>0.01</v>
+        <v>1.19</v>
       </c>
       <c r="G70">
-        <v>-0.55</v>
+        <v>3.36</v>
       </c>
       <c r="H70">
-        <v>0.02</v>
+        <v>0.51</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -3970,19 +4030,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.8174765601328179</v>
+        <v>0.2705625037490669</v>
       </c>
       <c r="L70">
-        <v>0.3697451801202189</v>
+        <v>0.412496075193786</v>
       </c>
       <c r="M70" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
       <c r="O70">
-        <v>239.75</v>
+        <v>512.75</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3990,25 +4050,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71">
-        <v>0.02</v>
+        <v>-0.29</v>
       </c>
       <c r="G71">
-        <v>-0.84</v>
+        <v>0.43</v>
       </c>
       <c r="H71">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4017,19 +4077,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>1.951025241067881</v>
+        <v>0.3088592208640861</v>
       </c>
       <c r="L71">
-        <v>1.144048112295504</v>
+        <v>0.527090129853515</v>
       </c>
       <c r="M71" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N71">
         <v>1</v>
       </c>
       <c r="O71">
-        <v>590</v>
+        <v>3061.1</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4037,25 +4097,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G72">
-        <v>-0.64</v>
+        <v>0.22</v>
       </c>
       <c r="H72">
-        <v>-1.15</v>
+        <v>0.58</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4064,19 +4124,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>2.752700213877442</v>
+        <v>0.03865617903263848</v>
       </c>
       <c r="L72">
-        <v>0.5912739495798319</v>
+        <v>0.2746657687092165</v>
       </c>
       <c r="M72" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>3085</v>
+        <v>1156.4</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4084,25 +4144,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="F73">
-        <v>0.04</v>
+        <v>0.73</v>
       </c>
       <c r="G73">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="H73">
-        <v>-0.06</v>
+        <v>1.24</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4111,19 +4171,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>1.031487273571205</v>
+        <v>0.05498661230053823</v>
       </c>
       <c r="L73">
-        <v>1.018764122212398</v>
+        <v>0.8404585378643322</v>
       </c>
       <c r="M73" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>265.3</v>
+        <v>366.35</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4131,25 +4191,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>10</v>
       </c>
       <c r="F74">
-        <v>0.16</v>
+        <v>-0.1</v>
       </c>
       <c r="G74">
-        <v>-0.42</v>
+        <v>0.84</v>
       </c>
       <c r="H74">
-        <v>1.66</v>
+        <v>0.77</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4158,19 +4218,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>1.582300688840052</v>
+        <v>0.2093935958447135</v>
       </c>
       <c r="L74">
-        <v>0.515002885170225</v>
+        <v>0.3716695675458562</v>
       </c>
       <c r="M74" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>8630</v>
+        <v>811.85</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4178,25 +4238,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="F75">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G75">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H75">
-        <v>1.68</v>
+        <v>0.16</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4205,19 +4265,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>2.607473067859364</v>
+        <v>0.3326166354983356</v>
       </c>
       <c r="L75">
-        <v>0.6619413754851435</v>
+        <v>0.2021604007000181</v>
       </c>
       <c r="M75" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
       <c r="O75">
-        <v>484.4</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4225,25 +4285,25 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="F76">
-        <v>-0.18</v>
+        <v>-0.14</v>
       </c>
       <c r="G76">
-        <v>-0.8100000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4252,19 +4312,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>1.330851740770643</v>
+        <v>0.7897840223728791</v>
       </c>
       <c r="L76">
-        <v>0.4604333844258107</v>
+        <v>5.602740817464745</v>
       </c>
       <c r="M76" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
       <c r="O76">
-        <v>73.29000000000001</v>
+        <v>404.5</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4272,25 +4332,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>10</v>
       </c>
       <c r="F77">
-        <v>0.32</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G77">
-        <v>-0.21</v>
+        <v>0.95</v>
       </c>
       <c r="H77">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4299,19 +4359,959 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>1.598415456124874</v>
+        <v>0.4507377749108817</v>
       </c>
       <c r="L77">
-        <v>0.5276848755109624</v>
+        <v>0.5557771572929131</v>
       </c>
       <c r="M77" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
       <c r="O77">
-        <v>892.1</v>
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>0.27</v>
+      </c>
+      <c r="G78">
+        <v>0.58</v>
+      </c>
+      <c r="H78">
+        <v>-0.31</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <v>0.5</v>
+      </c>
+      <c r="K78">
+        <v>0.1170092624340565</v>
+      </c>
+      <c r="L78">
+        <v>0.3201634558158498</v>
+      </c>
+      <c r="M78" t="s">
+        <v>123</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>216.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>-0.42</v>
+      </c>
+      <c r="G79">
+        <v>0.88</v>
+      </c>
+      <c r="H79">
+        <v>-0.13</v>
+      </c>
+      <c r="I79">
+        <v>50</v>
+      </c>
+      <c r="J79">
+        <v>0.5</v>
+      </c>
+      <c r="K79">
+        <v>0.6695731740136609</v>
+      </c>
+      <c r="L79">
+        <v>0.4696998300925052</v>
+      </c>
+      <c r="M79" t="s">
+        <v>122</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <v>425.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>0.12</v>
+      </c>
+      <c r="G80">
+        <v>2.14</v>
+      </c>
+      <c r="H80">
+        <v>0.13</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="J80">
+        <v>0.5</v>
+      </c>
+      <c r="K80">
+        <v>0.1131419345456017</v>
+      </c>
+      <c r="L80">
+        <v>0.3899802545292074</v>
+      </c>
+      <c r="M80" t="s">
+        <v>123</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>156.63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>0.12</v>
+      </c>
+      <c r="G81">
+        <v>0.24</v>
+      </c>
+      <c r="H81">
+        <v>-0.78</v>
+      </c>
+      <c r="I81">
+        <v>50</v>
+      </c>
+      <c r="J81">
+        <v>0.5</v>
+      </c>
+      <c r="K81">
+        <v>0.1145839351396839</v>
+      </c>
+      <c r="L81">
+        <v>0.4528502930207778</v>
+      </c>
+      <c r="M81" t="s">
+        <v>123</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>3182.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>0.19</v>
+      </c>
+      <c r="G82">
+        <v>0.03</v>
+      </c>
+      <c r="H82">
+        <v>0.19</v>
+      </c>
+      <c r="I82">
+        <v>50</v>
+      </c>
+      <c r="J82">
+        <v>0.5</v>
+      </c>
+      <c r="K82">
+        <v>1.874909534717857</v>
+      </c>
+      <c r="L82">
+        <v>0.8439041578576463</v>
+      </c>
+      <c r="M82" t="s">
+        <v>122</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>2213.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>0.03</v>
+      </c>
+      <c r="G83">
+        <v>0.84</v>
+      </c>
+      <c r="H83">
+        <v>-0.79</v>
+      </c>
+      <c r="I83">
+        <v>50</v>
+      </c>
+      <c r="J83">
+        <v>0.5</v>
+      </c>
+      <c r="K83">
+        <v>4.855891673159376</v>
+      </c>
+      <c r="L83">
+        <v>2.534909442831467</v>
+      </c>
+      <c r="M83" t="s">
+        <v>122</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>-0.17</v>
+      </c>
+      <c r="G84">
+        <v>-0.3</v>
+      </c>
+      <c r="H84">
+        <v>-1.29</v>
+      </c>
+      <c r="I84">
+        <v>50</v>
+      </c>
+      <c r="J84">
+        <v>0.5</v>
+      </c>
+      <c r="K84">
+        <v>0.7559886083908895</v>
+      </c>
+      <c r="L84">
+        <v>0.5630302510926386</v>
+      </c>
+      <c r="M84" t="s">
+        <v>122</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>352.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>0.38</v>
+      </c>
+      <c r="G85">
+        <v>1.18</v>
+      </c>
+      <c r="H85">
+        <v>0.39</v>
+      </c>
+      <c r="I85">
+        <v>50</v>
+      </c>
+      <c r="J85">
+        <v>0.5</v>
+      </c>
+      <c r="K85">
+        <v>0.5946417326704669</v>
+      </c>
+      <c r="L85">
+        <v>0.5622176398457255</v>
+      </c>
+      <c r="M85" t="s">
+        <v>122</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>109.68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>-0.04</v>
+      </c>
+      <c r="G86">
+        <v>0.01</v>
+      </c>
+      <c r="H86">
+        <v>-0.35</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+      <c r="K86">
+        <v>1.549142234207294</v>
+      </c>
+      <c r="L86">
+        <v>1.561686621551275</v>
+      </c>
+      <c r="M86" t="s">
+        <v>122</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G87">
+        <v>2.55</v>
+      </c>
+      <c r="H87">
+        <v>1.79</v>
+      </c>
+      <c r="I87">
+        <v>50</v>
+      </c>
+      <c r="J87">
+        <v>0.5</v>
+      </c>
+      <c r="K87">
+        <v>1.109814802918606</v>
+      </c>
+      <c r="L87">
+        <v>1.583269773134434</v>
+      </c>
+      <c r="M87" t="s">
+        <v>122</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>642.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>1.05</v>
+      </c>
+      <c r="G88">
+        <v>2.85</v>
+      </c>
+      <c r="H88">
+        <v>0.6</v>
+      </c>
+      <c r="I88">
+        <v>50</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
+      </c>
+      <c r="K88">
+        <v>4.913794971955388</v>
+      </c>
+      <c r="L88">
+        <v>1.35502766026684</v>
+      </c>
+      <c r="M88" t="s">
+        <v>122</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G89">
+        <v>0.33</v>
+      </c>
+      <c r="H89">
+        <v>0.79</v>
+      </c>
+      <c r="I89">
+        <v>50</v>
+      </c>
+      <c r="J89">
+        <v>0.5</v>
+      </c>
+      <c r="K89">
+        <v>0.9172116850719569</v>
+      </c>
+      <c r="L89">
+        <v>0.902250644637282</v>
+      </c>
+      <c r="M89" t="s">
+        <v>122</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>0.1</v>
+      </c>
+      <c r="G90">
+        <v>0.38</v>
+      </c>
+      <c r="H90">
+        <v>0.27</v>
+      </c>
+      <c r="I90">
+        <v>50</v>
+      </c>
+      <c r="J90">
+        <v>0.5</v>
+      </c>
+      <c r="K90">
+        <v>1.132588541231239</v>
+      </c>
+      <c r="L90">
+        <v>0.9782125389061805</v>
+      </c>
+      <c r="M90" t="s">
+        <v>122</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>0.66</v>
+      </c>
+      <c r="G91">
+        <v>0.03</v>
+      </c>
+      <c r="H91">
+        <v>0.06</v>
+      </c>
+      <c r="I91">
+        <v>50</v>
+      </c>
+      <c r="J91">
+        <v>0.5</v>
+      </c>
+      <c r="K91">
+        <v>1.029362295160832</v>
+      </c>
+      <c r="L91">
+        <v>0.644346178142767</v>
+      </c>
+      <c r="M91" t="s">
+        <v>122</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>357.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>0.49</v>
+      </c>
+      <c r="G92">
+        <v>1.16</v>
+      </c>
+      <c r="H92">
+        <v>0.13</v>
+      </c>
+      <c r="I92">
+        <v>50</v>
+      </c>
+      <c r="J92">
+        <v>0.5</v>
+      </c>
+      <c r="K92">
+        <v>1.873046265491139</v>
+      </c>
+      <c r="L92">
+        <v>1.092629104070053</v>
+      </c>
+      <c r="M92" t="s">
+        <v>122</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>400.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>0.04</v>
+      </c>
+      <c r="G93">
+        <v>0.67</v>
+      </c>
+      <c r="H93">
+        <v>0.64</v>
+      </c>
+      <c r="I93">
+        <v>50</v>
+      </c>
+      <c r="J93">
+        <v>0.5</v>
+      </c>
+      <c r="K93">
+        <v>3.688931619558149</v>
+      </c>
+      <c r="L93">
+        <v>0.8682553468678753</v>
+      </c>
+      <c r="M93" t="s">
+        <v>122</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1423.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>0.96</v>
+      </c>
+      <c r="G94">
+        <v>1.6</v>
+      </c>
+      <c r="H94">
+        <v>0.45</v>
+      </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="J94">
+        <v>0.5</v>
+      </c>
+      <c r="K94">
+        <v>1.024941382040624</v>
+      </c>
+      <c r="L94">
+        <v>1.081171938835065</v>
+      </c>
+      <c r="M94" t="s">
+        <v>122</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>579.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>-0.16</v>
+      </c>
+      <c r="G95">
+        <v>0.2</v>
+      </c>
+      <c r="H95">
+        <v>0.43</v>
+      </c>
+      <c r="I95">
+        <v>50</v>
+      </c>
+      <c r="J95">
+        <v>0.5</v>
+      </c>
+      <c r="K95">
+        <v>2.230022691197414</v>
+      </c>
+      <c r="L95">
+        <v>1.25843142441476</v>
+      </c>
+      <c r="M95" t="s">
+        <v>122</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>371.55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>-0.31</v>
+      </c>
+      <c r="G96">
+        <v>0.02</v>
+      </c>
+      <c r="H96">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I96">
+        <v>50</v>
+      </c>
+      <c r="J96">
+        <v>0.5</v>
+      </c>
+      <c r="K96">
+        <v>1.105714206813598</v>
+      </c>
+      <c r="L96">
+        <v>0.7062600321027288</v>
+      </c>
+      <c r="M96" t="s">
+        <v>122</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>942.65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>-0.05</v>
+      </c>
+      <c r="G97">
+        <v>0.25</v>
+      </c>
+      <c r="H97">
+        <v>0.26</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>0.9528492226310167</v>
+      </c>
+      <c r="L97">
+        <v>0.7309142931460528</v>
+      </c>
+      <c r="M97" t="s">
+        <v>122</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>8662</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="166">
   <si>
     <t>ticker</t>
   </si>
@@ -61,292 +61,409 @@
     <t>close</t>
   </si>
   <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>JISLJALEQS</t>
+  </si>
+  <si>
+    <t>BHARATFORG</t>
+  </si>
+  <si>
+    <t>PATELENG</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>RADIANTCMS</t>
+  </si>
+  <si>
     <t>SAPPHIRE</t>
   </si>
   <si>
-    <t>RADIANTCMS</t>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>SMSPHARMA</t>
+  </si>
+  <si>
+    <t>BSE</t>
   </si>
   <si>
     <t>AVG</t>
   </si>
   <si>
-    <t>DMART</t>
+    <t>APOLLO</t>
+  </si>
+  <si>
+    <t>POLYPLEX</t>
+  </si>
+  <si>
+    <t>APLAPOLLO</t>
   </si>
   <si>
     <t>KANSAINER</t>
   </si>
   <si>
-    <t>APLAPOLLO</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>ABB</t>
+    <t>SAFARI</t>
+  </si>
+  <si>
+    <t>POLICYBZR</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>FINCABLES</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>BANKINDIA</t>
+  </si>
+  <si>
+    <t>TRIVENI</t>
+  </si>
+  <si>
+    <t>SPARC</t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>KPITTECH</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>MUNJALAU</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>DEEPAKFERT</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>GMRAIRPORT</t>
+  </si>
+  <si>
+    <t>IRCON</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>VAIBHAVGBL</t>
+  </si>
+  <si>
+    <t>WESTLIFE</t>
+  </si>
+  <si>
+    <t>JWL</t>
   </si>
   <si>
     <t>HDFCLIFE</t>
   </si>
   <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>SAFARI</t>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>SIGACHI</t>
+  </si>
+  <si>
+    <t>NBCC</t>
+  </si>
+  <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>CROMPTON</t>
+  </si>
+  <si>
+    <t>ICICIGI</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>ELECON</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>IEX</t>
   </si>
   <si>
     <t>MAZDOCK</t>
   </si>
   <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
-    <t>BANKINDIA</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>POLICYBZR</t>
-  </si>
-  <si>
-    <t>JISLJALEQS</t>
-  </si>
-  <si>
-    <t>PATELENG</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>BHARATFORG</t>
-  </si>
-  <si>
-    <t>ZFCVINDIA</t>
-  </si>
-  <si>
-    <t>VAIBHAVGBL</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>IRFC</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
-  </si>
-  <si>
-    <t>SMSPHARMA</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>VISHNU</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>KPITTECH</t>
-  </si>
-  <si>
-    <t>FIVESTAR</t>
+    <t>AVANTIFEED</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>CSBBANK</t>
   </si>
   <si>
     <t>MVGJL</t>
   </si>
   <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>ECLERX</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>ATGL</t>
+  </si>
+  <si>
+    <t>INDHOTEL</t>
+  </si>
+  <si>
     <t>PNCINFRA</t>
   </si>
   <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>ONGC</t>
+    <t>TEJASNET</t>
+  </si>
+  <si>
+    <t>COFORGE</t>
+  </si>
+  <si>
+    <t>THANGAMAYL</t>
+  </si>
+  <si>
+    <t>WELCORP</t>
+  </si>
+  <si>
+    <t>DOMS</t>
   </si>
   <si>
     <t>GLAXO</t>
   </si>
   <si>
-    <t>THANGAMAYL</t>
+    <t>COLPAL</t>
   </si>
   <si>
     <t>BRIGADE</t>
   </si>
   <si>
-    <t>AVANTIFEED</t>
-  </si>
-  <si>
-    <t>QUESS</t>
+    <t>BBTC</t>
+  </si>
+  <si>
+    <t>ADANIENSOL</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>CIEINDIA</t>
+  </si>
+  <si>
+    <t>IFCI</t>
+  </si>
+  <si>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>CGPOWER</t>
+  </si>
+  <si>
+    <t>GICRE</t>
+  </si>
+  <si>
+    <t>INDIACEM</t>
+  </si>
+  <si>
+    <t>OFSS</t>
+  </si>
+  <si>
+    <t>AETHER</t>
+  </si>
+  <si>
+    <t>ANANTRAJ</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>GRSE</t>
+  </si>
+  <si>
+    <t>HUDCO</t>
   </si>
   <si>
     <t>HONASA</t>
   </si>
   <si>
+    <t>CONCOR</t>
+  </si>
+  <si>
+    <t>BHEL</t>
+  </si>
+  <si>
+    <t>ABFRL</t>
+  </si>
+  <si>
+    <t>STARHEALTH</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
     <t>NIITLTD</t>
   </si>
   <si>
-    <t>JWL</t>
-  </si>
-  <si>
-    <t>POLYPLEX</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>AETHER</t>
-  </si>
-  <si>
-    <t>KEI</t>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>FACT</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>ASTRAL</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
   </si>
   <si>
     <t>CYIENT</t>
   </si>
   <si>
-    <t>CGPOWER</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>GRSE</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>TEJASNET</t>
-  </si>
-  <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>ZENSARTECH</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
-  </si>
-  <si>
-    <t>CIEINDIA</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>HUDCO</t>
-  </si>
-  <si>
-    <t>STARHEALTH</t>
-  </si>
-  <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>COLPAL</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>NBCC</t>
-  </si>
-  <si>
-    <t>CSBBANK</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>FINCABLES</t>
-  </si>
-  <si>
-    <t>ABFRL</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>ASTRAL</t>
-  </si>
-  <si>
-    <t>ANANTRAJ</t>
-  </si>
-  <si>
-    <t>GICRE</t>
-  </si>
-  <si>
-    <t>FACT</t>
-  </si>
-  <si>
-    <t>OFSS</t>
+    <t>NCC</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -355,40 +472,43 @@
     <t>Industrials</t>
   </si>
   <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Communication Services</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>Real Estate</t>
   </si>
   <si>
-    <t>Strong Short</t>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Weak Short</t>
   </si>
   <si>
     <t>No Signal</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Weak Short</t>
   </si>
   <si>
     <t>Short</t>
@@ -749,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,25 +927,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>-0.64</v>
+        <v>0.13</v>
       </c>
       <c r="G2">
-        <v>-1.39</v>
+        <v>-0.17</v>
       </c>
       <c r="H2">
-        <v>-2.18</v>
+        <v>-0.13</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -834,19 +954,19 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.3089050328978354</v>
+        <v>0.4735705771042437</v>
       </c>
       <c r="L2">
-        <v>0.8027475375842406</v>
+        <v>1.327237215909091</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>326.05</v>
+        <v>3361.1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -854,25 +974,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F3">
-        <v>1.2</v>
+        <v>0.46</v>
       </c>
       <c r="G3">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="H3">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -881,19 +1001,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>4.410585780923993</v>
+        <v>0.06776982695072432</v>
       </c>
       <c r="L3">
-        <v>1.60944316140621</v>
+        <v>0.2891700264145697</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O3">
-        <v>56.5</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -901,25 +1021,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G4">
-        <v>0.62</v>
+        <v>-0.54</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0.27</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -928,19 +1048,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.3544444004905258</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1273885350318471</v>
+        <v>0.03192848020434227</v>
       </c>
       <c r="M4" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O4">
-        <v>249.95</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -948,25 +1068,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C5">
+        <v>195</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
         <v>150</v>
       </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>130</v>
-      </c>
       <c r="F5">
-        <v>0.41</v>
+        <v>-0.49</v>
       </c>
       <c r="G5">
-        <v>1.34</v>
+        <v>-1.04</v>
       </c>
       <c r="H5">
-        <v>1.1</v>
+        <v>-0.48</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -975,19 +1095,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.08908912084772636</v>
+        <v>0.06114697489630849</v>
       </c>
       <c r="L5">
-        <v>0.1567352625315647</v>
+        <v>0.2051634613644998</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5">
-        <v>4005.8</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -995,25 +1115,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="F6">
-        <v>-0.14</v>
+        <v>-0.24</v>
       </c>
       <c r="G6">
-        <v>0.31</v>
+        <v>-0.26</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1022,19 +1142,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.07415465908840395</v>
+        <v>0.01889917783082127</v>
       </c>
       <c r="L6">
-        <v>0.3185199313370208</v>
+        <v>0.07969973587878226</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O6">
-        <v>242</v>
+        <v>38.19</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1042,25 +1162,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F7">
-        <v>0.07000000000000001</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G7">
-        <v>0.43</v>
+        <v>-0.15</v>
       </c>
       <c r="H7">
-        <v>0.72</v>
+        <v>0.37</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1072,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.002081432025233361</v>
+        <v>0.2554278416347382</v>
       </c>
       <c r="M7" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O7">
-        <v>1517</v>
+        <v>571.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1089,25 +1209,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F8">
-        <v>0.14</v>
+        <v>-0.05</v>
       </c>
       <c r="G8">
-        <v>0.62</v>
+        <v>-0.59</v>
       </c>
       <c r="H8">
-        <v>-0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1116,19 +1236,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.0682427492078896</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1238856843209229</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O8">
-        <v>3379</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1136,25 +1256,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>-0.43</v>
       </c>
       <c r="G9">
-        <v>1.25</v>
+        <v>-0.35</v>
       </c>
       <c r="H9">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1163,19 +1283,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.6105212355212355</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2156040725213698</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O9">
-        <v>5586</v>
+        <v>325.45</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1183,25 +1303,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C10">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F10">
-        <v>-0.52</v>
+        <v>1.24</v>
       </c>
       <c r="G10">
-        <v>-1.09</v>
+        <v>5.69</v>
       </c>
       <c r="H10">
-        <v>-0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1210,19 +1330,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.5757549978732337</v>
+        <v>0.05802113494018109</v>
       </c>
       <c r="L10">
-        <v>0.4717138938141916</v>
+        <v>0.2196389976050003</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O10">
-        <v>755.45</v>
+        <v>4246.4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1230,25 +1350,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>-0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="G11">
-        <v>0.48</v>
+        <v>-0.4</v>
       </c>
       <c r="H11">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1257,19 +1377,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.8489056092657097</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4243614868403484</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11">
-        <v>1064.6</v>
+        <v>237.35</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1277,25 +1397,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F12">
-        <v>-0.36</v>
+        <v>0.14</v>
       </c>
       <c r="G12">
-        <v>-0.27</v>
+        <v>-0.02</v>
       </c>
       <c r="H12">
-        <v>-0.44</v>
+        <v>-0.3</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1304,19 +1424,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>3.994928148774269</v>
+        <v>0.8677830464233075</v>
       </c>
       <c r="L12">
-        <v>1.391162029459902</v>
+        <v>0.9766394596115958</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O12">
-        <v>2047.7</v>
+        <v>2463.2</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1324,25 +1444,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C13">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F13">
-        <v>-0.57</v>
+        <v>-0.24</v>
       </c>
       <c r="G13">
-        <v>1.08</v>
+        <v>0.06</v>
       </c>
       <c r="H13">
-        <v>-4.64</v>
+        <v>1.51</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1351,19 +1471,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.06152344980862833</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1864213935058839</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O13">
-        <v>2716.5</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1371,25 +1491,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>0.17</v>
+        <v>-0.98</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>-2.1</v>
       </c>
       <c r="H14">
-        <v>-0.92</v>
+        <v>-1.23</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1398,19 +1518,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.002034830640779034</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04917926003126628</v>
+        <v>0.1735142477397871</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>1325.9</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1418,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C15">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
         <v>120</v>
       </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
       <c r="F15">
-        <v>-0.27</v>
+        <v>0.12</v>
       </c>
       <c r="G15">
-        <v>0.75</v>
+        <v>-0.76</v>
       </c>
       <c r="H15">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1445,19 +1565,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.07122044727621364</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3035290612544463</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O15">
-        <v>112.1</v>
+        <v>1107.3</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1465,25 +1585,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>-0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G16">
-        <v>0.24</v>
+        <v>0.65</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1492,19 +1612,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.1438106969948731</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4351595006934813</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O16">
-        <v>1195.7</v>
+        <v>1562.1</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1512,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C17">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>0.66</v>
+        <v>0.14</v>
       </c>
       <c r="G17">
         <v>0.61</v>
       </c>
       <c r="H17">
-        <v>-0.89</v>
+        <v>0.7</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1539,19 +1659,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>3.382807985745909</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.547678909584996</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O17">
-        <v>1791.9</v>
+        <v>245.85</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1559,25 +1679,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C18">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F18">
-        <v>0.23</v>
+        <v>-0.23</v>
       </c>
       <c r="G18">
-        <v>0.33</v>
+        <v>-0.7</v>
       </c>
       <c r="H18">
-        <v>0.15</v>
+        <v>-0.35</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1586,19 +1706,19 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>1.040765702487628</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9481564150702487</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O18">
-        <v>51.99</v>
+        <v>2028.4</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1606,25 +1726,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C19">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F19">
-        <v>-0.44</v>
+        <v>0.39</v>
       </c>
       <c r="G19">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="H19">
-        <v>-0.05</v>
+        <v>-0.39</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1633,19 +1753,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>6.073685168273659</v>
+        <v>0.0176857768035289</v>
       </c>
       <c r="L19">
-        <v>4.926122915288702</v>
+        <v>0.1241978886358932</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O19">
-        <v>38.28</v>
+        <v>1830.3</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1653,25 +1773,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C20">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F20">
-        <v>-0.06</v>
+        <v>-0.17</v>
       </c>
       <c r="G20">
-        <v>0.75</v>
+        <v>-0.03</v>
       </c>
       <c r="H20">
-        <v>0.68</v>
+        <v>0.09</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1680,19 +1800,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.3521538201501</v>
+        <v>0.1828845549559681</v>
       </c>
       <c r="L20">
-        <v>0.6441291539972208</v>
+        <v>0.2907924534952372</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O20">
-        <v>2485.5</v>
+        <v>1074.7</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1700,25 +1820,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C21">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>90</v>
       </c>
       <c r="F21">
-        <v>0.12</v>
+        <v>-0.45</v>
       </c>
       <c r="G21">
-        <v>0.64</v>
+        <v>-1.12</v>
       </c>
       <c r="H21">
-        <v>-1.13</v>
+        <v>0.74</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1727,19 +1847,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.3815727348936703</v>
+        <v>0.001285211884703632</v>
       </c>
       <c r="L21">
-        <v>0.2989164279486861</v>
+        <v>0.03610700804201543</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N21">
         <v>9</v>
       </c>
       <c r="O21">
-        <v>6675</v>
+        <v>893.95</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1747,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C22">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>0.41</v>
+        <v>-0.28</v>
       </c>
       <c r="G22">
-        <v>0.53</v>
+        <v>-1.06</v>
       </c>
       <c r="H22">
-        <v>-1.19</v>
+        <v>0.12</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1774,19 +1894,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>3.772482342335551</v>
+        <v>0.1446876106448742</v>
       </c>
       <c r="L22">
-        <v>2.524873545443096</v>
+        <v>0.172378411656064</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>519.45</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1794,25 +1914,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C23">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F23">
-        <v>-0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G23">
-        <v>0.07000000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="H23">
-        <v>2.79</v>
+        <v>0.14</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1821,19 +1941,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.2419288101267162</v>
+        <v>0.6714060031594895</v>
       </c>
       <c r="L23">
-        <v>0.278855200461319</v>
+        <v>0.6670372429127293</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>441.65</v>
+        <v>867.2</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1841,25 +1961,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C24">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>0.5600000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="G24">
-        <v>3.66</v>
+        <v>-0.05</v>
       </c>
       <c r="H24">
-        <v>-7.03</v>
+        <v>-0.75</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1868,19 +1988,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1848184818481783</v>
       </c>
       <c r="L24">
-        <v>0.2798996857974691</v>
+        <v>0.1953125</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="N24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O24">
-        <v>196.6</v>
+        <v>1950.2</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1888,25 +2008,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
         <v>100</v>
       </c>
-      <c r="D25">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>60</v>
-      </c>
       <c r="F25">
-        <v>-1.38</v>
+        <v>0.12</v>
       </c>
       <c r="G25">
-        <v>-0.12</v>
+        <v>0.76</v>
       </c>
       <c r="H25">
-        <v>-0.67</v>
+        <v>0.36</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1915,19 +2035,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.288517425702935</v>
+        <v>0.001314415143939022</v>
       </c>
       <c r="L25">
-        <v>0.4660564767690034</v>
+        <v>0.01099699546373937</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O25">
-        <v>859</v>
+        <v>523.05</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1935,25 +2055,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
         <v>100</v>
       </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>80</v>
-      </c>
       <c r="F26">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G26">
-        <v>2.05</v>
+        <v>0.11</v>
       </c>
       <c r="H26">
-        <v>0.71</v>
+        <v>1.52</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1962,19 +2082,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.1410134805516537</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.1365986394557823</v>
+        <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>1219</v>
+        <v>115.38</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1982,25 +2102,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F27">
-        <v>0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="G27">
-        <v>0.84</v>
+        <v>-0.64</v>
       </c>
       <c r="H27">
-        <v>-0.23</v>
+        <v>-5.88</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2009,19 +2129,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.04561653599429794</v>
+        <v>0.06906495740994431</v>
       </c>
       <c r="L27">
-        <v>0.1408450704225352</v>
+        <v>0.1035046304703105</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27">
-        <v>13241</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2029,25 +2149,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C28">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>0.63</v>
+        <v>-0.79</v>
       </c>
       <c r="G28">
-        <v>1.45</v>
+        <v>-0.59</v>
       </c>
       <c r="H28">
-        <v>-1.08</v>
+        <v>-0.55</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2056,19 +2176,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.210206641110742</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.3923516265209834</v>
+        <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>234.85</v>
+        <v>151.9</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2076,25 +2196,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F29">
-        <v>-0.03</v>
+        <v>-0.48</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H29">
-        <v>-0.8100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2103,19 +2223,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>7.733668916599932</v>
+        <v>0.5827300017659065</v>
       </c>
       <c r="L29">
-        <v>1.826039978390059</v>
+        <v>0.5774278215223098</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O29">
-        <v>30445</v>
+        <v>1350.1</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2123,25 +2243,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C30">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>70</v>
       </c>
       <c r="F30">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
       <c r="G30">
-        <v>2.06</v>
+        <v>-1.12</v>
       </c>
       <c r="H30">
-        <v>-0.34</v>
+        <v>-0.21</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2153,16 +2273,16 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.05410952514227073</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
       <c r="O30">
-        <v>2586</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2170,25 +2290,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>90</v>
       </c>
       <c r="F31">
-        <v>0.63</v>
+        <v>-0.05</v>
       </c>
       <c r="G31">
-        <v>2.17</v>
+        <v>0.47</v>
       </c>
       <c r="H31">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2197,19 +2317,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>1.223275509580671</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1.438416349358106</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N31">
         <v>9</v>
       </c>
       <c r="O31">
-        <v>489.05</v>
+        <v>13304</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2217,25 +2337,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>90</v>
       </c>
       <c r="F32">
-        <v>0.9</v>
+        <v>0.18</v>
       </c>
       <c r="G32">
-        <v>1.65</v>
+        <v>0.02</v>
       </c>
       <c r="H32">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2244,19 +2364,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>2.63816400116808</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1.034731869963879</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32">
-        <v>574.15</v>
+        <v>448.35</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2264,25 +2384,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C33">
+        <v>110</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
         <v>90</v>
       </c>
-      <c r="D33">
-        <v>20</v>
-      </c>
-      <c r="E33">
-        <v>70</v>
-      </c>
       <c r="F33">
-        <v>0.18</v>
+        <v>-0.28</v>
       </c>
       <c r="G33">
-        <v>0.76</v>
+        <v>0.01</v>
       </c>
       <c r="H33">
-        <v>0.76</v>
+        <v>0.43</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2291,19 +2411,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.1150468554530133</v>
+        <v>0.005767012687422407</v>
       </c>
       <c r="L33">
-        <v>0.2893784501330123</v>
+        <v>0.03719776813391196</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O33">
-        <v>132.34</v>
+        <v>1198.5</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2311,25 +2431,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F34">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="G34">
-        <v>1.22</v>
+        <v>-0.09</v>
       </c>
       <c r="H34">
-        <v>0.67</v>
+        <v>0.05</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2338,19 +2458,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.5720769212487844</v>
+        <v>0.1133576581784619</v>
       </c>
       <c r="L34">
-        <v>0.5670076110512045</v>
+        <v>0.2796258798572944</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O34">
-        <v>39.1</v>
+        <v>1214.2</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2358,25 +2478,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C35">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F35">
-        <v>-0.88</v>
+        <v>-0.4</v>
       </c>
       <c r="G35">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>-1.81</v>
+        <v>1.7</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2385,19 +2505,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>2.434892002394318</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0.8168822328114363</v>
+        <v>0.6954102920723227</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O35">
-        <v>236</v>
+        <v>300.7</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2405,25 +2525,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C36">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F36">
-        <v>-0.8100000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G36">
-        <v>-0.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H36">
-        <v>-0.68</v>
+        <v>-2.98</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2432,19 +2552,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>2.982451650329683</v>
+        <v>0.1850958869684918</v>
       </c>
       <c r="L36">
-        <v>1.739727595284422</v>
+        <v>0.4861104113978256</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>1974.9</v>
+        <v>669.45</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2452,25 +2572,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C37">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>0.85</v>
+        <v>-0.18</v>
       </c>
       <c r="G37">
-        <v>1.74</v>
+        <v>-0.61</v>
       </c>
       <c r="H37">
-        <v>-0.96</v>
+        <v>0.77</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2479,19 +2599,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>1.487569212716812</v>
+        <v>0.02585169827741171</v>
       </c>
       <c r="L37">
-        <v>1.683866448750876</v>
+        <v>0.1142340100661653</v>
       </c>
       <c r="M37" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O37">
-        <v>514.75</v>
+        <v>1033.6</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2499,25 +2619,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>-0.68</v>
+        <v>-0.03</v>
       </c>
       <c r="G38">
-        <v>-1.31</v>
+        <v>-0.17</v>
       </c>
       <c r="H38">
-        <v>-1.17</v>
+        <v>-0.22</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2526,19 +2646,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>1.209972040098695</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1.87550964936124</v>
+        <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O38">
-        <v>1569.2</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2546,25 +2666,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>2.9</v>
+        <v>0.25</v>
       </c>
       <c r="G39">
-        <v>3.52</v>
+        <v>0.52</v>
       </c>
       <c r="H39">
-        <v>-0.5</v>
+        <v>0.08</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2573,19 +2693,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.04225387804660211</v>
+        <v>0.3413400758533502</v>
       </c>
       <c r="L39">
-        <v>0.3912985807136225</v>
+        <v>0.3125</v>
       </c>
       <c r="M39" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O39">
-        <v>517</v>
+        <v>30680</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2593,25 +2713,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F40">
-        <v>-0.06</v>
+        <v>-0.44</v>
       </c>
       <c r="G40">
-        <v>0.79</v>
+        <v>-0.34</v>
       </c>
       <c r="H40">
-        <v>0.05</v>
+        <v>-0.41</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2620,19 +2740,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>1.431909643496245</v>
+        <v>2.386448463967684</v>
       </c>
       <c r="L40">
-        <v>0.6952871747984374</v>
+        <v>3.553351573187415</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O40">
-        <v>2891.2</v>
+        <v>489.9</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2640,25 +2760,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>60</v>
       </c>
       <c r="F41">
-        <v>0.35</v>
+        <v>-0.75</v>
       </c>
       <c r="G41">
-        <v>1.16</v>
+        <v>-0.73</v>
       </c>
       <c r="H41">
-        <v>0.34</v>
+        <v>3.3</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2667,19 +2787,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>1.712609762167217</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1.257101105123756</v>
+        <v>0.007448096080439438</v>
       </c>
       <c r="M41" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="N41">
         <v>6</v>
       </c>
       <c r="O41">
-        <v>1217.3</v>
+        <v>482.75</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2687,25 +2807,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>0.86</v>
+        <v>-0.93</v>
       </c>
       <c r="G42">
-        <v>0.06</v>
+        <v>-3.46</v>
       </c>
       <c r="H42">
-        <v>-6.31</v>
+        <v>-0.61</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2714,19 +2834,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.15534815098225</v>
       </c>
       <c r="L42">
-        <v>0.02062770093959177</v>
+        <v>0.455397474111176</v>
       </c>
       <c r="M42" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>651</v>
+        <v>1580.8</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2734,25 +2854,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F43">
-        <v>-0.93</v>
+        <v>1.8</v>
       </c>
       <c r="G43">
-        <v>-0.75</v>
+        <v>1.6</v>
       </c>
       <c r="H43">
-        <v>-0.58</v>
+        <v>-0.17</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2761,19 +2881,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.173876290547463</v>
+        <v>0.1112147540109834</v>
       </c>
       <c r="L43">
-        <v>0.3052344047770296</v>
+        <v>0.1492121043090225</v>
       </c>
       <c r="M43" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O43">
-        <v>208</v>
+        <v>1575.9</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2781,25 +2901,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F44">
-        <v>2.55</v>
+        <v>-0.11</v>
       </c>
       <c r="G44">
-        <v>3.75</v>
+        <v>0.47</v>
       </c>
       <c r="H44">
-        <v>2.37</v>
+        <v>-0.34</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2808,19 +2928,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.1660224807863329</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.2851508895125298</v>
+        <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O44">
-        <v>319.35</v>
+        <v>90.33</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2828,25 +2948,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F45">
-        <v>0.27</v>
+        <v>-0.04</v>
       </c>
       <c r="G45">
-        <v>0.85</v>
+        <v>-0.19</v>
       </c>
       <c r="H45">
-        <v>-0.4</v>
+        <v>-0.24</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2858,16 +2978,16 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.1624492346141831</v>
+        <v>0.03645367631886649</v>
       </c>
       <c r="M45" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O45">
-        <v>6580.5</v>
+        <v>180.18</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2875,25 +2995,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>-0.08</v>
+        <v>-0.13</v>
       </c>
       <c r="G46">
-        <v>0.22</v>
+        <v>-0.11</v>
       </c>
       <c r="H46">
-        <v>0.76</v>
+        <v>-0.64</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2902,19 +3022,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.8878049067862898</v>
+        <v>0.3828587000954312</v>
       </c>
       <c r="L46">
-        <v>0.5290698797041843</v>
+        <v>0.3052047080905643</v>
       </c>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O46">
-        <v>1063.1</v>
+        <v>380.55</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2922,25 +3042,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D47">
         <v>20</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F47">
-        <v>-0.06</v>
+        <v>0.39</v>
       </c>
       <c r="G47">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.64</v>
+        <v>0.19</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2949,19 +3069,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.4785889490141833</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.329619312906221</v>
+        <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>448.55</v>
+        <v>234.05</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2969,25 +3089,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D48">
         <v>20</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F48">
-        <v>0.1</v>
+        <v>-0.32</v>
       </c>
       <c r="G48">
-        <v>0.03</v>
+        <v>-0.42</v>
       </c>
       <c r="H48">
-        <v>0.36</v>
+        <v>-0.43</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -2996,19 +3116,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.1401350450423718</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.6401521514453533</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>241.52</v>
+        <v>754.6</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3016,25 +3136,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49">
         <v>40</v>
       </c>
-      <c r="D49">
-        <v>20</v>
-      </c>
       <c r="E49">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F49">
-        <v>-0.4</v>
+        <v>-0.61</v>
       </c>
       <c r="G49">
-        <v>-0.24</v>
+        <v>-0.1</v>
       </c>
       <c r="H49">
-        <v>1.1</v>
+        <v>-0.16</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3043,19 +3163,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.3048247742937667</v>
+        <v>0.03627788862686976</v>
       </c>
       <c r="L49">
-        <v>0.225267235813186</v>
+        <v>0.1528759793617428</v>
       </c>
       <c r="M49" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O49">
-        <v>3142</v>
+        <v>347.85</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3063,25 +3183,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F50">
-        <v>1.16</v>
+        <v>0.24</v>
       </c>
       <c r="G50">
-        <v>3.24</v>
+        <v>-0.43</v>
       </c>
       <c r="H50">
-        <v>-1.14</v>
+        <v>-0.25</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3090,19 +3210,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.4397089848747399</v>
+        <v>0.3595972366460196</v>
       </c>
       <c r="L50">
-        <v>0.7504078303425775</v>
+        <v>0.4553745518586074</v>
       </c>
       <c r="M50" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O50">
-        <v>1850.3</v>
+        <v>757.15</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3110,25 +3230,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D51">
         <v>20</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>0.8100000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="G51">
-        <v>1.82</v>
+        <v>0.49</v>
       </c>
       <c r="H51">
-        <v>-0.34</v>
+        <v>-0.32</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3137,19 +3257,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.06651574858164919</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.08001748281137055</v>
+        <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O51">
-        <v>1013.8</v>
+        <v>1009.6</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3157,25 +3277,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F52">
-        <v>0.68</v>
+        <v>-0.28</v>
       </c>
       <c r="G52">
-        <v>1.99</v>
+        <v>-0.58</v>
       </c>
       <c r="H52">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3184,19 +3304,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.8865084495336573</v>
+        <v>0.03015063256027828</v>
       </c>
       <c r="L52">
-        <v>0.6672458731537794</v>
+        <v>0.7666360012266176</v>
       </c>
       <c r="M52" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>695.6</v>
+        <v>509.95</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3204,25 +3324,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F53">
-        <v>0.77</v>
+        <v>0.02</v>
       </c>
       <c r="G53">
-        <v>1.62</v>
+        <v>0.33</v>
       </c>
       <c r="H53">
-        <v>2.38</v>
+        <v>-0.71</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3231,19 +3351,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0.5399105134804202</v>
+        <v>0.09206223884041723</v>
       </c>
       <c r="L53">
-        <v>0.3887534672606539</v>
+        <v>0.0992404412827389</v>
       </c>
       <c r="M53" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>301.3</v>
+        <v>46.19</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3251,25 +3371,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F54">
-        <v>-0.64</v>
+        <v>0.24</v>
       </c>
       <c r="G54">
-        <v>0.51</v>
+        <v>-0.93</v>
       </c>
       <c r="H54">
-        <v>-0.75</v>
+        <v>0.54</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3278,19 +3398,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>4.621321216357625</v>
+        <v>0.004178259754812129</v>
       </c>
       <c r="L54">
-        <v>1.519965235864999</v>
+        <v>0.004095690216885414</v>
       </c>
       <c r="M54" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O54">
-        <v>264.1</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3298,25 +3418,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F55">
-        <v>0.93</v>
+        <v>-0.19</v>
       </c>
       <c r="G55">
-        <v>1.55</v>
+        <v>0.09</v>
       </c>
       <c r="H55">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3325,19 +3445,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1.369952241158473</v>
       </c>
       <c r="L55">
-        <v>3.678572747756067</v>
+        <v>2.667447140627217</v>
       </c>
       <c r="M55" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O55">
-        <v>118.5</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3345,25 +3465,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <v>20</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>0.82</v>
+        <v>-0.12</v>
       </c>
       <c r="G56">
-        <v>2.11</v>
+        <v>-0.17</v>
       </c>
       <c r="H56">
-        <v>0.12</v>
+        <v>-0.06</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3372,19 +3492,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.09911839226734753</v>
+        <v>0.0762973994730253</v>
       </c>
       <c r="L56">
-        <v>0.545712410829576</v>
+        <v>0.1676483914816493</v>
       </c>
       <c r="M56" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>351.3</v>
+        <v>2881.1</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3392,25 +3512,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G57">
-        <v>2.21</v>
+        <v>-0.16</v>
       </c>
       <c r="H57">
-        <v>0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3419,19 +3539,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>1.605351170568626</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.720360180090045</v>
+        <v>0.06145400167974271</v>
       </c>
       <c r="M57" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O57">
-        <v>1122.9</v>
+        <v>36.79</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3439,25 +3559,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C58">
+        <v>80</v>
+      </c>
+      <c r="D58">
         <v>40</v>
       </c>
-      <c r="D58">
-        <v>20</v>
-      </c>
       <c r="E58">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F58">
-        <v>-0.49</v>
+        <v>-0.71</v>
       </c>
       <c r="G58">
-        <v>0.65</v>
+        <v>2.59</v>
       </c>
       <c r="H58">
-        <v>-0.47</v>
+        <v>0.71</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3466,19 +3586,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.3131875002894905</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.1670745522626841</v>
+        <v>0.01221747098350641</v>
       </c>
       <c r="M58" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O58">
-        <v>653.7</v>
+        <v>109.83</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3486,25 +3606,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F59">
-        <v>-0.02</v>
+        <v>-0.76</v>
       </c>
       <c r="G59">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H59">
-        <v>-0.49</v>
+        <v>6.19</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3513,19 +3633,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0.2935655170920881</v>
+        <v>0.3161440053408918</v>
       </c>
       <c r="L59">
-        <v>0.8536264495784295</v>
+        <v>0.3789707196335589</v>
       </c>
       <c r="M59" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>3057.1</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3533,25 +3653,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F60">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="G60">
-        <v>2.35</v>
+        <v>0.54</v>
       </c>
       <c r="H60">
-        <v>-0.24</v>
+        <v>0.38</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3563,16 +3683,16 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.01580194890703187</v>
       </c>
       <c r="M60" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O60">
-        <v>776.4</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3580,25 +3700,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D61">
         <v>20</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F61">
-        <v>-0.23</v>
+        <v>0.19</v>
       </c>
       <c r="G61">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="H61">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3607,19 +3727,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.09608295054280593</v>
+        <v>0.2737296720624993</v>
       </c>
       <c r="L61">
-        <v>0.2412728014453057</v>
+        <v>0.4621126844007347</v>
       </c>
       <c r="M61" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O61">
-        <v>3918.2</v>
+        <v>324.65</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3627,25 +3747,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D62">
         <v>20</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F62">
-        <v>-0.17</v>
+        <v>0.21</v>
       </c>
       <c r="G62">
-        <v>0.93</v>
+        <v>0.05</v>
       </c>
       <c r="H62">
-        <v>-0.58</v>
+        <v>-0.57</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3654,19 +3774,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0.101697244554413</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0.5855665752268411</v>
+        <v>0.0399750974802582</v>
       </c>
       <c r="M62" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>1232.3</v>
+        <v>1908.1</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3674,25 +3794,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="F63">
-        <v>0.11</v>
+        <v>-0.83</v>
       </c>
       <c r="G63">
-        <v>0.72</v>
+        <v>-2.86</v>
       </c>
       <c r="H63">
-        <v>-0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3701,19 +3821,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.3402007168898351</v>
       </c>
       <c r="L63">
-        <v>0.2986275812873055</v>
+        <v>0.7654231558614029</v>
       </c>
       <c r="M63" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>659.45</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3721,25 +3841,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F64">
-        <v>0.26</v>
+        <v>-0.08</v>
       </c>
       <c r="G64">
-        <v>0.31</v>
+        <v>-0.16</v>
       </c>
       <c r="H64">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3748,19 +3868,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.3577230452772057</v>
+        <v>1.137066160280669</v>
       </c>
       <c r="L64">
-        <v>0.5405891169940011</v>
+        <v>1.452525343953657</v>
       </c>
       <c r="M64" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>19.44</v>
+        <v>131.69</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3768,25 +3888,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F65">
-        <v>0.46</v>
+        <v>-0.04</v>
       </c>
       <c r="G65">
-        <v>2.14</v>
+        <v>0.22</v>
       </c>
       <c r="H65">
-        <v>-1.31</v>
+        <v>0.32</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3795,19 +3915,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.3239486591349323</v>
+        <v>0.03477472029026121</v>
       </c>
       <c r="L65">
-        <v>0.7417275003996376</v>
+        <v>0.1501648548950478</v>
       </c>
       <c r="M65" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>2504</v>
+        <v>1079.1</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3815,25 +3935,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D66">
         <v>20</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F66">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G66">
-        <v>0.66</v>
+        <v>-0.09</v>
       </c>
       <c r="H66">
-        <v>-0.02</v>
+        <v>0.6</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3842,19 +3962,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.06474156430607809</v>
+        <v>0.008861039906317281</v>
       </c>
       <c r="L66">
-        <v>0.1519853879176276</v>
+        <v>0.07133757961783439</v>
       </c>
       <c r="M66" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O66">
-        <v>126.2</v>
+        <v>581.2</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3862,25 +3982,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D67">
         <v>20</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F67">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="G67">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="H67">
-        <v>1.32</v>
+        <v>3.2</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3889,19 +4009,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.2185688445410247</v>
+        <v>0.004762645668976945</v>
       </c>
       <c r="L67">
-        <v>0.5080738857364159</v>
+        <v>0.02249513618677043</v>
       </c>
       <c r="M67" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O67">
-        <v>78.51000000000001</v>
+        <v>3658.5</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3909,25 +4029,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F68">
-        <v>0.65</v>
+        <v>0.28</v>
       </c>
       <c r="G68">
-        <v>1.81</v>
+        <v>0.33</v>
       </c>
       <c r="H68">
-        <v>1.76</v>
+        <v>-0.47</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3936,19 +4056,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>2.789491940047832</v>
+        <v>0.4131162308380771</v>
       </c>
       <c r="L68">
-        <v>1.55454687744561</v>
+        <v>0.6706784369825421</v>
       </c>
       <c r="M68" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O68">
-        <v>594.7</v>
+        <v>408.1</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3956,25 +4076,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69">
-        <v>0.15</v>
+        <v>-0.51</v>
       </c>
       <c r="G69">
-        <v>0.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H69">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -3983,19 +4103,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.0301156224792011</v>
+        <v>2.407261600035782</v>
       </c>
       <c r="L69">
-        <v>0.1739326857917325</v>
+        <v>1.721676954594754</v>
       </c>
       <c r="M69" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N69">
         <v>1</v>
       </c>
       <c r="O69">
-        <v>592.7</v>
+        <v>619.1</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4003,25 +4123,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>20</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F70">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="G70">
-        <v>3.36</v>
+        <v>2.6</v>
       </c>
       <c r="H70">
-        <v>0.51</v>
+        <v>-0.14</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4030,19 +4150,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.2705625037490669</v>
+        <v>0.0009299937361918878</v>
       </c>
       <c r="L70">
-        <v>0.412496075193786</v>
+        <v>0.009938517978400339</v>
       </c>
       <c r="M70" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O70">
-        <v>512.75</v>
+        <v>137.85</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4050,25 +4170,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F71">
-        <v>-0.29</v>
+        <v>-0.15</v>
       </c>
       <c r="G71">
-        <v>0.43</v>
+        <v>-0.02</v>
       </c>
       <c r="H71">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4077,19 +4197,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0.3088592208640861</v>
+        <v>2.112403390265861</v>
       </c>
       <c r="L71">
-        <v>0.527090129853515</v>
+        <v>2.338113259956252</v>
       </c>
       <c r="M71" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O71">
-        <v>3061.1</v>
+        <v>2719.5</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4097,25 +4217,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D72">
         <v>20</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F72">
-        <v>0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="G72">
-        <v>0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="H72">
-        <v>0.58</v>
+        <v>-0.12</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4124,19 +4244,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0.03865617903263848</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>0.2746657687092165</v>
+        <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>1156.4</v>
+        <v>687.95</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4144,25 +4264,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F73">
-        <v>0.73</v>
+        <v>-0.76</v>
       </c>
       <c r="G73">
-        <v>0.91</v>
+        <v>-0.83</v>
       </c>
       <c r="H73">
-        <v>1.24</v>
+        <v>-1.53</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4171,19 +4291,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.05498661230053823</v>
+        <v>0.1331278890601099</v>
       </c>
       <c r="L73">
-        <v>0.8404585378643322</v>
+        <v>0.3918367346938775</v>
       </c>
       <c r="M73" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>366.35</v>
+        <v>3430.9</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4191,25 +4311,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F74">
-        <v>-0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G74">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
       <c r="H74">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4218,19 +4338,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.2093935958447135</v>
+        <v>0.6940165834831091</v>
       </c>
       <c r="L74">
-        <v>0.3716695675458562</v>
+        <v>0.9431393396485117</v>
       </c>
       <c r="M74" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O74">
-        <v>811.85</v>
+        <v>242.85</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4238,25 +4358,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="F75">
-        <v>0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="G75">
-        <v>0.06</v>
+        <v>-1.01</v>
       </c>
       <c r="H75">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4265,19 +4385,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>0.3326166354983356</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>0.2021604007000181</v>
+        <v>0.5033979360684621</v>
       </c>
       <c r="M75" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
       <c r="O75">
-        <v>3720</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4285,25 +4405,25 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="F76">
-        <v>-0.14</v>
+        <v>-0.11</v>
       </c>
       <c r="G76">
-        <v>0.37</v>
+        <v>-2.04</v>
       </c>
       <c r="H76">
-        <v>-0.33</v>
+        <v>0.82</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4312,19 +4432,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.7897840223728791</v>
+        <v>0.2017563361494016</v>
       </c>
       <c r="L76">
-        <v>5.602740817464745</v>
+        <v>0.2523900573613767</v>
       </c>
       <c r="M76" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
       <c r="O76">
-        <v>404.5</v>
+        <v>206.84</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4332,25 +4452,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="E77">
         <v>30</v>
       </c>
-      <c r="D77">
-        <v>20</v>
-      </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
       <c r="F77">
-        <v>0.8100000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="G77">
-        <v>0.95</v>
+        <v>0.61</v>
       </c>
       <c r="H77">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4359,19 +4479,19 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0.4507377749108817</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0.5557771572929131</v>
+        <v>0.5660745656841695</v>
       </c>
       <c r="M77" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>4255</v>
+        <v>454.2</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4379,25 +4499,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>0.27</v>
+        <v>-0.14</v>
       </c>
       <c r="G78">
-        <v>0.58</v>
+        <v>-0.08</v>
       </c>
       <c r="H78">
-        <v>-0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4406,19 +4526,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.1170092624340565</v>
+        <v>0.5033679935191738</v>
       </c>
       <c r="L78">
-        <v>0.3201634558158498</v>
+        <v>0.7091636788126408</v>
       </c>
       <c r="M78" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O78">
-        <v>216.65</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4426,25 +4546,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
         <v>30</v>
       </c>
-      <c r="D79">
-        <v>10</v>
-      </c>
-      <c r="E79">
-        <v>20</v>
-      </c>
       <c r="F79">
-        <v>-0.42</v>
+        <v>0.46</v>
       </c>
       <c r="G79">
-        <v>0.88</v>
+        <v>2.79</v>
       </c>
       <c r="H79">
-        <v>-0.13</v>
+        <v>-0.68</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4453,19 +4573,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.6695731740136609</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.4696998300925052</v>
+        <v>0.0004571324084020936</v>
       </c>
       <c r="M79" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>425.95</v>
+        <v>381.05</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4473,25 +4593,25 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>0.12</v>
+        <v>-0.98</v>
       </c>
       <c r="G80">
-        <v>2.14</v>
+        <v>0.16</v>
       </c>
       <c r="H80">
-        <v>0.13</v>
+        <v>1.45</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4500,19 +4620,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0.1131419345456017</v>
+        <v>0.005137575400799864</v>
       </c>
       <c r="L80">
-        <v>0.3899802545292074</v>
+        <v>0.02257700370907918</v>
       </c>
       <c r="M80" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
       <c r="O80">
-        <v>156.63</v>
+        <v>3809.9</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4520,25 +4640,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
         <v>30</v>
       </c>
-      <c r="D81">
-        <v>20</v>
-      </c>
-      <c r="E81">
-        <v>10</v>
-      </c>
       <c r="F81">
-        <v>0.12</v>
+        <v>0.7</v>
       </c>
       <c r="G81">
-        <v>0.24</v>
+        <v>1.48</v>
       </c>
       <c r="H81">
-        <v>-0.78</v>
+        <v>-0.41</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4547,19 +4667,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.1145839351396839</v>
+        <v>0.2334740476745248</v>
       </c>
       <c r="L81">
-        <v>0.4528502930207778</v>
+        <v>0.5104114609361986</v>
       </c>
       <c r="M81" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>3182.9</v>
+        <v>659.7</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4567,25 +4687,25 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F82">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G82">
-        <v>0.03</v>
+        <v>0.6</v>
       </c>
       <c r="H82">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4594,19 +4714,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>1.874909534717857</v>
+        <v>0.1635919454171538</v>
       </c>
       <c r="L82">
-        <v>0.8439041578576463</v>
+        <v>0.3661862095831711</v>
       </c>
       <c r="M82" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>2213.6</v>
+        <v>4541.5</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4614,25 +4734,25 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F83">
-        <v>0.03</v>
+        <v>-0.09</v>
       </c>
       <c r="G83">
-        <v>0.84</v>
+        <v>-0.08</v>
       </c>
       <c r="H83">
-        <v>-0.79</v>
+        <v>0.43</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4641,19 +4761,19 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>4.855891673159376</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>2.534909442831467</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="M83" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83">
-        <v>106.3</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4661,25 +4781,25 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F84">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="G84">
-        <v>-0.3</v>
+        <v>0.37</v>
       </c>
       <c r="H84">
-        <v>-1.29</v>
+        <v>-0.15</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4688,19 +4808,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0.7559886083908895</v>
+        <v>0.005672775405370761</v>
       </c>
       <c r="L84">
-        <v>0.5630302510926386</v>
+        <v>0.01385201431374813</v>
       </c>
       <c r="M84" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84">
-        <v>352.5</v>
+        <v>631.2</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4708,25 +4828,25 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F85">
-        <v>0.38</v>
+        <v>-0.05</v>
       </c>
       <c r="G85">
-        <v>1.18</v>
+        <v>-0.59</v>
       </c>
       <c r="H85">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4735,19 +4855,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0.5946417326704669</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>0.5622176398457255</v>
+        <v>0.02133791939362092</v>
       </c>
       <c r="M85" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>109.68</v>
+        <v>748.05</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4755,25 +4875,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F86">
-        <v>-0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="G86">
-        <v>0.01</v>
+        <v>-0.08</v>
       </c>
       <c r="H86">
-        <v>-0.35</v>
+        <v>-0.91</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4782,19 +4902,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>1.549142234207294</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>1.561686621551275</v>
+        <v>0.01693480101608806</v>
       </c>
       <c r="M86" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>421.2</v>
+        <v>316.25</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4802,25 +4922,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F87">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>2.55</v>
+        <v>-0.08</v>
       </c>
       <c r="H87">
-        <v>1.79</v>
+        <v>-0.25</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4829,19 +4949,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>1.109814802918606</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>1.583269773134434</v>
+        <v>0.00887705281846427</v>
       </c>
       <c r="M87" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O87">
-        <v>642.4</v>
+        <v>591.5</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4849,25 +4969,25 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>1.05</v>
+        <v>0.58</v>
       </c>
       <c r="G88">
-        <v>2.85</v>
+        <v>0.44</v>
       </c>
       <c r="H88">
-        <v>0.6</v>
+        <v>0.23</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4876,19 +4996,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>4.913794971955388</v>
+        <v>0.2679488432982228</v>
       </c>
       <c r="L88">
-        <v>1.35502766026684</v>
+        <v>0.6088129248892191</v>
       </c>
       <c r="M88" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O88">
-        <v>912</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4896,25 +5016,25 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>-0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G89">
-        <v>0.33</v>
+        <v>-0.28</v>
       </c>
       <c r="H89">
-        <v>0.79</v>
+        <v>-0.24</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4923,19 +5043,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0.9172116850719569</v>
+        <v>0.01755412521941021</v>
       </c>
       <c r="L89">
-        <v>0.902250644637282</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="M89" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O89">
-        <v>75.36</v>
+        <v>1854.7</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4943,25 +5063,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="G90">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="H90">
-        <v>0.27</v>
+        <v>-0.19</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -4970,19 +5090,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>1.132588541231239</v>
+        <v>0.2790978976877694</v>
       </c>
       <c r="L90">
-        <v>0.9782125389061805</v>
+        <v>0.4774245565537894</v>
       </c>
       <c r="M90" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90">
-        <v>8140</v>
+        <v>934.9</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4990,25 +5110,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F91">
-        <v>0.66</v>
+        <v>0.21</v>
       </c>
       <c r="G91">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="H91">
-        <v>0.06</v>
+        <v>-1.16</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5017,19 +5137,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>1.029362295160832</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0.644346178142767</v>
+        <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>357.15</v>
+        <v>2345.8</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5037,25 +5157,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F92">
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="G92">
-        <v>1.16</v>
+        <v>0.37</v>
       </c>
       <c r="H92">
-        <v>0.13</v>
+        <v>0.72</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5064,19 +5184,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>1.873046265491139</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>1.092629104070053</v>
+        <v>0.03446790176647997</v>
       </c>
       <c r="M92" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>400.95</v>
+        <v>3186.5</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5084,25 +5204,25 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F93">
-        <v>0.04</v>
+        <v>0.47</v>
       </c>
       <c r="G93">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="H93">
-        <v>0.64</v>
+        <v>-0.15</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5111,19 +5231,19 @@
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>3.688931619558149</v>
+        <v>0.1226614570743322</v>
       </c>
       <c r="L93">
-        <v>0.8682553468678753</v>
+        <v>0.4267225209453545</v>
       </c>
       <c r="M93" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>1423.2</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5131,25 +5251,25 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F94">
-        <v>0.96</v>
+        <v>0.08</v>
       </c>
       <c r="G94">
-        <v>1.6</v>
+        <v>0.01</v>
       </c>
       <c r="H94">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5158,19 +5278,19 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>1.024941382040624</v>
+        <v>0.04317841079460306</v>
       </c>
       <c r="L94">
-        <v>1.081171938835065</v>
+        <v>0.0936768149882904</v>
       </c>
       <c r="M94" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>579.75</v>
+        <v>1000.4</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5178,25 +5298,25 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F95">
-        <v>-0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>-0.41</v>
       </c>
       <c r="H95">
-        <v>0.43</v>
+        <v>-0.02</v>
       </c>
       <c r="I95">
         <v>50</v>
@@ -5205,19 +5325,19 @@
         <v>0.5</v>
       </c>
       <c r="K95">
-        <v>2.230022691197414</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>1.25843142441476</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="M95" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>371.55</v>
+        <v>1944.4</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5225,25 +5345,25 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F96">
-        <v>-0.31</v>
+        <v>0.5</v>
       </c>
       <c r="G96">
-        <v>0.02</v>
+        <v>0.48</v>
       </c>
       <c r="H96">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5252,19 +5372,19 @@
         <v>0.5</v>
       </c>
       <c r="K96">
-        <v>1.105714206813598</v>
+        <v>0.3374708713786519</v>
       </c>
       <c r="L96">
-        <v>0.7062600321027288</v>
+        <v>0.6331981246378339</v>
       </c>
       <c r="M96" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>942.65</v>
+        <v>830.95</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5272,46 +5392,1879 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+      <c r="F97">
+        <v>0.13</v>
+      </c>
+      <c r="G97">
+        <v>0.9</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>1.055464194947161</v>
+      </c>
+      <c r="L97">
+        <v>3.040482342807924</v>
+      </c>
+      <c r="M97" t="s">
+        <v>164</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>459.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
         <v>111</v>
       </c>
-      <c r="C97">
+      <c r="B98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
         <v>10</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
+      <c r="F98">
+        <v>-0</v>
+      </c>
+      <c r="G98">
+        <v>-0.09</v>
+      </c>
+      <c r="H98">
+        <v>0.14</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>0.3763640091571149</v>
+      </c>
+      <c r="L98">
+        <v>0.4475301738406893</v>
+      </c>
+      <c r="M98" t="s">
+        <v>162</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>3057.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99">
+        <v>30</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
         <v>10</v>
       </c>
-      <c r="F97">
+      <c r="F99">
+        <v>-0.37</v>
+      </c>
+      <c r="G99">
+        <v>0.01</v>
+      </c>
+      <c r="H99">
+        <v>0.34</v>
+      </c>
+      <c r="I99">
+        <v>50</v>
+      </c>
+      <c r="J99">
+        <v>0.5</v>
+      </c>
+      <c r="K99">
+        <v>0.05869946009836164</v>
+      </c>
+      <c r="L99">
+        <v>0.2300425055811449</v>
+      </c>
+      <c r="M99" t="s">
+        <v>162</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>124.67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>-0.15</v>
+      </c>
+      <c r="G100">
+        <v>-0.16</v>
+      </c>
+      <c r="H100">
+        <v>0.67</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>0.5</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0.04024144869215292</v>
+      </c>
+      <c r="M100" t="s">
+        <v>162</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>407.35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>-0.2</v>
+      </c>
+      <c r="G101">
+        <v>-0.41</v>
+      </c>
+      <c r="H101">
+        <v>0.15</v>
+      </c>
+      <c r="I101">
+        <v>50</v>
+      </c>
+      <c r="J101">
+        <v>0.5</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0.3651545212215636</v>
+      </c>
+      <c r="M101" t="s">
+        <v>162</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>0.05</v>
+      </c>
+      <c r="G102">
+        <v>1.65</v>
+      </c>
+      <c r="H102">
+        <v>-0.62</v>
+      </c>
+      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="J102">
+        <v>0.5</v>
+      </c>
+      <c r="K102">
+        <v>0.0008623198559923066</v>
+      </c>
+      <c r="L102">
+        <v>0.002164619297581038</v>
+      </c>
+      <c r="M102" t="s">
+        <v>162</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>810.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>0.41</v>
+      </c>
+      <c r="G103">
+        <v>0.89</v>
+      </c>
+      <c r="H103">
+        <v>0.49</v>
+      </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>162</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>3213.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104">
+        <v>30</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>0.35</v>
+      </c>
+      <c r="G104">
+        <v>0.12</v>
+      </c>
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+      <c r="I104">
+        <v>50</v>
+      </c>
+      <c r="J104">
+        <v>0.5</v>
+      </c>
+      <c r="K104">
+        <v>0.01792998692440344</v>
+      </c>
+      <c r="L104">
+        <v>0.1899823706315462</v>
+      </c>
+      <c r="M104" t="s">
+        <v>162</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>665.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <v>0.05</v>
+      </c>
+      <c r="G105">
+        <v>-0.83</v>
+      </c>
+      <c r="H105">
+        <v>1.52</v>
+      </c>
+      <c r="I105">
+        <v>50</v>
+      </c>
+      <c r="J105">
+        <v>0.5</v>
+      </c>
+      <c r="K105">
+        <v>1.732190646583366</v>
+      </c>
+      <c r="L105">
+        <v>1.928286666822092</v>
+      </c>
+      <c r="M105" t="s">
+        <v>164</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105">
+        <v>376.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>0.16</v>
+      </c>
+      <c r="G106">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H106">
+        <v>-0.21</v>
+      </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>0.5</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>162</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>367.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G107">
+        <v>0.24</v>
+      </c>
+      <c r="H107">
         <v>-0.05</v>
       </c>
-      <c r="G97">
+      <c r="I107">
+        <v>50</v>
+      </c>
+      <c r="J107">
+        <v>0.5</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>162</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>-0.14</v>
+      </c>
+      <c r="G108">
+        <v>-0.33</v>
+      </c>
+      <c r="H108">
+        <v>0.77</v>
+      </c>
+      <c r="I108">
+        <v>50</v>
+      </c>
+      <c r="J108">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>162</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>-0.28</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>-0.14</v>
+      </c>
+      <c r="I109">
+        <v>50</v>
+      </c>
+      <c r="J109">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>0.2447625742049098</v>
+      </c>
+      <c r="L109">
+        <v>0.4483339815895242</v>
+      </c>
+      <c r="M109" t="s">
+        <v>162</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>580.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>1.07</v>
+      </c>
+      <c r="G110">
+        <v>0.77</v>
+      </c>
+      <c r="H110">
+        <v>0.43</v>
+      </c>
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <v>0.5</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>162</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>359.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>-0.06</v>
+      </c>
+      <c r="G111">
+        <v>-0.11</v>
+      </c>
+      <c r="H111">
+        <v>0.09</v>
+      </c>
+      <c r="I111">
+        <v>50</v>
+      </c>
+      <c r="J111">
+        <v>0.5</v>
+      </c>
+      <c r="K111">
+        <v>0.2060683203850328</v>
+      </c>
+      <c r="L111">
+        <v>0.2202472952086553</v>
+      </c>
+      <c r="M111" t="s">
+        <v>162</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>400.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112">
+        <v>30</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>-0.09</v>
+      </c>
+      <c r="G112">
+        <v>-0.53</v>
+      </c>
+      <c r="H112">
+        <v>1.26</v>
+      </c>
+      <c r="I112">
+        <v>50</v>
+      </c>
+      <c r="J112">
+        <v>0.5</v>
+      </c>
+      <c r="K112">
+        <v>0.06200486810888753</v>
+      </c>
+      <c r="L112">
+        <v>0.5321018502771273</v>
+      </c>
+      <c r="M112" t="s">
+        <v>162</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>519.95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113">
+        <v>30</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>-0.17</v>
+      </c>
+      <c r="G113">
+        <v>0.19</v>
+      </c>
+      <c r="H113">
+        <v>0.15</v>
+      </c>
+      <c r="I113">
+        <v>50</v>
+      </c>
+      <c r="J113">
+        <v>0.5</v>
+      </c>
+      <c r="K113">
+        <v>0.328682817903688</v>
+      </c>
+      <c r="L113">
+        <v>0.6170336037079954</v>
+      </c>
+      <c r="M113" t="s">
+        <v>162</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>3882.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>0.43</v>
+      </c>
+      <c r="G114">
+        <v>0.21</v>
+      </c>
+      <c r="H114">
+        <v>0.62</v>
+      </c>
+      <c r="I114">
+        <v>50</v>
+      </c>
+      <c r="J114">
+        <v>0.5</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>162</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>360.15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>-0.52</v>
+      </c>
+      <c r="G115">
+        <v>1.04</v>
+      </c>
+      <c r="H115">
+        <v>1.14</v>
+      </c>
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <v>0.5</v>
+      </c>
+      <c r="K115">
+        <v>0.9786471007513879</v>
+      </c>
+      <c r="L115">
+        <v>1.020610057708162</v>
+      </c>
+      <c r="M115" t="s">
+        <v>162</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>2546.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116">
+        <v>30</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>0.04</v>
+      </c>
+      <c r="G116">
+        <v>0.93</v>
+      </c>
+      <c r="H116">
+        <v>0.14</v>
+      </c>
+      <c r="I116">
+        <v>50</v>
+      </c>
+      <c r="J116">
+        <v>0.5</v>
+      </c>
+      <c r="K116">
+        <v>0.06550783309915129</v>
+      </c>
+      <c r="L116">
+        <v>0.0581875734618115</v>
+      </c>
+      <c r="M116" t="s">
+        <v>162</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>217.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>0.83</v>
+      </c>
+      <c r="G117">
+        <v>0.6</v>
+      </c>
+      <c r="H117">
+        <v>0.11</v>
+      </c>
+      <c r="I117">
+        <v>50</v>
+      </c>
+      <c r="J117">
+        <v>0.5</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>266.35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>0.21</v>
+      </c>
+      <c r="G118">
+        <v>0.15</v>
+      </c>
+      <c r="H118">
+        <v>0.19</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <v>0.5</v>
+      </c>
+      <c r="K118">
+        <v>0.007485525584662493</v>
+      </c>
+      <c r="L118">
+        <v>0.01595287765369984</v>
+      </c>
+      <c r="M118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>595.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>0.19</v>
+      </c>
+      <c r="G119">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H119">
         <v>0.25</v>
       </c>
-      <c r="H97">
+      <c r="I119">
+        <v>50</v>
+      </c>
+      <c r="J119">
+        <v>0.5</v>
+      </c>
+      <c r="K119">
+        <v>0.1438167869557414</v>
+      </c>
+      <c r="L119">
+        <v>0.1803316050367501</v>
+      </c>
+      <c r="M119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>241.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>0.04</v>
+      </c>
+      <c r="G120">
+        <v>-0.66</v>
+      </c>
+      <c r="H120">
+        <v>-0.15</v>
+      </c>
+      <c r="I120">
+        <v>50</v>
+      </c>
+      <c r="J120">
+        <v>0.5</v>
+      </c>
+      <c r="K120">
+        <v>0.03517893688809621</v>
+      </c>
+      <c r="L120">
+        <v>0.1389192258966406</v>
+      </c>
+      <c r="M120" t="s">
+        <v>162</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>74.70999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>0.61</v>
+      </c>
+      <c r="G121">
+        <v>1.59</v>
+      </c>
+      <c r="H121">
+        <v>-0.55</v>
+      </c>
+      <c r="I121">
+        <v>50</v>
+      </c>
+      <c r="J121">
+        <v>0.5</v>
+      </c>
+      <c r="K121">
+        <v>0.6610211652228178</v>
+      </c>
+      <c r="L121">
+        <v>0.9581653677326883</v>
+      </c>
+      <c r="M121" t="s">
+        <v>164</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
+        <v>445.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" t="s">
+        <v>152</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>-0.38</v>
+      </c>
+      <c r="G122">
+        <v>-0.68</v>
+      </c>
+      <c r="H122">
+        <v>-0.57</v>
+      </c>
+      <c r="I122">
+        <v>50</v>
+      </c>
+      <c r="J122">
+        <v>0.5</v>
+      </c>
+      <c r="K122">
+        <v>0.0004296732335059187</v>
+      </c>
+      <c r="L122">
+        <v>0.006142506142506143</v>
+      </c>
+      <c r="M122" t="s">
+        <v>162</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>8059.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>0.09</v>
+      </c>
+      <c r="G123">
+        <v>-0.39</v>
+      </c>
+      <c r="H123">
+        <v>-0.04</v>
+      </c>
+      <c r="I123">
+        <v>50</v>
+      </c>
+      <c r="J123">
+        <v>0.5</v>
+      </c>
+      <c r="K123">
+        <v>0.01818662177354755</v>
+      </c>
+      <c r="L123">
+        <v>0.3815416344418665</v>
+      </c>
+      <c r="M123" t="s">
+        <v>162</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>637.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>0.09</v>
+      </c>
+      <c r="G124">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H124">
+        <v>-0.24</v>
+      </c>
+      <c r="I124">
+        <v>50</v>
+      </c>
+      <c r="J124">
+        <v>0.5</v>
+      </c>
+      <c r="K124">
+        <v>0.08024317560130045</v>
+      </c>
+      <c r="L124">
+        <v>0.2098775064367637</v>
+      </c>
+      <c r="M124" t="s">
+        <v>162</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>1456.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125">
+        <v>30</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>-0.47</v>
+      </c>
+      <c r="G125">
+        <v>-0.83</v>
+      </c>
+      <c r="H125">
+        <v>-0.12</v>
+      </c>
+      <c r="I125">
+        <v>50</v>
+      </c>
+      <c r="J125">
+        <v>0.5</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>162</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+      <c r="D126">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>0.17</v>
+      </c>
+      <c r="G126">
+        <v>1.19</v>
+      </c>
+      <c r="H126">
+        <v>0.44</v>
+      </c>
+      <c r="I126">
+        <v>50</v>
+      </c>
+      <c r="J126">
+        <v>0.5</v>
+      </c>
+      <c r="K126">
+        <v>0.03627329335595716</v>
+      </c>
+      <c r="L126">
+        <v>0.1140395337050177</v>
+      </c>
+      <c r="M126" t="s">
+        <v>162</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>4319.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+      <c r="D127">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>-0.1</v>
+      </c>
+      <c r="G127">
+        <v>-0.41</v>
+      </c>
+      <c r="H127">
         <v>0.26</v>
       </c>
-      <c r="I97">
-        <v>50</v>
-      </c>
-      <c r="J97">
-        <v>0.5</v>
-      </c>
-      <c r="K97">
-        <v>0.9528492226310167</v>
-      </c>
-      <c r="L97">
-        <v>0.7309142931460528</v>
-      </c>
-      <c r="M97" t="s">
-        <v>122</v>
-      </c>
-      <c r="N97">
+      <c r="I127">
+        <v>50</v>
+      </c>
+      <c r="J127">
+        <v>0.5</v>
+      </c>
+      <c r="K127">
+        <v>0.4562234681844125</v>
+      </c>
+      <c r="L127">
+        <v>0.4961814206897891</v>
+      </c>
+      <c r="M127" t="s">
+        <v>162</v>
+      </c>
+      <c r="N127">
         <v>1</v>
       </c>
-      <c r="O97">
-        <v>8662</v>
+      <c r="O127">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128">
+        <v>30</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>-0.1</v>
+      </c>
+      <c r="G128">
+        <v>-0.28</v>
+      </c>
+      <c r="H128">
+        <v>-0.14</v>
+      </c>
+      <c r="I128">
+        <v>50</v>
+      </c>
+      <c r="J128">
+        <v>0.5</v>
+      </c>
+      <c r="K128">
+        <v>0.1188768934335066</v>
+      </c>
+      <c r="L128">
+        <v>0.1694858854195552</v>
+      </c>
+      <c r="M128" t="s">
+        <v>162</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>77.54000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129">
+        <v>30</v>
+      </c>
+      <c r="D129">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>0.45</v>
+      </c>
+      <c r="G129">
+        <v>0.11</v>
+      </c>
+      <c r="H129">
+        <v>0.72</v>
+      </c>
+      <c r="I129">
+        <v>50</v>
+      </c>
+      <c r="J129">
+        <v>0.5</v>
+      </c>
+      <c r="K129">
+        <v>0.2265968469099232</v>
+      </c>
+      <c r="L129">
+        <v>0.3784385434886309</v>
+      </c>
+      <c r="M129" t="s">
+        <v>162</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>967.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130">
+        <v>30</v>
+      </c>
+      <c r="D130">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>-0.02</v>
+      </c>
+      <c r="G130">
+        <v>0.76</v>
+      </c>
+      <c r="H130">
+        <v>-0.26</v>
+      </c>
+      <c r="I130">
+        <v>50</v>
+      </c>
+      <c r="J130">
+        <v>0.5</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0.09060706735125339</v>
+      </c>
+      <c r="M130" t="s">
+        <v>162</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131">
+        <v>30</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>-0.38</v>
+      </c>
+      <c r="G131">
+        <v>0.31</v>
+      </c>
+      <c r="H131">
+        <v>-0.31</v>
+      </c>
+      <c r="I131">
+        <v>50</v>
+      </c>
+      <c r="J131">
+        <v>0.5</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0.0856338028169014</v>
+      </c>
+      <c r="M131" t="s">
+        <v>162</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>368.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>0.14</v>
+      </c>
+      <c r="G132">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H132">
+        <v>0.25</v>
+      </c>
+      <c r="I132">
+        <v>50</v>
+      </c>
+      <c r="J132">
+        <v>0.5</v>
+      </c>
+      <c r="K132">
+        <v>3.013561801551689</v>
+      </c>
+      <c r="L132">
+        <v>2.696242224849638</v>
+      </c>
+      <c r="M132" t="s">
+        <v>164</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>1426.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133">
+        <v>20</v>
+      </c>
+      <c r="D133">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>-0.26</v>
+      </c>
+      <c r="G133">
+        <v>0.1</v>
+      </c>
+      <c r="H133">
+        <v>-0.04</v>
+      </c>
+      <c r="I133">
+        <v>50</v>
+      </c>
+      <c r="J133">
+        <v>0.5</v>
+      </c>
+      <c r="K133">
+        <v>5.509923280713442</v>
+      </c>
+      <c r="L133">
+        <v>3.657194372969216</v>
+      </c>
+      <c r="M133" t="s">
+        <v>164</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>155.15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" t="s">
+        <v>154</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>0.1</v>
+      </c>
+      <c r="G134">
+        <v>-0.11</v>
+      </c>
+      <c r="H134">
+        <v>-0.28</v>
+      </c>
+      <c r="I134">
+        <v>50</v>
+      </c>
+      <c r="J134">
+        <v>0.5</v>
+      </c>
+      <c r="K134">
+        <v>0.5715743812196128</v>
+      </c>
+      <c r="L134">
+        <v>0.2983881710403623</v>
+      </c>
+      <c r="M134" t="s">
+        <v>164</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>1158.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>0.15</v>
+      </c>
+      <c r="G135">
+        <v>0.15</v>
+      </c>
+      <c r="H135">
+        <v>-0.54</v>
+      </c>
+      <c r="I135">
+        <v>50</v>
+      </c>
+      <c r="J135">
+        <v>0.5</v>
+      </c>
+      <c r="K135">
+        <v>1.03550203802231</v>
+      </c>
+      <c r="L135">
+        <v>1.204847629132839</v>
+      </c>
+      <c r="M135" t="s">
+        <v>164</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>1228.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>0.26</v>
+      </c>
+      <c r="G136">
+        <v>-0.1</v>
+      </c>
+      <c r="H136">
+        <v>-0.47</v>
+      </c>
+      <c r="I136">
+        <v>50</v>
+      </c>
+      <c r="J136">
+        <v>0.5</v>
+      </c>
+      <c r="K136">
+        <v>0.8510724968285002</v>
+      </c>
+      <c r="L136">
+        <v>1.148883520886113</v>
+      </c>
+      <c r="M136" t="s">
+        <v>164</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>222.73</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="172">
   <si>
     <t>ticker</t>
   </si>
@@ -61,28 +61,55 @@
     <t>close</t>
   </si>
   <si>
+    <t>JISLJALEQS</t>
+  </si>
+  <si>
     <t>TITAN</t>
   </si>
   <si>
+    <t>PATELENG</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
     <t>ABB</t>
   </si>
   <si>
-    <t>JISLJALEQS</t>
-  </si>
-  <si>
     <t>BHARATFORG</t>
   </si>
   <si>
-    <t>PATELENG</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
+    <t>SAPPHIRE</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>POLYPLEX</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>WESTLIFE</t>
   </si>
   <si>
     <t>RADIANTCMS</t>
   </si>
   <si>
-    <t>SAPPHIRE</t>
+    <t>APOLLO</t>
+  </si>
+  <si>
+    <t>BANKINDIA</t>
+  </si>
+  <si>
+    <t>TRIVENI</t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
   <si>
     <t>DMART</t>
@@ -91,427 +118,418 @@
     <t>SMSPHARMA</t>
   </si>
   <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>APOLLO</t>
-  </si>
-  <si>
-    <t>POLYPLEX</t>
+    <t>KANSAINER</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>MUNJALAU</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
   </si>
   <si>
     <t>APLAPOLLO</t>
   </si>
   <si>
-    <t>KANSAINER</t>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>POLICYBZR</t>
+  </si>
+  <si>
+    <t>DEEPAKFERT</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>GMRAIRPORT</t>
+  </si>
+  <si>
+    <t>KPITTECH</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>FINCABLES</t>
+  </si>
+  <si>
+    <t>IRCON</t>
+  </si>
+  <si>
+    <t>SPARC</t>
   </si>
   <si>
     <t>SAFARI</t>
   </si>
   <si>
-    <t>POLICYBZR</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>FINCABLES</t>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>IFCI</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>CROMPTON</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>ELECON</t>
+  </si>
+  <si>
+    <t>NBCC</t>
+  </si>
+  <si>
+    <t>ATGL</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
   </si>
   <si>
     <t>DIVISLAB</t>
   </si>
   <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>BANKINDIA</t>
-  </si>
-  <si>
-    <t>TRIVENI</t>
-  </si>
-  <si>
-    <t>SPARC</t>
-  </si>
-  <si>
-    <t>TORNTPOWER</t>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>CONCOR</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>VAIBHAVGBL</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>INDHOTEL</t>
+  </si>
+  <si>
+    <t>JWL</t>
   </si>
   <si>
     <t>INDIAMART</t>
   </si>
   <si>
-    <t>ZFCVINDIA</t>
-  </si>
-  <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>KPITTECH</t>
-  </si>
-  <si>
-    <t>QUESS</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>MUNJALAU</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>DEEPAKFERT</t>
-  </si>
-  <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>GMRAIRPORT</t>
-  </si>
-  <si>
-    <t>IRCON</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>VAIBHAVGBL</t>
-  </si>
-  <si>
-    <t>WESTLIFE</t>
-  </si>
-  <si>
-    <t>JWL</t>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>BBTC</t>
+  </si>
+  <si>
+    <t>OFSS</t>
+  </si>
+  <si>
+    <t>NIITLTD</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>ECLERX</t>
+  </si>
+  <si>
+    <t>TIINDIA</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
+    <t>MAZDOCK</t>
   </si>
   <si>
     <t>HDFCLIFE</t>
   </si>
   <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>IRB</t>
-  </si>
-  <si>
     <t>SIGACHI</t>
   </si>
   <si>
-    <t>NBCC</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>CENTRALBK</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>VISHNU</t>
-  </si>
-  <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
-    <t>CROMPTON</t>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>GICRE</t>
+  </si>
+  <si>
+    <t>TEJASNET</t>
+  </si>
+  <si>
+    <t>AVANTIFEED</t>
   </si>
   <si>
     <t>ICICIGI</t>
   </si>
   <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>IRFC</t>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>BRIGADE</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>FACT</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>PNCINFRA</t>
+  </si>
+  <si>
+    <t>ONGC</t>
   </si>
   <si>
     <t>TATACONSUM</t>
   </si>
   <si>
-    <t>ELECON</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>FIVESTAR</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>MAZDOCK</t>
-  </si>
-  <si>
-    <t>AVANTIFEED</t>
-  </si>
-  <si>
-    <t>ESCORTS</t>
-  </si>
-  <si>
-    <t>ONGC</t>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>ADANIENSOL</t>
+  </si>
+  <si>
+    <t>DOMS</t>
+  </si>
+  <si>
+    <t>THANGAMAYL</t>
+  </si>
+  <si>
+    <t>JINDALSAW</t>
+  </si>
+  <si>
+    <t>CYIENT</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>COLPAL</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>GLAXO</t>
+  </si>
+  <si>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>BAYERCROP</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>GRSE</t>
+  </si>
+  <si>
+    <t>HUDCO</t>
+  </si>
+  <si>
+    <t>HONASA</t>
+  </si>
+  <si>
+    <t>WELCORP</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>ASTRAL</t>
+  </si>
+  <si>
+    <t>STARHEALTH</t>
+  </si>
+  <si>
+    <t>PGEL</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>ANANTRAJ</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>AETHER</t>
   </si>
   <si>
     <t>CSBBANK</t>
   </si>
   <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>CGPOWER</t>
+  </si>
+  <si>
+    <t>BHEL</t>
+  </si>
+  <si>
     <t>MVGJL</t>
   </si>
   <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>ATGL</t>
-  </si>
-  <si>
-    <t>INDHOTEL</t>
-  </si>
-  <si>
-    <t>PNCINFRA</t>
-  </si>
-  <si>
-    <t>TEJASNET</t>
-  </si>
-  <si>
     <t>COFORGE</t>
   </si>
   <si>
-    <t>THANGAMAYL</t>
-  </si>
-  <si>
-    <t>WELCORP</t>
-  </si>
-  <si>
-    <t>DOMS</t>
-  </si>
-  <si>
-    <t>GLAXO</t>
-  </si>
-  <si>
-    <t>COLPAL</t>
-  </si>
-  <si>
-    <t>BRIGADE</t>
-  </si>
-  <si>
-    <t>BBTC</t>
-  </si>
-  <si>
-    <t>ADANIENSOL</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>SAIL</t>
+    <t>INDIACEM</t>
   </si>
   <si>
     <t>CIEINDIA</t>
   </si>
   <si>
-    <t>IFCI</t>
-  </si>
-  <si>
-    <t>ZENSARTECH</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>CGPOWER</t>
-  </si>
-  <si>
-    <t>GICRE</t>
-  </si>
-  <si>
-    <t>INDIACEM</t>
-  </si>
-  <si>
-    <t>OFSS</t>
-  </si>
-  <si>
-    <t>AETHER</t>
-  </si>
-  <si>
-    <t>ANANTRAJ</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>KEI</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>GRSE</t>
-  </si>
-  <si>
-    <t>HUDCO</t>
-  </si>
-  <si>
-    <t>HONASA</t>
-  </si>
-  <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
     <t>ABFRL</t>
   </si>
   <si>
-    <t>STARHEALTH</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>NIITLTD</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>FACT</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>ASTRAL</t>
-  </si>
-  <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>CYIENT</t>
-  </si>
-  <si>
-    <t>NCC</t>
+    <t>Industrials</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
   <si>
     <t>Communication Services</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>Real Estate</t>
   </si>
   <si>
     <t>Neutral</t>
   </si>
   <si>
+    <t>Short</t>
+  </si>
+  <si>
     <t>Weak Short</t>
   </si>
   <si>
     <t>No Signal</t>
-  </si>
-  <si>
-    <t>Short</t>
   </si>
 </sst>
 </file>
@@ -869,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,25 +945,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
         <v>220</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
       <c r="F2">
-        <v>0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="G2">
-        <v>-0.17</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
-        <v>-0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -954,19 +972,19 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.4735705771042437</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.327237215909091</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O2">
-        <v>3361.1</v>
+        <v>51.37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -974,25 +992,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C3">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="F3">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="G3">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
       <c r="H3">
-        <v>0.38</v>
+        <v>-0.13</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -1001,19 +1019,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.06776982695072432</v>
+        <v>0.1759245725596511</v>
       </c>
       <c r="L3">
-        <v>0.2891700264145697</v>
+        <v>0.2458744046959796</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O3">
-        <v>5537</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1021,25 +1039,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F4">
-        <v>0.14</v>
+        <v>-0.31</v>
       </c>
       <c r="G4">
-        <v>-0.54</v>
+        <v>-0.5</v>
       </c>
       <c r="H4">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1051,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03192848020434227</v>
+        <v>0.5546255773148054</v>
       </c>
       <c r="M4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O4">
-        <v>51.4</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1068,25 +1086,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>-0.49</v>
+        <v>-0.62</v>
       </c>
       <c r="G5">
-        <v>-1.04</v>
+        <v>-0.79</v>
       </c>
       <c r="H5">
-        <v>-0.48</v>
+        <v>0.37</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1095,19 +1113,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.06114697489630849</v>
+        <v>3.257084158043796</v>
       </c>
       <c r="L5">
-        <v>0.2051634613644998</v>
+        <v>1.947519475194752</v>
       </c>
       <c r="M5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O5">
-        <v>1183</v>
+        <v>567.25</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1115,25 +1133,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C6">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>190</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>170</v>
-      </c>
       <c r="F6">
-        <v>-0.24</v>
+        <v>0.14</v>
       </c>
       <c r="G6">
-        <v>-0.26</v>
+        <v>0.92</v>
       </c>
       <c r="H6">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1142,19 +1160,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.01889917783082127</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07969973587878226</v>
+        <v>0.07137507159536503</v>
       </c>
       <c r="M6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6">
-        <v>38.19</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1162,25 +1180,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F7">
-        <v>-0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="G7">
-        <v>-0.15</v>
+        <v>0.42</v>
       </c>
       <c r="H7">
-        <v>0.37</v>
+        <v>-0.48</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1189,19 +1207,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1105392715200858</v>
       </c>
       <c r="L7">
-        <v>0.2554278416347382</v>
+        <v>0.2934669259603732</v>
       </c>
       <c r="M7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O7">
-        <v>571.5</v>
+        <v>1192.6</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1209,25 +1227,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F8">
-        <v>-0.05</v>
+        <v>-1.14</v>
       </c>
       <c r="G8">
-        <v>-0.59</v>
+        <v>-1.96</v>
       </c>
       <c r="H8">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1242,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8">
-        <v>55.65</v>
+        <v>320.4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1256,25 +1274,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C9">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F9">
-        <v>-0.43</v>
+        <v>-0.1</v>
       </c>
       <c r="G9">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="H9">
-        <v>0.17</v>
+        <v>-0.3</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1283,19 +1301,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2455116187076877</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3484020889239891</v>
       </c>
       <c r="M9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O9">
-        <v>325.45</v>
+        <v>2454.2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1303,25 +1321,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F10">
-        <v>1.24</v>
+        <v>0.6</v>
       </c>
       <c r="G10">
-        <v>5.69</v>
+        <v>0.36</v>
       </c>
       <c r="H10">
-        <v>0.19</v>
+        <v>0.63</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1330,19 +1348,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.05802113494018109</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2196389976050003</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O10">
-        <v>4246.4</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1350,25 +1368,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>130</v>
       </c>
       <c r="F11">
-        <v>-0.15</v>
+        <v>-0.38</v>
       </c>
       <c r="G11">
-        <v>-0.4</v>
+        <v>-1.19</v>
       </c>
       <c r="H11">
-        <v>0.51</v>
+        <v>1.7</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1383,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N11">
         <v>13</v>
       </c>
       <c r="O11">
-        <v>237.35</v>
+        <v>297.8</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1397,25 +1415,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E12">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="F12">
-        <v>0.14</v>
+        <v>-0.84</v>
       </c>
       <c r="G12">
-        <v>-0.02</v>
+        <v>-1.4</v>
       </c>
       <c r="H12">
-        <v>-0.3</v>
+        <v>-0.43</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1424,19 +1442,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.8677830464233075</v>
+        <v>0.0008519629225728241</v>
       </c>
       <c r="L12">
-        <v>0.9766394596115958</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="M12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>2463.2</v>
+        <v>746.75</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1444,25 +1462,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>170</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
         <v>150</v>
       </c>
-      <c r="C13">
-        <v>150</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>130</v>
-      </c>
       <c r="F13">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="G13">
-        <v>0.06</v>
+        <v>-0.54</v>
       </c>
       <c r="H13">
-        <v>1.51</v>
+        <v>0.09</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1474,16 +1492,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1248951440022369</v>
       </c>
       <c r="M13" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13">
-        <v>248.4</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1491,22 +1509,22 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C14">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F14">
-        <v>-0.98</v>
+        <v>-0.38</v>
       </c>
       <c r="G14">
-        <v>-2.1</v>
+        <v>-1.47</v>
       </c>
       <c r="H14">
         <v>-1.23</v>
@@ -1518,19 +1536,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.004493576981890453</v>
       </c>
       <c r="L14">
-        <v>0.1735142477397871</v>
+        <v>0.04749946465767291</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O14">
-        <v>171.5</v>
+        <v>170.7</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1538,25 +1556,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>0.12</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G15">
-        <v>-0.76</v>
+        <v>-1.27</v>
       </c>
       <c r="H15">
-        <v>0.63</v>
+        <v>1.52</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1568,16 +1586,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.016949152542373</v>
+        <v>0.027626415141755</v>
       </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O15">
-        <v>1107.3</v>
+        <v>113.84</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1585,25 +1603,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F16">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="G16">
-        <v>0.65</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.59</v>
+        <v>-5.88</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1615,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0197805638172219</v>
       </c>
       <c r="M16" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O16">
-        <v>1562.1</v>
+        <v>344.25</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1632,25 +1650,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>0.14</v>
+        <v>-0.39</v>
       </c>
       <c r="G17">
-        <v>0.61</v>
+        <v>-1.38</v>
       </c>
       <c r="H17">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1659,19 +1677,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7737236144741528</v>
       </c>
       <c r="L17">
-        <v>0.06920415224913495</v>
+        <v>1.52391393723448</v>
       </c>
       <c r="M17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>245.85</v>
+        <v>1336.9</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1679,25 +1697,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18">
         <v>150</v>
       </c>
-      <c r="C18">
-        <v>140</v>
-      </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F18">
-        <v>-0.23</v>
+        <v>-0.04</v>
       </c>
       <c r="G18">
-        <v>-0.7</v>
+        <v>-0.26</v>
       </c>
       <c r="H18">
-        <v>-0.35</v>
+        <v>1.51</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1712,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18">
-        <v>2028.4</v>
+        <v>247.75</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1726,25 +1744,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19">
         <v>150</v>
       </c>
-      <c r="C19">
-        <v>140</v>
-      </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F19">
-        <v>0.39</v>
+        <v>-0.25</v>
       </c>
       <c r="G19">
-        <v>0.84</v>
+        <v>1.19</v>
       </c>
       <c r="H19">
-        <v>-0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1753,19 +1771,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.0176857768035289</v>
+        <v>0.4610032141244576</v>
       </c>
       <c r="L19">
-        <v>0.1241978886358932</v>
+        <v>0.4852059445516637</v>
       </c>
       <c r="M19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19">
-        <v>1830.3</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1773,25 +1791,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C20">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>-0.17</v>
+        <v>-0.21</v>
       </c>
       <c r="G20">
-        <v>-0.03</v>
+        <v>0.13</v>
       </c>
       <c r="H20">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1800,19 +1818,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.1828845549559681</v>
+        <v>0.06727102669254473</v>
       </c>
       <c r="L20">
-        <v>0.2907924534952372</v>
+        <v>0.5795753912908725</v>
       </c>
       <c r="M20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20">
-        <v>1074.7</v>
+        <v>236.7</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1820,25 +1838,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C21">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F21">
-        <v>-0.45</v>
+        <v>0.2</v>
       </c>
       <c r="G21">
-        <v>-1.12</v>
+        <v>0.2</v>
       </c>
       <c r="H21">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1847,19 +1865,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.001285211884703632</v>
+        <v>0.07270715103783473</v>
       </c>
       <c r="L21">
-        <v>0.03610700804201543</v>
+        <v>0.2599972389673738</v>
       </c>
       <c r="M21" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O21">
-        <v>893.95</v>
+        <v>245.85</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1867,25 +1885,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C22">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>-0.28</v>
+        <v>0.05</v>
       </c>
       <c r="G22">
-        <v>-1.06</v>
+        <v>0.3</v>
       </c>
       <c r="H22">
-        <v>0.12</v>
+        <v>0.77</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1894,19 +1912,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.1446876106448742</v>
+        <v>0.2145397630047002</v>
       </c>
       <c r="L22">
-        <v>0.172378411656064</v>
+        <v>0.3101354388942006</v>
       </c>
       <c r="M22" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O22">
-        <v>6646</v>
+        <v>1037.3</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1914,25 +1932,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C23">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>120</v>
       </c>
       <c r="F23">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G23">
-        <v>0.97</v>
+        <v>0.05</v>
       </c>
       <c r="H23">
-        <v>0.14</v>
+        <v>-0.22</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1941,19 +1959,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.6714060031594895</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6670372429127293</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N23">
         <v>12</v>
       </c>
       <c r="O23">
-        <v>867.2</v>
+        <v>77.83</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1961,25 +1979,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F24">
-        <v>-0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="G24">
-        <v>-0.05</v>
+        <v>-0.34</v>
       </c>
       <c r="H24">
-        <v>-0.75</v>
+        <v>-2.98</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1988,19 +2006,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.1848184818481783</v>
+        <v>0.009607517173439101</v>
       </c>
       <c r="L24">
-        <v>0.1953125</v>
+        <v>0.06873948742524062</v>
       </c>
       <c r="M24" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24">
-        <v>1950.2</v>
+        <v>668.1</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2008,25 +2026,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C25">
+        <v>140</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
         <v>120</v>
       </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
       <c r="F25">
-        <v>0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="G25">
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
       <c r="H25">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -2035,19 +2053,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.001314415143939022</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.01099699546373937</v>
+        <v>0.04625599313956057</v>
       </c>
       <c r="M25" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O25">
-        <v>523.05</v>
+        <v>1566.2</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2055,25 +2073,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C26">
+        <v>140</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
         <v>120</v>
       </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
       <c r="F26">
-        <v>0.17</v>
+        <v>-0.23</v>
       </c>
       <c r="G26">
-        <v>0.11</v>
+        <v>0.57</v>
       </c>
       <c r="H26">
-        <v>1.52</v>
+        <v>0.14</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -2082,19 +2100,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.2713810655074509</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.314727509694444</v>
       </c>
       <c r="M26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O26">
-        <v>115.38</v>
+        <v>872.5</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2102,25 +2120,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C27">
+        <v>140</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
         <v>120</v>
       </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>70</v>
-      </c>
       <c r="F27">
-        <v>-0.09</v>
+        <v>-0.19</v>
       </c>
       <c r="G27">
-        <v>-0.64</v>
+        <v>0.04</v>
       </c>
       <c r="H27">
-        <v>-5.88</v>
+        <v>-0.39</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2129,19 +2147,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.06906495740994431</v>
+        <v>0.2835163574082529</v>
       </c>
       <c r="L27">
-        <v>0.1035046304703105</v>
+        <v>0.7134239205680493</v>
       </c>
       <c r="M27" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O27">
-        <v>343.7</v>
+        <v>1821.4</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2149,25 +2167,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C28">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F28">
-        <v>-0.79</v>
+        <v>-0.58</v>
       </c>
       <c r="G28">
-        <v>-0.59</v>
+        <v>-1.78</v>
       </c>
       <c r="H28">
-        <v>-0.55</v>
+        <v>-0.61</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2176,19 +2194,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.2001764399105405</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.5736073575932793</v>
       </c>
       <c r="M28" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28">
-        <v>151.9</v>
+        <v>1562.9</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2196,25 +2214,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C29">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F29">
-        <v>-0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G29">
-        <v>0.62</v>
+        <v>-0.65</v>
       </c>
       <c r="H29">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2223,19 +2241,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.5827300017659065</v>
+        <v>0.7097043274378566</v>
       </c>
       <c r="L29">
-        <v>0.5774278215223098</v>
+        <v>0.5092250240331287</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O29">
-        <v>1350.1</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2243,25 +2261,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C30">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F30">
-        <v>0.31</v>
+        <v>-0.24</v>
       </c>
       <c r="G30">
-        <v>-1.12</v>
+        <v>-0.33</v>
       </c>
       <c r="H30">
-        <v>-0.21</v>
+        <v>-0.64</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2273,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.03629855753018249</v>
       </c>
       <c r="M30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O30">
-        <v>2590</v>
+        <v>379.65</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2290,22 +2308,22 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C31">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>90</v>
       </c>
       <c r="F31">
-        <v>-0.05</v>
+        <v>-0.67</v>
       </c>
       <c r="G31">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2323,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N31">
         <v>9</v>
       </c>
       <c r="O31">
-        <v>13304</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2337,25 +2355,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32">
+        <v>130</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
         <v>110</v>
       </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
       <c r="F32">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="G32">
-        <v>0.02</v>
+        <v>-0.57</v>
       </c>
       <c r="H32">
-        <v>0.18</v>
+        <v>-0.34</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2364,19 +2382,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.02312641410957679</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.07256494261085737</v>
       </c>
       <c r="M32" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O32">
-        <v>448.35</v>
+        <v>89.97</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2384,25 +2402,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C33">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>90</v>
       </c>
       <c r="F33">
-        <v>-0.28</v>
+        <v>-1.51</v>
       </c>
       <c r="G33">
-        <v>0.01</v>
+        <v>4.3</v>
       </c>
       <c r="H33">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2411,19 +2429,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.005767012687422407</v>
+        <v>0.03321352490169976</v>
       </c>
       <c r="L33">
-        <v>0.03719776813391196</v>
+        <v>0.07621473259723408</v>
       </c>
       <c r="M33" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N33">
         <v>9</v>
       </c>
       <c r="O33">
-        <v>1198.5</v>
+        <v>1261.4</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2431,25 +2449,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>90</v>
       </c>
       <c r="F34">
-        <v>0.11</v>
+        <v>-1.01</v>
       </c>
       <c r="G34">
-        <v>-0.09</v>
+        <v>-0.71</v>
       </c>
       <c r="H34">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2458,19 +2476,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.1133576581784619</v>
+        <v>0.01478414266238879</v>
       </c>
       <c r="L34">
-        <v>0.2796258798572944</v>
+        <v>0.1108679078232213</v>
       </c>
       <c r="M34" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N34">
         <v>9</v>
       </c>
       <c r="O34">
-        <v>1214.2</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2478,25 +2496,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C35">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F35">
-        <v>-0.4</v>
+        <v>0.79</v>
       </c>
       <c r="G35">
-        <v>-0.27</v>
+        <v>0.11</v>
       </c>
       <c r="H35">
-        <v>1.7</v>
+        <v>0.74</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2505,19 +2523,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.333213152294367</v>
       </c>
       <c r="L35">
-        <v>0.6954102920723227</v>
+        <v>1.863489172232341</v>
       </c>
       <c r="M35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O35">
-        <v>300.7</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2525,25 +2543,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F36">
-        <v>0.07000000000000001</v>
+        <v>-0.29</v>
       </c>
       <c r="G36">
-        <v>0.07000000000000001</v>
+        <v>-0.48</v>
       </c>
       <c r="H36">
-        <v>-2.98</v>
+        <v>-0.24</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2552,19 +2570,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.1850958869684918</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.4861104113978256</v>
+        <v>0.02135554309815542</v>
       </c>
       <c r="M36" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O36">
-        <v>669.45</v>
+        <v>179.45</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2572,25 +2590,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D37">
         <v>20</v>
       </c>
       <c r="E37">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F37">
-        <v>-0.18</v>
+        <v>-0.37</v>
       </c>
       <c r="G37">
-        <v>-0.61</v>
+        <v>-0.75</v>
       </c>
       <c r="H37">
-        <v>0.77</v>
+        <v>-0.55</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2599,19 +2617,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0.02585169827741171</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0.1142340100661653</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O37">
-        <v>1033.6</v>
+        <v>151.56</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2619,25 +2637,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F38">
-        <v>-0.03</v>
+        <v>-0.23</v>
       </c>
       <c r="G38">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="H38">
-        <v>-0.22</v>
+        <v>-0.35</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2646,19 +2664,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>2.06821394445278</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1.577235772357723</v>
       </c>
       <c r="M38" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O38">
-        <v>77.8</v>
+        <v>2027.1</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2666,25 +2684,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C39">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
         <v>100</v>
       </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-      <c r="E39">
-        <v>80</v>
-      </c>
       <c r="F39">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G39">
-        <v>0.52</v>
+        <v>-0.37</v>
       </c>
       <c r="H39">
-        <v>0.08</v>
+        <v>-0.71</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2693,19 +2711,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.3413400758533502</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.3125</v>
+        <v>0.550660827811268</v>
       </c>
       <c r="M39" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O39">
-        <v>30680</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2713,46 +2731,46 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C40">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
         <v>100</v>
       </c>
-      <c r="D40">
+      <c r="F40">
+        <v>-0.12</v>
+      </c>
+      <c r="G40">
+        <v>-0.74</v>
+      </c>
+      <c r="H40">
+        <v>3.3</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>0.4588523662874739</v>
+      </c>
+      <c r="L40">
+        <v>0.7736520854526958</v>
+      </c>
+      <c r="M40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40">
         <v>10</v>
       </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="F40">
-        <v>-0.44</v>
-      </c>
-      <c r="G40">
-        <v>-0.34</v>
-      </c>
-      <c r="H40">
-        <v>-0.41</v>
-      </c>
-      <c r="I40">
-        <v>50</v>
-      </c>
-      <c r="J40">
-        <v>0.5</v>
-      </c>
-      <c r="K40">
-        <v>2.386448463967684</v>
-      </c>
-      <c r="L40">
-        <v>3.553351573187415</v>
-      </c>
-      <c r="M40" t="s">
-        <v>164</v>
-      </c>
-      <c r="N40">
-        <v>9</v>
-      </c>
       <c r="O40">
-        <v>489.9</v>
+        <v>482.3</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2760,25 +2778,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
         <v>100</v>
       </c>
-      <c r="D41">
-        <v>40</v>
-      </c>
-      <c r="E41">
-        <v>60</v>
-      </c>
       <c r="F41">
-        <v>-0.75</v>
+        <v>-0.18</v>
       </c>
       <c r="G41">
-        <v>-0.73</v>
+        <v>-0.29</v>
       </c>
       <c r="H41">
-        <v>3.3</v>
+        <v>0.36</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2787,19 +2805,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.2833689418644226</v>
       </c>
       <c r="L41">
-        <v>0.007448096080439438</v>
+        <v>0.2787210989574759</v>
       </c>
       <c r="M41" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O41">
-        <v>482.75</v>
+        <v>521.05</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2807,25 +2825,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F42">
-        <v>-0.93</v>
+        <v>0.1</v>
       </c>
       <c r="G42">
-        <v>-3.46</v>
+        <v>0.1</v>
       </c>
       <c r="H42">
-        <v>-0.61</v>
+        <v>-0.75</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2834,19 +2852,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.15534815098225</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.455397474111176</v>
+        <v>0.02854594112399643</v>
       </c>
       <c r="M42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O42">
-        <v>1580.8</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2854,25 +2872,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C43">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>20</v>
       </c>
       <c r="E43">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F43">
-        <v>1.8</v>
+        <v>-0.49</v>
       </c>
       <c r="G43">
-        <v>1.6</v>
+        <v>-0.71</v>
       </c>
       <c r="H43">
-        <v>-0.17</v>
+        <v>-0.08</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2881,19 +2899,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.1112147540109834</v>
+        <v>0.4039595216965275</v>
       </c>
       <c r="L43">
-        <v>0.1492121043090225</v>
+        <v>0.6272342926168362</v>
       </c>
       <c r="M43" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O43">
-        <v>1575.9</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2901,25 +2919,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C44">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>-0.11</v>
+        <v>-1.26</v>
       </c>
       <c r="G44">
-        <v>0.47</v>
+        <v>-1.64</v>
       </c>
       <c r="H44">
-        <v>-0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2934,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>90.33</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2948,25 +2966,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C45">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>-0.04</v>
+        <v>-0.73</v>
       </c>
       <c r="G45">
-        <v>-0.19</v>
+        <v>-1.46</v>
       </c>
       <c r="H45">
-        <v>-0.24</v>
+        <v>-0.21</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2978,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.03645367631886649</v>
+        <v>0.1455693264633524</v>
       </c>
       <c r="M45" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O45">
-        <v>180.18</v>
+        <v>1285.6</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2998,22 +3016,22 @@
         <v>159</v>
       </c>
       <c r="C46">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F46">
-        <v>-0.13</v>
+        <v>-1.05</v>
       </c>
       <c r="G46">
-        <v>-0.11</v>
+        <v>-2.13</v>
       </c>
       <c r="H46">
-        <v>-0.64</v>
+        <v>0.33</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -3022,19 +3040,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.3828587000954312</v>
+        <v>0.1235144639824993</v>
       </c>
       <c r="L46">
-        <v>0.3052047080905643</v>
+        <v>0.3299283380635574</v>
       </c>
       <c r="M46" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O46">
-        <v>380.55</v>
+        <v>609.2</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3042,25 +3060,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C47">
+        <v>110</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
         <v>90</v>
       </c>
-      <c r="D47">
-        <v>20</v>
-      </c>
-      <c r="E47">
-        <v>70</v>
-      </c>
       <c r="F47">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="H47">
-        <v>0.19</v>
+        <v>-0.41</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -3069,19 +3087,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>0.001913566131410762</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.005275207579418251</v>
       </c>
       <c r="M47" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O47">
-        <v>234.05</v>
+        <v>492.6</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3089,26 +3107,26 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C48">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>0.16</v>
+      </c>
+      <c r="H48">
         <v>-0.32</v>
       </c>
-      <c r="G48">
-        <v>-0.42</v>
-      </c>
-      <c r="H48">
-        <v>-0.43</v>
-      </c>
       <c r="I48">
         <v>50</v>
       </c>
@@ -3116,19 +3134,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.6542310551709136</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.548718527718189</v>
       </c>
       <c r="M48" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O48">
-        <v>754.6</v>
+        <v>1011.6</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3136,25 +3154,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C49">
+        <v>110</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
         <v>90</v>
       </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
-      <c r="E49">
-        <v>50</v>
-      </c>
       <c r="F49">
-        <v>-0.61</v>
+        <v>0.04</v>
       </c>
       <c r="G49">
         <v>-0.1</v>
       </c>
       <c r="H49">
-        <v>-0.16</v>
+        <v>0.43</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3163,19 +3181,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.03627788862686976</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0.1528759793617428</v>
+        <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O49">
-        <v>347.85</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3183,25 +3201,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <v>70</v>
       </c>
       <c r="F50">
-        <v>0.24</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G50">
         <v>-0.43</v>
       </c>
       <c r="H50">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3210,19 +3228,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.3595972366460196</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0.4553745518586074</v>
+        <v>0.2042675212954373</v>
       </c>
       <c r="M50" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N50">
         <v>7</v>
       </c>
       <c r="O50">
-        <v>757.15</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3230,25 +3248,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F51">
-        <v>-0.21</v>
+        <v>-0.61</v>
       </c>
       <c r="G51">
-        <v>0.49</v>
+        <v>-0.39</v>
       </c>
       <c r="H51">
-        <v>-0.32</v>
+        <v>0.17</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3257,19 +3275,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.2226542826010534</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>0.7245347744657237</v>
       </c>
       <c r="M51" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O51">
-        <v>1009.6</v>
+        <v>131.29</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3277,25 +3295,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D52">
         <v>20</v>
       </c>
       <c r="E52">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F52">
-        <v>-0.28</v>
+        <v>-0.4</v>
       </c>
       <c r="G52">
-        <v>-0.58</v>
+        <v>-0.37</v>
       </c>
       <c r="H52">
-        <v>0.19</v>
+        <v>0.6</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3304,19 +3322,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.03015063256027828</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>0.7666360012266176</v>
+        <v>0.4530943497826839</v>
       </c>
       <c r="M52" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O52">
-        <v>509.95</v>
+        <v>578.7</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3324,25 +3342,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F53">
-        <v>0.02</v>
+        <v>-0.24</v>
       </c>
       <c r="G53">
-        <v>0.33</v>
+        <v>-0.51</v>
       </c>
       <c r="H53">
-        <v>-0.71</v>
+        <v>0.39</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3351,19 +3369,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0.09206223884041723</v>
+        <v>1.153173458562034</v>
       </c>
       <c r="L53">
-        <v>0.0992404412827389</v>
+        <v>1.282276818526864</v>
       </c>
       <c r="M53" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O53">
-        <v>46.19</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3371,25 +3389,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E54">
         <v>60</v>
       </c>
       <c r="F54">
-        <v>0.24</v>
+        <v>-0.38</v>
       </c>
       <c r="G54">
-        <v>-0.93</v>
+        <v>-1.21</v>
       </c>
       <c r="H54">
-        <v>0.54</v>
+        <v>-0.15</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3398,19 +3416,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.004178259754812129</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0.004095690216885414</v>
+        <v>0.04390732570283692</v>
       </c>
       <c r="M54" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N54">
         <v>6</v>
       </c>
       <c r="O54">
-        <v>38.3</v>
+        <v>624.05</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3418,25 +3436,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C55">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F55">
-        <v>-0.19</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G55">
-        <v>0.09</v>
+        <v>-2.96</v>
       </c>
       <c r="H55">
-        <v>0.39</v>
+        <v>6.19</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3445,19 +3463,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>1.369952241158473</v>
+        <v>0.0326775085921501</v>
       </c>
       <c r="L55">
-        <v>2.667447140627217</v>
+        <v>0.07816539432464491</v>
       </c>
       <c r="M55" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>109.05</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3465,25 +3483,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C56">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F56">
-        <v>-0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G56">
-        <v>-0.17</v>
+        <v>0.06</v>
       </c>
       <c r="H56">
-        <v>-0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3492,19 +3510,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.0762973994730253</v>
+        <v>0.5015172589741513</v>
       </c>
       <c r="L56">
-        <v>0.1676483914816493</v>
+        <v>0.3745605179796011</v>
       </c>
       <c r="M56" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O56">
-        <v>2881.1</v>
+        <v>6659.5</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3512,25 +3530,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C57">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E57">
         <v>60</v>
       </c>
       <c r="F57">
-        <v>-0.3</v>
+        <v>-0.82</v>
       </c>
       <c r="G57">
-        <v>-0.16</v>
+        <v>-0.39</v>
       </c>
       <c r="H57">
-        <v>-0.08</v>
+        <v>0.38</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3539,19 +3557,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.4428424896873572</v>
       </c>
       <c r="L57">
-        <v>0.06145400167974271</v>
+        <v>0.3094840765074512</v>
       </c>
       <c r="M57" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N57">
         <v>6</v>
       </c>
       <c r="O57">
-        <v>36.79</v>
+        <v>198.79</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3559,25 +3577,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D58">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E58">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>-0.71</v>
+        <v>-0.96</v>
       </c>
       <c r="G58">
-        <v>2.59</v>
+        <v>-1.61</v>
       </c>
       <c r="H58">
-        <v>0.71</v>
+        <v>0.19</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3586,19 +3604,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.02468801557627196</v>
       </c>
       <c r="L58">
-        <v>0.01221747098350641</v>
+        <v>0.04843149614150544</v>
       </c>
       <c r="M58" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O58">
-        <v>109.83</v>
+        <v>584.85</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3606,25 +3624,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F59">
-        <v>-0.76</v>
+        <v>0.1</v>
       </c>
       <c r="G59">
-        <v>0.05</v>
+        <v>-1.2</v>
       </c>
       <c r="H59">
-        <v>6.19</v>
+        <v>0.19</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3633,19 +3651,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0.3161440053408918</v>
+        <v>1.475544417559638</v>
       </c>
       <c r="L59">
-        <v>0.3789707196335589</v>
+        <v>1.739462625748122</v>
       </c>
       <c r="M59" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O59">
-        <v>579</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3653,25 +3671,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C60">
+        <v>90</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
         <v>80</v>
       </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
-      <c r="E60">
-        <v>60</v>
-      </c>
       <c r="F60">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G60">
-        <v>0.54</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H60">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3680,19 +3698,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.6390000702197879</v>
       </c>
       <c r="L60">
-        <v>0.01580194890703187</v>
+        <v>0.5914467697907188</v>
       </c>
       <c r="M60" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O60">
-        <v>199.8</v>
+        <v>30620</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3700,26 +3718,26 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <v>20</v>
       </c>
       <c r="E61">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F61">
+        <v>0.51</v>
+      </c>
+      <c r="G61">
+        <v>0.65</v>
+      </c>
+      <c r="H61">
         <v>0.19</v>
       </c>
-      <c r="G61">
-        <v>0.4</v>
-      </c>
-      <c r="H61">
-        <v>-0.32</v>
-      </c>
       <c r="I61">
         <v>50</v>
       </c>
@@ -3727,19 +3745,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.2737296720624993</v>
+        <v>0.1042999884215379</v>
       </c>
       <c r="L61">
-        <v>0.4621126844007347</v>
+        <v>0.2269790437665037</v>
       </c>
       <c r="M61" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O61">
-        <v>324.65</v>
+        <v>235.04</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3747,25 +3765,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D62">
         <v>20</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F62">
-        <v>0.21</v>
+        <v>-0.32</v>
       </c>
       <c r="G62">
-        <v>0.05</v>
+        <v>1.09</v>
       </c>
       <c r="H62">
-        <v>-0.57</v>
+        <v>-0.17</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3777,16 +3795,16 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.0399750974802582</v>
+        <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O62">
-        <v>1908.1</v>
+        <v>1564.9</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3794,25 +3812,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D63">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F63">
-        <v>-0.83</v>
+        <v>-0.16</v>
       </c>
       <c r="G63">
-        <v>-2.86</v>
+        <v>-0.44</v>
       </c>
       <c r="H63">
-        <v>-0.21</v>
+        <v>0.01</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3821,19 +3839,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0.3402007168898351</v>
+        <v>0.03522270514766158</v>
       </c>
       <c r="L63">
-        <v>0.7654231558614029</v>
+        <v>0.0201711004750825</v>
       </c>
       <c r="M63" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O63">
-        <v>1292</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3841,26 +3859,26 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F64">
-        <v>-0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G64">
+        <v>-0.26</v>
+      </c>
+      <c r="H64">
         <v>-0.16</v>
       </c>
-      <c r="H64">
-        <v>0.17</v>
-      </c>
       <c r="I64">
         <v>50</v>
       </c>
@@ -3868,19 +3886,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>1.137066160280669</v>
+        <v>0.7180075098381523</v>
       </c>
       <c r="L64">
-        <v>1.452525343953657</v>
+        <v>0.6444452152197288</v>
       </c>
       <c r="M64" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O64">
-        <v>131.69</v>
+        <v>348.6</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3888,25 +3906,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C65">
+        <v>90</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
         <v>70</v>
       </c>
-      <c r="D65">
-        <v>20</v>
-      </c>
-      <c r="E65">
-        <v>50</v>
-      </c>
       <c r="F65">
-        <v>-0.04</v>
+        <v>-0.21</v>
       </c>
       <c r="G65">
-        <v>0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H65">
-        <v>0.32</v>
+        <v>-0.21</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3915,19 +3933,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.03477472029026121</v>
+        <v>0.3406902681084359</v>
       </c>
       <c r="L65">
-        <v>0.1501648548950478</v>
+        <v>0.9812286689419795</v>
       </c>
       <c r="M65" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>1079.1</v>
+        <v>2582.7</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3935,25 +3953,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C66">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F66">
-        <v>0.17</v>
+        <v>-0.68</v>
       </c>
       <c r="G66">
-        <v>-0.09</v>
+        <v>-0.45</v>
       </c>
       <c r="H66">
-        <v>0.6</v>
+        <v>-0.14</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3962,19 +3980,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.008861039906317281</v>
+        <v>0.01134703430187905</v>
       </c>
       <c r="L66">
-        <v>0.07133757961783439</v>
+        <v>0.03292886327337126</v>
       </c>
       <c r="M66" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>581.2</v>
+        <v>135.77</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3982,25 +4000,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C67">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D67">
         <v>20</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F67">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="G67">
-        <v>0.57</v>
+        <v>-0.04</v>
       </c>
       <c r="H67">
-        <v>3.2</v>
+        <v>-0.06</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -4009,19 +4027,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.004762645668976945</v>
+        <v>0.2878590224780902</v>
       </c>
       <c r="L67">
-        <v>0.02249513618677043</v>
+        <v>0.6917840533800633</v>
       </c>
       <c r="M67" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>3658.5</v>
+        <v>2876.9</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4029,25 +4047,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C68">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
         <v>70</v>
       </c>
-      <c r="D68">
-        <v>20</v>
-      </c>
-      <c r="E68">
-        <v>50</v>
-      </c>
       <c r="F68">
-        <v>0.28</v>
+        <v>-0.36</v>
       </c>
       <c r="G68">
-        <v>0.33</v>
+        <v>-0.46</v>
       </c>
       <c r="H68">
-        <v>-0.47</v>
+        <v>0.71</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -4056,19 +4074,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.4131162308380771</v>
+        <v>3.326814520736677</v>
       </c>
       <c r="L68">
-        <v>0.6706784369825421</v>
+        <v>1.621573880531104</v>
       </c>
       <c r="M68" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O68">
-        <v>408.1</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4076,25 +4094,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C69">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D69">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F69">
-        <v>-0.51</v>
+        <v>-0.64</v>
       </c>
       <c r="G69">
-        <v>-2.2</v>
+        <v>-0.55</v>
       </c>
       <c r="H69">
-        <v>0.33</v>
+        <v>-0.02</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4103,19 +4121,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>2.407261600035782</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>1.721676954594754</v>
+        <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O69">
-        <v>619.1</v>
+        <v>1932.1</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4123,25 +4141,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C70">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E70">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>1.35</v>
+        <v>-0.77</v>
       </c>
       <c r="G70">
-        <v>2.6</v>
+        <v>-1.09</v>
       </c>
       <c r="H70">
-        <v>-0.14</v>
+        <v>-0.05</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4150,19 +4168,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.0009299937361918878</v>
+        <v>0.4655134956962101</v>
       </c>
       <c r="L70">
-        <v>0.009938517978400339</v>
+        <v>0.4765227793839099</v>
       </c>
       <c r="M70" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>137.85</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4170,25 +4188,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D71">
+        <v>65</v>
+      </c>
+      <c r="E71">
         <v>10</v>
       </c>
-      <c r="E71">
-        <v>50</v>
-      </c>
       <c r="F71">
-        <v>-0.15</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G71">
-        <v>-0.02</v>
+        <v>-1.18</v>
       </c>
       <c r="H71">
-        <v>0.46</v>
+        <v>-0.12</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4197,19 +4215,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>2.112403390265861</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>2.338113259956252</v>
+        <v>0.3345489616926369</v>
       </c>
       <c r="M71" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>2719.5</v>
+        <v>116.36</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4217,25 +4235,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E72">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>-0.22</v>
+        <v>-1.08</v>
       </c>
       <c r="G72">
-        <v>-0.38</v>
+        <v>-2.27</v>
       </c>
       <c r="H72">
-        <v>-0.12</v>
+        <v>-0.31</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4247,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>0.9752363800090049</v>
       </c>
       <c r="M72" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>687.95</v>
+        <v>362.05</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4264,25 +4282,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C73">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>-0.76</v>
+        <v>-1.29</v>
       </c>
       <c r="G73">
-        <v>-0.83</v>
+        <v>-2.34</v>
       </c>
       <c r="H73">
-        <v>-1.53</v>
+        <v>1.45</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4291,19 +4309,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.1331278890601099</v>
+        <v>0.2543632574331661</v>
       </c>
       <c r="L73">
-        <v>0.3918367346938775</v>
+        <v>0.5793881387796957</v>
       </c>
       <c r="M73" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>3430.9</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4311,25 +4329,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F74">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="G74">
-        <v>1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="H74">
-        <v>0.18</v>
+        <v>-0.92</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4338,19 +4356,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.6940165834831091</v>
+        <v>0.05939697858790428</v>
       </c>
       <c r="L74">
-        <v>0.9431393396485117</v>
+        <v>0.1851139027889562</v>
       </c>
       <c r="M74" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>242.85</v>
+        <v>2861.4</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4358,25 +4376,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D75">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F75">
-        <v>-0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G75">
-        <v>-1.01</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H75">
-        <v>0.27</v>
+        <v>-1.53</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4385,19 +4403,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>0.6094037299711212</v>
       </c>
       <c r="L75">
-        <v>0.5033979360684621</v>
+        <v>1.069277108433735</v>
       </c>
       <c r="M75" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O75">
-        <v>420</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4405,25 +4423,25 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C76">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D76">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F76">
-        <v>-0.11</v>
+        <v>1.01</v>
       </c>
       <c r="G76">
-        <v>-2.04</v>
+        <v>1.13</v>
       </c>
       <c r="H76">
-        <v>0.82</v>
+        <v>0.46</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4432,19 +4450,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.2017563361494016</v>
+        <v>0.1405587888700734</v>
       </c>
       <c r="L76">
-        <v>0.2523900573613767</v>
+        <v>0.3065729851413055</v>
       </c>
       <c r="M76" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>206.84</v>
+        <v>2757.2</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4452,25 +4470,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C77">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F77">
-        <v>-0.11</v>
+        <v>-0.03</v>
       </c>
       <c r="G77">
-        <v>0.61</v>
+        <v>-0.06</v>
       </c>
       <c r="H77">
-        <v>0.62</v>
+        <v>-0.25</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4479,19 +4497,19 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>0.8429252979795547</v>
       </c>
       <c r="L77">
-        <v>0.5660745656841695</v>
+        <v>0.6391774659955017</v>
       </c>
       <c r="M77" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O77">
-        <v>454.2</v>
+        <v>756.7</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4499,25 +4517,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C78">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D78">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F78">
-        <v>-0.14</v>
+        <v>-0.31</v>
       </c>
       <c r="G78">
-        <v>-0.08</v>
+        <v>-0.34</v>
       </c>
       <c r="H78">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4526,19 +4544,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.5033679935191738</v>
+        <v>1.791873351911084</v>
       </c>
       <c r="L78">
-        <v>0.7091636788126408</v>
+        <v>1.649829716116953</v>
       </c>
       <c r="M78" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O78">
-        <v>1474</v>
+        <v>38.13</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4546,25 +4564,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D79">
         <v>20</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F79">
-        <v>0.46</v>
+        <v>-0.11</v>
       </c>
       <c r="G79">
-        <v>2.79</v>
+        <v>-0.02</v>
       </c>
       <c r="H79">
-        <v>-0.68</v>
+        <v>-0.47</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4573,19 +4591,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.282809188620099</v>
       </c>
       <c r="L79">
-        <v>0.0004571324084020936</v>
+        <v>0.4405408009886934</v>
       </c>
       <c r="M79" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O79">
-        <v>381.05</v>
+        <v>407.8</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4593,25 +4611,25 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D80">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>-0.98</v>
+        <v>-1.34</v>
       </c>
       <c r="G80">
-        <v>0.16</v>
+        <v>-2.04</v>
       </c>
       <c r="H80">
-        <v>1.45</v>
+        <v>-1.18</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4620,19 +4638,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0.005137575400799864</v>
+        <v>0.596072386739909</v>
       </c>
       <c r="L80">
-        <v>0.02257700370907918</v>
+        <v>0.841548048056397</v>
       </c>
       <c r="M80" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
       <c r="O80">
-        <v>3809.9</v>
+        <v>108.26</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4640,25 +4658,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C81">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F81">
-        <v>0.7</v>
+        <v>-1.07</v>
       </c>
       <c r="G81">
-        <v>1.48</v>
+        <v>1.09</v>
       </c>
       <c r="H81">
-        <v>-0.41</v>
+        <v>1.52</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4667,19 +4685,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.2334740476745248</v>
+        <v>0.3285382096038183</v>
       </c>
       <c r="L81">
-        <v>0.5104114609361986</v>
+        <v>0.511644128028285</v>
       </c>
       <c r="M81" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O81">
-        <v>659.7</v>
+        <v>380.4</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4687,25 +4705,25 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C82">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F82">
-        <v>0.17</v>
+        <v>-0.53</v>
       </c>
       <c r="G82">
-        <v>0.6</v>
+        <v>-0.62</v>
       </c>
       <c r="H82">
-        <v>0.38</v>
+        <v>-0.25</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4714,19 +4732,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.1635919454171538</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0.3661862095831711</v>
+        <v>0.004804062864594057</v>
       </c>
       <c r="M82" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>4541.5</v>
+        <v>587.35</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4734,25 +4752,25 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D83">
         <v>20</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F83">
-        <v>-0.09</v>
+        <v>0.31</v>
       </c>
       <c r="G83">
-        <v>-0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H83">
-        <v>0.43</v>
+        <v>-0.12</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4764,16 +4782,16 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0.5217391304347826</v>
+        <v>0.01181195369714151</v>
       </c>
       <c r="M83" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O83">
-        <v>6615</v>
+        <v>690.3</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4781,25 +4799,25 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F84">
-        <v>-0.16</v>
+        <v>0.28</v>
       </c>
       <c r="G84">
-        <v>0.37</v>
+        <v>0.85</v>
       </c>
       <c r="H84">
-        <v>-0.15</v>
+        <v>-0.57</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4808,19 +4826,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0.005672775405370761</v>
+        <v>4.259457028834835</v>
       </c>
       <c r="L84">
-        <v>0.01385201431374813</v>
+        <v>0.5712605726174861</v>
       </c>
       <c r="M84" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>631.2</v>
+        <v>1923.2</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4828,25 +4846,25 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C85">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F85">
-        <v>-0.05</v>
+        <v>0.26</v>
       </c>
       <c r="G85">
-        <v>-0.59</v>
+        <v>0.13</v>
       </c>
       <c r="H85">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4855,19 +4873,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1.638312027752803</v>
       </c>
       <c r="L85">
-        <v>0.02133791939362092</v>
+        <v>1.459146423353505</v>
       </c>
       <c r="M85" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O85">
-        <v>748.05</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4875,25 +4893,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F86">
-        <v>-0.11</v>
+        <v>-0.44</v>
       </c>
       <c r="G86">
-        <v>-0.08</v>
+        <v>0.18</v>
       </c>
       <c r="H86">
-        <v>-0.91</v>
+        <v>3.2</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4902,19 +4920,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>0.5766011076899871</v>
       </c>
       <c r="L86">
-        <v>0.01693480101608806</v>
+        <v>0.5546050833066296</v>
       </c>
       <c r="M86" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O86">
-        <v>316.25</v>
+        <v>3657.1</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4922,25 +4940,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E87">
         <v>20</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="G87">
-        <v>-0.08</v>
+        <v>-1.28</v>
       </c>
       <c r="H87">
-        <v>-0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4949,19 +4967,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.6053313094004295</v>
       </c>
       <c r="L87">
-        <v>0.00887705281846427</v>
+        <v>0.4506407101005129</v>
       </c>
       <c r="M87" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N87">
         <v>2</v>
       </c>
       <c r="O87">
-        <v>591.5</v>
+        <v>988.8</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4969,25 +4987,25 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F88">
-        <v>0.58</v>
+        <v>-0.1</v>
       </c>
       <c r="G88">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
       <c r="H88">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4996,19 +5014,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.2679488432982228</v>
+        <v>0.3439427710930097</v>
       </c>
       <c r="L88">
-        <v>0.6088129248892191</v>
+        <v>0.7776613519866331</v>
       </c>
       <c r="M88" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>1740</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5016,25 +5034,25 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C89">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89">
         <v>20</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F89">
-        <v>0.01</v>
+        <v>0.85</v>
       </c>
       <c r="G89">
-        <v>-0.28</v>
+        <v>0.96</v>
       </c>
       <c r="H89">
-        <v>-0.24</v>
+        <v>0.62</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -5043,19 +5061,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0.01755412521941021</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0.2061855670103093</v>
+        <v>0.01453752498637107</v>
       </c>
       <c r="M89" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>1854.7</v>
+        <v>459.05</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5063,25 +5081,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C90">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90">
         <v>20</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F90">
-        <v>0.19</v>
+        <v>-0.14</v>
       </c>
       <c r="G90">
         <v>0.31</v>
       </c>
       <c r="H90">
-        <v>-0.19</v>
+        <v>-0.41</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -5090,19 +5108,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0.2790978976877694</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>0.4774245565537894</v>
+        <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>934.9</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5110,25 +5128,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="D91">
         <v>40</v>
       </c>
-      <c r="D91">
-        <v>20</v>
-      </c>
       <c r="E91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>0.21</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G91">
-        <v>0.13</v>
+        <v>-0.25</v>
       </c>
       <c r="H91">
-        <v>-1.16</v>
+        <v>-0.28</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5137,19 +5155,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.4816926607664379</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>0.5815139767394409</v>
       </c>
       <c r="M91" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>2345.8</v>
+        <v>1153.8</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5157,22 +5175,22 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92">
         <v>40</v>
       </c>
-      <c r="D92">
-        <v>20</v>
-      </c>
       <c r="E92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>0.03</v>
+        <v>-1.13</v>
       </c>
       <c r="G92">
-        <v>0.37</v>
+        <v>-0.93</v>
       </c>
       <c r="H92">
         <v>0.72</v>
@@ -5184,19 +5202,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>0.2349026397792901</v>
       </c>
       <c r="L92">
-        <v>0.03446790176647997</v>
+        <v>0.5426808936312104</v>
       </c>
       <c r="M92" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>3186.5</v>
+        <v>958</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5204,25 +5222,25 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93">
         <v>40</v>
       </c>
-      <c r="D93">
-        <v>20</v>
-      </c>
       <c r="E93">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>0.47</v>
+        <v>-0.55</v>
       </c>
       <c r="G93">
-        <v>0.64</v>
+        <v>-0.49</v>
       </c>
       <c r="H93">
-        <v>-0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5231,19 +5249,19 @@
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>0.1226614570743322</v>
+        <v>0.4631596118671729</v>
       </c>
       <c r="L93">
-        <v>0.4267225209453545</v>
+        <v>0.7566560238947396</v>
       </c>
       <c r="M93" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>2230</v>
+        <v>398.7</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5251,25 +5269,25 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C94">
+        <v>50</v>
+      </c>
+      <c r="D94">
         <v>40</v>
       </c>
-      <c r="D94">
-        <v>20</v>
-      </c>
       <c r="E94">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>0.08</v>
+        <v>-0.67</v>
       </c>
       <c r="G94">
-        <v>0.01</v>
+        <v>-0.99</v>
       </c>
       <c r="H94">
-        <v>0.1</v>
+        <v>-0.14</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5278,19 +5296,19 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>0.04317841079460306</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0.0936768149882904</v>
+        <v>0.02242080295333032</v>
       </c>
       <c r="M94" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>1000.4</v>
+        <v>76.86</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5298,25 +5316,25 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C95">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95">
         <v>20</v>
       </c>
       <c r="E95">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F95">
-        <v>0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="G95">
-        <v>-0.41</v>
+        <v>0.02</v>
       </c>
       <c r="H95">
-        <v>-0.02</v>
+        <v>0.43</v>
       </c>
       <c r="I95">
         <v>50</v>
@@ -5328,16 +5346,16 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.02272727272727273</v>
+        <v>0.2574525745257453</v>
       </c>
       <c r="M95" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>1944.4</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5345,25 +5363,25 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C96">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96">
         <v>20</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F96">
-        <v>0.5</v>
+        <v>-0.11</v>
       </c>
       <c r="G96">
-        <v>0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="H96">
-        <v>0.06</v>
+        <v>-0.91</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5372,19 +5390,19 @@
         <v>0.5</v>
       </c>
       <c r="K96">
-        <v>0.3374708713786519</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>0.6331981246378339</v>
+        <v>0.5826554744146157</v>
       </c>
       <c r="M96" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O96">
-        <v>830.95</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5392,25 +5410,25 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C97">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F97">
-        <v>0.13</v>
+        <v>-0.35</v>
       </c>
       <c r="G97">
-        <v>0.9</v>
+        <v>-0.52</v>
       </c>
       <c r="H97">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I97">
         <v>50</v>
@@ -5419,19 +5437,19 @@
         <v>0.5</v>
       </c>
       <c r="K97">
-        <v>1.055464194947161</v>
+        <v>1.558041248903153</v>
       </c>
       <c r="L97">
-        <v>3.040482342807924</v>
+        <v>0.9120247298843689</v>
       </c>
       <c r="M97" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O97">
-        <v>459.6</v>
+        <v>241.7</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5439,25 +5457,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F98">
-        <v>-0</v>
+        <v>-0.08</v>
       </c>
       <c r="G98">
-        <v>-0.09</v>
+        <v>-0.64</v>
       </c>
       <c r="H98">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="I98">
         <v>50</v>
@@ -5466,19 +5484,19 @@
         <v>0.5</v>
       </c>
       <c r="K98">
-        <v>0.3763640091571149</v>
+        <v>1.500187325397259</v>
       </c>
       <c r="L98">
-        <v>0.4475301738406893</v>
+        <v>0.6068723325173346</v>
       </c>
       <c r="M98" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O98">
-        <v>3057.3</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5486,25 +5504,25 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C99">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E99">
         <v>10</v>
       </c>
       <c r="F99">
-        <v>-0.37</v>
+        <v>-0.74</v>
       </c>
       <c r="G99">
-        <v>0.01</v>
+        <v>-0.25</v>
       </c>
       <c r="H99">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -5513,19 +5531,19 @@
         <v>0.5</v>
       </c>
       <c r="K99">
-        <v>0.05869946009836164</v>
+        <v>0.2835853287998363</v>
       </c>
       <c r="L99">
-        <v>0.2300425055811449</v>
+        <v>0.3674540682414698</v>
       </c>
       <c r="M99" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99">
-        <v>124.67</v>
+        <v>3190.1</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5533,25 +5551,25 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E100">
         <v>10</v>
       </c>
       <c r="F100">
-        <v>-0.15</v>
+        <v>-0.55</v>
       </c>
       <c r="G100">
-        <v>-0.16</v>
+        <v>0.48</v>
       </c>
       <c r="H100">
-        <v>0.67</v>
+        <v>-0.47</v>
       </c>
       <c r="I100">
         <v>50</v>
@@ -5563,16 +5581,16 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0.04024144869215292</v>
+        <v>0.04244025028208021</v>
       </c>
       <c r="M100" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N100">
         <v>1</v>
       </c>
       <c r="O100">
-        <v>407.35</v>
+        <v>222.4</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5580,25 +5598,25 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C101">
+        <v>40</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
         <v>30</v>
       </c>
-      <c r="D101">
-        <v>20</v>
-      </c>
-      <c r="E101">
-        <v>10</v>
-      </c>
       <c r="F101">
-        <v>-0.2</v>
+        <v>-0.33</v>
       </c>
       <c r="G101">
-        <v>-0.41</v>
+        <v>-0.48</v>
       </c>
       <c r="H101">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I101">
         <v>50</v>
@@ -5607,19 +5625,19 @@
         <v>0.5</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>0.7291889320877589</v>
       </c>
       <c r="L101">
-        <v>0.3651545212215636</v>
+        <v>0.7461624859603145</v>
       </c>
       <c r="M101" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>59</v>
+        <v>823.5</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5627,25 +5645,25 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D102">
         <v>20</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F102">
-        <v>0.05</v>
+        <v>-0.38</v>
       </c>
       <c r="G102">
-        <v>1.65</v>
+        <v>-0.32</v>
       </c>
       <c r="H102">
-        <v>-0.62</v>
+        <v>-1.16</v>
       </c>
       <c r="I102">
         <v>50</v>
@@ -5654,19 +5672,19 @@
         <v>0.5</v>
       </c>
       <c r="K102">
-        <v>0.0008623198559923066</v>
+        <v>0.2221193891717078</v>
       </c>
       <c r="L102">
-        <v>0.002164619297581038</v>
+        <v>0.6840855106888361</v>
       </c>
       <c r="M102" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>810.1</v>
+        <v>2333.5</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5674,25 +5692,25 @@
         <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D103">
         <v>20</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F103">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="G103">
-        <v>0.89</v>
+        <v>3.43</v>
       </c>
       <c r="H103">
-        <v>0.49</v>
+        <v>-0.24</v>
       </c>
       <c r="I103">
         <v>50</v>
@@ -5701,19 +5719,19 @@
         <v>0.5</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>0.1506597692615492</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>0.2785515320334262</v>
       </c>
       <c r="M103" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>3213.1</v>
+        <v>1921.5</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5721,25 +5739,25 @@
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C104">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D104">
         <v>20</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F104">
-        <v>0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="G104">
-        <v>0.12</v>
+        <v>-0.83</v>
       </c>
       <c r="H104">
-        <v>0.2</v>
+        <v>-1.38</v>
       </c>
       <c r="I104">
         <v>50</v>
@@ -5748,19 +5766,19 @@
         <v>0.5</v>
       </c>
       <c r="K104">
-        <v>0.01792998692440344</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>0.1899823706315462</v>
+        <v>0.0160548885077187</v>
       </c>
       <c r="M104" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>665.5</v>
+        <v>213.2</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5768,25 +5786,25 @@
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C105">
+        <v>40</v>
+      </c>
+      <c r="D105">
         <v>30</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>10</v>
       </c>
-      <c r="E105">
-        <v>20</v>
-      </c>
       <c r="F105">
-        <v>0.05</v>
+        <v>-0.33</v>
       </c>
       <c r="G105">
-        <v>-0.83</v>
+        <v>-0.18</v>
       </c>
       <c r="H105">
-        <v>1.52</v>
+        <v>-0.54</v>
       </c>
       <c r="I105">
         <v>50</v>
@@ -5795,19 +5813,19 @@
         <v>0.5</v>
       </c>
       <c r="K105">
-        <v>1.732190646583366</v>
+        <v>0.4295774957271237</v>
       </c>
       <c r="L105">
-        <v>1.928286666822092</v>
+        <v>3.856514622650812</v>
       </c>
       <c r="M105" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>376.6</v>
+        <v>1225.1</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5818,22 +5836,22 @@
         <v>156</v>
       </c>
       <c r="C106">
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
         <v>30</v>
       </c>
-      <c r="D106">
-        <v>20</v>
-      </c>
-      <c r="E106">
-        <v>10</v>
-      </c>
       <c r="F106">
-        <v>0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="G106">
-        <v>0.07000000000000001</v>
+        <v>-0.77</v>
       </c>
       <c r="H106">
-        <v>-0.21</v>
+        <v>-0.68</v>
       </c>
       <c r="I106">
         <v>50</v>
@@ -5842,19 +5860,19 @@
         <v>0.5</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1.343364792616986</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>1.867472274118536</v>
       </c>
       <c r="M106" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>367.25</v>
+        <v>376.1</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5862,25 +5880,25 @@
         <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D107">
         <v>20</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F107">
-        <v>-0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="G107">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="H107">
-        <v>-0.05</v>
+        <v>-0.15</v>
       </c>
       <c r="I107">
         <v>50</v>
@@ -5889,19 +5907,19 @@
         <v>0.5</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>0.1365643582711214</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>0.1220118147187103</v>
       </c>
       <c r="M107" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O107">
-        <v>8637</v>
+        <v>2235.2</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5909,25 +5927,25 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C108">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D108">
         <v>20</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F108">
-        <v>-0.14</v>
+        <v>0.34</v>
       </c>
       <c r="G108">
-        <v>-0.33</v>
+        <v>1.53</v>
       </c>
       <c r="H108">
-        <v>0.77</v>
+        <v>0.06</v>
       </c>
       <c r="I108">
         <v>50</v>
@@ -5936,19 +5954,19 @@
         <v>0.5</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.03355683125800373</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>0.4899819094105199</v>
       </c>
       <c r="M108" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O108">
-        <v>766</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5956,25 +5974,25 @@
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C109">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D109">
         <v>20</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F109">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="H109">
-        <v>-0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I109">
         <v>50</v>
@@ -5983,19 +6001,19 @@
         <v>0.5</v>
       </c>
       <c r="K109">
-        <v>0.2447625742049098</v>
+        <v>0.01788356690116115</v>
       </c>
       <c r="L109">
-        <v>0.4483339815895242</v>
+        <v>0.04975452964357264</v>
       </c>
       <c r="M109" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>580.6</v>
+        <v>460.05</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6003,25 +6021,25 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C110">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D110">
         <v>20</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F110">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0.77</v>
+        <v>0.13</v>
       </c>
       <c r="H110">
-        <v>0.43</v>
+        <v>0.72</v>
       </c>
       <c r="I110">
         <v>50</v>
@@ -6036,13 +6054,13 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>359.4</v>
+        <v>3191.3</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6050,7 +6068,7 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C111">
         <v>30</v>
@@ -6062,13 +6080,13 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>-0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G111">
-        <v>-0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H111">
-        <v>0.09</v>
+        <v>-0.62</v>
       </c>
       <c r="I111">
         <v>50</v>
@@ -6077,19 +6095,19 @@
         <v>0.5</v>
       </c>
       <c r="K111">
-        <v>0.2060683203850328</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>0.2202472952086553</v>
+        <v>0.1092001092001092</v>
       </c>
       <c r="M111" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N111">
         <v>1</v>
       </c>
       <c r="O111">
-        <v>400.75</v>
+        <v>810.95</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6097,7 +6115,7 @@
         <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C112">
         <v>30</v>
@@ -6109,13 +6127,13 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>-0.09</v>
+        <v>-0.32</v>
       </c>
       <c r="G112">
-        <v>-0.53</v>
+        <v>-0.6</v>
       </c>
       <c r="H112">
-        <v>1.26</v>
+        <v>0.34</v>
       </c>
       <c r="I112">
         <v>50</v>
@@ -6124,19 +6142,19 @@
         <v>0.5</v>
       </c>
       <c r="K112">
-        <v>0.06200486810888753</v>
+        <v>0.03070524588565827</v>
       </c>
       <c r="L112">
-        <v>0.5321018502771273</v>
+        <v>0.02629193319901417</v>
       </c>
       <c r="M112" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N112">
         <v>1</v>
       </c>
       <c r="O112">
-        <v>519.95</v>
+        <v>124.3</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6144,7 +6162,7 @@
         <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C113">
         <v>30</v>
@@ -6156,13 +6174,13 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>-0.17</v>
+        <v>-0.37</v>
       </c>
       <c r="G113">
-        <v>0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="H113">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I113">
         <v>50</v>
@@ -6171,19 +6189,19 @@
         <v>0.5</v>
       </c>
       <c r="K113">
-        <v>0.328682817903688</v>
+        <v>0.2322339022370227</v>
       </c>
       <c r="L113">
-        <v>0.6170336037079954</v>
+        <v>0.6814905476466117</v>
       </c>
       <c r="M113" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N113">
         <v>1</v>
       </c>
       <c r="O113">
-        <v>3882.5</v>
+        <v>3051.5</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6191,7 +6209,7 @@
         <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C114">
         <v>30</v>
@@ -6203,13 +6221,13 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="G114">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
       <c r="H114">
-        <v>0.62</v>
+        <v>-0.04</v>
       </c>
       <c r="I114">
         <v>50</v>
@@ -6221,16 +6239,16 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>0.4370001159151501</v>
       </c>
       <c r="M114" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N114">
         <v>1</v>
       </c>
       <c r="O114">
-        <v>360.15</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6238,7 +6256,7 @@
         <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C115">
         <v>30</v>
@@ -6250,13 +6268,13 @@
         <v>10</v>
       </c>
       <c r="F115">
-        <v>-0.52</v>
+        <v>0.83</v>
       </c>
       <c r="G115">
-        <v>1.04</v>
+        <v>-0.38</v>
       </c>
       <c r="H115">
-        <v>1.14</v>
+        <v>-0.17</v>
       </c>
       <c r="I115">
         <v>50</v>
@@ -6265,19 +6283,19 @@
         <v>0.5</v>
       </c>
       <c r="K115">
-        <v>0.9786471007513879</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>1.020610057708162</v>
+        <v>0.05329507020600594</v>
       </c>
       <c r="M115" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N115">
         <v>1</v>
       </c>
       <c r="O115">
-        <v>2546.3</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6285,7 +6303,7 @@
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -6297,13 +6315,13 @@
         <v>10</v>
       </c>
       <c r="F116">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G116">
-        <v>0.93</v>
+        <v>-0.53</v>
       </c>
       <c r="H116">
-        <v>0.14</v>
+        <v>-0.57</v>
       </c>
       <c r="I116">
         <v>50</v>
@@ -6312,19 +6330,19 @@
         <v>0.5</v>
       </c>
       <c r="K116">
-        <v>0.06550783309915129</v>
+        <v>0.1466369142492827</v>
       </c>
       <c r="L116">
-        <v>0.0581875734618115</v>
+        <v>0.271476121904582</v>
       </c>
       <c r="M116" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N116">
         <v>1</v>
       </c>
       <c r="O116">
-        <v>217.08</v>
+        <v>8047.5</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6332,7 +6350,7 @@
         <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C117">
         <v>30</v>
@@ -6344,13 +6362,13 @@
         <v>10</v>
       </c>
       <c r="F117">
-        <v>0.83</v>
+        <v>-0.04</v>
       </c>
       <c r="G117">
-        <v>0.6</v>
+        <v>-0.24</v>
       </c>
       <c r="H117">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="I117">
         <v>50</v>
@@ -6359,19 +6377,19 @@
         <v>0.5</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>0.04200877221448646</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>0.2264335769723457</v>
       </c>
       <c r="M117" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N117">
         <v>1</v>
       </c>
       <c r="O117">
-        <v>266.35</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6379,7 +6397,7 @@
         <v>131</v>
       </c>
       <c r="B118" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C118">
         <v>30</v>
@@ -6391,13 +6409,13 @@
         <v>10</v>
       </c>
       <c r="F118">
-        <v>0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="G118">
-        <v>0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="H118">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I118">
         <v>50</v>
@@ -6406,19 +6424,19 @@
         <v>0.5</v>
       </c>
       <c r="K118">
-        <v>0.007485525584662493</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>0.01595287765369984</v>
+        <v>0.03227944022726825</v>
       </c>
       <c r="M118" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N118">
         <v>1</v>
       </c>
       <c r="O118">
-        <v>595.5</v>
+        <v>216.9</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6426,7 +6444,7 @@
         <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C119">
         <v>30</v>
@@ -6438,13 +6456,13 @@
         <v>10</v>
       </c>
       <c r="F119">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="G119">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H119">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="I119">
         <v>50</v>
@@ -6453,19 +6471,19 @@
         <v>0.5</v>
       </c>
       <c r="K119">
-        <v>0.1438167869557414</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>0.1803316050367501</v>
+        <v>0.1416875238620456</v>
       </c>
       <c r="M119" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N119">
         <v>1</v>
       </c>
       <c r="O119">
-        <v>241.95</v>
+        <v>268.05</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6473,25 +6491,25 @@
         <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C120">
         <v>30</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F120">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="G120">
-        <v>-0.66</v>
+        <v>1.1</v>
       </c>
       <c r="H120">
-        <v>-0.15</v>
+        <v>-0.19</v>
       </c>
       <c r="I120">
         <v>50</v>
@@ -6500,19 +6518,19 @@
         <v>0.5</v>
       </c>
       <c r="K120">
-        <v>0.03517893688809621</v>
+        <v>6.924867687105843</v>
       </c>
       <c r="L120">
-        <v>0.1389192258966406</v>
+        <v>2.867732248835504</v>
       </c>
       <c r="M120" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O120">
-        <v>74.70999999999999</v>
+        <v>939.35</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6520,25 +6538,25 @@
         <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C121">
         <v>30</v>
       </c>
       <c r="D121">
+        <v>20</v>
+      </c>
+      <c r="E121">
         <v>10</v>
       </c>
-      <c r="E121">
-        <v>20</v>
-      </c>
       <c r="F121">
-        <v>0.61</v>
+        <v>-0.13</v>
       </c>
       <c r="G121">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>-0.55</v>
+        <v>1.26</v>
       </c>
       <c r="I121">
         <v>50</v>
@@ -6547,19 +6565,19 @@
         <v>0.5</v>
       </c>
       <c r="K121">
-        <v>0.6610211652228178</v>
+        <v>0.006074909754486364</v>
       </c>
       <c r="L121">
-        <v>0.9581653677326883</v>
+        <v>0.0827029910235095</v>
       </c>
       <c r="M121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>445.25</v>
+        <v>520.8</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6567,7 +6585,7 @@
         <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C122">
         <v>30</v>
@@ -6579,13 +6597,13 @@
         <v>10</v>
       </c>
       <c r="F122">
-        <v>-0.38</v>
+        <v>0.3</v>
       </c>
       <c r="G122">
-        <v>-0.68</v>
+        <v>0.6</v>
       </c>
       <c r="H122">
-        <v>-0.57</v>
+        <v>0.25</v>
       </c>
       <c r="I122">
         <v>50</v>
@@ -6594,19 +6612,19 @@
         <v>0.5</v>
       </c>
       <c r="K122">
-        <v>0.0004296732335059187</v>
+        <v>0.148846879025999</v>
       </c>
       <c r="L122">
-        <v>0.006142506142506143</v>
+        <v>0.3728222031410132</v>
       </c>
       <c r="M122" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N122">
         <v>1</v>
       </c>
       <c r="O122">
-        <v>8059.5</v>
+        <v>1431.6</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -6614,25 +6632,25 @@
         <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C123">
         <v>30</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F123">
-        <v>0.09</v>
+        <v>1.09</v>
       </c>
       <c r="G123">
-        <v>-0.39</v>
+        <v>0.55</v>
       </c>
       <c r="H123">
-        <v>-0.04</v>
+        <v>-0.55</v>
       </c>
       <c r="I123">
         <v>50</v>
@@ -6641,19 +6659,19 @@
         <v>0.5</v>
       </c>
       <c r="K123">
-        <v>0.01818662177354755</v>
+        <v>0.7166645634557087</v>
       </c>
       <c r="L123">
-        <v>0.3815416344418665</v>
+        <v>0.5962137550922597</v>
       </c>
       <c r="M123" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>637.05</v>
+        <v>445.9</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -6661,25 +6679,25 @@
         <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C124">
         <v>30</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F124">
-        <v>0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="G124">
-        <v>0.07000000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="H124">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="I124">
         <v>50</v>
@@ -6688,19 +6706,19 @@
         <v>0.5</v>
       </c>
       <c r="K124">
-        <v>0.08024317560130045</v>
+        <v>1.591826692651641</v>
       </c>
       <c r="L124">
-        <v>0.2098775064367637</v>
+        <v>1.234659532234401</v>
       </c>
       <c r="M124" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>1456.4</v>
+        <v>805.4</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -6708,7 +6726,7 @@
         <v>138</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C125">
         <v>30</v>
@@ -6720,13 +6738,13 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>-0.47</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>-0.83</v>
+        <v>0.43</v>
       </c>
       <c r="H125">
-        <v>-0.12</v>
+        <v>-0.24</v>
       </c>
       <c r="I125">
         <v>50</v>
@@ -6735,19 +6753,19 @@
         <v>0.5</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>0.380683720932592</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>0.4632095477634758</v>
       </c>
       <c r="M125" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N125">
         <v>1</v>
       </c>
       <c r="O125">
-        <v>117.5</v>
+        <v>1461.3</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -6755,7 +6773,7 @@
         <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C126">
         <v>30</v>
@@ -6767,13 +6785,13 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G126">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="H126">
-        <v>0.44</v>
+        <v>-0.04</v>
       </c>
       <c r="I126">
         <v>50</v>
@@ -6782,19 +6800,19 @@
         <v>0.5</v>
       </c>
       <c r="K126">
-        <v>0.03627329335595716</v>
+        <v>0.0008407607859811333</v>
       </c>
       <c r="L126">
-        <v>0.1140395337050177</v>
+        <v>0.02508517597207242</v>
       </c>
       <c r="M126" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N126">
         <v>1</v>
       </c>
       <c r="O126">
-        <v>4319.8</v>
+        <v>155.86</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -6802,7 +6820,7 @@
         <v>140</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C127">
         <v>30</v>
@@ -6814,13 +6832,13 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <v>-0.1</v>
+        <v>0.24</v>
       </c>
       <c r="G127">
-        <v>-0.41</v>
+        <v>0.1</v>
       </c>
       <c r="H127">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="I127">
         <v>50</v>
@@ -6829,19 +6847,19 @@
         <v>0.5</v>
       </c>
       <c r="K127">
-        <v>0.4562234681844125</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>0.4961814206897891</v>
+        <v>0.005203590477429426</v>
       </c>
       <c r="M127" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N127">
         <v>1</v>
       </c>
       <c r="O127">
-        <v>19.32</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6849,7 +6867,7 @@
         <v>141</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C128">
         <v>30</v>
@@ -6861,10 +6879,10 @@
         <v>10</v>
       </c>
       <c r="F128">
-        <v>-0.1</v>
+        <v>-0.33</v>
       </c>
       <c r="G128">
-        <v>-0.28</v>
+        <v>-1</v>
       </c>
       <c r="H128">
         <v>-0.14</v>
@@ -6876,19 +6894,19 @@
         <v>0.5</v>
       </c>
       <c r="K128">
-        <v>0.1188768934335066</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>0.1694858854195552</v>
+        <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N128">
         <v>1</v>
       </c>
       <c r="O128">
-        <v>77.54000000000001</v>
+        <v>579.7</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6896,7 +6914,7 @@
         <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C129">
         <v>30</v>
@@ -6908,13 +6926,13 @@
         <v>10</v>
       </c>
       <c r="F129">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="G129">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="H129">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="I129">
         <v>50</v>
@@ -6923,19 +6941,19 @@
         <v>0.5</v>
       </c>
       <c r="K129">
-        <v>0.2265968469099232</v>
+        <v>0.171311681278982</v>
       </c>
       <c r="L129">
-        <v>0.3784385434886309</v>
+        <v>0.213073311664861</v>
       </c>
       <c r="M129" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N129">
         <v>1</v>
       </c>
       <c r="O129">
-        <v>967.5</v>
+        <v>4322.6</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6943,7 +6961,7 @@
         <v>143</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C130">
         <v>30</v>
@@ -6955,13 +6973,13 @@
         <v>10</v>
       </c>
       <c r="F130">
-        <v>-0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="G130">
-        <v>0.76</v>
+        <v>-0.62</v>
       </c>
       <c r="H130">
-        <v>-0.26</v>
+        <v>0.26</v>
       </c>
       <c r="I130">
         <v>50</v>
@@ -6970,19 +6988,19 @@
         <v>0.5</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>0.1928525868933275</v>
       </c>
       <c r="L130">
-        <v>0.09060706735125339</v>
+        <v>0.1704020200490573</v>
       </c>
       <c r="M130" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N130">
         <v>1</v>
       </c>
       <c r="O130">
-        <v>3065</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -6990,7 +7008,7 @@
         <v>144</v>
       </c>
       <c r="B131" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C131">
         <v>30</v>
@@ -7002,13 +7020,13 @@
         <v>10</v>
       </c>
       <c r="F131">
-        <v>-0.38</v>
+        <v>0.4</v>
       </c>
       <c r="G131">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="H131">
-        <v>-0.31</v>
+        <v>-0.26</v>
       </c>
       <c r="I131">
         <v>50</v>
@@ -7017,19 +7035,19 @@
         <v>0.5</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>0.4544820882074119</v>
       </c>
       <c r="L131">
-        <v>0.0856338028169014</v>
+        <v>0.5103298296484233</v>
       </c>
       <c r="M131" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N131">
         <v>1</v>
       </c>
       <c r="O131">
-        <v>368.9</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7037,25 +7055,25 @@
         <v>145</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>10</v>
       </c>
       <c r="F132">
-        <v>0.14</v>
+        <v>-0.37</v>
       </c>
       <c r="G132">
-        <v>0.8100000000000001</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H132">
-        <v>0.25</v>
+        <v>0.77</v>
       </c>
       <c r="I132">
         <v>50</v>
@@ -7064,19 +7082,19 @@
         <v>0.5</v>
       </c>
       <c r="K132">
-        <v>3.013561801551689</v>
+        <v>0.3822154889071351</v>
       </c>
       <c r="L132">
-        <v>2.696242224849638</v>
+        <v>0.8620365142104274</v>
       </c>
       <c r="M132" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N132">
         <v>1</v>
       </c>
       <c r="O132">
-        <v>1426.5</v>
+        <v>766</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7084,25 +7102,25 @@
         <v>146</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C133">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>10</v>
       </c>
       <c r="F133">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
       <c r="G133">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H133">
-        <v>-0.04</v>
+        <v>0.27</v>
       </c>
       <c r="I133">
         <v>50</v>
@@ -7111,19 +7129,19 @@
         <v>0.5</v>
       </c>
       <c r="K133">
-        <v>5.509923280713442</v>
+        <v>0.01359831582340302</v>
       </c>
       <c r="L133">
-        <v>3.657194372969216</v>
+        <v>0.01704061346208463</v>
       </c>
       <c r="M133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N133">
         <v>1</v>
       </c>
       <c r="O133">
-        <v>155.15</v>
+        <v>421.1</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7131,7 +7149,7 @@
         <v>147</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C134">
         <v>20</v>
@@ -7143,13 +7161,13 @@
         <v>10</v>
       </c>
       <c r="F134">
-        <v>0.1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G134">
-        <v>-0.11</v>
+        <v>0.95</v>
       </c>
       <c r="H134">
-        <v>-0.28</v>
+        <v>0.62</v>
       </c>
       <c r="I134">
         <v>50</v>
@@ -7158,19 +7176,19 @@
         <v>0.5</v>
       </c>
       <c r="K134">
-        <v>0.5715743812196128</v>
+        <v>1.712400569944419</v>
       </c>
       <c r="L134">
-        <v>0.2983881710403623</v>
+        <v>2.412587412587412</v>
       </c>
       <c r="M134" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N134">
         <v>1</v>
       </c>
       <c r="O134">
-        <v>1158.2</v>
+        <v>362.55</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7178,26 +7196,26 @@
         <v>148</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C135">
+        <v>20</v>
+      </c>
+      <c r="D135">
         <v>10</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
       </c>
       <c r="E135">
         <v>10</v>
       </c>
       <c r="F135">
+        <v>0.4</v>
+      </c>
+      <c r="G135">
+        <v>0.45</v>
+      </c>
+      <c r="H135">
         <v>0.15</v>
       </c>
-      <c r="G135">
-        <v>0.15</v>
-      </c>
-      <c r="H135">
-        <v>-0.54</v>
-      </c>
       <c r="I135">
         <v>50</v>
       </c>
@@ -7205,19 +7223,19 @@
         <v>0.5</v>
       </c>
       <c r="K135">
-        <v>1.03550203802231</v>
+        <v>0.5414744898687704</v>
       </c>
       <c r="L135">
-        <v>1.204847629132839</v>
+        <v>1.213207064243665</v>
       </c>
       <c r="M135" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N135">
         <v>1</v>
       </c>
       <c r="O135">
-        <v>1228.4</v>
+        <v>3905.8</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7225,25 +7243,25 @@
         <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C136">
+        <v>20</v>
+      </c>
+      <c r="D136">
         <v>10</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
       </c>
       <c r="E136">
         <v>10</v>
       </c>
       <c r="F136">
-        <v>0.26</v>
+        <v>-0.39</v>
       </c>
       <c r="G136">
-        <v>-0.1</v>
+        <v>-0.68</v>
       </c>
       <c r="H136">
-        <v>-0.47</v>
+        <v>0.2</v>
       </c>
       <c r="I136">
         <v>50</v>
@@ -7252,19 +7270,301 @@
         <v>0.5</v>
       </c>
       <c r="K136">
-        <v>0.8510724968285002</v>
+        <v>2.48578298508266</v>
       </c>
       <c r="L136">
-        <v>1.148883520886113</v>
+        <v>1.66505519636116</v>
       </c>
       <c r="M136" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N136">
         <v>1</v>
       </c>
       <c r="O136">
-        <v>222.73</v>
+        <v>660.15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>-0.08</v>
+      </c>
+      <c r="G137">
+        <v>0.04</v>
+      </c>
+      <c r="H137">
+        <v>0.25</v>
+      </c>
+      <c r="I137">
+        <v>50</v>
+      </c>
+      <c r="J137">
+        <v>0.5</v>
+      </c>
+      <c r="K137">
+        <v>0.5655367757116623</v>
+      </c>
+      <c r="L137">
+        <v>0.6345968244335917</v>
+      </c>
+      <c r="M137" t="s">
+        <v>171</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>241.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>158</v>
+      </c>
+      <c r="C138">
+        <v>20</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>-0.47</v>
+      </c>
+      <c r="G138">
+        <v>-0.35</v>
+      </c>
+      <c r="H138">
+        <v>0.82</v>
+      </c>
+      <c r="I138">
+        <v>50</v>
+      </c>
+      <c r="J138">
+        <v>0.5</v>
+      </c>
+      <c r="K138">
+        <v>4.748093511688865</v>
+      </c>
+      <c r="L138">
+        <v>3.430429481100122</v>
+      </c>
+      <c r="M138" t="s">
+        <v>171</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>206.52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>20</v>
+      </c>
+      <c r="F139">
+        <v>0.08</v>
+      </c>
+      <c r="G139">
+        <v>0.61</v>
+      </c>
+      <c r="H139">
+        <v>0.23</v>
+      </c>
+      <c r="I139">
+        <v>50</v>
+      </c>
+      <c r="J139">
+        <v>0.5</v>
+      </c>
+      <c r="K139">
+        <v>1.26802699316572</v>
+      </c>
+      <c r="L139">
+        <v>1.106055499382092</v>
+      </c>
+      <c r="M139" t="s">
+        <v>171</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>1745.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140">
+        <v>20</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>0.42</v>
+      </c>
+      <c r="G140">
+        <v>1.25</v>
+      </c>
+      <c r="H140">
+        <v>-0.21</v>
+      </c>
+      <c r="I140">
+        <v>50</v>
+      </c>
+      <c r="J140">
+        <v>0.5</v>
+      </c>
+      <c r="K140">
+        <v>0.7396331050088416</v>
+      </c>
+      <c r="L140">
+        <v>1.034749264290598</v>
+      </c>
+      <c r="M140" t="s">
+        <v>171</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>371.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>-0.02</v>
+      </c>
+      <c r="G141">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H141">
+        <v>0.67</v>
+      </c>
+      <c r="I141">
+        <v>50</v>
+      </c>
+      <c r="J141">
+        <v>0.5</v>
+      </c>
+      <c r="K141">
+        <v>1.737905030326645</v>
+      </c>
+      <c r="L141">
+        <v>1.282083702111519</v>
+      </c>
+      <c r="M141" t="s">
+        <v>171</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>407.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>-0.32</v>
+      </c>
+      <c r="G142">
+        <v>-0.2</v>
+      </c>
+      <c r="H142">
+        <v>-0.15</v>
+      </c>
+      <c r="I142">
+        <v>50</v>
+      </c>
+      <c r="J142">
+        <v>0.5</v>
+      </c>
+      <c r="K142">
+        <v>1.119791254007711</v>
+      </c>
+      <c r="L142">
+        <v>1.124549119456822</v>
+      </c>
+      <c r="M142" t="s">
+        <v>171</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>74.53</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="147">
   <si>
     <t>ticker</t>
   </si>
@@ -61,436 +61,364 @@
     <t>close</t>
   </si>
   <si>
+    <t>BHARATFORG</t>
+  </si>
+  <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>MUNJALAU</t>
+  </si>
+  <si>
+    <t>PATELENG</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>SMSPHARMA</t>
+  </si>
+  <si>
+    <t>IRCON</t>
+  </si>
+  <si>
+    <t>TRIVENI</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>SAPPHIRE</t>
+  </si>
+  <si>
     <t>JISLJALEQS</t>
   </si>
   <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>PATELENG</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>ELECON</t>
+  </si>
+  <si>
+    <t>SPARC</t>
+  </si>
+  <si>
+    <t>WESTLIFE</t>
+  </si>
+  <si>
+    <t>APOLLO</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>JWL</t>
+  </si>
+  <si>
+    <t>POLYPLEX</t>
+  </si>
+  <si>
+    <t>GMRAIRPORT</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>ATGL</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>NBCC</t>
+  </si>
+  <si>
+    <t>FINCABLES</t>
+  </si>
+  <si>
+    <t>IFCI</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>BBTC</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>UBL</t>
   </si>
   <si>
     <t>ABB</t>
   </si>
   <si>
-    <t>BHARATFORG</t>
-  </si>
-  <si>
-    <t>SAPPHIRE</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>POLYPLEX</t>
-  </si>
-  <si>
-    <t>QUESS</t>
-  </si>
-  <si>
-    <t>WESTLIFE</t>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>PGEL</t>
+  </si>
+  <si>
+    <t>POLICYBZR</t>
+  </si>
+  <si>
+    <t>ADANIENSOL</t>
+  </si>
+  <si>
+    <t>KPITTECH</t>
+  </si>
+  <si>
+    <t>INDHOTEL</t>
+  </si>
+  <si>
+    <t>DEEPAKFERT</t>
+  </si>
+  <si>
+    <t>CONCOR</t>
+  </si>
+  <si>
+    <t>INTELLECT</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>AVANTIFEED</t>
+  </si>
+  <si>
+    <t>JINDALSAW</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>CROMPTON</t>
+  </si>
+  <si>
+    <t>ICICIGI</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>BANKINDIA</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>BRIGADE</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>TIINDIA</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>EICHERMOT</t>
+  </si>
+  <si>
+    <t>TEJASNET</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>DOMS</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>MAZDOCK</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>WELCORP</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>COFORGE</t>
+  </si>
+  <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
+    <t>PANACEABIO</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>BHEL</t>
+  </si>
+  <si>
+    <t>GLAXO</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>PNCINFRA</t>
+  </si>
+  <si>
+    <t>COLPAL</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>KANSAINER</t>
+  </si>
+  <si>
+    <t>SIGACHI</t>
+  </si>
+  <si>
+    <t>CSBBANK</t>
+  </si>
+  <si>
+    <t>APLAPOLLO</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>BAYERCROP</t>
   </si>
   <si>
     <t>RADIANTCMS</t>
   </si>
   <si>
-    <t>APOLLO</t>
-  </si>
-  <si>
-    <t>BANKINDIA</t>
-  </si>
-  <si>
-    <t>TRIVENI</t>
-  </si>
-  <si>
-    <t>TORNTPOWER</t>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>GICRE</t>
+  </si>
+  <si>
+    <t>CHALET</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
   </si>
   <si>
     <t>AVG</t>
   </si>
   <si>
-    <t>DMART</t>
-  </si>
-  <si>
-    <t>SMSPHARMA</t>
-  </si>
-  <si>
-    <t>KANSAINER</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>MUNJALAU</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>APLAPOLLO</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>POLICYBZR</t>
-  </si>
-  <si>
-    <t>DEEPAKFERT</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>ZFCVINDIA</t>
-  </si>
-  <si>
-    <t>GMRAIRPORT</t>
-  </si>
-  <si>
-    <t>KPITTECH</t>
-  </si>
-  <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
-    <t>FINCABLES</t>
-  </si>
-  <si>
-    <t>IRCON</t>
-  </si>
-  <si>
-    <t>SPARC</t>
-  </si>
-  <si>
     <t>SAFARI</t>
   </si>
   <si>
-    <t>IRB</t>
-  </si>
-  <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>CENTRALBK</t>
-  </si>
-  <si>
-    <t>IFCI</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>FIVESTAR</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>CROMPTON</t>
-  </si>
-  <si>
-    <t>IRFC</t>
-  </si>
-  <si>
-    <t>ELECON</t>
-  </si>
-  <si>
-    <t>NBCC</t>
-  </si>
-  <si>
-    <t>ATGL</t>
-  </si>
-  <si>
-    <t>VISHNU</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>VAIBHAVGBL</t>
-  </si>
-  <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>INDHOTEL</t>
-  </si>
-  <si>
-    <t>JWL</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>BBTC</t>
-  </si>
-  <si>
-    <t>OFSS</t>
-  </si>
-  <si>
-    <t>NIITLTD</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
-  </si>
-  <si>
-    <t>TIINDIA</t>
-  </si>
-  <si>
-    <t>ESCORTS</t>
-  </si>
-  <si>
-    <t>MAZDOCK</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>GICRE</t>
-  </si>
-  <si>
-    <t>TEJASNET</t>
-  </si>
-  <si>
-    <t>AVANTIFEED</t>
-  </si>
-  <si>
-    <t>ICICIGI</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>BRIGADE</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>FACT</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>PNCINFRA</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>NCC</t>
-  </si>
-  <si>
-    <t>ADANIENSOL</t>
-  </si>
-  <si>
-    <t>DOMS</t>
-  </si>
-  <si>
-    <t>THANGAMAYL</t>
-  </si>
-  <si>
-    <t>JINDALSAW</t>
-  </si>
-  <si>
-    <t>CYIENT</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>COLPAL</t>
-  </si>
-  <si>
-    <t>FSL</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>GLAXO</t>
-  </si>
-  <si>
-    <t>ZENSARTECH</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>BAYERCROP</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>GRSE</t>
-  </si>
-  <si>
-    <t>HUDCO</t>
-  </si>
-  <si>
-    <t>HONASA</t>
-  </si>
-  <si>
-    <t>WELCORP</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>ASTRAL</t>
-  </si>
-  <si>
-    <t>STARHEALTH</t>
-  </si>
-  <si>
-    <t>PGEL</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>ANANTRAJ</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>AETHER</t>
-  </si>
-  <si>
-    <t>CSBBANK</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>KEI</t>
-  </si>
-  <si>
-    <t>CGPOWER</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>MVGJL</t>
-  </si>
-  <si>
-    <t>COFORGE</t>
-  </si>
-  <si>
     <t>INDIACEM</t>
   </si>
   <si>
-    <t>CIEINDIA</t>
-  </si>
-  <si>
-    <t>ABFRL</t>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
   <si>
     <t>Financial Services</t>
@@ -502,31 +430,28 @@
     <t>Consumer Defensive</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Energy</t>
+    <t>Utilities</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Utilities</t>
+    <t>Real Estate</t>
   </si>
   <si>
     <t>Communication Services</t>
   </si>
   <si>
-    <t>Real Estate</t>
+    <t>Strong Short</t>
+  </si>
+  <si>
+    <t>Weak Short</t>
+  </si>
+  <si>
+    <t>Short</t>
   </si>
   <si>
     <t>Neutral</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Weak Short</t>
   </si>
   <si>
     <t>No Signal</t>
@@ -887,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,25 +870,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="F2">
-        <v>-0.06</v>
+        <v>-2.51</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>-2.34</v>
       </c>
       <c r="H2">
-        <v>0.27</v>
+        <v>-2.67</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -972,19 +897,19 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.002646205804400138</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07785459661479237</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="N2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>51.37</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -992,25 +917,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="F3">
-        <v>0.64</v>
+        <v>-0.82</v>
       </c>
       <c r="G3">
-        <v>0.54</v>
+        <v>-0.43</v>
       </c>
       <c r="H3">
-        <v>-0.13</v>
+        <v>-0.85</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -1019,19 +944,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.1759245725596511</v>
+        <v>0.259142064407471</v>
       </c>
       <c r="L3">
-        <v>0.2458744046959796</v>
+        <v>0.4951370468611848</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O3">
-        <v>3378</v>
+        <v>3347.2</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1039,25 +964,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C4">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>-0.31</v>
+        <v>-1.7</v>
       </c>
       <c r="G4">
-        <v>-0.5</v>
+        <v>-1.66</v>
       </c>
       <c r="H4">
-        <v>0.13</v>
+        <v>-1.36</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1066,19 +991,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2321887869119715</v>
       </c>
       <c r="L4">
-        <v>0.5546255773148054</v>
+        <v>0.2565775168514894</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>38.02</v>
+        <v>76.51000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1086,25 +1011,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>-0.62</v>
+        <v>-0.95</v>
       </c>
       <c r="G5">
-        <v>-0.79</v>
+        <v>-1.39</v>
       </c>
       <c r="H5">
-        <v>0.37</v>
+        <v>-0.95</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1113,19 +1038,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>3.257084158043796</v>
+        <v>0.03510883468893757</v>
       </c>
       <c r="L5">
-        <v>1.947519475194752</v>
+        <v>0.1274278382322693</v>
       </c>
       <c r="M5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>567.25</v>
+        <v>37.72</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1133,25 +1058,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="F6">
-        <v>0.14</v>
+        <v>-0.91</v>
       </c>
       <c r="G6">
-        <v>0.92</v>
+        <v>-1.18</v>
       </c>
       <c r="H6">
-        <v>0.38</v>
+        <v>-0.55</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1163,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07137507159536503</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O6">
-        <v>5556</v>
+        <v>564.9</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1180,25 +1105,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C7">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="F7">
-        <v>0.49</v>
+        <v>-1.2</v>
       </c>
       <c r="G7">
-        <v>0.42</v>
+        <v>-1.39</v>
       </c>
       <c r="H7">
-        <v>-0.48</v>
+        <v>-0.91</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1207,19 +1132,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.1105392715200858</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2934669259603732</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>1192.6</v>
+        <v>234.7</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1227,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C8">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D8">
         <v>65</v>
       </c>
       <c r="E8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F8">
-        <v>-1.14</v>
+        <v>-0.9</v>
       </c>
       <c r="G8">
-        <v>-1.96</v>
+        <v>-1.03</v>
       </c>
       <c r="H8">
-        <v>0.17</v>
+        <v>-0.55</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1257,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0002401147748623842</v>
       </c>
       <c r="M8" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O8">
-        <v>320.4</v>
+        <v>178.37</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1274,25 +1199,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>-0.1</v>
+        <v>-0.83</v>
       </c>
       <c r="G9">
-        <v>-0.36</v>
+        <v>-1.35</v>
       </c>
       <c r="H9">
-        <v>-0.3</v>
+        <v>-0.96</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1301,19 +1226,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.2455116187076877</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3484020889239891</v>
+        <v>0.263800039570006</v>
       </c>
       <c r="M9" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O9">
-        <v>2454.2</v>
+        <v>339.75</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1321,25 +1246,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E10">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>-1.01</v>
       </c>
       <c r="G10">
-        <v>0.36</v>
+        <v>-1.2</v>
       </c>
       <c r="H10">
-        <v>0.63</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1348,19 +1273,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.00579847796512754</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.01276490056662296</v>
       </c>
       <c r="M10" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O10">
-        <v>1110</v>
+        <v>376.1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1368,25 +1293,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F11">
-        <v>-0.38</v>
+        <v>-1.41</v>
       </c>
       <c r="G11">
-        <v>-1.19</v>
+        <v>-1.63</v>
       </c>
       <c r="H11">
-        <v>1.7</v>
+        <v>-1.17</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1398,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.684167032512976E-05</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11">
-        <v>297.8</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1415,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C12">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D12">
         <v>65</v>
       </c>
       <c r="E12">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F12">
-        <v>-0.84</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G12">
-        <v>-1.4</v>
+        <v>-1.03</v>
       </c>
       <c r="H12">
-        <v>-0.43</v>
+        <v>-0.57</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1442,19 +1367,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.0008519629225728241</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02590673575129534</v>
+        <v>0.01058079355951696</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O12">
-        <v>746.75</v>
+        <v>2439.3</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1462,25 +1387,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C13">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E13">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>-0.18</v>
+        <v>-1.54</v>
       </c>
       <c r="G13">
-        <v>-0.54</v>
+        <v>-1.8</v>
       </c>
       <c r="H13">
-        <v>0.09</v>
+        <v>-1.35</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1492,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1248951440022369</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O13">
-        <v>55.4</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1509,25 +1434,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C14">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>120</v>
       </c>
       <c r="F14">
-        <v>-0.38</v>
+        <v>-0.53</v>
       </c>
       <c r="G14">
-        <v>-1.47</v>
+        <v>-1.24</v>
       </c>
       <c r="H14">
-        <v>-1.23</v>
+        <v>-0.93</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1536,19 +1461,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.004493576981890453</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04749946465767291</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N14">
         <v>12</v>
       </c>
       <c r="O14">
-        <v>170.7</v>
+        <v>998.2</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1556,25 +1481,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C15">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F15">
-        <v>-0.9399999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="G15">
-        <v>-1.27</v>
+        <v>-1.31</v>
       </c>
       <c r="H15">
-        <v>1.52</v>
+        <v>-0.13</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1583,19 +1508,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7283074662674524</v>
       </c>
       <c r="L15">
-        <v>0.027626415141755</v>
+        <v>0.7455497382198953</v>
       </c>
       <c r="M15" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O15">
-        <v>113.84</v>
+        <v>297.15</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1603,25 +1528,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F16">
-        <v>-0.1</v>
+        <v>-0.26</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>-1.68</v>
       </c>
       <c r="H16">
-        <v>-5.88</v>
+        <v>0.08</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1633,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.0197805638172219</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O16">
-        <v>344.25</v>
+        <v>322.05</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1650,25 +1575,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C17">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F17">
+        <v>-0.54</v>
+      </c>
+      <c r="G17">
         <v>-0.39</v>
       </c>
-      <c r="G17">
-        <v>-1.38</v>
-      </c>
       <c r="H17">
-        <v>0.3</v>
+        <v>-0.41</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1677,19 +1602,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.7737236144741528</v>
+        <v>0.3510545745255885</v>
       </c>
       <c r="L17">
-        <v>1.52391393723448</v>
+        <v>0.4966485371654774</v>
       </c>
       <c r="M17" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O17">
-        <v>1336.9</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1697,25 +1622,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C18">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F18">
-        <v>-0.04</v>
+        <v>-1.1</v>
       </c>
       <c r="G18">
-        <v>-0.26</v>
+        <v>-2.15</v>
       </c>
       <c r="H18">
-        <v>1.51</v>
+        <v>-0.97</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1727,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.004272591326639607</v>
       </c>
       <c r="M18" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>247.75</v>
+        <v>1322.9</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1744,25 +1669,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C19">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F19">
-        <v>-0.25</v>
+        <v>-1.97</v>
       </c>
       <c r="G19">
-        <v>1.19</v>
+        <v>-2.13</v>
       </c>
       <c r="H19">
-        <v>0.19</v>
+        <v>-1.45</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1771,19 +1696,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.4610032141244576</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4852059445516637</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O19">
-        <v>4270</v>
+        <v>569.3</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1791,25 +1716,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>130</v>
       </c>
       <c r="F20">
-        <v>-0.21</v>
+        <v>-0.9</v>
       </c>
       <c r="G20">
-        <v>0.13</v>
+        <v>-0.65</v>
       </c>
       <c r="H20">
-        <v>0.51</v>
+        <v>-0.8</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1818,19 +1743,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.06727102669254473</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5795753912908725</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N20">
         <v>13</v>
       </c>
       <c r="O20">
-        <v>236.7</v>
+        <v>150.6</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1838,25 +1763,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C21">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>0.2</v>
+        <v>-0.84</v>
       </c>
       <c r="G21">
-        <v>0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="H21">
-        <v>0.7</v>
+        <v>-0.45</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1865,19 +1790,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.07270715103783473</v>
+        <v>0.2023411371237351</v>
       </c>
       <c r="L21">
-        <v>0.2599972389673738</v>
+        <v>0.280970625798212</v>
       </c>
       <c r="M21" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21">
-        <v>245.85</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1885,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22">
         <v>160</v>
-      </c>
-      <c r="C22">
-        <v>140</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <v>0.05</v>
+        <v>1.33</v>
       </c>
       <c r="G22">
-        <v>0.3</v>
+        <v>0.98</v>
       </c>
       <c r="H22">
-        <v>0.77</v>
+        <v>1.94</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1912,19 +1837,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.2145397630047002</v>
+        <v>0.0003770574478997189</v>
       </c>
       <c r="L22">
-        <v>0.3101354388942006</v>
+        <v>0.007242797400125445</v>
       </c>
       <c r="M22" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O22">
-        <v>1037.3</v>
+        <v>174.65</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1932,25 +1857,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C23">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F23">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="G23">
-        <v>0.05</v>
+        <v>0.72</v>
       </c>
       <c r="H23">
-        <v>-0.22</v>
+        <v>0.31</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1962,16 +1887,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.003948550388438644</v>
       </c>
       <c r="M23" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O23">
-        <v>77.83</v>
+        <v>1041.4</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1979,25 +1904,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C24">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>90</v>
       </c>
       <c r="F24">
-        <v>-0.1</v>
+        <v>-1.22</v>
       </c>
       <c r="G24">
-        <v>-0.34</v>
+        <v>-1.46</v>
       </c>
       <c r="H24">
-        <v>-2.98</v>
+        <v>-1.13</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -2006,19 +1931,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.009607517173439101</v>
+        <v>0.2140289549187032</v>
       </c>
       <c r="L24">
-        <v>0.06873948742524062</v>
+        <v>0.4733857291343752</v>
       </c>
       <c r="M24" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N24">
         <v>9</v>
       </c>
       <c r="O24">
-        <v>668.1</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2026,25 +1951,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C25">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F25">
-        <v>-0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="G25">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="H25">
-        <v>0.59</v>
+        <v>-0.22</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -2056,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.04625599313956057</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25">
-        <v>1566.2</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2073,25 +1998,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C26">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D26">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F26">
-        <v>-0.23</v>
+        <v>0.65</v>
       </c>
       <c r="G26">
-        <v>0.57</v>
+        <v>-0.03</v>
       </c>
       <c r="H26">
-        <v>0.14</v>
+        <v>0.59</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -2100,19 +2025,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.2713810655074509</v>
+        <v>0.001201029427799003</v>
       </c>
       <c r="L26">
-        <v>0.314727509694444</v>
+        <v>0.00627770274126353</v>
       </c>
       <c r="M26" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26">
-        <v>872.5</v>
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2120,25 +2045,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C27">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F27">
-        <v>-0.19</v>
+        <v>-1.78</v>
       </c>
       <c r="G27">
-        <v>0.04</v>
+        <v>-1.68</v>
       </c>
       <c r="H27">
-        <v>-0.39</v>
+        <v>-1.18</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2147,19 +2072,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.2835163574082529</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.7134239205680493</v>
+        <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>1821.4</v>
+        <v>108.26</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2167,25 +2092,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C28">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D28">
         <v>65</v>
       </c>
       <c r="E28">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>-0.58</v>
+        <v>-1.24</v>
       </c>
       <c r="G28">
-        <v>-1.78</v>
+        <v>-2.07</v>
       </c>
       <c r="H28">
-        <v>-0.61</v>
+        <v>-1.05</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2194,19 +2119,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.2001764399105405</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.5736073575932793</v>
+        <v>0.02086025893930118</v>
       </c>
       <c r="M28" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>1562.9</v>
+        <v>618.45</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2214,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C29">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E29">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F29">
-        <v>0.07000000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="G29">
-        <v>-0.65</v>
+        <v>-1.15</v>
       </c>
       <c r="H29">
-        <v>0.09</v>
+        <v>-1.02</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2241,19 +2166,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.7097043274378566</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0.5092250240331287</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>1073</v>
+        <v>3393.6</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2261,25 +2186,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C30">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F30">
-        <v>-0.24</v>
+        <v>0.89</v>
       </c>
       <c r="G30">
-        <v>-0.33</v>
+        <v>1.85</v>
       </c>
       <c r="H30">
-        <v>-0.64</v>
+        <v>1.21</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2288,19 +2213,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.1096669491235397</v>
       </c>
       <c r="L30">
-        <v>0.03629855753018249</v>
+        <v>0.4049829958475035</v>
       </c>
       <c r="M30" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O30">
-        <v>379.65</v>
+        <v>882.9</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2308,25 +2233,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C31">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>-0.67</v>
+        <v>-0.32</v>
       </c>
       <c r="G31">
-        <v>0.26</v>
+        <v>-0.43</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2338,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.003796267004112622</v>
       </c>
       <c r="M31" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="N31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O31">
-        <v>13340</v>
+        <v>479.95</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2355,25 +2280,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C32">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D32">
         <v>20</v>
       </c>
       <c r="E32">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F32">
-        <v>0.06</v>
+        <v>-0.32</v>
       </c>
       <c r="G32">
-        <v>-0.57</v>
+        <v>-0.86</v>
       </c>
       <c r="H32">
-        <v>-0.34</v>
+        <v>-0.29</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2382,19 +2307,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.02312641410957679</v>
+        <v>0.004727697990869919</v>
       </c>
       <c r="L32">
-        <v>0.07256494261085737</v>
+        <v>0.02995003336100938</v>
       </c>
       <c r="M32" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O32">
-        <v>89.97</v>
+        <v>108.28</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2402,25 +2327,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C33">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F33">
-        <v>-1.51</v>
+        <v>0.57</v>
       </c>
       <c r="G33">
-        <v>4.3</v>
+        <v>-0.17</v>
       </c>
       <c r="H33">
-        <v>0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2429,19 +2354,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.03321352490169976</v>
+        <v>0.008917996237722344</v>
       </c>
       <c r="L33">
-        <v>0.07621473259723408</v>
+        <v>0.0399002493765586</v>
       </c>
       <c r="M33" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="N33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O33">
-        <v>1261.4</v>
+        <v>894.4</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2449,25 +2374,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C34">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E34">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>-1.01</v>
+        <v>-1.48</v>
       </c>
       <c r="G34">
-        <v>-0.71</v>
+        <v>-2.18</v>
       </c>
       <c r="H34">
-        <v>0.18</v>
+        <v>-0.97</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2476,19 +2401,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.01478414266238879</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0.1108679078232213</v>
+        <v>5.570813394463725E-05</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>445</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2496,25 +2421,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C35">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F35">
-        <v>0.79</v>
+        <v>-1.86</v>
       </c>
       <c r="G35">
-        <v>0.11</v>
+        <v>-2.09</v>
       </c>
       <c r="H35">
-        <v>0.74</v>
+        <v>-1.31</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2523,19 +2448,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>1.333213152294367</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1.863489172232341</v>
+        <v>0.1870067696450611</v>
       </c>
       <c r="M35" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="N35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O35">
-        <v>899</v>
+        <v>1269.3</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2543,25 +2468,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C36">
         <v>130</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F36">
-        <v>-0.29</v>
+        <v>-0.84</v>
       </c>
       <c r="G36">
-        <v>-0.48</v>
+        <v>-0.35</v>
       </c>
       <c r="H36">
-        <v>-0.24</v>
+        <v>-0.7</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2573,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0.02135554309815542</v>
+        <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O36">
-        <v>179.45</v>
+        <v>13283</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2590,25 +2515,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C37">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>-0.37</v>
+        <v>-1.83</v>
       </c>
       <c r="G37">
-        <v>-0.75</v>
+        <v>-1.79</v>
       </c>
       <c r="H37">
-        <v>-0.55</v>
+        <v>-1.13</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2623,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N37">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>151.56</v>
+        <v>1909.2</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2637,25 +2562,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C38">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E38">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F38">
-        <v>-0.23</v>
+        <v>-1.15</v>
       </c>
       <c r="G38">
-        <v>-0.28</v>
+        <v>-2.31</v>
       </c>
       <c r="H38">
-        <v>-0.35</v>
+        <v>-0.52</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2664,19 +2589,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>2.06821394445278</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1.577235772357723</v>
+        <v>0.3256100784071888</v>
       </c>
       <c r="M38" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="N38">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O38">
-        <v>2027.1</v>
+        <v>606.8</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2684,25 +2609,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C39">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F39">
-        <v>0.11</v>
+        <v>-1.15</v>
       </c>
       <c r="G39">
-        <v>-0.37</v>
+        <v>-1.36</v>
       </c>
       <c r="H39">
-        <v>-0.71</v>
+        <v>-1.11</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2714,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.550660827811268</v>
+        <v>0.09331259720062209</v>
       </c>
       <c r="M39" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O39">
-        <v>46.1</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2731,7 +2656,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C40">
         <v>120</v>
@@ -2743,13 +2668,13 @@
         <v>100</v>
       </c>
       <c r="F40">
-        <v>-0.12</v>
+        <v>-0.4</v>
       </c>
       <c r="G40">
-        <v>-0.74</v>
+        <v>-0.37</v>
       </c>
       <c r="H40">
-        <v>3.3</v>
+        <v>-0.26</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2758,19 +2683,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.4588523662874739</v>
+        <v>0.02914960024744937</v>
       </c>
       <c r="L40">
-        <v>0.7736520854526958</v>
+        <v>0.2093547699453613</v>
       </c>
       <c r="M40" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N40">
         <v>10</v>
       </c>
       <c r="O40">
-        <v>482.3</v>
+        <v>520.85</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2778,7 +2703,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C41">
         <v>120</v>
@@ -2790,13 +2715,13 @@
         <v>100</v>
       </c>
       <c r="F41">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="G41">
-        <v>-0.29</v>
+        <v>-0.1</v>
       </c>
       <c r="H41">
-        <v>0.36</v>
+        <v>-0.13</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2805,19 +2730,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.2833689418644226</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.2787210989574759</v>
+        <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N41">
         <v>10</v>
       </c>
       <c r="O41">
-        <v>521.05</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2825,25 +2750,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C42">
         <v>120</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F42">
-        <v>0.1</v>
+        <v>-0.73</v>
       </c>
       <c r="G42">
-        <v>0.1</v>
+        <v>-0.19</v>
       </c>
       <c r="H42">
-        <v>-0.75</v>
+        <v>-0.58</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2855,16 +2780,16 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.02854594112399643</v>
+        <v>0.007285974499089253</v>
       </c>
       <c r="M42" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O42">
-        <v>1952</v>
+        <v>5514.5</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2872,25 +2797,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C43">
         <v>120</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F43">
-        <v>-0.49</v>
+        <v>-0.37</v>
       </c>
       <c r="G43">
-        <v>-0.71</v>
+        <v>-0.31</v>
       </c>
       <c r="H43">
-        <v>-0.08</v>
+        <v>-0.22</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2899,19 +2824,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.4039595216965275</v>
+        <v>0.5214593004151419</v>
       </c>
       <c r="L43">
-        <v>0.6272342926168362</v>
+        <v>0.5329006237942807</v>
       </c>
       <c r="M43" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="N43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O43">
-        <v>36.6</v>
+        <v>666.3</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2919,7 +2844,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C44">
         <v>115</v>
@@ -2931,13 +2856,13 @@
         <v>50</v>
       </c>
       <c r="F44">
-        <v>-1.26</v>
+        <v>-0.92</v>
       </c>
       <c r="G44">
-        <v>-1.64</v>
+        <v>-1.22</v>
       </c>
       <c r="H44">
-        <v>0.15</v>
+        <v>-0.86</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2949,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.005010286269538219</v>
       </c>
       <c r="M44" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N44">
         <v>5</v>
       </c>
       <c r="O44">
-        <v>58.18</v>
+        <v>798.3</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2966,7 +2891,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C45">
         <v>115</v>
@@ -2978,13 +2903,13 @@
         <v>50</v>
       </c>
       <c r="F45">
-        <v>-0.73</v>
+        <v>-1.54</v>
       </c>
       <c r="G45">
-        <v>-1.46</v>
+        <v>-2.17</v>
       </c>
       <c r="H45">
-        <v>-0.21</v>
+        <v>-1.24</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2993,19 +2918,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.09306181113795037</v>
       </c>
       <c r="L45">
-        <v>0.1455693264633524</v>
+        <v>0.2921034695400993</v>
       </c>
       <c r="M45" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N45">
         <v>5</v>
       </c>
       <c r="O45">
-        <v>1285.6</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3013,7 +2938,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>115</v>
@@ -3025,13 +2950,13 @@
         <v>50</v>
       </c>
       <c r="F46">
-        <v>-1.05</v>
+        <v>-1.22</v>
       </c>
       <c r="G46">
-        <v>-2.13</v>
+        <v>-1.61</v>
       </c>
       <c r="H46">
-        <v>0.33</v>
+        <v>-1.14</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -3040,19 +2965,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.1235144639824993</v>
+        <v>0.0086456398390569</v>
       </c>
       <c r="L46">
-        <v>0.3299283380635574</v>
+        <v>0.0469749032230003</v>
       </c>
       <c r="M46" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N46">
         <v>5</v>
       </c>
       <c r="O46">
-        <v>609.2</v>
+        <v>814.95</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3060,25 +2985,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C47">
         <v>110</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E47">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>0.19</v>
+        <v>-2.45</v>
       </c>
       <c r="G47">
-        <v>0.26</v>
+        <v>2.2</v>
       </c>
       <c r="H47">
-        <v>-0.41</v>
+        <v>-2.07</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -3087,19 +3012,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.001913566131410762</v>
+        <v>0.02490850731607518</v>
       </c>
       <c r="L47">
-        <v>0.005275207579418251</v>
+        <v>0.111789506831581</v>
       </c>
       <c r="M47" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>492.6</v>
+        <v>1239.2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3107,25 +3032,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C48">
         <v>110</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>-0.37</v>
       </c>
       <c r="G48">
-        <v>0.16</v>
+        <v>-0.74</v>
       </c>
       <c r="H48">
-        <v>-0.32</v>
+        <v>-0.26</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -3134,19 +3059,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.6542310551709136</v>
+        <v>0.1011471746900107</v>
       </c>
       <c r="L48">
-        <v>0.548718527718189</v>
+        <v>0.2359786260826707</v>
       </c>
       <c r="M48" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="N48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O48">
-        <v>1011.6</v>
+        <v>742.55</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3154,7 +3079,7 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C49">
         <v>110</v>
@@ -3166,13 +3091,13 @@
         <v>90</v>
       </c>
       <c r="F49">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="G49">
-        <v>-0.1</v>
+        <v>-0.39</v>
       </c>
       <c r="H49">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3187,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N49">
         <v>9</v>
       </c>
       <c r="O49">
-        <v>1200</v>
+        <v>1574.7</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3201,25 +3126,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C50">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D50">
+        <v>65</v>
+      </c>
+      <c r="E50">
         <v>40</v>
       </c>
-      <c r="E50">
-        <v>70</v>
-      </c>
       <c r="F50">
-        <v>-0.6899999999999999</v>
+        <v>-0.54</v>
       </c>
       <c r="G50">
-        <v>-0.43</v>
+        <v>-1.99</v>
       </c>
       <c r="H50">
-        <v>-0.32</v>
+        <v>-0.26</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3231,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.2042675212954373</v>
+        <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>323.4</v>
+        <v>583.25</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3248,25 +3173,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C51">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D51">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>-0.61</v>
+        <v>-2.61</v>
       </c>
       <c r="G51">
-        <v>-0.39</v>
+        <v>-2.09</v>
       </c>
       <c r="H51">
-        <v>0.17</v>
+        <v>-2.41</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3275,19 +3200,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.2226542826010534</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.7245347744657237</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="M51" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>131.29</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3295,25 +3220,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C52">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E52">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F52">
-        <v>-0.4</v>
+        <v>-0.79</v>
       </c>
       <c r="G52">
-        <v>-0.37</v>
+        <v>-1.53</v>
       </c>
       <c r="H52">
-        <v>0.6</v>
+        <v>-0.77</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3322,19 +3247,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.1444081949724718</v>
       </c>
       <c r="L52">
-        <v>0.4530943497826839</v>
+        <v>0.4620620236782821</v>
       </c>
       <c r="M52" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N52">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O52">
-        <v>578.7</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3342,25 +3267,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C53">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E53">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>-0.24</v>
+        <v>-3.53</v>
       </c>
       <c r="G53">
-        <v>-0.51</v>
+        <v>-3.7</v>
       </c>
       <c r="H53">
-        <v>0.39</v>
+        <v>-2.77</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3369,19 +3294,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>1.153173458562034</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1.282276818526864</v>
+        <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="N53">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>108.7</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3389,25 +3314,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C54">
         <v>105</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>-0.38</v>
+        <v>-4.4</v>
       </c>
       <c r="G54">
-        <v>-1.21</v>
+        <v>-3.77</v>
       </c>
       <c r="H54">
-        <v>-0.15</v>
+        <v>-4.14</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3416,19 +3341,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.0001162945498980165</v>
       </c>
       <c r="L54">
-        <v>0.04390732570283692</v>
+        <v>0.009082219723797979</v>
       </c>
       <c r="M54" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>624.05</v>
+        <v>662.5</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3436,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C55">
         <v>105</v>
@@ -3448,13 +3373,13 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>-0.6899999999999999</v>
+        <v>-0.87</v>
       </c>
       <c r="G55">
-        <v>-2.96</v>
+        <v>-1.4</v>
       </c>
       <c r="H55">
-        <v>6.19</v>
+        <v>-0.68</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3463,19 +3388,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.0326775085921501</v>
+        <v>0.3288764792414464</v>
       </c>
       <c r="L55">
-        <v>0.07816539432464491</v>
+        <v>0.298120244148203</v>
       </c>
       <c r="M55" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N55">
         <v>4</v>
       </c>
       <c r="O55">
-        <v>564</v>
+        <v>211.89</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3483,25 +3408,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E56">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>0.17</v>
+        <v>-0.4</v>
       </c>
       <c r="G56">
-        <v>0.06</v>
+        <v>-1.13</v>
       </c>
       <c r="H56">
-        <v>0.12</v>
+        <v>-0.39</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3510,19 +3435,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.5015172589741513</v>
+        <v>0.0001762847633553744</v>
       </c>
       <c r="L56">
-        <v>0.3745605179796011</v>
+        <v>0.007707723138584861</v>
       </c>
       <c r="M56" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="N56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>6659.5</v>
+        <v>503.55</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3530,25 +3455,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C57">
         <v>100</v>
       </c>
       <c r="D57">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>-0.82</v>
+        <v>-0.37</v>
       </c>
       <c r="G57">
-        <v>-0.39</v>
+        <v>-0.66</v>
       </c>
       <c r="H57">
-        <v>0.38</v>
+        <v>-0.26</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3557,19 +3482,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0.4428424896873572</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.3094840765074512</v>
+        <v>0.01822349407024587</v>
       </c>
       <c r="M57" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O57">
-        <v>198.79</v>
+        <v>322.85</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3577,25 +3502,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C58">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D58">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F58">
-        <v>-0.96</v>
+        <v>-0.82</v>
       </c>
       <c r="G58">
-        <v>-1.61</v>
+        <v>-0.1</v>
       </c>
       <c r="H58">
-        <v>0.19</v>
+        <v>-0.84</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3604,19 +3529,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.02468801557627196</v>
+        <v>0.006262332659845708</v>
       </c>
       <c r="L58">
-        <v>0.04843149614150544</v>
+        <v>0.1686197571451296</v>
       </c>
       <c r="M58" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O58">
-        <v>584.85</v>
+        <v>1904.2</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3624,25 +3549,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C59">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <v>60</v>
       </c>
       <c r="F59">
-        <v>0.1</v>
+        <v>-0.89</v>
       </c>
       <c r="G59">
-        <v>-1.2</v>
+        <v>-0.85</v>
       </c>
       <c r="H59">
-        <v>0.19</v>
+        <v>-0.87</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3651,19 +3576,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>1.475544417559638</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1.739462625748122</v>
+        <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N59">
         <v>6</v>
       </c>
       <c r="O59">
-        <v>506</v>
+        <v>1462.5</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3671,25 +3596,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C60">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E60">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F60">
-        <v>0.11</v>
+        <v>-1.88</v>
       </c>
       <c r="G60">
-        <v>-0.07000000000000001</v>
+        <v>-3.98</v>
       </c>
       <c r="H60">
-        <v>0.08</v>
+        <v>-1.58</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3698,19 +3623,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0.6390000702197879</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.5914467697907188</v>
+        <v>0.04179636744346915</v>
       </c>
       <c r="M60" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="N60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O60">
-        <v>30620</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3718,25 +3643,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C61">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E61">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F61">
-        <v>0.51</v>
+        <v>-1.41</v>
       </c>
       <c r="G61">
-        <v>0.65</v>
+        <v>-1.62</v>
       </c>
       <c r="H61">
-        <v>0.19</v>
+        <v>-1.06</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3745,19 +3670,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.1042999884215379</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>0.2269790437665037</v>
+        <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>235.04</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3765,25 +3690,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C62">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D62">
+        <v>65</v>
+      </c>
+      <c r="E62">
         <v>20</v>
       </c>
-      <c r="E62">
-        <v>70</v>
-      </c>
       <c r="F62">
-        <v>-0.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G62">
-        <v>1.09</v>
+        <v>-1.11</v>
       </c>
       <c r="H62">
-        <v>-0.17</v>
+        <v>-0.58</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3798,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>1564.9</v>
+        <v>30775</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3812,25 +3737,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C63">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E63">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F63">
-        <v>-0.16</v>
+        <v>-0.61</v>
       </c>
       <c r="G63">
-        <v>-0.44</v>
+        <v>-0.62</v>
       </c>
       <c r="H63">
-        <v>0.01</v>
+        <v>-0.62</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3839,19 +3764,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0.03522270514766158</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0.0201711004750825</v>
+        <v>0.05103342689461598</v>
       </c>
       <c r="M63" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>745</v>
+        <v>1191.6</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3859,25 +3784,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C64">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F64">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G64">
-        <v>-0.26</v>
+        <v>-0.1</v>
       </c>
       <c r="H64">
-        <v>-0.16</v>
+        <v>-0.36</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3886,19 +3811,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.7180075098381523</v>
+        <v>0.08420171569430496</v>
       </c>
       <c r="L64">
-        <v>0.6444452152197288</v>
+        <v>1.334253428793237</v>
       </c>
       <c r="M64" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="N64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>348.6</v>
+        <v>199.6</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3906,25 +3831,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C65">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F65">
-        <v>-0.21</v>
+        <v>0.65</v>
       </c>
       <c r="G65">
-        <v>-0.23</v>
+        <v>2.04</v>
       </c>
       <c r="H65">
-        <v>-0.21</v>
+        <v>1.04</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3933,19 +3858,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.3406902681084359</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0.9812286689419795</v>
+        <v>0.002477342637131238</v>
       </c>
       <c r="M65" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O65">
-        <v>2582.7</v>
+        <v>4328.7</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3953,25 +3878,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C66">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E66">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>-0.68</v>
+        <v>-1.85</v>
       </c>
       <c r="G66">
-        <v>-0.45</v>
+        <v>-2.69</v>
       </c>
       <c r="H66">
-        <v>-0.14</v>
+        <v>-1.42</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3980,19 +3905,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.01134703430187905</v>
+        <v>0.3618087869436716</v>
       </c>
       <c r="L66">
-        <v>0.03292886327337126</v>
+        <v>0.8450628233056592</v>
       </c>
       <c r="M66" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>135.77</v>
+        <v>112.33</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4000,25 +3925,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C67">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E67">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>0.31</v>
+        <v>-2.22</v>
       </c>
       <c r="G67">
-        <v>-0.04</v>
+        <v>-1.14</v>
       </c>
       <c r="H67">
-        <v>-0.06</v>
+        <v>-1.9</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -4027,19 +3952,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.2878590224780902</v>
+        <v>0.01149853322860867</v>
       </c>
       <c r="L67">
-        <v>0.6917840533800633</v>
+        <v>0.1829827016183955</v>
       </c>
       <c r="M67" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>2876.9</v>
+        <v>153.03</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4047,25 +3972,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C68">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D68">
+        <v>65</v>
+      </c>
+      <c r="E68">
         <v>10</v>
       </c>
-      <c r="E68">
-        <v>70</v>
-      </c>
       <c r="F68">
-        <v>-0.36</v>
+        <v>-1.1</v>
       </c>
       <c r="G68">
-        <v>-0.46</v>
+        <v>-2.32</v>
       </c>
       <c r="H68">
-        <v>0.71</v>
+        <v>-0.63</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -4074,19 +3999,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>3.326814520736677</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>1.621573880531104</v>
+        <v>0.03387139454882244</v>
       </c>
       <c r="M68" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="N68">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>109.7</v>
+        <v>978.4</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4094,25 +4019,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C69">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E69">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>-0.64</v>
+        <v>-1.84</v>
       </c>
       <c r="G69">
-        <v>-0.55</v>
+        <v>-1.26</v>
       </c>
       <c r="H69">
-        <v>-0.02</v>
+        <v>-1.57</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4127,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>1932.1</v>
+        <v>483.6</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4141,7 +4066,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C70">
         <v>75</v>
@@ -4153,13 +4078,13 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>-0.77</v>
+        <v>-0.88</v>
       </c>
       <c r="G70">
-        <v>-1.09</v>
+        <v>-1.38</v>
       </c>
       <c r="H70">
-        <v>-0.05</v>
+        <v>-0.83</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4168,19 +4093,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.4655134956962101</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>0.4765227793839099</v>
+        <v>0.000276539113000795</v>
       </c>
       <c r="M70" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
       <c r="O70">
-        <v>8550</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4188,25 +4113,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>75</v>
       </c>
       <c r="D71">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F71">
-        <v>-0.5600000000000001</v>
+        <v>-0.28</v>
       </c>
       <c r="G71">
-        <v>-1.18</v>
+        <v>-1.2</v>
       </c>
       <c r="H71">
-        <v>-0.12</v>
+        <v>-0.71</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4218,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.3345489616926369</v>
+        <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>116.36</v>
+        <v>2836.7</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4235,7 +4160,7 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C72">
         <v>75</v>
@@ -4247,13 +4172,13 @@
         <v>10</v>
       </c>
       <c r="F72">
-        <v>-1.08</v>
+        <v>-1.71</v>
       </c>
       <c r="G72">
-        <v>-2.27</v>
+        <v>-2.04</v>
       </c>
       <c r="H72">
-        <v>-0.31</v>
+        <v>-0.74</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4262,19 +4187,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>0.02388666975250438</v>
       </c>
       <c r="L72">
-        <v>0.9752363800090049</v>
+        <v>0.1463226800154024</v>
       </c>
       <c r="M72" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>362.05</v>
+        <v>17461</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4282,7 +4207,7 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C73">
         <v>75</v>
@@ -4294,13 +4219,13 @@
         <v>10</v>
       </c>
       <c r="F73">
-        <v>-1.29</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G73">
-        <v>-2.34</v>
+        <v>-1.36</v>
       </c>
       <c r="H73">
-        <v>1.45</v>
+        <v>-0.82</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4309,19 +4234,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.2543632574331661</v>
+        <v>0.0002410748724981785</v>
       </c>
       <c r="L73">
-        <v>0.5793881387796957</v>
+        <v>0.006422149279292136</v>
       </c>
       <c r="M73" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>3768</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4329,25 +4254,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C74">
         <v>75</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>0.39</v>
+        <v>-0.87</v>
       </c>
       <c r="G74">
-        <v>-1.02</v>
+        <v>-1.1</v>
       </c>
       <c r="H74">
-        <v>-0.92</v>
+        <v>-0.59</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4356,19 +4281,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.05939697858790428</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0.1851139027889562</v>
+        <v>0.007163415414134954</v>
       </c>
       <c r="M74" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>2861.4</v>
+        <v>585.95</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4376,7 +4301,7 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>70</v>
@@ -4391,10 +4316,10 @@
         <v>0.09</v>
       </c>
       <c r="G75">
-        <v>-0.9399999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="H75">
-        <v>-1.53</v>
+        <v>0.05</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4403,19 +4328,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>0.6094037299711212</v>
+        <v>1.069038350242374</v>
       </c>
       <c r="L75">
-        <v>1.069277108433735</v>
+        <v>1.594449086190774</v>
       </c>
       <c r="M75" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="N75">
         <v>6</v>
       </c>
       <c r="O75">
-        <v>3429</v>
+        <v>407.7</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4423,25 +4348,25 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C76">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F76">
-        <v>1.01</v>
+        <v>0.76</v>
       </c>
       <c r="G76">
-        <v>1.13</v>
+        <v>0.64</v>
       </c>
       <c r="H76">
-        <v>0.46</v>
+        <v>1.18</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4450,19 +4375,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.1405587888700734</v>
+        <v>0.02094366155042831</v>
       </c>
       <c r="L76">
-        <v>0.3065729851413055</v>
+        <v>0.03665689149560117</v>
       </c>
       <c r="M76" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>2757.2</v>
+        <v>2361.2</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4470,25 +4395,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C77">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E77">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F77">
-        <v>-0.03</v>
+        <v>-1.09</v>
       </c>
       <c r="G77">
-        <v>-0.06</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H77">
-        <v>-0.25</v>
+        <v>-0.89</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4497,19 +4422,19 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0.8429252979795547</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0.6391774659955017</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="N77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>756.7</v>
+        <v>455.15</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4517,25 +4442,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>-0.31</v>
+        <v>0.78</v>
       </c>
       <c r="G78">
-        <v>-0.34</v>
+        <v>1.93</v>
       </c>
       <c r="H78">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4544,19 +4469,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>1.791873351911084</v>
+        <v>0.005694504991503821</v>
       </c>
       <c r="L78">
-        <v>1.649829716116953</v>
+        <v>0.0322252903081037</v>
       </c>
       <c r="M78" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O78">
-        <v>38.13</v>
+        <v>2776.7</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4564,25 +4489,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C79">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D79">
         <v>20</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F79">
-        <v>-0.11</v>
+        <v>2.2</v>
       </c>
       <c r="G79">
-        <v>-0.02</v>
+        <v>1.01</v>
       </c>
       <c r="H79">
-        <v>-0.47</v>
+        <v>2.54</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4591,19 +4516,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.282809188620099</v>
+        <v>0.0004994594523779687</v>
       </c>
       <c r="L79">
-        <v>0.4405408009886934</v>
+        <v>0.009926121769179575</v>
       </c>
       <c r="M79" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>407.8</v>
+        <v>139.11</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4611,25 +4536,25 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C80">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D80">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F80">
-        <v>-1.34</v>
+        <v>-1.78</v>
       </c>
       <c r="G80">
-        <v>-2.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H80">
-        <v>-1.18</v>
+        <v>-1.66</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4638,19 +4563,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0.596072386739909</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0.841548048056397</v>
+        <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O80">
-        <v>108.26</v>
+        <v>924.7</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4658,25 +4583,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C81">
         <v>60</v>
       </c>
       <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
         <v>40</v>
       </c>
-      <c r="E81">
-        <v>20</v>
-      </c>
       <c r="F81">
-        <v>-1.07</v>
+        <v>-0.31</v>
       </c>
       <c r="G81">
-        <v>1.09</v>
+        <v>-0.84</v>
       </c>
       <c r="H81">
-        <v>1.52</v>
+        <v>-0.26</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4685,19 +4610,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.3285382096038183</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>0.511644128028285</v>
+        <v>0.01046615201900238</v>
       </c>
       <c r="M81" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O81">
-        <v>380.4</v>
+        <v>241.2</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4705,7 +4630,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C82">
         <v>60</v>
@@ -4717,13 +4642,13 @@
         <v>20</v>
       </c>
       <c r="F82">
-        <v>-0.53</v>
+        <v>-1.65</v>
       </c>
       <c r="G82">
-        <v>-0.62</v>
+        <v>-0.87</v>
       </c>
       <c r="H82">
-        <v>-0.25</v>
+        <v>-1.47</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4732,19 +4657,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>0.000840006036889081</v>
       </c>
       <c r="L82">
-        <v>0.004804062864594057</v>
+        <v>0.02320515135102606</v>
       </c>
       <c r="M82" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N82">
         <v>2</v>
       </c>
       <c r="O82">
-        <v>587.35</v>
+        <v>1723.3</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4752,7 +4677,7 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C83">
         <v>60</v>
@@ -4764,13 +4689,13 @@
         <v>40</v>
       </c>
       <c r="F83">
-        <v>0.31</v>
+        <v>-0.37</v>
       </c>
       <c r="G83">
-        <v>0.03</v>
+        <v>-0.97</v>
       </c>
       <c r="H83">
-        <v>-0.12</v>
+        <v>-0.63</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4782,16 +4707,16 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0.01181195369714151</v>
+        <v>0.07463846991136681</v>
       </c>
       <c r="M83" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N83">
         <v>4</v>
       </c>
       <c r="O83">
-        <v>690.3</v>
+        <v>2853.1</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4799,22 +4724,22 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C84">
         <v>60</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F84">
-        <v>0.28</v>
+        <v>-1.29</v>
       </c>
       <c r="G84">
-        <v>0.85</v>
+        <v>-0.89</v>
       </c>
       <c r="H84">
         <v>-0.57</v>
@@ -4826,19 +4751,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>4.259457028834835</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0.5712605726174861</v>
+        <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>1923.2</v>
+        <v>410.25</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4846,25 +4771,25 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C85">
         <v>60</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F85">
-        <v>0.26</v>
+        <v>-0.46</v>
       </c>
       <c r="G85">
-        <v>0.13</v>
+        <v>-0.28</v>
       </c>
       <c r="H85">
-        <v>0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4873,19 +4798,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>1.638312027752803</v>
+        <v>0.5943928815057865</v>
       </c>
       <c r="L85">
-        <v>1.459146423353505</v>
+        <v>0.5654092014045197</v>
       </c>
       <c r="M85" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="N85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O85">
-        <v>1478</v>
+        <v>3649.2</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4893,25 +4818,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C86">
         <v>60</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F86">
-        <v>-0.44</v>
+        <v>-1.27</v>
       </c>
       <c r="G86">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="H86">
-        <v>3.2</v>
+        <v>-1.02</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4920,19 +4845,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0.5766011076899871</v>
+        <v>0.03308522115220246</v>
       </c>
       <c r="L86">
-        <v>0.5546050833066296</v>
+        <v>0.1271302400796119</v>
       </c>
       <c r="M86" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3657.1</v>
+        <v>330.4</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4940,25 +4865,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C87">
         <v>55</v>
       </c>
       <c r="D87">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>-0.02</v>
+        <v>-1.56</v>
       </c>
       <c r="G87">
-        <v>-1.28</v>
+        <v>-1.71</v>
       </c>
       <c r="H87">
-        <v>0.1</v>
+        <v>-1.25</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4967,19 +4892,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0.6053313094004295</v>
+        <v>0.9399433228922556</v>
       </c>
       <c r="L87">
-        <v>0.4506407101005129</v>
+        <v>1.030271021080341</v>
       </c>
       <c r="M87" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>988.8</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4987,25 +4912,25 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C88">
         <v>50</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="G88">
-        <v>0.1</v>
+        <v>-0.93</v>
       </c>
       <c r="H88">
-        <v>0.38</v>
+        <v>-0.58</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -5014,19 +4939,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.3439427710930097</v>
+        <v>0.1143096016434876</v>
       </c>
       <c r="L88">
-        <v>0.7776613519866331</v>
+        <v>0.1914108298232663</v>
       </c>
       <c r="M88" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>4547</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5034,25 +4959,25 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C89">
         <v>50</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>0.85</v>
+        <v>-1.14</v>
       </c>
       <c r="G89">
-        <v>0.96</v>
+        <v>-0.85</v>
       </c>
       <c r="H89">
-        <v>0.62</v>
+        <v>-1.15</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -5064,16 +4989,16 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0.01453752498637107</v>
+        <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>459.05</v>
+        <v>3158.8</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5081,25 +5006,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C90">
         <v>50</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F90">
-        <v>-0.14</v>
+        <v>-1.26</v>
       </c>
       <c r="G90">
-        <v>0.31</v>
+        <v>-0.99</v>
       </c>
       <c r="H90">
-        <v>-0.41</v>
+        <v>-1.18</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -5108,19 +5033,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>0.2545811621977459</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>0.5480563672257246</v>
       </c>
       <c r="M90" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>657</v>
+        <v>1500.8</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5128,25 +5053,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C91">
         <v>50</v>
       </c>
       <c r="D91">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F91">
-        <v>-0.6899999999999999</v>
+        <v>-0.44</v>
       </c>
       <c r="G91">
-        <v>-0.25</v>
+        <v>-0.4</v>
       </c>
       <c r="H91">
-        <v>-0.28</v>
+        <v>-0.3</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5155,19 +5080,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0.4816926607664379</v>
+        <v>0.0678841643416072</v>
       </c>
       <c r="L91">
-        <v>0.5815139767394409</v>
+        <v>0.3081062899428187</v>
       </c>
       <c r="M91" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>1153.8</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5175,7 +5100,7 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C92">
         <v>50</v>
@@ -5187,13 +5112,13 @@
         <v>10</v>
       </c>
       <c r="F92">
-        <v>-1.13</v>
+        <v>-0.99</v>
       </c>
       <c r="G92">
-        <v>-0.93</v>
+        <v>-0.54</v>
       </c>
       <c r="H92">
-        <v>0.72</v>
+        <v>-0.84</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5202,19 +5127,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0.2349026397792901</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0.5426808936312104</v>
+        <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N92">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>958</v>
+        <v>220.61</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5222,7 +5147,7 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C93">
         <v>50</v>
@@ -5234,13 +5159,13 @@
         <v>10</v>
       </c>
       <c r="F93">
-        <v>-0.55</v>
+        <v>-0.89</v>
       </c>
       <c r="G93">
-        <v>-0.49</v>
+        <v>-0.75</v>
       </c>
       <c r="H93">
-        <v>0.09</v>
+        <v>-1.27</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5249,19 +5174,19 @@
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>0.4631596118671729</v>
+        <v>0.002322882978317158</v>
       </c>
       <c r="L93">
-        <v>0.7566560238947396</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="M93" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
       <c r="O93">
-        <v>398.7</v>
+        <v>3855.6</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5269,7 +5194,7 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C94">
         <v>50</v>
@@ -5281,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>-0.67</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G94">
-        <v>-0.99</v>
+        <v>-0.47</v>
       </c>
       <c r="H94">
-        <v>-0.14</v>
+        <v>-0.8</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5296,19 +5221,19 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.00237040314631472</v>
       </c>
       <c r="L94">
-        <v>0.02242080295333032</v>
+        <v>0.01170994467051143</v>
       </c>
       <c r="M94" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N94">
         <v>1</v>
       </c>
       <c r="O94">
-        <v>76.86</v>
+        <v>1450.8</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5316,7 +5241,7 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C95">
         <v>50</v>
@@ -5328,13 +5253,13 @@
         <v>30</v>
       </c>
       <c r="F95">
-        <v>-0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="G95">
-        <v>0.02</v>
+        <v>-0.32</v>
       </c>
       <c r="H95">
-        <v>0.43</v>
+        <v>-0.14</v>
       </c>
       <c r="I95">
         <v>50</v>
@@ -5346,16 +5271,16 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.2574525745257453</v>
+        <v>0.003567844798751255</v>
       </c>
       <c r="M95" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N95">
         <v>3</v>
       </c>
       <c r="O95">
-        <v>6612</v>
+        <v>315.35</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5363,25 +5288,25 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C96">
         <v>50</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F96">
-        <v>-0.11</v>
+        <v>-0.57</v>
       </c>
       <c r="G96">
-        <v>-0.49</v>
+        <v>-0.15</v>
       </c>
       <c r="H96">
-        <v>-0.91</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5393,16 +5318,16 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0.5826554744146157</v>
+        <v>0.001257940750990628</v>
       </c>
       <c r="M96" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>314.7</v>
+        <v>2222.8</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5410,25 +5335,25 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C97">
         <v>50</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F97">
-        <v>-0.35</v>
+        <v>0.33</v>
       </c>
       <c r="G97">
-        <v>-0.52</v>
+        <v>-0.14</v>
       </c>
       <c r="H97">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="I97">
         <v>50</v>
@@ -5437,19 +5362,19 @@
         <v>0.5</v>
       </c>
       <c r="K97">
-        <v>1.558041248903153</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0.9120247298843689</v>
+        <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O97">
-        <v>241.7</v>
+        <v>657.6</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5457,25 +5382,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F98">
-        <v>-0.08</v>
+        <v>-0.82</v>
       </c>
       <c r="G98">
-        <v>-0.64</v>
+        <v>-0.98</v>
       </c>
       <c r="H98">
-        <v>0.32</v>
+        <v>-1.14</v>
       </c>
       <c r="I98">
         <v>50</v>
@@ -5484,19 +5409,19 @@
         <v>0.5</v>
       </c>
       <c r="K98">
-        <v>1.500187325397259</v>
+        <v>0.6333617277146022</v>
       </c>
       <c r="L98">
-        <v>0.6068723325173346</v>
+        <v>0.8020304568527918</v>
       </c>
       <c r="M98" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="N98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>1075</v>
+        <v>243.1</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5504,25 +5429,25 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D99">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E99">
         <v>10</v>
       </c>
       <c r="F99">
-        <v>-0.74</v>
+        <v>-0.58</v>
       </c>
       <c r="G99">
-        <v>-0.25</v>
+        <v>-0.73</v>
       </c>
       <c r="H99">
-        <v>0.49</v>
+        <v>-0.34</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -5531,19 +5456,19 @@
         <v>0.5</v>
       </c>
       <c r="K99">
-        <v>0.2835853287998363</v>
+        <v>3.569901138277001</v>
       </c>
       <c r="L99">
-        <v>0.3674540682414698</v>
+        <v>3.061147430534475</v>
       </c>
       <c r="M99" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99">
-        <v>3190.1</v>
+        <v>38.03</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5551,25 +5476,25 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C100">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D100">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>10</v>
       </c>
       <c r="F100">
-        <v>-0.55</v>
+        <v>1.59</v>
       </c>
       <c r="G100">
-        <v>0.48</v>
+        <v>1.9</v>
       </c>
       <c r="H100">
-        <v>-0.47</v>
+        <v>1.65</v>
       </c>
       <c r="I100">
         <v>50</v>
@@ -5578,19 +5503,19 @@
         <v>0.5</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>0.05273563773171233</v>
       </c>
       <c r="L100">
-        <v>0.04244025028208021</v>
+        <v>0.4619712748630374</v>
       </c>
       <c r="M100" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="N100">
         <v>1</v>
       </c>
       <c r="O100">
-        <v>222.4</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5598,25 +5523,25 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C101">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
         <v>10</v>
       </c>
-      <c r="E101">
-        <v>30</v>
-      </c>
       <c r="F101">
-        <v>-0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G101">
-        <v>-0.48</v>
+        <v>0.4</v>
       </c>
       <c r="H101">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I101">
         <v>50</v>
@@ -5625,19 +5550,19 @@
         <v>0.5</v>
       </c>
       <c r="K101">
-        <v>0.7291889320877589</v>
+        <v>0.0636355418964257</v>
       </c>
       <c r="L101">
-        <v>0.7461624859603145</v>
+        <v>0.2592810842663524</v>
       </c>
       <c r="M101" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>823.5</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5645,25 +5570,25 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D102">
         <v>20</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F102">
-        <v>-0.38</v>
+        <v>-0.44</v>
       </c>
       <c r="G102">
-        <v>-0.32</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="H102">
-        <v>-1.16</v>
+        <v>-0.4</v>
       </c>
       <c r="I102">
         <v>50</v>
@@ -5672,19 +5597,19 @@
         <v>0.5</v>
       </c>
       <c r="K102">
-        <v>0.2221193891717078</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>0.6840855106888361</v>
+        <v>0.003094218967562271</v>
       </c>
       <c r="M102" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>2333.5</v>
+        <v>753.25</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5692,25 +5617,25 @@
         <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C103">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D103">
         <v>20</v>
       </c>
       <c r="E103">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>0.2</v>
+        <v>0.52</v>
       </c>
       <c r="G103">
-        <v>3.43</v>
+        <v>0.63</v>
       </c>
       <c r="H103">
-        <v>-0.24</v>
+        <v>0.49</v>
       </c>
       <c r="I103">
         <v>50</v>
@@ -5719,19 +5644,19 @@
         <v>0.5</v>
       </c>
       <c r="K103">
-        <v>0.1506597692615492</v>
+        <v>0.02493426843042502</v>
       </c>
       <c r="L103">
-        <v>0.2785515320334262</v>
+        <v>0.1457282060205324</v>
       </c>
       <c r="M103" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>1921.5</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5739,25 +5664,25 @@
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C104">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D104">
         <v>20</v>
       </c>
       <c r="E104">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F104">
-        <v>-0.34</v>
+        <v>0.41</v>
       </c>
       <c r="G104">
-        <v>-0.83</v>
+        <v>0.02</v>
       </c>
       <c r="H104">
-        <v>-1.38</v>
+        <v>0.33</v>
       </c>
       <c r="I104">
         <v>50</v>
@@ -5769,16 +5694,16 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>0.0160548885077187</v>
+        <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>213.2</v>
+        <v>30635</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5786,26 +5711,26 @@
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C105">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D105">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>10</v>
       </c>
       <c r="F105">
+        <v>0.01</v>
+      </c>
+      <c r="G105">
+        <v>1.12</v>
+      </c>
+      <c r="H105">
         <v>-0.33</v>
       </c>
-      <c r="G105">
-        <v>-0.18</v>
-      </c>
-      <c r="H105">
-        <v>-0.54</v>
-      </c>
       <c r="I105">
         <v>50</v>
       </c>
@@ -5813,19 +5738,19 @@
         <v>0.5</v>
       </c>
       <c r="K105">
-        <v>0.4295774957271237</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>3.856514622650812</v>
+        <v>0.01989653800238758</v>
       </c>
       <c r="M105" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N105">
         <v>1</v>
       </c>
       <c r="O105">
-        <v>1225.1</v>
+        <v>458.65</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5833,25 +5758,25 @@
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C106">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
         <v>10</v>
       </c>
-      <c r="E106">
-        <v>30</v>
-      </c>
       <c r="F106">
-        <v>-0.23</v>
+        <v>0.9</v>
       </c>
       <c r="G106">
-        <v>-0.77</v>
+        <v>0.75</v>
       </c>
       <c r="H106">
-        <v>-0.68</v>
+        <v>0.97</v>
       </c>
       <c r="I106">
         <v>50</v>
@@ -5860,19 +5785,19 @@
         <v>0.5</v>
       </c>
       <c r="K106">
-        <v>1.343364792616986</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>1.867472274118536</v>
+        <v>0.06727828746177369</v>
       </c>
       <c r="M106" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>376.1</v>
+        <v>2609.4</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5880,25 +5805,25 @@
         <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C107">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D107">
         <v>20</v>
       </c>
       <c r="E107">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>0.04</v>
+        <v>0.57</v>
       </c>
       <c r="G107">
-        <v>0.73</v>
+        <v>1.12</v>
       </c>
       <c r="H107">
-        <v>-0.15</v>
+        <v>0.57</v>
       </c>
       <c r="I107">
         <v>50</v>
@@ -5907,19 +5832,19 @@
         <v>0.5</v>
       </c>
       <c r="K107">
-        <v>0.1365643582711214</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0.1220118147187103</v>
+        <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>2235.2</v>
+        <v>6386.5</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5927,25 +5852,25 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C108">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D108">
         <v>20</v>
       </c>
       <c r="E108">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>0.34</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G108">
-        <v>1.53</v>
+        <v>-0.39</v>
       </c>
       <c r="H108">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I108">
         <v>50</v>
@@ -5954,19 +5879,19 @@
         <v>0.5</v>
       </c>
       <c r="K108">
-        <v>0.03355683125800373</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>0.4899819094105199</v>
+        <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>334.5</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5974,25 +5899,25 @@
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C109">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D109">
         <v>20</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="G109">
-        <v>0.21</v>
+        <v>-0.57</v>
       </c>
       <c r="H109">
-        <v>0.2</v>
+        <v>-0.29</v>
       </c>
       <c r="I109">
         <v>50</v>
@@ -6001,19 +5926,19 @@
         <v>0.5</v>
       </c>
       <c r="K109">
-        <v>0.01788356690116115</v>
+        <v>0.00338885763813108</v>
       </c>
       <c r="L109">
-        <v>0.04975452964357264</v>
+        <v>0.01148915302524344</v>
       </c>
       <c r="M109" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>460.05</v>
+        <v>1069.8</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6021,25 +5946,25 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C110">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D110">
         <v>20</v>
       </c>
       <c r="E110">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G110">
-        <v>0.13</v>
+        <v>2.27</v>
       </c>
       <c r="H110">
-        <v>0.72</v>
+        <v>1.74</v>
       </c>
       <c r="I110">
         <v>50</v>
@@ -6054,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>3191.3</v>
+        <v>387.2</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6068,7 +5993,7 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C111">
         <v>30</v>
@@ -6080,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>0.07000000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="G111">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="H111">
-        <v>-0.62</v>
+        <v>1.18</v>
       </c>
       <c r="I111">
         <v>50</v>
@@ -6098,16 +6023,16 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0.1092001092001092</v>
+        <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N111">
         <v>1</v>
       </c>
       <c r="O111">
-        <v>810.95</v>
+        <v>905.3</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6115,7 +6040,7 @@
         <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C112">
         <v>30</v>
@@ -6127,13 +6052,13 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>-0.32</v>
+        <v>1.54</v>
       </c>
       <c r="G112">
-        <v>-0.6</v>
+        <v>-0.98</v>
       </c>
       <c r="H112">
-        <v>0.34</v>
+        <v>1.16</v>
       </c>
       <c r="I112">
         <v>50</v>
@@ -6142,19 +6067,19 @@
         <v>0.5</v>
       </c>
       <c r="K112">
-        <v>0.03070524588565827</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>0.02629193319901417</v>
+        <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N112">
         <v>1</v>
       </c>
       <c r="O112">
-        <v>124.3</v>
+        <v>292.6</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6162,7 +6087,7 @@
         <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C113">
         <v>30</v>
@@ -6174,13 +6099,13 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>-0.37</v>
+        <v>0.14</v>
       </c>
       <c r="G113">
-        <v>-0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H113">
-        <v>0.14</v>
+        <v>-0.23</v>
       </c>
       <c r="I113">
         <v>50</v>
@@ -6189,19 +6114,19 @@
         <v>0.5</v>
       </c>
       <c r="K113">
-        <v>0.2322339022370227</v>
+        <v>0.09516214494832449</v>
       </c>
       <c r="L113">
-        <v>0.6814905476466117</v>
+        <v>0.306356289952961</v>
       </c>
       <c r="M113" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N113">
         <v>1</v>
       </c>
       <c r="O113">
-        <v>3051.5</v>
+        <v>6637.5</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6209,25 +6134,25 @@
         <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>10</v>
       </c>
       <c r="F114">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="G114">
-        <v>0.54</v>
+        <v>-0.2</v>
       </c>
       <c r="H114">
-        <v>-0.04</v>
+        <v>0.77</v>
       </c>
       <c r="I114">
         <v>50</v>
@@ -6236,19 +6161,19 @@
         <v>0.5</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1.261550263258879</v>
       </c>
       <c r="L114">
-        <v>0.4370001159151501</v>
+        <v>3.651226158038147</v>
       </c>
       <c r="M114" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="N114">
         <v>1</v>
       </c>
       <c r="O114">
-        <v>640</v>
+        <v>248.95</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6256,25 +6181,25 @@
         <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C115">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>10</v>
       </c>
       <c r="F115">
-        <v>0.83</v>
+        <v>0.11</v>
       </c>
       <c r="G115">
-        <v>-0.38</v>
+        <v>0.24</v>
       </c>
       <c r="H115">
-        <v>-0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I115">
         <v>50</v>
@@ -6283,19 +6208,19 @@
         <v>0.5</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1.447081001825292</v>
       </c>
       <c r="L115">
-        <v>0.05329507020600594</v>
+        <v>1.236133122028526</v>
       </c>
       <c r="M115" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="N115">
         <v>1</v>
       </c>
       <c r="O115">
-        <v>6310</v>
+        <v>2037.5</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6303,25 +6228,25 @@
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C116">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>10</v>
       </c>
       <c r="F116">
-        <v>0.05</v>
+        <v>1.05</v>
       </c>
       <c r="G116">
-        <v>-0.53</v>
+        <v>2.02</v>
       </c>
       <c r="H116">
-        <v>-0.57</v>
+        <v>1.21</v>
       </c>
       <c r="I116">
         <v>50</v>
@@ -6330,1241 +6255,19 @@
         <v>0.5</v>
       </c>
       <c r="K116">
-        <v>0.1466369142492827</v>
+        <v>2.146564441581062</v>
       </c>
       <c r="L116">
-        <v>0.271476121904582</v>
+        <v>1.224145208948924</v>
       </c>
       <c r="M116" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="N116">
         <v>1</v>
       </c>
       <c r="O116">
-        <v>8047.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" t="s">
-        <v>130</v>
-      </c>
-      <c r="B117" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117">
-        <v>30</v>
-      </c>
-      <c r="D117">
-        <v>20</v>
-      </c>
-      <c r="E117">
-        <v>10</v>
-      </c>
-      <c r="F117">
-        <v>-0.04</v>
-      </c>
-      <c r="G117">
-        <v>-0.24</v>
-      </c>
-      <c r="H117">
-        <v>1.14</v>
-      </c>
-      <c r="I117">
-        <v>50</v>
-      </c>
-      <c r="J117">
-        <v>0.5</v>
-      </c>
-      <c r="K117">
-        <v>0.04200877221448646</v>
-      </c>
-      <c r="L117">
-        <v>0.2264335769723457</v>
-      </c>
-      <c r="M117" t="s">
-        <v>168</v>
-      </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-      <c r="O117">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" t="s">
-        <v>131</v>
-      </c>
-      <c r="B118" t="s">
-        <v>159</v>
-      </c>
-      <c r="C118">
-        <v>30</v>
-      </c>
-      <c r="D118">
-        <v>20</v>
-      </c>
-      <c r="E118">
-        <v>10</v>
-      </c>
-      <c r="F118">
-        <v>-0.26</v>
-      </c>
-      <c r="G118">
-        <v>-0.12</v>
-      </c>
-      <c r="H118">
-        <v>0.14</v>
-      </c>
-      <c r="I118">
-        <v>50</v>
-      </c>
-      <c r="J118">
-        <v>0.5</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0.03227944022726825</v>
-      </c>
-      <c r="M118" t="s">
-        <v>168</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118">
-        <v>216.9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" t="s">
-        <v>132</v>
-      </c>
-      <c r="B119" t="s">
-        <v>161</v>
-      </c>
-      <c r="C119">
-        <v>30</v>
-      </c>
-      <c r="D119">
-        <v>20</v>
-      </c>
-      <c r="E119">
-        <v>10</v>
-      </c>
-      <c r="F119">
-        <v>0.62</v>
-      </c>
-      <c r="G119">
-        <v>0.9</v>
-      </c>
-      <c r="H119">
-        <v>0.11</v>
-      </c>
-      <c r="I119">
-        <v>50</v>
-      </c>
-      <c r="J119">
-        <v>0.5</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>0.1416875238620456</v>
-      </c>
-      <c r="M119" t="s">
-        <v>168</v>
-      </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119">
-        <v>268.05</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120">
-        <v>30</v>
-      </c>
-      <c r="D120">
-        <v>10</v>
-      </c>
-      <c r="E120">
-        <v>20</v>
-      </c>
-      <c r="F120">
-        <v>0.14</v>
-      </c>
-      <c r="G120">
-        <v>1.1</v>
-      </c>
-      <c r="H120">
-        <v>-0.19</v>
-      </c>
-      <c r="I120">
-        <v>50</v>
-      </c>
-      <c r="J120">
-        <v>0.5</v>
-      </c>
-      <c r="K120">
-        <v>6.924867687105843</v>
-      </c>
-      <c r="L120">
-        <v>2.867732248835504</v>
-      </c>
-      <c r="M120" t="s">
-        <v>171</v>
-      </c>
-      <c r="N120">
-        <v>2</v>
-      </c>
-      <c r="O120">
-        <v>939.35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="s">
-        <v>134</v>
-      </c>
-      <c r="B121" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121">
-        <v>30</v>
-      </c>
-      <c r="D121">
-        <v>20</v>
-      </c>
-      <c r="E121">
-        <v>10</v>
-      </c>
-      <c r="F121">
-        <v>-0.13</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>1.26</v>
-      </c>
-      <c r="I121">
-        <v>50</v>
-      </c>
-      <c r="J121">
-        <v>0.5</v>
-      </c>
-      <c r="K121">
-        <v>0.006074909754486364</v>
-      </c>
-      <c r="L121">
-        <v>0.0827029910235095</v>
-      </c>
-      <c r="M121" t="s">
-        <v>168</v>
-      </c>
-      <c r="N121">
-        <v>1</v>
-      </c>
-      <c r="O121">
-        <v>520.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" t="s">
-        <v>135</v>
-      </c>
-      <c r="B122" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122">
-        <v>30</v>
-      </c>
-      <c r="D122">
-        <v>20</v>
-      </c>
-      <c r="E122">
-        <v>10</v>
-      </c>
-      <c r="F122">
-        <v>0.3</v>
-      </c>
-      <c r="G122">
-        <v>0.6</v>
-      </c>
-      <c r="H122">
-        <v>0.25</v>
-      </c>
-      <c r="I122">
-        <v>50</v>
-      </c>
-      <c r="J122">
-        <v>0.5</v>
-      </c>
-      <c r="K122">
-        <v>0.148846879025999</v>
-      </c>
-      <c r="L122">
-        <v>0.3728222031410132</v>
-      </c>
-      <c r="M122" t="s">
-        <v>168</v>
-      </c>
-      <c r="N122">
-        <v>1</v>
-      </c>
-      <c r="O122">
-        <v>1431.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" t="s">
-        <v>136</v>
-      </c>
-      <c r="B123" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123">
-        <v>30</v>
-      </c>
-      <c r="D123">
-        <v>10</v>
-      </c>
-      <c r="E123">
-        <v>20</v>
-      </c>
-      <c r="F123">
-        <v>1.09</v>
-      </c>
-      <c r="G123">
-        <v>0.55</v>
-      </c>
-      <c r="H123">
-        <v>-0.55</v>
-      </c>
-      <c r="I123">
-        <v>50</v>
-      </c>
-      <c r="J123">
-        <v>0.5</v>
-      </c>
-      <c r="K123">
-        <v>0.7166645634557087</v>
-      </c>
-      <c r="L123">
-        <v>0.5962137550922597</v>
-      </c>
-      <c r="M123" t="s">
-        <v>171</v>
-      </c>
-      <c r="N123">
-        <v>2</v>
-      </c>
-      <c r="O123">
-        <v>445.9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" t="s">
-        <v>137</v>
-      </c>
-      <c r="B124" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124">
-        <v>30</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>30</v>
-      </c>
-      <c r="F124">
-        <v>-0.11</v>
-      </c>
-      <c r="G124">
-        <v>-0.52</v>
-      </c>
-      <c r="H124">
-        <v>-0.18</v>
-      </c>
-      <c r="I124">
-        <v>50</v>
-      </c>
-      <c r="J124">
-        <v>0.5</v>
-      </c>
-      <c r="K124">
-        <v>1.591826692651641</v>
-      </c>
-      <c r="L124">
-        <v>1.234659532234401</v>
-      </c>
-      <c r="M124" t="s">
-        <v>171</v>
-      </c>
-      <c r="N124">
-        <v>3</v>
-      </c>
-      <c r="O124">
-        <v>805.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" t="s">
-        <v>138</v>
-      </c>
-      <c r="B125" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125">
-        <v>30</v>
-      </c>
-      <c r="D125">
-        <v>20</v>
-      </c>
-      <c r="E125">
-        <v>10</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0.43</v>
-      </c>
-      <c r="H125">
-        <v>-0.24</v>
-      </c>
-      <c r="I125">
-        <v>50</v>
-      </c>
-      <c r="J125">
-        <v>0.5</v>
-      </c>
-      <c r="K125">
-        <v>0.380683720932592</v>
-      </c>
-      <c r="L125">
-        <v>0.4632095477634758</v>
-      </c>
-      <c r="M125" t="s">
-        <v>168</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
-      </c>
-      <c r="O125">
-        <v>1461.3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" t="s">
-        <v>139</v>
-      </c>
-      <c r="B126" t="s">
-        <v>156</v>
-      </c>
-      <c r="C126">
-        <v>30</v>
-      </c>
-      <c r="D126">
-        <v>20</v>
-      </c>
-      <c r="E126">
-        <v>10</v>
-      </c>
-      <c r="F126">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G126">
-        <v>0.7</v>
-      </c>
-      <c r="H126">
-        <v>-0.04</v>
-      </c>
-      <c r="I126">
-        <v>50</v>
-      </c>
-      <c r="J126">
-        <v>0.5</v>
-      </c>
-      <c r="K126">
-        <v>0.0008407607859811333</v>
-      </c>
-      <c r="L126">
-        <v>0.02508517597207242</v>
-      </c>
-      <c r="M126" t="s">
-        <v>168</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-      <c r="O126">
-        <v>155.86</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
-        <v>140</v>
-      </c>
-      <c r="B127" t="s">
-        <v>156</v>
-      </c>
-      <c r="C127">
-        <v>30</v>
-      </c>
-      <c r="D127">
-        <v>20</v>
-      </c>
-      <c r="E127">
-        <v>10</v>
-      </c>
-      <c r="F127">
-        <v>0.24</v>
-      </c>
-      <c r="G127">
-        <v>0.1</v>
-      </c>
-      <c r="H127">
-        <v>0.43</v>
-      </c>
-      <c r="I127">
-        <v>50</v>
-      </c>
-      <c r="J127">
-        <v>0.5</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0.005203590477429426</v>
-      </c>
-      <c r="M127" t="s">
-        <v>168</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>356.7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" t="s">
-        <v>141</v>
-      </c>
-      <c r="B128" t="s">
-        <v>167</v>
-      </c>
-      <c r="C128">
-        <v>30</v>
-      </c>
-      <c r="D128">
-        <v>20</v>
-      </c>
-      <c r="E128">
-        <v>10</v>
-      </c>
-      <c r="F128">
-        <v>-0.33</v>
-      </c>
-      <c r="G128">
-        <v>-1</v>
-      </c>
-      <c r="H128">
-        <v>-0.14</v>
-      </c>
-      <c r="I128">
-        <v>50</v>
-      </c>
-      <c r="J128">
-        <v>0.5</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128" t="s">
-        <v>168</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128">
-        <v>579.7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" t="s">
-        <v>142</v>
-      </c>
-      <c r="B129" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129">
-        <v>30</v>
-      </c>
-      <c r="D129">
-        <v>20</v>
-      </c>
-      <c r="E129">
-        <v>10</v>
-      </c>
-      <c r="F129">
-        <v>0.19</v>
-      </c>
-      <c r="G129">
-        <v>0.06</v>
-      </c>
-      <c r="H129">
-        <v>0.44</v>
-      </c>
-      <c r="I129">
-        <v>50</v>
-      </c>
-      <c r="J129">
-        <v>0.5</v>
-      </c>
-      <c r="K129">
-        <v>0.171311681278982</v>
-      </c>
-      <c r="L129">
-        <v>0.213073311664861</v>
-      </c>
-      <c r="M129" t="s">
-        <v>168</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129">
-        <v>4322.6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130">
-        <v>30</v>
-      </c>
-      <c r="D130">
-        <v>20</v>
-      </c>
-      <c r="E130">
-        <v>10</v>
-      </c>
-      <c r="F130">
-        <v>-0.21</v>
-      </c>
-      <c r="G130">
-        <v>-0.62</v>
-      </c>
-      <c r="H130">
-        <v>0.26</v>
-      </c>
-      <c r="I130">
-        <v>50</v>
-      </c>
-      <c r="J130">
-        <v>0.5</v>
-      </c>
-      <c r="K130">
-        <v>0.1928525868933275</v>
-      </c>
-      <c r="L130">
-        <v>0.1704020200490573</v>
-      </c>
-      <c r="M130" t="s">
-        <v>168</v>
-      </c>
-      <c r="N130">
-        <v>1</v>
-      </c>
-      <c r="O130">
-        <v>19.22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" t="s">
-        <v>144</v>
-      </c>
-      <c r="B131" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131">
-        <v>30</v>
-      </c>
-      <c r="D131">
-        <v>20</v>
-      </c>
-      <c r="E131">
-        <v>10</v>
-      </c>
-      <c r="F131">
-        <v>0.4</v>
-      </c>
-      <c r="G131">
-        <v>0.1</v>
-      </c>
-      <c r="H131">
-        <v>-0.26</v>
-      </c>
-      <c r="I131">
-        <v>50</v>
-      </c>
-      <c r="J131">
-        <v>0.5</v>
-      </c>
-      <c r="K131">
-        <v>0.4544820882074119</v>
-      </c>
-      <c r="L131">
-        <v>0.5103298296484233</v>
-      </c>
-      <c r="M131" t="s">
-        <v>168</v>
-      </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-      <c r="O131">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" t="s">
-        <v>145</v>
-      </c>
-      <c r="B132" t="s">
-        <v>160</v>
-      </c>
-      <c r="C132">
-        <v>30</v>
-      </c>
-      <c r="D132">
-        <v>20</v>
-      </c>
-      <c r="E132">
-        <v>10</v>
-      </c>
-      <c r="F132">
-        <v>-0.37</v>
-      </c>
-      <c r="G132">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="H132">
-        <v>0.77</v>
-      </c>
-      <c r="I132">
-        <v>50</v>
-      </c>
-      <c r="J132">
-        <v>0.5</v>
-      </c>
-      <c r="K132">
-        <v>0.3822154889071351</v>
-      </c>
-      <c r="L132">
-        <v>0.8620365142104274</v>
-      </c>
-      <c r="M132" t="s">
-        <v>168</v>
-      </c>
-      <c r="N132">
-        <v>1</v>
-      </c>
-      <c r="O132">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" t="s">
-        <v>146</v>
-      </c>
-      <c r="B133" t="s">
-        <v>159</v>
-      </c>
-      <c r="C133">
-        <v>30</v>
-      </c>
-      <c r="D133">
-        <v>20</v>
-      </c>
-      <c r="E133">
-        <v>10</v>
-      </c>
-      <c r="F133">
-        <v>-0.2</v>
-      </c>
-      <c r="G133">
-        <v>0.25</v>
-      </c>
-      <c r="H133">
-        <v>0.27</v>
-      </c>
-      <c r="I133">
-        <v>50</v>
-      </c>
-      <c r="J133">
-        <v>0.5</v>
-      </c>
-      <c r="K133">
-        <v>0.01359831582340302</v>
-      </c>
-      <c r="L133">
-        <v>0.01704061346208463</v>
-      </c>
-      <c r="M133" t="s">
-        <v>168</v>
-      </c>
-      <c r="N133">
-        <v>1</v>
-      </c>
-      <c r="O133">
-        <v>421.1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134">
-        <v>20</v>
-      </c>
-      <c r="D134">
-        <v>10</v>
-      </c>
-      <c r="E134">
-        <v>10</v>
-      </c>
-      <c r="F134">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G134">
-        <v>0.95</v>
-      </c>
-      <c r="H134">
-        <v>0.62</v>
-      </c>
-      <c r="I134">
-        <v>50</v>
-      </c>
-      <c r="J134">
-        <v>0.5</v>
-      </c>
-      <c r="K134">
-        <v>1.712400569944419</v>
-      </c>
-      <c r="L134">
-        <v>2.412587412587412</v>
-      </c>
-      <c r="M134" t="s">
-        <v>171</v>
-      </c>
-      <c r="N134">
-        <v>1</v>
-      </c>
-      <c r="O134">
-        <v>362.55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135" t="s">
-        <v>156</v>
-      </c>
-      <c r="C135">
-        <v>20</v>
-      </c>
-      <c r="D135">
-        <v>10</v>
-      </c>
-      <c r="E135">
-        <v>10</v>
-      </c>
-      <c r="F135">
-        <v>0.4</v>
-      </c>
-      <c r="G135">
-        <v>0.45</v>
-      </c>
-      <c r="H135">
-        <v>0.15</v>
-      </c>
-      <c r="I135">
-        <v>50</v>
-      </c>
-      <c r="J135">
-        <v>0.5</v>
-      </c>
-      <c r="K135">
-        <v>0.5414744898687704</v>
-      </c>
-      <c r="L135">
-        <v>1.213207064243665</v>
-      </c>
-      <c r="M135" t="s">
-        <v>171</v>
-      </c>
-      <c r="N135">
-        <v>1</v>
-      </c>
-      <c r="O135">
-        <v>3905.8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" t="s">
-        <v>149</v>
-      </c>
-      <c r="B136" t="s">
-        <v>156</v>
-      </c>
-      <c r="C136">
-        <v>20</v>
-      </c>
-      <c r="D136">
-        <v>10</v>
-      </c>
-      <c r="E136">
-        <v>10</v>
-      </c>
-      <c r="F136">
-        <v>-0.39</v>
-      </c>
-      <c r="G136">
-        <v>-0.68</v>
-      </c>
-      <c r="H136">
-        <v>0.2</v>
-      </c>
-      <c r="I136">
-        <v>50</v>
-      </c>
-      <c r="J136">
-        <v>0.5</v>
-      </c>
-      <c r="K136">
-        <v>2.48578298508266</v>
-      </c>
-      <c r="L136">
-        <v>1.66505519636116</v>
-      </c>
-      <c r="M136" t="s">
-        <v>171</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
-      <c r="O136">
-        <v>660.15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" t="s">
-        <v>150</v>
-      </c>
-      <c r="B137" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137">
-        <v>20</v>
-      </c>
-      <c r="D137">
-        <v>10</v>
-      </c>
-      <c r="E137">
-        <v>10</v>
-      </c>
-      <c r="F137">
-        <v>-0.08</v>
-      </c>
-      <c r="G137">
-        <v>0.04</v>
-      </c>
-      <c r="H137">
-        <v>0.25</v>
-      </c>
-      <c r="I137">
-        <v>50</v>
-      </c>
-      <c r="J137">
-        <v>0.5</v>
-      </c>
-      <c r="K137">
-        <v>0.5655367757116623</v>
-      </c>
-      <c r="L137">
-        <v>0.6345968244335917</v>
-      </c>
-      <c r="M137" t="s">
-        <v>171</v>
-      </c>
-      <c r="N137">
-        <v>1</v>
-      </c>
-      <c r="O137">
-        <v>241.8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" t="s">
-        <v>151</v>
-      </c>
-      <c r="B138" t="s">
-        <v>158</v>
-      </c>
-      <c r="C138">
-        <v>20</v>
-      </c>
-      <c r="D138">
-        <v>10</v>
-      </c>
-      <c r="E138">
-        <v>10</v>
-      </c>
-      <c r="F138">
-        <v>-0.47</v>
-      </c>
-      <c r="G138">
-        <v>-0.35</v>
-      </c>
-      <c r="H138">
-        <v>0.82</v>
-      </c>
-      <c r="I138">
-        <v>50</v>
-      </c>
-      <c r="J138">
-        <v>0.5</v>
-      </c>
-      <c r="K138">
-        <v>4.748093511688865</v>
-      </c>
-      <c r="L138">
-        <v>3.430429481100122</v>
-      </c>
-      <c r="M138" t="s">
-        <v>171</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>206.52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" t="s">
-        <v>152</v>
-      </c>
-      <c r="B139" t="s">
-        <v>164</v>
-      </c>
-      <c r="C139">
-        <v>20</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>20</v>
-      </c>
-      <c r="F139">
-        <v>0.08</v>
-      </c>
-      <c r="G139">
-        <v>0.61</v>
-      </c>
-      <c r="H139">
-        <v>0.23</v>
-      </c>
-      <c r="I139">
-        <v>50</v>
-      </c>
-      <c r="J139">
-        <v>0.5</v>
-      </c>
-      <c r="K139">
-        <v>1.26802699316572</v>
-      </c>
-      <c r="L139">
-        <v>1.106055499382092</v>
-      </c>
-      <c r="M139" t="s">
-        <v>171</v>
-      </c>
-      <c r="N139">
-        <v>2</v>
-      </c>
-      <c r="O139">
-        <v>1745.7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" t="s">
-        <v>153</v>
-      </c>
-      <c r="B140" t="s">
-        <v>160</v>
-      </c>
-      <c r="C140">
-        <v>20</v>
-      </c>
-      <c r="D140">
-        <v>10</v>
-      </c>
-      <c r="E140">
-        <v>10</v>
-      </c>
-      <c r="F140">
-        <v>0.42</v>
-      </c>
-      <c r="G140">
-        <v>1.25</v>
-      </c>
-      <c r="H140">
-        <v>-0.21</v>
-      </c>
-      <c r="I140">
-        <v>50</v>
-      </c>
-      <c r="J140">
-        <v>0.5</v>
-      </c>
-      <c r="K140">
-        <v>0.7396331050088416</v>
-      </c>
-      <c r="L140">
-        <v>1.034749264290598</v>
-      </c>
-      <c r="M140" t="s">
-        <v>171</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="O140">
-        <v>371.7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" t="s">
-        <v>154</v>
-      </c>
-      <c r="B141" t="s">
-        <v>158</v>
-      </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>10</v>
-      </c>
-      <c r="F141">
-        <v>-0.02</v>
-      </c>
-      <c r="G141">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="H141">
-        <v>0.67</v>
-      </c>
-      <c r="I141">
-        <v>50</v>
-      </c>
-      <c r="J141">
-        <v>0.5</v>
-      </c>
-      <c r="K141">
-        <v>1.737905030326645</v>
-      </c>
-      <c r="L141">
-        <v>1.282083702111519</v>
-      </c>
-      <c r="M141" t="s">
-        <v>171</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-      <c r="O141">
-        <v>407.7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" t="s">
-        <v>155</v>
-      </c>
-      <c r="B142" t="s">
-        <v>158</v>
-      </c>
-      <c r="C142">
-        <v>10</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>10</v>
-      </c>
-      <c r="F142">
-        <v>-0.32</v>
-      </c>
-      <c r="G142">
-        <v>-0.2</v>
-      </c>
-      <c r="H142">
-        <v>-0.15</v>
-      </c>
-      <c r="I142">
-        <v>50</v>
-      </c>
-      <c r="J142">
-        <v>0.5</v>
-      </c>
-      <c r="K142">
-        <v>1.119791254007711</v>
-      </c>
-      <c r="L142">
-        <v>1.124549119456822</v>
-      </c>
-      <c r="M142" t="s">
-        <v>171</v>
-      </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="O142">
-        <v>74.53</v>
+        <v>374.35</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -67,168 +67,168 @@
     <t>TITAN</t>
   </si>
   <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>PATELENG</t>
+  </si>
+  <si>
     <t>MUNJALAU</t>
   </si>
   <si>
-    <t>PATELENG</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
+    <t>TRIVENI</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>IRCON</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>SAPPHIRE</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
   </si>
   <si>
     <t>SMSPHARMA</t>
   </si>
   <si>
-    <t>IRCON</t>
-  </si>
-  <si>
-    <t>TRIVENI</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>CENTRALBK</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>IRB</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
     <t>QUESS</t>
   </si>
   <si>
-    <t>SAPPHIRE</t>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>ELECON</t>
+  </si>
+  <si>
+    <t>WESTLIFE</t>
+  </si>
+  <si>
+    <t>SPARC</t>
+  </si>
+  <si>
+    <t>APOLLO</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>NBCC</t>
   </si>
   <si>
     <t>JISLJALEQS</t>
   </si>
   <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
-    <t>ELECON</t>
-  </si>
-  <si>
-    <t>SPARC</t>
-  </si>
-  <si>
-    <t>WESTLIFE</t>
-  </si>
-  <si>
-    <t>APOLLO</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
     <t>JWL</t>
   </si>
   <si>
     <t>POLYPLEX</t>
   </si>
   <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
     <t>GMRAIRPORT</t>
   </si>
   <si>
+    <t>ATGL</t>
+  </si>
+  <si>
     <t>GAEL</t>
   </si>
   <si>
-    <t>ATGL</t>
-  </si>
-  <si>
     <t>ESCORTS</t>
   </si>
   <si>
+    <t>DBL</t>
+  </si>
+  <si>
     <t>KEC</t>
   </si>
   <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>NBCC</t>
-  </si>
-  <si>
     <t>FINCABLES</t>
   </si>
   <si>
     <t>IFCI</t>
   </si>
   <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>BBTC</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>CROMPTON</t>
+  </si>
+  <si>
+    <t>PGEL</t>
+  </si>
+  <si>
+    <t>POLICYBZR</t>
+  </si>
+  <si>
     <t>PEL</t>
   </si>
   <si>
-    <t>ZFCVINDIA</t>
-  </si>
-  <si>
-    <t>BBTC</t>
-  </si>
-  <si>
-    <t>FIVESTAR</t>
-  </si>
-  <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>PGEL</t>
-  </si>
-  <si>
-    <t>POLICYBZR</t>
-  </si>
-  <si>
     <t>ADANIENSOL</t>
   </si>
   <si>
+    <t>DEEPAKFERT</t>
+  </si>
+  <si>
     <t>KPITTECH</t>
   </si>
   <si>
     <t>INDHOTEL</t>
   </si>
   <si>
-    <t>DEEPAKFERT</t>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>INTELLECT</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>JINDALSAW</t>
   </si>
   <si>
     <t>CONCOR</t>
   </si>
   <si>
-    <t>INTELLECT</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
     <t>AVANTIFEED</t>
   </si>
   <si>
-    <t>JINDALSAW</t>
-  </si>
-  <si>
     <t>MINDACORP</t>
   </si>
   <si>
-    <t>CROMPTON</t>
-  </si>
-  <si>
     <t>ICICIGI</t>
   </si>
   <si>
@@ -241,118 +241,139 @@
     <t>BLS</t>
   </si>
   <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
+    <t>COFORGE</t>
+  </si>
+  <si>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>BANKINDIA</t>
+  </si>
+  <si>
+    <t>TIINDIA</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>EICHERMOT</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>TEJASNET</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>BRIGADE</t>
+  </si>
+  <si>
+    <t>PANACEABIO</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>DOMS</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>WELCORP</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>MAZDOCK</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
     <t>3MINDIA</t>
   </si>
   <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
-    <t>DMART</t>
-  </si>
-  <si>
-    <t>BANKINDIA</t>
-  </si>
-  <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>BRIGADE</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>TIINDIA</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>EICHERMOT</t>
-  </si>
-  <si>
-    <t>TEJASNET</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>DOMS</t>
+    <t>SIGACHI</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>INFY</t>
   </si>
   <si>
     <t>APOLLOTYRE</t>
   </si>
   <si>
-    <t>MAZDOCK</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>WELCORP</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>COFORGE</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>PANACEABIO</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>FSL</t>
-  </si>
-  <si>
-    <t>IRFC</t>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>KANSAINER</t>
+  </si>
+  <si>
+    <t>COLPAL</t>
+  </si>
+  <si>
+    <t>GLAXO</t>
   </si>
   <si>
     <t>BHEL</t>
   </si>
   <si>
-    <t>GLAXO</t>
-  </si>
-  <si>
-    <t>INFY</t>
+    <t>PNCINFRA</t>
+  </si>
+  <si>
+    <t>TECHM</t>
   </si>
   <si>
     <t>HAL</t>
   </si>
   <si>
-    <t>NCC</t>
-  </si>
-  <si>
-    <t>KEI</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>PNCINFRA</t>
-  </si>
-  <si>
-    <t>COLPAL</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>KANSAINER</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>INDIACEM</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
   </si>
   <si>
     <t>CSBBANK</t>
@@ -361,51 +382,30 @@
     <t>APLAPOLLO</t>
   </si>
   <si>
+    <t>GICRE</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
     <t>HDFCLIFE</t>
   </si>
   <si>
-    <t>INDIGO</t>
+    <t>BAYERCROP</t>
+  </si>
+  <si>
+    <t>SAFARI</t>
+  </si>
+  <si>
+    <t>CHALET</t>
   </si>
   <si>
     <t>SHREECEM</t>
   </si>
   <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
-  </si>
-  <si>
-    <t>BAYERCROP</t>
-  </si>
-  <si>
     <t>RADIANTCMS</t>
   </si>
   <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>GICRE</t>
-  </si>
-  <si>
-    <t>CHALET</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>SAFARI</t>
-  </si>
-  <si>
-    <t>INDIACEM</t>
-  </si>
-  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
@@ -415,22 +415,22 @@
     <t>Industrials</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
     <t>Basic Materials</t>
   </si>
   <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Utilities</t>
   </si>
   <si>
     <t>Technology</t>
@@ -882,10 +882,10 @@
         <v>140</v>
       </c>
       <c r="F2">
-        <v>-2.51</v>
+        <v>-2.7</v>
       </c>
       <c r="G2">
-        <v>-2.34</v>
+        <v>-2.48</v>
       </c>
       <c r="H2">
         <v>-2.67</v>
@@ -897,10 +897,10 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.002646205804400138</v>
+        <v>0.02505011941542765</v>
       </c>
       <c r="L2">
-        <v>0.07785459661479237</v>
+        <v>0.1211273426695703</v>
       </c>
       <c r="M2" t="s">
         <v>142</v>
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="O2">
-        <v>1158</v>
+        <v>1155.2</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -929,10 +929,10 @@
         <v>170</v>
       </c>
       <c r="F3">
-        <v>-0.82</v>
+        <v>-0.87</v>
       </c>
       <c r="G3">
-        <v>-0.43</v>
+        <v>-0.48</v>
       </c>
       <c r="H3">
         <v>-0.85</v>
@@ -944,10 +944,10 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.259142064407471</v>
+        <v>0.1306026378862484</v>
       </c>
       <c r="L3">
-        <v>0.4951370468611848</v>
+        <v>0.2236513333060255</v>
       </c>
       <c r="M3" t="s">
         <v>143</v>
@@ -956,7 +956,7 @@
         <v>17</v>
       </c>
       <c r="O3">
-        <v>3347.2</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -964,7 +964,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>205</v>
@@ -976,13 +976,13 @@
         <v>140</v>
       </c>
       <c r="F4">
-        <v>-1.7</v>
+        <v>-0.8</v>
       </c>
       <c r="G4">
-        <v>-1.66</v>
+        <v>-1.15</v>
       </c>
       <c r="H4">
-        <v>-1.36</v>
+        <v>-0.55</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -991,10 +991,10 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.2321887869119715</v>
+        <v>0.5604758264500258</v>
       </c>
       <c r="L4">
-        <v>0.2565775168514894</v>
+        <v>2.294481337302496</v>
       </c>
       <c r="M4" t="s">
         <v>144</v>
@@ -1003,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="O4">
-        <v>76.51000000000001</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1023,10 +1023,10 @@
         <v>140</v>
       </c>
       <c r="F5">
-        <v>-0.95</v>
+        <v>-0.89</v>
       </c>
       <c r="G5">
-        <v>-1.39</v>
+        <v>-1.41</v>
       </c>
       <c r="H5">
         <v>-0.95</v>
@@ -1038,10 +1038,10 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.03510883468893757</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1274278382322693</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>144</v>
@@ -1050,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="O5">
-        <v>37.72</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6">
         <v>205</v>
@@ -1070,13 +1070,13 @@
         <v>140</v>
       </c>
       <c r="F6">
-        <v>-0.91</v>
+        <v>-1.57</v>
       </c>
       <c r="G6">
-        <v>-1.18</v>
+        <v>-1.49</v>
       </c>
       <c r="H6">
-        <v>-0.55</v>
+        <v>-1.36</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1097,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="O6">
-        <v>564.9</v>
+        <v>76.64</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1105,25 +1105,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D7">
         <v>65</v>
       </c>
       <c r="E7">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F7">
-        <v>-1.2</v>
+        <v>-0.86</v>
       </c>
       <c r="G7">
-        <v>-1.39</v>
+        <v>-1.1</v>
       </c>
       <c r="H7">
-        <v>-0.91</v>
+        <v>-0.96</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1132,19 +1132,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.01081022211376092</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03739882779793469</v>
       </c>
       <c r="M7" t="s">
         <v>144</v>
       </c>
       <c r="N7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O7">
-        <v>234.7</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1152,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>195</v>
@@ -1164,13 +1164,13 @@
         <v>130</v>
       </c>
       <c r="F8">
-        <v>-0.9</v>
+        <v>-1.04</v>
       </c>
       <c r="G8">
-        <v>-1.03</v>
+        <v>-1.22</v>
       </c>
       <c r="H8">
-        <v>-0.55</v>
+        <v>-1</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1179,10 +1179,10 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.008762504133866119</v>
       </c>
       <c r="L8">
-        <v>0.0002401147748623842</v>
+        <v>0.07284604163417342</v>
       </c>
       <c r="M8" t="s">
         <v>144</v>
@@ -1191,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="O8">
-        <v>178.37</v>
+        <v>375.95</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1199,7 +1199,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>195</v>
@@ -1211,13 +1211,13 @@
         <v>130</v>
       </c>
       <c r="F9">
-        <v>-0.83</v>
+        <v>-0.92</v>
       </c>
       <c r="G9">
-        <v>-1.35</v>
+        <v>-1.14</v>
       </c>
       <c r="H9">
-        <v>-0.96</v>
+        <v>-0.55</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1226,10 +1226,10 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.01127742660593447</v>
       </c>
       <c r="L9">
-        <v>0.263800039570006</v>
+        <v>0.03998617427194665</v>
       </c>
       <c r="M9" t="s">
         <v>144</v>
@@ -1238,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="O9">
-        <v>339.75</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1246,25 +1246,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D10">
         <v>65</v>
       </c>
       <c r="E10">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F10">
-        <v>-1.01</v>
+        <v>-1.52</v>
       </c>
       <c r="G10">
-        <v>-1.2</v>
+        <v>-1.71</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>-1.35</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1273,19 +1273,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.00579847796512754</v>
+        <v>0.0115676547904805</v>
       </c>
       <c r="L10">
-        <v>0.01276490056662296</v>
+        <v>0.0295048155075073</v>
       </c>
       <c r="M10" t="s">
         <v>144</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>376.1</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1293,7 +1293,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11">
         <v>185</v>
@@ -1305,10 +1305,10 @@
         <v>120</v>
       </c>
       <c r="F11">
-        <v>-1.41</v>
+        <v>-1.44</v>
       </c>
       <c r="G11">
-        <v>-1.63</v>
+        <v>-1.68</v>
       </c>
       <c r="H11">
         <v>-1.17</v>
@@ -1320,10 +1320,10 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1051241800714488</v>
       </c>
       <c r="L11">
-        <v>9.684167032512976E-05</v>
+        <v>0.271717733943335</v>
       </c>
       <c r="M11" t="s">
         <v>144</v>
@@ -1332,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="O11">
-        <v>36.25</v>
+        <v>36.22</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1340,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>185</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F12">
-        <v>-0.8100000000000001</v>
+        <v>-0.46</v>
       </c>
       <c r="G12">
-        <v>-1.03</v>
+        <v>-1.88</v>
       </c>
       <c r="H12">
-        <v>-0.57</v>
+        <v>0.08</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01058079355951696</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O12">
-        <v>2439.3</v>
+        <v>321.75</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1387,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>185</v>
@@ -1399,13 +1399,13 @@
         <v>120</v>
       </c>
       <c r="F13">
-        <v>-1.54</v>
+        <v>-0.98</v>
       </c>
       <c r="G13">
-        <v>-1.8</v>
+        <v>-1.13</v>
       </c>
       <c r="H13">
-        <v>-1.35</v>
+        <v>-0.57</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1414,10 +1414,10 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4740061364253594</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6588798670082437</v>
       </c>
       <c r="M13" t="s">
         <v>144</v>
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="O13">
-        <v>45.36</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1434,7 +1434,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C14">
         <v>185</v>
@@ -1446,10 +1446,10 @@
         <v>120</v>
       </c>
       <c r="F14">
-        <v>-0.53</v>
+        <v>-0.72</v>
       </c>
       <c r="G14">
-        <v>-1.24</v>
+        <v>-1.39</v>
       </c>
       <c r="H14">
         <v>-0.93</v>
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="O14">
-        <v>998.2</v>
+        <v>996.7</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1481,25 +1481,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D15">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F15">
-        <v>-0.55</v>
+        <v>-0.99</v>
       </c>
       <c r="G15">
-        <v>-1.31</v>
+        <v>-0.93</v>
       </c>
       <c r="H15">
-        <v>-0.13</v>
+        <v>-0.91</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1508,19 +1508,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.7283074662674524</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7455497382198953</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
         <v>143</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O15">
-        <v>297.15</v>
+        <v>235.3</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1531,22 +1531,22 @@
         <v>131</v>
       </c>
       <c r="C16">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D16">
         <v>45</v>
       </c>
       <c r="E16">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F16">
-        <v>-0.26</v>
+        <v>-0.37</v>
       </c>
       <c r="G16">
-        <v>-1.68</v>
+        <v>-1.13</v>
       </c>
       <c r="H16">
-        <v>0.08</v>
+        <v>-0.13</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.002053177291859152</v>
       </c>
       <c r="M16" t="s">
         <v>143</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O16">
-        <v>322.05</v>
+        <v>297.45</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1575,25 +1575,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>-0.54</v>
+        <v>-1.31</v>
       </c>
       <c r="G17">
-        <v>-0.39</v>
+        <v>-2.3</v>
       </c>
       <c r="H17">
-        <v>-0.41</v>
+        <v>-0.97</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1602,19 +1602,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.3510545745255885</v>
+        <v>0.03162332106988412</v>
       </c>
       <c r="L17">
-        <v>0.4966485371654774</v>
+        <v>0.08864265927977839</v>
       </c>
       <c r="M17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>51.15</v>
+        <v>1320.7</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1622,7 +1622,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>175</v>
@@ -1634,13 +1634,13 @@
         <v>110</v>
       </c>
       <c r="F18">
-        <v>-1.1</v>
+        <v>-1.61</v>
       </c>
       <c r="G18">
-        <v>-2.15</v>
+        <v>-1.8</v>
       </c>
       <c r="H18">
-        <v>-0.97</v>
+        <v>-1.45</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1649,10 +1649,10 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.001356009510557762</v>
       </c>
       <c r="L18">
-        <v>0.004272591326639607</v>
+        <v>0.003178639542275906</v>
       </c>
       <c r="M18" t="s">
         <v>144</v>
@@ -1661,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="O18">
-        <v>1322.9</v>
+        <v>571.1</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1669,25 +1669,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F19">
-        <v>-1.97</v>
+        <v>-0.95</v>
       </c>
       <c r="G19">
-        <v>-2.13</v>
+        <v>-0.92</v>
       </c>
       <c r="H19">
-        <v>-1.45</v>
+        <v>-0.45</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1702,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O19">
-        <v>569.3</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1728,10 +1728,10 @@
         <v>130</v>
       </c>
       <c r="F20">
+        <v>-0.97</v>
+      </c>
+      <c r="G20">
         <v>-0.9</v>
-      </c>
-      <c r="G20">
-        <v>-0.65</v>
       </c>
       <c r="H20">
         <v>-0.8</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1581277672359266</v>
       </c>
       <c r="M20" t="s">
         <v>143</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="O20">
-        <v>150.6</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1766,22 +1766,22 @@
         <v>131</v>
       </c>
       <c r="C21">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F21">
-        <v>-0.84</v>
+        <v>1.75</v>
       </c>
       <c r="G21">
-        <v>-0.9</v>
+        <v>1.33</v>
       </c>
       <c r="H21">
-        <v>-0.45</v>
+        <v>1.94</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1790,19 +1790,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.2023411371237351</v>
+        <v>0.1067422014657478</v>
       </c>
       <c r="L21">
-        <v>0.280970625798212</v>
+        <v>0.2366483722663009</v>
       </c>
       <c r="M21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O21">
-        <v>747</v>
+        <v>175.3</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1810,7 +1810,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>160</v>
@@ -1822,13 +1822,13 @@
         <v>140</v>
       </c>
       <c r="F22">
-        <v>1.33</v>
+        <v>0.59</v>
       </c>
       <c r="G22">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <v>1.94</v>
+        <v>0.31</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1837,10 +1837,10 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.0003770574478997189</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.007242797400125445</v>
+        <v>0.2440601715169408</v>
       </c>
       <c r="M22" t="s">
         <v>145</v>
@@ -1849,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="O22">
-        <v>174.65</v>
+        <v>1042.3</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1857,25 +1857,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C23">
         <v>160</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F23">
-        <v>0.44</v>
+        <v>-0.66</v>
       </c>
       <c r="G23">
-        <v>0.72</v>
+        <v>-0.92</v>
       </c>
       <c r="H23">
-        <v>0.31</v>
+        <v>-0.29</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1884,19 +1884,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.003378360568487896</v>
       </c>
       <c r="L23">
-        <v>0.003948550388438644</v>
+        <v>0.01362866296526159</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>1041.4</v>
+        <v>108.19</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1907,22 +1907,22 @@
         <v>132</v>
       </c>
       <c r="C24">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F24">
-        <v>-1.22</v>
+        <v>-0.49</v>
       </c>
       <c r="G24">
-        <v>-1.46</v>
+        <v>-0.47</v>
       </c>
       <c r="H24">
-        <v>-1.13</v>
+        <v>-0.41</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1931,19 +1931,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.2140289549187032</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4733857291343752</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O24">
-        <v>344.4</v>
+        <v>51.11</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1951,25 +1951,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C25">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F25">
-        <v>-0.08</v>
+        <v>-1.29</v>
       </c>
       <c r="G25">
-        <v>0.15</v>
+        <v>-1.46</v>
       </c>
       <c r="H25">
-        <v>-0.22</v>
+        <v>-1.13</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1981,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.02566102291881557</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>1110</v>
+        <v>343.75</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1998,7 +1998,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C26">
         <v>150</v>
@@ -2010,13 +2010,13 @@
         <v>130</v>
       </c>
       <c r="F26">
-        <v>0.65</v>
+        <v>-0.08</v>
       </c>
       <c r="G26">
-        <v>-0.03</v>
+        <v>0.15</v>
       </c>
       <c r="H26">
-        <v>0.59</v>
+        <v>-0.22</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -2025,10 +2025,10 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.001201029427799003</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.00627770274126353</v>
+        <v>0</v>
       </c>
       <c r="M26" t="s">
         <v>145</v>
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="O26">
-        <v>90.40000000000001</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2045,25 +2045,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C27">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F27">
-        <v>-1.78</v>
+        <v>-0.58</v>
       </c>
       <c r="G27">
-        <v>-1.68</v>
+        <v>-0.68</v>
       </c>
       <c r="H27">
-        <v>-1.18</v>
+        <v>-0.22</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2072,19 +2072,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.09328990509660783</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.3997676292760646</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>108.26</v>
+        <v>665.1</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2092,46 +2092,46 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C28">
+        <v>150</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>130</v>
+      </c>
+      <c r="F28">
+        <v>0.71</v>
+      </c>
+      <c r="G28">
+        <v>-0.03</v>
+      </c>
+      <c r="H28">
+        <v>0.59</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>0.04269540246300401</v>
+      </c>
+      <c r="L28">
+        <v>0.1302920304460435</v>
+      </c>
+      <c r="M28" t="s">
         <v>145</v>
       </c>
-      <c r="D28">
-        <v>65</v>
-      </c>
-      <c r="E28">
-        <v>80</v>
-      </c>
-      <c r="F28">
-        <v>-1.24</v>
-      </c>
-      <c r="G28">
-        <v>-2.07</v>
-      </c>
-      <c r="H28">
-        <v>-1.05</v>
-      </c>
-      <c r="I28">
-        <v>50</v>
-      </c>
-      <c r="J28">
-        <v>0.5</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0.02086025893930118</v>
-      </c>
-      <c r="M28" t="s">
-        <v>144</v>
-      </c>
       <c r="N28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O28">
-        <v>618.45</v>
+        <v>90.37</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2139,7 +2139,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C29">
         <v>145</v>
@@ -2151,13 +2151,13 @@
         <v>80</v>
       </c>
       <c r="F29">
-        <v>-1.09</v>
+        <v>-1.41</v>
       </c>
       <c r="G29">
-        <v>-1.15</v>
+        <v>-2.19</v>
       </c>
       <c r="H29">
-        <v>-1.02</v>
+        <v>-1.05</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2166,10 +2166,10 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.1681409196848816</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.5165731769505354</v>
       </c>
       <c r="M29" t="s">
         <v>144</v>
@@ -2178,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="O29">
-        <v>3393.6</v>
+        <v>617.35</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2186,25 +2186,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C30">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E30">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F30">
-        <v>0.89</v>
+        <v>-1.67</v>
       </c>
       <c r="G30">
-        <v>1.85</v>
+        <v>-1.53</v>
       </c>
       <c r="H30">
-        <v>1.21</v>
+        <v>-1.18</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2213,19 +2213,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.1096669491235397</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.4049829958475035</v>
+        <v>0.001921783415009128</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>882.9</v>
+        <v>108.29</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2236,22 +2236,22 @@
         <v>132</v>
       </c>
       <c r="C31">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E31">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F31">
-        <v>-0.32</v>
+        <v>-1.27</v>
       </c>
       <c r="G31">
-        <v>-0.43</v>
+        <v>-1.34</v>
       </c>
       <c r="H31">
-        <v>-0.21</v>
+        <v>-1.02</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.003796267004112622</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O31">
-        <v>479.95</v>
+        <v>3387.2</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2292,13 +2292,13 @@
         <v>120</v>
       </c>
       <c r="F32">
-        <v>-0.32</v>
+        <v>0.09</v>
       </c>
       <c r="G32">
-        <v>-0.86</v>
+        <v>0.01</v>
       </c>
       <c r="H32">
-        <v>-0.29</v>
+        <v>-0.21</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2307,10 +2307,10 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.004727697990869919</v>
+        <v>0.08199901859066448</v>
       </c>
       <c r="L32">
-        <v>0.02995003336100938</v>
+        <v>0.4357580464233324</v>
       </c>
       <c r="M32" t="s">
         <v>145</v>
@@ -2319,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="O32">
-        <v>108.28</v>
+        <v>482.2</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2327,7 +2327,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33">
         <v>140</v>
@@ -2339,13 +2339,13 @@
         <v>120</v>
       </c>
       <c r="F33">
-        <v>0.57</v>
+        <v>1.03</v>
       </c>
       <c r="G33">
-        <v>-0.17</v>
+        <v>2.15</v>
       </c>
       <c r="H33">
-        <v>-0.06</v>
+        <v>1.21</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2354,10 +2354,10 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.008917996237722344</v>
+        <v>0.08356209987164365</v>
       </c>
       <c r="L33">
-        <v>0.0399002493765586</v>
+        <v>0.2984367197352495</v>
       </c>
       <c r="M33" t="s">
         <v>145</v>
@@ -2366,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="O33">
-        <v>894.4</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2374,25 +2374,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C34">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F34">
-        <v>-1.48</v>
+        <v>0.62</v>
       </c>
       <c r="G34">
-        <v>-2.18</v>
+        <v>-0.04</v>
       </c>
       <c r="H34">
-        <v>-0.97</v>
+        <v>-0.06</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2401,19 +2401,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.1494592879126966</v>
       </c>
       <c r="L34">
-        <v>5.570813394463725E-05</v>
+        <v>0.4514868678098546</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O34">
-        <v>57.81</v>
+        <v>895.3</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2421,7 +2421,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C35">
         <v>135</v>
@@ -2433,13 +2433,13 @@
         <v>70</v>
       </c>
       <c r="F35">
-        <v>-1.86</v>
+        <v>-1.53</v>
       </c>
       <c r="G35">
-        <v>-2.09</v>
+        <v>-2.32</v>
       </c>
       <c r="H35">
-        <v>-1.31</v>
+        <v>-0.97</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2448,10 +2448,10 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.02023365570418078</v>
       </c>
       <c r="L35">
-        <v>0.1870067696450611</v>
+        <v>0.1929937194696441</v>
       </c>
       <c r="M35" t="s">
         <v>144</v>
@@ -2460,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="O35">
-        <v>1269.3</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2483,7 +2483,7 @@
         <v>-0.84</v>
       </c>
       <c r="G36">
-        <v>-0.35</v>
+        <v>-0.21</v>
       </c>
       <c r="H36">
         <v>-0.7</v>
@@ -2515,7 +2515,7 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C37">
         <v>125</v>
@@ -2527,10 +2527,10 @@
         <v>60</v>
       </c>
       <c r="F37">
-        <v>-1.83</v>
+        <v>-1.5</v>
       </c>
       <c r="G37">
-        <v>-1.79</v>
+        <v>-1.65</v>
       </c>
       <c r="H37">
         <v>-1.13</v>
@@ -2554,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="O37">
-        <v>1909.2</v>
+        <v>1911.9</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2562,7 +2562,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C38">
         <v>125</v>
@@ -2574,13 +2574,13 @@
         <v>60</v>
       </c>
       <c r="F38">
-        <v>-1.15</v>
+        <v>-1.17</v>
       </c>
       <c r="G38">
-        <v>-2.31</v>
+        <v>-1.44</v>
       </c>
       <c r="H38">
-        <v>-0.52</v>
+        <v>-1.11</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2589,10 +2589,10 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.1411010154997471</v>
       </c>
       <c r="L38">
-        <v>0.3256100784071888</v>
+        <v>0.3340926347760061</v>
       </c>
       <c r="M38" t="s">
         <v>144</v>
@@ -2601,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="O38">
-        <v>606.8</v>
+        <v>1549.1</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2609,7 +2609,7 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C39">
         <v>125</v>
@@ -2621,13 +2621,13 @@
         <v>60</v>
       </c>
       <c r="F39">
-        <v>-1.15</v>
+        <v>-1.23</v>
       </c>
       <c r="G39">
-        <v>-1.36</v>
+        <v>-2.35</v>
       </c>
       <c r="H39">
-        <v>-1.11</v>
+        <v>-0.52</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2636,10 +2636,10 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.059301470606595</v>
       </c>
       <c r="L39">
-        <v>0.09331259720062209</v>
+        <v>0.2174219394842268</v>
       </c>
       <c r="M39" t="s">
         <v>144</v>
@@ -2648,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="O39">
-        <v>1550</v>
+        <v>606.4</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2656,7 +2656,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>120</v>
@@ -2668,10 +2668,10 @@
         <v>100</v>
       </c>
       <c r="F40">
-        <v>-0.4</v>
+        <v>-0.38</v>
       </c>
       <c r="G40">
-        <v>-0.37</v>
+        <v>-0.35</v>
       </c>
       <c r="H40">
         <v>-0.26</v>
@@ -2683,10 +2683,10 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.02914960024744937</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.2093547699453613</v>
+        <v>0</v>
       </c>
       <c r="M40" t="s">
         <v>145</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41">
         <v>120</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F41">
-        <v>-0.15</v>
+        <v>-0.85</v>
       </c>
       <c r="G41">
-        <v>-0.1</v>
+        <v>-0.41</v>
       </c>
       <c r="H41">
-        <v>-0.13</v>
+        <v>-0.58</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2730,19 +2730,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.00665321239271695</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.02070571995513761</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O41">
-        <v>1948</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2750,25 +2750,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42">
         <v>120</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F42">
-        <v>-0.73</v>
+        <v>-0.12</v>
       </c>
       <c r="G42">
-        <v>-0.19</v>
+        <v>-0.05</v>
       </c>
       <c r="H42">
-        <v>-0.58</v>
+        <v>-0.13</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2777,19 +2777,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.06561269761919318</v>
       </c>
       <c r="L42">
-        <v>0.007285974499089253</v>
+        <v>0.100250626566416</v>
       </c>
       <c r="M42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O42">
-        <v>5514.5</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2797,25 +2797,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43">
         <v>120</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F43">
-        <v>-0.37</v>
+        <v>-0.68</v>
       </c>
       <c r="G43">
-        <v>-0.31</v>
+        <v>-0.77</v>
       </c>
       <c r="H43">
-        <v>-0.22</v>
+        <v>-0.26</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2824,19 +2824,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.5214593004151419</v>
+        <v>0.2028699259936892</v>
       </c>
       <c r="L43">
-        <v>0.5329006237942807</v>
+        <v>0.6201764437878808</v>
       </c>
       <c r="M43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N43">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O43">
-        <v>666.3</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2856,10 +2856,10 @@
         <v>50</v>
       </c>
       <c r="F44">
-        <v>-0.92</v>
+        <v>-1.2</v>
       </c>
       <c r="G44">
-        <v>-1.22</v>
+        <v>-1.42</v>
       </c>
       <c r="H44">
         <v>-0.86</v>
@@ -2871,10 +2871,10 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.2456748212275595</v>
       </c>
       <c r="L44">
-        <v>0.005010286269538219</v>
+        <v>0.5449304677623261</v>
       </c>
       <c r="M44" t="s">
         <v>144</v>
@@ -2883,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="O44">
-        <v>798.3</v>
+        <v>796.5</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2903,10 +2903,10 @@
         <v>50</v>
       </c>
       <c r="F45">
-        <v>-1.54</v>
+        <v>-1.63</v>
       </c>
       <c r="G45">
-        <v>-2.17</v>
+        <v>-2.31</v>
       </c>
       <c r="H45">
         <v>-1.24</v>
@@ -2918,10 +2918,10 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0.09306181113795037</v>
+        <v>0.006791842242818699</v>
       </c>
       <c r="L45">
-        <v>0.2921034695400993</v>
+        <v>0.03775260937153009</v>
       </c>
       <c r="M45" t="s">
         <v>144</v>
@@ -2930,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="O45">
-        <v>1794</v>
+        <v>1792.3</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2938,25 +2938,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C46">
         <v>115</v>
       </c>
       <c r="D46">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>-1.22</v>
+        <v>-2.31</v>
       </c>
       <c r="G46">
-        <v>-1.61</v>
+        <v>-2.46</v>
       </c>
       <c r="H46">
-        <v>-1.14</v>
+        <v>-1.31</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2965,19 +2965,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.0086456398390569</v>
+        <v>1.543952831444909</v>
       </c>
       <c r="L46">
-        <v>0.0469749032230003</v>
+        <v>1.438271382389348</v>
       </c>
       <c r="M46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O46">
-        <v>814.95</v>
+        <v>1262.2</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2985,25 +2985,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F47">
-        <v>-2.45</v>
+        <v>-1.41</v>
       </c>
       <c r="G47">
-        <v>2.2</v>
+        <v>-1.94</v>
       </c>
       <c r="H47">
-        <v>-2.07</v>
+        <v>-1.14</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -3012,19 +3012,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.02490850731607518</v>
+        <v>0.01943474471797607</v>
       </c>
       <c r="L47">
-        <v>0.111789506831581</v>
+        <v>0.07765239646347138</v>
       </c>
       <c r="M47" t="s">
         <v>144</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O47">
-        <v>1239.2</v>
+        <v>813.35</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3032,7 +3032,7 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <v>110</v>
@@ -3044,13 +3044,13 @@
         <v>90</v>
       </c>
       <c r="F48">
-        <v>-0.37</v>
+        <v>0.26</v>
       </c>
       <c r="G48">
-        <v>-0.74</v>
+        <v>-0.57</v>
       </c>
       <c r="H48">
-        <v>-0.26</v>
+        <v>0.7</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -3059,10 +3059,10 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.1011471746900107</v>
+        <v>0.03724357514520119</v>
       </c>
       <c r="L48">
-        <v>0.2359786260826707</v>
+        <v>0.1915652845307902</v>
       </c>
       <c r="M48" t="s">
         <v>145</v>
@@ -3071,7 +3071,7 @@
         <v>9</v>
       </c>
       <c r="O48">
-        <v>742.55</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3079,25 +3079,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C49">
         <v>110</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F49">
-        <v>0.3</v>
+        <v>-2.14</v>
       </c>
       <c r="G49">
-        <v>-0.39</v>
+        <v>2.14</v>
       </c>
       <c r="H49">
-        <v>0.7</v>
+        <v>-2.07</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3106,19 +3106,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.05789892500078924</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.1471893965051672</v>
       </c>
       <c r="M49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N49">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>1574.7</v>
+        <v>1238.7</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3126,22 +3126,22 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F50">
-        <v>-0.54</v>
+        <v>-0.42</v>
       </c>
       <c r="G50">
-        <v>-1.99</v>
+        <v>-0.82</v>
       </c>
       <c r="H50">
         <v>-0.26</v>
@@ -3153,19 +3153,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.001104907587770695</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>0.01409471381747346</v>
       </c>
       <c r="M50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O50">
-        <v>583.25</v>
+        <v>742.1</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3173,7 +3173,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C51">
         <v>105</v>
@@ -3185,13 +3185,13 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>-2.61</v>
+        <v>-3.49</v>
       </c>
       <c r="G51">
-        <v>-2.09</v>
+        <v>-3.7</v>
       </c>
       <c r="H51">
-        <v>-2.41</v>
+        <v>-2.77</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3200,10 +3200,10 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.1437796208404533</v>
       </c>
       <c r="L51">
-        <v>0.02127659574468085</v>
+        <v>0.2848308500367938</v>
       </c>
       <c r="M51" t="s">
         <v>142</v>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>1034</v>
+        <v>431.9</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3220,25 +3220,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C52">
         <v>105</v>
       </c>
       <c r="D52">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>-0.79</v>
+        <v>-2.31</v>
       </c>
       <c r="G52">
-        <v>-1.53</v>
+        <v>-1.99</v>
       </c>
       <c r="H52">
-        <v>-0.77</v>
+        <v>-2.41</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3247,19 +3247,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.1444081949724718</v>
+        <v>0.01154446587166234</v>
       </c>
       <c r="L52">
-        <v>0.4620620236782821</v>
+        <v>0.2371807829661074</v>
       </c>
       <c r="M52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>1064</v>
+        <v>1033.6</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3267,25 +3267,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C53">
         <v>105</v>
       </c>
       <c r="D53">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F53">
-        <v>-3.53</v>
+        <v>-0.6</v>
       </c>
       <c r="G53">
-        <v>-3.7</v>
+        <v>-1.32</v>
       </c>
       <c r="H53">
-        <v>-2.77</v>
+        <v>-0.77</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3294,19 +3294,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.002334291560016587</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.05341452340891488</v>
       </c>
       <c r="M53" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>432</v>
+        <v>1065.9</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3314,25 +3314,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54">
         <v>105</v>
       </c>
       <c r="D54">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F54">
-        <v>-4.4</v>
+        <v>-0.82</v>
       </c>
       <c r="G54">
-        <v>-3.77</v>
+        <v>-1.48</v>
       </c>
       <c r="H54">
-        <v>-4.14</v>
+        <v>-0.68</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3341,19 +3341,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.0001162945498980165</v>
+        <v>0.02406821503538849</v>
       </c>
       <c r="L54">
-        <v>0.009082219723797979</v>
+        <v>0.03983256013643248</v>
       </c>
       <c r="M54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>662.5</v>
+        <v>211.73</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3361,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>105</v>
@@ -3373,13 +3373,13 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>-0.87</v>
+        <v>-0.66</v>
       </c>
       <c r="G55">
-        <v>-1.4</v>
+        <v>-2.01</v>
       </c>
       <c r="H55">
-        <v>-0.68</v>
+        <v>-0.26</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3388,10 +3388,10 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.3288764792414464</v>
+        <v>0.0007582504222614096</v>
       </c>
       <c r="L55">
-        <v>0.298120244148203</v>
+        <v>0.01284235355785611</v>
       </c>
       <c r="M55" t="s">
         <v>144</v>
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="O55">
-        <v>211.89</v>
+        <v>582.85</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3408,25 +3408,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C56">
         <v>105</v>
       </c>
       <c r="D56">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E56">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>-0.4</v>
+        <v>-3.98</v>
       </c>
       <c r="G56">
-        <v>-1.13</v>
+        <v>-3.67</v>
       </c>
       <c r="H56">
-        <v>-0.39</v>
+        <v>-4.14</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3435,19 +3435,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.0001762847633553744</v>
+        <v>0.02888825802847518</v>
       </c>
       <c r="L56">
-        <v>0.007707723138584861</v>
+        <v>0.2340813083749952</v>
       </c>
       <c r="M56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>503.55</v>
+        <v>663.95</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3455,25 +3455,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F57">
-        <v>-0.37</v>
+        <v>-0.22</v>
       </c>
       <c r="G57">
-        <v>-0.66</v>
+        <v>-1.04</v>
       </c>
       <c r="H57">
-        <v>-0.26</v>
+        <v>-0.39</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3482,19 +3482,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.00898259348652297</v>
       </c>
       <c r="L57">
-        <v>0.01822349407024587</v>
+        <v>0.06868246921852751</v>
       </c>
       <c r="M57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O57">
-        <v>322.85</v>
+        <v>503.9</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3502,7 +3502,7 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58">
         <v>100</v>
@@ -3514,10 +3514,10 @@
         <v>60</v>
       </c>
       <c r="F58">
-        <v>-0.82</v>
+        <v>-0.75</v>
       </c>
       <c r="G58">
-        <v>-0.1</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H58">
         <v>-0.84</v>
@@ -3529,10 +3529,10 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.006262332659845708</v>
+        <v>0.005082568202889759</v>
       </c>
       <c r="L58">
-        <v>0.1686197571451296</v>
+        <v>0.03188662533215235</v>
       </c>
       <c r="M58" t="s">
         <v>143</v>
@@ -3541,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="O58">
-        <v>1904.2</v>
+        <v>1905.6</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3561,10 +3561,10 @@
         <v>60</v>
       </c>
       <c r="F59">
-        <v>-0.89</v>
+        <v>-0.84</v>
       </c>
       <c r="G59">
-        <v>-0.85</v>
+        <v>-0.77</v>
       </c>
       <c r="H59">
         <v>-0.87</v>
@@ -3576,10 +3576,10 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.008324648005859156</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>0.06114345570144454</v>
       </c>
       <c r="M59" t="s">
         <v>143</v>
@@ -3588,7 +3588,7 @@
         <v>6</v>
       </c>
       <c r="O59">
-        <v>1462.5</v>
+        <v>1463.3</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3608,10 +3608,10 @@
         <v>30</v>
       </c>
       <c r="F60">
-        <v>-1.88</v>
+        <v>-1.96</v>
       </c>
       <c r="G60">
-        <v>-3.98</v>
+        <v>-4.12</v>
       </c>
       <c r="H60">
         <v>-1.58</v>
@@ -3623,10 +3623,10 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.1086076260625009</v>
       </c>
       <c r="L60">
-        <v>0.04179636744346915</v>
+        <v>0.4273241155759674</v>
       </c>
       <c r="M60" t="s">
         <v>144</v>
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="O60">
-        <v>106.15</v>
+        <v>105.99</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3655,10 +3655,10 @@
         <v>30</v>
       </c>
       <c r="F61">
-        <v>-1.41</v>
+        <v>-1.31</v>
       </c>
       <c r="G61">
-        <v>-1.62</v>
+        <v>-1.92</v>
       </c>
       <c r="H61">
         <v>-1.06</v>
@@ -3670,10 +3670,10 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>0.01238533246361055</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.05838393274170948</v>
       </c>
       <c r="M61" t="s">
         <v>144</v>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="O61">
-        <v>373</v>
+        <v>372.65</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3690,25 +3690,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D62">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F62">
-        <v>-1.01</v>
+        <v>-0.7</v>
       </c>
       <c r="G62">
-        <v>-1.11</v>
+        <v>-0.51</v>
       </c>
       <c r="H62">
-        <v>-0.58</v>
+        <v>-0.38</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3717,19 +3717,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>0.09678744349206109</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>0.1412226366882265</v>
       </c>
       <c r="M62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>30775</v>
+        <v>3643.4</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3737,25 +3737,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>40</v>
       </c>
       <c r="F63">
-        <v>-0.61</v>
+        <v>-0.45</v>
       </c>
       <c r="G63">
-        <v>-0.62</v>
+        <v>-1.03</v>
       </c>
       <c r="H63">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3764,10 +3764,10 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.03198921436452454</v>
       </c>
       <c r="L63">
-        <v>0.05103342689461598</v>
+        <v>0.2694749883846987</v>
       </c>
       <c r="M63" t="s">
         <v>143</v>
@@ -3776,7 +3776,7 @@
         <v>4</v>
       </c>
       <c r="O63">
-        <v>1191.6</v>
+        <v>2851.3</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3784,25 +3784,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C64">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D64">
+        <v>65</v>
+      </c>
+      <c r="E64">
         <v>20</v>
       </c>
-      <c r="E64">
-        <v>60</v>
-      </c>
       <c r="F64">
-        <v>0.01</v>
+        <v>-1.81</v>
       </c>
       <c r="G64">
-        <v>-0.1</v>
+        <v>-1.13</v>
       </c>
       <c r="H64">
-        <v>-0.36</v>
+        <v>-1.47</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3811,19 +3811,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.08420171569430496</v>
+        <v>0.008836038736963965</v>
       </c>
       <c r="L64">
-        <v>1.334253428793237</v>
+        <v>0.01701012174524813</v>
       </c>
       <c r="M64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>199.6</v>
+        <v>1720.3</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3831,7 +3831,7 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65">
         <v>80</v>
@@ -3843,10 +3843,10 @@
         <v>60</v>
       </c>
       <c r="F65">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="H65">
         <v>1.04</v>
@@ -3858,10 +3858,10 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>0.007030750738835027</v>
       </c>
       <c r="L65">
-        <v>0.002477342637131238</v>
+        <v>0.03102590370261964</v>
       </c>
       <c r="M65" t="s">
         <v>145</v>
@@ -3870,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="O65">
-        <v>4328.7</v>
+        <v>4338.1</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3878,25 +3878,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C66">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D66">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F66">
-        <v>-1.85</v>
+        <v>-0.54</v>
       </c>
       <c r="G66">
-        <v>-2.69</v>
+        <v>-0.49</v>
       </c>
       <c r="H66">
-        <v>-1.42</v>
+        <v>-0.62</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3905,19 +3905,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.3618087869436716</v>
+        <v>0.2448749824083566</v>
       </c>
       <c r="L66">
-        <v>0.8450628233056592</v>
+        <v>0.2985842985842986</v>
       </c>
       <c r="M66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>112.33</v>
+        <v>1192.7</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3925,25 +3925,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C67">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D67">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F67">
-        <v>-2.22</v>
+        <v>0.1</v>
       </c>
       <c r="G67">
-        <v>-1.14</v>
+        <v>-0.16</v>
       </c>
       <c r="H67">
-        <v>-1.9</v>
+        <v>0.05</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3952,19 +3952,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.01149853322860867</v>
+        <v>0.008168660659353564</v>
       </c>
       <c r="L67">
-        <v>0.1829827016183955</v>
+        <v>0.01724969344594315</v>
       </c>
       <c r="M67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>153.03</v>
+        <v>407.75</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3972,25 +3972,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C68">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F68">
-        <v>-1.1</v>
+        <v>-0.01</v>
       </c>
       <c r="G68">
-        <v>-2.32</v>
+        <v>-0.08</v>
       </c>
       <c r="H68">
-        <v>-0.63</v>
+        <v>-0.36</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3999,19 +3999,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.1131024469193971</v>
       </c>
       <c r="L68">
-        <v>0.03387139454882244</v>
+        <v>0.2980101458228038</v>
       </c>
       <c r="M68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>978.4</v>
+        <v>199.64</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4019,7 +4019,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C69">
         <v>75</v>
@@ -4031,13 +4031,13 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <v>-1.84</v>
+        <v>-1.88</v>
       </c>
       <c r="G69">
-        <v>-1.26</v>
+        <v>-2.8</v>
       </c>
       <c r="H69">
-        <v>-1.57</v>
+        <v>-1.42</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4046,10 +4046,10 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.03791991661926659</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>0.1447514739873993</v>
       </c>
       <c r="M69" t="s">
         <v>144</v>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>483.6</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4072,19 +4072,19 @@
         <v>75</v>
       </c>
       <c r="D70">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F70">
-        <v>-0.88</v>
+        <v>-0.37</v>
       </c>
       <c r="G70">
-        <v>-1.38</v>
+        <v>-1.26</v>
       </c>
       <c r="H70">
-        <v>-0.83</v>
+        <v>-0.71</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4093,19 +4093,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>0.2579440083609592</v>
       </c>
       <c r="L70">
-        <v>0.000276539113000795</v>
+        <v>0.4151753758052971</v>
       </c>
       <c r="M70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>441</v>
+        <v>2834.9</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4113,25 +4113,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C71">
         <v>75</v>
       </c>
       <c r="D71">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E71">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>-0.28</v>
+        <v>-1.67</v>
       </c>
       <c r="G71">
-        <v>-1.2</v>
+        <v>-1.88</v>
       </c>
       <c r="H71">
-        <v>-0.71</v>
+        <v>-1.25</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4140,19 +4140,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.02759858805179971</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>0.1336559736198899</v>
       </c>
       <c r="M71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>2836.7</v>
+        <v>129.3</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4160,7 +4160,7 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C72">
         <v>75</v>
@@ -4172,13 +4172,13 @@
         <v>10</v>
       </c>
       <c r="F72">
-        <v>-1.71</v>
+        <v>-0.79</v>
       </c>
       <c r="G72">
-        <v>-2.04</v>
+        <v>-1.42</v>
       </c>
       <c r="H72">
-        <v>-0.74</v>
+        <v>-0.82</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4187,10 +4187,10 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0.02388666975250438</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>0.1463226800154024</v>
+        <v>0</v>
       </c>
       <c r="M72" t="s">
         <v>144</v>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>17461</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4207,7 +4207,7 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C73">
         <v>75</v>
@@ -4219,13 +4219,13 @@
         <v>10</v>
       </c>
       <c r="F73">
-        <v>-0.9399999999999999</v>
+        <v>-2.42</v>
       </c>
       <c r="G73">
-        <v>-1.36</v>
+        <v>-1.3</v>
       </c>
       <c r="H73">
-        <v>-0.82</v>
+        <v>-1.9</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4234,10 +4234,10 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.0002410748724981785</v>
+        <v>0.03816455391847229</v>
       </c>
       <c r="L73">
-        <v>0.006422149279292136</v>
+        <v>0.1798508751511147</v>
       </c>
       <c r="M73" t="s">
         <v>144</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="O73">
-        <v>5438</v>
+        <v>152.93</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4266,10 +4266,10 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>-0.87</v>
+        <v>-0.7</v>
       </c>
       <c r="G74">
-        <v>-1.1</v>
+        <v>-1.06</v>
       </c>
       <c r="H74">
         <v>-0.59</v>
@@ -4281,10 +4281,10 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.0100456704405724</v>
       </c>
       <c r="L74">
-        <v>0.007163415414134954</v>
+        <v>0.02215597808572349</v>
       </c>
       <c r="M74" t="s">
         <v>144</v>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>585.95</v>
+        <v>585.7</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4301,25 +4301,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D75">
+        <v>65</v>
+      </c>
+      <c r="E75">
         <v>10</v>
       </c>
-      <c r="E75">
-        <v>60</v>
-      </c>
       <c r="F75">
-        <v>0.09</v>
+        <v>-0.83</v>
       </c>
       <c r="G75">
-        <v>-0.17</v>
+        <v>-1.35</v>
       </c>
       <c r="H75">
-        <v>0.05</v>
+        <v>-0.83</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4328,19 +4328,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>1.069038350242374</v>
+        <v>0.0377330593053694</v>
       </c>
       <c r="L75">
-        <v>1.594449086190774</v>
+        <v>0.1060399561213975</v>
       </c>
       <c r="M75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>407.7</v>
+        <v>440.95</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4348,25 +4348,25 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C76">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E76">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>0.76</v>
+        <v>-1.15</v>
       </c>
       <c r="G76">
-        <v>0.64</v>
+        <v>-2.47</v>
       </c>
       <c r="H76">
-        <v>1.18</v>
+        <v>-0.63</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4375,19 +4375,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.02094366155042831</v>
+        <v>0.03268917856554726</v>
       </c>
       <c r="L76">
-        <v>0.03665689149560117</v>
+        <v>0.2647947396481251</v>
       </c>
       <c r="M76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>2361.2</v>
+        <v>977.3</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4395,25 +4395,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C77">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E77">
         <v>20</v>
       </c>
       <c r="F77">
-        <v>-1.09</v>
+        <v>-1.48</v>
       </c>
       <c r="G77">
-        <v>-0.9399999999999999</v>
+        <v>-1.17</v>
       </c>
       <c r="H77">
-        <v>-0.89</v>
+        <v>-0.57</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4422,10 +4422,10 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>0.6048090321197477</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>0.8601145261189669</v>
       </c>
       <c r="M77" t="s">
         <v>143</v>
@@ -4434,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="O77">
-        <v>455.15</v>
+        <v>409.1</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4445,22 +4445,22 @@
         <v>131</v>
       </c>
       <c r="C78">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>0.78</v>
+        <v>-1.85</v>
       </c>
       <c r="G78">
-        <v>1.93</v>
+        <v>-2.19</v>
       </c>
       <c r="H78">
-        <v>0.73</v>
+        <v>-0.74</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4469,19 +4469,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.005694504991503821</v>
+        <v>0.05090370605423558</v>
       </c>
       <c r="L78">
-        <v>0.0322252903081037</v>
+        <v>0.298677286303513</v>
       </c>
       <c r="M78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>2776.7</v>
+        <v>17439</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4492,22 +4492,22 @@
         <v>135</v>
       </c>
       <c r="C79">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>2.2</v>
+        <v>-2.13</v>
       </c>
       <c r="G79">
-        <v>1.01</v>
+        <v>-1.55</v>
       </c>
       <c r="H79">
-        <v>2.54</v>
+        <v>-1.57</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4516,19 +4516,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.0004994594523779687</v>
+        <v>0.5374442956909544</v>
       </c>
       <c r="L79">
-        <v>0.009926121769179575</v>
+        <v>0.5793480021285948</v>
       </c>
       <c r="M79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>139.11</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4536,25 +4536,25 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C80">
         <v>60</v>
       </c>
       <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
         <v>40</v>
       </c>
-      <c r="E80">
-        <v>20</v>
-      </c>
       <c r="F80">
-        <v>-1.78</v>
+        <v>0.6</v>
       </c>
       <c r="G80">
-        <v>0.07000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="H80">
-        <v>-1.66</v>
+        <v>1.18</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4563,19 +4563,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.05357816933136857</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="M80" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O80">
-        <v>924.7</v>
+        <v>2358.4</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4583,7 +4583,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4595,13 +4595,13 @@
         <v>40</v>
       </c>
       <c r="F81">
-        <v>-0.31</v>
+        <v>1.61</v>
       </c>
       <c r="G81">
-        <v>-0.84</v>
+        <v>0.28</v>
       </c>
       <c r="H81">
-        <v>-0.26</v>
+        <v>2.54</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4610,10 +4610,10 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>0.05845449854610262</v>
       </c>
       <c r="L81">
-        <v>0.01046615201900238</v>
+        <v>0.1982850350775928</v>
       </c>
       <c r="M81" t="s">
         <v>145</v>
@@ -4622,7 +4622,7 @@
         <v>4</v>
       </c>
       <c r="O81">
-        <v>241.2</v>
+        <v>138.49</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4630,7 +4630,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C82">
         <v>60</v>
@@ -4642,13 +4642,13 @@
         <v>20</v>
       </c>
       <c r="F82">
-        <v>-1.65</v>
+        <v>-1.9</v>
       </c>
       <c r="G82">
-        <v>-0.87</v>
+        <v>0.01</v>
       </c>
       <c r="H82">
-        <v>-1.47</v>
+        <v>-1.66</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4657,10 +4657,10 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.000840006036889081</v>
+        <v>0.003592679308125831</v>
       </c>
       <c r="L82">
-        <v>0.02320515135102606</v>
+        <v>0.01686415479518928</v>
       </c>
       <c r="M82" t="s">
         <v>143</v>
@@ -4669,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="O82">
-        <v>1723.3</v>
+        <v>924.6</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4689,13 +4689,13 @@
         <v>40</v>
       </c>
       <c r="F83">
-        <v>-0.37</v>
+        <v>-0.48</v>
       </c>
       <c r="G83">
-        <v>-0.97</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H83">
-        <v>-0.63</v>
+        <v>-0.26</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4704,10 +4704,10 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.04165404611750512</v>
       </c>
       <c r="L83">
-        <v>0.07463846991136681</v>
+        <v>0.3457091310159451</v>
       </c>
       <c r="M83" t="s">
         <v>145</v>
@@ -4716,7 +4716,7 @@
         <v>4</v>
       </c>
       <c r="O83">
-        <v>2853.1</v>
+        <v>240.88</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4724,7 +4724,7 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C84">
         <v>60</v>
@@ -4736,13 +4736,13 @@
         <v>20</v>
       </c>
       <c r="F84">
-        <v>-1.29</v>
+        <v>-1.24</v>
       </c>
       <c r="G84">
-        <v>-0.89</v>
+        <v>0.33</v>
       </c>
       <c r="H84">
-        <v>-0.57</v>
+        <v>-1.02</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4751,10 +4751,10 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>0.06647152942301361</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>0.2529994387902137</v>
       </c>
       <c r="M84" t="s">
         <v>143</v>
@@ -4763,7 +4763,7 @@
         <v>2</v>
       </c>
       <c r="O84">
-        <v>410.25</v>
+        <v>330.05</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4777,19 +4777,19 @@
         <v>60</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F85">
-        <v>-0.46</v>
+        <v>0.88</v>
       </c>
       <c r="G85">
-        <v>-0.28</v>
+        <v>1.87</v>
       </c>
       <c r="H85">
-        <v>-0.38</v>
+        <v>0.73</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4798,19 +4798,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0.5943928815057865</v>
+        <v>0.0008549026440328231</v>
       </c>
       <c r="L85">
-        <v>0.5654092014045197</v>
+        <v>0.00734626852772136</v>
       </c>
       <c r="M85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>3649.2</v>
+        <v>2775.8</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4818,25 +4818,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C86">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F86">
-        <v>-1.27</v>
+        <v>1.72</v>
       </c>
       <c r="G86">
-        <v>0.43</v>
+        <v>-1.2</v>
       </c>
       <c r="H86">
-        <v>-1.02</v>
+        <v>1.16</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4845,19 +4845,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0.03308522115220246</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0.1271302400796119</v>
+        <v>0</v>
       </c>
       <c r="M86" t="s">
         <v>143</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>330.4</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4865,25 +4865,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D87">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E87">
         <v>10</v>
       </c>
       <c r="F87">
-        <v>-1.56</v>
+        <v>-1</v>
       </c>
       <c r="G87">
-        <v>-1.71</v>
+        <v>-0.86</v>
       </c>
       <c r="H87">
-        <v>-1.25</v>
+        <v>-1.27</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4892,10 +4892,10 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0.9399433228922556</v>
+        <v>0.0002144025181285909</v>
       </c>
       <c r="L87">
-        <v>1.030271021080341</v>
+        <v>0.0009406010440671589</v>
       </c>
       <c r="M87" t="s">
         <v>143</v>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>129.6</v>
+        <v>3851.4</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4918,16 +4918,16 @@
         <v>50</v>
       </c>
       <c r="D88">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>-0.6</v>
+        <v>-0.95</v>
       </c>
       <c r="G88">
-        <v>-0.93</v>
+        <v>-0.96</v>
       </c>
       <c r="H88">
         <v>-0.58</v>
@@ -4939,19 +4939,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.1143096016434876</v>
+        <v>1.419698314108252</v>
       </c>
       <c r="L88">
-        <v>0.1914108298232663</v>
+        <v>5</v>
       </c>
       <c r="M88" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O88">
-        <v>240</v>
+        <v>30795</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4959,7 +4959,7 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C89">
         <v>50</v>
@@ -4971,13 +4971,13 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>-1.14</v>
+        <v>-0.86</v>
       </c>
       <c r="G89">
-        <v>-0.85</v>
+        <v>-0.89</v>
       </c>
       <c r="H89">
-        <v>-1.15</v>
+        <v>-0.34</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>0.009752752485808983</v>
       </c>
       <c r="M89" t="s">
         <v>143</v>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>3158.8</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5006,7 +5006,7 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C90">
         <v>50</v>
@@ -5018,13 +5018,13 @@
         <v>10</v>
       </c>
       <c r="F90">
-        <v>-1.26</v>
+        <v>-0.97</v>
       </c>
       <c r="G90">
-        <v>-0.99</v>
+        <v>-0.51</v>
       </c>
       <c r="H90">
-        <v>-1.18</v>
+        <v>-0.84</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -5033,10 +5033,10 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0.2545811621977459</v>
+        <v>0.001313427248854455</v>
       </c>
       <c r="L90">
-        <v>0.5480563672257246</v>
+        <v>0.00699630944676683</v>
       </c>
       <c r="M90" t="s">
         <v>143</v>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>1500.8</v>
+        <v>220.63</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5053,25 +5053,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C91">
         <v>50</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>-0.44</v>
+        <v>-1.14</v>
       </c>
       <c r="G91">
-        <v>-0.4</v>
+        <v>-0.88</v>
       </c>
       <c r="H91">
-        <v>-0.3</v>
+        <v>-1.18</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5080,19 +5080,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0.0678841643416072</v>
+        <v>0.03082610726136095</v>
       </c>
       <c r="L91">
-        <v>0.3081062899428187</v>
+        <v>0.09957217899886275</v>
       </c>
       <c r="M91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>4524</v>
+        <v>1502.6</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5100,25 +5100,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C92">
         <v>50</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F92">
-        <v>-0.99</v>
+        <v>-1.11</v>
       </c>
       <c r="G92">
-        <v>-0.54</v>
+        <v>-0.97</v>
       </c>
       <c r="H92">
-        <v>-0.84</v>
+        <v>-0.89</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5127,19 +5127,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>2.564297341291352</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>5.264564999443021</v>
       </c>
       <c r="M92" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>220.61</v>
+        <v>454.95</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5147,25 +5147,25 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93">
         <v>50</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F93">
-        <v>-0.89</v>
+        <v>0.26</v>
       </c>
       <c r="G93">
-        <v>-0.75</v>
+        <v>-0.21</v>
       </c>
       <c r="H93">
-        <v>-1.27</v>
+        <v>0.33</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5174,19 +5174,19 @@
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>0.002322882978317158</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>0.05976095617529881</v>
+        <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>3855.6</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5194,7 +5194,7 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C94">
         <v>50</v>
@@ -5209,10 +5209,10 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="G94">
-        <v>-0.47</v>
+        <v>-0.96</v>
       </c>
       <c r="H94">
-        <v>-0.8</v>
+        <v>-1.14</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5221,10 +5221,10 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>0.00237040314631472</v>
+        <v>0.1444639356103617</v>
       </c>
       <c r="L94">
-        <v>0.01170994467051143</v>
+        <v>0.2932704896569783</v>
       </c>
       <c r="M94" t="s">
         <v>143</v>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="O94">
-        <v>1450.8</v>
+        <v>243.15</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5241,25 +5241,25 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C95">
         <v>50</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F95">
-        <v>-0.25</v>
+        <v>-0.58</v>
       </c>
       <c r="G95">
-        <v>-0.32</v>
+        <v>-0.11</v>
       </c>
       <c r="H95">
-        <v>-0.14</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I95">
         <v>50</v>
@@ -5268,19 +5268,19 @@
         <v>0.5</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>0.3010143901863908</v>
       </c>
       <c r="L95">
-        <v>0.003567844798751255</v>
+        <v>0.3906680546200478</v>
       </c>
       <c r="M95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>315.35</v>
+        <v>2222.9</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5288,7 +5288,7 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C96">
         <v>50</v>
@@ -5300,13 +5300,13 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <v>-0.57</v>
+        <v>-1.03</v>
       </c>
       <c r="G96">
-        <v>-0.15</v>
+        <v>-0.64</v>
       </c>
       <c r="H96">
-        <v>-0.5600000000000001</v>
+        <v>-1.15</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0.001257940750990628</v>
+        <v>0.1322115384615385</v>
       </c>
       <c r="M96" t="s">
         <v>143</v>
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>2222.8</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5335,25 +5335,25 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C97">
         <v>50</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>0.33</v>
+        <v>-0.64</v>
       </c>
       <c r="G97">
-        <v>-0.14</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H97">
-        <v>0.33</v>
+        <v>-0.58</v>
       </c>
       <c r="I97">
         <v>50</v>
@@ -5368,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>657.6</v>
+        <v>240.05</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5382,25 +5382,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
         <v>30</v>
       </c>
-      <c r="E98">
-        <v>10</v>
-      </c>
       <c r="F98">
-        <v>-0.82</v>
+        <v>-0.17</v>
       </c>
       <c r="G98">
-        <v>-0.98</v>
+        <v>-0.22</v>
       </c>
       <c r="H98">
-        <v>-1.14</v>
+        <v>-0.14</v>
       </c>
       <c r="I98">
         <v>50</v>
@@ -5409,19 +5409,19 @@
         <v>0.5</v>
       </c>
       <c r="K98">
-        <v>0.6333617277146022</v>
+        <v>0.0204050204050194</v>
       </c>
       <c r="L98">
-        <v>0.8020304568527918</v>
+        <v>0.1682997641081473</v>
       </c>
       <c r="M98" t="s">
         <v>145</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>243.1</v>
+        <v>315.7</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5429,25 +5429,25 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99">
         <v>40</v>
-      </c>
-      <c r="D99">
-        <v>30</v>
       </c>
       <c r="E99">
         <v>10</v>
       </c>
       <c r="F99">
-        <v>-0.58</v>
+        <v>-1.02</v>
       </c>
       <c r="G99">
-        <v>-0.73</v>
+        <v>-0.54</v>
       </c>
       <c r="H99">
-        <v>-0.34</v>
+        <v>-0.8</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -5456,19 +5456,19 @@
         <v>0.5</v>
       </c>
       <c r="K99">
-        <v>3.569901138277001</v>
+        <v>0.003417276663496095</v>
       </c>
       <c r="L99">
-        <v>3.061147430534475</v>
+        <v>0.01253454120730422</v>
       </c>
       <c r="M99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99">
-        <v>38.03</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5476,25 +5476,25 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D100">
         <v>20</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F100">
-        <v>1.59</v>
+        <v>-0.43</v>
       </c>
       <c r="G100">
-        <v>1.9</v>
+        <v>-0.4</v>
       </c>
       <c r="H100">
-        <v>1.65</v>
+        <v>-0.3</v>
       </c>
       <c r="I100">
         <v>50</v>
@@ -5503,19 +5503,19 @@
         <v>0.5</v>
       </c>
       <c r="K100">
-        <v>0.05273563773171233</v>
+        <v>0.0008454188303510098</v>
       </c>
       <c r="L100">
-        <v>0.4619712748630374</v>
+        <v>0.03496585001981398</v>
       </c>
       <c r="M100" t="s">
         <v>145</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>428</v>
+        <v>4522.5</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5523,7 +5523,7 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C101">
         <v>30</v>
@@ -5535,13 +5535,13 @@
         <v>10</v>
       </c>
       <c r="F101">
-        <v>0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="G101">
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="H101">
-        <v>0.05</v>
+        <v>-0.33</v>
       </c>
       <c r="I101">
         <v>50</v>
@@ -5550,10 +5550,10 @@
         <v>0.5</v>
       </c>
       <c r="K101">
-        <v>0.0636355418964257</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0.2592810842663524</v>
+        <v>0</v>
       </c>
       <c r="M101" t="s">
         <v>145</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>1570</v>
+        <v>457.55</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5570,7 +5570,7 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102">
         <v>30</v>
@@ -5582,13 +5582,13 @@
         <v>10</v>
       </c>
       <c r="F102">
-        <v>-0.44</v>
+        <v>0.51</v>
       </c>
       <c r="G102">
-        <v>-0.6899999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="H102">
-        <v>-0.4</v>
+        <v>1.21</v>
       </c>
       <c r="I102">
         <v>50</v>
@@ -5597,10 +5597,10 @@
         <v>0.5</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>0.01000408582713086</v>
       </c>
       <c r="L102">
-        <v>0.003094218967562271</v>
+        <v>0.03083875301517511</v>
       </c>
       <c r="M102" t="s">
         <v>145</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="O102">
-        <v>753.25</v>
+        <v>373.4</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5617,7 +5617,7 @@
         <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103">
         <v>30</v>
@@ -5629,13 +5629,13 @@
         <v>10</v>
       </c>
       <c r="F103">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="G103">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="H103">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="I103">
         <v>50</v>
@@ -5644,10 +5644,10 @@
         <v>0.5</v>
       </c>
       <c r="K103">
-        <v>0.02493426843042502</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>0.1457282060205324</v>
+        <v>0</v>
       </c>
       <c r="M103" t="s">
         <v>145</v>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="O103">
-        <v>5765</v>
+        <v>248.95</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5664,7 +5664,7 @@
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C104">
         <v>30</v>
@@ -5676,13 +5676,13 @@
         <v>10</v>
       </c>
       <c r="F104">
-        <v>0.41</v>
+        <v>-0.26</v>
       </c>
       <c r="G104">
-        <v>0.02</v>
+        <v>-0.46</v>
       </c>
       <c r="H104">
-        <v>0.33</v>
+        <v>-0.29</v>
       </c>
       <c r="I104">
         <v>50</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>0.07388324955861048</v>
       </c>
       <c r="M104" t="s">
         <v>145</v>
@@ -5703,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="O104">
-        <v>30635</v>
+        <v>1070.6</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5711,7 +5711,7 @@
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C105">
         <v>30</v>
@@ -5723,13 +5723,13 @@
         <v>10</v>
       </c>
       <c r="F105">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="G105">
-        <v>1.12</v>
+        <v>0.64</v>
       </c>
       <c r="H105">
-        <v>-0.33</v>
+        <v>0.97</v>
       </c>
       <c r="I105">
         <v>50</v>
@@ -5738,10 +5738,10 @@
         <v>0.5</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>0.08422914943941837</v>
       </c>
       <c r="L105">
-        <v>0.01989653800238758</v>
+        <v>0.4157175398633258</v>
       </c>
       <c r="M105" t="s">
         <v>145</v>
@@ -5750,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="O105">
-        <v>458.65</v>
+        <v>2606.6</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5758,7 +5758,7 @@
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C106">
         <v>30</v>
@@ -5770,13 +5770,13 @@
         <v>10</v>
       </c>
       <c r="F106">
-        <v>0.9</v>
+        <v>-0.08</v>
       </c>
       <c r="G106">
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="H106">
-        <v>0.97</v>
+        <v>-0.23</v>
       </c>
       <c r="I106">
         <v>50</v>
@@ -5785,10 +5785,10 @@
         <v>0.5</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>0.05703686248919985</v>
       </c>
       <c r="L106">
-        <v>0.06727828746177369</v>
+        <v>0.2765733036446736</v>
       </c>
       <c r="M106" t="s">
         <v>145</v>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="O106">
-        <v>2609.4</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5805,7 +5805,7 @@
         <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C107">
         <v>30</v>
@@ -5817,13 +5817,13 @@
         <v>10</v>
       </c>
       <c r="F107">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="G107">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="H107">
-        <v>0.57</v>
+        <v>1.65</v>
       </c>
       <c r="I107">
         <v>50</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>0.0002152667154604555</v>
       </c>
       <c r="M107" t="s">
         <v>145</v>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="O107">
-        <v>6386.5</v>
+        <v>427.4</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5852,7 +5852,7 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C108">
         <v>30</v>
@@ -5864,13 +5864,13 @@
         <v>10</v>
       </c>
       <c r="F108">
-        <v>-0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="G108">
-        <v>-0.39</v>
+        <v>0.27</v>
       </c>
       <c r="H108">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I108">
         <v>50</v>
@@ -5879,10 +5879,10 @@
         <v>0.5</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.05515715177856956</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>0.126001139372005</v>
       </c>
       <c r="M108" t="s">
         <v>145</v>
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="O108">
-        <v>55.5</v>
+        <v>1567.1</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5899,7 +5899,7 @@
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109">
         <v>30</v>
@@ -5911,13 +5911,13 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>-0.35</v>
+        <v>0.97</v>
       </c>
       <c r="G109">
-        <v>-0.57</v>
+        <v>1.98</v>
       </c>
       <c r="H109">
-        <v>-0.29</v>
+        <v>1.74</v>
       </c>
       <c r="I109">
         <v>50</v>
@@ -5926,10 +5926,10 @@
         <v>0.5</v>
       </c>
       <c r="K109">
-        <v>0.00338885763813108</v>
+        <v>0.08440508840175893</v>
       </c>
       <c r="L109">
-        <v>0.01148915302524344</v>
+        <v>0.3198833532114639</v>
       </c>
       <c r="M109" t="s">
         <v>145</v>
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="O109">
-        <v>1069.8</v>
+        <v>386.3</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5946,7 +5946,7 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C110">
         <v>30</v>
@@ -5958,13 +5958,13 @@
         <v>10</v>
       </c>
       <c r="F110">
-        <v>0.9399999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="G110">
-        <v>2.27</v>
+        <v>0.43</v>
       </c>
       <c r="H110">
-        <v>1.74</v>
+        <v>0.49</v>
       </c>
       <c r="I110">
         <v>50</v>
@@ -5973,10 +5973,10 @@
         <v>0.5</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>0.08706665133133951</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>0.2730234951123306</v>
       </c>
       <c r="M110" t="s">
         <v>145</v>
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="O110">
-        <v>387.2</v>
+        <v>5756.5</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -5993,7 +5993,7 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C111">
         <v>30</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>1.04</v>
+        <v>-0.42</v>
       </c>
       <c r="G111">
-        <v>0.34</v>
+        <v>-0.55</v>
       </c>
       <c r="H111">
-        <v>1.18</v>
+        <v>-0.4</v>
       </c>
       <c r="I111">
         <v>50</v>
@@ -6020,10 +6020,10 @@
         <v>0.5</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>0.08286049637238216</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>0.2818868314885694</v>
       </c>
       <c r="M111" t="s">
         <v>145</v>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>905.3</v>
+        <v>753.95</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6040,25 +6040,25 @@
         <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C112">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E112">
         <v>10</v>
       </c>
       <c r="F112">
-        <v>1.54</v>
+        <v>0.41</v>
       </c>
       <c r="G112">
-        <v>-0.98</v>
+        <v>1.24</v>
       </c>
       <c r="H112">
-        <v>1.16</v>
+        <v>0.57</v>
       </c>
       <c r="I112">
         <v>50</v>
@@ -6067,19 +6067,19 @@
         <v>0.5</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>2.109983825907955</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>3.663985701519213</v>
       </c>
       <c r="M112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N112">
         <v>1</v>
       </c>
       <c r="O112">
-        <v>292.6</v>
+        <v>6393.5</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6087,25 +6087,25 @@
         <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>10</v>
       </c>
       <c r="F113">
+        <v>-0.14</v>
+      </c>
+      <c r="G113">
         <v>0.14</v>
       </c>
-      <c r="G113">
-        <v>0.18</v>
-      </c>
       <c r="H113">
-        <v>-0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I113">
         <v>50</v>
@@ -6114,19 +6114,19 @@
         <v>0.5</v>
       </c>
       <c r="K113">
-        <v>0.09516214494832449</v>
+        <v>0.5199641897941109</v>
       </c>
       <c r="L113">
-        <v>0.306356289952961</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="M113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N113">
         <v>1</v>
       </c>
       <c r="O113">
-        <v>6637.5</v>
+        <v>2034.6</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6134,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114">
         <v>20</v>
@@ -6146,13 +6146,13 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="G114">
-        <v>-0.2</v>
+        <v>-0.14</v>
       </c>
       <c r="H114">
-        <v>0.77</v>
+        <v>1.18</v>
       </c>
       <c r="I114">
         <v>50</v>
@@ -6161,10 +6161,10 @@
         <v>0.5</v>
       </c>
       <c r="K114">
-        <v>1.261550263258879</v>
+        <v>0.7052886131847247</v>
       </c>
       <c r="L114">
-        <v>3.651226158038147</v>
+        <v>0.8793686583990981</v>
       </c>
       <c r="M114" t="s">
         <v>146</v>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="O114">
-        <v>248.95</v>
+        <v>901.4</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6184,22 +6184,22 @@
         <v>131</v>
       </c>
       <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="D115">
         <v>10</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
       </c>
       <c r="E115">
         <v>10</v>
       </c>
       <c r="F115">
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="G115">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="H115">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I115">
         <v>50</v>
@@ -6208,10 +6208,10 @@
         <v>0.5</v>
       </c>
       <c r="K115">
-        <v>1.447081001825292</v>
+        <v>1.859504132231405</v>
       </c>
       <c r="L115">
-        <v>1.236133122028526</v>
+        <v>1.846590909090909</v>
       </c>
       <c r="M115" t="s">
         <v>146</v>
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>2037.5</v>
+        <v>30665</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6228,25 +6228,25 @@
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116">
         <v>10</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
       </c>
       <c r="E116">
         <v>10</v>
       </c>
       <c r="F116">
-        <v>1.05</v>
+        <v>-0.23</v>
       </c>
       <c r="G116">
-        <v>2.02</v>
+        <v>-0.54</v>
       </c>
       <c r="H116">
-        <v>1.21</v>
+        <v>0.09</v>
       </c>
       <c r="I116">
         <v>50</v>
@@ -6255,10 +6255,10 @@
         <v>0.5</v>
       </c>
       <c r="K116">
-        <v>2.146564441581062</v>
+        <v>2.577482605945454</v>
       </c>
       <c r="L116">
-        <v>1.224145208948924</v>
+        <v>2.05225055083412</v>
       </c>
       <c r="M116" t="s">
         <v>146</v>
@@ -6267,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="O116">
-        <v>374.35</v>
+        <v>55.41</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="122">
   <si>
     <t>ticker</t>
   </si>
@@ -61,424 +61,325 @@
     <t>close</t>
   </si>
   <si>
+    <t>AUBANK</t>
+  </si>
+  <si>
+    <t>TATATECH</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>GUJGASLTD</t>
+  </si>
+  <si>
+    <t>SPARC</t>
+  </si>
+  <si>
+    <t>ICICIPRULI</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>HAPPSTMNDS</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>SHRIRAMFIN</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
     <t>AVG</t>
   </si>
   <si>
-    <t>GRSE</t>
-  </si>
-  <si>
-    <t>HAPPYFORGE</t>
-  </si>
-  <si>
-    <t>SHRIRAMFIN</t>
-  </si>
-  <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>GUJGASLTD</t>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>POONAWALLA</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>CELLO</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
   </si>
   <si>
     <t>RVNL</t>
   </si>
   <si>
+    <t>EQUITASBNK</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>IREDA</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>SMSPHARMA</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>ANGELONE</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>CHENNPETRO</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>AZAD</t>
+  </si>
+  <si>
+    <t>LATENTVIEW</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
+    <t>KALYANKJIL</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
+    <t>TRITURBINE</t>
+  </si>
+  <si>
+    <t>SANOFI</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>MMTC</t>
+  </si>
+  <si>
+    <t>ALEMBICLTD</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>RENUKA</t>
+  </si>
+  <si>
+    <t>JINDALSAW</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>SBICARD</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>PRSMJOHNSN</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>MVGJL</t>
+  </si>
+  <si>
+    <t>UJJIVANSFB</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
+  </si>
+  <si>
+    <t>EMBDL</t>
+  </si>
+  <si>
+    <t>ANURAS</t>
+  </si>
+  <si>
+    <t>BSOFT</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
     <t>ASTRAZEN</t>
   </si>
   <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>CHOLAHLDNG</t>
-  </si>
-  <si>
-    <t>AAVAS</t>
-  </si>
-  <si>
-    <t>ANGELONE</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>FIVESTAR</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>J&amp;KBANK</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>ALLCARGO</t>
-  </si>
-  <si>
-    <t>CERA</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>VIPIND</t>
-  </si>
-  <si>
-    <t>EMBDL</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>EQUITASBNK</t>
-  </si>
-  <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>CHOLAFIN</t>
-  </si>
-  <si>
-    <t>REDINGTON</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>KNRCON</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>INDUSINDBK</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>RAYMOND</t>
-  </si>
-  <si>
-    <t>COCHINSHIP</t>
-  </si>
-  <si>
-    <t>IREDA</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>ANDHRSUGAR</t>
-  </si>
-  <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>RENUKA</t>
-  </si>
-  <si>
-    <t>ELECON</t>
-  </si>
-  <si>
-    <t>HINDCOPPER</t>
-  </si>
-  <si>
-    <t>CASTROLIND</t>
-  </si>
-  <si>
-    <t>TATACOMM</t>
-  </si>
-  <si>
-    <t>BERGEPAINT</t>
-  </si>
-  <si>
-    <t>JINDALSAW</t>
-  </si>
-  <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>MAITHANALL</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>CRISIL</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
+    <t>GNFC</t>
+  </si>
+  <si>
+    <t>RKFORGE</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
   </si>
   <si>
     <t>BATAINDIA</t>
   </si>
   <si>
-    <t>SKFINDIA</t>
-  </si>
-  <si>
-    <t>HINDPETRO</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>BSOFT</t>
-  </si>
-  <si>
-    <t>MAZDOCK</t>
-  </si>
-  <si>
-    <t>SAMMAANCAP</t>
-  </si>
-  <si>
-    <t>MMTC</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>PANACEABIO</t>
-  </si>
-  <si>
-    <t>VINDHYATEL</t>
-  </si>
-  <si>
-    <t>JYOTISTRUC</t>
-  </si>
-  <si>
-    <t>MTARTECH</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>CEATLTD</t>
-  </si>
-  <si>
-    <t>WELCORP</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV</t>
-  </si>
-  <si>
-    <t>AETHER</t>
-  </si>
-  <si>
-    <t>KPITTECH</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>MAXESTATES</t>
-  </si>
-  <si>
-    <t>SHRIRAMPPS</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>CELLO</t>
-  </si>
-  <si>
-    <t>RATNAMANI</t>
-  </si>
-  <si>
-    <t>GIPCL</t>
-  </si>
-  <si>
-    <t>PRSMJOHNSN</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>IRB</t>
-  </si>
-  <si>
-    <t>RTNINDIA</t>
-  </si>
-  <si>
-    <t>CENTENKA</t>
-  </si>
-  <si>
-    <t>MVGJL</t>
-  </si>
-  <si>
-    <t>IOB</t>
-  </si>
-  <si>
-    <t>SOLARINDS</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>MAHABANK</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>BAJFINANCE</t>
-  </si>
-  <si>
-    <t>GILLETTE</t>
-  </si>
-  <si>
-    <t>FDC</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>MGL</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>MEDPLUS</t>
-  </si>
-  <si>
-    <t>TVSSCS</t>
-  </si>
-  <si>
-    <t>NATIONALUM</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>RRKABEL</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>MUTHOOTFIN</t>
-  </si>
-  <si>
-    <t>NIITLTD</t>
-  </si>
-  <si>
-    <t>CENTURYPLY</t>
-  </si>
-  <si>
-    <t>NHPC</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>HAPPSTMNDS</t>
-  </si>
-  <si>
-    <t>AWHCL</t>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>Industrials</t>
   </si>
   <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
+    <t>Communication Services</t>
   </si>
   <si>
     <t>Real Estate</t>
   </si>
   <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Technology</t>
+    <t>Short</t>
   </si>
   <si>
     <t>Weak Short</t>
   </si>
   <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Strong Short</t>
+    <t>Neutral</t>
   </si>
   <si>
     <t>No Signal</t>
-  </si>
-  <si>
-    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -836,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,25 +795,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>225</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F2">
-        <v>-0.07000000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G2">
-        <v>-1.61</v>
+        <v>-1.08</v>
       </c>
       <c r="H2">
-        <v>-1.38</v>
+        <v>-2.15</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -921,19 +822,19 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.05083342525182209</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1280056026768345</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O2">
-        <v>224.33</v>
+        <v>724.6</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -941,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>120</v>
       </c>
       <c r="F3">
-        <v>-0.5</v>
+        <v>0.19</v>
       </c>
       <c r="G3">
-        <v>-1.19</v>
+        <v>-0.46</v>
       </c>
       <c r="H3">
-        <v>-2.75</v>
+        <v>-2.5</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -968,19 +869,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.5337770889966833</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.172858458704329</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N3">
         <v>12</v>
       </c>
       <c r="O3">
-        <v>2440.9</v>
+        <v>663.95</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -988,25 +889,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>-0.64</v>
+        <v>0.67</v>
       </c>
       <c r="G4">
-        <v>-0.48</v>
+        <v>-0.11</v>
       </c>
       <c r="H4">
-        <v>-2.27</v>
+        <v>0.57</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1015,19 +916,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.0739827373612824</v>
+        <v>0.109490262002456</v>
       </c>
       <c r="L4">
-        <v>0.5316973415132925</v>
+        <v>0.2147427786414085</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>917.05</v>
+        <v>1030.6</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1035,25 +936,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F5">
-        <v>-0.52</v>
+        <v>1.25</v>
       </c>
       <c r="G5">
-        <v>-1.28</v>
+        <v>-0.32</v>
       </c>
       <c r="H5">
-        <v>-2.44</v>
+        <v>-2.47</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1062,19 +963,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.1249567027196207</v>
+        <v>0.3300103844866635</v>
       </c>
       <c r="L5">
-        <v>0.2087763063168645</v>
+        <v>0.6721440247967221</v>
       </c>
       <c r="M5" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O5">
-        <v>602.35</v>
+        <v>1444.9</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1082,25 +983,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C6">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
-        <v>-0.05</v>
+        <v>-1.21</v>
       </c>
       <c r="H6">
-        <v>-1.61</v>
+        <v>-0.63</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1109,19 +1010,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>2.2302721550042</v>
+        <v>0.5567574446424134</v>
       </c>
       <c r="L6">
-        <v>2.292754385305938</v>
+        <v>0.5680895958448303</v>
       </c>
       <c r="M6" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>535.55</v>
+        <v>1259.3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1129,25 +1030,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>140</v>
       </c>
-      <c r="C7">
-        <v>170</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>150</v>
-      </c>
       <c r="F7">
-        <v>0.55</v>
+        <v>0.86</v>
       </c>
       <c r="G7">
-        <v>0.75</v>
+        <v>-0.52</v>
       </c>
       <c r="H7">
-        <v>-0.85</v>
+        <v>-1.95</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1156,19 +1057,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.01693684974594848</v>
+        <v>1.415049487431057</v>
       </c>
       <c r="L7">
-        <v>0.04591492234976367</v>
+        <v>3.33467210074554</v>
       </c>
       <c r="M7" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>430.2</v>
+        <v>274.95</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1176,25 +1077,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F8">
-        <v>-0.6</v>
+        <v>0.71</v>
       </c>
       <c r="G8">
-        <v>-1.18</v>
+        <v>0.89</v>
       </c>
       <c r="H8">
-        <v>-1.68</v>
+        <v>-0.15</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1203,19 +1104,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.06057475774882631</v>
       </c>
       <c r="L8">
-        <v>0.05911444246967004</v>
+        <v>0.125200096014294</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O8">
-        <v>313.1</v>
+        <v>139.3</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1223,25 +1124,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C9">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>120</v>
       </c>
       <c r="F9">
-        <v>-0.57</v>
+        <v>0.77</v>
       </c>
       <c r="G9">
-        <v>0.93</v>
+        <v>0.19</v>
       </c>
       <c r="H9">
-        <v>-1.03</v>
+        <v>0.29</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1250,19 +1151,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0049744104845279</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03271674845853781</v>
       </c>
       <c r="M9" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N9">
         <v>12</v>
       </c>
       <c r="O9">
-        <v>8241.5</v>
+        <v>420.85</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1270,25 +1171,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F10">
-        <v>-0.1</v>
+        <v>0.39</v>
       </c>
       <c r="G10">
-        <v>-0.48</v>
+        <v>-0.06</v>
       </c>
       <c r="H10">
-        <v>-0.8100000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1297,19 +1198,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.0650058491713269</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2146084577972915</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>313.9</v>
+        <v>140.55</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1317,25 +1218,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F11">
-        <v>0.18</v>
+        <v>0.83</v>
       </c>
       <c r="G11">
-        <v>1.09</v>
+        <v>-1.3</v>
       </c>
       <c r="H11">
-        <v>-0.14</v>
+        <v>-1.1</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1344,19 +1245,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.01484313867846261</v>
       </c>
       <c r="L11">
-        <v>0.0002123548024038564</v>
+        <v>0.07393715341959335</v>
       </c>
       <c r="M11" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>1849.5</v>
+        <v>605.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1364,25 +1265,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F12">
-        <v>0.15</v>
+        <v>2.21</v>
       </c>
       <c r="G12">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H12">
-        <v>-0.95</v>
+        <v>-0.48</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1391,19 +1292,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.2872065120218469</v>
+        <v>0.06682945636808009</v>
       </c>
       <c r="L12">
-        <v>0.543369890329013</v>
+        <v>0.3708199308126479</v>
       </c>
       <c r="M12" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>1618</v>
+        <v>437.8</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1411,25 +1312,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F13">
-        <v>-0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G13">
-        <v>-2.02</v>
+        <v>-0.3</v>
       </c>
       <c r="H13">
-        <v>-2.84</v>
+        <v>0.59</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1438,19 +1339,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.03564896411825342</v>
+        <v>0.0005038544868249103</v>
       </c>
       <c r="L13">
-        <v>0.1313725490196078</v>
+        <v>0.006329781622534023</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O13">
-        <v>2346.5</v>
+        <v>566.15</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1458,25 +1359,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C14">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F14">
-        <v>1.98</v>
+        <v>0.7</v>
       </c>
       <c r="G14">
-        <v>4.96</v>
+        <v>1.4</v>
       </c>
       <c r="H14">
-        <v>-1.46</v>
+        <v>0.42</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1485,19 +1386,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.01185953550792381</v>
+        <v>0.3929542967079354</v>
       </c>
       <c r="L14">
-        <v>0.1162528216704289</v>
+        <v>0.6658388763345126</v>
       </c>
       <c r="M14" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>833.35</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1505,25 +1406,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F15">
-        <v>-0.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G15">
-        <v>-0.54</v>
+        <v>0.29</v>
       </c>
       <c r="H15">
-        <v>-1.51</v>
+        <v>-1.31</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1532,19 +1433,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.06032416884144518</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1551873011366997</v>
+        <v>0.04454144581533117</v>
       </c>
       <c r="M15" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15">
-        <v>212.65</v>
+        <v>379.55</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1552,25 +1453,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C16">
         <v>130</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>0.11</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G16">
-        <v>-0.21</v>
+        <v>1.66</v>
       </c>
       <c r="H16">
-        <v>-1.34</v>
+        <v>-0.66</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1579,19 +1480,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.1547322390867146</v>
+        <v>0.3700776706332395</v>
       </c>
       <c r="L16">
-        <v>0.2874340074982785</v>
+        <v>1.690289055813428</v>
       </c>
       <c r="M16" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>503.55</v>
+        <v>584.6</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1599,25 +1500,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C17">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>-0.78</v>
+        <v>0.44</v>
       </c>
       <c r="G17">
-        <v>-1.11</v>
+        <v>-0.57</v>
       </c>
       <c r="H17">
-        <v>-1.13</v>
+        <v>-0.82</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1626,19 +1527,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.01094641123566032</v>
+        <v>0.009714032867179714</v>
       </c>
       <c r="L17">
-        <v>0.02892681515765114</v>
+        <v>0.0762717342123974</v>
       </c>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>565.15</v>
+        <v>633.4</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1646,25 +1547,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>-0.18</v>
+        <v>0.77</v>
       </c>
       <c r="G18">
-        <v>0.66</v>
+        <v>-2.18</v>
       </c>
       <c r="H18">
-        <v>-0.46</v>
+        <v>-2.94</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1673,19 +1574,19 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5289511071671765</v>
       </c>
       <c r="L18">
-        <v>0.005952380952380952</v>
+        <v>0.67852768611175</v>
       </c>
       <c r="M18" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>1939.2</v>
+        <v>69.39</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1693,25 +1594,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C19">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>-0.83</v>
+        <v>-0.91</v>
       </c>
       <c r="G19">
-        <v>-0.83</v>
+        <v>-1.98</v>
       </c>
       <c r="H19">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1726,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>101.65</v>
+        <v>212.7</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1740,25 +1641,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C20">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>-0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G20">
-        <v>0.36</v>
+        <v>-1.8</v>
       </c>
       <c r="H20">
-        <v>-1.33</v>
+        <v>-2.38</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1767,19 +1668,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.03783454823904283</v>
       </c>
       <c r="L20">
-        <v>0.3751103265666372</v>
+        <v>0.1078328097665582</v>
       </c>
       <c r="M20" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>261.5</v>
+        <v>351.85</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1787,25 +1688,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>-0.06</v>
+        <v>0.85</v>
       </c>
       <c r="G21">
-        <v>0.03</v>
+        <v>0.98</v>
       </c>
       <c r="H21">
-        <v>-2.41</v>
+        <v>-0.12</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1814,19 +1715,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.0168208578637526</v>
       </c>
       <c r="L21">
-        <v>0.03809394238291215</v>
+        <v>0.04357298474945534</v>
       </c>
       <c r="M21" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O21">
-        <v>32.38</v>
+        <v>940.65</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1834,25 +1735,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C22">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>-0.6</v>
+        <v>0.44</v>
       </c>
       <c r="G22">
-        <v>-1.07</v>
+        <v>-0.51</v>
       </c>
       <c r="H22">
-        <v>-0.87</v>
+        <v>-0.02</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1861,19 +1762,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.02154866100288385</v>
       </c>
       <c r="L22">
-        <v>0.05405405405405406</v>
+        <v>0.210366126577746</v>
       </c>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>6352</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1881,25 +1782,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D23">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>-0.66</v>
+        <v>-0.03</v>
       </c>
       <c r="G23">
-        <v>-1.43</v>
+        <v>-4.21</v>
       </c>
       <c r="H23">
-        <v>-1.64</v>
+        <v>-5.1</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1908,19 +1809,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.1882245296428858</v>
+        <v>0.1282916356307278</v>
       </c>
       <c r="L23">
-        <v>0.4821092278719397</v>
+        <v>0.1752873563218391</v>
       </c>
       <c r="M23" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>1792.6</v>
+        <v>429.7</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1928,25 +1829,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C24">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
       <c r="E24">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>-0.16</v>
+        <v>0.13</v>
       </c>
       <c r="G24">
-        <v>0.32</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H24">
-        <v>-0.98</v>
+        <v>0.14</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1955,19 +1856,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.08743356763245638</v>
+        <v>0.115420092830654</v>
       </c>
       <c r="L24">
-        <v>0.1727788599983061</v>
+        <v>0.294760888918751</v>
       </c>
       <c r="M24" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24">
-        <v>140.8</v>
+        <v>138.51</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1975,25 +1876,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C25">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F25">
-        <v>-0.08</v>
+        <v>0.93</v>
       </c>
       <c r="G25">
-        <v>-0.53</v>
+        <v>-0.46</v>
       </c>
       <c r="H25">
-        <v>-2.39</v>
+        <v>-1.08</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -2002,19 +1903,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.03831030697110466</v>
+        <v>0.04283861045473969</v>
       </c>
       <c r="L25">
-        <v>0.1286075174156013</v>
+        <v>0.3023116694440883</v>
       </c>
       <c r="M25" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O25">
-        <v>413.5</v>
+        <v>919.45</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2022,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C26">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>-0.27</v>
+        <v>0.19</v>
       </c>
       <c r="G26">
-        <v>0.24</v>
+        <v>-0.7</v>
       </c>
       <c r="H26">
-        <v>-1.7</v>
+        <v>-0.43</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -2049,19 +1950,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.001019799405456083</v>
+        <v>0.1517177490539552</v>
       </c>
       <c r="L26">
-        <v>0.007509198768491402</v>
+        <v>0.3607347685146705</v>
       </c>
       <c r="M26" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>97.12</v>
+        <v>799.9</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2069,25 +1970,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C27">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F27">
-        <v>-0.12</v>
+        <v>0.7</v>
       </c>
       <c r="G27">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="H27">
-        <v>-2.31</v>
+        <v>-0.17</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2096,19 +1997,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.09031791907513857</v>
+        <v>0.06508755385439707</v>
       </c>
       <c r="L27">
-        <v>0.1866832607342875</v>
+        <v>0.1420959147424512</v>
       </c>
       <c r="M27" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>941.5</v>
+        <v>537.85</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2116,25 +2017,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>-0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="G28">
-        <v>0.55</v>
+        <v>-1.35</v>
       </c>
       <c r="H28">
-        <v>-0.39</v>
+        <v>0.06</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2143,19 +2044,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.08314591426428321</v>
+        <v>0.080287984137887</v>
       </c>
       <c r="L28">
-        <v>0.1273619375717716</v>
+        <v>0.16606405962755</v>
       </c>
       <c r="M28" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>52.95</v>
+        <v>351.15</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2163,25 +2064,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G29">
-        <v>1.18</v>
+        <v>-1.17</v>
       </c>
       <c r="H29">
-        <v>-0.39</v>
+        <v>-1.3</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2190,19 +2091,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.1714652290097719</v>
+        <v>0.1197213855082675</v>
       </c>
       <c r="L29">
-        <v>0.610774818401937</v>
+        <v>0.2096250950960026</v>
       </c>
       <c r="M29" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>2512</v>
+        <v>307.4</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2210,25 +2111,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>-0.06</v>
+        <v>0.27</v>
       </c>
       <c r="G30">
-        <v>0.78</v>
+        <v>1.88</v>
       </c>
       <c r="H30">
-        <v>-2.36</v>
+        <v>0.14</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2240,16 +2141,16 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.082223318533136</v>
+        <v>0.04553170561451938</v>
       </c>
       <c r="M30" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>31.08</v>
+        <v>51.94</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2257,25 +2158,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F31">
-        <v>-0.52</v>
+        <v>-0.1</v>
       </c>
       <c r="G31">
-        <v>-0.62</v>
+        <v>-0.37</v>
       </c>
       <c r="H31">
-        <v>-1.31</v>
+        <v>0.22</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2284,19 +2185,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0.02736855275093679</v>
+        <v>0.292226498582597</v>
       </c>
       <c r="L31">
-        <v>0.2816674714308708</v>
+        <v>0.4549695012558306</v>
       </c>
       <c r="M31" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O31">
-        <v>318</v>
+        <v>1061.9</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2304,25 +2205,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F32">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="G32">
-        <v>-1.34</v>
+        <v>-0.26</v>
       </c>
       <c r="H32">
-        <v>-2.14</v>
+        <v>0.3</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2331,19 +2232,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>1.200565700777342</v>
+        <v>0.9916763309965421</v>
       </c>
       <c r="L32">
-        <v>1.36059196864672</v>
+        <v>0.7977155277061632</v>
       </c>
       <c r="M32" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>1474.6</v>
+        <v>1885.4</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2351,25 +2252,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C33">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F33">
-        <v>-0.29</v>
+        <v>0.61</v>
       </c>
       <c r="G33">
-        <v>-1.29</v>
+        <v>-0.98</v>
       </c>
       <c r="H33">
-        <v>-0.86</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2378,19 +2279,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.03340392550706431</v>
+        <v>0.05011584951917541</v>
       </c>
       <c r="L33">
-        <v>0.05476510067114094</v>
+        <v>0.1088168801808591</v>
       </c>
       <c r="M33" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O33">
-        <v>237.4</v>
+        <v>141.25</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2398,25 +2299,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.34</v>
+        <v>-0.21</v>
       </c>
       <c r="G34">
-        <v>-0.3</v>
+        <v>-1.82</v>
       </c>
       <c r="H34">
-        <v>-2.8</v>
+        <v>-0.42</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2425,19 +2326,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.1072338143961383</v>
+        <v>0.113219145281208</v>
       </c>
       <c r="L34">
-        <v>0.1571709233791748</v>
+        <v>0.3084892983036984</v>
       </c>
       <c r="M34" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="N34">
         <v>4</v>
       </c>
       <c r="O34">
-        <v>1152.6</v>
+        <v>256.7</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2445,25 +2346,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>-0.5</v>
+        <v>-1.12</v>
       </c>
       <c r="G35">
-        <v>-0.6</v>
+        <v>-1.03</v>
       </c>
       <c r="H35">
-        <v>-1.75</v>
+        <v>0.54</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2472,19 +2373,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.4876060511307372</v>
+        <v>0.008131304301865955</v>
       </c>
       <c r="L35">
-        <v>0.7797867562667377</v>
+        <v>0.03396162336559688</v>
       </c>
       <c r="M35" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>615.8</v>
+        <v>235.6</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2492,25 +2393,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C36">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="G36">
-        <v>0.79</v>
+        <v>-2.97</v>
       </c>
       <c r="H36">
-        <v>-1.18</v>
+        <v>-2.95</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2519,19 +2420,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.07714427596401495</v>
       </c>
       <c r="L36">
-        <v>0.002961562696912413</v>
+        <v>0.2470734007730291</v>
       </c>
       <c r="M36" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>281.9</v>
+        <v>536.15</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2539,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C37">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>20</v>
       </c>
       <c r="E37">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="G37">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="H37">
-        <v>-1.12</v>
+        <v>0.31</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2569,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.6999290612437929</v>
+        <v>0.5391120507399577</v>
       </c>
       <c r="M37" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>198.34</v>
+        <v>261.35</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2586,25 +2487,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C38">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F38">
-        <v>-0.12</v>
+        <v>0.29</v>
       </c>
       <c r="G38">
-        <v>-0.33</v>
+        <v>-0.82</v>
       </c>
       <c r="H38">
-        <v>-0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2613,19 +2514,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.7575757575757398</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0.9035621198957429</v>
+        <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O38">
-        <v>422.15</v>
+        <v>31550</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2633,25 +2534,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C39">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F39">
-        <v>-0.62</v>
+        <v>0.19</v>
       </c>
       <c r="G39">
-        <v>-0.62</v>
+        <v>-0.53</v>
       </c>
       <c r="H39">
-        <v>-1.29</v>
+        <v>0.67</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2660,19 +2561,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.6724437146846811</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.92152466367713</v>
       </c>
       <c r="M39" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O39">
-        <v>400.6</v>
+        <v>603.7</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2680,25 +2581,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C40">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D40">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F40">
-        <v>-0.44</v>
+        <v>0.29</v>
       </c>
       <c r="G40">
-        <v>-1.3</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H40">
-        <v>-0.35</v>
+        <v>-0.24</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2707,19 +2608,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.340549925064214</v>
+        <v>0.05342891037128881</v>
       </c>
       <c r="L40">
-        <v>0.7902076231794236</v>
+        <v>0.1655498620417816</v>
       </c>
       <c r="M40" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>563</v>
+        <v>697.2</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2727,25 +2628,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C41">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F41">
-        <v>-0.2</v>
+        <v>1.02</v>
       </c>
       <c r="G41">
-        <v>-0.18</v>
+        <v>-1.7</v>
       </c>
       <c r="H41">
-        <v>-0.98</v>
+        <v>0.31</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2754,19 +2655,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.2514974476222731</v>
+        <v>0.4119313853935583</v>
       </c>
       <c r="L41">
-        <v>0.3761928402007833</v>
+        <v>0.6681657565049791</v>
       </c>
       <c r="M41" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>761.4</v>
+        <v>2238.8</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2774,25 +2675,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C42">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>-0.18</v>
+        <v>0.06</v>
       </c>
       <c r="G42">
-        <v>0.04</v>
+        <v>-1.26</v>
       </c>
       <c r="H42">
-        <v>-1.71</v>
+        <v>0.18</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2804,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.2708333333333333</v>
+        <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>102.71</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2821,25 +2722,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <v>20</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>-0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G43">
-        <v>-0.11</v>
+        <v>0.15</v>
       </c>
       <c r="H43">
-        <v>-1.58</v>
+        <v>-0.46</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2848,19 +2749,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>0.002910048858186053</v>
       </c>
       <c r="L43">
-        <v>0.01098398169336384</v>
+        <v>0.1007156109196926</v>
       </c>
       <c r="M43" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>617</v>
+        <v>3182.2</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2868,25 +2769,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C44">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>-0.27</v>
+        <v>0.91</v>
       </c>
       <c r="G44">
-        <v>-0.62</v>
+        <v>0.59</v>
       </c>
       <c r="H44">
-        <v>-1.61</v>
+        <v>-0.23</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2895,19 +2796,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.0004238620187840083</v>
       </c>
       <c r="L44">
-        <v>0.07962689113866454</v>
+        <v>0.005009601736661935</v>
       </c>
       <c r="M44" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>1647.5</v>
+        <v>349.15</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2915,25 +2816,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C45">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E45">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>0.14</v>
+        <v>0.52</v>
       </c>
       <c r="G45">
-        <v>-0.01</v>
+        <v>-1.03</v>
       </c>
       <c r="H45">
-        <v>-1.18</v>
+        <v>-0.95</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2942,19 +2843,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.01023297617178457</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.01924516198011333</v>
       </c>
       <c r="M45" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>145.56</v>
+        <v>2263.4</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2962,25 +2863,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C46">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G46">
-        <v>-0.13</v>
+        <v>-2.11</v>
       </c>
       <c r="H46">
-        <v>-1.37</v>
+        <v>-1.44</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2989,19 +2890,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.08130216750237844</v>
       </c>
       <c r="L46">
-        <v>0.2515152929566383</v>
+        <v>0.4574428196475441</v>
       </c>
       <c r="M46" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>375</v>
+        <v>4433.6</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3009,25 +2910,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>-0.09</v>
+        <v>0.5</v>
       </c>
       <c r="G47">
-        <v>0.16</v>
+        <v>-1.25</v>
       </c>
       <c r="H47">
-        <v>-1</v>
+        <v>0.06</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -3036,19 +2937,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.3211789155488548</v>
+        <v>0.3533152749971261</v>
       </c>
       <c r="L47">
-        <v>0.1536375960234975</v>
+        <v>0.5756987402356979</v>
       </c>
       <c r="M47" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>820.3</v>
+        <v>771.55</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3056,25 +2957,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D48">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>-1.84</v>
+        <v>0.06</v>
       </c>
       <c r="G48">
-        <v>-0.96</v>
+        <v>-0.17</v>
       </c>
       <c r="H48">
-        <v>-3.26</v>
+        <v>0.05</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -3086,16 +2987,16 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.3908258767869999</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>76.2</v>
+        <v>646.7</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3103,25 +3004,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F49">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="G49">
-        <v>0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="H49">
-        <v>-2.19</v>
+        <v>0.05</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3130,19 +3031,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.2603308098558667</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.7013868521389367</v>
       </c>
       <c r="M49" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>4891.5</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3150,25 +3051,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C50">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
       <c r="G50">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="H50">
-        <v>-1.16</v>
+        <v>0.44</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3177,19 +3078,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>4.3553835662062</v>
       </c>
       <c r="L50">
-        <v>0.4217479674796748</v>
+        <v>3.104927837732415</v>
       </c>
       <c r="M50" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O50">
-        <v>29.1</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3197,25 +3098,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F51">
-        <v>-0.12</v>
+        <v>0.73</v>
       </c>
       <c r="G51">
-        <v>1.18</v>
+        <v>-0.65</v>
       </c>
       <c r="H51">
-        <v>-2.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3224,19 +3125,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.01351337517019503</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.03725656223539373</v>
+        <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>564.7</v>
+        <v>420.75</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3244,25 +3145,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>20</v>
       </c>
       <c r="E52">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F52">
-        <v>-0.47</v>
+        <v>0.45</v>
       </c>
       <c r="G52">
-        <v>-0.82</v>
+        <v>0.35</v>
       </c>
       <c r="H52">
-        <v>-1.01</v>
+        <v>0.02</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3271,19 +3172,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.08843036109066167</v>
       </c>
       <c r="L52">
-        <v>0.0006754360784181286</v>
+        <v>0.3065134099616859</v>
       </c>
       <c r="M52" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O52">
-        <v>231.75</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3291,25 +3192,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="F53">
-        <v>-0.86</v>
+        <v>0.65</v>
       </c>
       <c r="G53">
-        <v>-0.95</v>
+        <v>-1.89</v>
       </c>
       <c r="H53">
-        <v>-2.07</v>
+        <v>-1.08</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3318,19 +3219,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0.1207092399121109</v>
+        <v>0.01075872483681201</v>
       </c>
       <c r="L53">
-        <v>0.4273533777486278</v>
+        <v>0.383569286561127</v>
       </c>
       <c r="M53" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
       <c r="O53">
-        <v>203.29</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3338,25 +3239,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>0.86</v>
+        <v>-0.3</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>-1.16</v>
       </c>
       <c r="H54">
-        <v>-1.79</v>
+        <v>-0.77</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3365,19 +3266,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.03058198853840551</v>
+        <v>0.04942244453311508</v>
       </c>
       <c r="L54">
-        <v>0.1028530542885252</v>
+        <v>0.2036993060502916</v>
       </c>
       <c r="M54" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>1575</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3385,25 +3286,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C55">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="G55">
-        <v>-0.32</v>
+        <v>-1.57</v>
       </c>
       <c r="H55">
-        <v>-1.26</v>
+        <v>-1</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3412,19 +3313,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.1535787055589499</v>
+        <v>0.04696309694735256</v>
       </c>
       <c r="L55">
-        <v>0.7700471197520907</v>
+        <v>0.1110626807881941</v>
       </c>
       <c r="M55" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>527.3</v>
+        <v>505.85</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3432,25 +3333,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C56">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D56">
         <v>20</v>
       </c>
       <c r="E56">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>-0.27</v>
+        <v>0.21</v>
       </c>
       <c r="G56">
-        <v>-0.27</v>
+        <v>-0.34</v>
       </c>
       <c r="H56">
-        <v>-1.92</v>
+        <v>-0.73</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3459,19 +3360,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.02555910543130824</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>0.03831417624521073</v>
       </c>
       <c r="M56" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O56">
-        <v>200.58</v>
+        <v>3023.6</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3479,25 +3380,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C57">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D57">
         <v>20</v>
       </c>
       <c r="E57">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F57">
-        <v>0.45</v>
+        <v>1.1</v>
       </c>
       <c r="G57">
-        <v>0.53</v>
+        <v>-0.1</v>
       </c>
       <c r="H57">
-        <v>-1.13</v>
+        <v>-0.31</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3506,19 +3407,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0.001030853443565967</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.002482313516197095</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="M57" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O57">
-        <v>1272.9</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3526,25 +3427,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <v>20</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>0.19</v>
+        <v>0.58</v>
       </c>
       <c r="G58">
-        <v>0.23</v>
+        <v>-0.83</v>
       </c>
       <c r="H58">
-        <v>-1.11</v>
+        <v>0.05</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3553,19 +3454,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.05750339429756989</v>
+        <v>0.07855217558726435</v>
       </c>
       <c r="L58">
-        <v>0.1652892561983471</v>
+        <v>0.7039337474120083</v>
       </c>
       <c r="M58" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O58">
-        <v>342.35</v>
+        <v>1043.6</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3573,25 +3474,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C59">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F59">
-        <v>-0.31</v>
+        <v>0.44</v>
       </c>
       <c r="G59">
-        <v>-0.1</v>
+        <v>-0.93</v>
       </c>
       <c r="H59">
-        <v>-1.8</v>
+        <v>-0.55</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3600,19 +3501,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1.071015749169217</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2.676161851380503</v>
       </c>
       <c r="M59" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="N59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>1064.9</v>
+        <v>520.5</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3620,25 +3521,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F60">
-        <v>-0.33</v>
+        <v>1.22</v>
       </c>
       <c r="G60">
-        <v>-0.48</v>
+        <v>0.95</v>
       </c>
       <c r="H60">
-        <v>-1.55</v>
+        <v>-0.2</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3647,19 +3548,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0.01015468586825454</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.02831790061382268</v>
+        <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O60">
-        <v>120.44</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3667,25 +3568,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F61">
-        <v>-0.01</v>
+        <v>1.5</v>
       </c>
       <c r="G61">
-        <v>-0.29</v>
+        <v>5.23</v>
       </c>
       <c r="H61">
-        <v>-1.29</v>
+        <v>3.19</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3694,19 +3595,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.5546311702717692</v>
+        <v>0.2125297067627207</v>
       </c>
       <c r="L61">
-        <v>0.5235602094240838</v>
+        <v>0.501999146496195</v>
       </c>
       <c r="M61" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="N61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>5139</v>
+        <v>264.7</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3714,26 +3615,26 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>20</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F62">
-        <v>0.35</v>
+        <v>1.38</v>
       </c>
       <c r="G62">
+        <v>0.03</v>
+      </c>
+      <c r="H62">
         <v>-0.41</v>
       </c>
-      <c r="H62">
-        <v>-1.54</v>
-      </c>
       <c r="I62">
         <v>50</v>
       </c>
@@ -3741,19 +3642,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0.04251351884193758</v>
+        <v>0.3066711639688767</v>
       </c>
       <c r="L62">
-        <v>0.1039456936784047</v>
+        <v>0.6803715264431708</v>
       </c>
       <c r="M62" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>1056.3</v>
+        <v>751.55</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3761,25 +3662,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D63">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>-1.48</v>
+        <v>0.82</v>
       </c>
       <c r="G63">
-        <v>-1.3</v>
+        <v>0.88</v>
       </c>
       <c r="H63">
-        <v>-0.97</v>
+        <v>-0.83</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3788,19 +3689,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0.01459383146240027</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0.04203600475189619</v>
+        <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>1069</v>
+        <v>929</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3808,25 +3709,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C64">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D64">
         <v>20</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F64">
-        <v>0.38</v>
+        <v>0.93</v>
       </c>
       <c r="G64">
-        <v>-0.85</v>
+        <v>-0.66</v>
       </c>
       <c r="H64">
-        <v>-0.75</v>
+        <v>0.36</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3835,19 +3736,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.007005975685142414</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0.03703703703703703</v>
+        <v>0.0149852021129135</v>
       </c>
       <c r="M64" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>4501.6</v>
+        <v>61.58</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3855,25 +3756,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C65">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>-0.14</v>
+        <v>0.08</v>
       </c>
       <c r="G65">
-        <v>-0.67</v>
+        <v>0.29</v>
       </c>
       <c r="H65">
-        <v>-1.47</v>
+        <v>-0.01</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3882,19 +3783,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.002609306808184193</v>
+        <v>0.3296146044622012</v>
       </c>
       <c r="L65">
-        <v>0.01517506394331379</v>
+        <v>0.9767092411720512</v>
       </c>
       <c r="M65" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>384.85</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3902,25 +3803,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C66">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D66">
         <v>20</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G66">
-        <v>1.08</v>
+        <v>-0.42</v>
       </c>
       <c r="H66">
-        <v>-1.84</v>
+        <v>-0.23</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3929,19 +3830,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.1123869528387191</v>
       </c>
       <c r="L66">
-        <v>0.0340881421962503</v>
+        <v>0.3121843282505171</v>
       </c>
       <c r="M66" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>815.75</v>
+        <v>310.05</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3949,25 +3850,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C67">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D67">
         <v>20</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F67">
-        <v>-0.43</v>
+        <v>1.06</v>
       </c>
       <c r="G67">
-        <v>-0.35</v>
+        <v>0.3</v>
       </c>
       <c r="H67">
-        <v>-1.01</v>
+        <v>-0.39</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3976,19 +3877,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.2694411670063139</v>
+        <v>0.1713056301954048</v>
       </c>
       <c r="L67">
-        <v>0.4764433654502694</v>
+        <v>0.4107311112255015</v>
       </c>
       <c r="M67" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>373.2</v>
+        <v>1459.7</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3996,25 +3897,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C68">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>20</v>
       </c>
       <c r="F68">
-        <v>-0.19</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G68">
-        <v>0.27</v>
+        <v>-0.32</v>
       </c>
       <c r="H68">
-        <v>-2.1</v>
+        <v>-1.29</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -4023,19 +3924,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.1673823007847972</v>
+        <v>0.2278586686964265</v>
       </c>
       <c r="L68">
-        <v>0.6328553726323243</v>
+        <v>0.9670696123384743</v>
       </c>
       <c r="M68" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N68">
         <v>2</v>
       </c>
       <c r="O68">
-        <v>2698.4</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4043,25 +3944,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C69">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F69">
-        <v>0.08</v>
+        <v>0.63</v>
       </c>
       <c r="G69">
-        <v>0.35</v>
+        <v>-0.73</v>
       </c>
       <c r="H69">
-        <v>-1.65</v>
+        <v>-0.87</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4070,19 +3971,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.3565845295303872</v>
+        <v>0.9417161125541519</v>
       </c>
       <c r="L69">
-        <v>0.1472546408709955</v>
+        <v>0.9156333412170153</v>
       </c>
       <c r="M69" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O69">
-        <v>119.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4090,25 +3991,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F70">
-        <v>-0.08</v>
+        <v>0.76</v>
       </c>
       <c r="G70">
-        <v>-0.32</v>
+        <v>0.25</v>
       </c>
       <c r="H70">
-        <v>-1.33</v>
+        <v>-0.74</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4117,19 +4018,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>4.065198408848632</v>
+        <v>0.0158941120398279</v>
       </c>
       <c r="L70">
-        <v>1.631302316527156</v>
+        <v>0.550665599767222</v>
       </c>
       <c r="M70" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="N70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>62.78</v>
+        <v>199.95</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4137,25 +4038,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D71">
         <v>20</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F71">
-        <v>0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="G71">
-        <v>0.89</v>
+        <v>-0.02</v>
       </c>
       <c r="H71">
-        <v>-1.07</v>
+        <v>-0.24</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4164,19 +4065,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.01689280410424901</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>0.1471371822715129</v>
       </c>
       <c r="M71" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>507.9</v>
+        <v>1401.7</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4184,25 +4085,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C72">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D72">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>20</v>
       </c>
       <c r="F72">
-        <v>-0.36</v>
+        <v>1.06</v>
       </c>
       <c r="G72">
-        <v>1.15</v>
+        <v>-0.93</v>
       </c>
       <c r="H72">
-        <v>-3.41</v>
+        <v>-1.48</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4211,19 +4112,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>0.02384690833794674</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>0.2443159731699046</v>
       </c>
       <c r="M72" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72">
-        <v>396.05</v>
+        <v>797.5</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4231,25 +4132,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C73">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>0.13</v>
+        <v>0.49</v>
       </c>
       <c r="G73">
-        <v>-0.2</v>
+        <v>-0.36</v>
       </c>
       <c r="H73">
-        <v>-0.41</v>
+        <v>-0.71</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4258,19 +4159,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>0.01558734150686493</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>0.05176022835394862</v>
       </c>
       <c r="M73" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>1494</v>
+        <v>863.9</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4278,25 +4179,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D74">
         <v>20</v>
       </c>
       <c r="E74">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>0.06</v>
+        <v>1.17</v>
       </c>
       <c r="G74">
-        <v>-0.26</v>
+        <v>0.21</v>
       </c>
       <c r="H74">
-        <v>-1.2</v>
+        <v>-0.86</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4305,19 +4206,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.01453023630994929</v>
       </c>
       <c r="L74">
-        <v>0.2597842661094482</v>
+        <v>0.05212774736610459</v>
       </c>
       <c r="M74" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>15.57</v>
+        <v>426.8</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4325,25 +4226,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C75">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D75">
         <v>20</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F75">
-        <v>0.16</v>
+        <v>0.8</v>
       </c>
       <c r="G75">
-        <v>0.73</v>
+        <v>-0.28</v>
       </c>
       <c r="H75">
-        <v>-1.41</v>
+        <v>-0.58</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4355,16 +4256,16 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.08361204013377926</v>
       </c>
       <c r="M75" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>1482.9</v>
+        <v>147.42</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4372,22 +4273,22 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C76">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>-0.36</v>
+        <v>0.16</v>
       </c>
       <c r="G76">
-        <v>-0.21</v>
+        <v>1.01</v>
       </c>
       <c r="H76">
         <v>-0.93</v>
@@ -4399,19 +4300,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>1.267800136974793</v>
+        <v>0.0001395907200088924</v>
       </c>
       <c r="L76">
-        <v>1.223507996359381</v>
+        <v>0.0008483922965979468</v>
       </c>
       <c r="M76" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>1056.4</v>
+        <v>250.85</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4419,25 +4320,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C77">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>-0.83</v>
+        <v>0.86</v>
       </c>
       <c r="G77">
-        <v>-0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="H77">
-        <v>-1.33</v>
+        <v>-0.22</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4446,19 +4347,19 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0.02157864849517391</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0.05284015852047556</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>3160.1</v>
+        <v>200.84</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4466,25 +4367,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C78">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D78">
         <v>20</v>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>0.03</v>
+        <v>0.9</v>
       </c>
       <c r="G78">
-        <v>1.05</v>
+        <v>1.66</v>
       </c>
       <c r="H78">
-        <v>-1.33</v>
+        <v>-0.12</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4493,19 +4394,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.02034846750603774</v>
+        <v>0.1309210085414235</v>
       </c>
       <c r="L78">
-        <v>0.03515968356284793</v>
+        <v>0.1657180385288967</v>
       </c>
       <c r="M78" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>879.3</v>
+        <v>42.77</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4513,25 +4414,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C79">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D79">
         <v>20</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>-0.1</v>
+        <v>0.38</v>
       </c>
       <c r="G79">
-        <v>-0.55</v>
+        <v>-0.02</v>
       </c>
       <c r="H79">
-        <v>-1.16</v>
+        <v>0.32</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4540,19 +4441,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.4513789322763261</v>
+        <v>0.1228450821557568</v>
       </c>
       <c r="L79">
-        <v>0.6871581542254064</v>
+        <v>0.1871229841191678</v>
       </c>
       <c r="M79" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>1936.8</v>
+        <v>515.3</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4560,25 +4461,25 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C80">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D80">
         <v>20</v>
       </c>
       <c r="E80">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F80">
-        <v>-0.22</v>
+        <v>0.79</v>
       </c>
       <c r="G80">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="H80">
-        <v>-1.53</v>
+        <v>-0.5</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4590,16 +4491,16 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.5486284289276808</v>
+        <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>747.6</v>
+        <v>1305.3</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4607,25 +4508,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C81">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D81">
         <v>20</v>
       </c>
       <c r="E81">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>0.14</v>
+        <v>1.1</v>
       </c>
       <c r="G81">
-        <v>1.36</v>
+        <v>-0.11</v>
       </c>
       <c r="H81">
-        <v>-0.05</v>
+        <v>0.27</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4634,19 +4535,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>0.2933618182769744</v>
       </c>
       <c r="L81">
-        <v>0.3865909705325764</v>
+        <v>0.4414718150507538</v>
       </c>
       <c r="M81" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>1211.4</v>
+        <v>95.09</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4654,25 +4555,25 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C82">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D82">
         <v>20</v>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F82">
-        <v>-0.34</v>
+        <v>1.45</v>
       </c>
       <c r="G82">
-        <v>0.03</v>
+        <v>1.4</v>
       </c>
       <c r="H82">
-        <v>-0.22</v>
+        <v>-0.17</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4681,19 +4582,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>0.0200411511637196</v>
       </c>
       <c r="L82">
-        <v>0.0258732212160414</v>
+        <v>0.1267812769410213</v>
       </c>
       <c r="M82" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>3065</v>
+        <v>1133.2</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4701,25 +4602,25 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C83">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F83">
-        <v>-0.9</v>
+        <v>1.49</v>
       </c>
       <c r="G83">
-        <v>-0.05</v>
+        <v>-0.16</v>
       </c>
       <c r="H83">
-        <v>-1.54</v>
+        <v>-0.78</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4728,19 +4629,19 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0.1191066997518892</v>
+        <v>0.03989208142184743</v>
       </c>
       <c r="L83">
-        <v>0.3174603174603174</v>
+        <v>0.3986153362005664</v>
       </c>
       <c r="M83" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>460.4</v>
+        <v>371.3</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4748,25 +4649,25 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C84">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>10</v>
       </c>
       <c r="F84">
-        <v>-0.45</v>
+        <v>0.99</v>
       </c>
       <c r="G84">
-        <v>0.18</v>
+        <v>-0.03</v>
       </c>
       <c r="H84">
-        <v>-2.33</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4775,19 +4676,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>0.01035451520785949</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>0.2159443309885788</v>
       </c>
       <c r="M84" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>86.83</v>
+        <v>79.59</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4795,25 +4696,25 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C85">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D85">
         <v>20</v>
       </c>
       <c r="E85">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>-0.39</v>
+        <v>0.87</v>
       </c>
       <c r="G85">
-        <v>-0.38</v>
+        <v>-0.27</v>
       </c>
       <c r="H85">
-        <v>-1.52</v>
+        <v>0.25</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4822,19 +4723,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>0.09578107183580388</v>
       </c>
       <c r="L85">
-        <v>0.01476014760147601</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="M85" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>1480.3</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4842,25 +4743,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C86">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F86">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="G86">
-        <v>1.41</v>
+        <v>0.1</v>
       </c>
       <c r="H86">
-        <v>-0.96</v>
+        <v>-0.36</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4869,19 +4770,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>1.461936174006055</v>
+        <v>0.1545846304844734</v>
       </c>
       <c r="L86">
-        <v>1.383577052868391</v>
+        <v>0.19638786603542</v>
       </c>
       <c r="M86" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="N86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>532.4</v>
+        <v>522.05</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4889,25 +4790,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C87">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
       <c r="E87">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>-0.47</v>
+        <v>0.59</v>
       </c>
       <c r="G87">
-        <v>-0.85</v>
+        <v>-0.37</v>
       </c>
       <c r="H87">
-        <v>-1.84</v>
+        <v>-0.59</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4919,16 +4820,16 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.8503100088573959</v>
+        <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>2393.4</v>
+        <v>571.7</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4936,25 +4837,25 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C88">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D88">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>0.07000000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="G88">
-        <v>0.77</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>-0.43</v>
+        <v>0.15</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4963,19 +4864,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.1158549496030933</v>
+        <v>0.05933023898907978</v>
       </c>
       <c r="L88">
-        <v>0.2199252254233561</v>
+        <v>0.162546467087874</v>
       </c>
       <c r="M88" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>184.4</v>
+        <v>387.8</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4983,25 +4884,25 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C89">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D89">
         <v>20</v>
       </c>
       <c r="E89">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>-0.03</v>
+        <v>0.3</v>
       </c>
       <c r="G89">
-        <v>0.15</v>
+        <v>-0.21</v>
       </c>
       <c r="H89">
-        <v>-1.17</v>
+        <v>-0.4</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -5010,19 +4911,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0.3260297984224458</v>
+        <v>0.05559371338532978</v>
       </c>
       <c r="L89">
-        <v>0.4070912672357189</v>
+        <v>0.1277955271565495</v>
       </c>
       <c r="M89" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>146.68</v>
+        <v>1386.4</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5030,25 +4931,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C90">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D90">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>10</v>
       </c>
       <c r="F90">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="G90">
-        <v>-1.27</v>
+        <v>1.15</v>
       </c>
       <c r="H90">
-        <v>1.83</v>
+        <v>0.78</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -5057,19 +4958,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>2.791676920132349</v>
       </c>
       <c r="L90">
-        <v>0.1873251429266513</v>
+        <v>3.658187029738445</v>
       </c>
       <c r="M90" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>377</v>
+        <v>1086.6</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5077,25 +4978,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>0.16</v>
+        <v>0.58</v>
       </c>
       <c r="G91">
-        <v>0.29</v>
+        <v>-0.15</v>
       </c>
       <c r="H91">
-        <v>-1.38</v>
+        <v>-0.11</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5104,19 +5005,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0.007930687410540604</v>
+        <v>4.411469821535933</v>
       </c>
       <c r="L91">
-        <v>0.01516898716053587</v>
+        <v>5.269461077844311</v>
       </c>
       <c r="M91" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>44.53</v>
+        <v>1853.1</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5124,25 +5025,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C92">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92">
-        <v>-2.09</v>
+        <v>-0.47</v>
       </c>
       <c r="G92">
-        <v>6.71</v>
+        <v>-0.53</v>
       </c>
       <c r="H92">
-        <v>7.33</v>
+        <v>-1.6</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5151,1523 +5052,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0.0004884467629022469</v>
+        <v>0.9200183274488589</v>
       </c>
       <c r="L92">
-        <v>0.003418857686385742</v>
+        <v>0.6647480710182532</v>
       </c>
       <c r="M92" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N92">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>56.11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" t="s">
-        <v>144</v>
-      </c>
-      <c r="C93">
-        <v>50</v>
-      </c>
-      <c r="D93">
-        <v>20</v>
-      </c>
-      <c r="E93">
-        <v>30</v>
-      </c>
-      <c r="F93">
-        <v>-0.4</v>
-      </c>
-      <c r="G93">
-        <v>0.44</v>
-      </c>
-      <c r="H93">
-        <v>-0.43</v>
-      </c>
-      <c r="I93">
-        <v>50</v>
-      </c>
-      <c r="J93">
-        <v>0.5</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" t="s">
-        <v>154</v>
-      </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93">
-        <v>500.25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94">
-        <v>50</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>50</v>
-      </c>
-      <c r="F94">
-        <v>-0.03</v>
-      </c>
-      <c r="G94">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H94">
-        <v>-0.14</v>
-      </c>
-      <c r="I94">
-        <v>50</v>
-      </c>
-      <c r="J94">
-        <v>0.5</v>
-      </c>
-      <c r="K94">
-        <v>1.17459304181294</v>
-      </c>
-      <c r="L94">
-        <v>1.113801452784504</v>
-      </c>
-      <c r="M94" t="s">
-        <v>153</v>
-      </c>
-      <c r="N94">
-        <v>5</v>
-      </c>
-      <c r="O94">
-        <v>200.48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" t="s">
-        <v>108</v>
-      </c>
-      <c r="B95" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95">
-        <v>50</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>50</v>
-      </c>
-      <c r="F95">
-        <v>0.1</v>
-      </c>
-      <c r="G95">
-        <v>0.53</v>
-      </c>
-      <c r="H95">
-        <v>0.03</v>
-      </c>
-      <c r="I95">
-        <v>50</v>
-      </c>
-      <c r="J95">
-        <v>0.5</v>
-      </c>
-      <c r="K95">
-        <v>2.935292021816129</v>
-      </c>
-      <c r="L95">
-        <v>1.266736055258551</v>
-      </c>
-      <c r="M95" t="s">
-        <v>153</v>
-      </c>
-      <c r="N95">
-        <v>5</v>
-      </c>
-      <c r="O95">
-        <v>38.27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B96" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96">
-        <v>50</v>
-      </c>
-      <c r="D96">
-        <v>40</v>
-      </c>
-      <c r="E96">
-        <v>10</v>
-      </c>
-      <c r="F96">
-        <v>-0.5</v>
-      </c>
-      <c r="G96">
-        <v>-0.91</v>
-      </c>
-      <c r="H96">
-        <v>-1.97</v>
-      </c>
-      <c r="I96">
-        <v>50</v>
-      </c>
-      <c r="J96">
-        <v>0.5</v>
-      </c>
-      <c r="K96">
-        <v>0.0008169934640522876</v>
-      </c>
-      <c r="L96">
-        <v>0.0131250820317627</v>
-      </c>
-      <c r="M96" t="s">
-        <v>150</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>14231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97">
-        <v>50</v>
-      </c>
-      <c r="D97">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>30</v>
-      </c>
-      <c r="F97">
-        <v>0.15</v>
-      </c>
-      <c r="G97">
-        <v>-0.25</v>
-      </c>
-      <c r="H97">
-        <v>-0.72</v>
-      </c>
-      <c r="I97">
-        <v>50</v>
-      </c>
-      <c r="J97">
-        <v>0.5</v>
-      </c>
-      <c r="K97">
-        <v>0.006344269040510812</v>
-      </c>
-      <c r="L97">
-        <v>0.02168928549296647</v>
-      </c>
-      <c r="M97" t="s">
-        <v>154</v>
-      </c>
-      <c r="N97">
-        <v>3</v>
-      </c>
-      <c r="O97">
-        <v>455.05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98">
-        <v>50</v>
-      </c>
-      <c r="D98">
-        <v>20</v>
-      </c>
-      <c r="E98">
-        <v>30</v>
-      </c>
-      <c r="F98">
-        <v>-0.15</v>
-      </c>
-      <c r="G98">
-        <v>-0.22</v>
-      </c>
-      <c r="H98">
-        <v>-0.66</v>
-      </c>
-      <c r="I98">
-        <v>50</v>
-      </c>
-      <c r="J98">
-        <v>0.5</v>
-      </c>
-      <c r="K98">
-        <v>0.05661907114550657</v>
-      </c>
-      <c r="L98">
-        <v>0.2134330634819305</v>
-      </c>
-      <c r="M98" t="s">
-        <v>154</v>
-      </c>
-      <c r="N98">
-        <v>3</v>
-      </c>
-      <c r="O98">
-        <v>53.76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" t="s">
-        <v>142</v>
-      </c>
-      <c r="C99">
-        <v>40</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>40</v>
-      </c>
-      <c r="F99">
-        <v>0.05</v>
-      </c>
-      <c r="G99">
-        <v>0.19</v>
-      </c>
-      <c r="H99">
-        <v>-0.76</v>
-      </c>
-      <c r="I99">
-        <v>50</v>
-      </c>
-      <c r="J99">
-        <v>0.5</v>
-      </c>
-      <c r="K99">
-        <v>1.202065594360021</v>
-      </c>
-      <c r="L99">
-        <v>1.103023609925874</v>
-      </c>
-      <c r="M99" t="s">
-        <v>153</v>
-      </c>
-      <c r="N99">
-        <v>4</v>
-      </c>
-      <c r="O99">
-        <v>139.58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100">
-        <v>40</v>
-      </c>
-      <c r="D100">
-        <v>20</v>
-      </c>
-      <c r="E100">
-        <v>20</v>
-      </c>
-      <c r="F100">
-        <v>-0.4</v>
-      </c>
-      <c r="G100">
-        <v>-0.87</v>
-      </c>
-      <c r="H100">
-        <v>-1.24</v>
-      </c>
-      <c r="I100">
-        <v>50</v>
-      </c>
-      <c r="J100">
-        <v>0.5</v>
-      </c>
-      <c r="K100">
-        <v>0.3459001698385629</v>
-      </c>
-      <c r="L100">
-        <v>0.3334881383320503</v>
-      </c>
-      <c r="M100" t="s">
-        <v>154</v>
-      </c>
-      <c r="N100">
-        <v>2</v>
-      </c>
-      <c r="O100">
-        <v>885.65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" t="s">
-        <v>147</v>
-      </c>
-      <c r="C101">
-        <v>40</v>
-      </c>
-      <c r="D101">
-        <v>20</v>
-      </c>
-      <c r="E101">
-        <v>20</v>
-      </c>
-      <c r="F101">
-        <v>-0.17</v>
-      </c>
-      <c r="G101">
-        <v>-0.15</v>
-      </c>
-      <c r="H101">
-        <v>-1.45</v>
-      </c>
-      <c r="I101">
-        <v>50</v>
-      </c>
-      <c r="J101">
-        <v>0.5</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" t="s">
-        <v>154</v>
-      </c>
-      <c r="N101">
-        <v>2</v>
-      </c>
-      <c r="O101">
-        <v>10143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102">
-        <v>40</v>
-      </c>
-      <c r="D102">
-        <v>20</v>
-      </c>
-      <c r="E102">
-        <v>20</v>
-      </c>
-      <c r="F102">
-        <v>-0.05</v>
-      </c>
-      <c r="G102">
-        <v>0.4</v>
-      </c>
-      <c r="H102">
-        <v>-0.96</v>
-      </c>
-      <c r="I102">
-        <v>50</v>
-      </c>
-      <c r="J102">
-        <v>0.5</v>
-      </c>
-      <c r="K102">
-        <v>0.07540056550425418</v>
-      </c>
-      <c r="L102">
-        <v>0.1475107559926245</v>
-      </c>
-      <c r="M102" t="s">
-        <v>154</v>
-      </c>
-      <c r="N102">
-        <v>2</v>
-      </c>
-      <c r="O102">
-        <v>464.25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103">
-        <v>40</v>
-      </c>
-      <c r="D103">
-        <v>20</v>
-      </c>
-      <c r="E103">
-        <v>20</v>
-      </c>
-      <c r="F103">
-        <v>-0.46</v>
-      </c>
-      <c r="G103">
-        <v>-0.73</v>
-      </c>
-      <c r="H103">
-        <v>-1.68</v>
-      </c>
-      <c r="I103">
-        <v>50</v>
-      </c>
-      <c r="J103">
-        <v>0.5</v>
-      </c>
-      <c r="K103">
-        <v>0.01040104494218003</v>
-      </c>
-      <c r="L103">
-        <v>0.1100432211101001</v>
-      </c>
-      <c r="M103" t="s">
-        <v>154</v>
-      </c>
-      <c r="N103">
-        <v>2</v>
-      </c>
-      <c r="O103">
-        <v>756.7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104">
-        <v>40</v>
-      </c>
-      <c r="D104">
-        <v>20</v>
-      </c>
-      <c r="E104">
-        <v>20</v>
-      </c>
-      <c r="F104">
-        <v>0.06</v>
-      </c>
-      <c r="G104">
-        <v>-0.53</v>
-      </c>
-      <c r="H104">
-        <v>-1.86</v>
-      </c>
-      <c r="I104">
-        <v>50</v>
-      </c>
-      <c r="J104">
-        <v>0.5</v>
-      </c>
-      <c r="K104">
-        <v>0.06505122784191317</v>
-      </c>
-      <c r="L104">
-        <v>0.07795751315533034</v>
-      </c>
-      <c r="M104" t="s">
-        <v>154</v>
-      </c>
-      <c r="N104">
-        <v>2</v>
-      </c>
-      <c r="O104">
-        <v>1293.2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105">
-        <v>40</v>
-      </c>
-      <c r="D105">
-        <v>20</v>
-      </c>
-      <c r="E105">
-        <v>20</v>
-      </c>
-      <c r="F105">
-        <v>-0.37</v>
-      </c>
-      <c r="G105">
-        <v>1.05</v>
-      </c>
-      <c r="H105">
-        <v>0.01</v>
-      </c>
-      <c r="I105">
-        <v>50</v>
-      </c>
-      <c r="J105">
-        <v>0.5</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0.001765341924664033</v>
-      </c>
-      <c r="M105" t="s">
-        <v>154</v>
-      </c>
-      <c r="N105">
-        <v>2</v>
-      </c>
-      <c r="O105">
-        <v>360.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106">
-        <v>40</v>
-      </c>
-      <c r="D106">
-        <v>20</v>
-      </c>
-      <c r="E106">
-        <v>20</v>
-      </c>
-      <c r="F106">
-        <v>-0.23</v>
-      </c>
-      <c r="G106">
-        <v>0.18</v>
-      </c>
-      <c r="H106">
-        <v>-1.32</v>
-      </c>
-      <c r="I106">
-        <v>50</v>
-      </c>
-      <c r="J106">
-        <v>0.5</v>
-      </c>
-      <c r="K106">
-        <v>0.01025595735800431</v>
-      </c>
-      <c r="L106">
-        <v>0.03693785206390248</v>
-      </c>
-      <c r="M106" t="s">
-        <v>154</v>
-      </c>
-      <c r="N106">
-        <v>2</v>
-      </c>
-      <c r="O106">
-        <v>4402</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" t="s">
-        <v>138</v>
-      </c>
-      <c r="C107">
-        <v>40</v>
-      </c>
-      <c r="D107">
-        <v>20</v>
-      </c>
-      <c r="E107">
-        <v>20</v>
-      </c>
-      <c r="F107">
-        <v>0.04</v>
-      </c>
-      <c r="G107">
-        <v>1.29</v>
-      </c>
-      <c r="H107">
-        <v>-0.36</v>
-      </c>
-      <c r="I107">
-        <v>50</v>
-      </c>
-      <c r="J107">
-        <v>0.5</v>
-      </c>
-      <c r="K107">
-        <v>0.2000266702226929</v>
-      </c>
-      <c r="L107">
-        <v>0.2890173410404624</v>
-      </c>
-      <c r="M107" t="s">
-        <v>154</v>
-      </c>
-      <c r="N107">
-        <v>2</v>
-      </c>
-      <c r="O107">
-        <v>837.95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108">
-        <v>40</v>
-      </c>
-      <c r="D108">
-        <v>20</v>
-      </c>
-      <c r="E108">
-        <v>20</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0.06</v>
-      </c>
-      <c r="H108">
-        <v>-1.68</v>
-      </c>
-      <c r="I108">
-        <v>50</v>
-      </c>
-      <c r="J108">
-        <v>0.5</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>0.009372949667260285</v>
-      </c>
-      <c r="M108" t="s">
-        <v>154</v>
-      </c>
-      <c r="N108">
-        <v>2</v>
-      </c>
-      <c r="O108">
-        <v>126.31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" t="s">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109">
-        <v>30</v>
-      </c>
-      <c r="D109">
-        <v>20</v>
-      </c>
-      <c r="E109">
-        <v>10</v>
-      </c>
-      <c r="F109">
-        <v>-0.3</v>
-      </c>
-      <c r="G109">
-        <v>0.15</v>
-      </c>
-      <c r="H109">
-        <v>-1.18</v>
-      </c>
-      <c r="I109">
-        <v>50</v>
-      </c>
-      <c r="J109">
-        <v>0.5</v>
-      </c>
-      <c r="K109">
-        <v>0.2459048033106985</v>
-      </c>
-      <c r="L109">
-        <v>0.4093171734660751</v>
-      </c>
-      <c r="M109" t="s">
-        <v>154</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109">
-        <v>188.17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" t="s">
-        <v>123</v>
-      </c>
-      <c r="B110" t="s">
-        <v>139</v>
-      </c>
-      <c r="C110">
-        <v>30</v>
-      </c>
-      <c r="D110">
-        <v>20</v>
-      </c>
-      <c r="E110">
-        <v>10</v>
-      </c>
-      <c r="F110">
-        <v>-0.44</v>
-      </c>
-      <c r="G110">
-        <v>-0.1</v>
-      </c>
-      <c r="H110">
-        <v>0.2</v>
-      </c>
-      <c r="I110">
-        <v>50</v>
-      </c>
-      <c r="J110">
-        <v>0.5</v>
-      </c>
-      <c r="K110">
-        <v>0.3559505316729589</v>
-      </c>
-      <c r="L110">
-        <v>0.9973548154382589</v>
-      </c>
-      <c r="M110" t="s">
-        <v>154</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110">
-        <v>719.25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111">
-        <v>30</v>
-      </c>
-      <c r="D111">
-        <v>20</v>
-      </c>
-      <c r="E111">
-        <v>10</v>
-      </c>
-      <c r="F111">
-        <v>-0.41</v>
-      </c>
-      <c r="G111">
-        <v>1.22</v>
-      </c>
-      <c r="H111">
-        <v>-1.14</v>
-      </c>
-      <c r="I111">
-        <v>50</v>
-      </c>
-      <c r="J111">
-        <v>0.5</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111" t="s">
-        <v>154</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
-        <v>462.1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" t="s">
-        <v>125</v>
-      </c>
-      <c r="B112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C112">
-        <v>30</v>
-      </c>
-      <c r="D112">
-        <v>20</v>
-      </c>
-      <c r="E112">
-        <v>10</v>
-      </c>
-      <c r="F112">
-        <v>-0.23</v>
-      </c>
-      <c r="G112">
-        <v>0.71</v>
-      </c>
-      <c r="H112">
-        <v>-0.79</v>
-      </c>
-      <c r="I112">
-        <v>50</v>
-      </c>
-      <c r="J112">
-        <v>0.5</v>
-      </c>
-      <c r="K112">
-        <v>0.03737979682268293</v>
-      </c>
-      <c r="L112">
-        <v>0.2194301893470182</v>
-      </c>
-      <c r="M112" t="s">
-        <v>154</v>
-      </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="O112">
-        <v>383.35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" t="s">
-        <v>126</v>
-      </c>
-      <c r="B113" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113">
-        <v>30</v>
-      </c>
-      <c r="D113">
-        <v>20</v>
-      </c>
-      <c r="E113">
-        <v>10</v>
-      </c>
-      <c r="F113">
-        <v>0.5</v>
-      </c>
-      <c r="G113">
-        <v>3.24</v>
-      </c>
-      <c r="H113">
-        <v>2.68</v>
-      </c>
-      <c r="I113">
-        <v>50</v>
-      </c>
-      <c r="J113">
-        <v>0.5</v>
-      </c>
-      <c r="K113">
-        <v>0.002605260515497463</v>
-      </c>
-      <c r="L113">
-        <v>0.01613526732440291</v>
-      </c>
-      <c r="M113" t="s">
-        <v>154</v>
-      </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="O113">
-        <v>471.85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" t="s">
-        <v>138</v>
-      </c>
-      <c r="C114">
-        <v>30</v>
-      </c>
-      <c r="D114">
-        <v>20</v>
-      </c>
-      <c r="E114">
-        <v>10</v>
-      </c>
-      <c r="F114">
-        <v>-0.05</v>
-      </c>
-      <c r="G114">
-        <v>0.77</v>
-      </c>
-      <c r="H114">
-        <v>-0.37</v>
-      </c>
-      <c r="I114">
-        <v>50</v>
-      </c>
-      <c r="J114">
-        <v>0.5</v>
-      </c>
-      <c r="K114">
-        <v>0.3968162049257996</v>
-      </c>
-      <c r="L114">
-        <v>0.5803195962994113</v>
-      </c>
-      <c r="M114" t="s">
-        <v>154</v>
-      </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <v>2895.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" t="s">
-        <v>128</v>
-      </c>
-      <c r="B115" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115">
-        <v>30</v>
-      </c>
-      <c r="D115">
-        <v>20</v>
-      </c>
-      <c r="E115">
-        <v>10</v>
-      </c>
-      <c r="F115">
-        <v>0.6</v>
-      </c>
-      <c r="G115">
-        <v>1.12</v>
-      </c>
-      <c r="H115">
-        <v>-0.48</v>
-      </c>
-      <c r="I115">
-        <v>50</v>
-      </c>
-      <c r="J115">
-        <v>0.5</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>0.152406353439859</v>
-      </c>
-      <c r="M115" t="s">
-        <v>154</v>
-      </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-      <c r="O115">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116">
-        <v>30</v>
-      </c>
-      <c r="D116">
-        <v>20</v>
-      </c>
-      <c r="E116">
-        <v>10</v>
-      </c>
-      <c r="F116">
-        <v>-0.27</v>
-      </c>
-      <c r="G116">
-        <v>0.4</v>
-      </c>
-      <c r="H116">
-        <v>-1.19</v>
-      </c>
-      <c r="I116">
-        <v>50</v>
-      </c>
-      <c r="J116">
-        <v>0.5</v>
-      </c>
-      <c r="K116">
-        <v>0.08751574620435294</v>
-      </c>
-      <c r="L116">
-        <v>0.2340425531914894</v>
-      </c>
-      <c r="M116" t="s">
-        <v>154</v>
-      </c>
-      <c r="N116">
-        <v>1</v>
-      </c>
-      <c r="O116">
-        <v>1200.8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" t="s">
-        <v>130</v>
-      </c>
-      <c r="B117" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117">
-        <v>30</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>30</v>
-      </c>
-      <c r="F117">
-        <v>2.34</v>
-      </c>
-      <c r="G117">
-        <v>5.14</v>
-      </c>
-      <c r="H117">
-        <v>-1.01</v>
-      </c>
-      <c r="I117">
-        <v>50</v>
-      </c>
-      <c r="J117">
-        <v>0.5</v>
-      </c>
-      <c r="K117">
-        <v>1.299918672095336</v>
-      </c>
-      <c r="L117">
-        <v>1.070899666790078</v>
-      </c>
-      <c r="M117" t="s">
-        <v>153</v>
-      </c>
-      <c r="N117">
-        <v>3</v>
-      </c>
-      <c r="O117">
-        <v>6549.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" t="s">
-        <v>131</v>
-      </c>
-      <c r="B118" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118">
-        <v>30</v>
-      </c>
-      <c r="D118">
-        <v>20</v>
-      </c>
-      <c r="E118">
-        <v>10</v>
-      </c>
-      <c r="F118">
-        <v>-0.19</v>
-      </c>
-      <c r="G118">
-        <v>0.9</v>
-      </c>
-      <c r="H118">
-        <v>-0.46</v>
-      </c>
-      <c r="I118">
-        <v>50</v>
-      </c>
-      <c r="J118">
-        <v>0.5</v>
-      </c>
-      <c r="K118">
-        <v>0.4210105918277283</v>
-      </c>
-      <c r="L118">
-        <v>0.8065030283710551</v>
-      </c>
-      <c r="M118" t="s">
-        <v>154</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" t="s">
-        <v>132</v>
-      </c>
-      <c r="B119" t="s">
-        <v>147</v>
-      </c>
-      <c r="C119">
-        <v>30</v>
-      </c>
-      <c r="D119">
-        <v>20</v>
-      </c>
-      <c r="E119">
-        <v>10</v>
-      </c>
-      <c r="F119">
-        <v>-0.21</v>
-      </c>
-      <c r="G119">
-        <v>-0.46</v>
-      </c>
-      <c r="H119">
-        <v>-1.63</v>
-      </c>
-      <c r="I119">
-        <v>50</v>
-      </c>
-      <c r="J119">
-        <v>0.5</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119" t="s">
-        <v>154</v>
-      </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119">
-        <v>110.8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120">
-        <v>30</v>
-      </c>
-      <c r="D120">
-        <v>20</v>
-      </c>
-      <c r="E120">
-        <v>10</v>
-      </c>
-      <c r="F120">
-        <v>0.05</v>
-      </c>
-      <c r="G120">
-        <v>1.12</v>
-      </c>
-      <c r="H120">
-        <v>-0.46</v>
-      </c>
-      <c r="I120">
-        <v>50</v>
-      </c>
-      <c r="J120">
-        <v>0.5</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120" t="s">
-        <v>154</v>
-      </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-      <c r="O120">
-        <v>737.7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="s">
-        <v>134</v>
-      </c>
-      <c r="B121" t="s">
-        <v>138</v>
-      </c>
-      <c r="C121">
-        <v>30</v>
-      </c>
-      <c r="D121">
-        <v>20</v>
-      </c>
-      <c r="E121">
-        <v>10</v>
-      </c>
-      <c r="F121">
-        <v>-0.06</v>
-      </c>
-      <c r="G121">
-        <v>0.74</v>
-      </c>
-      <c r="H121">
-        <v>-0.67</v>
-      </c>
-      <c r="I121">
-        <v>50</v>
-      </c>
-      <c r="J121">
-        <v>0.5</v>
-      </c>
-      <c r="K121">
-        <v>0.03215113012977281</v>
-      </c>
-      <c r="L121">
-        <v>0.133431609182676</v>
-      </c>
-      <c r="M121" t="s">
-        <v>154</v>
-      </c>
-      <c r="N121">
-        <v>1</v>
-      </c>
-      <c r="O121">
-        <v>79.31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" t="s">
-        <v>135</v>
-      </c>
-      <c r="B122" t="s">
-        <v>138</v>
-      </c>
-      <c r="C122">
-        <v>30</v>
-      </c>
-      <c r="D122">
-        <v>20</v>
-      </c>
-      <c r="E122">
-        <v>10</v>
-      </c>
-      <c r="F122">
-        <v>-0.03</v>
-      </c>
-      <c r="G122">
-        <v>0.26</v>
-      </c>
-      <c r="H122">
-        <v>-1.18</v>
-      </c>
-      <c r="I122">
-        <v>50</v>
-      </c>
-      <c r="J122">
-        <v>0.5</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0.07194244604316546</v>
-      </c>
-      <c r="M122" t="s">
-        <v>154</v>
-      </c>
-      <c r="N122">
-        <v>1</v>
-      </c>
-      <c r="O122">
-        <v>362.95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" t="s">
-        <v>136</v>
-      </c>
-      <c r="B123" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123">
-        <v>20</v>
-      </c>
-      <c r="D123">
-        <v>10</v>
-      </c>
-      <c r="E123">
-        <v>10</v>
-      </c>
-      <c r="F123">
-        <v>-0.1</v>
-      </c>
-      <c r="G123">
-        <v>0.11</v>
-      </c>
-      <c r="H123">
-        <v>-0.62</v>
-      </c>
-      <c r="I123">
-        <v>50</v>
-      </c>
-      <c r="J123">
-        <v>0.5</v>
-      </c>
-      <c r="K123">
-        <v>17.98077031206128</v>
-      </c>
-      <c r="L123">
-        <v>15.79340385812072</v>
-      </c>
-      <c r="M123" t="s">
-        <v>153</v>
-      </c>
-      <c r="N123">
-        <v>1</v>
-      </c>
-      <c r="O123">
-        <v>590.4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" t="s">
-        <v>137</v>
-      </c>
-      <c r="B124" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124">
-        <v>10</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>10</v>
-      </c>
-      <c r="F124">
-        <v>0.16</v>
-      </c>
-      <c r="G124">
-        <v>1.17</v>
-      </c>
-      <c r="H124">
-        <v>-0.28</v>
-      </c>
-      <c r="I124">
-        <v>50</v>
-      </c>
-      <c r="J124">
-        <v>0.5</v>
-      </c>
-      <c r="K124">
-        <v>1.173668991325071</v>
-      </c>
-      <c r="L124">
-        <v>0.5347593582887701</v>
-      </c>
-      <c r="M124" t="s">
-        <v>153</v>
-      </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-      <c r="O124">
-        <v>587.75</v>
+        <v>957.4</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -64,276 +64,276 @@
     <t>AUBANK</t>
   </si>
   <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
     <t>TATATECH</t>
   </si>
   <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>CHOLAFIN</t>
-  </si>
-  <si>
-    <t>MGL</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
+    <t>SPARC</t>
+  </si>
+  <si>
+    <t>GUJGASLTD</t>
   </si>
   <si>
     <t>INOXWIND</t>
   </si>
   <si>
-    <t>GUJGASLTD</t>
-  </si>
-  <si>
-    <t>SPARC</t>
+    <t>JUBLFOOD</t>
   </si>
   <si>
     <t>ICICIPRULI</t>
   </si>
   <si>
+    <t>HAPPSTMNDS</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
     <t>IIFL</t>
   </si>
   <si>
-    <t>HAPPSTMNDS</t>
-  </si>
-  <si>
     <t>IRB</t>
   </si>
   <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
     <t>SHRIRAMFIN</t>
   </si>
   <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
     <t>HFCL</t>
   </si>
   <si>
+    <t>IREDA</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>POONAWALLA</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>TRITURBINE</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
     <t>AVG</t>
   </si>
   <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>POONAWALLA</t>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>CELLO</t>
+  </si>
+  <si>
+    <t>EQUITASBNK</t>
+  </si>
+  <si>
+    <t>RVNL</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>LATENTVIEW</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
   </si>
   <si>
     <t>IOC</t>
   </si>
   <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>CELLO</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>RVNL</t>
-  </si>
-  <si>
-    <t>EQUITASBNK</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>IREDA</t>
-  </si>
-  <si>
-    <t>M&amp;MFIN</t>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>ANGELONE</t>
+  </si>
+  <si>
+    <t>AZAD</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>SBICARD</t>
+  </si>
+  <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>RENUKA</t>
+  </si>
+  <si>
+    <t>CHENNPETRO</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>KALYANKJIL</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>SANOFI</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>MMTC</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>ALEMBICLTD</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
   </si>
   <si>
     <t>SMSPHARMA</t>
   </si>
   <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>RAYMOND</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>ANGELONE</t>
-  </si>
-  <si>
-    <t>AAVAS</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>ADANIENT</t>
-  </si>
-  <si>
-    <t>SKFINDIA</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>CHENNPETRO</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV</t>
-  </si>
-  <si>
-    <t>AZAD</t>
-  </si>
-  <si>
-    <t>LATENTVIEW</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>MAITHANALL</t>
-  </si>
-  <si>
-    <t>TRITURBINE</t>
-  </si>
-  <si>
-    <t>SANOFI</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>MMTC</t>
-  </si>
-  <si>
-    <t>ALEMBICLTD</t>
-  </si>
-  <si>
     <t>BPCL</t>
   </si>
   <si>
+    <t>DABUR</t>
+  </si>
+  <si>
     <t>HCLTECH</t>
   </si>
   <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>RENUKA</t>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>ANURAS</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>ASTRAZEN</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
   </si>
   <si>
     <t>JINDALSAW</t>
   </si>
   <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>SBICARD</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
+    <t>BSOFT</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>RKFORGE</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>PRSMJOHNSN</t>
+  </si>
+  <si>
+    <t>MVGJL</t>
   </si>
   <si>
     <t>VEDL</t>
   </si>
   <si>
-    <t>PRSMJOHNSN</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>MVGJL</t>
+    <t>GNFC</t>
+  </si>
+  <si>
+    <t>EPACK</t>
   </si>
   <si>
     <t>UJJIVANSFB</t>
   </si>
   <si>
-    <t>DABUR</t>
-  </si>
-  <si>
     <t>WHIRLPOOL</t>
   </si>
   <si>
     <t>EMBDL</t>
   </si>
   <si>
-    <t>ANURAS</t>
-  </si>
-  <si>
-    <t>BSOFT</t>
-  </si>
-  <si>
     <t>RBA</t>
   </si>
   <si>
-    <t>ASTRAZEN</t>
-  </si>
-  <si>
-    <t>GNFC</t>
-  </si>
-  <si>
-    <t>RKFORGE</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
@@ -343,10 +343,13 @@
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Utilities</t>
+    <t>Consumer Cyclical</t>
   </si>
   <si>
     <t>Technology</t>
@@ -355,13 +358,10 @@
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Consumer Cyclical</t>
+    <t>Communication Services</t>
   </si>
   <si>
     <t>Energy</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
   </si>
   <si>
     <t>Real Estate</t>
@@ -807,10 +807,10 @@
         <v>150</v>
       </c>
       <c r="F2">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G2">
-        <v>-1.08</v>
+        <v>-1.05</v>
       </c>
       <c r="H2">
         <v>-2.15</v>
@@ -822,10 +822,10 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.05083342525182209</v>
+        <v>0.03433498288401891</v>
       </c>
       <c r="L2">
-        <v>0.1280056026768345</v>
+        <v>0.2299213012231813</v>
       </c>
       <c r="M2" t="s">
         <v>118</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="O2">
-        <v>724.6</v>
+        <v>724.25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -845,22 +845,22 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>120</v>
       </c>
       <c r="F3">
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="G3">
-        <v>-0.46</v>
+        <v>-1.03</v>
       </c>
       <c r="H3">
-        <v>-2.5</v>
+        <v>-0.63</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -869,10 +869,10 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2701713899755208</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.6310599835661462</v>
       </c>
       <c r="M3" t="s">
         <v>119</v>
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="O3">
-        <v>663.95</v>
+        <v>1262.5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -901,10 +901,10 @@
         <v>140</v>
       </c>
       <c r="F4">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="G4">
-        <v>-0.11</v>
+        <v>-0.04</v>
       </c>
       <c r="H4">
         <v>0.57</v>
@@ -916,10 +916,10 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.109490262002456</v>
+        <v>0.007205656978457615</v>
       </c>
       <c r="L4">
-        <v>0.2147427786414085</v>
+        <v>0.06706706706706707</v>
       </c>
       <c r="M4" t="s">
         <v>120</v>
@@ -928,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="O4">
-        <v>1030.6</v>
+        <v>1030.9</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -936,25 +936,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="G5">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H5">
-        <v>-2.47</v>
+        <v>-1.95</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -963,19 +963,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.3300103844866635</v>
+        <v>0.02239833551706121</v>
       </c>
       <c r="L5">
-        <v>0.6721440247967221</v>
+        <v>0.05420934459727907</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>1444.9</v>
+        <v>275.55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -983,25 +983,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>1.06</v>
       </c>
       <c r="G6">
-        <v>-1.21</v>
+        <v>-0.45</v>
       </c>
       <c r="H6">
-        <v>-0.63</v>
+        <v>-2.47</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1010,19 +1010,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.5567574446424134</v>
+        <v>0.2968549387238579</v>
       </c>
       <c r="L6">
-        <v>0.5680895958448303</v>
+        <v>0.628769979152189</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O6">
-        <v>1259.3</v>
+        <v>1443.5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>150</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F7">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="G7">
-        <v>-0.52</v>
+        <v>-0.6</v>
       </c>
       <c r="H7">
-        <v>-1.95</v>
+        <v>-2.5</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1057,19 +1057,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>1.415049487431057</v>
+        <v>0.8554017882568019</v>
       </c>
       <c r="L7">
-        <v>3.33467210074554</v>
+        <v>1.147528459011383</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O7">
-        <v>274.95</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <v>140</v>
@@ -1089,13 +1089,13 @@
         <v>120</v>
       </c>
       <c r="F8">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="G8">
-        <v>0.89</v>
+        <v>0.2</v>
       </c>
       <c r="H8">
-        <v>-0.15</v>
+        <v>-0.32</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1104,10 +1104,10 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.06057475774882631</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.125200096014294</v>
+        <v>0.2660133006650333</v>
       </c>
       <c r="M8" t="s">
         <v>120</v>
@@ -1116,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="O8">
-        <v>139.3</v>
+        <v>140.8</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1124,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>140</v>
@@ -1136,10 +1136,10 @@
         <v>120</v>
       </c>
       <c r="F9">
-        <v>0.77</v>
+        <v>1.06</v>
       </c>
       <c r="G9">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="H9">
         <v>0.29</v>
@@ -1151,10 +1151,10 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.0049744104845279</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03271674845853781</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>120</v>
@@ -1163,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="O9">
-        <v>420.85</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1171,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>140</v>
@@ -1183,13 +1183,13 @@
         <v>120</v>
       </c>
       <c r="F10">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="G10">
-        <v>-0.06</v>
+        <v>0.8</v>
       </c>
       <c r="H10">
-        <v>-0.32</v>
+        <v>-0.15</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1198,10 +1198,10 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.05829532727873551</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.233640734230655</v>
       </c>
       <c r="M10" t="s">
         <v>120</v>
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="O10">
-        <v>140.55</v>
+        <v>139.43</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1218,25 +1218,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C11">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F11">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="G11">
-        <v>-1.3</v>
+        <v>-0.42</v>
       </c>
       <c r="H11">
-        <v>-1.1</v>
+        <v>-0.82</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1245,19 +1245,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.01484313867846261</v>
+        <v>0.005198759724461245</v>
       </c>
       <c r="L11">
-        <v>0.07393715341959335</v>
+        <v>0.06729151646238885</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O11">
-        <v>605.5</v>
+        <v>633.75</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1268,22 +1268,22 @@
         <v>106</v>
       </c>
       <c r="C12">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E12">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>2.21</v>
+        <v>0.66</v>
       </c>
       <c r="G12">
-        <v>0.07000000000000001</v>
+        <v>-1.7</v>
       </c>
       <c r="H12">
-        <v>-0.48</v>
+        <v>-1.1</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1292,19 +1292,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.06682945636808009</v>
+        <v>0.3146509341198203</v>
       </c>
       <c r="L12">
-        <v>0.3708199308126479</v>
+        <v>0.5516596540439458</v>
       </c>
       <c r="M12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>437.8</v>
+        <v>605.55</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1312,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>130</v>
@@ -1324,10 +1324,10 @@
         <v>110</v>
       </c>
       <c r="F13">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="G13">
-        <v>-0.3</v>
+        <v>-0.11</v>
       </c>
       <c r="H13">
         <v>0.59</v>
@@ -1339,10 +1339,10 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.0005038544868249103</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.006329781622534023</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>120</v>
@@ -1351,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="O13">
-        <v>566.15</v>
+        <v>566.95</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C14">
         <v>130</v>
@@ -1371,13 +1371,13 @@
         <v>110</v>
       </c>
       <c r="F14">
-        <v>0.7</v>
+        <v>0.92</v>
       </c>
       <c r="G14">
-        <v>1.4</v>
+        <v>0.29</v>
       </c>
       <c r="H14">
-        <v>0.42</v>
+        <v>-1.31</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1386,10 +1386,10 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.3929542967079354</v>
+        <v>0.03349460364719289</v>
       </c>
       <c r="L14">
-        <v>0.6658388763345126</v>
+        <v>0.03772398616787174</v>
       </c>
       <c r="M14" t="s">
         <v>120</v>
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="O14">
-        <v>43.4</v>
+        <v>379.65</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1406,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <v>130</v>
@@ -1418,13 +1418,13 @@
         <v>110</v>
       </c>
       <c r="F15">
-        <v>0.8100000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="G15">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="H15">
-        <v>-1.31</v>
+        <v>-0.48</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1433,10 +1433,10 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2164481790974647</v>
       </c>
       <c r="L15">
-        <v>0.04454144581533117</v>
+        <v>0.5479239184485331</v>
       </c>
       <c r="M15" t="s">
         <v>120</v>
@@ -1445,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="O15">
-        <v>379.55</v>
+        <v>438.55</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1453,25 +1453,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C16">
         <v>130</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F16">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G16">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="H16">
-        <v>-0.66</v>
+        <v>0.42</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1480,19 +1480,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.3700776706332395</v>
+        <v>0.2679039020132577</v>
       </c>
       <c r="L16">
-        <v>1.690289055813428</v>
+        <v>0.3949687524721145</v>
       </c>
       <c r="M16" t="s">
         <v>120</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16">
-        <v>584.6</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1500,25 +1500,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="G17">
-        <v>-0.57</v>
+        <v>1.56</v>
       </c>
       <c r="H17">
-        <v>-0.82</v>
+        <v>-0.66</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1527,19 +1527,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.009714032867179714</v>
+        <v>0.2356468247517436</v>
       </c>
       <c r="L17">
-        <v>0.0762717342123974</v>
+        <v>0.4573410559117512</v>
       </c>
       <c r="M17" t="s">
         <v>120</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17">
-        <v>633.4</v>
+        <v>584.95</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1547,7 +1547,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18">
         <v>115</v>
@@ -1559,10 +1559,10 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>-2.18</v>
+        <v>-2.42</v>
       </c>
       <c r="H18">
         <v>-2.94</v>
@@ -1574,10 +1574,10 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.5289511071671765</v>
+        <v>1.983348539170497</v>
       </c>
       <c r="L18">
-        <v>0.67852768611175</v>
+        <v>1.846633723193622</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="O18">
-        <v>69.39</v>
+        <v>69.34999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1600,19 +1600,19 @@
         <v>115</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F19">
-        <v>-0.91</v>
+        <v>0.35</v>
       </c>
       <c r="G19">
-        <v>-1.98</v>
+        <v>-1.24</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1624,16 +1624,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07123460823643463</v>
       </c>
       <c r="M19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>212.7</v>
+        <v>140.99</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1653,10 +1653,10 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.5600000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G20">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="H20">
         <v>-2.38</v>
@@ -1668,10 +1668,10 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.03783454823904283</v>
+        <v>0.1966981824298875</v>
       </c>
       <c r="L20">
-        <v>0.1078328097665582</v>
+        <v>0.3932104293404976</v>
       </c>
       <c r="M20" t="s">
         <v>118</v>
@@ -1688,7 +1688,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C21">
         <v>110</v>
@@ -1700,13 +1700,13 @@
         <v>90</v>
       </c>
       <c r="F21">
-        <v>0.85</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G21">
-        <v>0.98</v>
+        <v>-0.45</v>
       </c>
       <c r="H21">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1715,10 +1715,10 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.0168208578637526</v>
+        <v>0.4006731631614484</v>
       </c>
       <c r="L21">
-        <v>0.04357298474945534</v>
+        <v>0.7302916758504151</v>
       </c>
       <c r="M21" t="s">
         <v>120</v>
@@ -1727,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="O21">
-        <v>940.65</v>
+        <v>8671.5</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1735,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>110</v>
@@ -1747,13 +1747,13 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="G22">
-        <v>-0.51</v>
+        <v>1.03</v>
       </c>
       <c r="H22">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1762,10 +1762,10 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.02154866100288385</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.210366126577746</v>
+        <v>0</v>
       </c>
       <c r="M22" t="s">
         <v>120</v>
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="O22">
-        <v>8657</v>
+        <v>940.8</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1782,25 +1782,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C23">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>-0.03</v>
+        <v>0.38</v>
       </c>
       <c r="G23">
-        <v>-4.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H23">
-        <v>-5.1</v>
+        <v>0.3</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1809,19 +1809,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.1282916356307278</v>
+        <v>0.01935224612954743</v>
       </c>
       <c r="L23">
-        <v>0.1752873563218391</v>
+        <v>0.1565089105312109</v>
       </c>
       <c r="M23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O23">
-        <v>429.7</v>
+        <v>1885.7</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1829,25 +1829,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <v>0.13</v>
+        <v>0.49</v>
       </c>
       <c r="G24">
-        <v>-0.07000000000000001</v>
+        <v>-4.6</v>
       </c>
       <c r="H24">
-        <v>0.14</v>
+        <v>-5.1</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1856,19 +1856,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.115420092830654</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.294760888918751</v>
+        <v>0.0009785214540828807</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>138.51</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1876,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1888,10 +1888,10 @@
         <v>80</v>
       </c>
       <c r="F25">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="G25">
-        <v>-0.46</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="H25">
         <v>-1.08</v>
@@ -1903,10 +1903,10 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.04283861045473969</v>
+        <v>0.03751440046336296</v>
       </c>
       <c r="L25">
-        <v>0.3023116694440883</v>
+        <v>0.09650651017788374</v>
       </c>
       <c r="M25" t="s">
         <v>120</v>
@@ -1915,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="O25">
-        <v>919.45</v>
+        <v>918.95</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1926,22 +1926,22 @@
         <v>107</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="G26">
-        <v>-0.7</v>
+        <v>-1.03</v>
       </c>
       <c r="H26">
-        <v>-0.43</v>
+        <v>-0.55</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1950,19 +1950,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.1517177490539552</v>
+        <v>0.002556418354318414</v>
       </c>
       <c r="L26">
-        <v>0.3607347685146705</v>
+        <v>0.05455391415610097</v>
       </c>
       <c r="M26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>799.9</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1970,25 +1970,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>0.7</v>
+        <v>-0.02</v>
       </c>
       <c r="G27">
-        <v>0.01</v>
+        <v>-2.04</v>
       </c>
       <c r="H27">
-        <v>-0.17</v>
+        <v>-0.42</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -1997,19 +1997,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.06508755385439707</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.1420959147424512</v>
+        <v>0.002520733029164881</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>537.85</v>
+        <v>256.3</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2017,7 +2017,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>95</v>
@@ -2029,13 +2029,13 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>-0.13</v>
+        <v>1.27</v>
       </c>
       <c r="G28">
-        <v>-1.35</v>
+        <v>-2.26</v>
       </c>
       <c r="H28">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2044,10 +2044,10 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.080287984137887</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.16606405962755</v>
+        <v>0</v>
       </c>
       <c r="M28" t="s">
         <v>119</v>
@@ -2056,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="O28">
-        <v>351.15</v>
+        <v>212.87</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2064,7 +2064,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>95</v>
@@ -2076,13 +2076,13 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>0.9399999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G29">
-        <v>-1.17</v>
+        <v>-1.35</v>
       </c>
       <c r="H29">
-        <v>-1.3</v>
+        <v>0.06</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2091,10 +2091,10 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.1197213855082675</v>
+        <v>0.02354250537280011</v>
       </c>
       <c r="L29">
-        <v>0.2096250950960026</v>
+        <v>0.06577526197687286</v>
       </c>
       <c r="M29" t="s">
         <v>119</v>
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="O29">
-        <v>307.4</v>
+        <v>351.05</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2111,7 +2111,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30">
         <v>90</v>
@@ -2123,13 +2123,13 @@
         <v>70</v>
       </c>
       <c r="F30">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="G30">
-        <v>1.88</v>
+        <v>-0.31</v>
       </c>
       <c r="H30">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2138,10 +2138,10 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.008485315535499863</v>
       </c>
       <c r="L30">
-        <v>0.04553170561451938</v>
+        <v>0.01849269387012672</v>
       </c>
       <c r="M30" t="s">
         <v>120</v>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="O30">
-        <v>51.94</v>
+        <v>1063.6</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2170,13 +2170,13 @@
         <v>70</v>
       </c>
       <c r="F31">
-        <v>-0.1</v>
+        <v>0.64</v>
       </c>
       <c r="G31">
-        <v>-0.37</v>
+        <v>-0.61</v>
       </c>
       <c r="H31">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2185,10 +2185,10 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0.292226498582597</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0.4549695012558306</v>
+        <v>0.1851570799817878</v>
       </c>
       <c r="M31" t="s">
         <v>120</v>
@@ -2197,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="O31">
-        <v>1061.9</v>
+        <v>604.2</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2205,25 +2205,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C32">
         <v>90</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F32">
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="G32">
-        <v>-0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="H32">
-        <v>0.3</v>
+        <v>-0.17</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2232,19 +2232,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.9916763309965421</v>
+        <v>14.85636579976165</v>
       </c>
       <c r="L32">
-        <v>0.7977155277061632</v>
+        <v>11.25563425627817</v>
       </c>
       <c r="M32" t="s">
         <v>121</v>
       </c>
       <c r="N32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>1885.4</v>
+        <v>536.65</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2252,7 +2252,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -2264,13 +2264,13 @@
         <v>70</v>
       </c>
       <c r="F33">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="G33">
-        <v>-0.98</v>
+        <v>2.06</v>
       </c>
       <c r="H33">
-        <v>0.5600000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2279,10 +2279,10 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.05011584951917541</v>
+        <v>0.06488773278831876</v>
       </c>
       <c r="L33">
-        <v>0.1088168801808591</v>
+        <v>0.05966461651684803</v>
       </c>
       <c r="M33" t="s">
         <v>120</v>
@@ -2291,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="O33">
-        <v>141.25</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2305,19 +2305,19 @@
         <v>85</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>-0.21</v>
+        <v>0.89</v>
       </c>
       <c r="G34">
-        <v>-1.82</v>
+        <v>-1.43</v>
       </c>
       <c r="H34">
-        <v>-0.42</v>
+        <v>-1.3</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2326,19 +2326,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.113219145281208</v>
+        <v>0.5791311163963189</v>
       </c>
       <c r="L34">
-        <v>0.3084892983036984</v>
+        <v>0.5879405885478606</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>256.7</v>
+        <v>306.9</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2346,7 +2346,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>85</v>
@@ -2358,13 +2358,13 @@
         <v>20</v>
       </c>
       <c r="F35">
-        <v>-1.12</v>
+        <v>1.12</v>
       </c>
       <c r="G35">
-        <v>-1.03</v>
+        <v>-2.58</v>
       </c>
       <c r="H35">
-        <v>0.54</v>
+        <v>-2.95</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2373,10 +2373,10 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.008131304301865955</v>
+        <v>1.674504670026542</v>
       </c>
       <c r="L35">
-        <v>0.03396162336559688</v>
+        <v>1.726023166023166</v>
       </c>
       <c r="M35" t="s">
         <v>118</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="O35">
-        <v>235.6</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2399,19 +2399,19 @@
         <v>85</v>
       </c>
       <c r="D36">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="G36">
-        <v>-2.97</v>
+        <v>-1</v>
       </c>
       <c r="H36">
-        <v>-2.95</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2420,19 +2420,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.07714427596401495</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.2470734007730291</v>
+        <v>0.02240617414576461</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>536.15</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C37">
         <v>80</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>-0.02</v>
+        <v>0.34</v>
       </c>
       <c r="G37">
-        <v>0.02</v>
+        <v>-0.63</v>
       </c>
       <c r="H37">
-        <v>0.31</v>
+        <v>-0.43</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2467,19 +2467,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.293983323530441</v>
       </c>
       <c r="L37">
-        <v>0.5391120507399577</v>
+        <v>1.109463067339068</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O37">
-        <v>261.35</v>
+        <v>800.25</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2487,7 +2487,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C38">
         <v>80</v>
@@ -2499,13 +2499,13 @@
         <v>60</v>
       </c>
       <c r="F38">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="G38">
-        <v>-0.82</v>
+        <v>-0.76</v>
       </c>
       <c r="H38">
-        <v>0.4</v>
+        <v>-0.24</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2514,10 +2514,10 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.2543637661410725</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.2225755166931637</v>
       </c>
       <c r="M38" t="s">
         <v>120</v>
@@ -2526,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="O38">
-        <v>31550</v>
+        <v>697.85</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2534,25 +2534,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C39">
         <v>80</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="G39">
-        <v>-0.53</v>
+        <v>-0.2</v>
       </c>
       <c r="H39">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2561,19 +2561,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.6724437146846811</v>
+        <v>1.541057489193308</v>
       </c>
       <c r="L39">
-        <v>0.92152466367713</v>
+        <v>1.090127035657482</v>
       </c>
       <c r="M39" t="s">
         <v>121</v>
       </c>
       <c r="N39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O39">
-        <v>603.7</v>
+        <v>138.61</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2581,7 +2581,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C40">
         <v>80</v>
@@ -2593,13 +2593,13 @@
         <v>60</v>
       </c>
       <c r="F40">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="G40">
-        <v>-0.9399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="H40">
-        <v>-0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2608,10 +2608,10 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.05342891037128881</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.1655498620417816</v>
+        <v>0.003409478349812479</v>
       </c>
       <c r="M40" t="s">
         <v>120</v>
@@ -2620,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="O40">
-        <v>697.2</v>
+        <v>260.7</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2640,10 +2640,10 @@
         <v>30</v>
       </c>
       <c r="F41">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="G41">
-        <v>-1.7</v>
+        <v>-1.73</v>
       </c>
       <c r="H41">
         <v>0.31</v>
@@ -2655,10 +2655,10 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.4119313853935583</v>
+        <v>0.04473748547607041</v>
       </c>
       <c r="L41">
-        <v>0.6681657565049791</v>
+        <v>0.1386691666178395</v>
       </c>
       <c r="M41" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="O41">
-        <v>2238.8</v>
+        <v>2237.5</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2675,25 +2675,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C42">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="G42">
-        <v>-1.26</v>
+        <v>-0.11</v>
       </c>
       <c r="H42">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2702,19 +2702,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.05627647952250012</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>0.2660753880266075</v>
       </c>
       <c r="M42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>1523</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2734,10 +2734,10 @@
         <v>50</v>
       </c>
       <c r="F43">
-        <v>0.09</v>
+        <v>0.48</v>
       </c>
       <c r="G43">
-        <v>0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H43">
         <v>-0.46</v>
@@ -2749,10 +2749,10 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.002910048858186053</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0.1007156109196926</v>
+        <v>0.1544607190412783</v>
       </c>
       <c r="M43" t="s">
         <v>120</v>
@@ -2761,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="O43">
-        <v>3182.2</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2769,25 +2769,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44">
         <v>70</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F44">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G44">
-        <v>0.59</v>
+        <v>-0.14</v>
       </c>
       <c r="H44">
-        <v>-0.23</v>
+        <v>0.4</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2796,19 +2796,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.0004238620187840083</v>
+        <v>1.925501432664756</v>
       </c>
       <c r="L44">
-        <v>0.005009601736661935</v>
+        <v>2.957746478873239</v>
       </c>
       <c r="M44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O44">
-        <v>349.15</v>
+        <v>31755</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2816,25 +2816,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C45">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>0.52</v>
+        <v>1.1</v>
       </c>
       <c r="G45">
-        <v>-1.03</v>
+        <v>0.61</v>
       </c>
       <c r="H45">
-        <v>-0.95</v>
+        <v>-0.23</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2843,19 +2843,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0.01023297617178457</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.01924516198011333</v>
+        <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O45">
-        <v>2263.4</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2875,13 +2875,13 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>0.01</v>
+        <v>1.1</v>
       </c>
       <c r="G46">
-        <v>-2.11</v>
+        <v>-1.01</v>
       </c>
       <c r="H46">
-        <v>-1.44</v>
+        <v>-1.48</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2890,10 +2890,10 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.08130216750237844</v>
+        <v>0.08779210239950394</v>
       </c>
       <c r="L46">
-        <v>0.4574428196475441</v>
+        <v>0.2644942411997321</v>
       </c>
       <c r="M46" t="s">
         <v>119</v>
@@ -2902,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="O46">
-        <v>4433.6</v>
+        <v>798.75</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2910,7 +2910,7 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47">
         <v>65</v>
@@ -2922,13 +2922,13 @@
         <v>20</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="G47">
-        <v>-1.25</v>
+        <v>-1.11</v>
       </c>
       <c r="H47">
-        <v>0.06</v>
+        <v>-0.77</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2937,10 +2937,10 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.3533152749971261</v>
+        <v>0.05650686981473015</v>
       </c>
       <c r="L47">
-        <v>0.5756987402356979</v>
+        <v>0.1270319733017548</v>
       </c>
       <c r="M47" t="s">
         <v>119</v>
@@ -2949,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="O47">
-        <v>771.55</v>
+        <v>1154.9</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2957,26 +2957,26 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F48">
+        <v>0.54</v>
+      </c>
+      <c r="G48">
+        <v>-1.26</v>
+      </c>
+      <c r="H48">
         <v>0.06</v>
       </c>
-      <c r="G48">
-        <v>-0.17</v>
-      </c>
-      <c r="H48">
-        <v>0.05</v>
-      </c>
       <c r="I48">
         <v>50</v>
       </c>
@@ -2984,19 +2984,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.04445169594460995</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.2631353021978022</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>646.7</v>
+        <v>772.05</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3004,25 +3004,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F49">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="G49">
-        <v>-0.17</v>
+        <v>-1.36</v>
       </c>
       <c r="H49">
-        <v>0.05</v>
+        <v>-0.95</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3031,19 +3031,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.2603308098558667</v>
+        <v>0.08178485978095675</v>
       </c>
       <c r="L49">
-        <v>0.7013868521389367</v>
+        <v>0.6178396072013094</v>
       </c>
       <c r="M49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>1923</v>
+        <v>2260.2</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3051,25 +3051,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
       <c r="G50">
-        <v>0.25</v>
+        <v>-0.76</v>
       </c>
       <c r="H50">
-        <v>0.44</v>
+        <v>-0.87</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3078,19 +3078,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>4.3553835662062</v>
+        <v>0.04792066467736799</v>
       </c>
       <c r="L50">
-        <v>3.104927837732415</v>
+        <v>0.04012334212579411</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>1545</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3098,7 +3098,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <v>60</v>
@@ -3110,13 +3110,13 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.73</v>
+        <v>0.28</v>
       </c>
       <c r="G51">
-        <v>-0.65</v>
+        <v>-0.37</v>
       </c>
       <c r="H51">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3137,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="O51">
-        <v>420.75</v>
+        <v>647.5</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3145,7 +3145,7 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52">
         <v>60</v>
@@ -3157,13 +3157,13 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="G52">
-        <v>0.35</v>
+        <v>-0.05</v>
       </c>
       <c r="H52">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3172,10 +3172,10 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.08843036109066167</v>
+        <v>0.06640344241483619</v>
       </c>
       <c r="L52">
-        <v>0.3065134099616859</v>
+        <v>0.2668202904702708</v>
       </c>
       <c r="M52" t="s">
         <v>120</v>
@@ -3184,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="O52">
-        <v>424.8</v>
+        <v>1925.5</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3192,7 +3192,7 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>55</v>
@@ -3204,13 +3204,13 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="G53">
-        <v>-1.89</v>
+        <v>-1.38</v>
       </c>
       <c r="H53">
-        <v>-1.08</v>
+        <v>-1</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3219,10 +3219,10 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0.01075872483681201</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.383569286561127</v>
+        <v>0.017319909301849</v>
       </c>
       <c r="M53" t="s">
         <v>119</v>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>624</v>
+        <v>506.55</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3245,19 +3245,19 @@
         <v>55</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54">
-        <v>-0.3</v>
+        <v>0.53</v>
       </c>
       <c r="G54">
-        <v>-1.16</v>
+        <v>-1.66</v>
       </c>
       <c r="H54">
-        <v>-0.77</v>
+        <v>-1.44</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3266,19 +3266,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.04942244453311508</v>
+        <v>0.6571834389773118</v>
       </c>
       <c r="L54">
-        <v>0.2036993060502916</v>
+        <v>0.8125819134993447</v>
       </c>
       <c r="M54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>1154</v>
+        <v>4454.7</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3286,7 +3286,7 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C55">
         <v>55</v>
@@ -3298,13 +3298,13 @@
         <v>10</v>
       </c>
       <c r="F55">
-        <v>0.27</v>
+        <v>0.88</v>
       </c>
       <c r="G55">
-        <v>-1.57</v>
+        <v>-1.91</v>
       </c>
       <c r="H55">
-        <v>-1</v>
+        <v>-1.08</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3313,10 +3313,10 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.04696309694735256</v>
+        <v>0.6663671253571122</v>
       </c>
       <c r="L55">
-        <v>0.1110626807881941</v>
+        <v>2.374482027560952</v>
       </c>
       <c r="M55" t="s">
         <v>119</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <v>505.85</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3333,7 +3333,7 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56">
         <v>50</v>
@@ -3345,13 +3345,13 @@
         <v>30</v>
       </c>
       <c r="F56">
-        <v>0.21</v>
+        <v>1.66</v>
       </c>
       <c r="G56">
-        <v>-0.34</v>
+        <v>4.61</v>
       </c>
       <c r="H56">
-        <v>-0.73</v>
+        <v>3.19</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3360,10 +3360,10 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.02555910543130824</v>
+        <v>0.1041038210600044</v>
       </c>
       <c r="L56">
-        <v>0.03831417624521073</v>
+        <v>0.3784452760126877</v>
       </c>
       <c r="M56" t="s">
         <v>120</v>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="O56">
-        <v>3023.6</v>
+        <v>265.7</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3380,7 +3380,7 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57">
         <v>50</v>
@@ -3392,13 +3392,13 @@
         <v>30</v>
       </c>
       <c r="F57">
-        <v>1.1</v>
+        <v>0.59</v>
       </c>
       <c r="G57">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="H57">
-        <v>-0.31</v>
+        <v>0.18</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.04301075268817205</v>
+        <v>0.005377789728421619</v>
       </c>
       <c r="M57" t="s">
         <v>120</v>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="O57">
-        <v>44180</v>
+        <v>1527.1</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3427,7 +3427,7 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C58">
         <v>50</v>
@@ -3439,13 +3439,13 @@
         <v>30</v>
       </c>
       <c r="F58">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="G58">
-        <v>-0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H58">
-        <v>0.05</v>
+        <v>-0.2</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3454,10 +3454,10 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.07855217558726435</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.7039337474120083</v>
+        <v>0</v>
       </c>
       <c r="M58" t="s">
         <v>120</v>
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="O58">
-        <v>1043.6</v>
+        <v>5155.5</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3474,25 +3474,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C59">
         <v>50</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="G59">
-        <v>-0.93</v>
+        <v>-0.25</v>
       </c>
       <c r="H59">
-        <v>-0.55</v>
+        <v>-1.29</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3501,19 +3501,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>1.071015749169217</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>2.676161851380503</v>
+        <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>520.5</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3521,7 +3521,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -3533,13 +3533,13 @@
         <v>30</v>
       </c>
       <c r="F60">
-        <v>1.22</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G60">
-        <v>0.95</v>
+        <v>-0.68</v>
       </c>
       <c r="H60">
-        <v>-0.2</v>
+        <v>-0.73</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.03891050583657588</v>
       </c>
       <c r="M60" t="s">
         <v>120</v>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="O60">
-        <v>5158</v>
+        <v>3017.4</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3568,7 +3568,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C61">
         <v>50</v>
@@ -3580,13 +3580,13 @@
         <v>30</v>
       </c>
       <c r="F61">
-        <v>1.5</v>
+        <v>0.99</v>
       </c>
       <c r="G61">
-        <v>5.23</v>
+        <v>-1</v>
       </c>
       <c r="H61">
-        <v>3.19</v>
+        <v>0.05</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3595,10 +3595,10 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.2125297067627207</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>0.501999146496195</v>
+        <v>0</v>
       </c>
       <c r="M61" t="s">
         <v>120</v>
@@ -3607,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="O61">
-        <v>264.7</v>
+        <v>1044.3</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3615,7 +3615,7 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -3627,13 +3627,13 @@
         <v>30</v>
       </c>
       <c r="F62">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="G62">
-        <v>0.03</v>
+        <v>-0.17</v>
       </c>
       <c r="H62">
-        <v>-0.41</v>
+        <v>-0.31</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3642,10 +3642,10 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0.3066711639688767</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="L62">
-        <v>0.6803715264431708</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="M62" t="s">
         <v>120</v>
@@ -3654,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="O62">
-        <v>751.55</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3662,7 +3662,7 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -3677,10 +3677,10 @@
         <v>0.82</v>
       </c>
       <c r="G63">
-        <v>0.88</v>
+        <v>-0.65</v>
       </c>
       <c r="H63">
-        <v>-0.83</v>
+        <v>0.36</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.9013821192495159</v>
       </c>
       <c r="M63" t="s">
         <v>120</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="O63">
-        <v>929</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3709,7 +3709,7 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C64">
         <v>50</v>
@@ -3721,13 +3721,13 @@
         <v>30</v>
       </c>
       <c r="F64">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="G64">
-        <v>-0.66</v>
+        <v>0.59</v>
       </c>
       <c r="H64">
-        <v>0.36</v>
+        <v>-0.83</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0.0149852021129135</v>
+        <v>0</v>
       </c>
       <c r="M64" t="s">
         <v>120</v>
@@ -3748,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="O64">
-        <v>61.58</v>
+        <v>926.8</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3768,10 +3768,10 @@
         <v>30</v>
       </c>
       <c r="F65">
-        <v>0.08</v>
+        <v>0.67</v>
       </c>
       <c r="G65">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="H65">
         <v>-0.01</v>
@@ -3783,10 +3783,10 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.3296146044622012</v>
+        <v>0.01866977829637959</v>
       </c>
       <c r="L65">
-        <v>0.9767092411720512</v>
+        <v>0.08136696501220504</v>
       </c>
       <c r="M65" t="s">
         <v>120</v>
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="O65">
-        <v>101.7</v>
+        <v>101.64</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3803,25 +3803,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
         <v>40</v>
       </c>
-      <c r="D66">
-        <v>20</v>
-      </c>
-      <c r="E66">
-        <v>20</v>
-      </c>
       <c r="F66">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="G66">
-        <v>-0.42</v>
+        <v>0.12</v>
       </c>
       <c r="H66">
-        <v>-0.23</v>
+        <v>0.02</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3830,19 +3830,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.1123869528387191</v>
+        <v>0.7715624138881254</v>
       </c>
       <c r="L66">
-        <v>0.3121843282505171</v>
+        <v>0.408997955010225</v>
       </c>
       <c r="M66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>310.05</v>
+        <v>424.3</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3850,25 +3850,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C67">
         <v>40</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>1.06</v>
+        <v>1.65</v>
       </c>
       <c r="G67">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="H67">
-        <v>-0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3877,19 +3877,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.1713056301954048</v>
+        <v>1.340396545634404</v>
       </c>
       <c r="L67">
-        <v>0.4107311112255015</v>
+        <v>1.52732655627751</v>
       </c>
       <c r="M67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>1459.7</v>
+        <v>752.35</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3897,7 +3897,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3909,13 +3909,13 @@
         <v>20</v>
       </c>
       <c r="F68">
-        <v>0.8100000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="G68">
-        <v>-0.32</v>
+        <v>-0.11</v>
       </c>
       <c r="H68">
-        <v>-1.29</v>
+        <v>-0.24</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3924,10 +3924,10 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.2278586686964265</v>
+        <v>0.4052040746239994</v>
       </c>
       <c r="L68">
-        <v>0.9670696123384743</v>
+        <v>0.7651382687965776</v>
       </c>
       <c r="M68" t="s">
         <v>120</v>
@@ -3936,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="O68">
-        <v>323.6</v>
+        <v>1400.5</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3944,25 +3944,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C69">
         <v>40</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F69">
-        <v>0.63</v>
+        <v>0.29</v>
       </c>
       <c r="G69">
-        <v>-0.73</v>
+        <v>-0.91</v>
       </c>
       <c r="H69">
-        <v>-0.87</v>
+        <v>0.54</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -3971,19 +3971,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.9417161125541519</v>
+        <v>0.2181485674475825</v>
       </c>
       <c r="L69">
-        <v>0.9156333412170153</v>
+        <v>1.361968193557156</v>
       </c>
       <c r="M69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>28.6</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3991,7 +3991,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C70">
         <v>40</v>
@@ -4003,13 +4003,13 @@
         <v>20</v>
       </c>
       <c r="F70">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="G70">
-        <v>0.25</v>
+        <v>-0.48</v>
       </c>
       <c r="H70">
-        <v>-0.74</v>
+        <v>-0.23</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4018,10 +4018,10 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.0158941120398279</v>
+        <v>0.3804185351269371</v>
       </c>
       <c r="L70">
-        <v>0.550665599767222</v>
+        <v>0.8665120337071478</v>
       </c>
       <c r="M70" t="s">
         <v>120</v>
@@ -4030,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="O70">
-        <v>199.95</v>
+        <v>310.15</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4038,7 +4038,7 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C71">
         <v>40</v>
@@ -4050,13 +4050,13 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>-0.02</v>
+        <v>1.28</v>
       </c>
       <c r="G71">
-        <v>-0.02</v>
+        <v>0.24</v>
       </c>
       <c r="H71">
-        <v>-0.24</v>
+        <v>0.32</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4065,10 +4065,10 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0.01689280410424901</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0.1471371822715129</v>
+        <v>0.0002606440514511358</v>
       </c>
       <c r="M71" t="s">
         <v>120</v>
@@ -4077,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="O71">
-        <v>1401.7</v>
+        <v>517.1</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4085,25 +4085,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C72">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>20</v>
       </c>
       <c r="F72">
-        <v>1.06</v>
+        <v>0.63</v>
       </c>
       <c r="G72">
-        <v>-0.93</v>
+        <v>0.36</v>
       </c>
       <c r="H72">
-        <v>-1.48</v>
+        <v>-0.39</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4112,19 +4112,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0.02384690833794674</v>
+        <v>0.6506053451902091</v>
       </c>
       <c r="L72">
-        <v>0.2443159731699046</v>
+        <v>0.5511750941092685</v>
       </c>
       <c r="M72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72">
-        <v>797.5</v>
+        <v>1460.6</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4132,25 +4132,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C73">
         <v>30</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F73">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="G73">
-        <v>-0.36</v>
+        <v>1.71</v>
       </c>
       <c r="H73">
-        <v>-0.71</v>
+        <v>0.78</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4159,19 +4159,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.01558734150686493</v>
+        <v>4.849932718372999</v>
       </c>
       <c r="L73">
-        <v>0.05176022835394862</v>
+        <v>3.039644077222531</v>
       </c>
       <c r="M73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>863.9</v>
+        <v>1092.4</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4179,7 +4179,7 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74">
         <v>30</v>
@@ -4191,13 +4191,13 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G74">
-        <v>0.21</v>
+        <v>1.11</v>
       </c>
       <c r="H74">
-        <v>-0.86</v>
+        <v>-0.17</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4206,10 +4206,10 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.01453023630994929</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0.05212774736610459</v>
+        <v>0</v>
       </c>
       <c r="M74" t="s">
         <v>120</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>426.8</v>
+        <v>1131.4</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4226,7 +4226,7 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C75">
         <v>30</v>
@@ -4238,13 +4238,13 @@
         <v>10</v>
       </c>
       <c r="F75">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>-0.28</v>
+        <v>0.6</v>
       </c>
       <c r="H75">
-        <v>-0.58</v>
+        <v>-0.93</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4253,10 +4253,10 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>0.2402029300616236</v>
       </c>
       <c r="L75">
-        <v>0.08361204013377926</v>
+        <v>0.1856594110115237</v>
       </c>
       <c r="M75" t="s">
         <v>120</v>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="O75">
-        <v>147.42</v>
+        <v>250.7</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4273,7 +4273,7 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C76">
         <v>30</v>
@@ -4285,13 +4285,13 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <v>0.16</v>
+        <v>-0.43</v>
       </c>
       <c r="G76">
-        <v>1.01</v>
+        <v>-0.44</v>
       </c>
       <c r="H76">
-        <v>-0.93</v>
+        <v>-1.6</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4300,10 +4300,10 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.0001395907200088924</v>
+        <v>0.4302257315885546</v>
       </c>
       <c r="L76">
-        <v>0.0008483922965979468</v>
+        <v>0.6635975507847517</v>
       </c>
       <c r="M76" t="s">
         <v>120</v>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="O76">
-        <v>250.85</v>
+        <v>958.2</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4320,7 +4320,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C77">
         <v>30</v>
@@ -4332,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="G77">
-        <v>0.43</v>
+        <v>1.09</v>
       </c>
       <c r="H77">
-        <v>-0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <v>200.84</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4367,7 +4367,7 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78">
         <v>30</v>
@@ -4382,10 +4382,10 @@
         <v>0.9</v>
       </c>
       <c r="G78">
-        <v>1.66</v>
+        <v>-0.03</v>
       </c>
       <c r="H78">
-        <v>-0.12</v>
+        <v>-0.71</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4394,10 +4394,10 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.1309210085414235</v>
+        <v>0.02092967782146614</v>
       </c>
       <c r="L78">
-        <v>0.1657180385288967</v>
+        <v>0.05754908598510495</v>
       </c>
       <c r="M78" t="s">
         <v>120</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="O78">
-        <v>42.77</v>
+        <v>868</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4414,25 +4414,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C79">
         <v>30</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F79">
-        <v>0.38</v>
+        <v>1.01</v>
       </c>
       <c r="G79">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
       <c r="H79">
-        <v>0.32</v>
+        <v>-0.74</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4441,19 +4441,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.1228450821557568</v>
+        <v>16.83879343927486</v>
       </c>
       <c r="L79">
-        <v>0.1871229841191678</v>
+        <v>14.42663916544366</v>
       </c>
       <c r="M79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>515.3</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4461,7 +4461,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C80">
         <v>30</v>
@@ -4473,13 +4473,13 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>0.79</v>
+        <v>1.63</v>
       </c>
       <c r="G80">
-        <v>0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="H80">
-        <v>-0.5</v>
+        <v>-0.78</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4488,10 +4488,10 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.01643646408840172</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>0.1483605535469393</v>
       </c>
       <c r="M80" t="s">
         <v>120</v>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="O80">
-        <v>1305.3</v>
+        <v>371.55</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4508,7 +4508,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C81">
         <v>30</v>
@@ -4520,14 +4520,14 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>1.1</v>
+        <v>0.29</v>
       </c>
       <c r="G81">
+        <v>-0.15</v>
+      </c>
+      <c r="H81">
         <v>-0.11</v>
       </c>
-      <c r="H81">
-        <v>0.27</v>
-      </c>
       <c r="I81">
         <v>50</v>
       </c>
@@ -4535,10 +4535,10 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.2933618182769744</v>
+        <v>0.1434626671014056</v>
       </c>
       <c r="L81">
-        <v>0.4414718150507538</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="M81" t="s">
         <v>120</v>
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="O81">
-        <v>95.09</v>
+        <v>1853.1</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4555,7 +4555,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C82">
         <v>30</v>
@@ -4567,13 +4567,13 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>1.45</v>
+        <v>0.4</v>
       </c>
       <c r="G82">
-        <v>1.4</v>
+        <v>-0.23</v>
       </c>
       <c r="H82">
-        <v>-0.17</v>
+        <v>-0.59</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4582,10 +4582,10 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.0200411511637196</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0.1267812769410213</v>
+        <v>0.03218760777100816</v>
       </c>
       <c r="M82" t="s">
         <v>120</v>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="O82">
-        <v>1133.2</v>
+        <v>571.95</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4602,7 +4602,7 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C83">
         <v>30</v>
@@ -4614,13 +4614,13 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>1.49</v>
+        <v>0.82</v>
       </c>
       <c r="G83">
-        <v>-0.16</v>
+        <v>0.02</v>
       </c>
       <c r="H83">
-        <v>-0.78</v>
+        <v>-0.4</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4629,10 +4629,10 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0.03989208142184743</v>
+        <v>0.02535423560473994</v>
       </c>
       <c r="L83">
-        <v>0.3986153362005664</v>
+        <v>0.157013043209495</v>
       </c>
       <c r="M83" t="s">
         <v>120</v>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="O83">
-        <v>371.3</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4661,13 +4661,13 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="G84">
-        <v>-0.03</v>
+        <v>-0.12</v>
       </c>
       <c r="H84">
-        <v>-0.6899999999999999</v>
+        <v>-0.58</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4676,10 +4676,10 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0.01035451520785949</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0.2159443309885788</v>
+        <v>0</v>
       </c>
       <c r="M84" t="s">
         <v>120</v>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="O84">
-        <v>79.59</v>
+        <v>147.4</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4696,7 +4696,7 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C85">
         <v>30</v>
@@ -4708,13 +4708,13 @@
         <v>10</v>
       </c>
       <c r="F85">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="G85">
-        <v>-0.27</v>
+        <v>0.55</v>
       </c>
       <c r="H85">
-        <v>0.25</v>
+        <v>-0.22</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4723,10 +4723,10 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0.09578107183580388</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>0.4827586206896552</v>
+        <v>0</v>
       </c>
       <c r="M85" t="s">
         <v>120</v>
@@ -4735,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="O85">
-        <v>8392</v>
+        <v>200.79</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4743,7 +4743,7 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86">
         <v>30</v>
@@ -4755,13 +4755,13 @@
         <v>10</v>
       </c>
       <c r="F86">
-        <v>0.46</v>
+        <v>1.34</v>
       </c>
       <c r="G86">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="H86">
-        <v>-0.36</v>
+        <v>-0.86</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4770,10 +4770,10 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0.1545846304844734</v>
+        <v>0.00661758070606945</v>
       </c>
       <c r="L86">
-        <v>0.19638786603542</v>
+        <v>0.04383731485376492</v>
       </c>
       <c r="M86" t="s">
         <v>120</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>522.05</v>
+        <v>426.6</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4790,7 +4790,7 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -4802,13 +4802,13 @@
         <v>10</v>
       </c>
       <c r="F87">
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="G87">
-        <v>-0.37</v>
+        <v>-0.1</v>
       </c>
       <c r="H87">
-        <v>-0.59</v>
+        <v>-0.36</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>571.7</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4837,7 +4837,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C88">
         <v>30</v>
@@ -4849,10 +4849,10 @@
         <v>10</v>
       </c>
       <c r="F88">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H88">
         <v>0.15</v>
@@ -4864,10 +4864,10 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.05933023898907978</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0.162546467087874</v>
+        <v>0.08925355213127877</v>
       </c>
       <c r="M88" t="s">
         <v>120</v>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>387.8</v>
+        <v>387.9</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4884,25 +4884,25 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C89">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>10</v>
       </c>
       <c r="F89">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="G89">
-        <v>-0.21</v>
+        <v>0.45</v>
       </c>
       <c r="H89">
-        <v>-0.4</v>
+        <v>-0.12</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4911,19 +4911,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0.05559371338532978</v>
+        <v>0.6300391058755539</v>
       </c>
       <c r="L89">
-        <v>0.1277955271565495</v>
+        <v>0.6628874462832587</v>
       </c>
       <c r="M89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
       <c r="O89">
-        <v>1386.4</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4931,7 +4931,7 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -4943,13 +4943,13 @@
         <v>10</v>
       </c>
       <c r="F90">
-        <v>0.12</v>
+        <v>1.1</v>
       </c>
       <c r="G90">
-        <v>1.15</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H90">
-        <v>0.78</v>
+        <v>-0.5</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -4958,10 +4958,10 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>2.791676920132349</v>
+        <v>2.816010124980238</v>
       </c>
       <c r="L90">
-        <v>3.658187029738445</v>
+        <v>2.314694408322497</v>
       </c>
       <c r="M90" t="s">
         <v>121</v>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>1086.6</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4978,25 +4978,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91">
-        <v>0.58</v>
+        <v>1.2</v>
       </c>
       <c r="G91">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="H91">
-        <v>-0.11</v>
+        <v>0.27</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5005,10 +5005,10 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>4.411469821535933</v>
+        <v>1.172428035760128</v>
       </c>
       <c r="L91">
-        <v>5.269461077844311</v>
+        <v>1.041164902666991</v>
       </c>
       <c r="M91" t="s">
         <v>121</v>
@@ -5017,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="O91">
-        <v>1853.1</v>
+        <v>95.16</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5025,7 +5025,7 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -5037,13 +5037,13 @@
         <v>10</v>
       </c>
       <c r="F92">
-        <v>-0.47</v>
+        <v>1.12</v>
       </c>
       <c r="G92">
-        <v>-0.53</v>
+        <v>0.37</v>
       </c>
       <c r="H92">
-        <v>-1.6</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5052,10 +5052,10 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0.9200183274488589</v>
+        <v>0.9200928381962777</v>
       </c>
       <c r="L92">
-        <v>0.6647480710182532</v>
+        <v>0.9078640657588026</v>
       </c>
       <c r="M92" t="s">
         <v>121</v>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="O92">
-        <v>957.4</v>
+        <v>79.59</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -64,43 +64,46 @@
     <t>AUBANK</t>
   </si>
   <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>TATATECH</t>
+  </si>
+  <si>
+    <t>SPARC</t>
+  </si>
+  <si>
     <t>MGL</t>
   </si>
   <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
     <t>AUROPHARMA</t>
   </si>
   <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>CHOLAFIN</t>
-  </si>
-  <si>
-    <t>TATATECH</t>
-  </si>
-  <si>
-    <t>SPARC</t>
+    <t>ICICIPRULI</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>HAPPSTMNDS</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>IIFL</t>
   </si>
   <si>
     <t>GUJGASLTD</t>
   </si>
   <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>HAPPSTMNDS</t>
-  </si>
-  <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
-    <t>IIFL</t>
+    <t>HFCL</t>
   </si>
   <si>
     <t>IRB</t>
@@ -109,255 +112,252 @@
     <t>SHRIRAMFIN</t>
   </si>
   <si>
-    <t>HFCL</t>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>POONAWALLA</t>
+  </si>
+  <si>
+    <t>CELLO</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>TRITURBINE</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>EQUITASBNK</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
   </si>
   <si>
     <t>IREDA</t>
   </si>
   <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>POONAWALLA</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>TRITURBINE</t>
-  </si>
-  <si>
-    <t>M&amp;MFIN</t>
-  </si>
-  <si>
-    <t>AVG</t>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>SMSPHARMA</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>ANGELONE</t>
+  </si>
+  <si>
+    <t>RVNL</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
   </si>
   <si>
     <t>BIOCON</t>
   </si>
   <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>RAYMOND</t>
-  </si>
-  <si>
-    <t>CELLO</t>
-  </si>
-  <si>
-    <t>EQUITASBNK</t>
-  </si>
-  <si>
-    <t>RVNL</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>AZAD</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
   </si>
   <si>
     <t>LATENTVIEW</t>
   </si>
   <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>ANGELONE</t>
-  </si>
-  <si>
-    <t>AZAD</t>
+    <t>CHENNPETRO</t>
   </si>
   <si>
     <t>THERMAX</t>
   </si>
   <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
+    <t>RENUKA</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>SANOFI</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>ALEMBICLTD</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>MMTC</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>JINDALSAW</t>
   </si>
   <si>
     <t>SBICARD</t>
   </si>
   <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>ADANIENT</t>
-  </si>
-  <si>
-    <t>RENUKA</t>
-  </si>
-  <si>
-    <t>CHENNPETRO</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV</t>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
+  </si>
+  <si>
+    <t>EMBDL</t>
+  </si>
+  <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>ANURAS</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>GNFC</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>BSOFT</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>PRSMJOHNSN</t>
+  </si>
+  <si>
+    <t>UJJIVANSFB</t>
   </si>
   <si>
     <t>KALYANKJIL</t>
   </si>
   <si>
-    <t>SKFINDIA</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>AAVAS</t>
-  </si>
-  <si>
-    <t>SANOFI</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>MAITHANALL</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>MMTC</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>ALEMBICLTD</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>SMSPHARMA</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>ANURAS</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>UBL</t>
   </si>
   <si>
     <t>ASTRAZEN</t>
   </si>
   <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>JINDALSAW</t>
-  </si>
-  <si>
-    <t>BSOFT</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
     <t>RKFORGE</t>
   </si>
   <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
-    <t>PRSMJOHNSN</t>
-  </si>
-  <si>
     <t>MVGJL</t>
   </si>
   <si>
-    <t>VEDL</t>
-  </si>
-  <si>
-    <t>GNFC</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>UJJIVANSFB</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL</t>
-  </si>
-  <si>
-    <t>EMBDL</t>
-  </si>
-  <si>
-    <t>RBA</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
     <t>Communication Services</t>
   </si>
   <si>
@@ -370,16 +370,16 @@
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Weak Short</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>No Signal</t>
+  </si>
+  <si>
     <t>Short</t>
-  </si>
-  <si>
-    <t>Weak Short</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>No Signal</t>
   </si>
 </sst>
 </file>
@@ -798,19 +798,19 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>150</v>
       </c>
       <c r="F2">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="G2">
-        <v>-1.05</v>
+        <v>-0.51</v>
       </c>
       <c r="H2">
         <v>-2.15</v>
@@ -822,10 +822,10 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.03433498288401891</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2299213012231813</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>118</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="O2">
-        <v>724.25</v>
+        <v>726.05</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -845,22 +845,22 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F3">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="G3">
-        <v>-1.03</v>
+        <v>-0.27</v>
       </c>
       <c r="H3">
-        <v>-0.63</v>
+        <v>-1.95</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -869,19 +869,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.2701713899755208</v>
+        <v>0.05082834149705944</v>
       </c>
       <c r="L3">
-        <v>0.6310599835661462</v>
+        <v>0.2174228472571014</v>
       </c>
       <c r="M3" t="s">
         <v>119</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O3">
-        <v>1262.5</v>
+        <v>275.25</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -889,25 +889,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>160</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F4">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="G4">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H4">
-        <v>0.57</v>
+        <v>-2.47</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -916,19 +916,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.007205656978457615</v>
+        <v>0.4127607271927584</v>
       </c>
       <c r="L4">
-        <v>0.06706706706706707</v>
+        <v>0.6748852695041843</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O4">
-        <v>1030.9</v>
+        <v>1444.4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -939,22 +939,22 @@
         <v>107</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F5">
-        <v>1.12</v>
+        <v>0.54</v>
       </c>
       <c r="G5">
-        <v>-0.33</v>
+        <v>-0.04</v>
       </c>
       <c r="H5">
-        <v>-1.95</v>
+        <v>-2.5</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -963,19 +963,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.02239833551706121</v>
+        <v>1.042619602806529</v>
       </c>
       <c r="L5">
-        <v>0.05420934459727907</v>
+        <v>1.466129796305069</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>275.55</v>
+        <v>665.7</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -983,25 +983,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F6">
-        <v>1.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G6">
-        <v>-0.45</v>
+        <v>-0.1</v>
       </c>
       <c r="H6">
-        <v>-2.47</v>
+        <v>-0.32</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1010,19 +1010,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.2968549387238579</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.628769979152189</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>119</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>1443.5</v>
+        <v>141.13</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1033,22 +1033,22 @@
         <v>107</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>120</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="G7">
-        <v>-0.6</v>
+        <v>-0.89</v>
       </c>
       <c r="H7">
-        <v>-2.5</v>
+        <v>-0.63</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1057,19 +1057,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.8554017882568019</v>
+        <v>0.04980117259124533</v>
       </c>
       <c r="L7">
-        <v>1.147528459011383</v>
+        <v>0.09847806624888093</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N7">
         <v>12</v>
       </c>
       <c r="O7">
-        <v>664</v>
+        <v>1262.9</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8">
         <v>140</v>
@@ -1089,13 +1089,13 @@
         <v>120</v>
       </c>
       <c r="F8">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>-0.44</v>
       </c>
       <c r="H8">
-        <v>-0.32</v>
+        <v>-0.82</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1104,19 +1104,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.221366607698701</v>
       </c>
       <c r="L8">
-        <v>0.2660133006650333</v>
+        <v>0.4062711599562477</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N8">
         <v>12</v>
       </c>
       <c r="O8">
-        <v>140.8</v>
+        <v>634.2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1130,19 +1130,19 @@
         <v>140</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F9">
-        <v>1.06</v>
+        <v>0.74</v>
       </c>
       <c r="G9">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="H9">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1151,19 +1151,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.268912472456377</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.486399103332328</v>
       </c>
       <c r="M9" t="s">
         <v>120</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O9">
-        <v>421</v>
+        <v>1032.6</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1171,25 +1171,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F10">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="G10">
-        <v>0.8</v>
+        <v>-1.14</v>
       </c>
       <c r="H10">
-        <v>-0.15</v>
+        <v>-1.1</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1198,19 +1198,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.05829532727873551</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.233640734230655</v>
+        <v>0.001803101334294987</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>139.43</v>
+        <v>606.8</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1218,25 +1218,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>120</v>
       </c>
       <c r="F11">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="G11">
-        <v>-0.42</v>
+        <v>1.26</v>
       </c>
       <c r="H11">
-        <v>-0.82</v>
+        <v>-0.15</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1245,10 +1245,10 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.005198759724461245</v>
+        <v>0.8148819585649536</v>
       </c>
       <c r="L11">
-        <v>0.06729151646238885</v>
+        <v>1.70437931270069</v>
       </c>
       <c r="M11" t="s">
         <v>120</v>
@@ -1257,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="O11">
-        <v>633.75</v>
+        <v>139.4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1265,25 +1265,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C12">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F12">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="G12">
-        <v>-1.7</v>
+        <v>0.24</v>
       </c>
       <c r="H12">
-        <v>-1.1</v>
+        <v>0.59</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1292,19 +1292,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.3146509341198203</v>
+        <v>0.0003643717320406859</v>
       </c>
       <c r="L12">
-        <v>0.5516596540439458</v>
+        <v>0.004070004070004071</v>
       </c>
       <c r="M12" t="s">
         <v>119</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>605.55</v>
+        <v>567.15</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1324,13 +1324,13 @@
         <v>110</v>
       </c>
       <c r="F13">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="G13">
-        <v>-0.11</v>
+        <v>0.42</v>
       </c>
       <c r="H13">
-        <v>0.59</v>
+        <v>-1.31</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N13">
         <v>11</v>
       </c>
       <c r="O13">
-        <v>566.95</v>
+        <v>379.7</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <v>130</v>
@@ -1371,13 +1371,13 @@
         <v>110</v>
       </c>
       <c r="F14">
-        <v>0.92</v>
+        <v>1.94</v>
       </c>
       <c r="G14">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
-        <v>-1.31</v>
+        <v>-0.48</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1386,19 +1386,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.03349460364719289</v>
+        <v>0.1058103411153098</v>
       </c>
       <c r="L14">
-        <v>0.03772398616787174</v>
+        <v>0.166615003099814</v>
       </c>
       <c r="M14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N14">
         <v>11</v>
       </c>
       <c r="O14">
-        <v>379.65</v>
+        <v>438.3</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1406,25 +1406,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C15">
         <v>130</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F15">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
-        <v>0.14</v>
+        <v>-0.04</v>
       </c>
       <c r="H15">
-        <v>-0.48</v>
+        <v>0.29</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1433,19 +1433,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.2164481790974647</v>
+        <v>0.6386375731773258</v>
       </c>
       <c r="L15">
-        <v>0.5479239184485331</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M15" t="s">
         <v>120</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O15">
-        <v>438.55</v>
+        <v>420.75</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1453,25 +1453,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E16">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="G16">
-        <v>1.43</v>
+        <v>-1.67</v>
       </c>
       <c r="H16">
-        <v>0.42</v>
+        <v>-2.94</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1480,19 +1480,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.2679039020132577</v>
+        <v>0.1634776949336293</v>
       </c>
       <c r="L16">
-        <v>0.3949687524721145</v>
+        <v>0.3693070962706951</v>
       </c>
       <c r="M16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>43.4</v>
+        <v>69.44</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1500,25 +1500,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>120</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="G17">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="H17">
-        <v>-0.66</v>
+        <v>0.42</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1527,19 +1527,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.2356468247517436</v>
+        <v>6.111215255882821</v>
       </c>
       <c r="L17">
-        <v>0.4573410559117512</v>
+        <v>8.356750437432153</v>
       </c>
       <c r="M17" t="s">
         <v>120</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>584.95</v>
+        <v>43.34</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1547,25 +1547,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="G18">
-        <v>-2.42</v>
+        <v>2.28</v>
       </c>
       <c r="H18">
-        <v>-2.94</v>
+        <v>-0.66</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1574,19 +1574,19 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>1.983348539170497</v>
+        <v>0.2848512320143003</v>
       </c>
       <c r="L18">
-        <v>1.846633723193622</v>
+        <v>0.5251458279659393</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>69.34999999999999</v>
+        <v>587.45</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1600,19 +1600,19 @@
         <v>115</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E19">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="G19">
-        <v>-1.24</v>
+        <v>-1.43</v>
       </c>
       <c r="H19">
-        <v>0.5600000000000001</v>
+        <v>-2.38</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1621,19 +1621,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.248143220221923</v>
       </c>
       <c r="L19">
-        <v>0.07123460823643463</v>
+        <v>0.4273783475607877</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>140.99</v>
+        <v>351.7</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1641,25 +1641,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="G20">
-        <v>-1.9</v>
+        <v>-0.41</v>
       </c>
       <c r="H20">
-        <v>-2.38</v>
+        <v>-0.02</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1668,19 +1668,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.1966981824298875</v>
+        <v>0.02814847472572194</v>
       </c>
       <c r="L20">
-        <v>0.3932104293404976</v>
+        <v>0.1301858677750765</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O20">
-        <v>351.85</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1688,7 +1688,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21">
         <v>110</v>
@@ -1700,13 +1700,13 @@
         <v>90</v>
       </c>
       <c r="F21">
+        <v>0.93</v>
+      </c>
+      <c r="G21">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G21">
-        <v>-0.45</v>
-      </c>
       <c r="H21">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1715,19 +1715,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.4006731631614484</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7302916758504151</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>9</v>
       </c>
       <c r="O21">
-        <v>8671.5</v>
+        <v>941.45</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1735,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C22">
         <v>110</v>
@@ -1747,13 +1747,13 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>0.77</v>
+        <v>0.27</v>
       </c>
       <c r="G22">
-        <v>1.03</v>
+        <v>0.15</v>
       </c>
       <c r="H22">
-        <v>-0.12</v>
+        <v>0.3</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1762,19 +1762,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.03256122114730216</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1517349913807611</v>
       </c>
       <c r="M22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N22">
         <v>9</v>
       </c>
       <c r="O22">
-        <v>940.8</v>
+        <v>1886.4</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1782,25 +1782,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>0.38</v>
+        <v>-0.02</v>
       </c>
       <c r="G23">
-        <v>-0.22</v>
+        <v>-5.02</v>
       </c>
       <c r="H23">
-        <v>0.3</v>
+        <v>-5.1</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1809,19 +1809,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.01935224612954743</v>
+        <v>0.07071580105288069</v>
       </c>
       <c r="L23">
-        <v>0.1565089105312109</v>
+        <v>0.167320801487296</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>1885.7</v>
+        <v>428.4</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1829,25 +1829,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C24">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="G24">
-        <v>-4.6</v>
+        <v>0.25</v>
       </c>
       <c r="H24">
-        <v>-5.1</v>
+        <v>-0.17</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1859,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0009785214540828807</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="M24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O24">
-        <v>429</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1876,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1888,13 +1888,13 @@
         <v>80</v>
       </c>
       <c r="F25">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
       <c r="G25">
-        <v>-0.6899999999999999</v>
+        <v>-0.14</v>
       </c>
       <c r="H25">
-        <v>-1.08</v>
+        <v>0.14</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1903,19 +1903,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.03751440046336296</v>
+        <v>0.4532335295343068</v>
       </c>
       <c r="L25">
-        <v>0.09650651017788374</v>
+        <v>0.8392729630392212</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N25">
         <v>8</v>
       </c>
       <c r="O25">
-        <v>918.95</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1923,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C26">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="G26">
-        <v>-1.03</v>
+        <v>-0.72</v>
       </c>
       <c r="H26">
-        <v>-0.55</v>
+        <v>-1.08</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1950,19 +1950,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.002556418354318414</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.05455391415610097</v>
+        <v>0.001685866816521495</v>
       </c>
       <c r="M26" t="s">
         <v>119</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>520</v>
+        <v>918.7</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1973,22 +1973,22 @@
         <v>107</v>
       </c>
       <c r="C27">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F27">
-        <v>-0.02</v>
+        <v>0.98</v>
       </c>
       <c r="G27">
-        <v>-2.04</v>
+        <v>0.14</v>
       </c>
       <c r="H27">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -1997,19 +1997,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.0123314647389324</v>
       </c>
       <c r="L27">
-        <v>0.002520733029164881</v>
+        <v>0.0613154960981048</v>
       </c>
       <c r="M27" t="s">
         <v>119</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>256.3</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2029,13 +2029,13 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>1.27</v>
+        <v>0.03</v>
       </c>
       <c r="G28">
-        <v>-2.26</v>
+        <v>-1.03</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N28">
         <v>5</v>
       </c>
       <c r="O28">
-        <v>212.87</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2064,25 +2064,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>0.11</v>
+        <v>0.7</v>
       </c>
       <c r="G29">
-        <v>-1.35</v>
+        <v>-2.72</v>
       </c>
       <c r="H29">
-        <v>0.06</v>
+        <v>-2.95</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2091,19 +2091,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.02354250537280011</v>
+        <v>0.06767421572039684</v>
       </c>
       <c r="L29">
-        <v>0.06577526197687286</v>
+        <v>0.1763464484981643</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>351.05</v>
+        <v>537.9</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2114,22 +2114,22 @@
         <v>107</v>
       </c>
       <c r="C30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G30">
-        <v>-0.31</v>
+        <v>-2.1</v>
       </c>
       <c r="H30">
-        <v>0.22</v>
+        <v>-0.42</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2138,19 +2138,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.008485315535499863</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.01849269387012672</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>1063.6</v>
+        <v>256.3</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2161,22 +2161,22 @@
         <v>107</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>0.64</v>
+        <v>-0.03</v>
       </c>
       <c r="G31">
-        <v>-0.61</v>
+        <v>-2.73</v>
       </c>
       <c r="H31">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2188,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.1851570799817878</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O31">
-        <v>604.2</v>
+        <v>212.05</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2205,25 +2205,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C32">
         <v>90</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F32">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="G32">
-        <v>-0.23</v>
+        <v>2.04</v>
       </c>
       <c r="H32">
-        <v>-0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2232,19 +2232,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>14.85636579976165</v>
+        <v>0.001421651331647981</v>
       </c>
       <c r="L32">
-        <v>11.25563425627817</v>
+        <v>0.004985044865403789</v>
       </c>
       <c r="M32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O32">
-        <v>536.65</v>
+        <v>52.07</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2252,7 +2252,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -2264,13 +2264,13 @@
         <v>70</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="G33">
-        <v>2.06</v>
+        <v>-0.26</v>
       </c>
       <c r="H33">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2279,19 +2279,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.06488773278831876</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0.05966461651684803</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N33">
         <v>7</v>
       </c>
       <c r="O33">
-        <v>52.04</v>
+        <v>604.45</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2302,22 +2302,22 @@
         <v>107</v>
       </c>
       <c r="C34">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
       <c r="G34">
-        <v>-1.43</v>
+        <v>-0.47</v>
       </c>
       <c r="H34">
-        <v>-1.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2326,19 +2326,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.5791311163963189</v>
+        <v>0.01140713831594235</v>
       </c>
       <c r="L34">
-        <v>0.5879405885478606</v>
+        <v>0.03185387314139333</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>306.9</v>
+        <v>141.2</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2349,22 +2349,22 @@
         <v>107</v>
       </c>
       <c r="C35">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D35">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F35">
-        <v>1.12</v>
+        <v>0.63</v>
       </c>
       <c r="G35">
-        <v>-2.58</v>
+        <v>-0.2</v>
       </c>
       <c r="H35">
-        <v>-2.95</v>
+        <v>0.22</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2373,19 +2373,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>1.674504670026542</v>
+        <v>0.07808716707021049</v>
       </c>
       <c r="L35">
-        <v>1.726023166023166</v>
+        <v>0.1651411380656724</v>
       </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O35">
-        <v>539</v>
+        <v>1065.4</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2393,25 +2393,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>85</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>0.47</v>
+        <v>-1.14</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="H36">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2420,19 +2420,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.1481612135108853</v>
       </c>
       <c r="L36">
-        <v>0.02240617414576461</v>
+        <v>0.268370607028754</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>419</v>
+        <v>233.27</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37">
         <v>80</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>0.34</v>
+        <v>1.26</v>
       </c>
       <c r="G37">
-        <v>-0.63</v>
+        <v>0.17</v>
       </c>
       <c r="H37">
-        <v>-0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2467,19 +2467,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>1.293983323530441</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1.109463067339068</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="M37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>800.25</v>
+        <v>31855</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2499,10 +2499,10 @@
         <v>60</v>
       </c>
       <c r="F38">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="G38">
-        <v>-0.76</v>
+        <v>-0.37</v>
       </c>
       <c r="H38">
         <v>-0.24</v>
@@ -2514,19 +2514,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.2543637661410725</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0.2225755166931637</v>
+        <v>0.191220601577221</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N38">
         <v>6</v>
       </c>
       <c r="O38">
-        <v>697.85</v>
+        <v>698.45</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2534,25 +2534,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C39">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F39">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="G39">
-        <v>-0.2</v>
+        <v>-1.43</v>
       </c>
       <c r="H39">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2561,19 +2561,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>1.541057489193308</v>
+        <v>0.326989508013837</v>
       </c>
       <c r="L39">
-        <v>1.090127035657482</v>
+        <v>0.4639057577279577</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>138.61</v>
+        <v>2236.4</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2581,25 +2581,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C40">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>20</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F40">
-        <v>0.15</v>
+        <v>0.82</v>
       </c>
       <c r="G40">
-        <v>0.44</v>
+        <v>-0.98</v>
       </c>
       <c r="H40">
-        <v>0.31</v>
+        <v>-1.3</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2608,19 +2608,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.3224702882469399</v>
       </c>
       <c r="L40">
-        <v>0.003409478349812479</v>
+        <v>0.3336912921259594</v>
       </c>
       <c r="M40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>260.7</v>
+        <v>307.45</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2628,25 +2628,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="G41">
-        <v>-1.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H41">
-        <v>0.31</v>
+        <v>-0.23</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2655,19 +2655,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.04473748547607041</v>
+        <v>0.06413956769932808</v>
       </c>
       <c r="L41">
-        <v>0.1386691666178395</v>
+        <v>0.287686996547756</v>
       </c>
       <c r="M41" t="s">
         <v>119</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>2237.5</v>
+        <v>349.5</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2675,7 +2675,7 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>70</v>
@@ -2687,13 +2687,13 @@
         <v>50</v>
       </c>
       <c r="F42">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="G42">
-        <v>-0.11</v>
+        <v>-0.87</v>
       </c>
       <c r="H42">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2702,19 +2702,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.05627647952250012</v>
+        <v>0.4649886720426868</v>
       </c>
       <c r="L42">
-        <v>0.2660753880266075</v>
+        <v>0.5632206891954943</v>
       </c>
       <c r="M42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N42">
         <v>5</v>
       </c>
       <c r="O42">
-        <v>1540</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2722,25 +2722,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>70</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="G43">
-        <v>-0.16</v>
+        <v>0.75</v>
       </c>
       <c r="H43">
-        <v>-0.46</v>
+        <v>0.31</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2749,19 +2749,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2.505925876697304</v>
       </c>
       <c r="L43">
-        <v>0.1544607190412783</v>
+        <v>2.503097893432466</v>
       </c>
       <c r="M43" t="s">
         <v>120</v>
       </c>
       <c r="N43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O43">
-        <v>3185</v>
+        <v>260.8</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2769,25 +2769,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C44">
         <v>70</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>0.92</v>
+        <v>0.23</v>
       </c>
       <c r="G44">
-        <v>-0.14</v>
+        <v>0.43</v>
       </c>
       <c r="H44">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2796,19 +2796,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>1.925501432664756</v>
+        <v>0.2286214999800975</v>
       </c>
       <c r="L44">
-        <v>2.957746478873239</v>
+        <v>0.7258778400708173</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>31755</v>
+        <v>1540.6</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2816,25 +2816,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>1.1</v>
+        <v>0.43</v>
       </c>
       <c r="G45">
-        <v>0.61</v>
+        <v>-1.3</v>
       </c>
       <c r="H45">
-        <v>-0.23</v>
+        <v>-0.95</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2843,19 +2843,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.2164878053770932</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.3869790874937567</v>
       </c>
       <c r="M45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>349.2</v>
+        <v>2261.5</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2863,7 +2863,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46">
         <v>65</v>
@@ -2875,13 +2875,13 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>1.1</v>
+        <v>0.18</v>
       </c>
       <c r="G46">
-        <v>-1.01</v>
+        <v>-1.02</v>
       </c>
       <c r="H46">
-        <v>-1.48</v>
+        <v>0.06</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2890,19 +2890,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.08779210239950394</v>
+        <v>0.06534548930645295</v>
       </c>
       <c r="L46">
-        <v>0.2644942411997321</v>
+        <v>0.09026409144659046</v>
       </c>
       <c r="M46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N46">
         <v>2</v>
       </c>
       <c r="O46">
-        <v>798.75</v>
+        <v>772.6</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2922,10 +2922,10 @@
         <v>20</v>
       </c>
       <c r="F47">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="G47">
-        <v>-1.11</v>
+        <v>-1.16</v>
       </c>
       <c r="H47">
         <v>-0.77</v>
@@ -2937,19 +2937,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.05650686981473015</v>
+        <v>0.1292453933272402</v>
       </c>
       <c r="L47">
-        <v>0.1270319733017548</v>
+        <v>0.5509804334547905</v>
       </c>
       <c r="M47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N47">
         <v>2</v>
       </c>
       <c r="O47">
-        <v>1154.9</v>
+        <v>1153.8</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2957,7 +2957,7 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48">
         <v>65</v>
@@ -2969,13 +2969,13 @@
         <v>20</v>
       </c>
       <c r="F48">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="G48">
-        <v>-1.26</v>
+        <v>-1.71</v>
       </c>
       <c r="H48">
-        <v>0.06</v>
+        <v>-1.44</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -2984,19 +2984,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.04445169594460995</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.2631353021978022</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="M48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N48">
         <v>2</v>
       </c>
       <c r="O48">
-        <v>772.05</v>
+        <v>4456.4</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3004,25 +3004,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F49">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="G49">
-        <v>-1.36</v>
+        <v>-0.26</v>
       </c>
       <c r="H49">
-        <v>-0.95</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3031,19 +3031,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.08178485978095675</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0.6178396072013094</v>
+        <v>0</v>
       </c>
       <c r="M49" t="s">
         <v>119</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>2260.2</v>
+        <v>419.45</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3051,7 +3051,7 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C50">
         <v>60</v>
@@ -3063,13 +3063,13 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
       <c r="G50">
-        <v>-0.76</v>
+        <v>-0.19</v>
       </c>
       <c r="H50">
-        <v>-0.87</v>
+        <v>0.05</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3078,19 +3078,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.04792066467736799</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0.04012334212579411</v>
+        <v>0.4639096596978484</v>
       </c>
       <c r="M50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N50">
         <v>4</v>
       </c>
       <c r="O50">
-        <v>28.63</v>
+        <v>647.75</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3098,25 +3098,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F51">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="G51">
-        <v>-0.37</v>
+        <v>-0.24</v>
       </c>
       <c r="H51">
-        <v>0.05</v>
+        <v>-0.46</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3125,19 +3125,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>6.328570027724391</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2.489864059146196</v>
       </c>
       <c r="M51" t="s">
         <v>120</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O51">
-        <v>647.5</v>
+        <v>3181.1</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3145,7 +3145,7 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52">
         <v>60</v>
@@ -3157,13 +3157,13 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G52">
-        <v>-0.05</v>
+        <v>-0.66</v>
       </c>
       <c r="H52">
-        <v>0.05</v>
+        <v>-0.87</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3172,19 +3172,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.06640344241483619</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>0.2668202904702708</v>
+        <v>0.0009859259076680387</v>
       </c>
       <c r="M52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N52">
         <v>4</v>
       </c>
       <c r="O52">
-        <v>1925.5</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3192,7 +3192,7 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>55</v>
@@ -3204,13 +3204,13 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>0.51</v>
+        <v>1.08</v>
       </c>
       <c r="G53">
-        <v>-1.38</v>
+        <v>-1.37</v>
       </c>
       <c r="H53">
-        <v>-1</v>
+        <v>-1.08</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3222,16 +3222,16 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.017319909301849</v>
+        <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
       <c r="O53">
-        <v>506.55</v>
+        <v>626.5</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3242,22 +3242,22 @@
         <v>107</v>
       </c>
       <c r="C54">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F54">
-        <v>0.53</v>
+        <v>0.28</v>
       </c>
       <c r="G54">
-        <v>-1.66</v>
+        <v>0.11</v>
       </c>
       <c r="H54">
-        <v>-1.44</v>
+        <v>0.02</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3266,19 +3266,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.6571834389773118</v>
+        <v>4.471544715447254</v>
       </c>
       <c r="L54">
-        <v>0.8125819134993447</v>
+        <v>5.641025641025641</v>
       </c>
       <c r="M54" t="s">
         <v>120</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>4454.7</v>
+        <v>424.25</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3286,25 +3286,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D55">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G55">
-        <v>-1.91</v>
+        <v>-0.95</v>
       </c>
       <c r="H55">
-        <v>-1.08</v>
+        <v>0.18</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3313,19 +3313,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.6663671253571122</v>
+        <v>0.05710862110724669</v>
       </c>
       <c r="L55">
-        <v>2.374482027560952</v>
+        <v>0.1019757807520714</v>
       </c>
       <c r="M55" t="s">
         <v>119</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>625</v>
+        <v>1527.5</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3345,13 +3345,13 @@
         <v>30</v>
       </c>
       <c r="F56">
-        <v>1.66</v>
+        <v>0.76</v>
       </c>
       <c r="G56">
-        <v>4.61</v>
+        <v>1.03</v>
       </c>
       <c r="H56">
-        <v>3.19</v>
+        <v>-0.2</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3360,19 +3360,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.1041038210600044</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0.3784452760126877</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="M56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N56">
         <v>3</v>
       </c>
       <c r="O56">
-        <v>265.7</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3380,7 +3380,7 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C57">
         <v>50</v>
@@ -3392,13 +3392,13 @@
         <v>30</v>
       </c>
       <c r="F57">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="G57">
-        <v>-1</v>
+        <v>-0.06</v>
       </c>
       <c r="H57">
-        <v>0.18</v>
+        <v>-1.29</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3410,16 +3410,16 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.005377789728421619</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N57">
         <v>3</v>
       </c>
       <c r="O57">
-        <v>1527.1</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3427,7 +3427,7 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C58">
         <v>50</v>
@@ -3439,13 +3439,13 @@
         <v>30</v>
       </c>
       <c r="F58">
-        <v>0.77</v>
+        <v>0.27</v>
       </c>
       <c r="G58">
-        <v>0.6899999999999999</v>
+        <v>-0.28</v>
       </c>
       <c r="H58">
-        <v>-0.2</v>
+        <v>-0.73</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3460,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N58">
         <v>3</v>
       </c>
       <c r="O58">
-        <v>5155.5</v>
+        <v>3025.5</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3474,7 +3474,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -3486,13 +3486,13 @@
         <v>30</v>
       </c>
       <c r="F59">
-        <v>0.72</v>
+        <v>1.14</v>
       </c>
       <c r="G59">
-        <v>-0.25</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H59">
-        <v>-1.29</v>
+        <v>-0.01</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3501,19 +3501,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.09583831060954552</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1.161397670549085</v>
       </c>
       <c r="M59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N59">
         <v>3</v>
       </c>
       <c r="O59">
-        <v>323.3</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3521,7 +3521,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -3533,13 +3533,13 @@
         <v>30</v>
       </c>
       <c r="F60">
-        <v>-0.07000000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="G60">
-        <v>-0.68</v>
+        <v>0.75</v>
       </c>
       <c r="H60">
-        <v>-0.73</v>
+        <v>-0.83</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3548,19 +3548,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.3648594466967049</v>
       </c>
       <c r="L60">
-        <v>0.03891050583657588</v>
+        <v>0.5874125874125874</v>
       </c>
       <c r="M60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N60">
         <v>3</v>
       </c>
       <c r="O60">
-        <v>3017.4</v>
+        <v>927.7</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3568,7 +3568,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C61">
         <v>50</v>
@@ -3580,13 +3580,13 @@
         <v>30</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="G61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="H61">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3598,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.05728084461166957</v>
       </c>
       <c r="M61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N61">
         <v>3</v>
       </c>
       <c r="O61">
-        <v>1044.3</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3615,25 +3615,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62">
         <v>50</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F62">
-        <v>1.28</v>
+        <v>0.54</v>
       </c>
       <c r="G62">
-        <v>-0.17</v>
+        <v>0.05</v>
       </c>
       <c r="H62">
-        <v>-0.31</v>
+        <v>0.05</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3642,19 +3642,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0.01492537313432836</v>
+        <v>1.923301987972853</v>
       </c>
       <c r="L62">
-        <v>0.1574803149606299</v>
+        <v>2.426629324931443</v>
       </c>
       <c r="M62" t="s">
         <v>120</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O62">
-        <v>44245</v>
+        <v>1924.3</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3662,7 +3662,7 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -3674,13 +3674,13 @@
         <v>30</v>
       </c>
       <c r="F63">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="G63">
-        <v>-0.65</v>
+        <v>0.05</v>
       </c>
       <c r="H63">
-        <v>0.36</v>
+        <v>-0.41</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3689,19 +3689,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.2818996639192134</v>
       </c>
       <c r="L63">
-        <v>0.9013821192495159</v>
+        <v>0.6671604907532477</v>
       </c>
       <c r="M63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63">
-        <v>61.5</v>
+        <v>751.65</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3709,25 +3709,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D64">
         <v>20</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F64">
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
       <c r="G64">
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
       <c r="H64">
-        <v>-0.83</v>
+        <v>-0.74</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3736,19 +3736,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.02045908773755532</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>0.06360527960586786</v>
       </c>
       <c r="M64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>926.8</v>
+        <v>199.9</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3756,25 +3756,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F65">
-        <v>0.67</v>
+        <v>1.31</v>
       </c>
       <c r="G65">
-        <v>0.32</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H65">
-        <v>-0.01</v>
+        <v>-1.48</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3783,19 +3783,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.01866977829637959</v>
+        <v>0.2836930369519372</v>
       </c>
       <c r="L65">
-        <v>0.08136696501220504</v>
+        <v>0.9243549991224478</v>
       </c>
       <c r="M65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>101.64</v>
+        <v>799.35</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3803,25 +3803,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>0.34</v>
+        <v>-0.14</v>
       </c>
       <c r="G66">
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="H66">
-        <v>0.02</v>
+        <v>-0.24</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3830,19 +3830,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.7715624138881254</v>
+        <v>0.09479634414174093</v>
       </c>
       <c r="L66">
-        <v>0.408997955010225</v>
+        <v>0.4039204920647875</v>
       </c>
       <c r="M66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>424.3</v>
+        <v>1400.4</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3850,25 +3850,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67">
         <v>40</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F67">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="G67">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="H67">
-        <v>-0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3877,19 +3877,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>1.340396545634404</v>
+        <v>0.436327370192619</v>
       </c>
       <c r="L67">
-        <v>1.52732655627751</v>
+        <v>0.4548408057179987</v>
       </c>
       <c r="M67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>752.35</v>
+        <v>518.15</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3897,25 +3897,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C68">
         <v>40</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F68">
-        <v>-0.03</v>
+        <v>1.61</v>
       </c>
       <c r="G68">
-        <v>-0.11</v>
+        <v>5.23</v>
       </c>
       <c r="H68">
-        <v>-0.24</v>
+        <v>3.19</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3924,19 +3924,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.4052040746239994</v>
+        <v>0.7061533311095058</v>
       </c>
       <c r="L68">
-        <v>0.7651382687965776</v>
+        <v>0.8753351058746242</v>
       </c>
       <c r="M68" t="s">
         <v>120</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>1400.5</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3944,7 +3944,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C69">
         <v>40</v>
@@ -3956,13 +3956,13 @@
         <v>20</v>
       </c>
       <c r="F69">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="G69">
-        <v>-0.91</v>
+        <v>-0.27</v>
       </c>
       <c r="H69">
-        <v>0.54</v>
+        <v>-0.23</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -3971,19 +3971,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.2181485674475825</v>
+        <v>0.0001694635208587955</v>
       </c>
       <c r="L69">
-        <v>1.361968193557156</v>
+        <v>0.000455715815617381</v>
       </c>
       <c r="M69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N69">
         <v>2</v>
       </c>
       <c r="O69">
-        <v>235</v>
+        <v>309.95</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3991,7 +3991,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C70">
         <v>40</v>
@@ -4003,13 +4003,13 @@
         <v>20</v>
       </c>
       <c r="F70">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="G70">
-        <v>-0.48</v>
+        <v>2.19</v>
       </c>
       <c r="H70">
-        <v>-0.23</v>
+        <v>0.78</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4018,19 +4018,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.3804185351269371</v>
+        <v>0.02999337685684872</v>
       </c>
       <c r="L70">
-        <v>0.8665120337071478</v>
+        <v>0.06196368185461014</v>
       </c>
       <c r="M70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N70">
         <v>2</v>
       </c>
       <c r="O70">
-        <v>310.15</v>
+        <v>1097.4</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4038,25 +4038,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D71">
         <v>20</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>1.28</v>
+        <v>-0.41</v>
       </c>
       <c r="G71">
-        <v>0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="H71">
-        <v>0.32</v>
+        <v>-1.6</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4065,19 +4065,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.2227593457340823</v>
       </c>
       <c r="L71">
-        <v>0.0002606440514511358</v>
+        <v>0.3068394207031653</v>
       </c>
       <c r="M71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>517.1</v>
+        <v>958</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4085,25 +4085,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C72">
         <v>30</v>
       </c>
       <c r="D72">
+        <v>20</v>
+      </c>
+      <c r="E72">
         <v>10</v>
       </c>
-      <c r="E72">
-        <v>20</v>
-      </c>
       <c r="F72">
-        <v>0.63</v>
+        <v>1.09</v>
       </c>
       <c r="G72">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="H72">
-        <v>-0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4112,19 +4112,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0.6506053451902091</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>0.5511750941092685</v>
+        <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>1460.6</v>
+        <v>1307.2</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4132,25 +4132,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C73">
         <v>30</v>
       </c>
       <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
         <v>10</v>
       </c>
-      <c r="E73">
-        <v>20</v>
-      </c>
       <c r="F73">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="G73">
-        <v>1.71</v>
+        <v>0.22</v>
       </c>
       <c r="H73">
-        <v>0.78</v>
+        <v>-0.71</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4159,19 +4159,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>4.849932718372999</v>
+        <v>0.01215734408790668</v>
       </c>
       <c r="L73">
-        <v>3.039644077222531</v>
+        <v>0.02681714062238114</v>
       </c>
       <c r="M73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>1092.4</v>
+        <v>869.05</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4179,7 +4179,7 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C74">
         <v>30</v>
@@ -4191,13 +4191,13 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>1.16</v>
+        <v>0.37</v>
       </c>
       <c r="G74">
-        <v>1.11</v>
+        <v>-0.31</v>
       </c>
       <c r="H74">
-        <v>-0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4209,16 +4209,16 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.0005158694334463947</v>
       </c>
       <c r="M74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>1131.4</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4226,25 +4226,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C75">
         <v>30</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G75">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="H75">
-        <v>-0.93</v>
+        <v>0.05</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4253,19 +4253,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>0.2402029300616236</v>
+        <v>1.375565610859752</v>
       </c>
       <c r="L75">
-        <v>0.1856594110115237</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="M75" t="s">
         <v>120</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>250.7</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4273,7 +4273,7 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C76">
         <v>30</v>
@@ -4285,13 +4285,13 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <v>-0.43</v>
+        <v>0.28</v>
       </c>
       <c r="G76">
-        <v>-0.44</v>
+        <v>0.84</v>
       </c>
       <c r="H76">
-        <v>-1.6</v>
+        <v>-0.93</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4300,19 +4300,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.4302257315885546</v>
+        <v>0.001209945754098263</v>
       </c>
       <c r="L76">
-        <v>0.6635975507847517</v>
+        <v>0.004768338234125408</v>
       </c>
       <c r="M76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
       <c r="O76">
-        <v>958.2</v>
+        <v>251.1</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4320,7 +4320,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C77">
         <v>30</v>
@@ -4332,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="G77">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="H77">
-        <v>0.25</v>
+        <v>-0.17</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4350,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>0.4020100502512563</v>
       </c>
       <c r="M77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
       <c r="O77">
-        <v>8381</v>
+        <v>1130.2</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4367,7 +4367,7 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78">
         <v>30</v>
@@ -4379,13 +4379,13 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="G78">
-        <v>-0.03</v>
+        <v>0.83</v>
       </c>
       <c r="H78">
-        <v>-0.71</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4394,19 +4394,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.02092967782146614</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0.05754908598510495</v>
+        <v>0.006631299734748011</v>
       </c>
       <c r="M78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
       <c r="O78">
-        <v>868</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4414,7 +4414,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79">
         <v>30</v>
@@ -4426,13 +4426,13 @@
         <v>20</v>
       </c>
       <c r="F79">
-        <v>1.01</v>
+        <v>0.37</v>
       </c>
       <c r="G79">
-        <v>-0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H79">
-        <v>-0.74</v>
+        <v>-0.39</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4441,19 +4441,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>16.83879343927486</v>
+        <v>0.6003391549099057</v>
       </c>
       <c r="L79">
-        <v>14.42663916544366</v>
+        <v>0.3394353945911751</v>
       </c>
       <c r="M79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N79">
         <v>2</v>
       </c>
       <c r="O79">
-        <v>199.5</v>
+        <v>1458.4</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4473,13 +4473,13 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>1.63</v>
+        <v>0.66</v>
       </c>
       <c r="G80">
-        <v>-0.26</v>
+        <v>-0.01</v>
       </c>
       <c r="H80">
-        <v>-0.78</v>
+        <v>-0.36</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4488,19 +4488,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0.01643646408840172</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0.1483605535469393</v>
+        <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
       <c r="O80">
-        <v>371.55</v>
+        <v>522.4</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4514,19 +4514,19 @@
         <v>30</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F81">
-        <v>0.29</v>
+        <v>0.92</v>
       </c>
       <c r="G81">
-        <v>-0.15</v>
+        <v>-0.09</v>
       </c>
       <c r="H81">
-        <v>-0.11</v>
+        <v>-0.31</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4535,19 +4535,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.1434626671014056</v>
+        <v>1.107382550335571</v>
       </c>
       <c r="L81">
-        <v>0.09216589861751152</v>
+        <v>1.057692307692308</v>
       </c>
       <c r="M81" t="s">
         <v>120</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>1853.1</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4555,7 +4555,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82">
         <v>30</v>
@@ -4567,13 +4567,13 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>0.4</v>
+        <v>1.47</v>
       </c>
       <c r="G82">
-        <v>-0.23</v>
+        <v>2.88</v>
       </c>
       <c r="H82">
-        <v>-0.59</v>
+        <v>0.15</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4582,19 +4582,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>0.0005205954268211904</v>
       </c>
       <c r="L82">
-        <v>0.03218760777100816</v>
+        <v>0.007489008068802243</v>
       </c>
       <c r="M82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
       <c r="O82">
-        <v>571.95</v>
+        <v>389.9</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4602,7 +4602,7 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83">
         <v>30</v>
@@ -4614,13 +4614,13 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>0.82</v>
+        <v>1.6</v>
       </c>
       <c r="G83">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="H83">
-        <v>-0.4</v>
+        <v>-0.78</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4629,19 +4629,19 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0.02535423560473994</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0.157013043209495</v>
+        <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
       <c r="O83">
-        <v>1390</v>
+        <v>372.35</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4649,7 +4649,7 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -4661,13 +4661,13 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>0.86</v>
+        <v>1.33</v>
       </c>
       <c r="G84">
-        <v>-0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H84">
-        <v>-0.58</v>
+        <v>-0.86</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4676,19 +4676,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>0.0123460988697882</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>0.06934595993215904</v>
       </c>
       <c r="M84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>147.4</v>
+        <v>426.5</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4696,7 +4696,7 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C85">
         <v>30</v>
@@ -4708,13 +4708,13 @@
         <v>10</v>
       </c>
       <c r="F85">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="G85">
-        <v>0.55</v>
+        <v>-0.2</v>
       </c>
       <c r="H85">
-        <v>-0.22</v>
+        <v>-0.58</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4729,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
       <c r="O85">
-        <v>200.79</v>
+        <v>147.63</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4743,7 +4743,7 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C86">
         <v>30</v>
@@ -4755,13 +4755,13 @@
         <v>10</v>
       </c>
       <c r="F86">
-        <v>1.34</v>
+        <v>0.68</v>
       </c>
       <c r="G86">
-        <v>-0.05</v>
+        <v>0.4</v>
       </c>
       <c r="H86">
-        <v>-0.86</v>
+        <v>-0.12</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4770,19 +4770,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0.00661758070606945</v>
+        <v>0.159236083104579</v>
       </c>
       <c r="L86">
-        <v>0.04383731485376492</v>
+        <v>0.2264519566633118</v>
       </c>
       <c r="M86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
       <c r="O86">
-        <v>426.6</v>
+        <v>42.67</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4790,7 +4790,7 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -4802,13 +4802,13 @@
         <v>10</v>
       </c>
       <c r="F87">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="G87">
-        <v>-0.1</v>
+        <v>-0.83</v>
       </c>
       <c r="H87">
-        <v>-0.36</v>
+        <v>-1</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4817,19 +4817,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.1050287248600105</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>0.2807365586126955</v>
       </c>
       <c r="M87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N87">
         <v>1</v>
       </c>
       <c r="O87">
-        <v>522</v>
+        <v>507.2</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4837,7 +4837,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C88">
         <v>30</v>
@@ -4849,13 +4849,13 @@
         <v>10</v>
       </c>
       <c r="F88">
-        <v>1.36</v>
+        <v>0.59</v>
       </c>
       <c r="G88">
-        <v>1.97</v>
+        <v>-0.22</v>
       </c>
       <c r="H88">
-        <v>0.15</v>
+        <v>-0.4</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4864,19 +4864,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.1731820862087466</v>
       </c>
       <c r="L88">
-        <v>0.08925355213127877</v>
+        <v>0.280618477540051</v>
       </c>
       <c r="M88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
       <c r="O88">
-        <v>387.9</v>
+        <v>1388.1</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4887,22 +4887,22 @@
         <v>107</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>10</v>
       </c>
       <c r="F89">
-        <v>0.59</v>
+        <v>-0.41</v>
       </c>
       <c r="G89">
-        <v>0.45</v>
+        <v>-0.55</v>
       </c>
       <c r="H89">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4911,19 +4911,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0.6300391058755539</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0.6628874462832587</v>
+        <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
       <c r="O89">
-        <v>42.62</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4931,25 +4931,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>10</v>
       </c>
       <c r="F90">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="G90">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="H90">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -4958,19 +4958,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>2.816010124980238</v>
+        <v>0.009796827163929864</v>
       </c>
       <c r="L90">
-        <v>2.314694408322497</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="M90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>1308</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4978,25 +4978,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91">
-        <v>1.2</v>
+        <v>0.54</v>
       </c>
       <c r="G91">
-        <v>-0.13</v>
+        <v>-0.18</v>
       </c>
       <c r="H91">
-        <v>0.27</v>
+        <v>-0.59</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5005,19 +5005,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>1.172428035760128</v>
+        <v>0.03037052034824726</v>
       </c>
       <c r="L91">
-        <v>1.041164902666991</v>
+        <v>0.06178560395427865</v>
       </c>
       <c r="M91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N91">
         <v>1</v>
       </c>
       <c r="O91">
-        <v>95.16</v>
+        <v>572.1</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5025,25 +5025,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
         <v>10</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92">
-        <v>1.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G92">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="H92">
-        <v>-0.6899999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5052,19 +5052,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0.9200928381962777</v>
+        <v>1.651754989676653</v>
       </c>
       <c r="L92">
-        <v>0.9078640657588026</v>
+        <v>3.319502074688797</v>
       </c>
       <c r="M92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N92">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>79.59</v>
+        <v>200.45</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -64,130 +64,211 @@
     <t>AUBANK</t>
   </si>
   <si>
+    <t>TATATECH</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
     <t>POWERGRID</t>
   </si>
   <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
     <t>CHOLAFIN</t>
   </si>
   <si>
-    <t>TATATECH</t>
-  </si>
-  <si>
     <t>SPARC</t>
   </si>
   <si>
+    <t>GUJGASLTD</t>
+  </si>
+  <si>
     <t>MGL</t>
   </si>
   <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>HAPPSTMNDS</t>
+  </si>
+  <si>
+    <t>SHRIRAMFIN</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
   </si>
   <si>
     <t>ICICIPRULI</t>
   </si>
   <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>HAPPSTMNDS</t>
-  </si>
-  <si>
-    <t>AARTIIND</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>GUJGASLTD</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>IRB</t>
-  </si>
-  <si>
-    <t>SHRIRAMFIN</t>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>POONAWALLA</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>CELLO</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>TRITURBINE</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>IREDA</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>EQUITASBNK</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>ANGELONE</t>
+  </si>
+  <si>
+    <t>AZAD</t>
+  </si>
+  <si>
+    <t>RENUKA</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
   </si>
   <si>
     <t>RECLTD</t>
   </si>
   <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>POONAWALLA</t>
-  </si>
-  <si>
-    <t>CELLO</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>TRITURBINE</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>M&amp;MFIN</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>EQUITASBNK</t>
-  </si>
-  <si>
-    <t>RAYMOND</t>
-  </si>
-  <si>
-    <t>IREDA</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>SBICARD</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
+  </si>
+  <si>
+    <t>LATENTVIEW</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>CHENNPETRO</t>
   </si>
   <si>
     <t>SMSPHARMA</t>
   </si>
   <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>ANGELONE</t>
+    <t>TMB</t>
   </si>
   <si>
     <t>RVNL</t>
   </si>
   <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>AZAD</t>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>SANOFI</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>ALEMBICLTD</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>MMTC</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>JINDALSAW</t>
+  </si>
+  <si>
+    <t>RKFORGE</t>
+  </si>
+  <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
+    <t>PRSMJOHNSN</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -196,190 +277,109 @@
     <t>HDFCLIFE</t>
   </si>
   <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>SKFINDIA</t>
-  </si>
-  <si>
-    <t>LATENTVIEW</t>
-  </si>
-  <si>
-    <t>CHENNPETRO</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>RENUKA</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>AAVAS</t>
-  </si>
-  <si>
-    <t>SANOFI</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>ALEMBICLTD</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>MMTC</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>JINDALSAW</t>
-  </si>
-  <si>
-    <t>SBICARD</t>
+    <t>BPCL</t>
   </si>
   <si>
     <t>ICICIBANK</t>
   </si>
   <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>BPCL</t>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
   </si>
   <si>
     <t>BATAINDIA</t>
   </si>
   <si>
-    <t>HDFCBANK</t>
+    <t>UJJIVANSFB</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
+  </si>
+  <si>
+    <t>ANURAS</t>
+  </si>
+  <si>
+    <t>EMBDL</t>
+  </si>
+  <si>
+    <t>KALYANKJIL</t>
   </si>
   <si>
     <t>WHIRLPOOL</t>
   </si>
   <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>EMBDL</t>
-  </si>
-  <si>
-    <t>MAITHANALL</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>ANURAS</t>
-  </si>
-  <si>
     <t>RBA</t>
   </si>
   <si>
-    <t>HCLTECH</t>
+    <t>MVGJL</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>BSOFT</t>
+  </si>
+  <si>
+    <t>ASTRAZEN</t>
   </si>
   <si>
     <t>GNFC</t>
   </si>
   <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>BSOFT</t>
-  </si>
-  <si>
-    <t>VEDL</t>
-  </si>
-  <si>
-    <t>PRSMJOHNSN</t>
-  </si>
-  <si>
-    <t>UJJIVANSFB</t>
-  </si>
-  <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
     <t>NAUKRI</t>
   </si>
   <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>ASTRAZEN</t>
-  </si>
-  <si>
-    <t>RKFORGE</t>
-  </si>
-  <si>
-    <t>MVGJL</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Utilities</t>
   </si>
   <si>
     <t>Industrials</t>
   </si>
   <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>Communication Services</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
     <t>Real Estate</t>
   </si>
   <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
     <t>Weak Short</t>
   </si>
   <si>
     <t>Neutral</t>
   </si>
   <si>
+    <t>Short</t>
+  </si>
+  <si>
     <t>No Signal</t>
-  </si>
-  <si>
-    <t>Short</t>
   </si>
 </sst>
 </file>
@@ -807,10 +807,10 @@
         <v>150</v>
       </c>
       <c r="F2">
-        <v>0.66</v>
+        <v>1.13</v>
       </c>
       <c r="G2">
-        <v>-0.51</v>
+        <v>-0.29</v>
       </c>
       <c r="H2">
         <v>-2.15</v>
@@ -822,10 +822,10 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0003432967739873932</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.001334373460338315</v>
       </c>
       <c r="M2" t="s">
         <v>118</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="O2">
-        <v>726.05</v>
+        <v>727.9</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -845,22 +845,22 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F3">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G3">
-        <v>-0.27</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>-1.95</v>
+        <v>-2.5</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -869,19 +869,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.05082834149705944</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2174228472571014</v>
+        <v>0.05076702350733914</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>275.25</v>
+        <v>666.4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -889,25 +889,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>160</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>0.97</v>
+        <v>0.61</v>
       </c>
       <c r="G4">
-        <v>-0.03</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>-2.47</v>
+        <v>0.57</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -916,19 +916,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.4127607271927584</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6748852695041843</v>
+        <v>0.0382866714525006</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>1444.4</v>
+        <v>1032.4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -939,22 +939,22 @@
         <v>107</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="G5">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-2.5</v>
+        <v>-1.95</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -963,19 +963,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>1.042619602806529</v>
+        <v>0.001383918693921134</v>
       </c>
       <c r="L5">
-        <v>1.466129796305069</v>
+        <v>0.005380826322205209</v>
       </c>
       <c r="M5" t="s">
         <v>119</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>665.7</v>
+        <v>275.4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>140</v>
@@ -995,13 +995,13 @@
         <v>120</v>
       </c>
       <c r="F6">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G6">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="H6">
-        <v>-0.32</v>
+        <v>-0.82</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1010,10 +1010,10 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.06351017883467501</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5004462140454452</v>
       </c>
       <c r="M6" t="s">
         <v>119</v>
@@ -1022,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="O6">
-        <v>141.13</v>
+        <v>635.05</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1030,25 +1030,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>140</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F7">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>-0.89</v>
+        <v>0.27</v>
       </c>
       <c r="H7">
-        <v>-0.63</v>
+        <v>-2.47</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1057,19 +1057,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.04980117259124533</v>
+        <v>2.988110175641245</v>
       </c>
       <c r="L7">
-        <v>0.09847806624888093</v>
+        <v>1.131045886730054</v>
       </c>
       <c r="M7" t="s">
         <v>119</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O7">
-        <v>1262.9</v>
+        <v>1448.7</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <v>140</v>
@@ -1089,13 +1089,13 @@
         <v>120</v>
       </c>
       <c r="F8">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="G8">
-        <v>-0.44</v>
+        <v>0.53</v>
       </c>
       <c r="H8">
-        <v>-0.82</v>
+        <v>-0.32</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1104,10 +1104,10 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.221366607698701</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4062711599562477</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
         <v>119</v>
@@ -1116,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="O8">
-        <v>634.2</v>
+        <v>141.15</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1124,25 +1124,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>140</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F9">
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="G9">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1151,19 +1151,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>1.268912472456377</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.486399103332328</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O9">
-        <v>1032.6</v>
+        <v>420.6</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1171,25 +1171,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F10">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="G10">
-        <v>-1.14</v>
+        <v>-0.75</v>
       </c>
       <c r="H10">
-        <v>-1.1</v>
+        <v>-0.63</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.001803101334294987</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>606.8</v>
+        <v>1265.1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1218,22 +1218,22 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>120</v>
       </c>
       <c r="F11">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="G11">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="H11">
         <v>-0.15</v>
@@ -1245,19 +1245,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.8148819585649536</v>
+        <v>0.01471394131371275</v>
       </c>
       <c r="L11">
-        <v>1.70437931270069</v>
+        <v>0.07558069923371648</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11">
         <v>12</v>
       </c>
       <c r="O11">
-        <v>139.4</v>
+        <v>139.78</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1277,13 +1277,13 @@
         <v>110</v>
       </c>
       <c r="F12">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="G12">
-        <v>0.24</v>
+        <v>2.02</v>
       </c>
       <c r="H12">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1292,10 +1292,10 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.0003643717320406859</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.004070004070004071</v>
+        <v>0.0004160529885086164</v>
       </c>
       <c r="M12" t="s">
         <v>119</v>
@@ -1304,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="O12">
-        <v>567.15</v>
+        <v>43.46</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1312,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>130</v>
@@ -1324,13 +1324,13 @@
         <v>110</v>
       </c>
       <c r="F13">
-        <v>0.89</v>
+        <v>1.47</v>
       </c>
       <c r="G13">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="H13">
-        <v>-1.31</v>
+        <v>-0.48</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0007679606804131628</v>
       </c>
       <c r="M13" t="s">
         <v>119</v>
@@ -1351,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="O13">
-        <v>379.7</v>
+        <v>438.25</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C14">
         <v>130</v>
@@ -1371,13 +1371,13 @@
         <v>110</v>
       </c>
       <c r="F14">
-        <v>1.94</v>
+        <v>0.97</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="H14">
-        <v>-0.48</v>
+        <v>-1.31</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1386,10 +1386,10 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.1058103411153098</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.166615003099814</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
         <v>119</v>
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="O14">
-        <v>438.3</v>
+        <v>381.1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1409,22 +1409,22 @@
         <v>113</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G15">
-        <v>-0.04</v>
+        <v>-1.29</v>
       </c>
       <c r="H15">
-        <v>0.29</v>
+        <v>-2.94</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1433,19 +1433,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.6386375731773258</v>
+        <v>0.03189949974993469</v>
       </c>
       <c r="L15">
-        <v>0.8547008547008547</v>
+        <v>0.1246045200300973</v>
       </c>
       <c r="M15" t="s">
         <v>120</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>420.75</v>
+        <v>69.69</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1453,25 +1453,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C16">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F16">
-        <v>0.83</v>
+        <v>0.58</v>
       </c>
       <c r="G16">
-        <v>-1.67</v>
+        <v>0.33</v>
       </c>
       <c r="H16">
-        <v>-2.94</v>
+        <v>0.59</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1480,19 +1480,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.1634776949336293</v>
+        <v>3.854349000540726</v>
       </c>
       <c r="L16">
-        <v>0.3693070962706951</v>
+        <v>3.253497747213659</v>
       </c>
       <c r="M16" t="s">
         <v>121</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O16">
-        <v>69.44</v>
+        <v>567.7</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1500,46 +1500,46 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17">
         <v>120</v>
       </c>
       <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>1.57</v>
+      </c>
+      <c r="G17">
+        <v>2.55</v>
+      </c>
+      <c r="H17">
+        <v>-0.66</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>0.07654387633766722</v>
+      </c>
+      <c r="L17">
+        <v>0.1818463429039247</v>
+      </c>
+      <c r="M17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>110</v>
-      </c>
-      <c r="F17">
-        <v>0.65</v>
-      </c>
-      <c r="G17">
-        <v>1.69</v>
-      </c>
-      <c r="H17">
-        <v>0.42</v>
-      </c>
-      <c r="I17">
-        <v>50</v>
-      </c>
-      <c r="J17">
-        <v>0.5</v>
-      </c>
-      <c r="K17">
-        <v>6.111215255882821</v>
-      </c>
-      <c r="L17">
-        <v>8.356750437432153</v>
-      </c>
-      <c r="M17" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17">
-        <v>11</v>
-      </c>
       <c r="O17">
-        <v>43.34</v>
+        <v>588.1</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1547,25 +1547,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>1.26</v>
+        <v>0.35</v>
       </c>
       <c r="G18">
-        <v>2.28</v>
+        <v>0.26</v>
       </c>
       <c r="H18">
-        <v>-0.66</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1574,19 +1574,19 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.2848512320143003</v>
+        <v>0.4880303924421803</v>
       </c>
       <c r="L18">
-        <v>0.5251458279659393</v>
+        <v>0.6707481162540365</v>
       </c>
       <c r="M18" t="s">
         <v>119</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>587.45</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1594,25 +1594,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F19">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
       <c r="G19">
-        <v>-1.43</v>
+        <v>0.61</v>
       </c>
       <c r="H19">
-        <v>-2.38</v>
+        <v>-0.12</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1621,19 +1621,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.248143220221923</v>
+        <v>0.009503444998812925</v>
       </c>
       <c r="L19">
-        <v>0.4273783475607877</v>
+        <v>0.01386001386001386</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O19">
-        <v>351.7</v>
+        <v>940.7</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1641,7 +1641,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>110</v>
@@ -1653,13 +1653,13 @@
         <v>90</v>
       </c>
       <c r="F20">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G20">
-        <v>-0.41</v>
+        <v>-0.93</v>
       </c>
       <c r="H20">
-        <v>-0.02</v>
+        <v>-1.1</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1668,10 +1668,10 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.02814847472572194</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1301858677750765</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
         <v>119</v>
@@ -1680,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="O20">
-        <v>8673</v>
+        <v>606.8</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1700,13 +1700,13 @@
         <v>90</v>
       </c>
       <c r="F21">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="G21">
-        <v>0.5600000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="H21">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1715,10 +1715,10 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3293538090331012</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5613385766057521</v>
       </c>
       <c r="M21" t="s">
         <v>119</v>
@@ -1727,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="O21">
-        <v>941.45</v>
+        <v>8681</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1735,25 +1735,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C22">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="G22">
-        <v>0.15</v>
+        <v>-4.43</v>
       </c>
       <c r="H22">
-        <v>0.3</v>
+        <v>-5.1</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1762,19 +1762,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.03256122114730216</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1517349913807611</v>
+        <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>1886.4</v>
+        <v>429.5</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1782,25 +1782,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C23">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>-0.02</v>
+        <v>0.14</v>
       </c>
       <c r="G23">
-        <v>-5.02</v>
+        <v>-0.17</v>
       </c>
       <c r="H23">
-        <v>-5.1</v>
+        <v>0.14</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1809,19 +1809,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.07071580105288069</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.167320801487296</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O23">
-        <v>428.4</v>
+        <v>138.69</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1829,7 +1829,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -1841,10 +1841,10 @@
         <v>80</v>
       </c>
       <c r="F24">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="G24">
-        <v>0.25</v>
+        <v>1.13</v>
       </c>
       <c r="H24">
         <v>-0.17</v>
@@ -1856,10 +1856,10 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.0622111519687425</v>
       </c>
       <c r="L24">
-        <v>0.02242152466367713</v>
+        <v>0.1344902386117137</v>
       </c>
       <c r="M24" t="s">
         <v>119</v>
@@ -1868,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="O24">
-        <v>539</v>
+        <v>541.15</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1876,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1888,13 +1888,13 @@
         <v>80</v>
       </c>
       <c r="F25">
-        <v>0.13</v>
+        <v>1.05</v>
       </c>
       <c r="G25">
-        <v>-0.14</v>
+        <v>-0.46</v>
       </c>
       <c r="H25">
-        <v>0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1903,10 +1903,10 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.4532335295343068</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8392729630392212</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
         <v>119</v>
@@ -1915,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="O25">
-        <v>138.5</v>
+        <v>804.8</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1923,7 +1923,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -1935,10 +1935,10 @@
         <v>80</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="G26">
-        <v>-0.72</v>
+        <v>-0.2</v>
       </c>
       <c r="H26">
         <v>-1.08</v>
@@ -1950,10 +1950,10 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.02622591635094219</v>
       </c>
       <c r="L26">
-        <v>0.001685866816521495</v>
+        <v>0.1680270119373621</v>
       </c>
       <c r="M26" t="s">
         <v>119</v>
@@ -1962,7 +1962,7 @@
         <v>8</v>
       </c>
       <c r="O26">
-        <v>918.7</v>
+        <v>919.8</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1973,22 +1973,22 @@
         <v>107</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>0.98</v>
+        <v>0.03</v>
       </c>
       <c r="G27">
-        <v>0.14</v>
+        <v>-1.03</v>
       </c>
       <c r="H27">
-        <v>-0.43</v>
+        <v>-0.55</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -1997,19 +1997,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.0123314647389324</v>
+        <v>0.124231318715441</v>
       </c>
       <c r="L27">
-        <v>0.0613154960981048</v>
+        <v>0.1401836405691456</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>805</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2023,19 +2023,19 @@
         <v>95</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>0.03</v>
+        <v>0.73</v>
       </c>
       <c r="G28">
-        <v>-1.03</v>
+        <v>-2.48</v>
       </c>
       <c r="H28">
-        <v>-0.55</v>
+        <v>-2.95</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2044,19 +2044,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.02075068939928048</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.203517757261271</v>
       </c>
       <c r="M28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>520</v>
+        <v>538.5</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2070,19 +2070,19 @@
         <v>95</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="G29">
-        <v>-2.72</v>
+        <v>-2.55</v>
       </c>
       <c r="H29">
-        <v>-2.95</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2091,19 +2091,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.06767421572039684</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0.1763464484981643</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>537.9</v>
+        <v>212.61</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2114,22 +2114,22 @@
         <v>107</v>
       </c>
       <c r="C30">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="G30">
-        <v>-2.1</v>
+        <v>-0.11</v>
       </c>
       <c r="H30">
-        <v>-0.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2138,19 +2138,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.04378287105280625</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.08954277802799046</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>256.3</v>
+        <v>141.53</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2161,22 +2161,22 @@
         <v>107</v>
       </c>
       <c r="C31">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F31">
-        <v>-0.03</v>
+        <v>0.48</v>
       </c>
       <c r="G31">
-        <v>-2.73</v>
+        <v>-0.09</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2185,19 +2185,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.2674155015246566</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.5533684502356528</v>
       </c>
       <c r="M31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O31">
-        <v>212.05</v>
+        <v>1065.3</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2217,10 +2217,10 @@
         <v>70</v>
       </c>
       <c r="F32">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="G32">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="H32">
         <v>0.14</v>
@@ -2232,10 +2232,10 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.001421651331647981</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.004985044865403789</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
         <v>119</v>
@@ -2244,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="O32">
-        <v>52.07</v>
+        <v>52.02</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2255,22 +2255,22 @@
         <v>107</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>0.49</v>
+        <v>0.92</v>
       </c>
       <c r="G33">
-        <v>-0.26</v>
+        <v>-1.13</v>
       </c>
       <c r="H33">
-        <v>0.67</v>
+        <v>-0.42</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2279,19 +2279,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.6321399295152828</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.353977691160886</v>
       </c>
       <c r="M33" t="s">
         <v>119</v>
       </c>
       <c r="N33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>604.45</v>
+        <v>257.8</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2302,22 +2302,22 @@
         <v>107</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>70</v>
       </c>
       <c r="F34">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="G34">
-        <v>-0.47</v>
+        <v>-0.08</v>
       </c>
       <c r="H34">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2326,19 +2326,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.01140713831594235</v>
+        <v>1.555526556178613</v>
       </c>
       <c r="L34">
-        <v>0.03185387314139333</v>
+        <v>2.374501992031873</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N34">
         <v>7</v>
       </c>
       <c r="O34">
-        <v>141.2</v>
+        <v>605.9</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2346,25 +2346,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F35">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="G35">
-        <v>-0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="H35">
-        <v>0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2373,19 +2373,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.07808716707021049</v>
+        <v>0.0816610871374104</v>
       </c>
       <c r="L35">
-        <v>0.1651411380656724</v>
+        <v>0.2151085737587929</v>
       </c>
       <c r="M35" t="s">
         <v>119</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>1065.4</v>
+        <v>699.1</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2393,25 +2393,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F36">
-        <v>-1.14</v>
+        <v>1.17</v>
       </c>
       <c r="G36">
-        <v>-1.09</v>
+        <v>0.24</v>
       </c>
       <c r="H36">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2420,19 +2420,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.1481612135108853</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.268370607028754</v>
+        <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>233.27</v>
+        <v>31870</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>1.26</v>
+        <v>0.58</v>
       </c>
       <c r="G37">
-        <v>0.17</v>
+        <v>-1.22</v>
       </c>
       <c r="H37">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2467,19 +2467,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.1488104018430599</v>
       </c>
       <c r="L37">
-        <v>0.4504504504504505</v>
+        <v>0.2016683022571148</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>31855</v>
+        <v>2237.5</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2487,25 +2487,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <v>20</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>0.51</v>
+        <v>0.83</v>
       </c>
       <c r="G38">
-        <v>-0.37</v>
+        <v>1.15</v>
       </c>
       <c r="H38">
-        <v>-0.24</v>
+        <v>0.44</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.191220601577221</v>
+        <v>0.02315484804630969</v>
       </c>
       <c r="M38" t="s">
         <v>119</v>
       </c>
       <c r="N38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O38">
-        <v>698.45</v>
+        <v>1550.7</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2534,25 +2534,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="G39">
-        <v>-1.43</v>
+        <v>-0.59</v>
       </c>
       <c r="H39">
-        <v>0.31</v>
+        <v>-0.87</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2561,19 +2561,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.326989508013837</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.4639057577279577</v>
+        <v>3.55036943162526</v>
       </c>
       <c r="M39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>2236.4</v>
+        <v>28.69</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2593,13 +2593,13 @@
         <v>50</v>
       </c>
       <c r="F40">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="G40">
-        <v>-0.98</v>
+        <v>0.75</v>
       </c>
       <c r="H40">
-        <v>-1.3</v>
+        <v>-0.23</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2608,10 +2608,10 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.3224702882469399</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.3336912921259594</v>
+        <v>0</v>
       </c>
       <c r="M40" t="s">
         <v>119</v>
@@ -2620,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="O40">
-        <v>307.45</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2634,19 +2634,19 @@
         <v>70</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="G41">
-        <v>0.6899999999999999</v>
+        <v>-0.93</v>
       </c>
       <c r="H41">
-        <v>-0.23</v>
+        <v>-2.38</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2655,19 +2655,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.06413956769932808</v>
+        <v>1.238080614155419</v>
       </c>
       <c r="L41">
-        <v>0.287686996547756</v>
+        <v>1.280701550071622</v>
       </c>
       <c r="M41" t="s">
         <v>119</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>349.5</v>
+        <v>353.1</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2675,7 +2675,7 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42">
         <v>70</v>
@@ -2687,13 +2687,13 @@
         <v>50</v>
       </c>
       <c r="F42">
-        <v>0.53</v>
+        <v>0.31</v>
       </c>
       <c r="G42">
-        <v>-0.87</v>
+        <v>-0.17</v>
       </c>
       <c r="H42">
-        <v>0.06</v>
+        <v>-0.46</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2702,10 +2702,10 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.4649886720426868</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.5632206891954943</v>
+        <v>0.1212403823735136</v>
       </c>
       <c r="M42" t="s">
         <v>119</v>
@@ -2714,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="O42">
-        <v>351.9</v>
+        <v>3185.9</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2728,19 +2728,19 @@
         <v>70</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>0.19</v>
+        <v>0.92</v>
       </c>
       <c r="G43">
-        <v>0.75</v>
+        <v>-0.68</v>
       </c>
       <c r="H43">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2749,19 +2749,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>2.505925876697304</v>
+        <v>0.0001330579034731701</v>
       </c>
       <c r="L43">
-        <v>2.503097893432466</v>
+        <v>0.0005903710482037961</v>
       </c>
       <c r="M43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>260.8</v>
+        <v>352.8</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2769,25 +2769,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44">
         <v>70</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F44">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="G44">
-        <v>0.43</v>
+        <v>1.12</v>
       </c>
       <c r="H44">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2796,19 +2796,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.2286214999800975</v>
+        <v>2.328803870239524</v>
       </c>
       <c r="L44">
-        <v>0.7258778400708173</v>
+        <v>4.475892476176931</v>
       </c>
       <c r="M44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O44">
-        <v>1540.6</v>
+        <v>261.6</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2816,7 +2816,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C45">
         <v>65</v>
@@ -2828,13 +2828,13 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="G45">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="H45">
-        <v>-0.95</v>
+        <v>-1.48</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2843,10 +2843,10 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0.2164878053770932</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.3869790874937567</v>
+        <v>0.01364349546353776</v>
       </c>
       <c r="M45" t="s">
         <v>118</v>
@@ -2855,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="O45">
-        <v>2261.5</v>
+        <v>799.4</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2863,7 +2863,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46">
         <v>65</v>
@@ -2875,13 +2875,13 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="G46">
-        <v>-1.02</v>
+        <v>-1.63</v>
       </c>
       <c r="H46">
-        <v>0.06</v>
+        <v>-1.44</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2890,10 +2890,10 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.06534548930645295</v>
+        <v>0.2988543914992595</v>
       </c>
       <c r="L46">
-        <v>0.09026409144659046</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="M46" t="s">
         <v>118</v>
@@ -2902,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="O46">
-        <v>772.6</v>
+        <v>4456.3</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2913,22 +2913,22 @@
         <v>107</v>
       </c>
       <c r="C47">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>0.14</v>
+        <v>-0.31</v>
       </c>
       <c r="G47">
-        <v>-1.16</v>
+        <v>-0.33</v>
       </c>
       <c r="H47">
-        <v>-0.77</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2937,19 +2937,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.1292453933272402</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.5509804334547905</v>
+        <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>1153.8</v>
+        <v>418.7</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2957,25 +2957,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="G48">
-        <v>-1.71</v>
+        <v>0.16</v>
       </c>
       <c r="H48">
-        <v>-1.44</v>
+        <v>0.05</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -2987,16 +2987,16 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.2097902097902098</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>4456.4</v>
+        <v>1924.6</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3004,7 +3004,7 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -3016,13 +3016,13 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="G49">
-        <v>-0.26</v>
+        <v>0.08</v>
       </c>
       <c r="H49">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3043,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="O49">
-        <v>419.45</v>
+        <v>648</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3051,25 +3051,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C50">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>0.18</v>
+        <v>-0.72</v>
       </c>
       <c r="G50">
-        <v>-0.19</v>
+        <v>-0.9</v>
       </c>
       <c r="H50">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3081,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.4639096596978484</v>
+        <v>0.00210017851517379</v>
       </c>
       <c r="M50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>647.75</v>
+        <v>233.98</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3104,19 +3104,19 @@
         <v>60</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F51">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="G51">
-        <v>-0.24</v>
+        <v>0.19</v>
       </c>
       <c r="H51">
-        <v>-0.46</v>
+        <v>0.02</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3125,19 +3125,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>6.328570027724391</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>2.489864059146196</v>
+        <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>3181.1</v>
+        <v>424.6</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3151,19 +3151,19 @@
         <v>60</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F52">
-        <v>0.5600000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="G52">
-        <v>-0.66</v>
+        <v>-0.26</v>
       </c>
       <c r="H52">
-        <v>-0.87</v>
+        <v>-1.3</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3172,19 +3172,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>7.375239137454574</v>
       </c>
       <c r="L52">
-        <v>0.0009859259076680387</v>
+        <v>4.01245681475354</v>
       </c>
       <c r="M52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>28.66</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3204,10 +3204,10 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="G53">
-        <v>-1.37</v>
+        <v>-1.25</v>
       </c>
       <c r="H53">
         <v>-1.08</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.9094667217858619</v>
       </c>
       <c r="M53" t="s">
         <v>118</v>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>626.5</v>
+        <v>626.2</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3245,19 +3245,19 @@
         <v>50</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
       <c r="G54">
-        <v>0.11</v>
+        <v>0.95</v>
       </c>
       <c r="H54">
-        <v>0.02</v>
+        <v>-0.2</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3266,19 +3266,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>4.471544715447254</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>5.641025641025641</v>
+        <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>424.25</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3286,7 +3286,7 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>50</v>
@@ -3298,13 +3298,13 @@
         <v>30</v>
       </c>
       <c r="F55">
-        <v>0.5600000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G55">
-        <v>-0.95</v>
+        <v>0.02</v>
       </c>
       <c r="H55">
-        <v>0.18</v>
+        <v>-1.29</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3313,10 +3313,10 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.05710862110724669</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.1019757807520714</v>
+        <v>0</v>
       </c>
       <c r="M55" t="s">
         <v>119</v>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="O55">
-        <v>1527.5</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3345,13 +3345,13 @@
         <v>30</v>
       </c>
       <c r="F56">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="G56">
-        <v>1.03</v>
+        <v>6.06</v>
       </c>
       <c r="H56">
-        <v>-0.2</v>
+        <v>3.19</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.186046511627907</v>
+        <v>0.001000619445975774</v>
       </c>
       <c r="M56" t="s">
         <v>119</v>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="O56">
-        <v>5174</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3380,7 +3380,7 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C57">
         <v>50</v>
@@ -3392,13 +3392,13 @@
         <v>30</v>
       </c>
       <c r="F57">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="G57">
-        <v>-0.06</v>
+        <v>-0.22</v>
       </c>
       <c r="H57">
-        <v>-1.29</v>
+        <v>0.05</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="O57">
-        <v>323.6</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3427,7 +3427,7 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58">
         <v>50</v>
@@ -3439,10 +3439,10 @@
         <v>30</v>
       </c>
       <c r="F58">
-        <v>0.27</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G58">
-        <v>-0.28</v>
+        <v>0.22</v>
       </c>
       <c r="H58">
         <v>-0.73</v>
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="O58">
-        <v>3025.5</v>
+        <v>3041.8</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3474,7 +3474,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -3486,13 +3486,13 @@
         <v>30</v>
       </c>
       <c r="F59">
-        <v>1.14</v>
+        <v>0.61</v>
       </c>
       <c r="G59">
-        <v>0.8100000000000001</v>
+        <v>-0.92</v>
       </c>
       <c r="H59">
-        <v>-0.01</v>
+        <v>0.18</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3501,10 +3501,10 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0.09583831060954552</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1.161397670549085</v>
+        <v>0</v>
       </c>
       <c r="M59" t="s">
         <v>119</v>
@@ -3513,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="O59">
-        <v>102.2</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3521,7 +3521,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -3533,13 +3533,13 @@
         <v>30</v>
       </c>
       <c r="F60">
-        <v>0.57</v>
+        <v>0.32</v>
       </c>
       <c r="G60">
-        <v>0.75</v>
+        <v>-0.09</v>
       </c>
       <c r="H60">
-        <v>-0.83</v>
+        <v>-0.31</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3548,10 +3548,10 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0.3648594466967049</v>
+        <v>0.2607561929595828</v>
       </c>
       <c r="L60">
-        <v>0.5874125874125874</v>
+        <v>0.6230529595015576</v>
       </c>
       <c r="M60" t="s">
         <v>119</v>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="O60">
-        <v>927.7</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3568,25 +3568,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C61">
         <v>50</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F61">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="G61">
-        <v>-0.5</v>
+        <v>0.78</v>
       </c>
       <c r="H61">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3598,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0.05728084461166957</v>
+        <v>3.787236904041423</v>
       </c>
       <c r="M61" t="s">
         <v>119</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>61.6</v>
+        <v>519.5</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3615,25 +3615,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C62">
         <v>50</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F62">
-        <v>0.54</v>
+        <v>1.23</v>
       </c>
       <c r="G62">
-        <v>0.05</v>
+        <v>0.57</v>
       </c>
       <c r="H62">
-        <v>0.05</v>
+        <v>-0.41</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3642,19 +3642,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>1.923301987972853</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>2.426629324931443</v>
+        <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>1924.3</v>
+        <v>753.65</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3662,7 +3662,7 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -3674,13 +3674,13 @@
         <v>30</v>
       </c>
       <c r="F63">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="G63">
-        <v>0.05</v>
+        <v>1.16</v>
       </c>
       <c r="H63">
-        <v>-0.41</v>
+        <v>-0.01</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3689,10 +3689,10 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0.2818996639192134</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0.6671604907532477</v>
+        <v>0</v>
       </c>
       <c r="M63" t="s">
         <v>119</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="O63">
-        <v>751.65</v>
+        <v>102.58</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3712,22 +3712,22 @@
         <v>112</v>
       </c>
       <c r="C64">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D64">
         <v>20</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F64">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="G64">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
       <c r="H64">
-        <v>-0.74</v>
+        <v>-0.83</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3736,19 +3736,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.02045908773755532</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0.06360527960586786</v>
+        <v>0</v>
       </c>
       <c r="M64" t="s">
         <v>119</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>199.9</v>
+        <v>927.85</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3759,22 +3759,22 @@
         <v>107</v>
       </c>
       <c r="C65">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>1.31</v>
+        <v>0.74</v>
       </c>
       <c r="G65">
-        <v>-0.9399999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="H65">
-        <v>-1.48</v>
+        <v>0.36</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3783,19 +3783,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.2836930369519372</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0.9243549991224478</v>
+        <v>0.003566333808844508</v>
       </c>
       <c r="M65" t="s">
         <v>119</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>799.35</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3803,25 +3803,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
         <v>40</v>
       </c>
-      <c r="D66">
-        <v>20</v>
-      </c>
       <c r="E66">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>-0.14</v>
+        <v>-0.73</v>
       </c>
       <c r="G66">
-        <v>-0.05</v>
+        <v>-0.6</v>
       </c>
       <c r="H66">
-        <v>-0.24</v>
+        <v>-0.11</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3830,19 +3830,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.09479634414174093</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0.4039204920647875</v>
+        <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>1400.4</v>
+        <v>1845.6</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3850,7 +3850,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C67">
         <v>40</v>
@@ -3862,13 +3862,13 @@
         <v>20</v>
       </c>
       <c r="F67">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
       <c r="G67">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="H67">
-        <v>0.32</v>
+        <v>-0.39</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3877,10 +3877,10 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.436327370192619</v>
+        <v>0.0007384274571936799</v>
       </c>
       <c r="L67">
-        <v>0.4548408057179987</v>
+        <v>0.004686172861201418</v>
       </c>
       <c r="M67" t="s">
         <v>119</v>
@@ -3889,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="O67">
-        <v>518.15</v>
+        <v>1461.4</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3897,25 +3897,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C68">
         <v>40</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F68">
-        <v>1.61</v>
+        <v>0.8</v>
       </c>
       <c r="G68">
-        <v>5.23</v>
+        <v>-0.11</v>
       </c>
       <c r="H68">
-        <v>3.19</v>
+        <v>-0.74</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3924,19 +3924,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.7061533311095058</v>
+        <v>0.2583900478199487</v>
       </c>
       <c r="L68">
-        <v>0.8753351058746242</v>
+        <v>0.5442199625367943</v>
       </c>
       <c r="M68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>265.55</v>
+        <v>199.81</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3944,25 +3944,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C69">
         <v>40</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="G69">
-        <v>-0.27</v>
+        <v>0.23</v>
       </c>
       <c r="H69">
-        <v>-0.23</v>
+        <v>-0.59</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -3971,19 +3971,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.0001694635208587955</v>
+        <v>0.4012524972018113</v>
       </c>
       <c r="L69">
-        <v>0.000455715815617381</v>
+        <v>1.780236359064622</v>
       </c>
       <c r="M69" t="s">
         <v>119</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>309.95</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3991,7 +3991,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70">
         <v>40</v>
@@ -4003,13 +4003,13 @@
         <v>20</v>
       </c>
       <c r="F70">
-        <v>0.87</v>
+        <v>0.06</v>
       </c>
       <c r="G70">
-        <v>2.19</v>
+        <v>-0.98</v>
       </c>
       <c r="H70">
-        <v>0.78</v>
+        <v>-0.77</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4018,10 +4018,10 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.02999337685684872</v>
+        <v>0.01362971128100932</v>
       </c>
       <c r="L70">
-        <v>0.06196368185461014</v>
+        <v>0.08025259834232337</v>
       </c>
       <c r="M70" t="s">
         <v>119</v>
@@ -4030,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="O70">
-        <v>1097.4</v>
+        <v>1154.2</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4038,25 +4038,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71">
         <v>30</v>
-      </c>
-      <c r="D71">
-        <v>20</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71">
-        <v>-0.41</v>
+        <v>0.97</v>
       </c>
       <c r="G71">
-        <v>-0.22</v>
+        <v>0.02</v>
       </c>
       <c r="H71">
-        <v>-1.6</v>
+        <v>-0.58</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4065,10 +4065,10 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0.2227593457340823</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0.3068394207031653</v>
+        <v>5.822429906542056</v>
       </c>
       <c r="M71" t="s">
         <v>119</v>
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>958</v>
+        <v>147.95</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4085,25 +4085,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D72">
         <v>20</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>1.09</v>
+        <v>0.43</v>
       </c>
       <c r="G72">
-        <v>0.47</v>
+        <v>-0.79</v>
       </c>
       <c r="H72">
-        <v>-0.5</v>
+        <v>-0.95</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>0.0718373602164699</v>
       </c>
       <c r="M72" t="s">
         <v>119</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>1307.2</v>
+        <v>2265.6</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4132,25 +4132,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F73">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="G73">
-        <v>0.22</v>
+        <v>-0.51</v>
       </c>
       <c r="H73">
-        <v>-0.71</v>
+        <v>0.06</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4159,19 +4159,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.01215734408790668</v>
+        <v>0.007169905676576022</v>
       </c>
       <c r="L73">
-        <v>0.02681714062238114</v>
+        <v>0.04777197912484946</v>
       </c>
       <c r="M73" t="s">
         <v>119</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>869.05</v>
+        <v>773.4</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4179,25 +4179,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D74">
         <v>20</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F74">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="G74">
-        <v>-0.31</v>
+        <v>-0.1</v>
       </c>
       <c r="H74">
-        <v>0.27</v>
+        <v>-0.23</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4206,19 +4206,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.0926178690654586</v>
       </c>
       <c r="L74">
-        <v>0.0005158694334463947</v>
+        <v>0.2708369400042319</v>
       </c>
       <c r="M74" t="s">
         <v>119</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74">
-        <v>95.09999999999999</v>
+        <v>310.55</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4226,25 +4226,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>0.65</v>
+        <v>-0.14</v>
       </c>
       <c r="G75">
-        <v>-0.5</v>
+        <v>-0.04</v>
       </c>
       <c r="H75">
-        <v>0.05</v>
+        <v>-0.24</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4253,19 +4253,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>1.375565610859752</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>0.8275862068965517</v>
+        <v>0.02128336895720587</v>
       </c>
       <c r="M75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O75">
-        <v>1046</v>
+        <v>1401.1</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4273,7 +4273,7 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76">
         <v>30</v>
@@ -4285,10 +4285,10 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="G76">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="H76">
         <v>-0.93</v>
@@ -4300,10 +4300,10 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.001209945754098263</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>0.004768338234125408</v>
+        <v>0</v>
       </c>
       <c r="M76" t="s">
         <v>119</v>
@@ -4320,7 +4320,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C77">
         <v>30</v>
@@ -4332,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>0.3</v>
+        <v>-0.42</v>
       </c>
       <c r="G77">
-        <v>1.23</v>
+        <v>-0.17</v>
       </c>
       <c r="H77">
-        <v>-0.17</v>
+        <v>-1.6</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.4020100502512563</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
         <v>119</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <v>1130.2</v>
+        <v>958.3</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4367,25 +4367,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78">
         <v>30</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F78">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="G78">
-        <v>0.83</v>
+        <v>2.37</v>
       </c>
       <c r="H78">
-        <v>-0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4394,19 +4394,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>0.5622736317295747</v>
       </c>
       <c r="L78">
-        <v>0.006631299734748011</v>
+        <v>0.4230865477424659</v>
       </c>
       <c r="M78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O78">
-        <v>79.8</v>
+        <v>1098.5</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4414,25 +4414,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C79">
         <v>30</v>
       </c>
       <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
         <v>10</v>
       </c>
-      <c r="E79">
-        <v>20</v>
-      </c>
       <c r="F79">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="G79">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H79">
-        <v>-0.39</v>
+        <v>-0.12</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4441,19 +4441,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.6003391549099057</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.3394353945911751</v>
+        <v>0.04518093821935631</v>
       </c>
       <c r="M79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>1458.4</v>
+        <v>42.65</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4461,7 +4461,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C80">
         <v>30</v>
@@ -4473,13 +4473,13 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>0.66</v>
+        <v>1.19</v>
       </c>
       <c r="G80">
-        <v>-0.01</v>
+        <v>0.44</v>
       </c>
       <c r="H80">
-        <v>-0.36</v>
+        <v>-0.71</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4488,10 +4488,10 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.001488484446400744</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>0.009100364014560582</v>
       </c>
       <c r="M80" t="s">
         <v>119</v>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="O80">
-        <v>522.4</v>
+        <v>870.95</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4508,25 +4508,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C81">
         <v>30</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>0.92</v>
+        <v>-0.19</v>
       </c>
       <c r="G81">
-        <v>-0.09</v>
+        <v>1.14</v>
       </c>
       <c r="H81">
-        <v>-0.31</v>
+        <v>-0.17</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4535,19 +4535,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>1.107382550335571</v>
+        <v>0.003969041476484278</v>
       </c>
       <c r="L81">
-        <v>1.057692307692308</v>
+        <v>0.01049317943336831</v>
       </c>
       <c r="M81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>44315</v>
+        <v>1129.8</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4555,7 +4555,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C82">
         <v>30</v>
@@ -4567,13 +4567,13 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>1.47</v>
+        <v>0.19</v>
       </c>
       <c r="G82">
-        <v>2.88</v>
+        <v>-0.17</v>
       </c>
       <c r="H82">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4582,10 +4582,10 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.0005205954268211904</v>
+        <v>0.007855315735430302</v>
       </c>
       <c r="L82">
-        <v>0.007489008068802243</v>
+        <v>0.02565440473084616</v>
       </c>
       <c r="M82" t="s">
         <v>119</v>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="O82">
-        <v>389.9</v>
+        <v>95.16</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4602,7 +4602,7 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83">
         <v>30</v>
@@ -4614,13 +4614,13 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="G83">
-        <v>0.15</v>
+        <v>-0.84</v>
       </c>
       <c r="H83">
-        <v>-0.78</v>
+        <v>-1</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4629,10 +4629,10 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.1857200232277931</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>0.408119670131374</v>
       </c>
       <c r="M83" t="s">
         <v>119</v>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="O83">
-        <v>372.35</v>
+        <v>507.5</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4649,7 +4649,7 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -4661,13 +4661,13 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="G84">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H84">
-        <v>-0.86</v>
+        <v>-0.5</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4676,10 +4676,10 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0.0123460988697882</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0.06934595993215904</v>
+        <v>0</v>
       </c>
       <c r="M84" t="s">
         <v>119</v>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="O84">
-        <v>426.5</v>
+        <v>1307.5</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4708,13 +4708,13 @@
         <v>10</v>
       </c>
       <c r="F85">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G85">
-        <v>-0.2</v>
+        <v>1.25</v>
       </c>
       <c r="H85">
-        <v>-0.58</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4735,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="O85">
-        <v>147.63</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4743,7 +4743,7 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C86">
         <v>30</v>
@@ -4755,13 +4755,13 @@
         <v>10</v>
       </c>
       <c r="F86">
-        <v>0.68</v>
+        <v>0.27</v>
       </c>
       <c r="G86">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="H86">
-        <v>-0.12</v>
+        <v>-0.22</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4770,10 +4770,10 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0.159236083104579</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0.2264519566633118</v>
+        <v>0</v>
       </c>
       <c r="M86" t="s">
         <v>119</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>42.67</v>
+        <v>200.03</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4790,7 +4790,7 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -4802,13 +4802,13 @@
         <v>10</v>
       </c>
       <c r="F87">
-        <v>0.87</v>
+        <v>1.59</v>
       </c>
       <c r="G87">
-        <v>-0.83</v>
+        <v>3.09</v>
       </c>
       <c r="H87">
-        <v>-1</v>
+        <v>0.15</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4817,10 +4817,10 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0.1050287248600105</v>
+        <v>0.01102029034226406</v>
       </c>
       <c r="L87">
-        <v>0.2807365586126955</v>
+        <v>0.07775119617224881</v>
       </c>
       <c r="M87" t="s">
         <v>119</v>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>507.2</v>
+        <v>390.3</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4837,7 +4837,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88">
         <v>30</v>
@@ -4849,13 +4849,13 @@
         <v>10</v>
       </c>
       <c r="F88">
-        <v>0.59</v>
+        <v>1.24</v>
       </c>
       <c r="G88">
-        <v>-0.22</v>
+        <v>0.52</v>
       </c>
       <c r="H88">
-        <v>-0.4</v>
+        <v>-0.86</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4864,10 +4864,10 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.1731820862087466</v>
+        <v>0.05817895672939501</v>
       </c>
       <c r="L88">
-        <v>0.280618477540051</v>
+        <v>0.08705765397960612</v>
       </c>
       <c r="M88" t="s">
         <v>119</v>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>1388.1</v>
+        <v>427.4</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4884,7 +4884,7 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>30</v>
@@ -4896,13 +4896,13 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>-0.41</v>
+        <v>1.58</v>
       </c>
       <c r="G89">
-        <v>-0.55</v>
+        <v>0.74</v>
       </c>
       <c r="H89">
-        <v>-0.11</v>
+        <v>-0.78</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4911,10 +4911,10 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.01457454474789857</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>0.02791606569580794</v>
       </c>
       <c r="M89" t="s">
         <v>119</v>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>1846</v>
+        <v>373.35</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4931,22 +4931,22 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>10</v>
       </c>
       <c r="F90">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="G90">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -4958,19 +4958,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0.009796827163929864</v>
+        <v>4.210696571058874</v>
       </c>
       <c r="L90">
-        <v>0.04819277108433735</v>
+        <v>3.701772679874869</v>
       </c>
       <c r="M90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>8417</v>
+        <v>8435.5</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4978,25 +4978,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="G91">
-        <v>-0.18</v>
+        <v>0.29</v>
       </c>
       <c r="H91">
-        <v>-0.59</v>
+        <v>-0.36</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5005,19 +5005,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0.03037052034824726</v>
+        <v>0.5833673999270956</v>
       </c>
       <c r="L91">
-        <v>0.06178560395427865</v>
+        <v>0.4755214525018913</v>
       </c>
       <c r="M91" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N91">
         <v>1</v>
       </c>
       <c r="O91">
-        <v>572.1</v>
+        <v>523.1</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5025,25 +5025,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="G92">
-        <v>0.48</v>
+        <v>-0.12</v>
       </c>
       <c r="H92">
-        <v>-0.22</v>
+        <v>-0.4</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5052,19 +5052,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>1.651754989676653</v>
+        <v>2.307819862644651</v>
       </c>
       <c r="L92">
-        <v>3.319502074688797</v>
+        <v>1.285040751434524</v>
       </c>
       <c r="M92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N92">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>200.45</v>
+        <v>1389.7</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="145">
   <si>
     <t>ticker</t>
   </si>
@@ -61,187 +61,394 @@
     <t>close</t>
   </si>
   <si>
+    <t>IRMENERGY</t>
+  </si>
+  <si>
+    <t>SANOFI</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>INDUSTOWER</t>
+  </si>
+  <si>
+    <t>SULA</t>
+  </si>
+  <si>
+    <t>ANDHRSUGAR</t>
+  </si>
+  <si>
+    <t>CERA</t>
+  </si>
+  <si>
     <t>DCMSHRIRAM</t>
   </si>
   <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>UBL</t>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>RATNAMANI</t>
   </si>
   <si>
     <t>JAIBALAJI</t>
   </si>
   <si>
-    <t>ANDHRSUGAR</t>
-  </si>
-  <si>
-    <t>IRMENERGY</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
     <t>PATELENG</t>
   </si>
   <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
     <t>GIPCL</t>
   </si>
   <si>
-    <t>CERA</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>COSMOFIRST</t>
+  </si>
+  <si>
+    <t>PCBL</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>SARDAEN</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
   </si>
   <si>
     <t>CAMPUS</t>
   </si>
   <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>SULA</t>
-  </si>
-  <si>
-    <t>RATNAMANI</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>COSMOFIRST</t>
+    <t>UJJIVANSFB</t>
+  </si>
+  <si>
+    <t>ZEEL</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>GILLETTE</t>
   </si>
   <si>
     <t>CELLO</t>
   </si>
   <si>
-    <t>SANOFI</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
+    <t>TRITURBINE</t>
+  </si>
+  <si>
+    <t>DEEPAKNTR</t>
+  </si>
+  <si>
+    <t>MSUMI</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>SHRIRAMPPS</t>
+  </si>
+  <si>
+    <t>VINDHYATEL</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
+  </si>
+  <si>
+    <t>FINEORG</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>JUSTDIAL</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>JUBLPHARMA</t>
+  </si>
+  <si>
+    <t>ELECON</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
+  </si>
+  <si>
+    <t>PGHH</t>
+  </si>
+  <si>
+    <t>AVANTIFEED</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>SIGACHI</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>KPRMILL</t>
+  </si>
+  <si>
+    <t>ANURAS</t>
+  </si>
+  <si>
+    <t>UNITDSPR</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>LUPIN</t>
+  </si>
+  <si>
+    <t>EMBDL</t>
+  </si>
+  <si>
+    <t>BAJAJHLDNG</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>LTTS</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>GRSE</t>
+  </si>
+  <si>
+    <t>ADANIENSOL</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>SAFARI</t>
+  </si>
+  <si>
+    <t>HINDPETRO</t>
+  </si>
+  <si>
+    <t>AFFLE</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>KFINTECH</t>
+  </si>
+  <si>
+    <t>SONACOMS</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
+    <t>APARINDS</t>
+  </si>
+  <si>
+    <t>ANGELONE</t>
+  </si>
+  <si>
+    <t>RVNL</t>
+  </si>
+  <si>
+    <t>BLUEDART</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>BSOFT</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>NHPC</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>BHARATFORG</t>
+  </si>
+  <si>
+    <t>OFSS</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>ATUL</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>ALLCARGO</t>
+  </si>
+  <si>
+    <t>BHEL</t>
+  </si>
+  <si>
+    <t>SURYAROSNI</t>
+  </si>
+  <si>
+    <t>MAHSEAMLES</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>AZAD</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>POONAWALLA</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>DBREALTY</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB</t>
   </si>
   <si>
     <t>NSLNISP</t>
   </si>
   <si>
-    <t>KOTAKBANK</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>UJJIVANSFB</t>
-  </si>
-  <si>
-    <t>SARDAEN</t>
-  </si>
-  <si>
-    <t>ELECON</t>
-  </si>
-  <si>
-    <t>PGHH</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
-  </si>
-  <si>
-    <t>RAINBOW</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>UNITDSPR</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>AVANTIFEED</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL</t>
-  </si>
-  <si>
-    <t>PCBL</t>
-  </si>
-  <si>
-    <t>INDUSTOWER</t>
-  </si>
-  <si>
-    <t>VINDHYATEL</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>CLEAN</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
     <t>GLAXO</t>
   </si>
   <si>
-    <t>AZAD</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
   </si>
   <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>No Signal</t>
+  </si>
+  <si>
+    <t>Weak Short</t>
   </si>
   <si>
     <t>Short</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Weak Short</t>
-  </si>
-  <si>
-    <t>No Signal</t>
   </si>
 </sst>
 </file>
@@ -599,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,25 +864,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="F2">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-1.29</v>
+        <v>0.08</v>
       </c>
       <c r="H2">
-        <v>0.03</v>
+        <v>-0.36</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -687,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001661129568106312</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>1220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -704,25 +911,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F3">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
-        <v>-1.46</v>
+        <v>0.03</v>
       </c>
       <c r="H3">
-        <v>-0.38</v>
+        <v>0.26</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -731,19 +938,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.5773208183485743</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6534583227767925</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O3">
-        <v>1561.1</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -751,25 +958,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>0.03</v>
       </c>
       <c r="G4">
-        <v>-0.76</v>
+        <v>1.78</v>
       </c>
       <c r="H4">
-        <v>-1.52</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -781,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05780179763590648</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O4">
-        <v>1800</v>
+        <v>1828.5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -798,25 +1005,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F5">
-        <v>0.16</v>
+        <v>0.83</v>
       </c>
       <c r="G5">
-        <v>0.87</v>
+        <v>3.02</v>
       </c>
       <c r="H5">
-        <v>-0.78</v>
+        <v>2.83</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -825,19 +1032,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7224478428405778</v>
       </c>
       <c r="L5">
-        <v>2.473633748801534</v>
+        <v>0.9001916403377014</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O5">
-        <v>102.11</v>
+        <v>1298.4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -845,25 +1052,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F6">
-        <v>-0.58</v>
+        <v>0.61</v>
       </c>
       <c r="G6">
-        <v>-0.39</v>
+        <v>1.11</v>
       </c>
       <c r="H6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -875,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1445853451477689</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O6">
-        <v>75.84</v>
+        <v>637.35</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -892,25 +1099,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H7">
-        <v>0.21</v>
+        <v>-1.96</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -919,19 +1126,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.067173498157313</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.724540562493654</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O7">
-        <v>265</v>
+        <v>1563.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -939,25 +1146,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F8">
-        <v>-0.35</v>
+        <v>-0.31</v>
       </c>
       <c r="G8">
-        <v>-0.74</v>
+        <v>-1.99</v>
       </c>
       <c r="H8">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -966,19 +1173,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.005519713921112285</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0118773577969198</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O8">
-        <v>628.35</v>
+        <v>333.15</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -986,25 +1193,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>-0.42</v>
       </c>
       <c r="G9">
-        <v>-0.24</v>
+        <v>1.72</v>
       </c>
       <c r="H9">
-        <v>0.73</v>
+        <v>-0.59</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1013,19 +1220,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0002876573425732638</v>
       </c>
       <c r="L9">
-        <v>0.0324119373776908</v>
+        <v>0.009723685276719877</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O9">
-        <v>37.11</v>
+        <v>252.97</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1033,25 +1240,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F10">
-        <v>-0.02</v>
+        <v>-0.44</v>
       </c>
       <c r="G10">
-        <v>0.71</v>
+        <v>5.92</v>
       </c>
       <c r="H10">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1060,19 +1267,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.8457064764076287</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.101750547045952</v>
+        <v>0.001688654353562005</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O10">
-        <v>1254.7</v>
+        <v>79.43000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1080,25 +1287,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>-0.28</v>
+        <v>0.21</v>
       </c>
       <c r="G11">
-        <v>-0.06</v>
+        <v>0.17</v>
       </c>
       <c r="H11">
-        <v>3.09</v>
+        <v>-0.4</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1110,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4810996563573883</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O11">
-        <v>182.67</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1127,25 +1334,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F12">
-        <v>-0.19</v>
+        <v>-0.27</v>
       </c>
       <c r="G12">
-        <v>-0.02</v>
+        <v>1.82</v>
       </c>
       <c r="H12">
-        <v>-0.08</v>
+        <v>0.52</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1154,19 +1361,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5.139860139860423</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.847457627118644</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O12">
-        <v>6288</v>
+        <v>1245.2</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1174,25 +1381,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0.92</v>
       </c>
       <c r="H13">
-        <v>1.02</v>
+        <v>-0.62</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1201,19 +1408,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.01180031248975937</v>
+        <v>0.004792551006435394</v>
       </c>
       <c r="L13">
-        <v>0.01779078042223452</v>
+        <v>0.01119910407167427</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O13">
-        <v>922.85</v>
+        <v>252.3</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1221,25 +1428,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F14">
-        <v>0.02</v>
+        <v>-0.34</v>
       </c>
       <c r="G14">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="H14">
-        <v>-0.4</v>
+        <v>1.44</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1248,19 +1455,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.1965527668582244</v>
+        <v>0.3521878186899322</v>
       </c>
       <c r="L14">
-        <v>0.5336617405582923</v>
+        <v>0.5524893975483646</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>265.05</v>
+        <v>934.6</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1268,25 +1475,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.23</v>
+        <v>-0.29</v>
       </c>
       <c r="H15">
-        <v>-1.28</v>
+        <v>-0.25</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1295,19 +1502,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.01096892138939602</v>
+        <v>0.03144523976995203</v>
       </c>
       <c r="L15">
-        <v>0.009699321047526674</v>
+        <v>0.0673758865248227</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O15">
-        <v>304.65</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1315,25 +1522,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F16">
-        <v>0.12</v>
+        <v>-0.12</v>
       </c>
       <c r="G16">
-        <v>-0.15</v>
+        <v>4.57</v>
       </c>
       <c r="H16">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1342,19 +1549,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.442937102741782</v>
       </c>
       <c r="L16">
-        <v>0.1036001036001036</v>
+        <v>1.950150011539349</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O16">
-        <v>249.23</v>
+        <v>569.9</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1362,25 +1569,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <v>115</v>
+      </c>
+      <c r="D17">
         <v>65</v>
       </c>
-      <c r="C17">
-        <v>70</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>50</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-0.78</v>
       </c>
       <c r="G17">
-        <v>-0.45</v>
+        <v>-1.33</v>
       </c>
       <c r="H17">
-        <v>-0.25</v>
+        <v>-0.02</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1395,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="N17">
         <v>5</v>
       </c>
       <c r="O17">
-        <v>2381.7</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1409,25 +1616,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C18">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>-0.45</v>
+        <v>-0.22</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H18">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1439,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2955665024630542</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>546.55</v>
+        <v>103.12</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1456,25 +1663,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="G19">
-        <v>-0.75</v>
+        <v>2.36</v>
       </c>
       <c r="H19">
-        <v>-0.64</v>
+        <v>0.3</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1483,19 +1690,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.01072376145177818</v>
+        <v>0.5015627417607922</v>
       </c>
       <c r="L19">
-        <v>0.04074607467771962</v>
+        <v>0.7184906730973828</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O19">
-        <v>250</v>
+        <v>38.11</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1503,25 +1710,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>-0.33</v>
+        <v>0.15</v>
       </c>
       <c r="G20">
-        <v>-1.62</v>
+        <v>6.46</v>
       </c>
       <c r="H20">
-        <v>0.79</v>
+        <v>-0.05</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1530,19 +1737,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1899302035632322</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2042862514099511</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>993.6</v>
+        <v>194.9</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1550,25 +1757,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>0.04</v>
+        <v>-0.36</v>
       </c>
       <c r="G21">
-        <v>-0.72</v>
+        <v>0.85</v>
       </c>
       <c r="H21">
-        <v>-0.36</v>
+        <v>-0.11</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1577,19 +1784,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>1.637035911462217</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2.621674237508112</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O21">
-        <v>534</v>
+        <v>307.75</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1597,25 +1804,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>50</v>
       </c>
       <c r="F22">
-        <v>-0.06</v>
+        <v>-0.32</v>
       </c>
       <c r="G22">
-        <v>-0.23</v>
+        <v>-1.42</v>
       </c>
       <c r="H22">
-        <v>-0.39</v>
+        <v>-0.89</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1624,19 +1831,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>1.231884057971014</v>
+        <v>0.1598634760895345</v>
       </c>
       <c r="L22">
-        <v>1.847826086956522</v>
+        <v>0.4123377674207852</v>
       </c>
       <c r="M22" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="N22">
         <v>5</v>
       </c>
       <c r="O22">
-        <v>5123</v>
+        <v>540.15</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1644,25 +1851,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>-0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G23">
-        <v>-0.6899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="H23">
-        <v>-0.98</v>
+        <v>-0.14</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1671,19 +1878,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.7251575375666862</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O23">
-        <v>6080</v>
+        <v>1001.15</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1691,25 +1898,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F24">
-        <v>-0.11</v>
+        <v>0.11</v>
       </c>
       <c r="G24">
-        <v>-1.25</v>
+        <v>1.08</v>
       </c>
       <c r="H24">
-        <v>0.85</v>
+        <v>0.31</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1718,19 +1925,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4439514044459688</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4216146552517721</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O24">
-        <v>38</v>
+        <v>379.3</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1738,25 +1945,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F25">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G25">
-        <v>-0.26</v>
+        <v>0.14</v>
       </c>
       <c r="H25">
-        <v>-0.16</v>
+        <v>-0.63</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1765,19 +1972,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.4249146091885052</v>
+        <v>0.2291185902238739</v>
       </c>
       <c r="L25">
-        <v>0.483191158973118</v>
+        <v>0.2747307046150805</v>
       </c>
       <c r="M25" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O25">
-        <v>1960.8</v>
+        <v>6103.5</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1785,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>0.29</v>
+        <v>-0.33</v>
       </c>
       <c r="G26">
-        <v>-0.02</v>
+        <v>-1.15</v>
       </c>
       <c r="H26">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1812,19 +2019,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.01905799074326301</v>
+        <v>0.01043347212427675</v>
       </c>
       <c r="L26">
-        <v>0.04390779363336992</v>
+        <v>0.1283371623227442</v>
       </c>
       <c r="M26" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26">
-        <v>865.85</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1832,25 +2039,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>-0.35</v>
+        <v>-0.66</v>
       </c>
       <c r="G27">
-        <v>-0.9399999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="H27">
-        <v>-0.7</v>
+        <v>0.02</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -1862,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.9621606414404277</v>
       </c>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>927.05</v>
+        <v>611.9</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1879,25 +2086,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>20</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F28">
-        <v>0.14</v>
+        <v>-0.36</v>
       </c>
       <c r="G28">
-        <v>-0.61</v>
+        <v>0.74</v>
       </c>
       <c r="H28">
-        <v>-0.28</v>
+        <v>-1.13</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -1906,19 +2113,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.03341157309829366</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.04779873136342026</v>
+        <v>0.5308142150247414</v>
       </c>
       <c r="M28" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>42.36</v>
+        <v>266.6</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1926,25 +2133,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>30</v>
       </c>
       <c r="F29">
-        <v>0.16</v>
+        <v>-0.58</v>
       </c>
       <c r="G29">
-        <v>0.12</v>
+        <v>1.03</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -1953,19 +2160,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.08186882640196047</v>
+        <v>0.07539041464729344</v>
       </c>
       <c r="L29">
-        <v>0.4014660756904194</v>
+        <v>0.1795585716489029</v>
       </c>
       <c r="M29" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N29">
         <v>3</v>
       </c>
       <c r="O29">
-        <v>600</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1973,25 +2180,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G30">
-        <v>-0.5</v>
+        <v>1.81</v>
       </c>
       <c r="H30">
-        <v>0.86</v>
+        <v>0.44</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2000,19 +2207,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.02217172135048522</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.07040528474236091</v>
       </c>
       <c r="M30" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>553.85</v>
+        <v>116.08</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2020,25 +2227,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>20</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>-0.16</v>
+        <v>-0.26</v>
       </c>
       <c r="G31">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="H31">
-        <v>0.08</v>
+        <v>0.61</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2047,19 +2254,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.4260875944538223</v>
       </c>
       <c r="L31">
-        <v>0.4979253112033195</v>
+        <v>0.2744853399875234</v>
       </c>
       <c r="M31" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O31">
-        <v>13205</v>
+        <v>947.05</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2067,25 +2274,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>20</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F32">
-        <v>2.27</v>
+        <v>-0.16</v>
       </c>
       <c r="G32">
-        <v>2.57</v>
+        <v>1.37</v>
       </c>
       <c r="H32">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2094,19 +2301,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.005142969195665373</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.05895334818235691</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>31.96</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2114,25 +2321,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>20</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>0.15</v>
+        <v>-0.28</v>
       </c>
       <c r="G33">
-        <v>0.74</v>
+        <v>1.39</v>
       </c>
       <c r="H33">
-        <v>-0.67</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2141,19 +2348,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.008661133164922589</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0.01225490196078432</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>1505</v>
+        <v>542.35</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2161,25 +2368,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>-0.01</v>
+        <v>0.49</v>
       </c>
       <c r="G34">
-        <v>0.17</v>
+        <v>0.82</v>
       </c>
       <c r="H34">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2191,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.05412719891745602</v>
+        <v>0.4480219367108201</v>
       </c>
       <c r="M34" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>816.7</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2208,25 +2415,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>-0.17</v>
+        <v>0.01</v>
       </c>
       <c r="G35">
-        <v>-0.33</v>
+        <v>-0.63</v>
       </c>
       <c r="H35">
-        <v>-0.96</v>
+        <v>-0.22</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2235,19 +2442,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.002383440588157628</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="M35" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>359.95</v>
+        <v>1779.1</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2255,25 +2462,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36">
         <v>40</v>
       </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
       <c r="E36">
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-0.06</v>
+        <v>-0.59</v>
       </c>
       <c r="G36">
-        <v>-0.16</v>
+        <v>0.12</v>
       </c>
       <c r="H36">
-        <v>0.67</v>
+        <v>-0.02</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2282,19 +2489,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.130997039033846</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.2593301708864377</v>
       </c>
       <c r="M36" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N36">
         <v>2</v>
       </c>
       <c r="O36">
-        <v>31640</v>
+        <v>42.04</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2302,25 +2509,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
         <v>40</v>
       </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
       <c r="E37">
         <v>20</v>
       </c>
       <c r="F37">
-        <v>0.35</v>
+        <v>-0.9</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H37">
-        <v>-0.34</v>
+        <v>-0.04</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2329,19 +2536,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.1590016645055754</v>
       </c>
       <c r="L37">
-        <v>0.08986799545414809</v>
+        <v>0.2538671051955393</v>
       </c>
       <c r="M37" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N37">
         <v>2</v>
       </c>
       <c r="O37">
-        <v>1315</v>
+        <v>1567.6</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2349,25 +2556,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>0.59</v>
+        <v>0.18</v>
       </c>
       <c r="G38">
-        <v>0.36</v>
+        <v>-0.06</v>
       </c>
       <c r="H38">
-        <v>0.6</v>
+        <v>-0.27</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2376,19 +2583,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.450958124102052</v>
+        <v>0.657367324033952</v>
       </c>
       <c r="L38">
-        <v>0.8110779309711897</v>
+        <v>0.8031341821743389</v>
       </c>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O38">
-        <v>330.95</v>
+        <v>1526.2</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2396,25 +2603,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
         <v>40</v>
       </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-      <c r="E39">
-        <v>20</v>
-      </c>
       <c r="F39">
-        <v>0.13</v>
+        <v>-0.41</v>
       </c>
       <c r="G39">
-        <v>-0.1</v>
+        <v>3.11</v>
       </c>
       <c r="H39">
-        <v>-0.51</v>
+        <v>-0.44</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2423,19 +2630,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.00533838700636635</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.01024170421958214</v>
+        <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>631.35</v>
+        <v>87.89</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2443,25 +2650,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>20</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>0.93</v>
+        <v>-0.05</v>
       </c>
       <c r="G40">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="H40">
-        <v>-1.05</v>
+        <v>0.88</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2476,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>1309.1</v>
+        <v>1520.2</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2490,25 +2697,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>20</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F41">
-        <v>0.32</v>
+        <v>-0.19</v>
       </c>
       <c r="G41">
-        <v>-0.65</v>
+        <v>-0.37</v>
       </c>
       <c r="H41">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2517,19 +2724,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.3959144460736617</v>
+        <v>0.3136027156043446</v>
       </c>
       <c r="L41">
-        <v>1.156402303943288</v>
+        <v>0.362041928657339</v>
       </c>
       <c r="M41" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>374.55</v>
+        <v>1961.8</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2537,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>20</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>-0.29</v>
+        <v>-0.17</v>
       </c>
       <c r="G42">
-        <v>-0.59</v>
+        <v>1.63</v>
       </c>
       <c r="H42">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2564,19 +2771,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.005623354222650158</v>
+        <v>0.4953320172754846</v>
       </c>
       <c r="L42">
-        <v>0.009567441261430332</v>
+        <v>0.7245901639344262</v>
       </c>
       <c r="M42" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>339.7</v>
+        <v>878.05</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2584,25 +2791,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>20</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F43">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="G43">
-        <v>-0.65</v>
+        <v>0.76</v>
       </c>
       <c r="H43">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2617,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43">
-        <v>1490.3</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2631,25 +2838,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44">
-        <v>-0.36</v>
+        <v>-0.63</v>
       </c>
       <c r="G44">
-        <v>0.28</v>
+        <v>-0.34</v>
       </c>
       <c r="H44">
-        <v>0.39</v>
+        <v>-0.12</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2658,19 +2865,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.03353629642557362</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.08526271843502117</v>
+        <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N44">
         <v>1</v>
       </c>
       <c r="O44">
-        <v>372.95</v>
+        <v>470.05</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2678,25 +2885,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="D45">
-        <v>20</v>
-      </c>
       <c r="E45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>-0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G45">
-        <v>-0.36</v>
+        <v>1.01</v>
       </c>
       <c r="H45">
-        <v>-0.42</v>
+        <v>0.77</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2708,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.01810774105930285</v>
+        <v>3.818525519848771</v>
       </c>
       <c r="M45" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>3399.8</v>
+        <v>822.9</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2725,25 +2932,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
         <v>30</v>
       </c>
-      <c r="D46">
-        <v>20</v>
-      </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
       <c r="F46">
-        <v>-0.08</v>
+        <v>0.31</v>
       </c>
       <c r="G46">
-        <v>0.28</v>
+        <v>1.72</v>
       </c>
       <c r="H46">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2758,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>1180.9</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2772,25 +2979,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
         <v>30</v>
       </c>
-      <c r="D47">
-        <v>20</v>
-      </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
       <c r="F47">
-        <v>-0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G47">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="H47">
-        <v>0.76</v>
+        <v>-0.16</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2799,19 +3006,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>0.4077471967380224</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.6106870229007634</v>
       </c>
       <c r="M47" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>924.2</v>
+        <v>32205</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2819,25 +3026,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
         <v>30</v>
       </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
       <c r="F48">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="G48">
-        <v>1.45</v>
+        <v>-0.21</v>
       </c>
       <c r="H48">
-        <v>-0.42</v>
+        <v>-1.16</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -2849,16 +3056,16 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.04194044456871243</v>
       </c>
       <c r="M48" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>2809.6</v>
+        <v>1367.5</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2866,25 +3073,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="F49">
-        <v>0.43</v>
+        <v>-0.53</v>
       </c>
       <c r="G49">
-        <v>1.33</v>
+        <v>0.01</v>
       </c>
       <c r="H49">
-        <v>0.33</v>
+        <v>-0.61</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -2896,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0.02097902097902098</v>
+        <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49">
-        <v>1566.6</v>
+        <v>1044.8</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2913,46 +3120,3101 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>0.49</v>
+      </c>
+      <c r="G50">
+        <v>1.31</v>
+      </c>
+      <c r="H50">
+        <v>0.01</v>
+      </c>
+      <c r="I50">
+        <v>50</v>
+      </c>
+      <c r="J50">
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <v>0.314567740535844</v>
+      </c>
+      <c r="L50">
+        <v>0.4598612487611496</v>
+      </c>
+      <c r="M50" t="s">
+        <v>141</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>562.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>-0.14</v>
+      </c>
+      <c r="G51">
+        <v>-0.33</v>
+      </c>
+      <c r="H51">
+        <v>-0.51</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>0.5</v>
+      </c>
+      <c r="K51">
+        <v>0.009018149653599133</v>
+      </c>
+      <c r="L51">
+        <v>0.02358872467713206</v>
+      </c>
+      <c r="M51" t="s">
+        <v>141</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>351.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.78</v>
+      </c>
+      <c r="H52">
+        <v>1.98</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <v>0.5</v>
+      </c>
+      <c r="K52">
+        <v>0.001778007198059803</v>
+      </c>
+      <c r="L52">
+        <v>0.02591973244147157</v>
+      </c>
+      <c r="M52" t="s">
+        <v>141</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>939.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>-0.01</v>
+      </c>
+      <c r="G53">
+        <v>1.28</v>
+      </c>
+      <c r="H53">
+        <v>-1</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>0.5</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54">
+        <v>1.52</v>
+      </c>
+      <c r="G54">
+        <v>1.14</v>
+      </c>
+      <c r="H54">
+        <v>0.18</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <v>0.5</v>
+      </c>
+      <c r="K54">
+        <v>0.04802540293631925</v>
+      </c>
+      <c r="L54">
+        <v>0.06665418460962366</v>
+      </c>
+      <c r="M54" t="s">
+        <v>141</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>13444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>-0.34</v>
+      </c>
+      <c r="G55">
+        <v>7.98</v>
+      </c>
+      <c r="H55">
+        <v>0.25</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>0.07817383808539285</v>
+      </c>
+      <c r="L55">
+        <v>0.1867073189897688</v>
+      </c>
+      <c r="M55" t="s">
+        <v>141</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>683.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>0.05</v>
+      </c>
+      <c r="G56">
+        <v>-0.24</v>
+      </c>
+      <c r="H56">
+        <v>-0.25</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56">
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <v>0.534148285942162</v>
+      </c>
+      <c r="L56">
+        <v>0.4632327522346782</v>
+      </c>
+      <c r="M56" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>0.03</v>
+      </c>
+      <c r="G57">
+        <v>-0.31</v>
+      </c>
+      <c r="H57">
+        <v>3.87</v>
+      </c>
+      <c r="I57">
+        <v>50</v>
+      </c>
+      <c r="J57">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <v>0.3722630207453972</v>
+      </c>
+      <c r="L57">
+        <v>1.396707157066069</v>
+      </c>
+      <c r="M57" t="s">
+        <v>141</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="C50">
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>0.62</v>
+      </c>
+      <c r="G58">
+        <v>0.19</v>
+      </c>
+      <c r="H58">
+        <v>-0.1</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
+        <v>0.2218869009125983</v>
+      </c>
+      <c r="L58">
+        <v>0.5100254352062894</v>
+      </c>
+      <c r="M58" t="s">
+        <v>141</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="F59">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G59">
+        <v>-0.25</v>
+      </c>
+      <c r="H59">
+        <v>-0.47</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="J59">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>0.440240756663708</v>
+      </c>
+      <c r="L59">
+        <v>0.4572245043757814</v>
+      </c>
+      <c r="M59" t="s">
+        <v>141</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <v>-0.35</v>
+      </c>
+      <c r="G60">
+        <v>-0.18</v>
+      </c>
+      <c r="H60">
+        <v>-0.3</v>
+      </c>
+      <c r="I60">
+        <v>50</v>
+      </c>
+      <c r="J60">
+        <v>0.5</v>
+      </c>
+      <c r="K60">
+        <v>0.03013585437578122</v>
+      </c>
+      <c r="L60">
+        <v>0.08876163206871868</v>
+      </c>
+      <c r="M60" t="s">
+        <v>141</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>472.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61">
         <v>30</v>
       </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>20</v>
-      </c>
-      <c r="F50">
-        <v>0.26</v>
-      </c>
-      <c r="G50">
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>-0.63</v>
+      </c>
+      <c r="G61">
+        <v>3.2</v>
+      </c>
+      <c r="H61">
+        <v>0.32</v>
+      </c>
+      <c r="I61">
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <v>0.5</v>
+      </c>
+      <c r="K61">
+        <v>0.6228422572343338</v>
+      </c>
+      <c r="L61">
+        <v>0.9004594180704441</v>
+      </c>
+      <c r="M61" t="s">
+        <v>141</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1011.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62">
+        <v>40</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>-0.13</v>
+      </c>
+      <c r="G62">
+        <v>1.01</v>
+      </c>
+      <c r="H62">
+        <v>1.29</v>
+      </c>
+      <c r="I62">
+        <v>50</v>
+      </c>
+      <c r="J62">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>141</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>1113.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <v>0.43</v>
+      </c>
+      <c r="G63">
+        <v>1.43</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>0.04997133493630571</v>
+      </c>
+      <c r="L63">
+        <v>0.09177195298258847</v>
+      </c>
+      <c r="M63" t="s">
+        <v>141</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="F64">
+        <v>0.24</v>
+      </c>
+      <c r="G64">
+        <v>2.15</v>
+      </c>
+      <c r="H64">
+        <v>0.96</v>
+      </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+      <c r="J64">
+        <v>0.5</v>
+      </c>
+      <c r="K64">
+        <v>0.3063353175105045</v>
+      </c>
+      <c r="L64">
+        <v>0.4782737307530632</v>
+      </c>
+      <c r="M64" t="s">
+        <v>141</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>337.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>-0.35</v>
+      </c>
+      <c r="G65">
+        <v>-0.14</v>
+      </c>
+      <c r="H65">
+        <v>0.17</v>
+      </c>
+      <c r="I65">
+        <v>50</v>
+      </c>
+      <c r="J65">
+        <v>0.5</v>
+      </c>
+      <c r="K65">
+        <v>0.4954667609436826</v>
+      </c>
+      <c r="L65">
+        <v>0.7712246281453125</v>
+      </c>
+      <c r="M65" t="s">
+        <v>141</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1896.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <v>-0.2</v>
+      </c>
+      <c r="G66">
+        <v>5.57</v>
+      </c>
+      <c r="H66">
+        <v>0.75</v>
+      </c>
+      <c r="I66">
+        <v>50</v>
+      </c>
+      <c r="J66">
+        <v>0.5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>141</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+      <c r="F67">
+        <v>0.29</v>
+      </c>
+      <c r="G67">
+        <v>0.61</v>
+      </c>
+      <c r="H67">
+        <v>0.06</v>
+      </c>
+      <c r="I67">
+        <v>50</v>
+      </c>
+      <c r="J67">
+        <v>0.5</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>141</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68">
+        <v>0.03</v>
+      </c>
+      <c r="G68">
+        <v>0.41</v>
+      </c>
+      <c r="H68">
+        <v>0.29</v>
+      </c>
+      <c r="I68">
+        <v>50</v>
+      </c>
+      <c r="J68">
+        <v>0.5</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>141</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>1506.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69">
+        <v>40</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>-0.11</v>
+      </c>
+      <c r="G69">
+        <v>-0.61</v>
+      </c>
+      <c r="H69">
+        <v>-0.45</v>
+      </c>
+      <c r="I69">
+        <v>50</v>
+      </c>
+      <c r="J69">
+        <v>0.5</v>
+      </c>
+      <c r="K69">
+        <v>0.0138944342409955</v>
+      </c>
+      <c r="L69">
+        <v>0.030441400304414</v>
+      </c>
+      <c r="M69" t="s">
+        <v>141</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>4219.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>0.03</v>
+      </c>
+      <c r="G70">
+        <v>1.84</v>
+      </c>
+      <c r="H70">
+        <v>1.81</v>
+      </c>
+      <c r="I70">
+        <v>50</v>
+      </c>
+      <c r="J70">
+        <v>0.5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>141</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>0.14</v>
+      </c>
+      <c r="G71">
+        <v>0.48</v>
+      </c>
+      <c r="H71">
+        <v>-0.82</v>
+      </c>
+      <c r="I71">
+        <v>50</v>
+      </c>
+      <c r="J71">
+        <v>0.5</v>
+      </c>
+      <c r="K71">
+        <v>0.02079327562489732</v>
+      </c>
+      <c r="L71">
+        <v>0.1475155279503106</v>
+      </c>
+      <c r="M71" t="s">
+        <v>141</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>2493.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>-0.06</v>
+      </c>
+      <c r="G72">
+        <v>0.42</v>
+      </c>
+      <c r="H72">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I72">
+        <v>50</v>
+      </c>
+      <c r="J72">
+        <v>0.5</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>141</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>770.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73">
+        <v>30</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>-0.02</v>
+      </c>
+      <c r="G73">
+        <v>1.03</v>
+      </c>
+      <c r="H73">
+        <v>-0.7</v>
+      </c>
+      <c r="I73">
+        <v>50</v>
+      </c>
+      <c r="J73">
+        <v>0.5</v>
+      </c>
+      <c r="K73">
+        <v>0.1411127750259181</v>
+      </c>
+      <c r="L73">
+        <v>0.2298850574712644</v>
+      </c>
+      <c r="M73" t="s">
+        <v>141</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>0.08</v>
+      </c>
+      <c r="G74">
+        <v>0.36</v>
+      </c>
+      <c r="H74">
+        <v>-0.37</v>
+      </c>
+      <c r="I74">
+        <v>50</v>
+      </c>
+      <c r="J74">
+        <v>0.5</v>
+      </c>
+      <c r="K74">
+        <v>0.0002855470367360105</v>
+      </c>
+      <c r="L74">
+        <v>0.01116694584031267</v>
+      </c>
+      <c r="M74" t="s">
+        <v>141</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1298.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75">
+        <v>30</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>0.23</v>
+      </c>
+      <c r="G75">
+        <v>0.82</v>
+      </c>
+      <c r="H75">
+        <v>0.09</v>
+      </c>
+      <c r="I75">
+        <v>50</v>
+      </c>
+      <c r="J75">
+        <v>0.5</v>
+      </c>
+      <c r="K75">
+        <v>0.02590541116319323</v>
+      </c>
+      <c r="L75">
+        <v>0.05444126074498568</v>
+      </c>
+      <c r="M75" t="s">
+        <v>141</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>709.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>-0.36</v>
+      </c>
+      <c r="G76">
+        <v>1.19</v>
+      </c>
+      <c r="H76">
+        <v>-0.17</v>
+      </c>
+      <c r="I76">
+        <v>50</v>
+      </c>
+      <c r="J76">
+        <v>0.5</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0.1096892138939671</v>
+      </c>
+      <c r="M76" t="s">
+        <v>141</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>2146.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
+      </c>
+      <c r="G77">
+        <v>0.49</v>
+      </c>
+      <c r="H77">
+        <v>-0.38</v>
+      </c>
+      <c r="I77">
+        <v>50</v>
+      </c>
+      <c r="J77">
+        <v>0.5</v>
+      </c>
+      <c r="K77">
+        <v>0.48610517018535</v>
+      </c>
+      <c r="L77">
+        <v>0.4348959302975016</v>
+      </c>
+      <c r="M77" t="s">
+        <v>141</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>386.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>-0.09</v>
+      </c>
+      <c r="G78">
+        <v>-0.15</v>
+      </c>
+      <c r="H78">
+        <v>-0.53</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <v>0.5</v>
+      </c>
+      <c r="K78">
+        <v>0.3880647526651011</v>
+      </c>
+      <c r="L78">
+        <v>0.4064272211720227</v>
+      </c>
+      <c r="M78" t="s">
+        <v>141</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1906.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>-0.34</v>
+      </c>
+      <c r="G79">
+        <v>-0.97</v>
+      </c>
+      <c r="H79">
+        <v>-0.21</v>
+      </c>
+      <c r="I79">
+        <v>50</v>
+      </c>
+      <c r="J79">
+        <v>0.5</v>
+      </c>
+      <c r="K79">
+        <v>0.1262320594846996</v>
+      </c>
+      <c r="L79">
+        <v>0.2247536945812808</v>
+      </c>
+      <c r="M79" t="s">
+        <v>141</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>0.13</v>
+      </c>
+      <c r="G80">
+        <v>0.18</v>
+      </c>
+      <c r="H80">
+        <v>-0.7</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="J80">
+        <v>0.5</v>
+      </c>
+      <c r="K80">
+        <v>0.01419083291499631</v>
+      </c>
+      <c r="L80">
+        <v>0.1997418302873837</v>
+      </c>
+      <c r="M80" t="s">
+        <v>141</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1069.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>0.76</v>
+      </c>
+      <c r="G81">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H81">
+        <v>-1.51</v>
+      </c>
+      <c r="I81">
+        <v>50</v>
+      </c>
+      <c r="J81">
+        <v>0.5</v>
+      </c>
+      <c r="K81">
+        <v>0.4971720476219328</v>
+      </c>
+      <c r="L81">
+        <v>0.9440673515345869</v>
+      </c>
+      <c r="M81" t="s">
+        <v>141</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>451.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>0.16</v>
+      </c>
+      <c r="G82">
+        <v>1.35</v>
+      </c>
+      <c r="H82">
+        <v>-0.38</v>
+      </c>
+      <c r="I82">
+        <v>50</v>
+      </c>
+      <c r="J82">
+        <v>0.5</v>
+      </c>
+      <c r="K82">
+        <v>0.1219158200290671</v>
+      </c>
+      <c r="L82">
+        <v>0.280811232449298</v>
+      </c>
+      <c r="M82" t="s">
+        <v>141</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>3437.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>-0.01</v>
+      </c>
+      <c r="G83">
+        <v>0.65</v>
+      </c>
+      <c r="H83">
+        <v>0.29</v>
+      </c>
+      <c r="I83">
+        <v>50</v>
+      </c>
+      <c r="J83">
+        <v>0.5</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0.580952380952381</v>
+      </c>
+      <c r="M83" t="s">
+        <v>141</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>0.65</v>
+      </c>
+      <c r="G84">
+        <v>2.46</v>
+      </c>
+      <c r="H84">
+        <v>-0.33</v>
+      </c>
+      <c r="I84">
+        <v>50</v>
+      </c>
+      <c r="J84">
+        <v>0.5</v>
+      </c>
+      <c r="K84">
+        <v>0.003747727939936429</v>
+      </c>
+      <c r="L84">
+        <v>0.02887833905795358</v>
+      </c>
+      <c r="M84" t="s">
+        <v>141</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>1.22</v>
+      </c>
+      <c r="G85">
+        <v>3.87</v>
+      </c>
+      <c r="H85">
+        <v>0.41</v>
+      </c>
+      <c r="I85">
+        <v>50</v>
+      </c>
+      <c r="J85">
+        <v>0.5</v>
+      </c>
+      <c r="K85">
+        <v>0.23900437190169</v>
+      </c>
+      <c r="L85">
+        <v>0.5969423488960325</v>
+      </c>
+      <c r="M85" t="s">
+        <v>141</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>327.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86">
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>0.1</v>
+      </c>
+      <c r="G86">
+        <v>-0.09</v>
+      </c>
+      <c r="H86">
+        <v>-0.54</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>141</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>-0.08</v>
+      </c>
+      <c r="G87">
+        <v>-0.57</v>
+      </c>
+      <c r="H87">
+        <v>-0.5</v>
+      </c>
+      <c r="I87">
+        <v>50</v>
+      </c>
+      <c r="J87">
+        <v>0.5</v>
+      </c>
+      <c r="K87">
+        <v>0.07986833601463694</v>
+      </c>
+      <c r="L87">
+        <v>0.2666913889275174</v>
+      </c>
+      <c r="M87" t="s">
+        <v>141</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1446.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>0.31</v>
+      </c>
+      <c r="G88">
+        <v>0.59</v>
+      </c>
+      <c r="H88">
+        <v>0.31</v>
+      </c>
+      <c r="I88">
+        <v>50</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
+      </c>
+      <c r="K88">
+        <v>0.0679893978667061</v>
+      </c>
+      <c r="L88">
+        <v>0.09236076336727314</v>
+      </c>
+      <c r="M88" t="s">
+        <v>141</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>377.35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>0.73</v>
+      </c>
+      <c r="G89">
+        <v>1.49</v>
+      </c>
+      <c r="H89">
+        <v>0.37</v>
+      </c>
+      <c r="I89">
+        <v>50</v>
+      </c>
+      <c r="J89">
+        <v>0.5</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0.03170302908032395</v>
+      </c>
+      <c r="M89" t="s">
+        <v>141</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>405.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0.7</v>
+      </c>
+      <c r="H90">
+        <v>1.22</v>
+      </c>
+      <c r="I90">
+        <v>50</v>
+      </c>
+      <c r="J90">
+        <v>0.5</v>
+      </c>
+      <c r="K90">
+        <v>0.1659279906132484</v>
+      </c>
+      <c r="L90">
+        <v>0.1901487180932518</v>
+      </c>
+      <c r="M90" t="s">
+        <v>141</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>376.35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>0.35</v>
+      </c>
+      <c r="G91">
+        <v>1.32</v>
+      </c>
+      <c r="H91">
+        <v>0.24</v>
+      </c>
+      <c r="I91">
+        <v>50</v>
+      </c>
+      <c r="J91">
+        <v>0.5</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0.01683851304704119</v>
+      </c>
+      <c r="M91" t="s">
+        <v>141</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>79.62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>0.42</v>
+      </c>
+      <c r="G92">
+        <v>0.98</v>
+      </c>
+      <c r="H92">
+        <v>-0.04</v>
+      </c>
+      <c r="I92">
+        <v>50</v>
+      </c>
+      <c r="J92">
+        <v>0.5</v>
+      </c>
+      <c r="K92">
+        <v>0.1443826860695968</v>
+      </c>
+      <c r="L92">
+        <v>0.3400889767671775</v>
+      </c>
+      <c r="M92" t="s">
+        <v>141</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1276.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>-0.06</v>
+      </c>
+      <c r="G93">
+        <v>0.57</v>
+      </c>
+      <c r="H93">
+        <v>-0.13</v>
+      </c>
+      <c r="I93">
+        <v>50</v>
+      </c>
+      <c r="J93">
+        <v>0.5</v>
+      </c>
+      <c r="K93">
+        <v>0.03400944577415862</v>
+      </c>
+      <c r="L93">
+        <v>0.237391136449092</v>
+      </c>
+      <c r="M93" t="s">
+        <v>141</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>316.45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>0.39</v>
+      </c>
+      <c r="G94">
+        <v>2.59</v>
+      </c>
+      <c r="H94">
+        <v>0.17</v>
+      </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="J94">
+        <v>0.5</v>
+      </c>
+      <c r="K94">
+        <v>0.1328157619662538</v>
+      </c>
+      <c r="L94">
+        <v>0.3303216479942175</v>
+      </c>
+      <c r="M94" t="s">
+        <v>141</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>2233.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>0.27</v>
+      </c>
+      <c r="G95">
+        <v>0.9</v>
+      </c>
+      <c r="H95">
+        <v>-0.33</v>
+      </c>
+      <c r="I95">
+        <v>50</v>
+      </c>
+      <c r="J95">
+        <v>0.5</v>
+      </c>
+      <c r="K95">
+        <v>0.1267661428760069</v>
+      </c>
+      <c r="L95">
+        <v>0.4064352243861135</v>
+      </c>
+      <c r="M95" t="s">
+        <v>141</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>30110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>0.19</v>
+      </c>
+      <c r="G96">
+        <v>1.34</v>
+      </c>
+      <c r="H96">
+        <v>-0.39</v>
+      </c>
+      <c r="I96">
+        <v>50</v>
+      </c>
+      <c r="J96">
+        <v>0.5</v>
+      </c>
+      <c r="K96">
+        <v>0.006105775931291143</v>
+      </c>
+      <c r="L96">
+        <v>0.0390625</v>
+      </c>
+      <c r="M96" t="s">
+        <v>141</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1139.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>0.52</v>
+      </c>
+      <c r="G97">
+        <v>0.62</v>
+      </c>
+      <c r="H97">
+        <v>-0.65</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>0.1737136914750301</v>
+      </c>
+      <c r="L97">
+        <v>0.6238064926798218</v>
+      </c>
+      <c r="M97" t="s">
+        <v>141</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>-0.02</v>
+      </c>
+      <c r="G98">
+        <v>0.34</v>
+      </c>
+      <c r="H98">
+        <v>-0.29</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="M98" t="s">
+        <v>141</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99">
+        <v>30</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <v>0.02</v>
+      </c>
+      <c r="G99">
+        <v>0.15</v>
+      </c>
+      <c r="H99">
+        <v>-0.63</v>
+      </c>
+      <c r="I99">
+        <v>50</v>
+      </c>
+      <c r="J99">
+        <v>0.5</v>
+      </c>
+      <c r="K99">
+        <v>5.061566675399528</v>
+      </c>
+      <c r="L99">
+        <v>2.72189349112426</v>
+      </c>
+      <c r="M99" t="s">
+        <v>142</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>-0.03</v>
+      </c>
+      <c r="G100">
+        <v>0.55</v>
+      </c>
+      <c r="H100">
+        <v>-0.36</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>0.5</v>
+      </c>
+      <c r="K100">
+        <v>0.04695433491969746</v>
+      </c>
+      <c r="L100">
+        <v>0.1187720181177655</v>
+      </c>
+      <c r="M100" t="s">
+        <v>141</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>2296.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>-0.15</v>
+      </c>
+      <c r="G101">
+        <v>3.63</v>
+      </c>
+      <c r="H101">
+        <v>0.32</v>
+      </c>
+      <c r="I101">
+        <v>50</v>
+      </c>
+      <c r="J101">
+        <v>0.5</v>
+      </c>
+      <c r="K101">
+        <v>0.0577175960478955</v>
+      </c>
+      <c r="L101">
+        <v>0.1174360754367696</v>
+      </c>
+      <c r="M101" t="s">
+        <v>141</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>32.55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>0.05</v>
+      </c>
+      <c r="G102">
+        <v>1.34</v>
+      </c>
+      <c r="H102">
+        <v>0.67</v>
+      </c>
+      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="J102">
+        <v>0.5</v>
+      </c>
+      <c r="K102">
+        <v>0.07166955248923511</v>
+      </c>
+      <c r="L102">
+        <v>0.1587899170912498</v>
+      </c>
+      <c r="M102" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>214.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>-0.24</v>
+      </c>
+      <c r="G103">
+        <v>2.57</v>
+      </c>
+      <c r="H103">
+        <v>1.05</v>
+      </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0.1380643379814994</v>
+      </c>
+      <c r="M103" t="s">
+        <v>141</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>291.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104">
+        <v>30</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>0.28</v>
+      </c>
+      <c r="G104">
+        <v>1.74</v>
+      </c>
+      <c r="H104">
+        <v>0.79</v>
+      </c>
+      <c r="I104">
+        <v>50</v>
+      </c>
+      <c r="J104">
+        <v>0.5</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>141</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>659.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>-0.15</v>
+      </c>
+      <c r="G105">
+        <v>0.28</v>
+      </c>
+      <c r="H105">
+        <v>0.12</v>
+      </c>
+      <c r="I105">
+        <v>50</v>
+      </c>
+      <c r="J105">
+        <v>0.5</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0.0398355178617322</v>
+      </c>
+      <c r="M105" t="s">
+        <v>141</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1027.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="F106">
+        <v>-0.21</v>
+      </c>
+      <c r="G106">
         <v>-0.25</v>
       </c>
-      <c r="H50">
-        <v>-0.1</v>
-      </c>
-      <c r="I50">
-        <v>50</v>
-      </c>
-      <c r="J50">
-        <v>0.5</v>
-      </c>
-      <c r="K50">
-        <v>0.7717633363042432</v>
-      </c>
-      <c r="L50">
-        <v>0.959140610013428</v>
-      </c>
-      <c r="M50" t="s">
-        <v>75</v>
-      </c>
-      <c r="N50">
+      <c r="H106">
+        <v>0.62</v>
+      </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>0.5</v>
+      </c>
+      <c r="K106">
+        <v>0.9388654991920473</v>
+      </c>
+      <c r="L106">
+        <v>0.7702467113952137</v>
+      </c>
+      <c r="M106" t="s">
+        <v>142</v>
+      </c>
+      <c r="N106">
         <v>2</v>
       </c>
-      <c r="O50">
-        <v>1897.1</v>
+      <c r="O106">
+        <v>1896.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>-0.06</v>
+      </c>
+      <c r="G107">
+        <v>0.41</v>
+      </c>
+      <c r="H107">
+        <v>-0.18</v>
+      </c>
+      <c r="I107">
+        <v>50</v>
+      </c>
+      <c r="J107">
+        <v>0.5</v>
+      </c>
+      <c r="K107">
+        <v>2.067134993542771</v>
+      </c>
+      <c r="L107">
+        <v>1.506882240774272</v>
+      </c>
+      <c r="M107" t="s">
+        <v>142</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1951.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>-0.25</v>
+      </c>
+      <c r="G108">
+        <v>1.17</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>50</v>
+      </c>
+      <c r="J108">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>0.6558792688693095</v>
+      </c>
+      <c r="L108">
+        <v>1.151250496228662</v>
+      </c>
+      <c r="M108" t="s">
+        <v>142</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>1604.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>0.52</v>
+      </c>
+      <c r="G109">
+        <v>2.1</v>
+      </c>
+      <c r="H109">
+        <v>0.36</v>
+      </c>
+      <c r="I109">
+        <v>50</v>
+      </c>
+      <c r="J109">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>0.7438003114317155</v>
+      </c>
+      <c r="L109">
+        <v>1.412646739666568</v>
+      </c>
+      <c r="M109" t="s">
+        <v>142</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>764.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>-0.17</v>
+      </c>
+      <c r="G110">
+        <v>0.42</v>
+      </c>
+      <c r="H110">
+        <v>0.31</v>
+      </c>
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <v>0.5</v>
+      </c>
+      <c r="K110">
+        <v>3.48518643440794</v>
+      </c>
+      <c r="L110">
+        <v>2.070534698521047</v>
+      </c>
+      <c r="M110" t="s">
+        <v>142</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>430.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>0.6</v>
+      </c>
+      <c r="G111">
+        <v>2.79</v>
+      </c>
+      <c r="H111">
+        <v>0.31</v>
+      </c>
+      <c r="I111">
+        <v>50</v>
+      </c>
+      <c r="J111">
+        <v>0.5</v>
+      </c>
+      <c r="K111">
+        <v>0.7322049532314113</v>
+      </c>
+      <c r="L111">
+        <v>0.8273108211294593</v>
+      </c>
+      <c r="M111" t="s">
+        <v>142</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>124.34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+      <c r="F112">
+        <v>0.44</v>
+      </c>
+      <c r="G112">
+        <v>2.81</v>
+      </c>
+      <c r="H112">
+        <v>0.41</v>
+      </c>
+      <c r="I112">
+        <v>50</v>
+      </c>
+      <c r="J112">
+        <v>0.5</v>
+      </c>
+      <c r="K112">
+        <v>0.8973959281209363</v>
+      </c>
+      <c r="L112">
+        <v>1.418398205053165</v>
+      </c>
+      <c r="M112" t="s">
+        <v>142</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>0.09</v>
+      </c>
+      <c r="G113">
+        <v>1.6</v>
+      </c>
+      <c r="H113">
+        <v>0.44</v>
+      </c>
+      <c r="I113">
+        <v>50</v>
+      </c>
+      <c r="J113">
+        <v>0.5</v>
+      </c>
+      <c r="K113">
+        <v>1.094791763418578</v>
+      </c>
+      <c r="L113">
+        <v>1.207721816606856</v>
+      </c>
+      <c r="M113" t="s">
+        <v>142</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>70.01000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>1.48</v>
+      </c>
+      <c r="G114">
+        <v>4.55</v>
+      </c>
+      <c r="H114">
+        <v>0.5</v>
+      </c>
+      <c r="I114">
+        <v>50</v>
+      </c>
+      <c r="J114">
+        <v>0.5</v>
+      </c>
+      <c r="K114">
+        <v>1.305533003792128</v>
+      </c>
+      <c r="L114">
+        <v>1.217539493211016</v>
+      </c>
+      <c r="M114" t="s">
+        <v>142</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>-0.26</v>
+      </c>
+      <c r="G115">
+        <v>-0.68</v>
+      </c>
+      <c r="H115">
+        <v>0.12</v>
+      </c>
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <v>0.5</v>
+      </c>
+      <c r="K115">
+        <v>3.852650494160609</v>
+      </c>
+      <c r="L115">
+        <v>1.293436293436294</v>
+      </c>
+      <c r="M115" t="s">
+        <v>142</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>2790.7</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="132">
   <si>
     <t>ticker</t>
   </si>
@@ -61,391 +61,352 @@
     <t>close</t>
   </si>
   <si>
-    <t>IRMENERGY</t>
-  </si>
-  <si>
-    <t>SANOFI</t>
+    <t>PANACEABIO</t>
+  </si>
+  <si>
+    <t>DRREDDY</t>
+  </si>
+  <si>
+    <t>DEEPAKNTR</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>MAXESTATES</t>
+  </si>
+  <si>
+    <t>BRIGADE</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>ROUTE</t>
+  </si>
+  <si>
+    <t>GRSE</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>ELECTCAST</t>
   </si>
   <si>
     <t>UBL</t>
   </si>
   <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>INDUSTOWER</t>
-  </si>
-  <si>
-    <t>SULA</t>
-  </si>
-  <si>
-    <t>ANDHRSUGAR</t>
+    <t>CRISIL</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>RATNAMANI</t>
+  </si>
+  <si>
+    <t>RHIM</t>
+  </si>
+  <si>
+    <t>FDC</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>JWL</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>POKARNA</t>
+  </si>
+  <si>
+    <t>MAXHEALTH</t>
+  </si>
+  <si>
+    <t>LLOYDSME</t>
+  </si>
+  <si>
+    <t>BLUEDART</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>NETWORK18</t>
+  </si>
+  <si>
+    <t>LTIM</t>
+  </si>
+  <si>
+    <t>CHOLAHLDNG</t>
+  </si>
+  <si>
+    <t>VTL</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
+  </si>
+  <si>
+    <t>SBFC</t>
+  </si>
+  <si>
+    <t>BALRAMCHIN</t>
+  </si>
+  <si>
+    <t>CYIENT</t>
+  </si>
+  <si>
+    <t>MANYAVAR</t>
+  </si>
+  <si>
+    <t>TATAELXSI</t>
+  </si>
+  <si>
+    <t>ATUL</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>ALKYLAMINE</t>
+  </si>
+  <si>
+    <t>JSL</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>GODREJPROP</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>ANURAS</t>
+  </si>
+  <si>
+    <t>ADANIENSOL</t>
+  </si>
+  <si>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>PERSISTENT</t>
+  </si>
+  <si>
+    <t>JUBLINGREA</t>
+  </si>
+  <si>
+    <t>APARINDS</t>
+  </si>
+  <si>
+    <t>PETRONET</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>GNFC</t>
+  </si>
+  <si>
+    <t>JIOFIN</t>
+  </si>
+  <si>
+    <t>SAPPHIRE</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>BANKBARODA</t>
+  </si>
+  <si>
+    <t>CAMS</t>
+  </si>
+  <si>
+    <t>JAIBALAJI</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>DCMSHRIRAM</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>GMMPFAUDLR</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>MAHSEAMLES</t>
+  </si>
+  <si>
+    <t>OFSS</t>
+  </si>
+  <si>
+    <t>PDSL</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>SIGACHI</t>
+  </si>
+  <si>
+    <t>REDINGTON</t>
+  </si>
+  <si>
+    <t>TATACOMM</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
   </si>
   <si>
     <t>CERA</t>
   </si>
   <si>
-    <t>DCMSHRIRAM</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>RATNAMANI</t>
-  </si>
-  <si>
-    <t>JAIBALAJI</t>
-  </si>
-  <si>
-    <t>PATELENG</t>
-  </si>
-  <si>
-    <t>GIPCL</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>FIVESTAR</t>
-  </si>
-  <si>
-    <t>COSMOFIRST</t>
-  </si>
-  <si>
-    <t>PCBL</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>SARDAEN</t>
-  </si>
-  <si>
-    <t>RAYMOND</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
+    <t>LTTS</t>
+  </si>
+  <si>
+    <t>MAZDOCK</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>360ONE</t>
   </si>
   <si>
     <t>UJJIVANSFB</t>
   </si>
   <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>GILLETTE</t>
-  </si>
-  <si>
-    <t>CELLO</t>
-  </si>
-  <si>
-    <t>TRITURBINE</t>
-  </si>
-  <si>
-    <t>DEEPAKNTR</t>
-  </si>
-  <si>
-    <t>MSUMI</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>AAVAS</t>
-  </si>
-  <si>
-    <t>SHRIRAMPPS</t>
-  </si>
-  <si>
-    <t>VINDHYATEL</t>
+    <t>USHAMART</t>
+  </si>
+  <si>
+    <t>POLYPLEX</t>
+  </si>
+  <si>
+    <t>SBICARD</t>
   </si>
   <si>
     <t>KOTAKBANK</t>
   </si>
   <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>FINEORG</t>
-  </si>
-  <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
-    <t>JUBLPHARMA</t>
-  </si>
-  <si>
-    <t>ELECON</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL</t>
-  </si>
-  <si>
-    <t>PGHH</t>
-  </si>
-  <si>
-    <t>AVANTIFEED</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
-  </si>
-  <si>
-    <t>M&amp;MFIN</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>KPRMILL</t>
-  </si>
-  <si>
-    <t>ANURAS</t>
-  </si>
-  <si>
-    <t>UNITDSPR</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>LUPIN</t>
-  </si>
-  <si>
-    <t>EMBDL</t>
-  </si>
-  <si>
-    <t>BAJAJHLDNG</t>
-  </si>
-  <si>
-    <t>RAINBOW</t>
-  </si>
-  <si>
-    <t>LTTS</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>GRSE</t>
-  </si>
-  <si>
-    <t>ADANIENSOL</t>
-  </si>
-  <si>
-    <t>SKFINDIA</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>CASTROLIND</t>
+  </si>
+  <si>
+    <t>ALLCARGO</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
   </si>
   <si>
     <t>IRCTC</t>
   </si>
   <si>
-    <t>SAFARI</t>
-  </si>
-  <si>
-    <t>HINDPETRO</t>
-  </si>
-  <si>
-    <t>AFFLE</t>
-  </si>
-  <si>
-    <t>CLEAN</t>
-  </si>
-  <si>
-    <t>KFINTECH</t>
-  </si>
-  <si>
-    <t>SONACOMS</t>
-  </si>
-  <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>APARINDS</t>
-  </si>
-  <si>
-    <t>ANGELONE</t>
-  </si>
-  <si>
-    <t>RVNL</t>
-  </si>
-  <si>
-    <t>BLUEDART</t>
-  </si>
-  <si>
-    <t>CHOLAFIN</t>
-  </si>
-  <si>
-    <t>BSOFT</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>NHPC</t>
-  </si>
-  <si>
-    <t>MGL</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>BHARATFORG</t>
-  </si>
-  <si>
-    <t>OFSS</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>ATUL</t>
-  </si>
-  <si>
-    <t>ADANIENT</t>
-  </si>
-  <si>
-    <t>ALLCARGO</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>SURYAROSNI</t>
-  </si>
-  <si>
-    <t>MAHSEAMLES</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV</t>
-  </si>
-  <si>
-    <t>AZAD</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>POONAWALLA</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>DBREALTY</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB</t>
-  </si>
-  <si>
-    <t>NSLNISP</t>
-  </si>
-  <si>
-    <t>GLAXO</t>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
+    <t>Technology</t>
   </si>
   <si>
     <t>Communication Services</t>
   </si>
   <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Technology</t>
+    <t>Weak Short</t>
   </si>
   <si>
     <t>Neutral</t>
   </si>
   <si>
     <t>No Signal</t>
-  </si>
-  <si>
-    <t>Weak Short</t>
   </si>
   <si>
     <t>Short</t>
@@ -806,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,25 +825,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G2">
-        <v>0.08</v>
+        <v>-1.16</v>
       </c>
       <c r="H2">
-        <v>-0.36</v>
+        <v>1.43</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -894,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.445980985306828</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>265</v>
+        <v>405.95</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -911,25 +872,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>-0.52</v>
       </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>-0.37</v>
       </c>
       <c r="H3">
-        <v>0.26</v>
+        <v>-0.02</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -938,19 +899,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2903629939449985</v>
       </c>
       <c r="L3">
-        <v>0.392156862745098</v>
+        <v>0.1234710362335564</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>5116</v>
+        <v>1252.7</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -958,25 +919,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
         <v>130</v>
       </c>
-      <c r="C4">
-        <v>180</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>160</v>
-      </c>
       <c r="F4">
-        <v>0.03</v>
+        <v>-0.16</v>
       </c>
       <c r="G4">
-        <v>1.78</v>
+        <v>-0.19</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -991,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O4">
-        <v>1828.5</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1005,25 +966,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C5">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>0.83</v>
+        <v>-0.67</v>
       </c>
       <c r="G5">
-        <v>3.02</v>
+        <v>-0.39</v>
       </c>
       <c r="H5">
-        <v>2.83</v>
+        <v>0.61</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1032,19 +993,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.7224478428405778</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9001916403377014</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>1298.4</v>
+        <v>197.3</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1052,25 +1013,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C6">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F6">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="G6">
-        <v>1.11</v>
+        <v>2.14</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>3.02</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1079,19 +1040,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0176940490749647</v>
       </c>
       <c r="L6">
-        <v>0.1445853451477689</v>
+        <v>0.04574042309891366</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>637.35</v>
+        <v>449.1</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1099,25 +1060,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>130</v>
       </c>
-      <c r="C7">
-        <v>160</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>150</v>
-      </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>-0.38</v>
       </c>
       <c r="G7">
-        <v>0.06</v>
+        <v>-0.71</v>
       </c>
       <c r="H7">
-        <v>-1.96</v>
+        <v>1.15</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1126,19 +1087,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>1.067173498157313</v>
+        <v>0.7684094018126775</v>
       </c>
       <c r="L7">
-        <v>1.724540562493654</v>
+        <v>0.6092706517090503</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7">
-        <v>1563.5</v>
+        <v>908.35</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1146,25 +1107,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F8">
-        <v>-0.31</v>
+        <v>-0.19</v>
       </c>
       <c r="G8">
-        <v>-1.99</v>
+        <v>-0.75</v>
       </c>
       <c r="H8">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1173,19 +1134,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.005519713921112285</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0118773577969198</v>
+        <v>0.1261750835441457</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8">
-        <v>333.15</v>
+        <v>262.95</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1193,25 +1154,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F9">
-        <v>-0.42</v>
+        <v>0.47</v>
       </c>
       <c r="G9">
-        <v>1.72</v>
+        <v>0.65</v>
       </c>
       <c r="H9">
-        <v>-0.59</v>
+        <v>1.26</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1220,19 +1181,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.0002876573425732638</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.009723685276719877</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>252.97</v>
+        <v>867.9</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1240,25 +1201,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F10">
-        <v>-0.44</v>
+        <v>-0.19</v>
       </c>
       <c r="G10">
-        <v>5.92</v>
+        <v>-0.12</v>
       </c>
       <c r="H10">
-        <v>2.69</v>
+        <v>0.25</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1267,19 +1228,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.05739944150073974</v>
       </c>
       <c r="L10">
-        <v>0.001688654353562005</v>
+        <v>0.3005927180355631</v>
       </c>
       <c r="M10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10">
-        <v>79.43000000000001</v>
+        <v>2374.9</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1287,25 +1248,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F11">
-        <v>0.21</v>
+        <v>-0.79</v>
       </c>
       <c r="G11">
-        <v>0.17</v>
+        <v>-0.9</v>
       </c>
       <c r="H11">
-        <v>-0.4</v>
+        <v>-0.01</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1314,19 +1275,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.251818719633869</v>
       </c>
       <c r="L11">
-        <v>0.4810996563573883</v>
+        <v>0.4503546868559776</v>
       </c>
       <c r="M11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>6305</v>
+        <v>1579.9</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1334,25 +1295,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>-0.27</v>
+        <v>-0.29</v>
       </c>
       <c r="G12">
-        <v>1.82</v>
+        <v>-0.47</v>
       </c>
       <c r="H12">
-        <v>0.52</v>
+        <v>0.93</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1361,19 +1322,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>5.139860139860423</v>
+        <v>0.2548314433887576</v>
       </c>
       <c r="L12">
-        <v>2.847457627118644</v>
+        <v>0.1289566236811255</v>
       </c>
       <c r="M12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>1245.2</v>
+        <v>97.68000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1381,25 +1342,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C13">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>0.06</v>
+        <v>-0.38</v>
       </c>
       <c r="G13">
-        <v>0.92</v>
+        <v>-0.87</v>
       </c>
       <c r="H13">
-        <v>-0.62</v>
+        <v>0.32</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1408,19 +1369,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.004792551006435394</v>
+        <v>0.0895961873962796</v>
       </c>
       <c r="L13">
-        <v>0.01119910407167427</v>
+        <v>0.125550954988647</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>252.3</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1428,25 +1389,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>-0.34</v>
+        <v>-0.16</v>
       </c>
       <c r="G14">
-        <v>1.15</v>
+        <v>-0.47</v>
       </c>
       <c r="H14">
-        <v>1.44</v>
+        <v>0.43</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1455,19 +1416,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.3521878186899322</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5524893975483646</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="M14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>934.6</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1475,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>120</v>
@@ -1487,13 +1448,13 @@
         <v>100</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
       <c r="G15">
-        <v>-0.29</v>
+        <v>0.02</v>
       </c>
       <c r="H15">
-        <v>-0.25</v>
+        <v>0.58</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1502,19 +1463,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.03144523976995203</v>
+        <v>0.9021744069225673</v>
       </c>
       <c r="L15">
-        <v>0.0673758865248227</v>
+        <v>0.7815352991985655</v>
       </c>
       <c r="M15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N15">
         <v>10</v>
       </c>
       <c r="O15">
-        <v>358</v>
+        <v>533.75</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1522,25 +1483,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>-0.12</v>
+        <v>-0.03</v>
       </c>
       <c r="G16">
-        <v>4.57</v>
+        <v>0.24</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>-1.27</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1549,19 +1510,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>1.442937102741782</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.950150011539349</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O16">
-        <v>569.9</v>
+        <v>2374.5</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1569,25 +1530,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C17">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F17">
-        <v>-0.78</v>
+        <v>-0.32</v>
       </c>
       <c r="G17">
-        <v>-1.33</v>
+        <v>-0.53</v>
       </c>
       <c r="H17">
-        <v>-0.02</v>
+        <v>-0.41</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1599,16 +1560,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.000946880030300161</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O17">
-        <v>2372</v>
+        <v>468.85</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1616,7 +1577,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>110</v>
@@ -1628,13 +1589,13 @@
         <v>90</v>
       </c>
       <c r="F18">
-        <v>-0.22</v>
+        <v>-0.06</v>
       </c>
       <c r="G18">
-        <v>1.1</v>
+        <v>0.04</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1643,19 +1604,19 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2897375405485209</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.6520657043305127</v>
       </c>
       <c r="M18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N18">
         <v>9</v>
       </c>
       <c r="O18">
-        <v>103.12</v>
+        <v>466.7</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1663,25 +1624,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C19">
         <v>110</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F19">
-        <v>-0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G19">
-        <v>2.36</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H19">
-        <v>0.3</v>
+        <v>-1.16</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1690,19 +1651,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.5015627417607922</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7184906730973828</v>
+        <v>0.1553744268976057</v>
       </c>
       <c r="M19" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19">
-        <v>38.11</v>
+        <v>811.05</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1710,25 +1671,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="G20">
-        <v>6.46</v>
+        <v>-0.04</v>
       </c>
       <c r="H20">
-        <v>-0.05</v>
+        <v>-0.83</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1737,19 +1698,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.1899302035632322</v>
+        <v>0.2537370070299848</v>
       </c>
       <c r="L20">
-        <v>0.2042862514099511</v>
+        <v>0.2983285139995768</v>
       </c>
       <c r="M20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20">
-        <v>194.9</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1757,25 +1718,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>-0.36</v>
+        <v>-0.78</v>
       </c>
       <c r="G21">
-        <v>0.85</v>
+        <v>-1.22</v>
       </c>
       <c r="H21">
-        <v>-0.11</v>
+        <v>0.96</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1784,19 +1745,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1584292549972731</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2138015739435018</v>
       </c>
       <c r="M21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>307.75</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1804,25 +1765,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C22">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>-0.32</v>
+        <v>-0.08</v>
       </c>
       <c r="G22">
-        <v>-1.42</v>
+        <v>-0.16</v>
       </c>
       <c r="H22">
-        <v>-0.89</v>
+        <v>-0.48</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1831,19 +1792,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.1598634760895345</v>
+        <v>0.5316331547106466</v>
       </c>
       <c r="L22">
-        <v>0.4123377674207852</v>
+        <v>0.9386496751786653</v>
       </c>
       <c r="M22" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>540.15</v>
+        <v>393.7</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1851,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C23">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="G23">
-        <v>1.38</v>
+        <v>-0.95</v>
       </c>
       <c r="H23">
-        <v>-0.14</v>
+        <v>-2.81</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1878,19 +1839,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.7251575375666862</v>
+        <v>0.1800774016901674</v>
       </c>
       <c r="L23">
-        <v>0.5882352941176471</v>
+        <v>0.3999298368707244</v>
       </c>
       <c r="M23" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>1001.15</v>
+        <v>288.15</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1898,25 +1859,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C24">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
       <c r="E24">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>0.11</v>
+        <v>-0.4</v>
       </c>
       <c r="G24">
-        <v>1.08</v>
+        <v>-0.21</v>
       </c>
       <c r="H24">
-        <v>0.31</v>
+        <v>1.25</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1925,19 +1886,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.4439514044459688</v>
+        <v>0.102481341343779</v>
       </c>
       <c r="L24">
-        <v>0.4216146552517721</v>
+        <v>0.09611919288709493</v>
       </c>
       <c r="M24" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24">
-        <v>379.3</v>
+        <v>42.29</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1945,25 +1906,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>0.04</v>
+        <v>-0.63</v>
       </c>
       <c r="G25">
-        <v>0.14</v>
+        <v>-1.06</v>
       </c>
       <c r="H25">
-        <v>-0.63</v>
+        <v>1.72</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1972,19 +1933,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.2291185902238739</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2747307046150805</v>
+        <v>0.07405256279947728</v>
       </c>
       <c r="M25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>6103.5</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1992,25 +1953,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C26">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>45</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>-0.33</v>
+        <v>-0.49</v>
       </c>
       <c r="G26">
-        <v>-1.15</v>
+        <v>-1.04</v>
       </c>
       <c r="H26">
-        <v>0.48</v>
+        <v>-0.72</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -2019,19 +1980,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.01043347212427675</v>
+        <v>0.02368153526912407</v>
       </c>
       <c r="L26">
-        <v>0.1283371623227442</v>
+        <v>0.0265522786324262</v>
       </c>
       <c r="M26" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>598</v>
+        <v>1148.9</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2039,25 +2000,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>-0.66</v>
+        <v>-0.96</v>
       </c>
       <c r="G27">
-        <v>1.59</v>
+        <v>-1.6</v>
       </c>
       <c r="H27">
-        <v>0.02</v>
+        <v>0.78</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2066,19 +2027,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.1573230116119498</v>
       </c>
       <c r="L27">
-        <v>0.9621606414404277</v>
+        <v>0.1804060878347787</v>
       </c>
       <c r="M27" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>611.9</v>
+        <v>1295.1</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2086,25 +2047,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
         <v>80</v>
       </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>60</v>
-      </c>
       <c r="F28">
-        <v>-0.36</v>
+        <v>-0.26</v>
       </c>
       <c r="G28">
-        <v>0.74</v>
+        <v>-0.26</v>
       </c>
       <c r="H28">
-        <v>-1.13</v>
+        <v>0.42</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2113,19 +2074,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>10.90718405873099</v>
       </c>
       <c r="L28">
-        <v>0.5308142150247414</v>
+        <v>5.2</v>
       </c>
       <c r="M28" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>266.6</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2133,25 +2094,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
         <v>70</v>
       </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
       <c r="F29">
-        <v>-0.58</v>
+        <v>0.27</v>
       </c>
       <c r="G29">
-        <v>1.03</v>
+        <v>-0.17</v>
       </c>
       <c r="H29">
-        <v>-0.02</v>
+        <v>0.72</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2160,19 +2121,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.07539041464729344</v>
+        <v>0.0007944344684384293</v>
       </c>
       <c r="L29">
-        <v>0.1795585716489029</v>
+        <v>0.09848525397420115</v>
       </c>
       <c r="M29" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O29">
-        <v>43.1</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2180,25 +2141,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
         <v>70</v>
       </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>50</v>
-      </c>
       <c r="F30">
-        <v>0.09</v>
+        <v>-0.09</v>
       </c>
       <c r="G30">
-        <v>1.81</v>
+        <v>0.01</v>
       </c>
       <c r="H30">
-        <v>0.44</v>
+        <v>-1.97</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2207,19 +2168,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.02217172135048522</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.07040528474236091</v>
+        <v>0.0358814352574103</v>
       </c>
       <c r="M30" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>116.08</v>
+        <v>1480.3</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2227,25 +2188,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>50</v>
       </c>
       <c r="F31">
-        <v>-0.26</v>
+        <v>-0.65</v>
       </c>
       <c r="G31">
-        <v>0.87</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H31">
-        <v>0.61</v>
+        <v>2.54</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2254,19 +2215,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0.4260875944538223</v>
+        <v>0.02906315503315019</v>
       </c>
       <c r="L31">
-        <v>0.2744853399875234</v>
+        <v>0.0746782457370464</v>
       </c>
       <c r="M31" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N31">
         <v>5</v>
       </c>
       <c r="O31">
-        <v>947.05</v>
+        <v>55.01</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2274,25 +2235,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>50</v>
       </c>
       <c r="F32">
-        <v>-0.16</v>
+        <v>-0.76</v>
       </c>
       <c r="G32">
-        <v>1.37</v>
+        <v>-0.9</v>
       </c>
       <c r="H32">
-        <v>0.47</v>
+        <v>-0.99</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2301,19 +2262,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.07795815349691602</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.1792336217552534</v>
       </c>
       <c r="M32" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N32">
         <v>5</v>
       </c>
       <c r="O32">
-        <v>10193</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2321,25 +2282,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>20</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F33">
-        <v>-0.28</v>
+        <v>-0.09</v>
       </c>
       <c r="G33">
-        <v>1.39</v>
+        <v>-0.41</v>
       </c>
       <c r="H33">
-        <v>-0.5600000000000001</v>
+        <v>-1.23</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2348,19 +2309,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.3141310495273444</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.5077915099408921</v>
       </c>
       <c r="M33" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>542.35</v>
+        <v>1732.2</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2368,25 +2329,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F34">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="G34">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="H34">
-        <v>0.49</v>
+        <v>1.5</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2395,19 +2356,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.05838985656013911</v>
       </c>
       <c r="L34">
-        <v>0.4480219367108201</v>
+        <v>0.08348026339462417</v>
       </c>
       <c r="M34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>524</v>
+        <v>412.2</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2415,25 +2376,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C35">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F35">
-        <v>0.01</v>
+        <v>-0.32</v>
       </c>
       <c r="G35">
-        <v>-0.63</v>
+        <v>-0.13</v>
       </c>
       <c r="H35">
-        <v>-0.22</v>
+        <v>1.31</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2442,19 +2403,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.002383440588157628</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0.04347826086956522</v>
+        <v>0.1457632245623322</v>
       </c>
       <c r="M35" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>1779.1</v>
+        <v>478.45</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2462,25 +2423,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
         <v>60</v>
       </c>
-      <c r="D36">
-        <v>40</v>
-      </c>
-      <c r="E36">
-        <v>20</v>
-      </c>
       <c r="F36">
-        <v>-0.59</v>
+        <v>-0.38</v>
       </c>
       <c r="G36">
-        <v>0.12</v>
+        <v>-0.47</v>
       </c>
       <c r="H36">
-        <v>-0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2489,19 +2450,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.130997039033846</v>
+        <v>0.06562841117062057</v>
       </c>
       <c r="L36">
-        <v>0.2593301708864377</v>
+        <v>0.2445719990017469</v>
       </c>
       <c r="M36" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>42.04</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2509,25 +2470,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>-0.9</v>
+        <v>-0.46</v>
       </c>
       <c r="G37">
-        <v>-0.5600000000000001</v>
+        <v>-1.42</v>
       </c>
       <c r="H37">
-        <v>-0.04</v>
+        <v>-2.28</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2536,19 +2497,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0.1590016645055754</v>
+        <v>0.7202299356738998</v>
       </c>
       <c r="L37">
-        <v>0.2538671051955393</v>
+        <v>0.3088427963669017</v>
       </c>
       <c r="M37" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>1567.6</v>
+        <v>535.4</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2556,25 +2517,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>0.18</v>
+        <v>-0.78</v>
       </c>
       <c r="G38">
-        <v>-0.06</v>
+        <v>-1.13</v>
       </c>
       <c r="H38">
-        <v>-0.27</v>
+        <v>0.02</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2583,19 +2544,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.657367324033952</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0.8031341821743389</v>
+        <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1526.2</v>
+        <v>1169.4</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2603,25 +2564,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>-0.41</v>
+        <v>0.21</v>
       </c>
       <c r="G39">
-        <v>3.11</v>
+        <v>0.47</v>
       </c>
       <c r="H39">
-        <v>-0.44</v>
+        <v>1.38</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2630,19 +2591,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.05632609030667285</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.1028462090408993</v>
       </c>
       <c r="M39" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O39">
-        <v>87.89</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2650,25 +2611,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>20</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F40">
-        <v>-0.05</v>
+        <v>0.39</v>
       </c>
       <c r="G40">
-        <v>1.84</v>
+        <v>0.05</v>
       </c>
       <c r="H40">
-        <v>0.88</v>
+        <v>0.55</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2677,19 +2638,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.01532988738428883</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.01859120016525511</v>
       </c>
       <c r="M40" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>1520.2</v>
+        <v>5484.5</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2697,25 +2658,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>-0.19</v>
+        <v>0.08</v>
       </c>
       <c r="G41">
-        <v>-0.37</v>
+        <v>0.17</v>
       </c>
       <c r="H41">
-        <v>0.42</v>
+        <v>-0.5</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2724,19 +2685,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.3136027156043446</v>
+        <v>0.1625938041177602</v>
       </c>
       <c r="L41">
-        <v>0.362041928657339</v>
+        <v>1.855104281009879</v>
       </c>
       <c r="M41" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>1961.8</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2744,25 +2705,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>30</v>
       </c>
       <c r="F42">
-        <v>-0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="G42">
-        <v>1.63</v>
+        <v>-0.34</v>
       </c>
       <c r="H42">
-        <v>0.37</v>
+        <v>1.96</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2771,19 +2732,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.4953320172754846</v>
+        <v>0.002180612431417934</v>
       </c>
       <c r="L42">
-        <v>0.7245901639344262</v>
+        <v>0.04338256403713037</v>
       </c>
       <c r="M42" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N42">
         <v>3</v>
       </c>
       <c r="O42">
-        <v>878.05</v>
+        <v>521.35</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2791,25 +2752,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>0.22</v>
+        <v>-0.72</v>
       </c>
       <c r="G43">
-        <v>0.76</v>
+        <v>-0.91</v>
       </c>
       <c r="H43">
-        <v>0.49</v>
+        <v>-1.63</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2818,19 +2779,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2.253776168183079</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1.680497925311203</v>
       </c>
       <c r="M43" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>4760</v>
+        <v>2031.3</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2838,25 +2799,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>40</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>-0.63</v>
+        <v>-0.59</v>
       </c>
       <c r="G44">
-        <v>-0.34</v>
+        <v>-0.52</v>
       </c>
       <c r="H44">
-        <v>-0.12</v>
+        <v>-1.3</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2865,19 +2826,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.0009206709680694962</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.00797371423857903</v>
       </c>
       <c r="M44" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>470.05</v>
+        <v>746.4</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2885,25 +2846,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>0.02</v>
+        <v>-0.35</v>
       </c>
       <c r="G45">
-        <v>1.01</v>
+        <v>-0.57</v>
       </c>
       <c r="H45">
-        <v>0.77</v>
+        <v>0.01</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2912,19 +2873,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.7825846387937397</v>
       </c>
       <c r="L45">
-        <v>3.818525519848771</v>
+        <v>1.612110418521816</v>
       </c>
       <c r="M45" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O45">
-        <v>822.9</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2932,25 +2893,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F46">
-        <v>0.31</v>
+        <v>-0.2</v>
       </c>
       <c r="G46">
-        <v>1.72</v>
+        <v>-0.28</v>
       </c>
       <c r="H46">
-        <v>0.11</v>
+        <v>0.7</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2959,19 +2920,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.2419311376236908</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.4311690338692055</v>
       </c>
       <c r="M46" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O46">
-        <v>327.5</v>
+        <v>1968.6</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2979,25 +2940,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>0.25</v>
+        <v>-0.43</v>
       </c>
       <c r="G47">
-        <v>0.55</v>
+        <v>-1.09</v>
       </c>
       <c r="H47">
-        <v>-0.16</v>
+        <v>-0.45</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -3006,19 +2967,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.4077471967380224</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.6106870229007634</v>
+        <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>32205</v>
+        <v>1047.5</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3026,25 +2987,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>0.66</v>
+        <v>-0.38</v>
       </c>
       <c r="G48">
-        <v>-0.21</v>
+        <v>-0.5</v>
       </c>
       <c r="H48">
-        <v>-1.16</v>
+        <v>-2.5</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -3053,19 +3014,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.1137463670415947</v>
       </c>
       <c r="L48">
-        <v>0.04194044456871243</v>
+        <v>0.1309466602594906</v>
       </c>
       <c r="M48" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>1367.5</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3073,25 +3034,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F49">
-        <v>-0.53</v>
+        <v>0.01</v>
       </c>
       <c r="G49">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="H49">
-        <v>-0.61</v>
+        <v>2.35</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3100,19 +3061,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.5481250250130466</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.4334561290240908</v>
       </c>
       <c r="M49" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O49">
-        <v>1044.8</v>
+        <v>776.35</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3120,25 +3081,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>0.49</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G50">
-        <v>1.31</v>
+        <v>-0.82</v>
       </c>
       <c r="H50">
-        <v>0.01</v>
+        <v>0.59</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3147,19 +3108,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.314567740535844</v>
+        <v>0.05668051680276808</v>
       </c>
       <c r="L50">
-        <v>0.4598612487611496</v>
+        <v>0.06153065431824669</v>
       </c>
       <c r="M50" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>562.65</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3167,25 +3128,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>-0.14</v>
+        <v>-0.46</v>
       </c>
       <c r="G51">
-        <v>-0.33</v>
+        <v>-1.01</v>
       </c>
       <c r="H51">
-        <v>-0.51</v>
+        <v>0.04</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3194,19 +3155,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.009018149653599133</v>
+        <v>0.02940239125741485</v>
       </c>
       <c r="L51">
-        <v>0.02358872467713206</v>
+        <v>0.1214317052804393</v>
       </c>
       <c r="M51" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>351.25</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3214,25 +3175,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
         <v>40</v>
       </c>
-      <c r="D52">
-        <v>20</v>
-      </c>
       <c r="E52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>-0.07000000000000001</v>
+        <v>-0.93</v>
       </c>
       <c r="G52">
-        <v>0.78</v>
+        <v>-0.92</v>
       </c>
       <c r="H52">
-        <v>1.98</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3241,19 +3202,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.001778007198059803</v>
+        <v>0.001529787837549323</v>
       </c>
       <c r="L52">
-        <v>0.02591973244147157</v>
+        <v>0.002655125720202851</v>
       </c>
       <c r="M52" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>939.85</v>
+        <v>715.05</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3261,25 +3222,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
         <v>40</v>
       </c>
-      <c r="D53">
-        <v>20</v>
-      </c>
       <c r="E53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>-0.01</v>
+        <v>-0.87</v>
       </c>
       <c r="G53">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="H53">
-        <v>-1</v>
+        <v>-0.59</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3288,19 +3249,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.1422003128406883</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.1977848101265823</v>
       </c>
       <c r="M53" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>1334</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3308,25 +3269,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
         <v>40</v>
       </c>
-      <c r="D54">
-        <v>20</v>
-      </c>
       <c r="E54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>1.52</v>
+        <v>-0.62</v>
       </c>
       <c r="G54">
-        <v>1.14</v>
+        <v>-0.47</v>
       </c>
       <c r="H54">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3335,19 +3296,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.04802540293631925</v>
+        <v>0.05795259280183566</v>
       </c>
       <c r="L54">
-        <v>0.06665418460962366</v>
+        <v>0.1794447562335551</v>
       </c>
       <c r="M54" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>13444</v>
+        <v>274.25</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3355,25 +3316,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D55">
         <v>20</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="G55">
-        <v>7.98</v>
+        <v>0.08</v>
       </c>
       <c r="H55">
-        <v>0.25</v>
+        <v>-0.09</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3382,19 +3343,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.07817383808539285</v>
+        <v>0.469321202877873</v>
       </c>
       <c r="L55">
-        <v>0.1867073189897688</v>
+        <v>0.2318041742022556</v>
       </c>
       <c r="M55" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>683.45</v>
+        <v>1378.5</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3402,25 +3363,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
         <v>40</v>
       </c>
-      <c r="D56">
-        <v>10</v>
-      </c>
       <c r="E56">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>0.05</v>
+        <v>-0.68</v>
       </c>
       <c r="G56">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="H56">
-        <v>-0.25</v>
+        <v>0.14</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3429,19 +3390,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.534148285942162</v>
+        <v>0.1689098611185323</v>
       </c>
       <c r="L56">
-        <v>0.4632327522346782</v>
+        <v>0.5579912315663611</v>
       </c>
       <c r="M56" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>1059</v>
+        <v>503.5</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3449,25 +3410,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C57">
+        <v>50</v>
+      </c>
+      <c r="D57">
         <v>40</v>
       </c>
-      <c r="D57">
-        <v>20</v>
-      </c>
       <c r="E57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>0.03</v>
+        <v>-0.54</v>
       </c>
       <c r="G57">
-        <v>-0.31</v>
+        <v>-0.61</v>
       </c>
       <c r="H57">
-        <v>3.87</v>
+        <v>0.37</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3476,19 +3437,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0.3722630207453972</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1.396707157066069</v>
+        <v>0.01330280265865104</v>
       </c>
       <c r="M57" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>32.19</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3496,25 +3457,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C58">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <v>20</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="G58">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="H58">
-        <v>-0.1</v>
+        <v>-0.42</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3523,19 +3484,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.2218869009125983</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.5100254352062894</v>
+        <v>0.00822337681755317</v>
       </c>
       <c r="M58" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58">
-        <v>258</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3543,46 +3504,46 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>-0.18</v>
+      </c>
+      <c r="G59">
+        <v>-0.43</v>
+      </c>
+      <c r="H59">
+        <v>0.23</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="J59">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>2.426411544726739</v>
+      </c>
+      <c r="L59">
+        <v>1.178772582490799</v>
+      </c>
+      <c r="M59" t="s">
         <v>130</v>
       </c>
-      <c r="C59">
-        <v>40</v>
-      </c>
-      <c r="D59">
-        <v>20</v>
-      </c>
-      <c r="E59">
-        <v>20</v>
-      </c>
-      <c r="F59">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G59">
-        <v>-0.25</v>
-      </c>
-      <c r="H59">
-        <v>-0.47</v>
-      </c>
-      <c r="I59">
-        <v>50</v>
-      </c>
-      <c r="J59">
-        <v>0.5</v>
-      </c>
-      <c r="K59">
-        <v>0.440240756663708</v>
-      </c>
-      <c r="L59">
-        <v>0.4572245043757814</v>
-      </c>
-      <c r="M59" t="s">
-        <v>141</v>
-      </c>
       <c r="N59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>1457</v>
+        <v>1055.7</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3590,25 +3551,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
         <v>40</v>
       </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
       <c r="E60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F60">
+        <v>-0.71</v>
+      </c>
+      <c r="G60">
         <v>-0.35</v>
       </c>
-      <c r="G60">
-        <v>-0.18</v>
-      </c>
       <c r="H60">
-        <v>-0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3617,19 +3578,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0.03013585437578122</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.08876163206871868</v>
+        <v>0.526651635682988</v>
       </c>
       <c r="M60" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>472.4</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3637,7 +3598,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C61">
         <v>40</v>
@@ -3649,13 +3610,13 @@
         <v>10</v>
       </c>
       <c r="F61">
-        <v>-0.63</v>
+        <v>-1.02</v>
       </c>
       <c r="G61">
-        <v>3.2</v>
+        <v>-0.75</v>
       </c>
       <c r="H61">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3664,19 +3625,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.6228422572343338</v>
+        <v>0.6087973321979154</v>
       </c>
       <c r="L61">
-        <v>0.9004594180704441</v>
+        <v>0.6185015188213412</v>
       </c>
       <c r="M61" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>1011.35</v>
+        <v>2183.7</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3684,7 +3645,7 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C62">
         <v>40</v>
@@ -3696,13 +3657,13 @@
         <v>20</v>
       </c>
       <c r="F62">
-        <v>-0.13</v>
+        <v>-0.4</v>
       </c>
       <c r="G62">
-        <v>1.01</v>
+        <v>-0.67</v>
       </c>
       <c r="H62">
-        <v>1.29</v>
+        <v>-0.15</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3714,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>0.002845354958031014</v>
       </c>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N62">
         <v>2</v>
       </c>
       <c r="O62">
-        <v>1113.3</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3731,7 +3692,7 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C63">
         <v>40</v>
@@ -3743,34 +3704,34 @@
         <v>20</v>
       </c>
       <c r="F63">
-        <v>0.43</v>
+        <v>0.09</v>
       </c>
       <c r="G63">
-        <v>1.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H63">
+        <v>0.51</v>
+      </c>
+      <c r="I63">
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>50</v>
-      </c>
-      <c r="J63">
-        <v>0.5</v>
-      </c>
-      <c r="K63">
-        <v>0.04997133493630571</v>
-      </c>
       <c r="L63">
-        <v>0.09177195298258847</v>
+        <v>0.06571967741026917</v>
       </c>
       <c r="M63" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N63">
         <v>2</v>
       </c>
       <c r="O63">
-        <v>1340</v>
+        <v>519.2</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3778,7 +3739,7 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C64">
         <v>40</v>
@@ -3790,13 +3751,13 @@
         <v>20</v>
       </c>
       <c r="F64">
-        <v>0.24</v>
+        <v>-0.39</v>
       </c>
       <c r="G64">
-        <v>2.15</v>
+        <v>-0.48</v>
       </c>
       <c r="H64">
-        <v>0.96</v>
+        <v>0.35</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3805,19 +3766,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.3063353175105045</v>
+        <v>0.3666910295765718</v>
       </c>
       <c r="L64">
-        <v>0.4782737307530632</v>
+        <v>0.4653745641905973</v>
       </c>
       <c r="M64" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N64">
         <v>2</v>
       </c>
       <c r="O64">
-        <v>337.1</v>
+        <v>234.65</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3825,7 +3786,7 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C65">
         <v>40</v>
@@ -3837,13 +3798,13 @@
         <v>20</v>
       </c>
       <c r="F65">
-        <v>-0.35</v>
+        <v>-0.06</v>
       </c>
       <c r="G65">
-        <v>-0.14</v>
+        <v>-0.08</v>
       </c>
       <c r="H65">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3852,19 +3813,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.4954667609436826</v>
+        <v>0.02412417860014562</v>
       </c>
       <c r="L65">
-        <v>0.7712246281453125</v>
+        <v>0.05710056043142645</v>
       </c>
       <c r="M65" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N65">
         <v>2</v>
       </c>
       <c r="O65">
-        <v>1896.7</v>
+        <v>3847.9</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3872,25 +3833,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C66">
         <v>40</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E66">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>-0.2</v>
+        <v>0.04</v>
       </c>
       <c r="G66">
-        <v>5.57</v>
+        <v>-0.23</v>
       </c>
       <c r="H66">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3902,16 +3863,16 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>2.145667442418676</v>
       </c>
       <c r="M66" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>99.7</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3919,7 +3880,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>40</v>
@@ -3931,13 +3892,13 @@
         <v>20</v>
       </c>
       <c r="F67">
-        <v>0.29</v>
+        <v>1.99</v>
       </c>
       <c r="G67">
-        <v>0.61</v>
+        <v>1.27</v>
       </c>
       <c r="H67">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3952,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N67">
         <v>2</v>
       </c>
       <c r="O67">
-        <v>12627</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3966,7 +3927,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3978,13 +3939,13 @@
         <v>20</v>
       </c>
       <c r="F68">
-        <v>0.03</v>
+        <v>-0.13</v>
       </c>
       <c r="G68">
-        <v>0.41</v>
+        <v>-0.06</v>
       </c>
       <c r="H68">
-        <v>0.29</v>
+        <v>-0.59</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3993,19 +3954,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.0604481980648133</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>0.9946963957138218</v>
       </c>
       <c r="M68" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N68">
         <v>2</v>
       </c>
       <c r="O68">
-        <v>1506.6</v>
+        <v>552.85</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4013,7 +3974,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C69">
         <v>40</v>
@@ -4025,13 +3986,13 @@
         <v>20</v>
       </c>
       <c r="F69">
-        <v>-0.11</v>
+        <v>-0.34</v>
       </c>
       <c r="G69">
-        <v>-0.61</v>
+        <v>-0.4</v>
       </c>
       <c r="H69">
-        <v>-0.45</v>
+        <v>-0.28</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4040,19 +4001,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.0138944342409955</v>
+        <v>0.2338877234081394</v>
       </c>
       <c r="L69">
-        <v>0.030441400304414</v>
+        <v>0.131864034539283</v>
       </c>
       <c r="M69" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N69">
         <v>2</v>
       </c>
       <c r="O69">
-        <v>4219.3</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4060,25 +4021,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D70">
         <v>20</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F70">
-        <v>0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="G70">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1.81</v>
+        <v>-0.26</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4090,16 +4051,16 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>0.08927095387667383</v>
       </c>
       <c r="M70" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>223</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4107,25 +4068,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D71">
         <v>20</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F71">
-        <v>0.14</v>
+        <v>-0.48</v>
       </c>
       <c r="G71">
-        <v>0.48</v>
+        <v>-0.41</v>
       </c>
       <c r="H71">
-        <v>-0.82</v>
+        <v>0.05</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4134,19 +4095,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0.02079327562489732</v>
+        <v>0.4252432985092456</v>
       </c>
       <c r="L71">
-        <v>0.1475155279503106</v>
+        <v>0.6225691479990785</v>
       </c>
       <c r="M71" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>2493.5</v>
+        <v>1441.4</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4154,25 +4115,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72">
-        <v>-0.06</v>
+        <v>0.13</v>
       </c>
       <c r="G72">
-        <v>0.42</v>
+        <v>-1.26</v>
       </c>
       <c r="H72">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4181,19 +4142,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>2.403204272363151</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>0.9549071618037135</v>
       </c>
       <c r="M72" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>770.5</v>
+        <v>30985</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4201,7 +4162,7 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C73">
         <v>30</v>
@@ -4213,13 +4174,13 @@
         <v>10</v>
       </c>
       <c r="F73">
-        <v>-0.02</v>
+        <v>0.26</v>
       </c>
       <c r="G73">
-        <v>1.03</v>
+        <v>-0.51</v>
       </c>
       <c r="H73">
-        <v>-0.7</v>
+        <v>-0.12</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4228,19 +4189,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.1411127750259181</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0.2298850574712644</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="M73" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>4570</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4248,7 +4209,7 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C74">
         <v>30</v>
@@ -4260,13 +4221,13 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>0.08</v>
+        <v>-0.37</v>
       </c>
       <c r="G74">
-        <v>0.36</v>
+        <v>-0.4</v>
       </c>
       <c r="H74">
-        <v>-0.37</v>
+        <v>-0.59</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4275,19 +4236,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.0002855470367360105</v>
+        <v>0.3321190879692753</v>
       </c>
       <c r="L74">
-        <v>0.01116694584031267</v>
+        <v>0.7696823659897336</v>
       </c>
       <c r="M74" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>1298.7</v>
+        <v>326.5</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4295,7 +4256,7 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C75">
         <v>30</v>
@@ -4307,13 +4268,13 @@
         <v>10</v>
       </c>
       <c r="F75">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="G75">
-        <v>0.82</v>
+        <v>-0.11</v>
       </c>
       <c r="H75">
-        <v>0.09</v>
+        <v>0.96</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4322,19 +4283,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>0.02590541116319323</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>0.05444126074498568</v>
+        <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
       <c r="O75">
-        <v>709.2</v>
+        <v>637.8</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4342,7 +4303,7 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C76">
         <v>30</v>
@@ -4354,13 +4315,13 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <v>-0.36</v>
+        <v>-0.19</v>
       </c>
       <c r="G76">
-        <v>1.19</v>
+        <v>-0.62</v>
       </c>
       <c r="H76">
-        <v>-0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4369,19 +4330,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>0.134124550528336</v>
       </c>
       <c r="L76">
-        <v>0.1096892138939671</v>
+        <v>0.1035096231602782</v>
       </c>
       <c r="M76" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
       <c r="O76">
-        <v>2146.3</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4389,7 +4350,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C77">
         <v>30</v>
@@ -4401,13 +4362,13 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="G77">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="H77">
-        <v>-0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4416,19 +4377,19 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0.48610517018535</v>
+        <v>0.2382077701105932</v>
       </c>
       <c r="L77">
-        <v>0.4348959302975016</v>
+        <v>0.287958115183246</v>
       </c>
       <c r="M77" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
       <c r="O77">
-        <v>386.95</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4436,7 +4397,7 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C78">
         <v>30</v>
@@ -4448,13 +4409,13 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <v>-0.09</v>
+        <v>-0.23</v>
       </c>
       <c r="G78">
-        <v>-0.15</v>
+        <v>0.64</v>
       </c>
       <c r="H78">
-        <v>-0.53</v>
+        <v>0.26</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4463,19 +4424,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.3880647526651011</v>
+        <v>0.1607733935795723</v>
       </c>
       <c r="L78">
-        <v>0.4064272211720227</v>
+        <v>0.1120140566659345</v>
       </c>
       <c r="M78" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
       <c r="O78">
-        <v>1906.1</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4483,7 +4444,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C79">
         <v>30</v>
@@ -4495,13 +4456,13 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>-0.34</v>
+        <v>-0.3</v>
       </c>
       <c r="G79">
-        <v>-0.97</v>
+        <v>-0.7</v>
       </c>
       <c r="H79">
-        <v>-0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4510,19 +4471,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.1262320594846996</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.2247536945812808</v>
+        <v>0.1756337450968913</v>
       </c>
       <c r="M79" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N79">
         <v>1</v>
       </c>
       <c r="O79">
-        <v>1173</v>
+        <v>1069.3</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4530,7 +4491,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C80">
         <v>30</v>
@@ -4542,13 +4503,13 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="G80">
-        <v>0.18</v>
+        <v>-0.35</v>
       </c>
       <c r="H80">
-        <v>-0.7</v>
+        <v>-0.41</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4557,19 +4518,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0.01419083291499631</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0.1997418302873837</v>
+        <v>0.06373517484356746</v>
       </c>
       <c r="M80" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
       <c r="O80">
-        <v>1069.3</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4577,7 +4538,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C81">
         <v>30</v>
@@ -4589,13 +4550,13 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>0.76</v>
+        <v>-0.35</v>
       </c>
       <c r="G81">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H81">
-        <v>-1.51</v>
+        <v>1.06</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4604,19 +4565,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.4971720476219328</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>0.9440673515345869</v>
+        <v>0.03180675248758891</v>
       </c>
       <c r="M81" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N81">
         <v>1</v>
       </c>
       <c r="O81">
-        <v>451.4</v>
+        <v>242.16</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4624,7 +4585,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C82">
         <v>30</v>
@@ -4636,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="G82">
-        <v>1.35</v>
+        <v>0.08</v>
       </c>
       <c r="H82">
-        <v>-0.38</v>
+        <v>-0.11</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4651,19 +4612,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.1219158200290671</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0.280811232449298</v>
+        <v>0.01848808545603944</v>
       </c>
       <c r="M82" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
       <c r="O82">
-        <v>3437.2</v>
+        <v>1548.7</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4671,7 +4632,7 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C83">
         <v>30</v>
@@ -4683,13 +4644,13 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>-0.01</v>
+        <v>0.17</v>
       </c>
       <c r="G83">
-        <v>0.65</v>
+        <v>1.37</v>
       </c>
       <c r="H83">
-        <v>0.29</v>
+        <v>2.26</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4698,19 +4659,19 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.1522285379717435</v>
       </c>
       <c r="L83">
-        <v>0.580952380952381</v>
+        <v>0.1583461623048164</v>
       </c>
       <c r="M83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
       <c r="O83">
-        <v>7850</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4718,7 +4679,7 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -4730,13 +4691,13 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>0.65</v>
+        <v>-0.89</v>
       </c>
       <c r="G84">
-        <v>2.46</v>
+        <v>-0.41</v>
       </c>
       <c r="H84">
-        <v>-0.33</v>
+        <v>-0.44</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4745,19 +4706,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0.003747727939936429</v>
+        <v>1.479555630914992</v>
       </c>
       <c r="L84">
-        <v>0.02887833905795358</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="M84" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>2320</v>
+        <v>943.55</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4765,7 +4726,7 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C85">
         <v>30</v>
@@ -4777,13 +4738,13 @@
         <v>10</v>
       </c>
       <c r="F85">
-        <v>1.22</v>
+        <v>0.43</v>
       </c>
       <c r="G85">
-        <v>3.87</v>
+        <v>0.25</v>
       </c>
       <c r="H85">
-        <v>0.41</v>
+        <v>-0.41</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4792,19 +4753,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0.23900437190169</v>
+        <v>0.02271883201175477</v>
       </c>
       <c r="L85">
-        <v>0.5969423488960325</v>
+        <v>0.112824578060044</v>
       </c>
       <c r="M85" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
       <c r="O85">
-        <v>327.75</v>
+        <v>179.31</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4812,7 +4773,7 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C86">
         <v>30</v>
@@ -4824,13 +4785,13 @@
         <v>10</v>
       </c>
       <c r="F86">
-        <v>0.1</v>
+        <v>1.17</v>
       </c>
       <c r="G86">
-        <v>-0.09</v>
+        <v>0.98</v>
       </c>
       <c r="H86">
-        <v>-0.54</v>
+        <v>-0.28</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4842,16 +4803,16 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>0.1295896328293737</v>
       </c>
       <c r="M86" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
       <c r="O86">
-        <v>5785</v>
+        <v>6415.5</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4859,7 +4820,7 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -4871,13 +4832,13 @@
         <v>10</v>
       </c>
       <c r="F87">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.57</v>
+        <v>-0.24</v>
       </c>
       <c r="H87">
-        <v>-0.5</v>
+        <v>0.06</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4886,19 +4847,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0.07986833601463694</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>0.2666913889275174</v>
+        <v>0.0843073385706074</v>
       </c>
       <c r="M87" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N87">
         <v>1</v>
       </c>
       <c r="O87">
-        <v>1446.4</v>
+        <v>4100.1</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4906,7 +4867,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C88">
         <v>30</v>
@@ -4918,13 +4879,13 @@
         <v>10</v>
       </c>
       <c r="F88">
-        <v>0.31</v>
+        <v>-0.35</v>
       </c>
       <c r="G88">
-        <v>0.59</v>
+        <v>-0.37</v>
       </c>
       <c r="H88">
-        <v>0.31</v>
+        <v>-0.4</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4933,19 +4894,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.0679893978667061</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0.09236076336727314</v>
+        <v>0.07223113964686999</v>
       </c>
       <c r="M88" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
       <c r="O88">
-        <v>377.35</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4953,7 +4914,7 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C89">
         <v>30</v>
@@ -4965,13 +4926,13 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>0.73</v>
+        <v>-0.17</v>
       </c>
       <c r="G89">
-        <v>1.49</v>
+        <v>-0.24</v>
       </c>
       <c r="H89">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4980,19 +4941,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.3949543589655802</v>
       </c>
       <c r="L89">
-        <v>0.03170302908032395</v>
+        <v>0.5297086234206358</v>
       </c>
       <c r="M89" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
       <c r="O89">
-        <v>405.65</v>
+        <v>3118.8</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5000,25 +4961,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C90">
         <v>30</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="G90">
-        <v>0.7</v>
+        <v>-0.73</v>
       </c>
       <c r="H90">
-        <v>1.22</v>
+        <v>0.18</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -5027,19 +4988,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0.1659279906132484</v>
+        <v>1.990680304009706</v>
       </c>
       <c r="L90">
-        <v>0.1901487180932518</v>
+        <v>1.697956830384491</v>
       </c>
       <c r="M90" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90">
-        <v>376.35</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5047,7 +5008,7 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C91">
         <v>30</v>
@@ -5059,13 +5020,13 @@
         <v>10</v>
       </c>
       <c r="F91">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G91">
-        <v>1.32</v>
+        <v>0.43</v>
       </c>
       <c r="H91">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5074,19 +5035,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.1966537199405882</v>
       </c>
       <c r="L91">
-        <v>0.01683851304704119</v>
+        <v>0.2670320660082584</v>
       </c>
       <c r="M91" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N91">
         <v>1</v>
       </c>
       <c r="O91">
-        <v>79.62</v>
+        <v>44.19</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5094,7 +5055,7 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C92">
         <v>30</v>
@@ -5106,13 +5067,13 @@
         <v>10</v>
       </c>
       <c r="F92">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G92">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="H92">
-        <v>-0.04</v>
+        <v>0.27</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5121,19 +5082,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0.1443826860695968</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0.3400889767671775</v>
+        <v>0.3455502734754383</v>
       </c>
       <c r="M92" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N92">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>1276.9</v>
+        <v>382.2</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5141,7 +5102,7 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C93">
         <v>30</v>
@@ -5153,13 +5114,13 @@
         <v>10</v>
       </c>
       <c r="F93">
-        <v>-0.06</v>
+        <v>0.3</v>
       </c>
       <c r="G93">
-        <v>0.57</v>
+        <v>-0.01</v>
       </c>
       <c r="H93">
-        <v>-0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5168,19 +5129,19 @@
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>0.03400944577415862</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>0.237391136449092</v>
+        <v>0.426367461430575</v>
       </c>
       <c r="M93" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
       <c r="O93">
-        <v>316.45</v>
+        <v>1039.4</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5188,7 +5149,7 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C94">
         <v>30</v>
@@ -5200,13 +5161,13 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0.39</v>
+        <v>-0.12</v>
       </c>
       <c r="G94">
-        <v>2.59</v>
+        <v>0.36</v>
       </c>
       <c r="H94">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5215,19 +5176,19 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>0.1328157619662538</v>
+        <v>0.11366817555186</v>
       </c>
       <c r="L94">
-        <v>0.3303216479942175</v>
+        <v>0.5676003587065463</v>
       </c>
       <c r="M94" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N94">
         <v>1</v>
       </c>
       <c r="O94">
-        <v>2233.6</v>
+        <v>804</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5235,46 +5196,46 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <v>-0.32</v>
+      </c>
+      <c r="G95">
+        <v>0.03</v>
+      </c>
+      <c r="H95">
+        <v>-0.48</v>
+      </c>
+      <c r="I95">
+        <v>50</v>
+      </c>
+      <c r="J95">
+        <v>0.5</v>
+      </c>
+      <c r="K95">
+        <v>1.767696857404624</v>
+      </c>
+      <c r="L95">
+        <v>0.2984622835694394</v>
+      </c>
+      <c r="M95" t="s">
         <v>130</v>
       </c>
-      <c r="C95">
-        <v>30</v>
-      </c>
-      <c r="D95">
-        <v>20</v>
-      </c>
-      <c r="E95">
-        <v>10</v>
-      </c>
-      <c r="F95">
-        <v>0.27</v>
-      </c>
-      <c r="G95">
-        <v>0.9</v>
-      </c>
-      <c r="H95">
-        <v>-0.33</v>
-      </c>
-      <c r="I95">
-        <v>50</v>
-      </c>
-      <c r="J95">
-        <v>0.5</v>
-      </c>
-      <c r="K95">
-        <v>0.1267661428760069</v>
-      </c>
-      <c r="L95">
-        <v>0.4064352243861135</v>
-      </c>
-      <c r="M95" t="s">
-        <v>141</v>
-      </c>
       <c r="N95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>30110</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5282,25 +5243,25 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C96">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>10</v>
       </c>
       <c r="F96">
-        <v>0.19</v>
+        <v>-0.13</v>
       </c>
       <c r="G96">
-        <v>1.34</v>
+        <v>-0.13</v>
       </c>
       <c r="H96">
-        <v>-0.39</v>
+        <v>0.43</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5309,19 +5270,19 @@
         <v>0.5</v>
       </c>
       <c r="K96">
-        <v>0.006105775931291143</v>
+        <v>0.5562451806554388</v>
       </c>
       <c r="L96">
-        <v>0.0390625</v>
+        <v>0.7323588335683016</v>
       </c>
       <c r="M96" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N96">
         <v>1</v>
       </c>
       <c r="O96">
-        <v>1139.6</v>
+        <v>3020.4</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5329,46 +5290,46 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>-0.23</v>
+      </c>
+      <c r="G97">
+        <v>-0.51</v>
+      </c>
+      <c r="H97">
+        <v>0.68</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>0.6833259230496246</v>
+      </c>
+      <c r="L97">
+        <v>0.3481351745624642</v>
+      </c>
+      <c r="M97" t="s">
         <v>130</v>
-      </c>
-      <c r="C97">
-        <v>30</v>
-      </c>
-      <c r="D97">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>10</v>
-      </c>
-      <c r="F97">
-        <v>0.52</v>
-      </c>
-      <c r="G97">
-        <v>0.62</v>
-      </c>
-      <c r="H97">
-        <v>-0.65</v>
-      </c>
-      <c r="I97">
-        <v>50</v>
-      </c>
-      <c r="J97">
-        <v>0.5</v>
-      </c>
-      <c r="K97">
-        <v>0.1737136914750301</v>
-      </c>
-      <c r="L97">
-        <v>0.6238064926798218</v>
-      </c>
-      <c r="M97" t="s">
-        <v>141</v>
       </c>
       <c r="N97">
         <v>1</v>
       </c>
       <c r="O97">
-        <v>8524</v>
+        <v>1403.4</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5376,46 +5337,46 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>-0.22</v>
+      </c>
+      <c r="G98">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H98">
+        <v>0.05</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>2.299901694062922</v>
+      </c>
+      <c r="L98">
+        <v>1.611222595931903</v>
+      </c>
+      <c r="M98" t="s">
         <v>130</v>
-      </c>
-      <c r="C98">
-        <v>30</v>
-      </c>
-      <c r="D98">
-        <v>20</v>
-      </c>
-      <c r="E98">
-        <v>10</v>
-      </c>
-      <c r="F98">
-        <v>-0.02</v>
-      </c>
-      <c r="G98">
-        <v>0.34</v>
-      </c>
-      <c r="H98">
-        <v>-0.29</v>
-      </c>
-      <c r="I98">
-        <v>50</v>
-      </c>
-      <c r="J98">
-        <v>0.5</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="M98" t="s">
-        <v>141</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
       <c r="O98">
-        <v>6402</v>
+        <v>197.37</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5423,25 +5384,25 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C99">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D99">
         <v>10</v>
       </c>
       <c r="E99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G99">
-        <v>0.15</v>
+        <v>-0.47</v>
       </c>
       <c r="H99">
-        <v>-0.63</v>
+        <v>0.19</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -5450,19 +5411,19 @@
         <v>0.5</v>
       </c>
       <c r="K99">
-        <v>5.061566675399528</v>
+        <v>0.7291917167668758</v>
       </c>
       <c r="L99">
-        <v>2.72189349112426</v>
+        <v>0.6296687259533575</v>
       </c>
       <c r="M99" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>6340</v>
+        <v>31.45</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5470,25 +5431,25 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="G100">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="H100">
-        <v>-0.36</v>
+        <v>0.64</v>
       </c>
       <c r="I100">
         <v>50</v>
@@ -5497,19 +5458,19 @@
         <v>0.5</v>
       </c>
       <c r="K100">
-        <v>0.04695433491969746</v>
+        <v>1.332369466946962</v>
       </c>
       <c r="L100">
-        <v>0.1187720181177655</v>
+        <v>1.018919675608472</v>
       </c>
       <c r="M100" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>2296.6</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5517,25 +5478,25 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>10</v>
       </c>
       <c r="F101">
-        <v>-0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G101">
-        <v>3.63</v>
+        <v>-0.12</v>
       </c>
       <c r="H101">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I101">
         <v>50</v>
@@ -5544,19 +5505,19 @@
         <v>0.5</v>
       </c>
       <c r="K101">
-        <v>0.0577175960478955</v>
+        <v>2.126324184683869</v>
       </c>
       <c r="L101">
-        <v>0.1174360754367696</v>
+        <v>0.942340791738382</v>
       </c>
       <c r="M101" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
       <c r="O101">
-        <v>32.55</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5564,25 +5525,25 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>10</v>
       </c>
       <c r="F102">
-        <v>0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="G102">
-        <v>1.34</v>
+        <v>-0.13</v>
       </c>
       <c r="H102">
-        <v>0.67</v>
+        <v>-0.22</v>
       </c>
       <c r="I102">
         <v>50</v>
@@ -5591,630 +5552,19 @@
         <v>0.5</v>
       </c>
       <c r="K102">
-        <v>0.07166955248923511</v>
+        <v>1.98408703939701</v>
       </c>
       <c r="L102">
-        <v>0.1587899170912498</v>
+        <v>1.248086913409929</v>
       </c>
       <c r="M102" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N102">
         <v>1</v>
       </c>
       <c r="O102">
-        <v>214.7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103">
-        <v>30</v>
-      </c>
-      <c r="D103">
-        <v>20</v>
-      </c>
-      <c r="E103">
-        <v>10</v>
-      </c>
-      <c r="F103">
-        <v>-0.24</v>
-      </c>
-      <c r="G103">
-        <v>2.57</v>
-      </c>
-      <c r="H103">
-        <v>1.05</v>
-      </c>
-      <c r="I103">
-        <v>50</v>
-      </c>
-      <c r="J103">
-        <v>0.5</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0.1380643379814994</v>
-      </c>
-      <c r="M103" t="s">
-        <v>141</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103">
-        <v>291.05</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" t="s">
-        <v>130</v>
-      </c>
-      <c r="C104">
-        <v>30</v>
-      </c>
-      <c r="D104">
-        <v>20</v>
-      </c>
-      <c r="E104">
-        <v>10</v>
-      </c>
-      <c r="F104">
-        <v>0.28</v>
-      </c>
-      <c r="G104">
-        <v>1.74</v>
-      </c>
-      <c r="H104">
-        <v>0.79</v>
-      </c>
-      <c r="I104">
-        <v>50</v>
-      </c>
-      <c r="J104">
-        <v>0.5</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104" t="s">
-        <v>141</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>659.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105">
-        <v>30</v>
-      </c>
-      <c r="D105">
-        <v>20</v>
-      </c>
-      <c r="E105">
-        <v>10</v>
-      </c>
-      <c r="F105">
-        <v>-0.15</v>
-      </c>
-      <c r="G105">
-        <v>0.28</v>
-      </c>
-      <c r="H105">
-        <v>0.12</v>
-      </c>
-      <c r="I105">
-        <v>50</v>
-      </c>
-      <c r="J105">
-        <v>0.5</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0.0398355178617322</v>
-      </c>
-      <c r="M105" t="s">
-        <v>141</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105">
-        <v>1027.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" t="s">
-        <v>132</v>
-      </c>
-      <c r="C106">
-        <v>20</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>20</v>
-      </c>
-      <c r="F106">
-        <v>-0.21</v>
-      </c>
-      <c r="G106">
-        <v>-0.25</v>
-      </c>
-      <c r="H106">
-        <v>0.62</v>
-      </c>
-      <c r="I106">
-        <v>50</v>
-      </c>
-      <c r="J106">
-        <v>0.5</v>
-      </c>
-      <c r="K106">
-        <v>0.9388654991920473</v>
-      </c>
-      <c r="L106">
-        <v>0.7702467113952137</v>
-      </c>
-      <c r="M106" t="s">
-        <v>142</v>
-      </c>
-      <c r="N106">
-        <v>2</v>
-      </c>
-      <c r="O106">
-        <v>1896.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107">
-        <v>20</v>
-      </c>
-      <c r="D107">
-        <v>10</v>
-      </c>
-      <c r="E107">
-        <v>10</v>
-      </c>
-      <c r="F107">
-        <v>-0.06</v>
-      </c>
-      <c r="G107">
-        <v>0.41</v>
-      </c>
-      <c r="H107">
-        <v>-0.18</v>
-      </c>
-      <c r="I107">
-        <v>50</v>
-      </c>
-      <c r="J107">
-        <v>0.5</v>
-      </c>
-      <c r="K107">
-        <v>2.067134993542771</v>
-      </c>
-      <c r="L107">
-        <v>1.506882240774272</v>
-      </c>
-      <c r="M107" t="s">
-        <v>142</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107">
-        <v>1951.8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" t="s">
-        <v>135</v>
-      </c>
-      <c r="C108">
-        <v>20</v>
-      </c>
-      <c r="D108">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>10</v>
-      </c>
-      <c r="F108">
-        <v>-0.25</v>
-      </c>
-      <c r="G108">
-        <v>1.17</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>50</v>
-      </c>
-      <c r="J108">
-        <v>0.5</v>
-      </c>
-      <c r="K108">
-        <v>0.6558792688693095</v>
-      </c>
-      <c r="L108">
-        <v>1.151250496228662</v>
-      </c>
-      <c r="M108" t="s">
-        <v>142</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108">
-        <v>1604.9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" t="s">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109">
-        <v>20</v>
-      </c>
-      <c r="D109">
-        <v>10</v>
-      </c>
-      <c r="E109">
-        <v>10</v>
-      </c>
-      <c r="F109">
-        <v>0.52</v>
-      </c>
-      <c r="G109">
-        <v>2.1</v>
-      </c>
-      <c r="H109">
-        <v>0.36</v>
-      </c>
-      <c r="I109">
-        <v>50</v>
-      </c>
-      <c r="J109">
-        <v>0.5</v>
-      </c>
-      <c r="K109">
-        <v>0.7438003114317155</v>
-      </c>
-      <c r="L109">
-        <v>1.412646739666568</v>
-      </c>
-      <c r="M109" t="s">
-        <v>142</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109">
-        <v>764.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" t="s">
-        <v>123</v>
-      </c>
-      <c r="B110" t="s">
-        <v>137</v>
-      </c>
-      <c r="C110">
-        <v>20</v>
-      </c>
-      <c r="D110">
-        <v>10</v>
-      </c>
-      <c r="E110">
-        <v>10</v>
-      </c>
-      <c r="F110">
-        <v>-0.17</v>
-      </c>
-      <c r="G110">
-        <v>0.42</v>
-      </c>
-      <c r="H110">
-        <v>0.31</v>
-      </c>
-      <c r="I110">
-        <v>50</v>
-      </c>
-      <c r="J110">
-        <v>0.5</v>
-      </c>
-      <c r="K110">
-        <v>3.48518643440794</v>
-      </c>
-      <c r="L110">
-        <v>2.070534698521047</v>
-      </c>
-      <c r="M110" t="s">
-        <v>142</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110">
-        <v>430.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" t="s">
-        <v>130</v>
-      </c>
-      <c r="C111">
-        <v>20</v>
-      </c>
-      <c r="D111">
-        <v>10</v>
-      </c>
-      <c r="E111">
-        <v>10</v>
-      </c>
-      <c r="F111">
-        <v>0.6</v>
-      </c>
-      <c r="G111">
-        <v>2.79</v>
-      </c>
-      <c r="H111">
-        <v>0.31</v>
-      </c>
-      <c r="I111">
-        <v>50</v>
-      </c>
-      <c r="J111">
-        <v>0.5</v>
-      </c>
-      <c r="K111">
-        <v>0.7322049532314113</v>
-      </c>
-      <c r="L111">
-        <v>0.8273108211294593</v>
-      </c>
-      <c r="M111" t="s">
-        <v>142</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
-        <v>124.34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" t="s">
-        <v>125</v>
-      </c>
-      <c r="B112" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112">
-        <v>20</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>20</v>
-      </c>
-      <c r="F112">
-        <v>0.44</v>
-      </c>
-      <c r="G112">
-        <v>2.81</v>
-      </c>
-      <c r="H112">
-        <v>0.41</v>
-      </c>
-      <c r="I112">
-        <v>50</v>
-      </c>
-      <c r="J112">
-        <v>0.5</v>
-      </c>
-      <c r="K112">
-        <v>0.8973959281209363</v>
-      </c>
-      <c r="L112">
-        <v>1.418398205053165</v>
-      </c>
-      <c r="M112" t="s">
-        <v>142</v>
-      </c>
-      <c r="N112">
-        <v>2</v>
-      </c>
-      <c r="O112">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" t="s">
-        <v>126</v>
-      </c>
-      <c r="B113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113">
-        <v>10</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>10</v>
-      </c>
-      <c r="F113">
-        <v>0.09</v>
-      </c>
-      <c r="G113">
-        <v>1.6</v>
-      </c>
-      <c r="H113">
-        <v>0.44</v>
-      </c>
-      <c r="I113">
-        <v>50</v>
-      </c>
-      <c r="J113">
-        <v>0.5</v>
-      </c>
-      <c r="K113">
-        <v>1.094791763418578</v>
-      </c>
-      <c r="L113">
-        <v>1.207721816606856</v>
-      </c>
-      <c r="M113" t="s">
-        <v>142</v>
-      </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="O113">
-        <v>70.01000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" t="s">
-        <v>134</v>
-      </c>
-      <c r="C114">
-        <v>10</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>10</v>
-      </c>
-      <c r="F114">
-        <v>1.48</v>
-      </c>
-      <c r="G114">
-        <v>4.55</v>
-      </c>
-      <c r="H114">
-        <v>0.5</v>
-      </c>
-      <c r="I114">
-        <v>50</v>
-      </c>
-      <c r="J114">
-        <v>0.5</v>
-      </c>
-      <c r="K114">
-        <v>1.305533003792128</v>
-      </c>
-      <c r="L114">
-        <v>1.217539493211016</v>
-      </c>
-      <c r="M114" t="s">
-        <v>142</v>
-      </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" t="s">
-        <v>128</v>
-      </c>
-      <c r="B115" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115">
-        <v>10</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>10</v>
-      </c>
-      <c r="F115">
-        <v>-0.26</v>
-      </c>
-      <c r="G115">
-        <v>-0.68</v>
-      </c>
-      <c r="H115">
-        <v>0.12</v>
-      </c>
-      <c r="I115">
-        <v>50</v>
-      </c>
-      <c r="J115">
-        <v>0.5</v>
-      </c>
-      <c r="K115">
-        <v>3.852650494160609</v>
-      </c>
-      <c r="L115">
-        <v>1.293436293436294</v>
-      </c>
-      <c r="M115" t="s">
-        <v>142</v>
-      </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-      <c r="O115">
-        <v>2790.7</v>
+        <v>714.45</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="130">
   <si>
     <t>ticker</t>
   </si>
@@ -61,343 +61,340 @@
     <t>close</t>
   </si>
   <si>
-    <t>PANACEABIO</t>
-  </si>
-  <si>
-    <t>DRREDDY</t>
-  </si>
-  <si>
-    <t>DEEPAKNTR</t>
-  </si>
-  <si>
-    <t>CUB</t>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>SAREGAMA</t>
+  </si>
+  <si>
+    <t>COSMOFIRST</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>POLYPLEX</t>
+  </si>
+  <si>
+    <t>KAYNES</t>
+  </si>
+  <si>
+    <t>LODHA</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>AZAD</t>
+  </si>
+  <si>
+    <t>TRIDENT</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>CGPOWER</t>
+  </si>
+  <si>
+    <t>MAHSEAMLES</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>MANAPPURAM</t>
+  </si>
+  <si>
+    <t>CARBORUNIV</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>OLAELEC</t>
+  </si>
+  <si>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>ATGL</t>
+  </si>
+  <si>
+    <t>CHAMBLFERT</t>
+  </si>
+  <si>
+    <t>KANSAINER</t>
+  </si>
+  <si>
+    <t>JSWINFRA</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>RITES</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>RAILTEL</t>
+  </si>
+  <si>
+    <t>BLUESTARCO</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>EMBDL</t>
+  </si>
+  <si>
+    <t>BLUEDART</t>
+  </si>
+  <si>
+    <t>JUBLPHARMA</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>TRENT</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
   </si>
   <si>
     <t>MAXESTATES</t>
   </si>
   <si>
-    <t>BRIGADE</t>
-  </si>
-  <si>
-    <t>QUESS</t>
-  </si>
-  <si>
-    <t>ROUTE</t>
-  </si>
-  <si>
-    <t>GRSE</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>ELECTCAST</t>
-  </si>
-  <si>
-    <t>UBL</t>
+    <t>IRMENERGY</t>
+  </si>
+  <si>
+    <t>HOMEFIRST</t>
+  </si>
+  <si>
+    <t>GRAPHITE</t>
+  </si>
+  <si>
+    <t>JUSTDIAL</t>
+  </si>
+  <si>
+    <t>BALRAMCHIN</t>
+  </si>
+  <si>
+    <t>NSLNISP</t>
   </si>
   <si>
     <t>CRISIL</t>
   </si>
   <si>
-    <t>FIVESTAR</t>
-  </si>
-  <si>
-    <t>RATNAMANI</t>
-  </si>
-  <si>
-    <t>RHIM</t>
-  </si>
-  <si>
-    <t>FDC</t>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>LLOYDSME</t>
+  </si>
+  <si>
+    <t>LICI</t>
+  </si>
+  <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
+    <t>RKFORGE</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>ICICIGI</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>SBFC</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>AFFLE</t>
+  </si>
+  <si>
+    <t>APOLLOHOSP</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>ALLCARGO</t>
   </si>
   <si>
     <t>KSB</t>
   </si>
   <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>JWL</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>IRB</t>
-  </si>
-  <si>
-    <t>POKARNA</t>
-  </si>
-  <si>
-    <t>MAXHEALTH</t>
-  </si>
-  <si>
-    <t>LLOYDSME</t>
-  </si>
-  <si>
-    <t>BLUEDART</t>
-  </si>
-  <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>RAINBOW</t>
-  </si>
-  <si>
-    <t>NETWORK18</t>
-  </si>
-  <si>
-    <t>LTIM</t>
-  </si>
-  <si>
-    <t>CHOLAHLDNG</t>
-  </si>
-  <si>
-    <t>VTL</t>
-  </si>
-  <si>
-    <t>TIMETECHNO</t>
-  </si>
-  <si>
-    <t>SBFC</t>
-  </si>
-  <si>
-    <t>BALRAMCHIN</t>
-  </si>
-  <si>
-    <t>CYIENT</t>
-  </si>
-  <si>
-    <t>MANYAVAR</t>
-  </si>
-  <si>
-    <t>TATAELXSI</t>
-  </si>
-  <si>
-    <t>ATUL</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>ALKYLAMINE</t>
-  </si>
-  <si>
-    <t>JSL</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>GODREJPROP</t>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
   </si>
   <si>
     <t>RAMCOCEM</t>
   </si>
   <si>
-    <t>ANURAS</t>
-  </si>
-  <si>
-    <t>ADANIENSOL</t>
-  </si>
-  <si>
-    <t>MCX</t>
-  </si>
-  <si>
-    <t>PERSISTENT</t>
-  </si>
-  <si>
-    <t>JUBLINGREA</t>
-  </si>
-  <si>
-    <t>APARINDS</t>
-  </si>
-  <si>
-    <t>PETRONET</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>GNFC</t>
-  </si>
-  <si>
-    <t>JIOFIN</t>
-  </si>
-  <si>
-    <t>SAPPHIRE</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>ZEEL</t>
+  </si>
+  <si>
+    <t>COCHINSHIP</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>INDHOTEL</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
   </si>
   <si>
     <t>PTC</t>
   </si>
   <si>
-    <t>COROMANDEL</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>BANKBARODA</t>
-  </si>
-  <si>
-    <t>CAMS</t>
-  </si>
-  <si>
-    <t>JAIBALAJI</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
+    <t>HONAUT</t>
+  </si>
+  <si>
+    <t>DALBHARAT</t>
+  </si>
+  <si>
+    <t>ENDURANCE</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>BAJAJHLDNG</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>EMAMILTD</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>PHOENIXLTD</t>
   </si>
   <si>
     <t>DCMSHRIRAM</t>
   </si>
   <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>GMMPFAUDLR</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>MAHSEAMLES</t>
-  </si>
-  <si>
-    <t>OFSS</t>
-  </si>
-  <si>
-    <t>PDSL</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
-  </si>
-  <si>
-    <t>SIGACHI</t>
-  </si>
-  <si>
-    <t>REDINGTON</t>
-  </si>
-  <si>
-    <t>TATACOMM</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>THOMASCOOK</t>
-  </si>
-  <si>
-    <t>CERA</t>
-  </si>
-  <si>
-    <t>LTTS</t>
-  </si>
-  <si>
-    <t>MAZDOCK</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>360ONE</t>
-  </si>
-  <si>
-    <t>UJJIVANSFB</t>
-  </si>
-  <si>
-    <t>USHAMART</t>
-  </si>
-  <si>
-    <t>POLYPLEX</t>
-  </si>
-  <si>
-    <t>SBICARD</t>
-  </si>
-  <si>
-    <t>KOTAKBANK</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>CASTROLIND</t>
-  </si>
-  <si>
-    <t>ALLCARGO</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
+    <t>EIHOTEL</t>
+  </si>
+  <si>
+    <t>GRASIM</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Energy</t>
+    <t>Strong Short</t>
+  </si>
+  <si>
+    <t>Short</t>
   </si>
   <si>
     <t>Weak Short</t>
@@ -407,9 +404,6 @@
   </si>
   <si>
     <t>No Signal</t>
-  </si>
-  <si>
-    <t>Short</t>
   </si>
 </sst>
 </file>
@@ -767,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,25 +819,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F2">
-        <v>0.14</v>
+        <v>-1.71</v>
       </c>
       <c r="G2">
-        <v>-1.16</v>
+        <v>-2.51</v>
       </c>
       <c r="H2">
-        <v>1.43</v>
+        <v>-2.31</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -855,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.445980985306828</v>
+        <v>0.0002979116394077517</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O2">
-        <v>405.95</v>
+        <v>124.49</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -872,25 +866,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>-0.52</v>
+        <v>-1.67</v>
       </c>
       <c r="G3">
-        <v>-0.37</v>
+        <v>-3.81</v>
       </c>
       <c r="H3">
-        <v>-0.02</v>
+        <v>-2.24</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -899,19 +893,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.2903629939449985</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1234710362335564</v>
+        <v>0.01395838820121148</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O3">
-        <v>1252.7</v>
+        <v>348.4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -919,25 +913,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>-0.16</v>
+        <v>-0.55</v>
       </c>
       <c r="G4">
-        <v>-0.19</v>
+        <v>-2.7</v>
       </c>
       <c r="H4">
-        <v>0.58</v>
+        <v>-2.25</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -946,19 +940,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6889424733034554</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.8795074758135444</v>
       </c>
       <c r="M4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O4">
-        <v>1744.5</v>
+        <v>687.2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -966,25 +960,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>-0.67</v>
+        <v>-0.64</v>
       </c>
       <c r="G5">
-        <v>-0.39</v>
+        <v>-1.72</v>
       </c>
       <c r="H5">
-        <v>0.61</v>
+        <v>-0.59</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -993,19 +987,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.002978796533463828</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04320372216683283</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>197.3</v>
+        <v>1134.1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1013,25 +1007,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>-0.89</v>
       </c>
       <c r="G6">
-        <v>2.14</v>
+        <v>-1.14</v>
       </c>
       <c r="H6">
-        <v>3.02</v>
+        <v>-1.25</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1040,19 +1034,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.0176940490749647</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04574042309891366</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>449.1</v>
+        <v>804.95</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1060,25 +1054,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F7">
-        <v>-0.38</v>
+        <v>-2.42</v>
       </c>
       <c r="G7">
-        <v>-0.71</v>
+        <v>-4.86</v>
       </c>
       <c r="H7">
-        <v>1.15</v>
+        <v>-0.75</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1087,19 +1081,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.7684094018126775</v>
+        <v>0.4060742521421765</v>
       </c>
       <c r="L7">
-        <v>0.6092706517090503</v>
+        <v>0.5334952006777083</v>
       </c>
       <c r="M7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>908.35</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1107,25 +1101,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F8">
-        <v>-0.19</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G8">
-        <v>-0.75</v>
+        <v>-1.56</v>
       </c>
       <c r="H8">
-        <v>0.02</v>
+        <v>-1.08</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1134,19 +1128,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0694484153181695</v>
       </c>
       <c r="L8">
-        <v>0.1261750835441457</v>
+        <v>0.1657568238213399</v>
       </c>
       <c r="M8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O8">
-        <v>262.95</v>
+        <v>1081.6</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,25 +1148,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F9">
-        <v>0.47</v>
+        <v>-0.74</v>
       </c>
       <c r="G9">
-        <v>0.65</v>
+        <v>-1.49</v>
       </c>
       <c r="H9">
-        <v>1.26</v>
+        <v>-0.72</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1181,19 +1175,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4445412943996587</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3492552645095018</v>
       </c>
       <c r="M9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9">
-        <v>867.9</v>
+        <v>1061.1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1201,25 +1195,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C10">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E10">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F10">
-        <v>-0.19</v>
+        <v>-1.27</v>
       </c>
       <c r="G10">
-        <v>-0.12</v>
+        <v>-2.47</v>
       </c>
       <c r="H10">
-        <v>0.25</v>
+        <v>-1.13</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1228,19 +1222,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.05739944150073974</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3005927180355631</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="M10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>2374.9</v>
+        <v>3261.8</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1248,25 +1242,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>-0.79</v>
+        <v>-1.22</v>
       </c>
       <c r="G11">
-        <v>-0.9</v>
+        <v>-2.71</v>
       </c>
       <c r="H11">
-        <v>-0.01</v>
+        <v>-2.28</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1275,19 +1269,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.251818719633869</v>
+        <v>8.500105596621044</v>
       </c>
       <c r="L11">
-        <v>0.4503546868559776</v>
+        <v>5.473997833152763</v>
       </c>
       <c r="M11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>1579.9</v>
+        <v>125.86</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1295,25 +1289,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>-0.29</v>
+        <v>-1.34</v>
       </c>
       <c r="G12">
-        <v>-0.47</v>
+        <v>-2.73</v>
       </c>
       <c r="H12">
-        <v>0.93</v>
+        <v>-1.2</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1322,19 +1316,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.2548314433887576</v>
+        <v>0.568176543221393</v>
       </c>
       <c r="L12">
-        <v>0.1289566236811255</v>
+        <v>0.8397135095085206</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>97.68000000000001</v>
+        <v>1559.9</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1342,25 +1336,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>-0.38</v>
+        <v>-0.73</v>
       </c>
       <c r="G13">
-        <v>-0.87</v>
+        <v>-2.13</v>
       </c>
       <c r="H13">
-        <v>0.32</v>
+        <v>-0.57</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1369,19 +1363,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.0895961873962796</v>
+        <v>0.001084629946293842</v>
       </c>
       <c r="L13">
-        <v>0.125550954988647</v>
+        <v>0.002001138147321289</v>
       </c>
       <c r="M13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13">
-        <v>1803</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1392,22 +1386,22 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>-0.16</v>
+        <v>-1.98</v>
       </c>
       <c r="G14">
-        <v>-0.47</v>
+        <v>-4.73</v>
       </c>
       <c r="H14">
-        <v>0.43</v>
+        <v>2.01</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1416,19 +1410,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5743774543512629</v>
       </c>
       <c r="L14">
-        <v>0.08064516129032258</v>
+        <v>0.6953145349632905</v>
       </c>
       <c r="M14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14">
-        <v>4965</v>
+        <v>66.93000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1436,25 +1430,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>-0.66</v>
+        <v>-0.55</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>-1.97</v>
       </c>
       <c r="H15">
-        <v>0.58</v>
+        <v>-0.62</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1463,19 +1457,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.9021744069225673</v>
+        <v>0.1000696126561267</v>
       </c>
       <c r="L15">
-        <v>0.7815352991985655</v>
+        <v>0.2746831418364993</v>
       </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O15">
-        <v>533.75</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1483,25 +1477,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F16">
-        <v>-0.03</v>
+        <v>-0.98</v>
       </c>
       <c r="G16">
-        <v>0.24</v>
+        <v>-1.13</v>
       </c>
       <c r="H16">
-        <v>-1.27</v>
+        <v>-0.7</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1510,19 +1504,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.03815637251445491</v>
       </c>
       <c r="L16">
-        <v>0.1408450704225352</v>
+        <v>0.1026847023130986</v>
       </c>
       <c r="M16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16">
-        <v>2374.5</v>
+        <v>649.1</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1530,25 +1524,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>-0.32</v>
+        <v>-0.78</v>
       </c>
       <c r="G17">
-        <v>-0.53</v>
+        <v>-1.14</v>
       </c>
       <c r="H17">
-        <v>-0.41</v>
+        <v>-0.76</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1560,16 +1554,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.000946880030300161</v>
+        <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <v>468.85</v>
+        <v>561.45</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1577,25 +1571,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>90</v>
       </c>
       <c r="F18">
-        <v>-0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G18">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="H18">
-        <v>-0.18</v>
+        <v>-2.37</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1604,19 +1598,19 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.2897375405485209</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6520657043305127</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N18">
         <v>9</v>
       </c>
       <c r="O18">
-        <v>466.7</v>
+        <v>178.76</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1624,25 +1618,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F19">
-        <v>0.12</v>
+        <v>-0.99</v>
       </c>
       <c r="G19">
-        <v>-0.07000000000000001</v>
+        <v>-1.99</v>
       </c>
       <c r="H19">
-        <v>-1.16</v>
+        <v>-1.67</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1651,19 +1645,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.006769484252940212</v>
       </c>
       <c r="L19">
-        <v>0.1553744268976057</v>
+        <v>0.01814441006366744</v>
       </c>
       <c r="M19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>811.05</v>
+        <v>232.06</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1674,22 +1668,22 @@
         <v>120</v>
       </c>
       <c r="C20">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>90</v>
       </c>
       <c r="F20">
-        <v>0.24</v>
+        <v>-0.09</v>
       </c>
       <c r="G20">
-        <v>-0.04</v>
+        <v>-1.23</v>
       </c>
       <c r="H20">
-        <v>-0.83</v>
+        <v>-1.18</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1698,19 +1692,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.2537370070299848</v>
+        <v>0.0883726518645291</v>
       </c>
       <c r="L20">
-        <v>0.2983285139995768</v>
+        <v>0.1486265733737477</v>
       </c>
       <c r="M20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N20">
         <v>9</v>
       </c>
       <c r="O20">
-        <v>1072</v>
+        <v>272.95</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1718,25 +1712,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>-0.78</v>
+        <v>-0.2</v>
       </c>
       <c r="G21">
-        <v>-1.22</v>
+        <v>-2.01</v>
       </c>
       <c r="H21">
-        <v>0.96</v>
+        <v>-0.91</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1745,19 +1739,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.1584292549972731</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2138015739435018</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O21">
-        <v>325</v>
+        <v>844.05</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1765,25 +1759,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>90</v>
       </c>
       <c r="F22">
-        <v>-0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G22">
-        <v>-0.16</v>
+        <v>-1.59</v>
       </c>
       <c r="H22">
-        <v>-0.48</v>
+        <v>-0.34</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1792,19 +1786,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.5316331547106466</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9386496751786653</v>
+        <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N22">
         <v>9</v>
       </c>
       <c r="O22">
-        <v>393.7</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1812,25 +1806,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.95</v>
+        <v>-3.27</v>
       </c>
       <c r="H23">
-        <v>-2.81</v>
+        <v>-3.94</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1839,19 +1833,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.1800774016901674</v>
+        <v>0.07526063048939859</v>
       </c>
       <c r="L23">
-        <v>0.3999298368707244</v>
+        <v>0.1578316823830455</v>
       </c>
       <c r="M23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23">
-        <v>288.15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1859,25 +1853,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F24">
-        <v>-0.4</v>
+        <v>-0.82</v>
       </c>
       <c r="G24">
-        <v>-0.21</v>
+        <v>-1.46</v>
       </c>
       <c r="H24">
-        <v>1.25</v>
+        <v>-1.28</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1886,19 +1880,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.102481341343779</v>
+        <v>0.03261531897110013</v>
       </c>
       <c r="L24">
-        <v>0.09611919288709493</v>
+        <v>0.1115609536662168</v>
       </c>
       <c r="M24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24">
-        <v>42.29</v>
+        <v>925.5</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1906,25 +1900,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F25">
-        <v>-0.63</v>
+        <v>-0.47</v>
       </c>
       <c r="G25">
-        <v>-1.06</v>
+        <v>-1.63</v>
       </c>
       <c r="H25">
-        <v>1.72</v>
+        <v>-0.9</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1933,19 +1927,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.0298537272483479</v>
       </c>
       <c r="L25">
-        <v>0.07405256279947728</v>
+        <v>0.07909101035980839</v>
       </c>
       <c r="M25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>777</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1953,25 +1947,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C26">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D26">
         <v>45</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F26">
-        <v>-0.49</v>
+        <v>-0.4</v>
       </c>
       <c r="G26">
-        <v>-1.04</v>
+        <v>-1.22</v>
       </c>
       <c r="H26">
-        <v>-0.72</v>
+        <v>-0.85</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1980,19 +1974,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.02368153526912407</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.0265522786324262</v>
+        <v>0.001395137944264239</v>
       </c>
       <c r="M26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>1148.9</v>
+        <v>421.85</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2000,25 +1994,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F27">
-        <v>-0.96</v>
+        <v>-0.34</v>
       </c>
       <c r="G27">
-        <v>-1.6</v>
+        <v>-1.31</v>
       </c>
       <c r="H27">
-        <v>0.78</v>
+        <v>-0.33</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2027,19 +2021,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.1573230116119498</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.1804060878347787</v>
+        <v>0.01465469866275875</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O27">
-        <v>1295.1</v>
+        <v>224.59</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2047,25 +2041,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C28">
+        <v>135</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+      <c r="E28">
         <v>90</v>
       </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>80</v>
-      </c>
       <c r="F28">
-        <v>-0.26</v>
+        <v>-0.45</v>
       </c>
       <c r="G28">
-        <v>-0.26</v>
+        <v>-1.22</v>
       </c>
       <c r="H28">
-        <v>0.42</v>
+        <v>-0.84</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2074,19 +2068,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>10.90718405873099</v>
+        <v>0.01267025657269499</v>
       </c>
       <c r="L28">
-        <v>5.2</v>
+        <v>0.02115131766992511</v>
       </c>
       <c r="M28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28">
-        <v>5710</v>
+        <v>263.55</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2094,25 +2088,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>70</v>
       </c>
       <c r="F29">
-        <v>0.27</v>
+        <v>-0.89</v>
       </c>
       <c r="G29">
-        <v>-0.17</v>
+        <v>-1.32</v>
       </c>
       <c r="H29">
-        <v>0.72</v>
+        <v>-0.79</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2121,19 +2115,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.0007944344684384293</v>
+        <v>0.009645101249925615</v>
       </c>
       <c r="L29">
-        <v>0.09848525397420115</v>
+        <v>0.03124473510897367</v>
       </c>
       <c r="M29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N29">
         <v>7</v>
       </c>
       <c r="O29">
-        <v>3399</v>
+        <v>999.4</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2141,25 +2135,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30">
+        <v>135</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30">
         <v>90</v>
       </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>70</v>
-      </c>
       <c r="F30">
-        <v>-0.09</v>
+        <v>-0.25</v>
       </c>
       <c r="G30">
-        <v>0.01</v>
+        <v>-1.11</v>
       </c>
       <c r="H30">
-        <v>-1.97</v>
+        <v>-1.25</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2171,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.0358814352574103</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>1480.3</v>
+        <v>2259.7</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2188,25 +2182,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C31">
+        <v>135</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
         <v>90</v>
       </c>
-      <c r="D31">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <v>50</v>
-      </c>
       <c r="F31">
-        <v>-0.65</v>
+        <v>-0.62</v>
       </c>
       <c r="G31">
-        <v>-0.9399999999999999</v>
+        <v>-1.52</v>
       </c>
       <c r="H31">
-        <v>2.54</v>
+        <v>-1.64</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2215,19 +2209,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0.02906315503315019</v>
+        <v>1.305793211301817</v>
       </c>
       <c r="L31">
-        <v>0.0746782457370464</v>
+        <v>1.331486895419808</v>
       </c>
       <c r="M31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O31">
-        <v>55.01</v>
+        <v>222.17</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2235,25 +2229,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C32">
+        <v>135</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="E32">
         <v>90</v>
       </c>
-      <c r="D32">
-        <v>40</v>
-      </c>
-      <c r="E32">
-        <v>50</v>
-      </c>
       <c r="F32">
-        <v>-0.76</v>
+        <v>-0.26</v>
       </c>
       <c r="G32">
-        <v>-0.9</v>
+        <v>-1.11</v>
       </c>
       <c r="H32">
-        <v>-0.99</v>
+        <v>-0.6</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2262,19 +2256,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.07795815349691602</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.1792336217552534</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>5100</v>
+        <v>950.5</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2282,25 +2276,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F33">
-        <v>-0.09</v>
+        <v>-2.54</v>
       </c>
       <c r="G33">
-        <v>-0.41</v>
+        <v>-2.88</v>
       </c>
       <c r="H33">
-        <v>-1.23</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2309,19 +2303,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.3141310495273444</v>
+        <v>0.8075240497701296</v>
       </c>
       <c r="L33">
-        <v>0.5077915099408921</v>
+        <v>0.8152885298627472</v>
       </c>
       <c r="M33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O33">
-        <v>1732.2</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2329,25 +2323,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>0.28</v>
+        <v>-0.74</v>
       </c>
       <c r="G34">
-        <v>0.33</v>
+        <v>-1.55</v>
       </c>
       <c r="H34">
-        <v>1.5</v>
+        <v>-0.91</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2356,19 +2350,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.05838985656013911</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0.08348026339462417</v>
+        <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>412.2</v>
+        <v>1705.7</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2376,25 +2370,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E35">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F35">
-        <v>-0.32</v>
+        <v>-0.6</v>
       </c>
       <c r="G35">
-        <v>-0.13</v>
+        <v>-0.63</v>
       </c>
       <c r="H35">
-        <v>1.31</v>
+        <v>-0.89</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2403,19 +2397,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.007964599801100833</v>
       </c>
       <c r="L35">
-        <v>0.1457632245623322</v>
+        <v>0.1058232338161395</v>
       </c>
       <c r="M35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O35">
-        <v>478.45</v>
+        <v>185.93</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2423,25 +2417,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F36">
-        <v>-0.38</v>
+        <v>0.32</v>
       </c>
       <c r="G36">
-        <v>-0.47</v>
+        <v>-2.02</v>
       </c>
       <c r="H36">
-        <v>-0.11</v>
+        <v>-4.08</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2450,19 +2444,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.06562841117062057</v>
+        <v>0.2179391920104778</v>
       </c>
       <c r="L36">
-        <v>0.2445719990017469</v>
+        <v>0.3896660770756284</v>
       </c>
       <c r="M36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>106.6</v>
+        <v>1623.7</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2470,25 +2464,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37">
+        <v>125</v>
+      </c>
+      <c r="D37">
         <v>75</v>
       </c>
-      <c r="D37">
-        <v>65</v>
-      </c>
       <c r="E37">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>-0.46</v>
+        <v>-0.48</v>
       </c>
       <c r="G37">
-        <v>-1.42</v>
+        <v>-1.96</v>
       </c>
       <c r="H37">
-        <v>-2.28</v>
+        <v>-4.01</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2497,19 +2491,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0.7202299356738998</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0.3088427963669017</v>
+        <v>0.0002141304696951853</v>
       </c>
       <c r="M37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>535.4</v>
+        <v>68.45</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2517,25 +2511,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C38">
+        <v>125</v>
+      </c>
+      <c r="D38">
         <v>75</v>
       </c>
-      <c r="D38">
-        <v>65</v>
-      </c>
       <c r="E38">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>-0.78</v>
+        <v>0.91</v>
       </c>
       <c r="G38">
-        <v>-1.13</v>
+        <v>-1.23</v>
       </c>
       <c r="H38">
-        <v>0.02</v>
+        <v>-2.95</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2547,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.02865329512893983</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O38">
-        <v>1169.4</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2564,25 +2558,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="G39">
-        <v>0.47</v>
+        <v>-1.24</v>
       </c>
       <c r="H39">
-        <v>1.38</v>
+        <v>-0.87</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2591,19 +2585,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.05632609030667285</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.1028462090408993</v>
+        <v>0.0009203018590097553</v>
       </c>
       <c r="M39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O39">
-        <v>733</v>
+        <v>1053.3</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2614,22 +2608,22 @@
         <v>120</v>
       </c>
       <c r="C40">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F40">
-        <v>0.39</v>
+        <v>-0.74</v>
       </c>
       <c r="G40">
-        <v>0.05</v>
+        <v>-1.87</v>
       </c>
       <c r="H40">
-        <v>0.55</v>
+        <v>-1.63</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2638,19 +2632,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.01532988738428883</v>
+        <v>0.1378535403002183</v>
       </c>
       <c r="L40">
-        <v>0.01859120016525511</v>
+        <v>0.1603236514938339</v>
       </c>
       <c r="M40" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>5484.5</v>
+        <v>111.92</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2658,25 +2652,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>0.08</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G41">
-        <v>0.17</v>
+        <v>-2.13</v>
       </c>
       <c r="H41">
-        <v>-0.5</v>
+        <v>-0.42</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2685,19 +2679,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.1625938041177602</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1.855104281009879</v>
+        <v>2.163536370239701</v>
       </c>
       <c r="M41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>6331</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2705,25 +2699,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F42">
-        <v>-0.51</v>
+        <v>-0.57</v>
       </c>
       <c r="G42">
-        <v>-0.34</v>
+        <v>-1.79</v>
       </c>
       <c r="H42">
-        <v>1.96</v>
+        <v>-1.05</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2732,19 +2726,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.002180612431417934</v>
+        <v>0.03302643694182449</v>
       </c>
       <c r="L42">
-        <v>0.04338256403713037</v>
+        <v>0.06976656484519365</v>
       </c>
       <c r="M42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>521.35</v>
+        <v>4120.1</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2755,22 +2749,22 @@
         <v>117</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>-0.72</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G43">
-        <v>-0.91</v>
+        <v>-1.25</v>
       </c>
       <c r="H43">
-        <v>-1.63</v>
+        <v>-0.25</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2779,19 +2773,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>2.253776168183079</v>
+        <v>0.4241592716284314</v>
       </c>
       <c r="L43">
-        <v>1.680497925311203</v>
+        <v>0.655407524804781</v>
       </c>
       <c r="M43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O43">
-        <v>2031.3</v>
+        <v>667.55</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2799,25 +2793,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C44">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
         <v>70</v>
       </c>
-      <c r="D44">
-        <v>40</v>
-      </c>
-      <c r="E44">
-        <v>30</v>
-      </c>
       <c r="F44">
-        <v>-0.59</v>
+        <v>0.67</v>
       </c>
       <c r="G44">
-        <v>-0.52</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H44">
-        <v>-1.3</v>
+        <v>-3.96</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2826,19 +2820,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.0009206709680694962</v>
+        <v>0.0280040733197556</v>
       </c>
       <c r="L44">
-        <v>0.00797371423857903</v>
+        <v>0.06918964252018031</v>
       </c>
       <c r="M44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O44">
-        <v>746.4</v>
+        <v>448.5</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2846,25 +2840,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F45">
-        <v>-0.35</v>
+        <v>-0.97</v>
       </c>
       <c r="G45">
-        <v>-0.57</v>
+        <v>-0.82</v>
       </c>
       <c r="H45">
-        <v>0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2873,19 +2867,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0.7825846387937397</v>
+        <v>0.4777070063695746</v>
       </c>
       <c r="L45">
-        <v>1.612110418521816</v>
+        <v>0.4371584699453552</v>
       </c>
       <c r="M45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O45">
-        <v>365</v>
+        <v>285.85</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2893,25 +2887,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F46">
-        <v>-0.2</v>
+        <v>-0.64</v>
       </c>
       <c r="G46">
-        <v>-0.28</v>
+        <v>-0.1</v>
       </c>
       <c r="H46">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2920,19 +2914,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.2419311376236908</v>
+        <v>0.6424711402280278</v>
       </c>
       <c r="L46">
-        <v>0.4311690338692055</v>
+        <v>0.7303471847454579</v>
       </c>
       <c r="M46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O46">
-        <v>1968.6</v>
+        <v>1102.6</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2940,25 +2934,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47">
+        <v>115</v>
+      </c>
+      <c r="D47">
         <v>65</v>
       </c>
-      <c r="D47">
-        <v>45</v>
-      </c>
       <c r="E47">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F47">
-        <v>-0.43</v>
+        <v>-1.14</v>
       </c>
       <c r="G47">
-        <v>-1.09</v>
+        <v>-1.8</v>
       </c>
       <c r="H47">
-        <v>-0.45</v>
+        <v>-0.22</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2973,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O47">
-        <v>1047.5</v>
+        <v>530.85</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2987,25 +2981,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F48">
-        <v>-0.38</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G48">
-        <v>-0.5</v>
+        <v>-1.05</v>
       </c>
       <c r="H48">
-        <v>-2.5</v>
+        <v>-0.49</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -3014,19 +3008,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.1137463670415947</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.1309466602594906</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>1087</v>
+        <v>723</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3037,22 +3031,22 @@
         <v>124</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <v>50</v>
       </c>
       <c r="F49">
-        <v>0.01</v>
+        <v>-1</v>
       </c>
       <c r="G49">
-        <v>0.38</v>
+        <v>-1.81</v>
       </c>
       <c r="H49">
-        <v>2.35</v>
+        <v>-1.22</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3061,19 +3055,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.5481250250130466</v>
+        <v>0.0008839153916179115</v>
       </c>
       <c r="L49">
-        <v>0.4334561290240908</v>
+        <v>0.01122964626614262</v>
       </c>
       <c r="M49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N49">
         <v>5</v>
       </c>
       <c r="O49">
-        <v>776.35</v>
+        <v>434.4</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3081,25 +3075,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D50">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F50">
-        <v>-0.9399999999999999</v>
+        <v>-0.4</v>
       </c>
       <c r="G50">
-        <v>-0.82</v>
+        <v>-2.06</v>
       </c>
       <c r="H50">
-        <v>0.59</v>
+        <v>-1.77</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3108,19 +3102,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.05668051680276808</v>
+        <v>0.02710710251919401</v>
       </c>
       <c r="L50">
-        <v>0.06153065431824669</v>
+        <v>0.04534551309433838</v>
       </c>
       <c r="M50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O50">
-        <v>7625</v>
+        <v>40.01</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3131,22 +3125,22 @@
         <v>120</v>
       </c>
       <c r="C51">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D51">
         <v>45</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F51">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="G51">
-        <v>-1.01</v>
+        <v>-1.28</v>
       </c>
       <c r="H51">
-        <v>0.04</v>
+        <v>-0.79</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3155,19 +3149,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.02940239125741485</v>
+        <v>0.1335002085940308</v>
       </c>
       <c r="L51">
-        <v>0.1214317052804393</v>
+        <v>0.400516795865633</v>
       </c>
       <c r="M51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O51">
-        <v>5017</v>
+        <v>4400.1</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3175,25 +3169,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D52">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F52">
-        <v>-0.93</v>
+        <v>-0.39</v>
       </c>
       <c r="G52">
-        <v>-0.92</v>
+        <v>-1.05</v>
       </c>
       <c r="H52">
-        <v>-0.9399999999999999</v>
+        <v>-1.12</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3202,19 +3196,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.001529787837549323</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>0.002655125720202851</v>
+        <v>0.122107969151671</v>
       </c>
       <c r="M52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O52">
-        <v>715.05</v>
+        <v>2971.4</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3222,25 +3216,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F53">
-        <v>-0.87</v>
+        <v>-0.78</v>
       </c>
       <c r="G53">
-        <v>0.13</v>
+        <v>-1.78</v>
       </c>
       <c r="H53">
-        <v>-0.59</v>
+        <v>-1.59</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3249,19 +3243,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0.1422003128406883</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.1977848101265823</v>
+        <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O53">
-        <v>7815</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3269,25 +3263,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F54">
-        <v>-0.62</v>
+        <v>-0.89</v>
       </c>
       <c r="G54">
-        <v>-0.47</v>
+        <v>-2.02</v>
       </c>
       <c r="H54">
-        <v>0.33</v>
+        <v>-0.03</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3296,19 +3290,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.05795259280183566</v>
+        <v>0.001112268319563794</v>
       </c>
       <c r="L54">
-        <v>0.1794447562335551</v>
+        <v>0.0199456029011786</v>
       </c>
       <c r="M54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>274.25</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3319,22 +3313,22 @@
         <v>120</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D55">
         <v>20</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F55">
-        <v>-0.33</v>
+        <v>-0.44</v>
       </c>
       <c r="G55">
-        <v>0.08</v>
+        <v>-0.61</v>
       </c>
       <c r="H55">
-        <v>-0.09</v>
+        <v>-0.39</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3343,19 +3337,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.469321202877873</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.2318041742022556</v>
+        <v>0.0005677946854417442</v>
       </c>
       <c r="M55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O55">
-        <v>1378.5</v>
+        <v>860.95</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3363,25 +3357,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F56">
-        <v>-0.68</v>
+        <v>-0.33</v>
       </c>
       <c r="G56">
-        <v>-0.22</v>
+        <v>-0.91</v>
       </c>
       <c r="H56">
-        <v>0.14</v>
+        <v>-0.96</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3390,19 +3384,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.1689098611185323</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0.5579912315663611</v>
+        <v>0.06329113924050632</v>
       </c>
       <c r="M56" t="s">
         <v>128</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O56">
-        <v>503.5</v>
+        <v>923.7</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3410,25 +3404,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D57">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F57">
-        <v>-0.54</v>
+        <v>-0.21</v>
       </c>
       <c r="G57">
-        <v>-0.61</v>
+        <v>-0.08</v>
       </c>
       <c r="H57">
-        <v>0.37</v>
+        <v>-0.57</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3440,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.01330280265865104</v>
+        <v>0.3008752735229759</v>
       </c>
       <c r="M57" t="s">
         <v>128</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O57">
-        <v>311</v>
+        <v>527.3</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3457,25 +3451,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D58">
         <v>20</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F58">
-        <v>0.41</v>
+        <v>-0.36</v>
       </c>
       <c r="G58">
-        <v>0.17</v>
+        <v>-0.95</v>
       </c>
       <c r="H58">
-        <v>-0.42</v>
+        <v>-1.08</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3487,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0.00822337681755317</v>
+        <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O58">
-        <v>320</v>
+        <v>515.75</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3504,25 +3498,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F59">
-        <v>-0.18</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G59">
-        <v>-0.43</v>
+        <v>-0.2</v>
       </c>
       <c r="H59">
-        <v>0.23</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3531,19 +3525,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>2.426411544726739</v>
+        <v>0.06084575600851623</v>
       </c>
       <c r="L59">
-        <v>1.178772582490799</v>
+        <v>0.1344974044360547</v>
       </c>
       <c r="M59" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O59">
-        <v>1055.7</v>
+        <v>1961.5</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3551,25 +3545,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D60">
+        <v>65</v>
+      </c>
+      <c r="E60">
         <v>40</v>
       </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
       <c r="F60">
-        <v>-0.71</v>
+        <v>-0.86</v>
       </c>
       <c r="G60">
-        <v>-0.35</v>
+        <v>-1.69</v>
       </c>
       <c r="H60">
-        <v>0.11</v>
+        <v>-1.37</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3578,19 +3572,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.1081906701457416</v>
       </c>
       <c r="L60">
-        <v>0.526651635682988</v>
+        <v>0.1677943166441137</v>
       </c>
       <c r="M60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O60">
-        <v>175.75</v>
+        <v>299.15</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3598,25 +3592,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F61">
-        <v>-1.02</v>
+        <v>-0.29</v>
       </c>
       <c r="G61">
-        <v>-0.75</v>
+        <v>-0.44</v>
       </c>
       <c r="H61">
-        <v>0.51</v>
+        <v>-0.73</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3625,19 +3619,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.6087973321979154</v>
+        <v>0.1067432693798446</v>
       </c>
       <c r="L61">
-        <v>0.6185015188213412</v>
+        <v>0.1933824181673024</v>
       </c>
       <c r="M61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O61">
-        <v>2183.7</v>
+        <v>544.8</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3645,25 +3639,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D62">
         <v>20</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F62">
-        <v>-0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G62">
-        <v>-0.67</v>
+        <v>-0.01</v>
       </c>
       <c r="H62">
-        <v>-0.15</v>
+        <v>-0.88</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3672,19 +3666,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>0.007368708398643611</v>
       </c>
       <c r="L62">
-        <v>0.002845354958031014</v>
+        <v>0.2064612957226145</v>
       </c>
       <c r="M62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O62">
-        <v>1105</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3692,25 +3686,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>0.09</v>
+        <v>-0.65</v>
       </c>
       <c r="G63">
-        <v>0.9399999999999999</v>
+        <v>-1.98</v>
       </c>
       <c r="H63">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3722,16 +3716,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0.06571967741026917</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="M63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>519.2</v>
+        <v>284.25</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3739,25 +3733,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C64">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F64">
-        <v>-0.39</v>
+        <v>-0.3</v>
       </c>
       <c r="G64">
-        <v>-0.48</v>
+        <v>-1.88</v>
       </c>
       <c r="H64">
-        <v>0.35</v>
+        <v>-1.86</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3766,19 +3760,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.3666910295765718</v>
+        <v>0.7045425712624787</v>
       </c>
       <c r="L64">
-        <v>0.4653745641905973</v>
+        <v>0.6156211601958206</v>
       </c>
       <c r="M64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>234.65</v>
+        <v>285.2</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3786,25 +3780,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C65">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F65">
-        <v>-0.06</v>
+        <v>-0.29</v>
       </c>
       <c r="G65">
-        <v>-0.08</v>
+        <v>-2.61</v>
       </c>
       <c r="H65">
-        <v>0.25</v>
+        <v>-1.43</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3813,19 +3807,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.02412417860014562</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0.05710056043142645</v>
+        <v>0.01821493624772313</v>
       </c>
       <c r="M65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>3847.9</v>
+        <v>5828.5</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3833,25 +3827,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C66">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F66">
-        <v>0.04</v>
+        <v>-0.36</v>
       </c>
       <c r="G66">
-        <v>-0.23</v>
+        <v>-2.55</v>
       </c>
       <c r="H66">
-        <v>0.98</v>
+        <v>-1.81</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3860,19 +3854,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.004991576714293022</v>
       </c>
       <c r="L66">
-        <v>2.145667442418676</v>
+        <v>0.03356929139604466</v>
       </c>
       <c r="M66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O66">
-        <v>101.6</v>
+        <v>1596.4</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3880,25 +3874,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F67">
-        <v>1.99</v>
+        <v>-0.36</v>
       </c>
       <c r="G67">
-        <v>1.27</v>
+        <v>-1.04</v>
       </c>
       <c r="H67">
-        <v>0.32</v>
+        <v>-0.88</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3907,19 +3901,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.008736422143917994</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>0.0856775667571041</v>
       </c>
       <c r="M67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O67">
-        <v>71.59999999999999</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3927,25 +3921,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F68">
-        <v>-0.13</v>
+        <v>-0.86</v>
       </c>
       <c r="G68">
-        <v>-0.06</v>
+        <v>-1.81</v>
       </c>
       <c r="H68">
-        <v>-0.59</v>
+        <v>-0.71</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3954,19 +3948,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.0604481980648133</v>
+        <v>0.02458502458503005</v>
       </c>
       <c r="L68">
-        <v>0.9946963957138218</v>
+        <v>0.2217014470111223</v>
       </c>
       <c r="M68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>552.85</v>
+        <v>385.45</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3974,25 +3968,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C69">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F69">
-        <v>-0.34</v>
+        <v>-0.31</v>
       </c>
       <c r="G69">
-        <v>-0.4</v>
+        <v>-1.28</v>
       </c>
       <c r="H69">
-        <v>-0.28</v>
+        <v>-1.45</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4001,19 +3995,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.2338877234081394</v>
+        <v>0.0007153007601264466</v>
       </c>
       <c r="L69">
-        <v>0.131864034539283</v>
+        <v>0.007641365257259297</v>
       </c>
       <c r="M69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O69">
-        <v>1888</v>
+        <v>373.7</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4021,25 +4015,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C70">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E70">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F70">
-        <v>-0.04</v>
+        <v>-0.31</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>-2.22</v>
       </c>
       <c r="H70">
-        <v>-0.26</v>
+        <v>-1.54</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4048,19 +4042,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>0.009685688868300596</v>
       </c>
       <c r="L70">
-        <v>0.08927095387667383</v>
+        <v>0.007128798797402638</v>
       </c>
       <c r="M70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O70">
-        <v>1245</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4068,25 +4062,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C71">
+        <v>90</v>
+      </c>
+      <c r="D71">
+        <v>50</v>
+      </c>
+      <c r="E71">
         <v>40</v>
       </c>
-      <c r="D71">
-        <v>20</v>
-      </c>
-      <c r="E71">
-        <v>20</v>
-      </c>
       <c r="F71">
-        <v>-0.48</v>
+        <v>0.33</v>
       </c>
       <c r="G71">
-        <v>-0.41</v>
+        <v>-0.44</v>
       </c>
       <c r="H71">
-        <v>0.05</v>
+        <v>-2.1</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4095,19 +4089,19 @@
         <v>0.5</v>
       </c>
       <c r="K71">
-        <v>0.4252432985092456</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0.6225691479990785</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="M71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>1441.4</v>
+        <v>737.5</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4115,25 +4109,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F72">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="G72">
-        <v>-1.26</v>
+        <v>-0.65</v>
       </c>
       <c r="H72">
-        <v>0.45</v>
+        <v>-2.26</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4142,19 +4136,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>2.403204272363151</v>
+        <v>0.01694347709616777</v>
       </c>
       <c r="L72">
-        <v>0.9549071618037135</v>
+        <v>0.05474886931682933</v>
       </c>
       <c r="M72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>30985</v>
+        <v>730.05</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4162,25 +4156,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F73">
-        <v>0.26</v>
+        <v>-0.43</v>
       </c>
       <c r="G73">
-        <v>-0.51</v>
+        <v>-0.89</v>
       </c>
       <c r="H73">
-        <v>-0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4189,19 +4183,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>0.009054564592372168</v>
       </c>
       <c r="L73">
-        <v>0.6081081081081081</v>
+        <v>0.04877628260210622</v>
       </c>
       <c r="M73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O73">
-        <v>1167</v>
+        <v>165.22</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4209,25 +4203,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F74">
-        <v>-0.37</v>
+        <v>-0.93</v>
       </c>
       <c r="G74">
-        <v>-0.4</v>
+        <v>-0.76</v>
       </c>
       <c r="H74">
-        <v>-0.59</v>
+        <v>-0.49</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4236,19 +4230,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.3321190879692753</v>
+        <v>0.03361666678954228</v>
       </c>
       <c r="L74">
-        <v>0.7696823659897336</v>
+        <v>0.3464255868722936</v>
       </c>
       <c r="M74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O74">
-        <v>326.5</v>
+        <v>998.8</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4256,25 +4250,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <v>20</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F75">
-        <v>0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="G75">
-        <v>-0.11</v>
+        <v>-0.24</v>
       </c>
       <c r="H75">
-        <v>0.96</v>
+        <v>-0.23</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4289,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>637.8</v>
+        <v>152910</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4303,25 +4297,25 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D76">
+        <v>65</v>
+      </c>
+      <c r="E76">
         <v>20</v>
       </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
       <c r="F76">
-        <v>-0.19</v>
+        <v>-0.79</v>
       </c>
       <c r="G76">
-        <v>-0.62</v>
+        <v>-1.98</v>
       </c>
       <c r="H76">
-        <v>0.08</v>
+        <v>-0.93</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4330,19 +4324,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.134124550528336</v>
+        <v>0.01037467393881058</v>
       </c>
       <c r="L76">
-        <v>0.1035096231602782</v>
+        <v>0.08141428239125378</v>
       </c>
       <c r="M76" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76">
-        <v>8310</v>
+        <v>513.95</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4350,25 +4344,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D77">
+        <v>65</v>
+      </c>
+      <c r="E77">
         <v>20</v>
       </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
       <c r="F77">
-        <v>0.68</v>
+        <v>-0.7</v>
       </c>
       <c r="G77">
-        <v>0.35</v>
+        <v>-2.36</v>
       </c>
       <c r="H77">
-        <v>0.34</v>
+        <v>-0.77</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4377,19 +4371,19 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0.2382077701105932</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0.287958115183246</v>
+        <v>0.1738570508692852</v>
       </c>
       <c r="M77" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>327.7</v>
+        <v>440.5</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4397,25 +4391,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D78">
+        <v>65</v>
+      </c>
+      <c r="E78">
         <v>20</v>
       </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
       <c r="F78">
-        <v>-0.23</v>
+        <v>-0.76</v>
       </c>
       <c r="G78">
-        <v>0.64</v>
+        <v>-1.94</v>
       </c>
       <c r="H78">
-        <v>0.26</v>
+        <v>-0.46</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4424,19 +4418,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.1607733935795723</v>
+        <v>0.05601022107424346</v>
       </c>
       <c r="L78">
-        <v>0.1120140566659345</v>
+        <v>0.1667321643830778</v>
       </c>
       <c r="M78" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O78">
-        <v>6045</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4447,22 +4441,22 @@
         <v>117</v>
       </c>
       <c r="C79">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F79">
-        <v>-0.3</v>
+        <v>-0.64</v>
       </c>
       <c r="G79">
-        <v>-0.7</v>
+        <v>-0.12</v>
       </c>
       <c r="H79">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4471,19 +4465,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.03598629298213622</v>
       </c>
       <c r="L79">
-        <v>0.1756337450968913</v>
+        <v>0.05454582459853866</v>
       </c>
       <c r="M79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>1069.3</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4491,22 +4485,22 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F80">
-        <v>0.35</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G80">
-        <v>-0.35</v>
+        <v>-0.91</v>
       </c>
       <c r="H80">
         <v>-0.41</v>
@@ -4518,19 +4512,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.598759110896966</v>
       </c>
       <c r="L80">
-        <v>0.06373517484356746</v>
+        <v>0.5925307740454829</v>
       </c>
       <c r="M80" t="s">
         <v>129</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O80">
-        <v>31.44</v>
+        <v>337.8</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4538,25 +4532,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81">
-        <v>-0.35</v>
+        <v>-0.6</v>
       </c>
       <c r="G81">
-        <v>0.05</v>
+        <v>-1.04</v>
       </c>
       <c r="H81">
-        <v>1.06</v>
+        <v>-1.14</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4565,19 +4559,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>0.07692498573158708</v>
       </c>
       <c r="L81">
-        <v>0.03180675248758891</v>
+        <v>0.8795157934556459</v>
       </c>
       <c r="M81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N81">
         <v>1</v>
       </c>
       <c r="O81">
-        <v>242.16</v>
+        <v>2827.8</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4585,25 +4579,25 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="F82">
-        <v>0.06</v>
+        <v>-0.9</v>
       </c>
       <c r="G82">
-        <v>0.08</v>
+        <v>-1.67</v>
       </c>
       <c r="H82">
-        <v>-0.11</v>
+        <v>-0.9</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4612,19 +4606,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>0.0482380415510191</v>
       </c>
       <c r="L82">
-        <v>0.01848808545603944</v>
+        <v>0.1100106119561372</v>
       </c>
       <c r="M82" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
       <c r="O82">
-        <v>1548.7</v>
+        <v>723.45</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4632,25 +4626,25 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C83">
+        <v>75</v>
+      </c>
+      <c r="D83">
+        <v>45</v>
+      </c>
+      <c r="E83">
         <v>30</v>
       </c>
-      <c r="D83">
-        <v>20</v>
-      </c>
-      <c r="E83">
-        <v>10</v>
-      </c>
       <c r="F83">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="G83">
-        <v>1.37</v>
+        <v>-1.23</v>
       </c>
       <c r="H83">
-        <v>2.26</v>
+        <v>-0.78</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4659,19 +4653,19 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0.1522285379717435</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0.1583461623048164</v>
+        <v>0.03129890453834116</v>
       </c>
       <c r="M83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83">
-        <v>1440</v>
+        <v>456.4</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4679,25 +4673,25 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84">
+        <v>75</v>
+      </c>
+      <c r="D84">
+        <v>45</v>
+      </c>
+      <c r="E84">
         <v>30</v>
       </c>
-      <c r="D84">
-        <v>20</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
-      </c>
       <c r="F84">
-        <v>-0.89</v>
+        <v>-0.42</v>
       </c>
       <c r="G84">
-        <v>-0.41</v>
+        <v>-1.02</v>
       </c>
       <c r="H84">
-        <v>-0.44</v>
+        <v>-0.28</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4706,19 +4700,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>1.479555630914992</v>
+        <v>0.01744494331962565</v>
       </c>
       <c r="L84">
-        <v>1.192307692307692</v>
+        <v>0.09138123726250739</v>
       </c>
       <c r="M84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84">
-        <v>943.55</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4726,25 +4720,25 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C85">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D85">
         <v>20</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F85">
-        <v>0.43</v>
+        <v>-0.36</v>
       </c>
       <c r="G85">
-        <v>0.25</v>
+        <v>-0.93</v>
       </c>
       <c r="H85">
-        <v>-0.41</v>
+        <v>-1.4</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4753,19 +4747,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0.02271883201175477</v>
+        <v>0.02345129824921708</v>
       </c>
       <c r="L85">
-        <v>0.112824578060044</v>
+        <v>0.04046398705152415</v>
       </c>
       <c r="M85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O85">
-        <v>179.31</v>
+        <v>153.74</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4773,25 +4767,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D86">
         <v>20</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F86">
-        <v>1.17</v>
+        <v>-0.03</v>
       </c>
       <c r="G86">
-        <v>0.98</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H86">
-        <v>-0.28</v>
+        <v>-0.9</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4803,16 +4797,16 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.1295896328293737</v>
+        <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O86">
-        <v>6415.5</v>
+        <v>34570</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4820,25 +4814,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C87">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="G87">
-        <v>-0.24</v>
+        <v>-0.35</v>
       </c>
       <c r="H87">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4847,19 +4841,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.06105340155348195</v>
       </c>
       <c r="L87">
-        <v>0.0843073385706074</v>
+        <v>0.1441530206804965</v>
       </c>
       <c r="M87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O87">
-        <v>4100.1</v>
+        <v>1999.9</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4867,25 +4861,25 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D88">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F88">
-        <v>-0.35</v>
+        <v>-0.15</v>
       </c>
       <c r="G88">
-        <v>-0.37</v>
+        <v>-0.05</v>
       </c>
       <c r="H88">
-        <v>-0.4</v>
+        <v>-0.31</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4894,19 +4888,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.2570106802216041</v>
       </c>
       <c r="L88">
-        <v>0.07223113964686999</v>
+        <v>0.6373937677053825</v>
       </c>
       <c r="M88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O88">
-        <v>2669</v>
+        <v>2650.8</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4914,25 +4908,25 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C89">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D89">
         <v>20</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F89">
-        <v>-0.17</v>
+        <v>0.34</v>
       </c>
       <c r="G89">
-        <v>-0.24</v>
+        <v>-0.84</v>
       </c>
       <c r="H89">
-        <v>0.39</v>
+        <v>-1</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4941,19 +4935,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0.3949543589655802</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0.5297086234206358</v>
+        <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O89">
-        <v>3118.8</v>
+        <v>37150</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4961,25 +4955,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F90">
-        <v>-0.12</v>
+        <v>0.98</v>
       </c>
       <c r="G90">
-        <v>-0.73</v>
+        <v>0.12</v>
       </c>
       <c r="H90">
-        <v>0.18</v>
+        <v>-1.37</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -4988,19 +4982,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>1.990680304009706</v>
+        <v>0.0401432136269936</v>
       </c>
       <c r="L90">
-        <v>1.697956830384491</v>
+        <v>0.180796481798192</v>
       </c>
       <c r="M90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O90">
-        <v>1041</v>
+        <v>11143</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5008,25 +5002,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D91">
         <v>20</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F91">
-        <v>0.25</v>
+        <v>-0.04</v>
       </c>
       <c r="G91">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>-0.84</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5035,19 +5029,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0.1966537199405882</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0.2670320660082584</v>
+        <v>0.04246284501061571</v>
       </c>
       <c r="M91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O91">
-        <v>44.19</v>
+        <v>887</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5055,25 +5049,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C92">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D92">
         <v>20</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F92">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="G92">
-        <v>0.8</v>
+        <v>1.19</v>
       </c>
       <c r="H92">
-        <v>0.27</v>
+        <v>-1.4</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5082,19 +5076,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>0.0133549981080404</v>
       </c>
       <c r="L92">
-        <v>0.3455502734754383</v>
+        <v>0.03452800220979214</v>
       </c>
       <c r="M92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O92">
-        <v>382.2</v>
+        <v>523.3</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5102,25 +5096,25 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E93">
         <v>10</v>
       </c>
       <c r="F93">
-        <v>0.3</v>
+        <v>-0.23</v>
       </c>
       <c r="G93">
-        <v>-0.01</v>
+        <v>-1.17</v>
       </c>
       <c r="H93">
-        <v>0.22</v>
+        <v>-0.32</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5132,16 +5126,16 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0.426367461430575</v>
+        <v>0.01078748651564185</v>
       </c>
       <c r="M93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
       <c r="O93">
-        <v>1039.4</v>
+        <v>13693</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5152,22 +5146,22 @@
         <v>120</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F94">
-        <v>-0.12</v>
+        <v>-0.06</v>
       </c>
       <c r="G94">
-        <v>0.36</v>
+        <v>-0.6</v>
       </c>
       <c r="H94">
-        <v>0.33</v>
+        <v>-0.24</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5176,19 +5170,19 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>0.11366817555186</v>
+        <v>1.40062660917569</v>
       </c>
       <c r="L94">
-        <v>0.5676003587065463</v>
+        <v>1.480354613649478</v>
       </c>
       <c r="M94" t="s">
         <v>129</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O94">
-        <v>804</v>
+        <v>2570.4</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5196,25 +5190,25 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C95">
+        <v>40</v>
+      </c>
+      <c r="D95">
         <v>20</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="F95">
-        <v>-0.32</v>
+        <v>0.1</v>
       </c>
       <c r="G95">
-        <v>0.03</v>
+        <v>-0.35</v>
       </c>
       <c r="H95">
-        <v>-0.48</v>
+        <v>-1.03</v>
       </c>
       <c r="I95">
         <v>50</v>
@@ -5223,19 +5217,19 @@
         <v>0.5</v>
       </c>
       <c r="K95">
-        <v>1.767696857404624</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>0.2984622835694394</v>
+        <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N95">
         <v>2</v>
       </c>
       <c r="O95">
-        <v>1947</v>
+        <v>1551.6</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5243,25 +5237,25 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C96">
+        <v>40</v>
+      </c>
+      <c r="D96">
         <v>20</v>
       </c>
-      <c r="D96">
-        <v>10</v>
-      </c>
       <c r="E96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F96">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G96">
-        <v>-0.13</v>
+        <v>-0.35</v>
       </c>
       <c r="H96">
-        <v>0.43</v>
+        <v>-0.57</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5270,19 +5264,19 @@
         <v>0.5</v>
       </c>
       <c r="K96">
-        <v>0.5562451806554388</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>0.7323588335683016</v>
+        <v>0.005054334091483447</v>
       </c>
       <c r="M96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>3020.4</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5290,25 +5284,25 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C97">
+        <v>40</v>
+      </c>
+      <c r="D97">
         <v>20</v>
       </c>
-      <c r="D97">
-        <v>10</v>
-      </c>
       <c r="E97">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F97">
-        <v>-0.23</v>
+        <v>-0.39</v>
       </c>
       <c r="G97">
-        <v>-0.51</v>
+        <v>1.31</v>
       </c>
       <c r="H97">
-        <v>0.68</v>
+        <v>-0.88</v>
       </c>
       <c r="I97">
         <v>50</v>
@@ -5317,19 +5311,19 @@
         <v>0.5</v>
       </c>
       <c r="K97">
-        <v>0.6833259230496246</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0.3481351745624642</v>
+        <v>0.01814882032667877</v>
       </c>
       <c r="M97" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O97">
-        <v>1403.4</v>
+        <v>1224.3</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5337,25 +5331,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
         <v>20</v>
-      </c>
-      <c r="D98">
-        <v>10</v>
       </c>
       <c r="E98">
         <v>10</v>
       </c>
       <c r="F98">
-        <v>-0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G98">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0.05</v>
+        <v>-0.71</v>
       </c>
       <c r="I98">
         <v>50</v>
@@ -5364,19 +5358,19 @@
         <v>0.5</v>
       </c>
       <c r="K98">
-        <v>2.299901694062922</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>1.611222595931903</v>
+        <v>0.09020090200902009</v>
       </c>
       <c r="M98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
       <c r="O98">
-        <v>197.37</v>
+        <v>372.45</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5384,25 +5378,25 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C99">
+        <v>30</v>
+      </c>
+      <c r="D99">
         <v>20</v>
-      </c>
-      <c r="D99">
-        <v>10</v>
       </c>
       <c r="E99">
         <v>10</v>
       </c>
       <c r="F99">
-        <v>0.06</v>
+        <v>-0.13</v>
       </c>
       <c r="G99">
-        <v>-0.47</v>
+        <v>-0.12</v>
       </c>
       <c r="H99">
-        <v>0.19</v>
+        <v>0.67</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -5411,19 +5405,19 @@
         <v>0.5</v>
       </c>
       <c r="K99">
-        <v>0.7291917167668758</v>
+        <v>0.06412124744972993</v>
       </c>
       <c r="L99">
-        <v>0.6296687259533575</v>
+        <v>0.2079504279787849</v>
       </c>
       <c r="M99" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99">
-        <v>31.45</v>
+        <v>2753.4</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5431,25 +5425,25 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C100">
         <v>20</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F100">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="G100">
-        <v>0.06</v>
+        <v>-0.36</v>
       </c>
       <c r="H100">
-        <v>0.64</v>
+        <v>-0.64</v>
       </c>
       <c r="I100">
         <v>50</v>
@@ -5458,113 +5452,19 @@
         <v>0.5</v>
       </c>
       <c r="K100">
-        <v>1.332369466946962</v>
+        <v>11.1982982746399</v>
       </c>
       <c r="L100">
-        <v>1.018919675608472</v>
+        <v>3.603178828092323</v>
       </c>
       <c r="M100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>316.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101">
-        <v>10</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>10</v>
-      </c>
-      <c r="F101">
-        <v>0.17</v>
-      </c>
-      <c r="G101">
-        <v>-0.12</v>
-      </c>
-      <c r="H101">
-        <v>0.64</v>
-      </c>
-      <c r="I101">
-        <v>50</v>
-      </c>
-      <c r="J101">
-        <v>0.5</v>
-      </c>
-      <c r="K101">
-        <v>2.126324184683869</v>
-      </c>
-      <c r="L101">
-        <v>0.942340791738382</v>
-      </c>
-      <c r="M101" t="s">
-        <v>130</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" t="s">
-        <v>121</v>
-      </c>
-      <c r="C102">
-        <v>10</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>10</v>
-      </c>
-      <c r="F102">
-        <v>-0.14</v>
-      </c>
-      <c r="G102">
-        <v>-0.13</v>
-      </c>
-      <c r="H102">
-        <v>-0.22</v>
-      </c>
-      <c r="I102">
-        <v>50</v>
-      </c>
-      <c r="J102">
-        <v>0.5</v>
-      </c>
-      <c r="K102">
-        <v>1.98408703939701</v>
-      </c>
-      <c r="L102">
-        <v>1.248086913409929</v>
-      </c>
-      <c r="M102" t="s">
-        <v>130</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>714.45</v>
+        <v>1508.6</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="132">
   <si>
     <t>ticker</t>
   </si>
@@ -61,121 +61,202 @@
     <t>close</t>
   </si>
   <si>
+    <t>COSMOFIRST</t>
+  </si>
+  <si>
+    <t>SAREGAMA</t>
+  </si>
+  <si>
     <t>PRAKASH</t>
   </si>
   <si>
-    <t>SAREGAMA</t>
-  </si>
-  <si>
-    <t>COSMOFIRST</t>
+    <t>RAILTEL</t>
+  </si>
+  <si>
+    <t>AZAD</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>KAYNES</t>
+  </si>
+  <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>OLAELEC</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>CRISIL</t>
+  </si>
+  <si>
+    <t>LODHA</t>
+  </si>
+  <si>
+    <t>JSWINFRA</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>RITES</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
   </si>
   <si>
     <t>JSWSTEEL</t>
   </si>
   <si>
+    <t>HOMEFIRST</t>
+  </si>
+  <si>
     <t>POLYPLEX</t>
   </si>
   <si>
-    <t>KAYNES</t>
-  </si>
-  <si>
-    <t>LODHA</t>
+    <t>BLUEDART</t>
+  </si>
+  <si>
+    <t>EMBDL</t>
+  </si>
+  <si>
+    <t>CARBORUNIV</t>
+  </si>
+  <si>
+    <t>TRIDENT</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>CGPOWER</t>
+  </si>
+  <si>
+    <t>IRMENERGY</t>
+  </si>
+  <si>
+    <t>MAXESTATES</t>
+  </si>
+  <si>
+    <t>NSLNISP</t>
+  </si>
+  <si>
+    <t>BALRAMCHIN</t>
   </si>
   <si>
     <t>BIRLACORPN</t>
   </si>
   <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>AZAD</t>
-  </si>
-  <si>
-    <t>TRIDENT</t>
-  </si>
-  <si>
-    <t>HFCL</t>
+    <t>MANAPPURAM</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>LICI</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>CHAMBLFERT</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>KANSAINER</t>
+  </si>
+  <si>
+    <t>ATGL</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>SBFC</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
   </si>
   <si>
     <t>PFC</t>
   </si>
   <si>
-    <t>CGPOWER</t>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>LLOYDSME</t>
+  </si>
+  <si>
+    <t>GRAPHITE</t>
+  </si>
+  <si>
+    <t>AFFLE</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>ALLCARGO</t>
+  </si>
+  <si>
+    <t>ICICIGI</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>JUBLPHARMA</t>
+  </si>
+  <si>
+    <t>RKFORGE</t>
+  </si>
+  <si>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
   </si>
   <si>
     <t>MAHSEAMLES</t>
   </si>
   <si>
-    <t>KCP</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>MANAPPURAM</t>
-  </si>
-  <si>
-    <t>CARBORUNIV</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>OLAELEC</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>ATGL</t>
-  </si>
-  <si>
-    <t>CHAMBLFERT</t>
-  </si>
-  <si>
-    <t>KANSAINER</t>
-  </si>
-  <si>
-    <t>JSWINFRA</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
-  </si>
-  <si>
-    <t>RITES</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>RAILTEL</t>
+    <t>VGUARD</t>
   </si>
   <si>
     <t>BLUESTARCO</t>
   </si>
   <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>EMBDL</t>
-  </si>
-  <si>
-    <t>BLUEDART</t>
-  </si>
-  <si>
-    <t>JUBLPHARMA</t>
-  </si>
-  <si>
-    <t>IRFC</t>
+    <t>JUSTDIAL</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
   </si>
   <si>
     <t>MCX</t>
@@ -184,211 +265,136 @@
     <t>TRENT</t>
   </si>
   <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>MAXESTATES</t>
-  </si>
-  <si>
-    <t>IRMENERGY</t>
-  </si>
-  <si>
-    <t>HOMEFIRST</t>
-  </si>
-  <si>
-    <t>GRAPHITE</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>BALRAMCHIN</t>
-  </si>
-  <si>
-    <t>NSLNISP</t>
-  </si>
-  <si>
-    <t>CRISIL</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>LLOYDSME</t>
-  </si>
-  <si>
-    <t>LICI</t>
-  </si>
-  <si>
-    <t>MAITHANALL</t>
-  </si>
-  <si>
-    <t>RKFORGE</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>ICICIGI</t>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>ZEEL</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>INDHOTEL</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>COCHINSHIP</t>
+  </si>
+  <si>
+    <t>APOLLOHOSP</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>HONAUT</t>
+  </si>
+  <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
+    <t>ENDURANCE</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>DALBHARAT</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>EMAMILTD</t>
+  </si>
+  <si>
+    <t>BAJAJHLDNG</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
   </si>
   <si>
     <t>RBLBANK</t>
   </si>
   <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>SBFC</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>AFFLE</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>SWIGGY</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
-    <t>ALLCARGO</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>ZENSARTECH</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>MRF</t>
+    <t>GRINDWELL</t>
   </si>
   <si>
     <t>HEG</t>
   </si>
   <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>COCHINSHIP</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
+    <t>ZYDUSLIFE</t>
   </si>
   <si>
     <t>SRF</t>
   </si>
   <si>
-    <t>INDHOTEL</t>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>DCMSHRIRAM</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>PHOENIXLTD</t>
   </si>
   <si>
     <t>SUMICHEM</t>
   </si>
   <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>HONAUT</t>
-  </si>
-  <si>
-    <t>DALBHARAT</t>
-  </si>
-  <si>
-    <t>ENDURANCE</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>BAJAJHLDNG</t>
-  </si>
-  <si>
-    <t>CLEAN</t>
-  </si>
-  <si>
-    <t>EMAMILTD</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>PHOENIXLTD</t>
-  </si>
-  <si>
-    <t>DCMSHRIRAM</t>
+    <t>GRASIM</t>
   </si>
   <si>
     <t>EIHOTEL</t>
   </si>
   <si>
-    <t>GRASIM</t>
-  </si>
-  <si>
-    <t>CIPLA</t>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
+    <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Strong Short</t>
@@ -761,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,25 +825,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>-1.71</v>
+        <v>-1.31</v>
       </c>
       <c r="G2">
-        <v>-2.51</v>
+        <v>-3</v>
       </c>
       <c r="H2">
-        <v>-2.31</v>
+        <v>-2.25</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -846,19 +852,19 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.03157870295121745</v>
       </c>
       <c r="L2">
-        <v>0.0002979116394077517</v>
+        <v>0.2113442113442114</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>124.49</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -866,22 +872,22 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>-1.67</v>
+        <v>-1.19</v>
       </c>
       <c r="G3">
-        <v>-3.81</v>
+        <v>-3.25</v>
       </c>
       <c r="H3">
         <v>-2.24</v>
@@ -893,19 +899,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3837639507004991</v>
       </c>
       <c r="L3">
-        <v>0.01395838820121148</v>
+        <v>0.6461181325767346</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3">
-        <v>348.4</v>
+        <v>348.35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -913,25 +919,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>175</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>-0.55</v>
+        <v>-0.62</v>
       </c>
       <c r="G4">
-        <v>-2.7</v>
+        <v>-2.07</v>
       </c>
       <c r="H4">
-        <v>-2.25</v>
+        <v>-2.31</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -940,19 +946,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.6889424733034554</v>
+        <v>1.142576325327161</v>
       </c>
       <c r="L4">
-        <v>0.8795074758135444</v>
+        <v>1.233293964070367</v>
       </c>
       <c r="M4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
         <v>125</v>
-      </c>
-      <c r="N4">
-        <v>9</v>
-      </c>
-      <c r="O4">
-        <v>687.2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -960,25 +966,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D5">
         <v>65</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>-0.64</v>
+        <v>-1.81</v>
       </c>
       <c r="G5">
-        <v>-1.72</v>
+        <v>-2.41</v>
       </c>
       <c r="H5">
-        <v>-0.59</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -987,19 +993,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.002978796533463828</v>
+        <v>0.1011305104762088</v>
       </c>
       <c r="L5">
-        <v>0.04320372216683283</v>
+        <v>0.2920081967213115</v>
       </c>
       <c r="M5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>1134.1</v>
+        <v>322.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1007,25 +1013,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C6">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D6">
         <v>65</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>-1.14</v>
+        <v>-1.81</v>
       </c>
       <c r="H6">
-        <v>-1.25</v>
+        <v>-1.2</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1034,19 +1040,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01864439697029618</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1160822249093108</v>
       </c>
       <c r="M6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>804.95</v>
+        <v>1562.4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1054,25 +1060,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C7">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F7">
-        <v>-2.42</v>
+        <v>-0.97</v>
       </c>
       <c r="G7">
-        <v>-4.86</v>
+        <v>-2.01</v>
       </c>
       <c r="H7">
-        <v>-0.75</v>
+        <v>-2.28</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1081,19 +1087,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.4060742521421765</v>
+        <v>14.76601338284986</v>
       </c>
       <c r="L7">
-        <v>0.5334952006777083</v>
+        <v>9.783355878655403</v>
       </c>
       <c r="M7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7">
-        <v>4034</v>
+        <v>125.53</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1101,25 +1107,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D8">
         <v>65</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F8">
-        <v>-0.5600000000000001</v>
+        <v>-3.79</v>
       </c>
       <c r="G8">
-        <v>-1.56</v>
+        <v>-4.53</v>
       </c>
       <c r="H8">
-        <v>-1.08</v>
+        <v>-0.75</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1128,19 +1134,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.0694484153181695</v>
+        <v>0.4480006805956327</v>
       </c>
       <c r="L8">
-        <v>0.1657568238213399</v>
+        <v>0.9322319805848488</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>1081.6</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1148,25 +1154,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>155</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>-0.74</v>
+        <v>-1.33</v>
       </c>
       <c r="G9">
-        <v>-1.49</v>
+        <v>-1.84</v>
       </c>
       <c r="H9">
-        <v>-0.72</v>
+        <v>-0.96</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1175,19 +1181,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.4445412943996587</v>
+        <v>9.928642862934872</v>
       </c>
       <c r="L9">
-        <v>0.3492552645095018</v>
+        <v>5.514044177802019</v>
       </c>
       <c r="M9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>1061.1</v>
+        <v>911.15</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1195,7 +1201,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C10">
         <v>155</v>
@@ -1210,10 +1216,10 @@
         <v>-1.27</v>
       </c>
       <c r="G10">
-        <v>-2.47</v>
+        <v>-3.75</v>
       </c>
       <c r="H10">
-        <v>-1.13</v>
+        <v>2.01</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1222,19 +1228,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.05698703382051997</v>
       </c>
       <c r="L10">
-        <v>0.196078431372549</v>
+        <v>0.155863156176827</v>
       </c>
       <c r="M10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10">
-        <v>3261.8</v>
+        <v>66.78</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1242,25 +1248,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <v>155</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E11">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>-1.22</v>
+        <v>-0.8</v>
       </c>
       <c r="G11">
-        <v>-2.71</v>
+        <v>-1.95</v>
       </c>
       <c r="H11">
-        <v>-2.28</v>
+        <v>-4.08</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1269,19 +1275,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>8.500105596621044</v>
+        <v>0.06931302523619749</v>
       </c>
       <c r="L11">
-        <v>5.473997833152763</v>
+        <v>0.1862378064856314</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>125.86</v>
+        <v>1606.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1289,25 +1295,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>-1.34</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>-2.73</v>
+        <v>-0.39</v>
       </c>
       <c r="H12">
-        <v>-1.2</v>
+        <v>-2.37</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1316,19 +1322,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.568176543221393</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8397135095085206</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>1559.9</v>
+        <v>179.31</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1336,25 +1342,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>145</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F13">
-        <v>-0.73</v>
+        <v>0.03</v>
       </c>
       <c r="G13">
-        <v>-2.13</v>
+        <v>-2.3</v>
       </c>
       <c r="H13">
-        <v>-0.57</v>
+        <v>-3.94</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1363,19 +1369,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.001084629946293842</v>
+        <v>0.1399355060990161</v>
       </c>
       <c r="L13">
-        <v>0.002001138147321289</v>
+        <v>0.3928008959760764</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>27.06</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1383,25 +1389,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>145</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>-1.98</v>
+        <v>-0.42</v>
       </c>
       <c r="G14">
-        <v>-4.73</v>
+        <v>-1.52</v>
       </c>
       <c r="H14">
-        <v>2.01</v>
+        <v>-1.25</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1410,19 +1416,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.5743774543512629</v>
+        <v>0.08663568643016648</v>
       </c>
       <c r="L14">
-        <v>0.6953145349632905</v>
+        <v>0.3262542320714066</v>
       </c>
       <c r="M14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>66.93000000000001</v>
+        <v>2253.8</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1430,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C15">
         <v>145</v>
@@ -1442,13 +1448,13 @@
         <v>80</v>
       </c>
       <c r="F15">
-        <v>-0.55</v>
+        <v>-1.01</v>
       </c>
       <c r="G15">
-        <v>-1.97</v>
+        <v>-1.76</v>
       </c>
       <c r="H15">
-        <v>-0.62</v>
+        <v>-0.79</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1457,19 +1463,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.1000696126561267</v>
+        <v>0.004492352014843791</v>
       </c>
       <c r="L15">
-        <v>0.2746831418364993</v>
+        <v>0.01009591115598183</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N15">
         <v>8</v>
       </c>
       <c r="O15">
-        <v>344.1</v>
+        <v>4376.6</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1483,19 +1489,19 @@
         <v>145</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>-0.98</v>
+        <v>-0.49</v>
       </c>
       <c r="G16">
-        <v>-1.13</v>
+        <v>-1.21</v>
       </c>
       <c r="H16">
-        <v>-0.7</v>
+        <v>-1.08</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1504,19 +1510,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.03815637251445491</v>
+        <v>0.05266301297066073</v>
       </c>
       <c r="L16">
-        <v>0.1026847023130986</v>
+        <v>0.2347793607598314</v>
       </c>
       <c r="M16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>649.1</v>
+        <v>1078.8</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1524,25 +1530,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17">
         <v>145</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>-0.78</v>
+        <v>-0.49</v>
       </c>
       <c r="G17">
-        <v>-1.14</v>
+        <v>-1.22</v>
       </c>
       <c r="H17">
-        <v>-0.76</v>
+        <v>-0.84</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1551,19 +1557,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3225228453682161</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2874366242165356</v>
       </c>
       <c r="M17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O17">
-        <v>561.45</v>
+        <v>263.3</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1571,25 +1577,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C18">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="G18">
-        <v>0.38</v>
+        <v>-1.54</v>
       </c>
       <c r="H18">
-        <v>-2.37</v>
+        <v>-0.34</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1601,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05531505531505531</v>
       </c>
       <c r="M18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>178.76</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1618,25 +1624,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>-0.99</v>
+        <v>0.06</v>
       </c>
       <c r="G19">
-        <v>-1.99</v>
+        <v>-1.16</v>
       </c>
       <c r="H19">
-        <v>-1.67</v>
+        <v>-1.64</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1645,19 +1651,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.006769484252940212</v>
+        <v>0.04122368415827204</v>
       </c>
       <c r="L19">
-        <v>0.01814441006366744</v>
+        <v>0.3530071927766159</v>
       </c>
       <c r="M19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O19">
-        <v>232.06</v>
+        <v>222.69</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1665,25 +1671,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>45</v>
       </c>
       <c r="E20">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>-0.09</v>
+        <v>-0.13</v>
       </c>
       <c r="G20">
-        <v>-1.23</v>
+        <v>-2.15</v>
       </c>
       <c r="H20">
-        <v>-1.18</v>
+        <v>-1.13</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1692,19 +1698,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.0883726518645291</v>
+        <v>0.02830540037254167</v>
       </c>
       <c r="L20">
-        <v>0.1486265733737477</v>
+        <v>0.8016877637130801</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20">
-        <v>272.95</v>
+        <v>3259.8</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1712,25 +1718,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D21">
         <v>45</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>-0.2</v>
+        <v>-0.09</v>
       </c>
       <c r="G21">
-        <v>-2.01</v>
+        <v>-1.11</v>
       </c>
       <c r="H21">
-        <v>-0.91</v>
+        <v>-0.6</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1742,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.006908462867012089</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O21">
-        <v>844.05</v>
+        <v>950.5</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1759,25 +1765,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C22">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>0.14</v>
+        <v>-0.52</v>
       </c>
       <c r="G22">
-        <v>-1.59</v>
+        <v>-0.95</v>
       </c>
       <c r="H22">
-        <v>-0.34</v>
+        <v>-0.59</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1786,19 +1792,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.01475257463657153</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05251344598314488</v>
       </c>
       <c r="M22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>161.5</v>
+        <v>1133.1</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1806,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C23">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-0.68</v>
       </c>
       <c r="G23">
-        <v>-3.27</v>
+        <v>0.18</v>
       </c>
       <c r="H23">
-        <v>-3.94</v>
+        <v>0.71</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1833,19 +1839,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.07526063048939859</v>
+        <v>0.3867731555505937</v>
       </c>
       <c r="L23">
-        <v>0.1578316823830455</v>
+        <v>0.4816046869569535</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O23">
-        <v>34</v>
+        <v>1098.6</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1853,25 +1859,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>-0.82</v>
+        <v>-0.86</v>
       </c>
       <c r="G24">
-        <v>-1.46</v>
+        <v>-0.85</v>
       </c>
       <c r="H24">
-        <v>-1.28</v>
+        <v>-1.25</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1880,19 +1886,19 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.03261531897110013</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1115609536662168</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O24">
-        <v>925.5</v>
+        <v>805.1</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1906,19 +1912,19 @@
         <v>135</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>-0.47</v>
+        <v>0.98</v>
       </c>
       <c r="G25">
-        <v>-1.63</v>
+        <v>-1.05</v>
       </c>
       <c r="H25">
-        <v>-0.9</v>
+        <v>-2.95</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1927,19 +1933,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.0298537272483479</v>
+        <v>0.01867849638104133</v>
       </c>
       <c r="L25">
-        <v>0.07909101035980839</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="M25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O25">
-        <v>578</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1947,25 +1953,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C26">
         <v>135</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>-0.4</v>
+        <v>-0.09</v>
       </c>
       <c r="G26">
-        <v>-1.22</v>
+        <v>-1.31</v>
       </c>
       <c r="H26">
-        <v>-0.85</v>
+        <v>-4.01</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1974,19 +1980,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.004234471652959828</v>
       </c>
       <c r="L26">
-        <v>0.001395137944264239</v>
+        <v>0.01538780220755778</v>
       </c>
       <c r="M26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O26">
-        <v>421.85</v>
+        <v>68.44</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1994,25 +2000,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <v>135</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>-0.34</v>
+        <v>-0.3</v>
       </c>
       <c r="G27">
-        <v>-1.31</v>
+        <v>-1.21</v>
       </c>
       <c r="H27">
-        <v>-0.33</v>
+        <v>-0.91</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2021,19 +2027,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.673057798639545</v>
       </c>
       <c r="L27">
-        <v>0.01465469866275875</v>
+        <v>0.6676136363636364</v>
       </c>
       <c r="M27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O27">
-        <v>224.59</v>
+        <v>842.45</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2053,13 +2059,13 @@
         <v>90</v>
       </c>
       <c r="F28">
-        <v>-0.45</v>
+        <v>-0.11</v>
       </c>
       <c r="G28">
-        <v>-1.22</v>
+        <v>-1.88</v>
       </c>
       <c r="H28">
-        <v>-0.84</v>
+        <v>-0.57</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2068,19 +2074,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.01267025657269499</v>
+        <v>0.1270652604298061</v>
       </c>
       <c r="L28">
-        <v>0.02115131766992511</v>
+        <v>0.2618111696210042</v>
       </c>
       <c r="M28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N28">
         <v>9</v>
       </c>
       <c r="O28">
-        <v>263.55</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2100,13 +2106,13 @@
         <v>70</v>
       </c>
       <c r="F29">
-        <v>-0.89</v>
+        <v>-0.71</v>
       </c>
       <c r="G29">
-        <v>-1.32</v>
+        <v>-1.12</v>
       </c>
       <c r="H29">
-        <v>-0.79</v>
+        <v>-0.25</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2115,19 +2121,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.009645101249925615</v>
+        <v>0.06879201012860423</v>
       </c>
       <c r="L29">
-        <v>0.03124473510897367</v>
+        <v>0.1850065760631302</v>
       </c>
       <c r="M29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N29">
         <v>7</v>
       </c>
       <c r="O29">
-        <v>999.4</v>
+        <v>667.05</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2135,25 +2141,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C30">
         <v>135</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F30">
-        <v>-0.25</v>
+        <v>-0.77</v>
       </c>
       <c r="G30">
-        <v>-1.11</v>
+        <v>-1.58</v>
       </c>
       <c r="H30">
-        <v>-1.25</v>
+        <v>-1.67</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2162,19 +2168,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.7718476985894458</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.9106614017769002</v>
       </c>
       <c r="M30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>2259.7</v>
+        <v>232.19</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2182,25 +2188,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C31">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>90</v>
       </c>
       <c r="F31">
-        <v>-0.62</v>
+        <v>-0.67</v>
       </c>
       <c r="G31">
-        <v>-1.52</v>
+        <v>-0.83</v>
       </c>
       <c r="H31">
-        <v>-1.64</v>
+        <v>-0.7</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2209,19 +2215,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>1.305793211301817</v>
+        <v>0.3962367756341921</v>
       </c>
       <c r="L31">
-        <v>1.331486895419808</v>
+        <v>0.5913073880645936</v>
       </c>
       <c r="M31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N31">
         <v>9</v>
       </c>
       <c r="O31">
-        <v>222.17</v>
+        <v>648.9</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2229,25 +2235,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C32">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>90</v>
       </c>
       <c r="F32">
-        <v>-0.26</v>
+        <v>-0.89</v>
       </c>
       <c r="G32">
-        <v>-1.11</v>
+        <v>-0.89</v>
       </c>
       <c r="H32">
-        <v>-0.6</v>
+        <v>-0.05</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2256,19 +2262,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.0672457270944225</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.048348106365834</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32">
-        <v>950.5</v>
+        <v>285.4</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2276,25 +2282,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C33">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>-2.54</v>
+        <v>1.13</v>
       </c>
       <c r="G33">
-        <v>-2.88</v>
+        <v>-0.02</v>
       </c>
       <c r="H33">
-        <v>-0.6899999999999999</v>
+        <v>-3.96</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2303,19 +2309,19 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.8075240497701296</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0.8152885298627472</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O33">
-        <v>322.3</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2323,25 +2329,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>-0.74</v>
+        <v>-0.1</v>
       </c>
       <c r="G34">
-        <v>-1.55</v>
+        <v>-1.53</v>
       </c>
       <c r="H34">
-        <v>-0.91</v>
+        <v>-1.77</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2350,19 +2356,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.04482629809488341</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.1122969262844993</v>
       </c>
       <c r="M34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O34">
-        <v>1705.7</v>
+        <v>39.95</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2370,25 +2376,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C35">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F35">
-        <v>-0.6</v>
+        <v>-0.78</v>
       </c>
       <c r="G35">
-        <v>-0.63</v>
+        <v>-1.99</v>
       </c>
       <c r="H35">
-        <v>-0.89</v>
+        <v>-1.22</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2397,19 +2403,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.007964599801100833</v>
+        <v>0.3058994901674817</v>
       </c>
       <c r="L35">
-        <v>0.1058232338161395</v>
+        <v>0.5313092979127135</v>
       </c>
       <c r="M35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>185.93</v>
+        <v>433.7</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2417,25 +2423,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36">
         <v>125</v>
       </c>
       <c r="D36">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F36">
-        <v>0.32</v>
+        <v>-0.03</v>
       </c>
       <c r="G36">
-        <v>-2.02</v>
+        <v>-1.24</v>
       </c>
       <c r="H36">
-        <v>-4.08</v>
+        <v>-0.72</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2444,19 +2450,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.2179391920104778</v>
+        <v>0.9420289855071745</v>
       </c>
       <c r="L36">
-        <v>0.3896660770756284</v>
+        <v>0.7747489239598278</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O36">
-        <v>1623.7</v>
+        <v>1061.7</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2464,25 +2470,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D37">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F37">
-        <v>-0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G37">
-        <v>-1.96</v>
+        <v>-0.84</v>
       </c>
       <c r="H37">
-        <v>-4.01</v>
+        <v>-1.18</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2491,19 +2497,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.05809123244281772</v>
       </c>
       <c r="L37">
-        <v>0.0002141304696951853</v>
+        <v>0.1021174636075799</v>
       </c>
       <c r="M37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O37">
-        <v>68.45</v>
+        <v>272.35</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2511,25 +2517,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C38">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D38">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F38">
-        <v>0.91</v>
+        <v>-0.25</v>
       </c>
       <c r="G38">
-        <v>-1.23</v>
+        <v>-0.5</v>
       </c>
       <c r="H38">
-        <v>-2.95</v>
+        <v>-1.08</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2538,19 +2544,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.1839341470337844</v>
       </c>
       <c r="L38">
-        <v>0.02865329512893983</v>
+        <v>0.1645171118107037</v>
       </c>
       <c r="M38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O38">
-        <v>5457</v>
+        <v>516.4</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2561,22 +2567,22 @@
         <v>123</v>
       </c>
       <c r="C39">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F39">
-        <v>-0.24</v>
+        <v>-0.27</v>
       </c>
       <c r="G39">
-        <v>-1.24</v>
+        <v>-0.73</v>
       </c>
       <c r="H39">
-        <v>-0.87</v>
+        <v>-0.39</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2585,19 +2591,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.190082437431171</v>
       </c>
       <c r="L39">
-        <v>0.0009203018590097553</v>
+        <v>0.5205700054304065</v>
       </c>
       <c r="M39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O39">
-        <v>1053.3</v>
+        <v>860.7</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2605,25 +2611,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40">
         <v>120</v>
       </c>
-      <c r="C40">
-        <v>125</v>
-      </c>
       <c r="D40">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F40">
-        <v>-0.74</v>
+        <v>-0.14</v>
       </c>
       <c r="G40">
-        <v>-1.87</v>
+        <v>-0.65</v>
       </c>
       <c r="H40">
-        <v>-1.63</v>
+        <v>-0.89</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2632,19 +2638,19 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.1378535403002183</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.1603236514938339</v>
+        <v>0.6652647677308354</v>
       </c>
       <c r="M40" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O40">
-        <v>111.92</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2652,25 +2658,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C41">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D41">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>-0.8100000000000001</v>
+        <v>-0.31</v>
       </c>
       <c r="G41">
-        <v>-2.13</v>
+        <v>-0.86</v>
       </c>
       <c r="H41">
-        <v>-0.42</v>
+        <v>-0.85</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2679,19 +2685,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.01524581463791496</v>
       </c>
       <c r="L41">
-        <v>2.163536370239701</v>
+        <v>0.1105823068309071</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O41">
-        <v>10230</v>
+        <v>421.95</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2699,25 +2705,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C42">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F42">
         <v>-0.57</v>
       </c>
       <c r="G42">
-        <v>-1.79</v>
+        <v>-0.98</v>
       </c>
       <c r="H42">
-        <v>-1.05</v>
+        <v>-0.79</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2726,19 +2732,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.03302643694182449</v>
+        <v>0.0006517517745860424</v>
       </c>
       <c r="L42">
-        <v>0.06976656484519365</v>
+        <v>0.006560540279787747</v>
       </c>
       <c r="M42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O42">
-        <v>4120.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2746,25 +2752,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C43">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D43">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F43">
-        <v>-0.9399999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="G43">
-        <v>-1.25</v>
+        <v>-0.52</v>
       </c>
       <c r="H43">
-        <v>-0.25</v>
+        <v>-1.12</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2773,19 +2779,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.4241592716284314</v>
+        <v>0.09501477591988</v>
       </c>
       <c r="L43">
-        <v>0.655407524804781</v>
+        <v>0.2139487870619946</v>
       </c>
       <c r="M43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O43">
-        <v>667.55</v>
+        <v>2976.9</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2793,25 +2799,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>120</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F44">
-        <v>0.67</v>
+        <v>-0.12</v>
       </c>
       <c r="G44">
-        <v>-0.9399999999999999</v>
+        <v>-0.96</v>
       </c>
       <c r="H44">
-        <v>-3.96</v>
+        <v>-0.33</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2820,19 +2826,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.0280040733197556</v>
+        <v>0.0008845378697878226</v>
       </c>
       <c r="L44">
-        <v>0.06918964252018031</v>
+        <v>0.002327665467918951</v>
       </c>
       <c r="M44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O44">
-        <v>448.5</v>
+        <v>224.38</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2840,25 +2846,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>120</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F45">
-        <v>-0.97</v>
+        <v>-0.34</v>
       </c>
       <c r="G45">
-        <v>-0.82</v>
+        <v>-0.76</v>
       </c>
       <c r="H45">
-        <v>-0.05</v>
+        <v>-0.9</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2867,19 +2873,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0.4777070063695746</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.4371584699453552</v>
+        <v>0.3311959160804333</v>
       </c>
       <c r="M45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O45">
-        <v>285.85</v>
+        <v>577.55</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2887,25 +2893,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C46">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E46">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>-0.64</v>
+        <v>0.04</v>
       </c>
       <c r="G46">
-        <v>-0.1</v>
+        <v>-1.28</v>
       </c>
       <c r="H46">
-        <v>0.71</v>
+        <v>-1.86</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2914,19 +2920,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.6424711402280278</v>
+        <v>0.1109646780991806</v>
       </c>
       <c r="L46">
-        <v>0.7303471847454579</v>
+        <v>0.261821877198917</v>
       </c>
       <c r="M46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O46">
-        <v>1102.6</v>
+        <v>285.25</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2934,25 +2940,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C47">
         <v>115</v>
       </c>
       <c r="D47">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F47">
-        <v>-1.14</v>
+        <v>-0.48</v>
       </c>
       <c r="G47">
-        <v>-1.8</v>
+        <v>-1.49</v>
       </c>
       <c r="H47">
-        <v>-0.22</v>
+        <v>-1.63</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2961,19 +2967,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>0.08695456496603882</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.2264044148860903</v>
       </c>
       <c r="M47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>530.85</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2981,25 +2987,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C48">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F48">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G48">
-        <v>-1.05</v>
+        <v>-0.01</v>
       </c>
       <c r="H48">
-        <v>-0.49</v>
+        <v>-0.88</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -3008,19 +3014,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.1765813843980442</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.1447565944670813</v>
       </c>
       <c r="M48" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O48">
-        <v>723</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3028,25 +3034,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C49">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D49">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F49">
-        <v>-1</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G49">
-        <v>-1.81</v>
+        <v>-0.02</v>
       </c>
       <c r="H49">
-        <v>-1.22</v>
+        <v>-0.73</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3055,19 +3061,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.0008839153916179115</v>
+        <v>0.02499136243234172</v>
       </c>
       <c r="L49">
-        <v>0.01122964626614262</v>
+        <v>0.03928775109308662</v>
       </c>
       <c r="M49" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O49">
-        <v>434.4</v>
+        <v>545.4</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3075,25 +3081,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C50">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F50">
-        <v>-0.4</v>
+        <v>-0.25</v>
       </c>
       <c r="G50">
-        <v>-2.06</v>
+        <v>-0.96</v>
       </c>
       <c r="H50">
-        <v>-1.77</v>
+        <v>-0.62</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3102,19 +3108,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.02710710251919401</v>
+        <v>0.4553577115642882</v>
       </c>
       <c r="L50">
-        <v>0.04534551309433838</v>
+        <v>0.4234964495978294</v>
       </c>
       <c r="M50" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O50">
-        <v>40.01</v>
+        <v>344.5</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3122,25 +3128,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C51">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D51">
         <v>45</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>-0.49</v>
+        <v>-0.15</v>
       </c>
       <c r="G51">
         <v>-1.28</v>
       </c>
       <c r="H51">
-        <v>-0.79</v>
+        <v>-1.45</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3149,19 +3155,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.1335002085940308</v>
+        <v>0.03087144387834838</v>
       </c>
       <c r="L51">
-        <v>0.400516795865633</v>
+        <v>0.08599644360501914</v>
       </c>
       <c r="M51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O51">
-        <v>4400.1</v>
+        <v>372.8</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3169,25 +3175,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C52">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D52">
         <v>45</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F52">
-        <v>-0.39</v>
+        <v>0.02</v>
       </c>
       <c r="G52">
-        <v>-1.05</v>
+        <v>-1.23</v>
       </c>
       <c r="H52">
-        <v>-1.12</v>
+        <v>-0.03</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3196,19 +3202,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.2683439796599784</v>
       </c>
       <c r="L52">
-        <v>0.122107969151671</v>
+        <v>0.2331575864089045</v>
       </c>
       <c r="M52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>2971.4</v>
+        <v>1214.7</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3216,25 +3222,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C53">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D53">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F53">
-        <v>-0.78</v>
+        <v>-0.14</v>
       </c>
       <c r="G53">
-        <v>-1.78</v>
+        <v>-1.61</v>
       </c>
       <c r="H53">
-        <v>-1.59</v>
+        <v>-0.22</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3243,19 +3249,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.04931301863691944</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.1268314017056637</v>
       </c>
       <c r="M53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>3319</v>
+        <v>531.25</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3263,25 +3269,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C54">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D54">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F54">
-        <v>-0.89</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G54">
-        <v>-2.02</v>
+        <v>-1.93</v>
       </c>
       <c r="H54">
-        <v>-0.03</v>
+        <v>-1.81</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3290,19 +3296,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.001112268319563794</v>
+        <v>1.465702803249922</v>
       </c>
       <c r="L54">
-        <v>0.0199456029011786</v>
+        <v>1.449846153846154</v>
       </c>
       <c r="M54" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O54">
-        <v>1209</v>
+        <v>1594.6</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3310,25 +3316,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C55">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F55">
-        <v>-0.44</v>
+        <v>-0.4</v>
       </c>
       <c r="G55">
-        <v>-0.61</v>
+        <v>-1.33</v>
       </c>
       <c r="H55">
-        <v>-0.39</v>
+        <v>-1.59</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3337,19 +3343,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.3269834318662772</v>
       </c>
       <c r="L55">
-        <v>0.0005677946854417442</v>
+        <v>0.7074428887251291</v>
       </c>
       <c r="M55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O55">
-        <v>860.95</v>
+        <v>3322.1</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3357,25 +3363,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C56">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E56">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>-0.33</v>
+        <v>0.16</v>
       </c>
       <c r="G56">
-        <v>-0.91</v>
+        <v>-1.47</v>
       </c>
       <c r="H56">
-        <v>-0.96</v>
+        <v>-1.54</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3384,19 +3390,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.006766180146094186</v>
       </c>
       <c r="L56">
-        <v>0.06329113924050632</v>
+        <v>0.02489141754082955</v>
       </c>
       <c r="M56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>923.7</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3404,25 +3410,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C57">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D57">
         <v>20</v>
       </c>
       <c r="E57">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>-0.21</v>
+        <v>-0.29</v>
       </c>
       <c r="G57">
-        <v>-0.08</v>
+        <v>-0.14</v>
       </c>
       <c r="H57">
-        <v>-0.57</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3431,19 +3437,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.009662213921862801</v>
       </c>
       <c r="L57">
-        <v>0.3008752735229759</v>
+        <v>0.03337866238101125</v>
       </c>
       <c r="M57" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O57">
-        <v>527.3</v>
+        <v>1961.2</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3454,22 +3460,22 @@
         <v>117</v>
       </c>
       <c r="C58">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F58">
-        <v>-0.36</v>
+        <v>-0.76</v>
       </c>
       <c r="G58">
-        <v>-0.95</v>
+        <v>-0.92</v>
       </c>
       <c r="H58">
-        <v>-1.08</v>
+        <v>-0.49</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3478,19 +3484,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.4431396786155733</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>0.9306853582554516</v>
       </c>
       <c r="M58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O58">
-        <v>515.75</v>
+        <v>997.9</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3498,25 +3504,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C59">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F59">
-        <v>-0.5600000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G59">
-        <v>-0.2</v>
+        <v>-0.71</v>
       </c>
       <c r="H59">
-        <v>-0.5600000000000001</v>
+        <v>-0.87</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3525,19 +3531,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0.06084575600851623</v>
+        <v>0.1626734792515317</v>
       </c>
       <c r="L59">
-        <v>0.1344974044360547</v>
+        <v>0.1380231522707035</v>
       </c>
       <c r="M59" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O59">
-        <v>1961.5</v>
+        <v>1055.6</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3545,25 +3551,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D60">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F60">
-        <v>-0.86</v>
+        <v>0.22</v>
       </c>
       <c r="G60">
-        <v>-1.69</v>
+        <v>0.53</v>
       </c>
       <c r="H60">
-        <v>-1.37</v>
+        <v>-0.57</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3572,19 +3578,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>0.1081906701457416</v>
+        <v>2.516401807843736</v>
       </c>
       <c r="L60">
-        <v>0.1677943166441137</v>
+        <v>1.434507978723404</v>
       </c>
       <c r="M60" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O60">
-        <v>299.15</v>
+        <v>527.85</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3592,7 +3598,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C61">
         <v>100</v>
@@ -3604,13 +3610,13 @@
         <v>80</v>
       </c>
       <c r="F61">
-        <v>-0.29</v>
+        <v>-0.26</v>
       </c>
       <c r="G61">
-        <v>-0.44</v>
+        <v>-0.8</v>
       </c>
       <c r="H61">
-        <v>-0.73</v>
+        <v>-1.28</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3619,19 +3625,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.1067432693798446</v>
+        <v>0.1570639149121817</v>
       </c>
       <c r="L61">
-        <v>0.1933824181673024</v>
+        <v>0.1789906103286385</v>
       </c>
       <c r="M61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N61">
         <v>8</v>
       </c>
       <c r="O61">
-        <v>544.8</v>
+        <v>928.95</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3639,25 +3645,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C62">
         <v>100</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E62">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F62">
-        <v>0.25</v>
+        <v>-0.66</v>
       </c>
       <c r="G62">
-        <v>-0.01</v>
+        <v>-0.97</v>
       </c>
       <c r="H62">
-        <v>-0.88</v>
+        <v>-0.24</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3666,19 +3672,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0.007368708398643611</v>
+        <v>0.1017564486180515</v>
       </c>
       <c r="L62">
-        <v>0.2064612957226145</v>
+        <v>0.2367188278680355</v>
       </c>
       <c r="M62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>105</v>
+        <v>2559.9</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3686,25 +3692,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C63">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D63">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F63">
-        <v>-0.65</v>
+        <v>0.02</v>
       </c>
       <c r="G63">
-        <v>-1.98</v>
+        <v>-0.57</v>
       </c>
       <c r="H63">
-        <v>0.11</v>
+        <v>-0.76</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3713,19 +3719,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.5411919368974442</v>
       </c>
       <c r="L63">
-        <v>0.5050505050505051</v>
+        <v>0.6710816777041942</v>
       </c>
       <c r="M63" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O63">
-        <v>284.25</v>
+        <v>562.9</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3733,25 +3739,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C64">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D64">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F64">
-        <v>-0.3</v>
+        <v>0.06</v>
       </c>
       <c r="G64">
-        <v>-1.88</v>
+        <v>-0.67</v>
       </c>
       <c r="H64">
-        <v>-1.86</v>
+        <v>-0.41</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3760,19 +3766,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.7045425712624787</v>
+        <v>0.454592310071143</v>
       </c>
       <c r="L64">
-        <v>0.6156211601958206</v>
+        <v>0.6526082130965594</v>
       </c>
       <c r="M64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O64">
-        <v>285.2</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3780,25 +3786,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C65">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F65">
-        <v>-0.29</v>
+        <v>-0.05</v>
       </c>
       <c r="G65">
-        <v>-2.61</v>
+        <v>-0.67</v>
       </c>
       <c r="H65">
-        <v>-1.43</v>
+        <v>-0.91</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3807,19 +3813,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>0.08103946622004911</v>
       </c>
       <c r="L65">
-        <v>0.01821493624772313</v>
+        <v>0.9499683343888536</v>
       </c>
       <c r="M65" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O65">
-        <v>5828.5</v>
+        <v>1711.5</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3827,25 +3833,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D66">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F66">
-        <v>-0.36</v>
+        <v>-0.22</v>
       </c>
       <c r="G66">
-        <v>-2.55</v>
+        <v>-0.95</v>
       </c>
       <c r="H66">
-        <v>-1.81</v>
+        <v>-0.49</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3854,19 +3860,19 @@
         <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.004991576714293022</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0.03356929139604466</v>
+        <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O66">
-        <v>1596.4</v>
+        <v>721.1</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3874,25 +3880,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C67">
         <v>95</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>-0.36</v>
+        <v>-0.68</v>
       </c>
       <c r="G67">
-        <v>-1.04</v>
+        <v>-1.71</v>
       </c>
       <c r="H67">
-        <v>-0.88</v>
+        <v>-0.71</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3901,19 +3907,19 @@
         <v>0.5</v>
       </c>
       <c r="K67">
-        <v>0.008736422143917994</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0.0856775667571041</v>
+        <v>0.0004377453197729561</v>
       </c>
       <c r="M67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>7113</v>
+        <v>385.7</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3921,25 +3927,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C68">
         <v>95</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F68">
-        <v>-0.86</v>
+        <v>-0.44</v>
       </c>
       <c r="G68">
-        <v>-1.81</v>
+        <v>-1.94</v>
       </c>
       <c r="H68">
-        <v>-0.71</v>
+        <v>-0.42</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3948,19 +3954,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.02458502458503005</v>
+        <v>0.738450177689574</v>
       </c>
       <c r="L68">
-        <v>0.2217014470111223</v>
+        <v>1.194029850746269</v>
       </c>
       <c r="M68" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>385.45</v>
+        <v>10233</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3968,25 +3974,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D69">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F69">
-        <v>-0.31</v>
+        <v>-0.46</v>
       </c>
       <c r="G69">
-        <v>-1.28</v>
+        <v>-0.63</v>
       </c>
       <c r="H69">
-        <v>-1.45</v>
+        <v>-1.05</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -3995,19 +4001,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.0007153007601264466</v>
+        <v>0.1909194901504189</v>
       </c>
       <c r="L69">
-        <v>0.007641365257259297</v>
+        <v>0.503747291414031</v>
       </c>
       <c r="M69" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O69">
-        <v>373.7</v>
+        <v>4123.9</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4015,25 +4021,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C70">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F70">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>-2.22</v>
+        <v>0.17</v>
       </c>
       <c r="H70">
-        <v>-1.54</v>
+        <v>-2.1</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4042,19 +4048,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.009685688868300596</v>
+        <v>0.3405893676884446</v>
       </c>
       <c r="L70">
-        <v>0.007128798797402638</v>
+        <v>0.1429459291485395</v>
       </c>
       <c r="M70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O70">
-        <v>12.75</v>
+        <v>737.5</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4062,25 +4068,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C71">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E71">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F71">
-        <v>0.33</v>
+        <v>-0.71</v>
       </c>
       <c r="G71">
-        <v>-0.44</v>
+        <v>-2.46</v>
       </c>
       <c r="H71">
-        <v>-2.1</v>
+        <v>-0.77</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4092,16 +4098,16 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.3061224489795918</v>
+        <v>0.2982848620432513</v>
       </c>
       <c r="M71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>737.5</v>
+        <v>440.05</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4109,25 +4115,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C72">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D72">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E72">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>0.02</v>
+        <v>-0.67</v>
       </c>
       <c r="G72">
-        <v>-0.65</v>
+        <v>-1.57</v>
       </c>
       <c r="H72">
-        <v>-2.26</v>
+        <v>-0.46</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4136,19 +4142,19 @@
         <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0.01694347709616777</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>0.05474886931682933</v>
+        <v>0.02558835189389844</v>
       </c>
       <c r="M72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>730.05</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4156,25 +4162,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C73">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E73">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F73">
-        <v>-0.43</v>
+        <v>-0.18</v>
       </c>
       <c r="G73">
-        <v>-0.89</v>
+        <v>-2.02</v>
       </c>
       <c r="H73">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4183,19 +4189,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.009054564592372168</v>
+        <v>0.01748633879781778</v>
       </c>
       <c r="L73">
-        <v>0.04877628260210622</v>
+        <v>0.06467259498787389</v>
       </c>
       <c r="M73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>165.22</v>
+        <v>283.95</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4203,25 +4209,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C74">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D74">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F74">
-        <v>-0.93</v>
+        <v>-0.52</v>
       </c>
       <c r="G74">
-        <v>-0.76</v>
+        <v>-1.18</v>
       </c>
       <c r="H74">
-        <v>-0.49</v>
+        <v>-0.9</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4230,19 +4236,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.03361666678954228</v>
+        <v>0.2103121469516996</v>
       </c>
       <c r="L74">
-        <v>0.3464255868722936</v>
+        <v>0.4734542971187698</v>
       </c>
       <c r="M74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O74">
-        <v>998.8</v>
+        <v>723.75</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4250,26 +4256,26 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C75">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F75">
+        <v>0.03</v>
+      </c>
+      <c r="G75">
+        <v>-0.36</v>
+      </c>
+      <c r="H75">
         <v>-0.04</v>
       </c>
-      <c r="G75">
-        <v>-0.24</v>
-      </c>
-      <c r="H75">
-        <v>-0.23</v>
-      </c>
       <c r="I75">
         <v>50</v>
       </c>
@@ -4277,19 +4283,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>2.438266579329127</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1.292914626550454</v>
       </c>
       <c r="M75" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O75">
-        <v>152910</v>
+        <v>165.53</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4300,22 +4306,22 @@
         <v>117</v>
       </c>
       <c r="C76">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D76">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F76">
-        <v>-0.79</v>
+        <v>0.51</v>
       </c>
       <c r="G76">
-        <v>-1.98</v>
+        <v>-0.25</v>
       </c>
       <c r="H76">
-        <v>-0.93</v>
+        <v>-2.26</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4324,19 +4330,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.01037467393881058</v>
+        <v>2.596436353145771</v>
       </c>
       <c r="L76">
-        <v>0.08141428239125378</v>
+        <v>1.532464040865708</v>
       </c>
       <c r="M76" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>513.95</v>
+        <v>731.1</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4344,25 +4350,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C77">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D77">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F77">
-        <v>-0.7</v>
+        <v>-0.32</v>
       </c>
       <c r="G77">
-        <v>-2.36</v>
+        <v>-0.44</v>
       </c>
       <c r="H77">
-        <v>-0.77</v>
+        <v>-1.4</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4374,16 +4380,16 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.1738570508692852</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>440.5</v>
+        <v>153.68</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4391,25 +4397,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C78">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D78">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>-0.76</v>
+        <v>-0.72</v>
       </c>
       <c r="G78">
-        <v>-1.94</v>
+        <v>-0.01</v>
       </c>
       <c r="H78">
-        <v>-0.46</v>
+        <v>-0.24</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4418,19 +4424,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.05601022107424346</v>
+        <v>0.0535434441929349</v>
       </c>
       <c r="L78">
-        <v>0.1667321643830778</v>
+        <v>0.1334707829200803</v>
       </c>
       <c r="M78" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O78">
-        <v>95.12</v>
+        <v>1631.6</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4438,25 +4444,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C79">
         <v>80</v>
       </c>
       <c r="D79">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F79">
-        <v>-0.64</v>
+        <v>-0.1</v>
       </c>
       <c r="G79">
-        <v>-0.12</v>
+        <v>-0.66</v>
       </c>
       <c r="H79">
-        <v>-0.24</v>
+        <v>-0.88</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4465,19 +4471,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.03598629298213622</v>
+        <v>0.03316735372511377</v>
       </c>
       <c r="L79">
-        <v>0.05454582459853866</v>
+        <v>0.1128066109920861</v>
       </c>
       <c r="M79" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O79">
-        <v>1636</v>
+        <v>7117.5</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4485,25 +4491,25 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80">
         <v>80</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F80">
-        <v>0.07000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="G80">
-        <v>-0.91</v>
+        <v>-0.06</v>
       </c>
       <c r="H80">
-        <v>-0.41</v>
+        <v>-0.23</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4512,19 +4518,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>0.598759110896966</v>
+        <v>1.271282633371169</v>
       </c>
       <c r="L80">
-        <v>0.5925307740454829</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="M80" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O80">
-        <v>337.8</v>
+        <v>152810</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4532,25 +4538,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C81">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D81">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F81">
-        <v>-0.6</v>
+        <v>-0.26</v>
       </c>
       <c r="G81">
-        <v>-1.04</v>
+        <v>-0.39</v>
       </c>
       <c r="H81">
-        <v>-1.14</v>
+        <v>-0.9</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4559,19 +4565,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.07692498573158708</v>
+        <v>0.1101928374655647</v>
       </c>
       <c r="L81">
-        <v>0.8795157934556459</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="M81" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O81">
-        <v>2827.8</v>
+        <v>34550</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4579,7 +4585,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C82">
         <v>75</v>
@@ -4591,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-0.9</v>
+        <v>-1.07</v>
       </c>
       <c r="G82">
-        <v>-1.67</v>
+        <v>-1.26</v>
       </c>
       <c r="H82">
-        <v>-0.9</v>
+        <v>-1.86</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4606,19 +4612,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.0482380415510191</v>
+        <v>0.004823261903116973</v>
       </c>
       <c r="L82">
-        <v>0.1100106119561372</v>
+        <v>0.1021524990879241</v>
       </c>
       <c r="M82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
       <c r="O82">
-        <v>723.45</v>
+        <v>702.5</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4626,25 +4632,25 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C83">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D83">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F83">
-        <v>0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="G83">
-        <v>-1.23</v>
+        <v>0.18</v>
       </c>
       <c r="H83">
-        <v>-0.78</v>
+        <v>-0.31</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4653,19 +4659,19 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.1225810112933361</v>
       </c>
       <c r="L83">
-        <v>0.03129890453834116</v>
+        <v>0.09209516500383728</v>
       </c>
       <c r="M83" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83">
-        <v>456.4</v>
+        <v>2647.6</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4673,25 +4679,25 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C84">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D84">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F84">
-        <v>-0.42</v>
+        <v>0.29</v>
       </c>
       <c r="G84">
-        <v>-1.02</v>
+        <v>-0.89</v>
       </c>
       <c r="H84">
-        <v>-0.28</v>
+        <v>-1.43</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4700,19 +4706,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>0.01744494331962565</v>
+        <v>2.81371896729417</v>
       </c>
       <c r="L84">
-        <v>0.09138123726250739</v>
+        <v>2.587332053742802</v>
       </c>
       <c r="M84" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>533</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4720,25 +4726,25 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85">
         <v>70</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F85">
-        <v>-0.36</v>
+        <v>-0.04</v>
       </c>
       <c r="G85">
-        <v>-0.93</v>
+        <v>-0.29</v>
       </c>
       <c r="H85">
-        <v>-1.4</v>
+        <v>0.55</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4747,19 +4753,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>0.02345129824921708</v>
+        <v>4.518577617124905</v>
       </c>
       <c r="L85">
-        <v>0.04046398705152415</v>
+        <v>4.179571900588996</v>
       </c>
       <c r="M85" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O85">
-        <v>153.74</v>
+        <v>1996.5</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4767,25 +4773,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D86">
         <v>20</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86">
-        <v>-0.03</v>
+        <v>-0.17</v>
       </c>
       <c r="G86">
-        <v>-0.5600000000000001</v>
+        <v>-0.68</v>
       </c>
       <c r="H86">
-        <v>-0.9</v>
+        <v>-0.28</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4794,19 +4800,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>0.03954875062967301</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>0.2235287886010912</v>
       </c>
       <c r="M86" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O86">
-        <v>34570</v>
+        <v>532.6</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4814,25 +4820,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C87">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F87">
-        <v>-0.08</v>
+        <v>0.47</v>
       </c>
       <c r="G87">
-        <v>-0.35</v>
+        <v>1.08</v>
       </c>
       <c r="H87">
-        <v>0.55</v>
+        <v>-1.4</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4841,19 +4847,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0.06105340155348195</v>
+        <v>0.2600945458621871</v>
       </c>
       <c r="L87">
-        <v>0.1441530206804965</v>
+        <v>0.3450327186198691</v>
       </c>
       <c r="M87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O87">
-        <v>1999.9</v>
+        <v>523.6</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4861,25 +4867,25 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C88">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D88">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F88">
-        <v>-0.15</v>
+        <v>0.04</v>
       </c>
       <c r="G88">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="H88">
-        <v>-0.31</v>
+        <v>-1.37</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4888,19 +4894,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.2570106802216041</v>
+        <v>0.002937558521673674</v>
       </c>
       <c r="L88">
-        <v>0.6373937677053825</v>
+        <v>0.006691201070592172</v>
       </c>
       <c r="M88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>2650.8</v>
+        <v>11048</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4908,7 +4914,7 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C89">
         <v>60</v>
@@ -4920,10 +4926,10 @@
         <v>40</v>
       </c>
       <c r="F89">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="G89">
-        <v>-0.84</v>
+        <v>-0.72</v>
       </c>
       <c r="H89">
         <v>-1</v>
@@ -4935,19 +4941,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="M89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N89">
         <v>4</v>
       </c>
       <c r="O89">
-        <v>37150</v>
+        <v>37115</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4955,7 +4961,7 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C90">
         <v>60</v>
@@ -4967,10 +4973,10 @@
         <v>40</v>
       </c>
       <c r="F90">
-        <v>0.98</v>
+        <v>-0.47</v>
       </c>
       <c r="G90">
-        <v>0.12</v>
+        <v>-0.83</v>
       </c>
       <c r="H90">
         <v>-1.37</v>
@@ -4982,19 +4988,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0.0401432136269936</v>
+        <v>0.1971208754947284</v>
       </c>
       <c r="L90">
-        <v>0.180796481798192</v>
+        <v>0.7047976756453057</v>
       </c>
       <c r="M90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N90">
         <v>4</v>
       </c>
       <c r="O90">
-        <v>11143</v>
+        <v>299.05</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5002,25 +5008,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C91">
         <v>60</v>
       </c>
       <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
         <v>20</v>
       </c>
-      <c r="E91">
-        <v>40</v>
-      </c>
       <c r="F91">
-        <v>-0.04</v>
+        <v>-0.67</v>
       </c>
       <c r="G91">
-        <v>0.78</v>
+        <v>-0.83</v>
       </c>
       <c r="H91">
-        <v>-0.84</v>
+        <v>-1.03</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5029,19 +5035,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.0001588865863574438</v>
       </c>
       <c r="L91">
-        <v>0.04246284501061571</v>
+        <v>0.0005190625729931743</v>
       </c>
       <c r="M91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>887</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5049,25 +5055,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C92">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D92">
         <v>20</v>
       </c>
       <c r="E92">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F92">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="G92">
-        <v>1.19</v>
+        <v>-0.36</v>
       </c>
       <c r="H92">
-        <v>-1.4</v>
+        <v>-0.93</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5076,19 +5082,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0.0133549981080404</v>
+        <v>0.001892981282332068</v>
       </c>
       <c r="L92">
-        <v>0.03452800220979214</v>
+        <v>0.0107756618671621</v>
       </c>
       <c r="M92" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O92">
-        <v>523.3</v>
+        <v>520.4</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5096,25 +5102,25 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D93">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E93">
         <v>10</v>
       </c>
       <c r="F93">
-        <v>-0.23</v>
+        <v>-0.6</v>
       </c>
       <c r="G93">
-        <v>-1.17</v>
+        <v>-0.91</v>
       </c>
       <c r="H93">
-        <v>-0.32</v>
+        <v>-0.47</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5123,19 +5129,19 @@
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.1740274934191014</v>
       </c>
       <c r="L93">
-        <v>0.01078748651564185</v>
+        <v>0.2497507739125872</v>
       </c>
       <c r="M93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
       <c r="O93">
-        <v>13693</v>
+        <v>926.35</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5143,25 +5149,25 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C94">
         <v>50</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>-0.06</v>
+        <v>-0.62</v>
       </c>
       <c r="G94">
-        <v>-0.6</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H94">
-        <v>-0.24</v>
+        <v>-1.14</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5170,19 +5176,19 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>1.40062660917569</v>
+        <v>0.1434543559766438</v>
       </c>
       <c r="L94">
-        <v>1.480354613649478</v>
+        <v>0.587715682233084</v>
       </c>
       <c r="M94" t="s">
         <v>129</v>
       </c>
       <c r="N94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>2570.4</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5190,25 +5196,25 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
         <v>40</v>
       </c>
-      <c r="D95">
-        <v>20</v>
-      </c>
-      <c r="E95">
-        <v>20</v>
-      </c>
       <c r="F95">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="G95">
-        <v>-0.35</v>
+        <v>0.72</v>
       </c>
       <c r="H95">
-        <v>-1.03</v>
+        <v>-0.84</v>
       </c>
       <c r="I95">
         <v>50</v>
@@ -5217,19 +5223,19 @@
         <v>0.5</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>0.559462294572347</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>0.9592326139088729</v>
       </c>
       <c r="M95" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O95">
-        <v>1551.6</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5237,7 +5243,7 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C96">
         <v>40</v>
@@ -5249,13 +5255,13 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>0.08</v>
+        <v>-0.21</v>
       </c>
       <c r="G96">
-        <v>-0.35</v>
+        <v>0.04</v>
       </c>
       <c r="H96">
-        <v>-0.57</v>
+        <v>-0.64</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5264,19 +5270,19 @@
         <v>0.5</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.1893875023765735</v>
       </c>
       <c r="L96">
-        <v>0.005054334091483447</v>
+        <v>0.6610521864759152</v>
       </c>
       <c r="M96" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N96">
         <v>2</v>
       </c>
       <c r="O96">
-        <v>1719</v>
+        <v>1509.2</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5284,7 +5290,7 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C97">
         <v>40</v>
@@ -5296,10 +5302,10 @@
         <v>20</v>
       </c>
       <c r="F97">
-        <v>-0.39</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G97">
-        <v>1.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H97">
         <v>-0.88</v>
@@ -5311,19 +5317,19 @@
         <v>0.5</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>0.009743950630648483</v>
       </c>
       <c r="L97">
-        <v>0.01814882032667877</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="M97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N97">
         <v>2</v>
       </c>
       <c r="O97">
-        <v>1224.3</v>
+        <v>1226.3</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5331,25 +5337,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C98">
+        <v>40</v>
+      </c>
+      <c r="D98">
         <v>30</v>
-      </c>
-      <c r="D98">
-        <v>20</v>
       </c>
       <c r="E98">
         <v>10</v>
       </c>
       <c r="F98">
-        <v>0.07000000000000001</v>
+        <v>-0.78</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="H98">
-        <v>-0.71</v>
+        <v>-0.32</v>
       </c>
       <c r="I98">
         <v>50</v>
@@ -5358,19 +5364,19 @@
         <v>0.5</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>3.025873873873874</v>
       </c>
       <c r="L98">
-        <v>0.09020090200902009</v>
+        <v>2.542635658914729</v>
       </c>
       <c r="M98" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
       <c r="O98">
-        <v>372.45</v>
+        <v>13681</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5378,25 +5384,25 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C99">
         <v>30</v>
       </c>
       <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
         <v>20</v>
       </c>
-      <c r="E99">
-        <v>10</v>
-      </c>
       <c r="F99">
-        <v>-0.13</v>
+        <v>0.66</v>
       </c>
       <c r="G99">
-        <v>-0.12</v>
+        <v>1.14</v>
       </c>
       <c r="H99">
-        <v>0.67</v>
+        <v>-0.57</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -5405,19 +5411,19 @@
         <v>0.5</v>
       </c>
       <c r="K99">
-        <v>0.06412124744972993</v>
+        <v>1.654170154410538</v>
       </c>
       <c r="L99">
-        <v>0.2079504279787849</v>
+        <v>2.31563201196709</v>
       </c>
       <c r="M99" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>2753.4</v>
+        <v>1726.3</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5425,46 +5431,140 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C100">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <v>0.32</v>
+      </c>
+      <c r="G100">
+        <v>-0.7</v>
+      </c>
+      <c r="H100">
+        <v>-0.78</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>0.5</v>
+      </c>
+      <c r="K100">
+        <v>1.020599250936157</v>
+      </c>
+      <c r="L100">
+        <v>1.138381201044386</v>
+      </c>
+      <c r="M100" t="s">
+        <v>131</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>456.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
         <v>20</v>
       </c>
-      <c r="D100">
+      <c r="E101">
         <v>10</v>
       </c>
-      <c r="E100">
+      <c r="F101">
+        <v>0.4</v>
+      </c>
+      <c r="G101">
+        <v>0.65</v>
+      </c>
+      <c r="H101">
+        <v>0.67</v>
+      </c>
+      <c r="I101">
+        <v>50</v>
+      </c>
+      <c r="J101">
+        <v>0.5</v>
+      </c>
+      <c r="K101">
+        <v>0.03330125574577718</v>
+      </c>
+      <c r="L101">
+        <v>0.1574900793650794</v>
+      </c>
+      <c r="M101" t="s">
+        <v>130</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>2759.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102">
         <v>10</v>
       </c>
-      <c r="F100">
-        <v>-0.04</v>
-      </c>
-      <c r="G100">
-        <v>-0.36</v>
-      </c>
-      <c r="H100">
-        <v>-0.64</v>
-      </c>
-      <c r="I100">
-        <v>50</v>
-      </c>
-      <c r="J100">
-        <v>0.5</v>
-      </c>
-      <c r="K100">
-        <v>11.1982982746399</v>
-      </c>
-      <c r="L100">
-        <v>3.603178828092323</v>
-      </c>
-      <c r="M100" t="s">
-        <v>129</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>1508.6</v>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>-0.08</v>
+      </c>
+      <c r="G102">
+        <v>-0.16</v>
+      </c>
+      <c r="H102">
+        <v>-0.71</v>
+      </c>
+      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="J102">
+        <v>0.5</v>
+      </c>
+      <c r="K102">
+        <v>2.84392350401013</v>
+      </c>
+      <c r="L102">
+        <v>1.830091306073839</v>
+      </c>
+      <c r="M102" t="s">
+        <v>131</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102">
+        <v>372.6</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/data/short_momentum/latest_short_momentum.xlsx
+++ b/Daily/data/short_momentum/latest_short_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="193">
   <si>
     <t>ticker</t>
   </si>
@@ -61,352 +61,535 @@
     <t>close</t>
   </si>
   <si>
+    <t>SBFC</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>BERGEPAINT</t>
+  </si>
+  <si>
+    <t>COFORGE</t>
+  </si>
+  <si>
+    <t>HOMEFIRST</t>
+  </si>
+  <si>
+    <t>BANDHANBNK</t>
+  </si>
+  <si>
+    <t>JUBLPHARMA</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>CROMPTON</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>SCHNEIDER</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>TTML</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>SHRIRAMPPS</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>ASTRAZEN</t>
+  </si>
+  <si>
+    <t>CGPOWER</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>CELLO</t>
+  </si>
+  <si>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>APLLTD</t>
+  </si>
+  <si>
+    <t>PRAJIND</t>
+  </si>
+  <si>
+    <t>FINEORG</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>BAJAJHIND</t>
+  </si>
+  <si>
+    <t>KAYNES</t>
+  </si>
+  <si>
+    <t>POLYMED</t>
+  </si>
+  <si>
+    <t>SIGACHI</t>
+  </si>
+  <si>
+    <t>DBREALTY</t>
+  </si>
+  <si>
+    <t>FIVESTAR</t>
+  </si>
+  <si>
+    <t>ENDURANCE</t>
+  </si>
+  <si>
+    <t>RADIANTCMS</t>
+  </si>
+  <si>
+    <t>BALAMINES</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>AARTIPHARM</t>
+  </si>
+  <si>
+    <t>TATAINVEST</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>MASTEK</t>
+  </si>
+  <si>
+    <t>RPOWER</t>
+  </si>
+  <si>
+    <t>JGCHEM</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>RTNINDIA</t>
+  </si>
+  <si>
+    <t>RAMKY</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>AEGISLOG</t>
+  </si>
+  <si>
+    <t>ALOKINDS</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t>MPHASIS</t>
+  </si>
+  <si>
+    <t>UNITDSPR</t>
+  </si>
+  <si>
+    <t>SAFARI</t>
+  </si>
+  <si>
+    <t>AVANTIFEED</t>
+  </si>
+  <si>
+    <t>MANKIND</t>
+  </si>
+  <si>
+    <t>SUZLON</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>METROPOLIS</t>
+  </si>
+  <si>
+    <t>RHIM</t>
+  </si>
+  <si>
+    <t>CAMS</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>THANGAMAYL</t>
+  </si>
+  <si>
+    <t>RAILTEL</t>
+  </si>
+  <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>OFSS</t>
+  </si>
+  <si>
+    <t>MAXESTATES</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>WELSPUNLIV</t>
+  </si>
+  <si>
+    <t>JKCEMENT</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>NIACL</t>
+  </si>
+  <si>
+    <t>ABFRL</t>
+  </si>
+  <si>
+    <t>JBMA</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
+    <t>TIINDIA</t>
+  </si>
+  <si>
+    <t>JYOTHYLAB</t>
+  </si>
+  <si>
+    <t>SULA</t>
+  </si>
+  <si>
+    <t>CREDITACC</t>
+  </si>
+  <si>
+    <t>ALKEM</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>SOLARINDS</t>
+  </si>
+  <si>
     <t>COSMOFIRST</t>
   </si>
   <si>
-    <t>SAREGAMA</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>RAILTEL</t>
-  </si>
-  <si>
-    <t>AZAD</t>
-  </si>
-  <si>
-    <t>INOXWIND</t>
-  </si>
-  <si>
-    <t>KAYNES</t>
-  </si>
-  <si>
-    <t>MAITHANALL</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>KCP</t>
-  </si>
-  <si>
-    <t>OLAELEC</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>HONAUT</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>MVGJL</t>
+  </si>
+  <si>
+    <t>HSCL</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>GILLETTE</t>
+  </si>
+  <si>
+    <t>GLAXO</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>MANYAVAR</t>
+  </si>
+  <si>
+    <t>SILVERBEES</t>
+  </si>
+  <si>
+    <t>STLTECH</t>
+  </si>
+  <si>
+    <t>SONATSOFTW</t>
+  </si>
+  <si>
+    <t>CYIENT</t>
+  </si>
+  <si>
+    <t>MEDPLUS</t>
+  </si>
+  <si>
+    <t>ASIANPAINT</t>
+  </si>
+  <si>
+    <t>LODHA</t>
+  </si>
+  <si>
+    <t>EIHOTEL</t>
+  </si>
+  <si>
+    <t>DRREDDY</t>
+  </si>
+  <si>
+    <t>SUNTECK</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>LUPIN</t>
+  </si>
+  <si>
+    <t>USHAMART</t>
+  </si>
+  <si>
+    <t>ANDHRSUGAR</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>ROUTE</t>
+  </si>
+  <si>
+    <t>CASTROLIND</t>
+  </si>
+  <si>
+    <t>KTKBANK</t>
+  </si>
+  <si>
+    <t>NUVAMA</t>
+  </si>
+  <si>
+    <t>ASTERDM</t>
+  </si>
+  <si>
+    <t>JIOFIN</t>
+  </si>
+  <si>
+    <t>KFINTECH</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>GODREJIND</t>
+  </si>
+  <si>
+    <t>SUNDRMFAST</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>MOTHERSON</t>
+  </si>
+  <si>
+    <t>JWL</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>MAXHEALTH</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
   </si>
   <si>
     <t>CRISIL</t>
   </si>
   <si>
-    <t>LODHA</t>
-  </si>
-  <si>
-    <t>JSWINFRA</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>RITES</t>
-  </si>
-  <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>HOMEFIRST</t>
-  </si>
-  <si>
-    <t>POLYPLEX</t>
-  </si>
-  <si>
-    <t>BLUEDART</t>
-  </si>
-  <si>
-    <t>EMBDL</t>
-  </si>
-  <si>
-    <t>CARBORUNIV</t>
-  </si>
-  <si>
-    <t>TRIDENT</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>CGPOWER</t>
-  </si>
-  <si>
-    <t>IRMENERGY</t>
-  </si>
-  <si>
-    <t>MAXESTATES</t>
-  </si>
-  <si>
-    <t>NSLNISP</t>
-  </si>
-  <si>
-    <t>BALRAMCHIN</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>MANAPPURAM</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>LICI</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>CHAMBLFERT</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>KANSAINER</t>
-  </si>
-  <si>
-    <t>ATGL</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
-    <t>IRFC</t>
-  </si>
-  <si>
-    <t>SBFC</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>PFC</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
-    <t>LLOYDSME</t>
-  </si>
-  <si>
-    <t>GRAPHITE</t>
-  </si>
-  <si>
-    <t>AFFLE</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>ALLCARGO</t>
-  </si>
-  <si>
-    <t>ICICIGI</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>JUBLPHARMA</t>
-  </si>
-  <si>
-    <t>RKFORGE</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>MAHSEAMLES</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>BLUESTARCO</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>SWIGGY</t>
-  </si>
-  <si>
-    <t>MCX</t>
-  </si>
-  <si>
-    <t>TRENT</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>INDHOTEL</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>ZENSARTECH</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>COCHINSHIP</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>HONAUT</t>
-  </si>
-  <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>ENDURANCE</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>DALBHARAT</t>
-  </si>
-  <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>EMAMILTD</t>
-  </si>
-  <si>
-    <t>BAJAJHLDNG</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>HEG</t>
-  </si>
-  <si>
-    <t>ZYDUSLIFE</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>CLEAN</t>
-  </si>
-  <si>
-    <t>CIPLA</t>
-  </si>
-  <si>
-    <t>DCMSHRIRAM</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>PHOENIXLTD</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>GRASIM</t>
-  </si>
-  <si>
-    <t>EIHOTEL</t>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>DEEPAKFERT</t>
+  </si>
+  <si>
+    <t>PATELENG</t>
+  </si>
+  <si>
+    <t>NETWORK18</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>POWERINDIA</t>
+  </si>
+  <si>
+    <t>TEJASNET</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>PERSISTENT</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>JKPAPER</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>POKARNA</t>
+  </si>
+  <si>
+    <t>SWSOLAR</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>GODREJPROP</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Technology</t>
   </si>
   <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Real Estate</t>
   </si>
   <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>Communication Services</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Strong Short</t>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Weak Short</t>
   </si>
   <si>
     <t>Short</t>
-  </si>
-  <si>
-    <t>Weak Short</t>
-  </si>
-  <si>
-    <t>Neutral</t>
   </si>
   <si>
     <t>No Signal</t>
@@ -767,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,25 +1008,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C2">
-        <v>195</v>
+        <v>530</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="F2">
-        <v>-1.31</v>
+        <v>-0.05</v>
       </c>
       <c r="G2">
-        <v>-3</v>
+        <v>-0.11</v>
       </c>
       <c r="H2">
-        <v>-2.25</v>
+        <v>0.41</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -852,19 +1035,19 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.03157870295121745</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2113442113442114</v>
+        <v>0.02102546948917666</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="O2">
-        <v>679</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -872,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>465</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="F3">
-        <v>-1.19</v>
+        <v>-0.03</v>
       </c>
       <c r="G3">
-        <v>-3.25</v>
+        <v>-1.3</v>
       </c>
       <c r="H3">
-        <v>-2.24</v>
+        <v>-0.36</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -899,19 +1082,19 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.3837639507004991</v>
+        <v>0.002545068928949722</v>
       </c>
       <c r="L3">
-        <v>0.6461181325767346</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="M3" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="O3">
-        <v>348.35</v>
+        <v>1424.3</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -919,25 +1102,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="C4">
-        <v>175</v>
+        <v>440</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="F4">
-        <v>-0.62</v>
+        <v>0.12</v>
       </c>
       <c r="G4">
-        <v>-2.07</v>
+        <v>0.29</v>
       </c>
       <c r="H4">
-        <v>-2.31</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -946,19 +1129,19 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>1.142576325327161</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.233293964070367</v>
+        <v>0.08453505718547986</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="O4">
-        <v>125</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -966,25 +1149,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C5">
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="F5">
-        <v>-1.81</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
-        <v>-2.41</v>
+        <v>0.32</v>
       </c>
       <c r="H5">
-        <v>-0.6899999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -993,19 +1176,19 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.1011305104762088</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2920081967213115</v>
+        <v>0.02593360995850622</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="O5">
-        <v>322.5</v>
+        <v>6368.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1013,25 +1196,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C6">
-        <v>165</v>
+        <v>380</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>-0.24</v>
       </c>
       <c r="G6">
-        <v>-1.81</v>
+        <v>-0.64</v>
       </c>
       <c r="H6">
-        <v>-1.2</v>
+        <v>-3.68</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1040,19 +1223,19 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.01864439697029618</v>
+        <v>1.44718784122161</v>
       </c>
       <c r="L6">
-        <v>0.1160822249093108</v>
+        <v>1.351099729112543</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O6">
-        <v>1562.4</v>
+        <v>349.15</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1060,25 +1243,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C7">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="F7">
-        <v>-0.97</v>
+        <v>-0.16</v>
       </c>
       <c r="G7">
-        <v>-2.01</v>
+        <v>-0.98</v>
       </c>
       <c r="H7">
-        <v>-2.28</v>
+        <v>-0.67</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1087,19 +1270,19 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>14.76601338284986</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9.783355878655403</v>
+        <v>0.01373815084489628</v>
       </c>
       <c r="M7" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="N7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="O7">
-        <v>125.53</v>
+        <v>522.9</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1107,25 +1290,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="F8">
-        <v>-3.79</v>
+        <v>0.43</v>
       </c>
       <c r="G8">
-        <v>-4.53</v>
+        <v>0.32</v>
       </c>
       <c r="H8">
-        <v>-0.75</v>
+        <v>-0.42</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1134,19 +1317,19 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.4480006805956327</v>
+        <v>0.00103674471175589</v>
       </c>
       <c r="L8">
-        <v>0.9322319805848488</v>
+        <v>0.005359993474790552</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O8">
-        <v>3938</v>
+        <v>1642.1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,25 +1337,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C9">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="F9">
-        <v>-1.33</v>
+        <v>-0.74</v>
       </c>
       <c r="G9">
-        <v>-1.84</v>
+        <v>-0.46</v>
       </c>
       <c r="H9">
-        <v>-0.96</v>
+        <v>0.26</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1181,19 +1364,19 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>9.928642862934872</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.514044177802019</v>
+        <v>0.01007049345417925</v>
       </c>
       <c r="M9" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="O9">
-        <v>911.15</v>
+        <v>1109.5</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1201,25 +1384,25 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C10">
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="D10">
         <v>65</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F10">
-        <v>-1.27</v>
+        <v>-1.18</v>
       </c>
       <c r="G10">
-        <v>-3.75</v>
+        <v>-1.1</v>
       </c>
       <c r="H10">
-        <v>2.01</v>
+        <v>0.91</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1228,19 +1411,19 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.05698703382051997</v>
+        <v>0.04967261685630085</v>
       </c>
       <c r="L10">
-        <v>0.155863156176827</v>
+        <v>0.1682174300369066</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O10">
-        <v>66.78</v>
+        <v>143.54</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1248,25 +1431,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C11">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="F11">
-        <v>-0.8</v>
+        <v>-0.58</v>
       </c>
       <c r="G11">
-        <v>-1.95</v>
+        <v>-1.01</v>
       </c>
       <c r="H11">
-        <v>-4.08</v>
+        <v>0.15</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1275,19 +1458,19 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.06931302523619749</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1862378064856314</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O11">
-        <v>1606.5</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1295,25 +1478,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>-0.57</v>
       </c>
       <c r="G12">
-        <v>-0.39</v>
+        <v>0.29</v>
       </c>
       <c r="H12">
-        <v>-2.37</v>
+        <v>-0.21</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1322,19 +1505,19 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2506265664160401</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="O12">
-        <v>179.31</v>
+        <v>35775</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1342,25 +1525,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C13">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="F13">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <v>-2.3</v>
+        <v>-0.65</v>
       </c>
       <c r="H13">
-        <v>-3.94</v>
+        <v>0.36</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1369,19 +1552,19 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.1399355060990161</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3928008959760764</v>
+        <v>0.03008272750062672</v>
       </c>
       <c r="M13" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O13">
-        <v>33.99</v>
+        <v>394.45</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1389,25 +1572,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="C14">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="F14">
-        <v>-0.42</v>
+        <v>-0.93</v>
       </c>
       <c r="G14">
-        <v>-1.52</v>
+        <v>0.18</v>
       </c>
       <c r="H14">
-        <v>-1.25</v>
+        <v>-0.22</v>
       </c>
       <c r="I14">
         <v>50</v>
@@ -1416,19 +1599,19 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.08663568643016648</v>
+        <v>3.787742486537924E-05</v>
       </c>
       <c r="L14">
-        <v>0.3262542320714066</v>
+        <v>0.0001645900883848775</v>
       </c>
       <c r="M14" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="O14">
-        <v>2253.8</v>
+        <v>251.65</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1436,25 +1619,25 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="C15">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="F15">
-        <v>-1.01</v>
+        <v>0.03</v>
       </c>
       <c r="G15">
-        <v>-1.76</v>
+        <v>-0.35</v>
       </c>
       <c r="H15">
-        <v>-0.79</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1463,19 +1646,19 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.004492352014843791</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.01009591115598183</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="M15" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N15">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="O15">
-        <v>4376.6</v>
+        <v>977.35</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1483,25 +1666,25 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C16">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="F16">
-        <v>-0.49</v>
+        <v>-0.02</v>
       </c>
       <c r="G16">
-        <v>-1.21</v>
+        <v>-0.06</v>
       </c>
       <c r="H16">
-        <v>-1.08</v>
+        <v>0.66</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1510,19 +1693,19 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.05266301297066073</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2347793607598314</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="O16">
-        <v>1078.8</v>
+        <v>167.83</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1530,25 +1713,25 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C17">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="F17">
-        <v>-0.49</v>
+        <v>-0.06</v>
       </c>
       <c r="G17">
-        <v>-1.22</v>
+        <v>0.61</v>
       </c>
       <c r="H17">
-        <v>-0.84</v>
+        <v>0.04</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -1557,19 +1740,19 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.3225228453682161</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2874366242165356</v>
+        <v>0.02140945584299732</v>
       </c>
       <c r="M17" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="O17">
-        <v>263.3</v>
+        <v>1124.8</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1577,25 +1760,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="F18">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="G18">
-        <v>-1.54</v>
+        <v>-0.49</v>
       </c>
       <c r="H18">
-        <v>-0.34</v>
+        <v>-0.42</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1607,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.05531505531505531</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="O18">
-        <v>161.5</v>
+        <v>717.45</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1624,25 +1807,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C19">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F19">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G19">
-        <v>-1.16</v>
+        <v>0.73</v>
       </c>
       <c r="H19">
-        <v>-1.64</v>
+        <v>0.37</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1651,19 +1834,19 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.04122368415827204</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3530071927766159</v>
+        <v>0.01625431489761764</v>
       </c>
       <c r="M19" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O19">
-        <v>222.69</v>
+        <v>1352.2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1671,25 +1854,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F20">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="G20">
-        <v>-2.15</v>
+        <v>0.22</v>
       </c>
       <c r="H20">
-        <v>-1.13</v>
+        <v>0.08</v>
       </c>
       <c r="I20">
         <v>50</v>
@@ -1698,19 +1881,19 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.02830540037254167</v>
+        <v>0.4527570119723316</v>
       </c>
       <c r="L20">
-        <v>0.8016877637130801</v>
+        <v>0.6184142338918639</v>
       </c>
       <c r="M20" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O20">
-        <v>3259.8</v>
+        <v>49.61</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1718,25 +1901,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C21">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="D21">
         <v>45</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="F21">
-        <v>-0.09</v>
+        <v>-0.34</v>
       </c>
       <c r="G21">
-        <v>-1.11</v>
+        <v>-1.27</v>
       </c>
       <c r="H21">
-        <v>-0.6</v>
+        <v>-0.74</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1745,19 +1928,19 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4150683584144164</v>
       </c>
       <c r="L21">
-        <v>0.006908462867012089</v>
+        <v>0.8277342112449089</v>
       </c>
       <c r="M21" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O21">
-        <v>950.5</v>
+        <v>381.55</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1765,25 +1948,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C22">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="F22">
-        <v>-0.52</v>
+        <v>0.02</v>
       </c>
       <c r="G22">
-        <v>-0.95</v>
+        <v>0.34</v>
       </c>
       <c r="H22">
-        <v>-0.59</v>
+        <v>0.28</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1792,19 +1975,19 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.01475257463657153</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.05251344598314488</v>
+        <v>0.3999158071984845</v>
       </c>
       <c r="M22" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O22">
-        <v>1133.1</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1812,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C23">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="F23">
-        <v>-0.68</v>
+        <v>-0.11</v>
       </c>
       <c r="G23">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H23">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -1839,19 +2022,19 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.3867731555505937</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4816046869569535</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O23">
-        <v>1098.6</v>
+        <v>84.41</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1859,25 +2042,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C24">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="F24">
-        <v>-0.86</v>
+        <v>0.15</v>
       </c>
       <c r="G24">
-        <v>-0.85</v>
+        <v>0.73</v>
       </c>
       <c r="H24">
-        <v>-1.25</v>
+        <v>0.54</v>
       </c>
       <c r="I24">
         <v>50</v>
@@ -1889,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="M24" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O24">
-        <v>805.1</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1906,25 +2089,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="C25">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="D25">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="F25">
-        <v>0.98</v>
+        <v>-0.72</v>
       </c>
       <c r="G25">
-        <v>-1.05</v>
+        <v>-2.03</v>
       </c>
       <c r="H25">
-        <v>-2.95</v>
+        <v>-0.18</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1933,19 +2116,19 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.01867849638104133</v>
+        <v>0.001248478416929367</v>
       </c>
       <c r="L25">
-        <v>0.02164502164502164</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="M25" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O25">
-        <v>5454</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1953,25 +2136,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C26">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="F26">
-        <v>-0.09</v>
+        <v>0.72</v>
       </c>
       <c r="G26">
-        <v>-1.31</v>
+        <v>1.03</v>
       </c>
       <c r="H26">
-        <v>-4.01</v>
+        <v>0.66</v>
       </c>
       <c r="I26">
         <v>50</v>
@@ -1980,19 +2163,19 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.004234471652959828</v>
+        <v>0.01010120560101061</v>
       </c>
       <c r="L26">
-        <v>0.01538780220755778</v>
+        <v>0.0309010939438367</v>
       </c>
       <c r="M26" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="O26">
-        <v>68.44</v>
+        <v>646.5</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2000,25 +2183,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C27">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="F27">
-        <v>-0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G27">
-        <v>-1.21</v>
+        <v>0.42</v>
       </c>
       <c r="H27">
-        <v>-0.91</v>
+        <v>-0.01</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -2027,19 +2210,19 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.673057798639545</v>
+        <v>0.2804971186558619</v>
       </c>
       <c r="L27">
-        <v>0.6676136363636364</v>
+        <v>0.4710820895522388</v>
       </c>
       <c r="M27" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O27">
-        <v>842.45</v>
+        <v>967.95</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2047,25 +2230,25 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C28">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="F28">
-        <v>-0.11</v>
+        <v>0.27</v>
       </c>
       <c r="G28">
-        <v>-1.88</v>
+        <v>0.68</v>
       </c>
       <c r="H28">
-        <v>-0.57</v>
+        <v>0.26</v>
       </c>
       <c r="I28">
         <v>50</v>
@@ -2074,19 +2257,19 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.1270652604298061</v>
+        <v>0.4125654773861548</v>
       </c>
       <c r="L28">
-        <v>0.2618111696210042</v>
+        <v>0.7904085257548846</v>
       </c>
       <c r="M28" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O28">
-        <v>27.11</v>
+        <v>546.2</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2094,25 +2277,25 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C29">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="D29">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="F29">
-        <v>-0.71</v>
+        <v>0.14</v>
       </c>
       <c r="G29">
-        <v>-1.12</v>
+        <v>-0.96</v>
       </c>
       <c r="H29">
-        <v>-0.25</v>
+        <v>0.34</v>
       </c>
       <c r="I29">
         <v>50</v>
@@ -2121,19 +2304,19 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.06879201012860423</v>
+        <v>0.03470958712383228</v>
       </c>
       <c r="L29">
-        <v>0.1850065760631302</v>
+        <v>0.09202909306813122</v>
       </c>
       <c r="M29" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N29">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O29">
-        <v>667.05</v>
+        <v>3710.8</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2141,25 +2324,25 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="C30">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="F30">
-        <v>-0.77</v>
+        <v>0.88</v>
       </c>
       <c r="G30">
-        <v>-1.58</v>
+        <v>0.92</v>
       </c>
       <c r="H30">
-        <v>-1.67</v>
+        <v>-0.05</v>
       </c>
       <c r="I30">
         <v>50</v>
@@ -2168,19 +2351,19 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.7718476985894458</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.9106614017769002</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O30">
-        <v>232.19</v>
+        <v>846.4</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2188,25 +2371,25 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C31">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F31">
-        <v>-0.67</v>
+        <v>-0.03</v>
       </c>
       <c r="G31">
-        <v>-0.83</v>
+        <v>-1.12</v>
       </c>
       <c r="H31">
-        <v>-0.7</v>
+        <v>1.53</v>
       </c>
       <c r="I31">
         <v>50</v>
@@ -2215,19 +2398,19 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0.3962367756341921</v>
+        <v>0.05332148411464022</v>
       </c>
       <c r="L31">
-        <v>0.5913073880645936</v>
+        <v>0.06033182503770738</v>
       </c>
       <c r="M31" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="N31">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O31">
-        <v>648.9</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2235,25 +2418,25 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="C32">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="F32">
-        <v>-0.89</v>
+        <v>1.33</v>
       </c>
       <c r="G32">
-        <v>-0.89</v>
+        <v>1.27</v>
       </c>
       <c r="H32">
-        <v>-0.05</v>
+        <v>-0.19</v>
       </c>
       <c r="I32">
         <v>50</v>
@@ -2262,19 +2445,19 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.0672457270944225</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.048348106365834</v>
+        <v>0.05540166204986149</v>
       </c>
       <c r="M32" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N32">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="O32">
-        <v>285.4</v>
+        <v>4131.1</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2282,25 +2465,25 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="C33">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="F33">
-        <v>1.13</v>
+        <v>0.14</v>
       </c>
       <c r="G33">
         <v>-0.02</v>
       </c>
       <c r="H33">
-        <v>-3.96</v>
+        <v>0.48</v>
       </c>
       <c r="I33">
         <v>50</v>
@@ -2312,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.1593625498007968</v>
       </c>
       <c r="M33" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N33">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O33">
-        <v>449</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2329,25 +2512,25 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C34">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="F34">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="G34">
-        <v>-1.53</v>
+        <v>0.43</v>
       </c>
       <c r="H34">
-        <v>-1.77</v>
+        <v>-0.11</v>
       </c>
       <c r="I34">
         <v>50</v>
@@ -2356,19 +2539,19 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.04482629809488341</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0.1122969262844993</v>
+        <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N34">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O34">
-        <v>39.95</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2376,25 +2559,25 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C35">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="D35">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="F35">
-        <v>-0.78</v>
+        <v>0.62</v>
       </c>
       <c r="G35">
-        <v>-1.99</v>
+        <v>0.53</v>
       </c>
       <c r="H35">
-        <v>-1.22</v>
+        <v>-0.71</v>
       </c>
       <c r="I35">
         <v>50</v>
@@ -2403,19 +2586,19 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.3058994901674817</v>
+        <v>7.46809947976339</v>
       </c>
       <c r="L35">
-        <v>0.5313092979127135</v>
+        <v>4.153712372988362</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="O35">
-        <v>433.7</v>
+        <v>3938.6</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2423,25 +2606,25 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C36">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F36">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G36">
-        <v>-1.24</v>
+        <v>0.89</v>
       </c>
       <c r="H36">
-        <v>-0.72</v>
+        <v>-0.32</v>
       </c>
       <c r="I36">
         <v>50</v>
@@ -2450,19 +2633,19 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.9420289855071745</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.7747489239598278</v>
+        <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N36">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O36">
-        <v>1061.7</v>
+        <v>1749.3</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2470,25 +2653,25 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C37">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="D37">
         <v>20</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F37">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G37">
-        <v>-0.84</v>
+        <v>-0.26</v>
       </c>
       <c r="H37">
-        <v>-1.18</v>
+        <v>0.26</v>
       </c>
       <c r="I37">
         <v>50</v>
@@ -2497,19 +2680,19 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0.05809123244281772</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0.1021174636075799</v>
+        <v>0.03524539607013834</v>
       </c>
       <c r="M37" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N37">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O37">
-        <v>272.35</v>
+        <v>31.15</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2517,25 +2700,25 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C38">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="D38">
         <v>20</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F38">
-        <v>-0.25</v>
+        <v>-0.44</v>
       </c>
       <c r="G38">
-        <v>-0.5</v>
+        <v>0.02</v>
       </c>
       <c r="H38">
-        <v>-1.08</v>
+        <v>1.02</v>
       </c>
       <c r="I38">
         <v>50</v>
@@ -2544,19 +2727,19 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.1839341470337844</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0.1645171118107037</v>
+        <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N38">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O38">
-        <v>516.4</v>
+        <v>120.35</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2564,25 +2747,25 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="C39">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F39">
-        <v>-0.27</v>
+        <v>-0.33</v>
       </c>
       <c r="G39">
-        <v>-0.73</v>
+        <v>0.61</v>
       </c>
       <c r="H39">
-        <v>-0.39</v>
+        <v>0.57</v>
       </c>
       <c r="I39">
         <v>50</v>
@@ -2591,19 +2774,19 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.190082437431171</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.5205700054304065</v>
+        <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N39">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O39">
-        <v>860.7</v>
+        <v>533.1</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2611,25 +2794,25 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C40">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="D40">
         <v>20</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F40">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="G40">
-        <v>-0.65</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H40">
-        <v>-0.89</v>
+        <v>1.08</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2641,16 +2824,16 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.6652647677308354</v>
+        <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N40">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O40">
-        <v>186</v>
+        <v>2544.6</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2658,25 +2841,25 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C41">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F41">
-        <v>-0.31</v>
+        <v>0.2</v>
       </c>
       <c r="G41">
-        <v>-0.86</v>
+        <v>-1.04</v>
       </c>
       <c r="H41">
-        <v>-0.85</v>
+        <v>-0.46</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -2685,19 +2868,19 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.01524581463791496</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.1105823068309071</v>
+        <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N41">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O41">
-        <v>421.95</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2705,25 +2888,25 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="C42">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F42">
-        <v>-0.57</v>
+        <v>-0.12</v>
       </c>
       <c r="G42">
-        <v>-0.98</v>
+        <v>-0.79</v>
       </c>
       <c r="H42">
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2732,19 +2915,19 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.0006517517745860424</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.006560540279787747</v>
+        <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N42">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O42">
-        <v>1000</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2752,25 +2935,25 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C43">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="F43">
-        <v>-0.6</v>
+        <v>-0.08</v>
       </c>
       <c r="G43">
-        <v>-0.52</v>
+        <v>-0.02</v>
       </c>
       <c r="H43">
-        <v>-1.12</v>
+        <v>-0.28</v>
       </c>
       <c r="I43">
         <v>50</v>
@@ -2779,19 +2962,19 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.09501477591988</v>
+        <v>0.710106382978775</v>
       </c>
       <c r="L43">
-        <v>0.2139487870619946</v>
+        <v>2.583454281567489</v>
       </c>
       <c r="M43" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N43">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O43">
-        <v>2976.9</v>
+        <v>180.35</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2799,25 +2982,25 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C44">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="F44">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="G44">
-        <v>-0.96</v>
+        <v>0.48</v>
       </c>
       <c r="H44">
-        <v>-0.33</v>
+        <v>-0.23</v>
       </c>
       <c r="I44">
         <v>50</v>
@@ -2826,19 +3009,19 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.0008845378697878226</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.002327665467918951</v>
+        <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N44">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O44">
-        <v>224.38</v>
+        <v>742.5</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2846,25 +3029,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C45">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="F45">
-        <v>-0.34</v>
+        <v>-0.12</v>
       </c>
       <c r="G45">
-        <v>-0.76</v>
+        <v>0.8</v>
       </c>
       <c r="H45">
-        <v>-0.9</v>
+        <v>-0.19</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -2873,19 +3056,19 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.007132102385301754</v>
       </c>
       <c r="L45">
-        <v>0.3311959160804333</v>
+        <v>0.07635206786850478</v>
       </c>
       <c r="M45" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N45">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O45">
-        <v>577.55</v>
+        <v>702.4</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2893,25 +3076,25 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C46">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="D46">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F46">
-        <v>0.04</v>
+        <v>-1.8</v>
       </c>
       <c r="G46">
-        <v>-1.28</v>
+        <v>-2.04</v>
       </c>
       <c r="H46">
-        <v>-1.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2920,19 +3103,19 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.1109646780991806</v>
+        <v>0.2137191553860029</v>
       </c>
       <c r="L46">
-        <v>0.261821877198917</v>
+        <v>0.392692987625221</v>
       </c>
       <c r="M46" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O46">
-        <v>285.25</v>
+        <v>11975</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2940,25 +3123,25 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="C47">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="D47">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="F47">
-        <v>-0.48</v>
+        <v>-0.03</v>
       </c>
       <c r="G47">
-        <v>-1.49</v>
+        <v>-0.06</v>
       </c>
       <c r="H47">
-        <v>-1.63</v>
+        <v>0.04</v>
       </c>
       <c r="I47">
         <v>50</v>
@@ -2967,19 +3150,19 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.08695456496603882</v>
+        <v>0.003010924419248892</v>
       </c>
       <c r="L47">
-        <v>0.2264044148860903</v>
+        <v>0.02434377646062659</v>
       </c>
       <c r="M47" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O47">
-        <v>111.8</v>
+        <v>2040.4</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2987,25 +3170,25 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C48">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D48">
         <v>20</v>
       </c>
       <c r="E48">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F48">
-        <v>0.4</v>
+        <v>-0.18</v>
       </c>
       <c r="G48">
-        <v>-0.01</v>
+        <v>-0.44</v>
       </c>
       <c r="H48">
-        <v>-0.88</v>
+        <v>-0.68</v>
       </c>
       <c r="I48">
         <v>50</v>
@@ -3014,19 +3197,19 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.1765813843980442</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.1447565944670813</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N48">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O48">
-        <v>105</v>
+        <v>2098.3</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3034,25 +3217,25 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C49">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D49">
         <v>20</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F49">
-        <v>-0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G49">
-        <v>-0.02</v>
+        <v>0.63</v>
       </c>
       <c r="H49">
-        <v>-0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3061,19 +3244,19 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.02499136243234172</v>
+        <v>0.06082363414125348</v>
       </c>
       <c r="L49">
-        <v>0.03928775109308662</v>
+        <v>0.2617347552314709</v>
       </c>
       <c r="M49" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N49">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O49">
-        <v>545.4</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3081,25 +3264,25 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C50">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F50">
-        <v>-0.25</v>
+        <v>0.01</v>
       </c>
       <c r="G50">
-        <v>-0.96</v>
+        <v>1.12</v>
       </c>
       <c r="H50">
-        <v>-0.62</v>
+        <v>-0.45</v>
       </c>
       <c r="I50">
         <v>50</v>
@@ -3108,19 +3291,19 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.4553577115642882</v>
+        <v>0.1871970583319354</v>
       </c>
       <c r="L50">
-        <v>0.4234964495978294</v>
+        <v>0.2747791952894995</v>
       </c>
       <c r="M50" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N50">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O50">
-        <v>344.5</v>
+        <v>355.15</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3128,25 +3311,25 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C51">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F51">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="G51">
-        <v>-1.28</v>
+        <v>0.43</v>
       </c>
       <c r="H51">
-        <v>-1.45</v>
+        <v>-0.01</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -3155,19 +3338,19 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.03087144387834838</v>
+        <v>5.741438787466916</v>
       </c>
       <c r="L51">
-        <v>0.08599644360501914</v>
+        <v>4.022150412903582</v>
       </c>
       <c r="M51" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O51">
-        <v>372.8</v>
+        <v>134.12</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3175,25 +3358,25 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C52">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D52">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="F52">
-        <v>0.02</v>
+        <v>-0.24</v>
       </c>
       <c r="G52">
-        <v>-1.23</v>
+        <v>-0.02</v>
       </c>
       <c r="H52">
-        <v>-0.03</v>
+        <v>0.24</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -3202,19 +3385,19 @@
         <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.2683439796599784</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>0.2331575864089045</v>
+        <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O52">
-        <v>1214.7</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3222,25 +3405,25 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C53">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="F53">
-        <v>-0.14</v>
+        <v>0.04</v>
       </c>
       <c r="G53">
-        <v>-1.61</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H53">
-        <v>-0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I53">
         <v>50</v>
@@ -3249,19 +3432,19 @@
         <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0.04931301863691944</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.1268314017056637</v>
+        <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O53">
-        <v>531.25</v>
+        <v>553.55</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3269,25 +3452,25 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C54">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="F54">
-        <v>-0.6899999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="G54">
-        <v>-1.93</v>
+        <v>0.95</v>
       </c>
       <c r="H54">
-        <v>-1.81</v>
+        <v>-0.6</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -3296,19 +3479,19 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>1.465702803249922</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>1.449846153846154</v>
+        <v>0.01852881230313137</v>
       </c>
       <c r="M54" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O54">
-        <v>1594.6</v>
+        <v>528.45</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3316,25 +3499,25 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C55">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="D55">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="F55">
-        <v>-0.4</v>
+        <v>0.98</v>
       </c>
       <c r="G55">
-        <v>-1.33</v>
+        <v>1.5</v>
       </c>
       <c r="H55">
-        <v>-1.59</v>
+        <v>-0.57</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -3343,19 +3526,19 @@
         <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.3269834318662772</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.7074428887251291</v>
+        <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N55">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O55">
-        <v>3322.1</v>
+        <v>725.55</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3363,25 +3546,25 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="C56">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="D56">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="F56">
-        <v>0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="G56">
-        <v>-1.47</v>
+        <v>0.75</v>
       </c>
       <c r="H56">
-        <v>-1.54</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -3390,19 +3573,19 @@
         <v>0.5</v>
       </c>
       <c r="K56">
-        <v>0.006766180146094186</v>
+        <v>0.5961431087059015</v>
       </c>
       <c r="L56">
-        <v>0.02489141754082955</v>
+        <v>0.4796792922311308</v>
       </c>
       <c r="M56" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O56">
-        <v>12.75</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3410,25 +3593,25 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D57">
         <v>20</v>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F57">
-        <v>-0.29</v>
+        <v>1.25</v>
       </c>
       <c r="G57">
-        <v>-0.14</v>
+        <v>2.24</v>
       </c>
       <c r="H57">
-        <v>-0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -3437,19 +3620,19 @@
         <v>0.5</v>
       </c>
       <c r="K57">
-        <v>0.009662213921862801</v>
+        <v>4.074498123692924E-05</v>
       </c>
       <c r="L57">
-        <v>0.03337866238101125</v>
+        <v>0.0001413657343596486</v>
       </c>
       <c r="M57" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N57">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O57">
-        <v>1961.2</v>
+        <v>128.31</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3457,25 +3640,25 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C58">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D58">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="F58">
-        <v>-0.76</v>
+        <v>-0.2</v>
       </c>
       <c r="G58">
-        <v>-0.92</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>-0.49</v>
+        <v>-0.73</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -3484,19 +3667,19 @@
         <v>0.5</v>
       </c>
       <c r="K58">
-        <v>0.4431396786155733</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.9306853582554516</v>
+        <v>0.3450258769407705</v>
       </c>
       <c r="M58" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N58">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O58">
-        <v>997.9</v>
+        <v>2808.6</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3504,25 +3687,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E59">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F59">
-        <v>0.39</v>
+        <v>-0.3</v>
       </c>
       <c r="G59">
-        <v>-0.71</v>
+        <v>-1.56</v>
       </c>
       <c r="H59">
-        <v>-0.87</v>
+        <v>-0.05</v>
       </c>
       <c r="I59">
         <v>50</v>
@@ -3531,19 +3714,19 @@
         <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0.1626734792515317</v>
+        <v>0.2818387221212462</v>
       </c>
       <c r="L59">
-        <v>0.1380231522707035</v>
+        <v>0.4371611390612026</v>
       </c>
       <c r="M59" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N59">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O59">
-        <v>1055.6</v>
+        <v>1378.9</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3551,25 +3734,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E60">
         <v>100</v>
       </c>
       <c r="F60">
-        <v>0.22</v>
+        <v>-0.65</v>
       </c>
       <c r="G60">
-        <v>0.53</v>
+        <v>-1.56</v>
       </c>
       <c r="H60">
-        <v>-0.57</v>
+        <v>0.11</v>
       </c>
       <c r="I60">
         <v>50</v>
@@ -3578,19 +3761,19 @@
         <v>0.5</v>
       </c>
       <c r="K60">
-        <v>2.516401807843736</v>
+        <v>0.2512562814070661</v>
       </c>
       <c r="L60">
-        <v>1.434507978723404</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="M60" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="N60">
         <v>10</v>
       </c>
       <c r="O60">
-        <v>527.85</v>
+        <v>2157.8</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3598,25 +3781,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D61">
         <v>20</v>
       </c>
       <c r="E61">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F61">
-        <v>-0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="G61">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H61">
-        <v>-1.28</v>
+        <v>-1.04</v>
       </c>
       <c r="I61">
         <v>50</v>
@@ -3625,19 +3808,19 @@
         <v>0.5</v>
       </c>
       <c r="K61">
-        <v>0.1570639149121817</v>
+        <v>0.06647708387190833</v>
       </c>
       <c r="L61">
-        <v>0.1789906103286385</v>
+        <v>0.06492803809111568</v>
       </c>
       <c r="M61" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N61">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O61">
-        <v>928.95</v>
+        <v>876.65</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3645,25 +3828,25 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D62">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="F62">
-        <v>-0.66</v>
+        <v>-0.18</v>
       </c>
       <c r="G62">
-        <v>-0.97</v>
+        <v>0.7</v>
       </c>
       <c r="H62">
-        <v>-0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I62">
         <v>50</v>
@@ -3672,19 +3855,19 @@
         <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0.1017564486180515</v>
+        <v>0.9725248326796356</v>
       </c>
       <c r="L62">
-        <v>0.2367188278680355</v>
+        <v>0.8816945066299293</v>
       </c>
       <c r="M62" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O62">
-        <v>2559.9</v>
+        <v>2193.3</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3692,25 +3875,25 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C63">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F63">
-        <v>0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="G63">
-        <v>-0.57</v>
+        <v>2.27</v>
       </c>
       <c r="H63">
-        <v>-0.76</v>
+        <v>0.48</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -3719,19 +3902,19 @@
         <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0.5411919368974442</v>
+        <v>0.002598543189413738</v>
       </c>
       <c r="L63">
-        <v>0.6710816777041942</v>
+        <v>0.01082041194524225</v>
       </c>
       <c r="M63" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N63">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O63">
-        <v>562.9</v>
+        <v>54.03</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3739,25 +3922,25 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C64">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D64">
         <v>20</v>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F64">
-        <v>0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="G64">
-        <v>-0.67</v>
+        <v>-0.46</v>
       </c>
       <c r="H64">
-        <v>-0.41</v>
+        <v>-0.66</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -3766,19 +3949,19 @@
         <v>0.5</v>
       </c>
       <c r="K64">
-        <v>0.454592310071143</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0.6526082130965594</v>
+        <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N64">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O64">
-        <v>339.2</v>
+        <v>1588.9</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3786,25 +3969,25 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="C65">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F65">
-        <v>-0.05</v>
+        <v>-0.41</v>
       </c>
       <c r="G65">
-        <v>-0.67</v>
+        <v>2.98</v>
       </c>
       <c r="H65">
-        <v>-0.91</v>
+        <v>4.6</v>
       </c>
       <c r="I65">
         <v>50</v>
@@ -3813,19 +3996,19 @@
         <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.08103946622004911</v>
+        <v>1.830058652492605</v>
       </c>
       <c r="L65">
-        <v>0.9499683343888536</v>
+        <v>2.369526297418112</v>
       </c>
       <c r="M65" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N65">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O65">
-        <v>1711.5</v>
+        <v>196.3</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3833,25 +4016,25 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C66">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D66">
         <v>20</v>
       </c>
       <c r="E66">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F66">
-        <v>-0.22</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G66">
-        <v>-0.95</v>
+        <v>-0.14</v>
       </c>
       <c r="H66">
-        <v>-0.49</v>
+        <v>-0.9</v>
       </c>
       <c r="I66">
         <v>50</v>
@@ -3866,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N66">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O66">
-        <v>721.1</v>
+        <v>2179.5</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3880,25 +4063,25 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C67">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="D67">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F67">
-        <v>-0.68</v>
+        <v>-0.15</v>
       </c>
       <c r="G67">
-        <v>-1.71</v>
+        <v>0.92</v>
       </c>
       <c r="H67">
-        <v>-0.71</v>
+        <v>-1.08</v>
       </c>
       <c r="I67">
         <v>50</v>
@@ -3910,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.0004377453197729561</v>
+        <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O67">
-        <v>385.7</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3927,25 +4110,25 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C68">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D68">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F68">
-        <v>-0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G68">
-        <v>-1.94</v>
+        <v>0.72</v>
       </c>
       <c r="H68">
-        <v>-0.42</v>
+        <v>0.34</v>
       </c>
       <c r="I68">
         <v>50</v>
@@ -3954,19 +4137,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
-        <v>0.738450177689574</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>1.194029850746269</v>
+        <v>1.325515280739161</v>
       </c>
       <c r="M68" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O68">
-        <v>10233</v>
+        <v>456.05</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3974,25 +4157,25 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C69">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F69">
-        <v>-0.46</v>
+        <v>-0.06</v>
       </c>
       <c r="G69">
-        <v>-0.63</v>
+        <v>0.55</v>
       </c>
       <c r="H69">
-        <v>-1.05</v>
+        <v>0.75</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4001,19 +4184,19 @@
         <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.1909194901504189</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>0.503747291414031</v>
+        <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N69">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O69">
-        <v>4123.9</v>
+        <v>753.55</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4021,25 +4204,25 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C70">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D70">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-0.11</v>
       </c>
       <c r="G70">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="H70">
-        <v>-2.1</v>
+        <v>0.33</v>
       </c>
       <c r="I70">
         <v>50</v>
@@ -4048,19 +4231,19 @@
         <v>0.5</v>
       </c>
       <c r="K70">
-        <v>0.3405893676884446</v>
+        <v>0.006215030544022736</v>
       </c>
       <c r="L70">
-        <v>0.1429459291485395</v>
+        <v>0.02621302091692077</v>
       </c>
       <c r="M70" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O70">
-        <v>737.5</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4068,25 +4251,25 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="C71">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D71">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F71">
-        <v>-0.71</v>
+        <v>-0.13</v>
       </c>
       <c r="G71">
-        <v>-2.46</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>-0.77</v>
+        <v>-1.83</v>
       </c>
       <c r="I71">
         <v>50</v>
@@ -4098,16 +4281,16 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.2982848620432513</v>
+        <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O71">
-        <v>440.05</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4115,25 +4298,25 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C72">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D72">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F72">
-        <v>-0.67</v>
+        <v>-0.21</v>
       </c>
       <c r="G72">
-        <v>-1.57</v>
+        <v>-0.54</v>
       </c>
       <c r="H72">
-        <v>-0.46</v>
+        <v>0.98</v>
       </c>
       <c r="I72">
         <v>50</v>
@@ -4145,16 +4328,16 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.02558835189389844</v>
+        <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O72">
-        <v>95</v>
+        <v>374.95</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4162,25 +4345,25 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C73">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="D73">
         <v>45</v>
       </c>
       <c r="E73">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F73">
-        <v>-0.18</v>
+        <v>-0.37</v>
       </c>
       <c r="G73">
-        <v>-2.02</v>
+        <v>-1.53</v>
       </c>
       <c r="H73">
-        <v>0.11</v>
+        <v>-0.06</v>
       </c>
       <c r="I73">
         <v>50</v>
@@ -4189,19 +4372,19 @@
         <v>0.5</v>
       </c>
       <c r="K73">
-        <v>0.01748633879781778</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0.06467259498787389</v>
+        <v>0.5673080977749041</v>
       </c>
       <c r="M73" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O73">
-        <v>283.95</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4209,25 +4392,25 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="C74">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D74">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F74">
-        <v>-0.52</v>
+        <v>-0.18</v>
       </c>
       <c r="G74">
-        <v>-1.18</v>
+        <v>0.03</v>
       </c>
       <c r="H74">
-        <v>-0.9</v>
+        <v>-0.02</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -4236,19 +4419,19 @@
         <v>0.5</v>
       </c>
       <c r="K74">
-        <v>0.2103121469516996</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0.4734542971187698</v>
+        <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O74">
-        <v>723.75</v>
+        <v>1564.1</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4256,25 +4439,25 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C75">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F75">
-        <v>0.03</v>
+        <v>-0.13</v>
       </c>
       <c r="G75">
-        <v>-0.36</v>
+        <v>0.84</v>
       </c>
       <c r="H75">
-        <v>-0.04</v>
+        <v>0.39</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -4283,19 +4466,19 @@
         <v>0.5</v>
       </c>
       <c r="K75">
-        <v>2.438266579329127</v>
+        <v>1.412730586451775</v>
       </c>
       <c r="L75">
-        <v>1.292914626550454</v>
+        <v>1.018518518518519</v>
       </c>
       <c r="M75" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="N75">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O75">
-        <v>165.53</v>
+        <v>434.7</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4303,25 +4486,25 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F76">
-        <v>0.51</v>
+        <v>-0.06</v>
       </c>
       <c r="G76">
-        <v>-0.25</v>
+        <v>0.52</v>
       </c>
       <c r="H76">
-        <v>-2.26</v>
+        <v>-0.28</v>
       </c>
       <c r="I76">
         <v>50</v>
@@ -4330,19 +4513,19 @@
         <v>0.5</v>
       </c>
       <c r="K76">
-        <v>2.596436353145771</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1.532464040865708</v>
+        <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O76">
-        <v>731.1</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4350,25 +4533,25 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="C77">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F77">
-        <v>-0.32</v>
+        <v>-0.19</v>
       </c>
       <c r="G77">
-        <v>-0.44</v>
+        <v>0.11</v>
       </c>
       <c r="H77">
-        <v>-1.4</v>
+        <v>-0.15</v>
       </c>
       <c r="I77">
         <v>50</v>
@@ -4377,19 +4560,19 @@
         <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>19.99999999999995</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>15.85585585585586</v>
       </c>
       <c r="M77" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N77">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O77">
-        <v>153.68</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4397,25 +4580,25 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C78">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F78">
-        <v>-0.72</v>
+        <v>0.08</v>
       </c>
       <c r="G78">
-        <v>-0.01</v>
+        <v>0.71</v>
       </c>
       <c r="H78">
-        <v>-0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I78">
         <v>50</v>
@@ -4424,19 +4607,19 @@
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.0535434441929349</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0.1334707829200803</v>
+        <v>0.002849408747684855</v>
       </c>
       <c r="M78" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O78">
-        <v>1631.6</v>
+        <v>547.85</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4444,25 +4627,25 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C79">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D79">
         <v>20</v>
       </c>
       <c r="E79">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F79">
-        <v>-0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G79">
-        <v>-0.66</v>
+        <v>-0.32</v>
       </c>
       <c r="H79">
-        <v>-0.88</v>
+        <v>-0.05</v>
       </c>
       <c r="I79">
         <v>50</v>
@@ -4471,19 +4654,19 @@
         <v>0.5</v>
       </c>
       <c r="K79">
-        <v>0.03316735372511377</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.1128066109920861</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="M79" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O79">
-        <v>7117.5</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4491,25 +4674,25 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E80">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F80">
-        <v>-0.13</v>
+        <v>0.45</v>
       </c>
       <c r="G80">
-        <v>-0.06</v>
+        <v>1.08</v>
       </c>
       <c r="H80">
-        <v>-0.23</v>
+        <v>0.6</v>
       </c>
       <c r="I80">
         <v>50</v>
@@ -4518,19 +4701,19 @@
         <v>0.5</v>
       </c>
       <c r="K80">
-        <v>1.271282633371169</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1.212121212121212</v>
+        <v>0.3009027081243731</v>
       </c>
       <c r="M80" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N80">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O80">
-        <v>152810</v>
+        <v>5570.5</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4538,25 +4721,25 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F81">
-        <v>-0.26</v>
+        <v>1.04</v>
       </c>
       <c r="G81">
-        <v>-0.39</v>
+        <v>1.47</v>
       </c>
       <c r="H81">
-        <v>-0.9</v>
+        <v>-0.34</v>
       </c>
       <c r="I81">
         <v>50</v>
@@ -4565,19 +4748,19 @@
         <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.1101928374655647</v>
+        <v>1.810102453144105</v>
       </c>
       <c r="L81">
-        <v>0.3296703296703297</v>
+        <v>2.531170694030674</v>
       </c>
       <c r="M81" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N81">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O81">
-        <v>34550</v>
+        <v>3250.1</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4585,25 +4768,25 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C82">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D82">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F82">
-        <v>-1.07</v>
+        <v>-0.3</v>
       </c>
       <c r="G82">
-        <v>-1.26</v>
+        <v>0.11</v>
       </c>
       <c r="H82">
-        <v>-1.86</v>
+        <v>0.31</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4612,19 +4795,19 @@
         <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.004823261903116973</v>
+        <v>1.048451880924485</v>
       </c>
       <c r="L82">
-        <v>0.1021524990879241</v>
+        <v>1.102768993071482</v>
       </c>
       <c r="M82" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O82">
-        <v>702.5</v>
+        <v>156.76</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4632,25 +4815,25 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="C83">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D83">
         <v>20</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F83">
-        <v>-0.11</v>
+        <v>0.06</v>
       </c>
       <c r="G83">
-        <v>0.18</v>
+        <v>1.25</v>
       </c>
       <c r="H83">
-        <v>-0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4659,19 +4842,19 @@
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0.1225810112933361</v>
+        <v>0.1100918677427995</v>
       </c>
       <c r="L83">
-        <v>0.09209516500383728</v>
+        <v>0.4176230852110367</v>
       </c>
       <c r="M83" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O83">
-        <v>2647.6</v>
+        <v>77.95</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4679,25 +4862,25 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C84">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F84">
-        <v>0.29</v>
+        <v>-0.71</v>
       </c>
       <c r="G84">
-        <v>-0.89</v>
+        <v>-0.39</v>
       </c>
       <c r="H84">
-        <v>-1.43</v>
+        <v>5.22</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -4706,19 +4889,19 @@
         <v>0.5</v>
       </c>
       <c r="K84">
-        <v>2.81371896729417</v>
+        <v>15.64006814882374</v>
       </c>
       <c r="L84">
-        <v>2.587332053742802</v>
+        <v>8.349660469776245</v>
       </c>
       <c r="M84" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O84">
-        <v>5879</v>
+        <v>663.2</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4726,25 +4909,25 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C85">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D85">
         <v>10</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F85">
-        <v>-0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="G85">
-        <v>-0.29</v>
+        <v>0.39</v>
       </c>
       <c r="H85">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>50</v>
@@ -4753,19 +4936,19 @@
         <v>0.5</v>
       </c>
       <c r="K85">
-        <v>4.518577617124905</v>
+        <v>1.96823123065152</v>
       </c>
       <c r="L85">
-        <v>4.179571900588996</v>
+        <v>2.345245781982539</v>
       </c>
       <c r="M85" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="N85">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O85">
-        <v>1996.5</v>
+        <v>64.66</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4773,25 +4956,25 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C86">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D86">
         <v>20</v>
       </c>
       <c r="E86">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F86">
-        <v>-0.17</v>
+        <v>0.15</v>
       </c>
       <c r="G86">
-        <v>-0.68</v>
+        <v>-0.22</v>
       </c>
       <c r="H86">
-        <v>-0.28</v>
+        <v>-0.14</v>
       </c>
       <c r="I86">
         <v>50</v>
@@ -4800,19 +4983,19 @@
         <v>0.5</v>
       </c>
       <c r="K86">
-        <v>0.03954875062967301</v>
+        <v>0.08794688008443229</v>
       </c>
       <c r="L86">
-        <v>0.2235287886010912</v>
+        <v>0.1269035532994924</v>
       </c>
       <c r="M86" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N86">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O86">
-        <v>532.6</v>
+        <v>2591.4</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4820,25 +5003,25 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C87">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
       <c r="E87">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F87">
-        <v>0.47</v>
+        <v>-0.34</v>
       </c>
       <c r="G87">
-        <v>1.08</v>
+        <v>0.32</v>
       </c>
       <c r="H87">
-        <v>-1.4</v>
+        <v>0.27</v>
       </c>
       <c r="I87">
         <v>50</v>
@@ -4847,19 +5030,19 @@
         <v>0.5</v>
       </c>
       <c r="K87">
-        <v>0.2600945458621871</v>
+        <v>0.4601609968966451</v>
       </c>
       <c r="L87">
-        <v>0.3450327186198691</v>
+        <v>0.4683075582661729</v>
       </c>
       <c r="M87" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O87">
-        <v>523.6</v>
+        <v>281.55</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4867,25 +5050,25 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C88">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D88">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F88">
-        <v>0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="G88">
-        <v>-0.5</v>
+        <v>0.63</v>
       </c>
       <c r="H88">
-        <v>-1.37</v>
+        <v>-0.55</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -4894,19 +5077,19 @@
         <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.002937558521673674</v>
+        <v>0.08581659145821244</v>
       </c>
       <c r="L88">
-        <v>0.006691201070592172</v>
+        <v>1.436116700201207</v>
       </c>
       <c r="M88" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O88">
-        <v>11048</v>
+        <v>218.98</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4914,25 +5097,25 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C89">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D89">
         <v>20</v>
       </c>
       <c r="E89">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F89">
-        <v>0.43</v>
+        <v>-0.04</v>
       </c>
       <c r="G89">
-        <v>-0.72</v>
+        <v>-0.65</v>
       </c>
       <c r="H89">
-        <v>-1</v>
+        <v>1.89</v>
       </c>
       <c r="I89">
         <v>50</v>
@@ -4941,19 +5124,19 @@
         <v>0.5</v>
       </c>
       <c r="K89">
-        <v>0.02030456852791878</v>
+        <v>0.4220374220374578</v>
       </c>
       <c r="L89">
-        <v>0.07194244604316546</v>
+        <v>0.4907530520971836</v>
       </c>
       <c r="M89" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O89">
-        <v>37115</v>
+        <v>1293.5</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4961,25 +5144,25 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C90">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D90">
         <v>20</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F90">
-        <v>-0.47</v>
+        <v>-0.34</v>
       </c>
       <c r="G90">
-        <v>-0.83</v>
+        <v>0.79</v>
       </c>
       <c r="H90">
-        <v>-1.37</v>
+        <v>0.19</v>
       </c>
       <c r="I90">
         <v>50</v>
@@ -4988,19 +5171,19 @@
         <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0.1971208754947284</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>0.7047976756453057</v>
+        <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O90">
-        <v>299.05</v>
+        <v>5533.5</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5008,25 +5191,25 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D91">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F91">
-        <v>-0.67</v>
+        <v>0.23</v>
       </c>
       <c r="G91">
-        <v>-0.83</v>
+        <v>1.98</v>
       </c>
       <c r="H91">
-        <v>-1.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I91">
         <v>50</v>
@@ -5035,19 +5218,19 @@
         <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0.0001588865863574438</v>
+        <v>0.4787478264869985</v>
       </c>
       <c r="L91">
-        <v>0.0005190625729931743</v>
+        <v>0.9542269820110922</v>
       </c>
       <c r="M91" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O91">
-        <v>1542</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5055,25 +5238,25 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C92">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D92">
         <v>20</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F92">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="G92">
-        <v>-0.36</v>
+        <v>1.47</v>
       </c>
       <c r="H92">
-        <v>-0.93</v>
+        <v>0.34</v>
       </c>
       <c r="I92">
         <v>50</v>
@@ -5082,19 +5265,19 @@
         <v>0.5</v>
       </c>
       <c r="K92">
-        <v>0.001892981282332068</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0.0107756618671621</v>
+        <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O92">
-        <v>520.4</v>
+        <v>2756.4</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5102,25 +5285,25 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F93">
-        <v>-0.6</v>
+        <v>-0.25</v>
       </c>
       <c r="G93">
-        <v>-0.91</v>
+        <v>0.7</v>
       </c>
       <c r="H93">
-        <v>-0.47</v>
+        <v>-0.43</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -5129,19 +5312,19 @@
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>0.1740274934191014</v>
+        <v>1.373324535160869</v>
       </c>
       <c r="L93">
-        <v>0.2497507739125872</v>
+        <v>1.855484026231875</v>
       </c>
       <c r="M93" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O93">
-        <v>926.35</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5149,25 +5332,25 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C94">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D94">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F94">
-        <v>-0.62</v>
+        <v>0.19</v>
       </c>
       <c r="G94">
-        <v>-0.8100000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="H94">
-        <v>-1.14</v>
+        <v>0.3</v>
       </c>
       <c r="I94">
         <v>50</v>
@@ -5176,19 +5359,19 @@
         <v>0.5</v>
       </c>
       <c r="K94">
-        <v>0.1434543559766438</v>
+        <v>0.1818265301437164</v>
       </c>
       <c r="L94">
-        <v>0.587715682233084</v>
+        <v>0.7954203073214824</v>
       </c>
       <c r="M94" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O94">
-        <v>2821</v>
+        <v>12273</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5196,25 +5379,25 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E95">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F95">
-        <v>-0.01</v>
+        <v>0.26</v>
       </c>
       <c r="G95">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="H95">
-        <v>-0.84</v>
+        <v>3.05</v>
       </c>
       <c r="I95">
         <v>50</v>
@@ -5223,19 +5406,19 @@
         <v>0.5</v>
       </c>
       <c r="K95">
-        <v>0.559462294572347</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>0.9592326139088729</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="M95" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O95">
-        <v>887</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5243,25 +5426,25 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="C96">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D96">
         <v>20</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F96">
-        <v>-0.21</v>
+        <v>0.05</v>
       </c>
       <c r="G96">
-        <v>0.04</v>
+        <v>-0.51</v>
       </c>
       <c r="H96">
-        <v>-0.64</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -5270,19 +5453,19 @@
         <v>0.5</v>
       </c>
       <c r="K96">
-        <v>0.1893875023765735</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>0.6610521864759152</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="M96" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O96">
-        <v>1509.2</v>
+        <v>917.3</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5290,25 +5473,25 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C97">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D97">
         <v>20</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F97">
-        <v>-0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G97">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="H97">
-        <v>-0.88</v>
+        <v>1.35</v>
       </c>
       <c r="I97">
         <v>50</v>
@@ -5317,19 +5500,19 @@
         <v>0.5</v>
       </c>
       <c r="K97">
-        <v>0.009743950630648483</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0.08620689655172414</v>
+        <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O97">
-        <v>1226.3</v>
+        <v>33485</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5337,25 +5520,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D98">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F98">
-        <v>-0.78</v>
+        <v>-0.08</v>
       </c>
       <c r="G98">
-        <v>-0.7</v>
+        <v>-0.17</v>
       </c>
       <c r="H98">
-        <v>-0.32</v>
+        <v>1.9</v>
       </c>
       <c r="I98">
         <v>50</v>
@@ -5364,19 +5547,19 @@
         <v>0.5</v>
       </c>
       <c r="K98">
-        <v>3.025873873873874</v>
+        <v>3.314973751974657</v>
       </c>
       <c r="L98">
-        <v>2.542635658914729</v>
+        <v>2.520826345854523</v>
       </c>
       <c r="M98" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O98">
-        <v>13681</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5384,25 +5567,25 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="C99">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E99">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F99">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G99">
-        <v>1.14</v>
+        <v>-0.88</v>
       </c>
       <c r="H99">
-        <v>-0.57</v>
+        <v>0.98</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -5411,19 +5594,19 @@
         <v>0.5</v>
       </c>
       <c r="K99">
-        <v>1.654170154410538</v>
+        <v>0.01141011399257617</v>
       </c>
       <c r="L99">
-        <v>2.31563201196709</v>
+        <v>0.137724202189611</v>
       </c>
       <c r="M99" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O99">
-        <v>1726.3</v>
+        <v>699.6</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5431,25 +5614,25 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F100">
-        <v>0.32</v>
+        <v>-0.08</v>
       </c>
       <c r="G100">
-        <v>-0.7</v>
+        <v>0.53</v>
       </c>
       <c r="H100">
-        <v>-0.78</v>
+        <v>1.38</v>
       </c>
       <c r="I100">
         <v>50</v>
@@ -5458,19 +5641,19 @@
         <v>0.5</v>
       </c>
       <c r="K100">
-        <v>1.020599250936157</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>1.138381201044386</v>
+        <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O100">
-        <v>456.9</v>
+        <v>184.38</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5478,25 +5661,25 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D101">
         <v>20</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F101">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="G101">
-        <v>0.65</v>
+        <v>-0.32</v>
       </c>
       <c r="H101">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="I101">
         <v>50</v>
@@ -5505,19 +5688,19 @@
         <v>0.5</v>
       </c>
       <c r="K101">
-        <v>0.03330125574577718</v>
+        <v>0.02319639615410572</v>
       </c>
       <c r="L101">
-        <v>0.1574900793650794</v>
+        <v>0.06647398843930635</v>
       </c>
       <c r="M101" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O101">
-        <v>2759.5</v>
+        <v>490.05</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5525,46 +5708,2910 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102">
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>60</v>
+      </c>
+      <c r="F102">
+        <v>0.02</v>
+      </c>
+      <c r="G102">
+        <v>-0.02</v>
+      </c>
+      <c r="H102">
+        <v>-0.04</v>
+      </c>
+      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="J102">
+        <v>0.5</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>189</v>
+      </c>
+      <c r="N102">
+        <v>6</v>
+      </c>
+      <c r="O102">
+        <v>1726.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
         <v>116</v>
       </c>
-      <c r="C102">
+      <c r="B103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103">
+        <v>80</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>60</v>
+      </c>
+      <c r="F103">
+        <v>-0.02</v>
+      </c>
+      <c r="G103">
+        <v>0.02</v>
+      </c>
+      <c r="H103">
+        <v>0.53</v>
+      </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+      <c r="K103">
+        <v>0.06089309878213803</v>
+      </c>
+      <c r="L103">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="M103" t="s">
+        <v>189</v>
+      </c>
+      <c r="N103">
+        <v>6</v>
+      </c>
+      <c r="O103">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104">
+        <v>70</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>0.57</v>
+      </c>
+      <c r="G104">
+        <v>0.65</v>
+      </c>
+      <c r="H104">
+        <v>-0.12</v>
+      </c>
+      <c r="I104">
+        <v>50</v>
+      </c>
+      <c r="J104">
+        <v>0.5</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0.03669724770642202</v>
+      </c>
+      <c r="M104" t="s">
+        <v>189</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104">
+        <v>2478.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105">
+        <v>70</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>50</v>
+      </c>
+      <c r="F105">
+        <v>-0.06</v>
+      </c>
+      <c r="G105">
+        <v>0.14</v>
+      </c>
+      <c r="H105">
+        <v>0.44</v>
+      </c>
+      <c r="I105">
+        <v>50</v>
+      </c>
+      <c r="J105">
+        <v>0.5</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>189</v>
+      </c>
+      <c r="N105">
+        <v>5</v>
+      </c>
+      <c r="O105">
+        <v>1743.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106">
+        <v>70</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>50</v>
+      </c>
+      <c r="F106">
+        <v>0.1</v>
+      </c>
+      <c r="G106">
+        <v>0.19</v>
+      </c>
+      <c r="H106">
+        <v>-0.38</v>
+      </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>0.5</v>
+      </c>
+      <c r="K106">
+        <v>0.01001209795169331</v>
+      </c>
+      <c r="L106">
+        <v>0.02867383512544803</v>
+      </c>
+      <c r="M106" t="s">
+        <v>189</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106">
+        <v>577.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107">
+        <v>70</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="F107">
+        <v>-0.48</v>
+      </c>
+      <c r="G107">
+        <v>0.45</v>
+      </c>
+      <c r="H107">
+        <v>3.13</v>
+      </c>
+      <c r="I107">
+        <v>50</v>
+      </c>
+      <c r="J107">
+        <v>0.5</v>
+      </c>
+      <c r="K107">
+        <v>0.002286423966664777</v>
+      </c>
+      <c r="L107">
+        <v>0.01630718907226483</v>
+      </c>
+      <c r="M107" t="s">
+        <v>189</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107">
+        <v>220.82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108">
+        <v>70</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108">
+        <v>0.21</v>
+      </c>
+      <c r="G108">
+        <v>2.6</v>
+      </c>
+      <c r="H108">
+        <v>1.49</v>
+      </c>
+      <c r="I108">
+        <v>50</v>
+      </c>
+      <c r="J108">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>189</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <v>104.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109">
+        <v>70</v>
+      </c>
+      <c r="D109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>50</v>
+      </c>
+      <c r="F109">
+        <v>0.19</v>
+      </c>
+      <c r="G109">
+        <v>0.58</v>
+      </c>
+      <c r="H109">
+        <v>-0.34</v>
+      </c>
+      <c r="I109">
+        <v>50</v>
+      </c>
+      <c r="J109">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0.0649772579597141</v>
+      </c>
+      <c r="M109" t="s">
+        <v>189</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109">
+        <v>363.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110">
+        <v>70</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>50</v>
+      </c>
+      <c r="F110">
+        <v>-0.28</v>
+      </c>
+      <c r="G110">
+        <v>0.04</v>
+      </c>
+      <c r="H110">
+        <v>-0.33</v>
+      </c>
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <v>0.5</v>
+      </c>
+      <c r="K110">
+        <v>0.2673500032643884</v>
+      </c>
+      <c r="L110">
+        <v>0.4112994350282486</v>
+      </c>
+      <c r="M110" t="s">
+        <v>189</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110">
+        <v>1107.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111">
+        <v>65</v>
+      </c>
+      <c r="D111">
+        <v>45</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <v>-0.16</v>
+      </c>
+      <c r="G111">
+        <v>-1.88</v>
+      </c>
+      <c r="H111">
+        <v>-0.33</v>
+      </c>
+      <c r="I111">
+        <v>50</v>
+      </c>
+      <c r="J111">
+        <v>0.5</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1.462904911180773</v>
+      </c>
+      <c r="M111" t="s">
+        <v>190</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111">
+        <v>795.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112">
+        <v>60</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>-0.6</v>
+      </c>
+      <c r="H112">
+        <v>0.84</v>
+      </c>
+      <c r="I112">
+        <v>50</v>
+      </c>
+      <c r="J112">
+        <v>0.5</v>
+      </c>
+      <c r="K112">
+        <v>0.003306536609556601</v>
+      </c>
+      <c r="L112">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="M112" t="s">
+        <v>189</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112">
+        <v>2764.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113">
+        <v>60</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
+      </c>
+      <c r="F113">
+        <v>0.76</v>
+      </c>
+      <c r="G113">
+        <v>0.36</v>
+      </c>
+      <c r="H113">
+        <v>0.48</v>
+      </c>
+      <c r="I113">
+        <v>50</v>
+      </c>
+      <c r="J113">
+        <v>0.5</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>189</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <v>1084.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
+      </c>
+      <c r="F114">
+        <v>0.18</v>
+      </c>
+      <c r="G114">
+        <v>0.45</v>
+      </c>
+      <c r="H114">
+        <v>-0.52</v>
+      </c>
+      <c r="I114">
+        <v>50</v>
+      </c>
+      <c r="J114">
+        <v>0.5</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0.0266058532877233</v>
+      </c>
+      <c r="M114" t="s">
+        <v>189</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <v>367.55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115">
+        <v>60</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
+      </c>
+      <c r="F115">
+        <v>0.14</v>
+      </c>
+      <c r="G115">
+        <v>0.6</v>
+      </c>
+      <c r="H115">
+        <v>-1.09</v>
+      </c>
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <v>0.5</v>
+      </c>
+      <c r="K115">
+        <v>0.1278737770801496</v>
+      </c>
+      <c r="L115">
+        <v>0.2477551287933407</v>
+      </c>
+      <c r="M115" t="s">
+        <v>189</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115">
+        <v>1251.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116">
+        <v>60</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
+      </c>
+      <c r="F116">
+        <v>1.02</v>
+      </c>
+      <c r="G116">
+        <v>0.76</v>
+      </c>
+      <c r="H116">
+        <v>1.29</v>
+      </c>
+      <c r="I116">
+        <v>50</v>
+      </c>
+      <c r="J116">
+        <v>0.5</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>189</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <v>430.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117">
+        <v>60</v>
+      </c>
+      <c r="D117">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
+      </c>
+      <c r="F117">
+        <v>-0.2</v>
+      </c>
+      <c r="G117">
+        <v>0.59</v>
+      </c>
+      <c r="H117">
+        <v>-0.68</v>
+      </c>
+      <c r="I117">
+        <v>50</v>
+      </c>
+      <c r="J117">
+        <v>0.5</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>189</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>281.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118">
+        <v>60</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
+      </c>
+      <c r="F118">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G118">
+        <v>0.64</v>
+      </c>
+      <c r="H118">
+        <v>1.15</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <v>0.5</v>
+      </c>
+      <c r="K118">
+        <v>0.04791367242222574</v>
+      </c>
+      <c r="L118">
+        <v>0.1081743433247611</v>
+      </c>
+      <c r="M118" t="s">
+        <v>189</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <v>613.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
+      </c>
+      <c r="F119">
+        <v>-0.1</v>
+      </c>
+      <c r="G119">
+        <v>-0.46</v>
+      </c>
+      <c r="H119">
+        <v>-0.22</v>
+      </c>
+      <c r="I119">
+        <v>50</v>
+      </c>
+      <c r="J119">
+        <v>0.5</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0.004181476061049551</v>
+      </c>
+      <c r="M119" t="s">
+        <v>189</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119">
+        <v>2101.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120">
+        <v>60</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
+      </c>
+      <c r="F120">
+        <v>0.37</v>
+      </c>
+      <c r="G120">
+        <v>0.77</v>
+      </c>
+      <c r="H120">
+        <v>0.43</v>
+      </c>
+      <c r="I120">
+        <v>50</v>
+      </c>
+      <c r="J120">
+        <v>0.5</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>189</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120">
+        <v>451.65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121">
+        <v>60</v>
+      </c>
+      <c r="D121">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
+      </c>
+      <c r="F121">
+        <v>-0.28</v>
+      </c>
+      <c r="G121">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H121">
+        <v>-0.58</v>
+      </c>
+      <c r="I121">
+        <v>50</v>
+      </c>
+      <c r="J121">
+        <v>0.5</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>189</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122">
+        <v>60</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
+      </c>
+      <c r="F122">
+        <v>-0.14</v>
+      </c>
+      <c r="G122">
+        <v>-0.41</v>
+      </c>
+      <c r="H122">
+        <v>-0.38</v>
+      </c>
+      <c r="I122">
+        <v>50</v>
+      </c>
+      <c r="J122">
+        <v>0.5</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>189</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <v>471.65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" t="s">
+        <v>178</v>
+      </c>
+      <c r="C123">
+        <v>60</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
+      </c>
+      <c r="F123">
+        <v>0.23</v>
+      </c>
+      <c r="G123">
+        <v>0.87</v>
+      </c>
+      <c r="H123">
+        <v>-0.6</v>
+      </c>
+      <c r="I123">
+        <v>50</v>
+      </c>
+      <c r="J123">
+        <v>0.5</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0.007592053650512464</v>
+      </c>
+      <c r="M123" t="s">
+        <v>189</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <v>2658.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124">
+        <v>60</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>40</v>
+      </c>
+      <c r="F124">
+        <v>-0.03</v>
+      </c>
+      <c r="G124">
+        <v>0.44</v>
+      </c>
+      <c r="H124">
+        <v>0.66</v>
+      </c>
+      <c r="I124">
+        <v>50</v>
+      </c>
+      <c r="J124">
+        <v>0.5</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0.2714678333052891</v>
+      </c>
+      <c r="M124" t="s">
+        <v>189</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124">
+        <v>367.05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125">
+        <v>60</v>
+      </c>
+      <c r="D125">
+        <v>40</v>
+      </c>
+      <c r="E125">
+        <v>20</v>
+      </c>
+      <c r="F125">
+        <v>-0.68</v>
+      </c>
+      <c r="G125">
+        <v>0.55</v>
+      </c>
+      <c r="H125">
+        <v>0.06</v>
+      </c>
+      <c r="I125">
+        <v>50</v>
+      </c>
+      <c r="J125">
+        <v>0.5</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>190</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>705.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126">
+        <v>60</v>
+      </c>
+      <c r="D126">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>40</v>
+      </c>
+      <c r="F126">
+        <v>-0.12</v>
+      </c>
+      <c r="G126">
+        <v>0.79</v>
+      </c>
+      <c r="H126">
+        <v>-0.12</v>
+      </c>
+      <c r="I126">
+        <v>50</v>
+      </c>
+      <c r="J126">
+        <v>0.5</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>189</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>192.43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127">
+        <v>60</v>
+      </c>
+      <c r="D127">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>40</v>
+      </c>
+      <c r="F127">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G127">
+        <v>-0.1</v>
+      </c>
+      <c r="H127">
+        <v>-0.38</v>
+      </c>
+      <c r="I127">
+        <v>50</v>
+      </c>
+      <c r="J127">
+        <v>0.5</v>
+      </c>
+      <c r="K127">
+        <v>1.241781424862521E-05</v>
+      </c>
+      <c r="L127">
+        <v>4.222482608649755E-05</v>
+      </c>
+      <c r="M127" t="s">
+        <v>189</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <v>210.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128">
+        <v>50</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="E128">
         <v>30</v>
       </c>
-      <c r="D102">
+      <c r="F128">
+        <v>-0.26</v>
+      </c>
+      <c r="G128">
+        <v>0.82</v>
+      </c>
+      <c r="H128">
+        <v>-0.14</v>
+      </c>
+      <c r="I128">
+        <v>50</v>
+      </c>
+      <c r="J128">
+        <v>0.5</v>
+      </c>
+      <c r="K128">
+        <v>0.08904104210996128</v>
+      </c>
+      <c r="L128">
+        <v>0.1528940662540954</v>
+      </c>
+      <c r="M128" t="s">
+        <v>189</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
+        <v>1471.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129">
+        <v>50</v>
+      </c>
+      <c r="D129">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>30</v>
+      </c>
+      <c r="F129">
+        <v>0.51</v>
+      </c>
+      <c r="G129">
+        <v>0.7</v>
+      </c>
+      <c r="H129">
+        <v>0.16</v>
+      </c>
+      <c r="I129">
+        <v>50</v>
+      </c>
+      <c r="J129">
+        <v>0.5</v>
+      </c>
+      <c r="K129">
+        <v>0.1570337463245034</v>
+      </c>
+      <c r="L129">
+        <v>0.3904923599320883</v>
+      </c>
+      <c r="M129" t="s">
+        <v>189</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129">
+        <v>612.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>30</v>
+      </c>
+      <c r="F130">
+        <v>0.22</v>
+      </c>
+      <c r="G130">
+        <v>0.65</v>
+      </c>
+      <c r="H130">
+        <v>1.01</v>
+      </c>
+      <c r="I130">
+        <v>50</v>
+      </c>
+      <c r="J130">
+        <v>0.5</v>
+      </c>
+      <c r="K130">
+        <v>0.03671487979854058</v>
+      </c>
+      <c r="L130">
+        <v>0.06855714435981362</v>
+      </c>
+      <c r="M130" t="s">
+        <v>189</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130">
+        <v>301.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131">
+        <v>50</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>-0.44</v>
+      </c>
+      <c r="G131">
+        <v>-0.63</v>
+      </c>
+      <c r="H131">
+        <v>0.57</v>
+      </c>
+      <c r="I131">
+        <v>50</v>
+      </c>
+      <c r="J131">
+        <v>0.5</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>189</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131">
+        <v>1077.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" t="s">
+        <v>182</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>-0.5</v>
+      </c>
+      <c r="G132">
+        <v>1.37</v>
+      </c>
+      <c r="H132">
+        <v>0.46</v>
+      </c>
+      <c r="I132">
+        <v>50</v>
+      </c>
+      <c r="J132">
+        <v>0.5</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>189</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132">
+        <v>340.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>30</v>
+      </c>
+      <c r="F133">
+        <v>0.04</v>
+      </c>
+      <c r="G133">
+        <v>0.14</v>
+      </c>
+      <c r="H133">
+        <v>-0.41</v>
+      </c>
+      <c r="I133">
+        <v>50</v>
+      </c>
+      <c r="J133">
+        <v>0.5</v>
+      </c>
+      <c r="K133">
+        <v>0.000689288560211367</v>
+      </c>
+      <c r="L133">
+        <v>0.01170275014628438</v>
+      </c>
+      <c r="M133" t="s">
+        <v>189</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133">
+        <v>552.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>30</v>
+      </c>
+      <c r="F134">
+        <v>0.14</v>
+      </c>
+      <c r="G134">
+        <v>-0.01</v>
+      </c>
+      <c r="H134">
+        <v>-0.02</v>
+      </c>
+      <c r="I134">
+        <v>50</v>
+      </c>
+      <c r="J134">
+        <v>0.5</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>189</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134">
+        <v>701.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>30</v>
+      </c>
+      <c r="F135">
+        <v>0.75</v>
+      </c>
+      <c r="G135">
+        <v>0.16</v>
+      </c>
+      <c r="H135">
+        <v>-0.16</v>
+      </c>
+      <c r="I135">
+        <v>50</v>
+      </c>
+      <c r="J135">
+        <v>0.5</v>
+      </c>
+      <c r="K135">
+        <v>0.0008172282254816737</v>
+      </c>
+      <c r="L135">
+        <v>0.01782582444438055</v>
+      </c>
+      <c r="M135" t="s">
+        <v>189</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135">
+        <v>1024.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136">
+        <v>50</v>
+      </c>
+      <c r="D136">
+        <v>40</v>
+      </c>
+      <c r="E136">
         <v>10</v>
       </c>
-      <c r="E102">
-        <v>20</v>
-      </c>
-      <c r="F102">
-        <v>-0.08</v>
-      </c>
-      <c r="G102">
-        <v>-0.16</v>
-      </c>
-      <c r="H102">
-        <v>-0.71</v>
-      </c>
-      <c r="I102">
-        <v>50</v>
-      </c>
-      <c r="J102">
-        <v>0.5</v>
-      </c>
-      <c r="K102">
-        <v>2.84392350401013</v>
-      </c>
-      <c r="L102">
-        <v>1.830091306073839</v>
-      </c>
-      <c r="M102" t="s">
-        <v>131</v>
-      </c>
-      <c r="N102">
+      <c r="F136">
+        <v>-0.9</v>
+      </c>
+      <c r="G136">
+        <v>-0.4</v>
+      </c>
+      <c r="H136">
+        <v>-0.04</v>
+      </c>
+      <c r="I136">
+        <v>50</v>
+      </c>
+      <c r="J136">
+        <v>0.5</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>190</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137">
+        <v>40</v>
+      </c>
+      <c r="D137">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>20</v>
+      </c>
+      <c r="F137">
+        <v>-0.13</v>
+      </c>
+      <c r="G137">
+        <v>0.32</v>
+      </c>
+      <c r="H137">
+        <v>-0.11</v>
+      </c>
+      <c r="I137">
+        <v>50</v>
+      </c>
+      <c r="J137">
+        <v>0.5</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>189</v>
+      </c>
+      <c r="N137">
         <v>2</v>
       </c>
-      <c r="O102">
-        <v>372.6</v>
+      <c r="O137">
+        <v>947.45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138">
+        <v>40</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>20</v>
+      </c>
+      <c r="F138">
+        <v>-0.32</v>
+      </c>
+      <c r="G138">
+        <v>-0.28</v>
+      </c>
+      <c r="H138">
+        <v>0.68</v>
+      </c>
+      <c r="I138">
+        <v>50</v>
+      </c>
+      <c r="J138">
+        <v>0.5</v>
+      </c>
+      <c r="K138">
+        <v>0.04491116835082814</v>
+      </c>
+      <c r="L138">
+        <v>0.07525453740593183</v>
+      </c>
+      <c r="M138" t="s">
+        <v>189</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138">
+        <v>632.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139">
+        <v>40</v>
+      </c>
+      <c r="D139">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>20</v>
+      </c>
+      <c r="F139">
+        <v>0.17</v>
+      </c>
+      <c r="G139">
+        <v>0.32</v>
+      </c>
+      <c r="H139">
+        <v>-0.05</v>
+      </c>
+      <c r="I139">
+        <v>50</v>
+      </c>
+      <c r="J139">
+        <v>0.5</v>
+      </c>
+      <c r="K139">
+        <v>0.0074507937164973</v>
+      </c>
+      <c r="L139">
+        <v>0.01204577394097571</v>
+      </c>
+      <c r="M139" t="s">
+        <v>189</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>5118.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140">
+        <v>40</v>
+      </c>
+      <c r="D140">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>20</v>
+      </c>
+      <c r="F140">
+        <v>-0.38</v>
+      </c>
+      <c r="G140">
+        <v>-0.53</v>
+      </c>
+      <c r="H140">
+        <v>1.5</v>
+      </c>
+      <c r="I140">
+        <v>50</v>
+      </c>
+      <c r="J140">
+        <v>0.5</v>
+      </c>
+      <c r="K140">
+        <v>0.01239714115178929</v>
+      </c>
+      <c r="L140">
+        <v>0.07950909892392277</v>
+      </c>
+      <c r="M140" t="s">
+        <v>189</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140">
+        <v>122.46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141">
+        <v>40</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <v>0.01</v>
+      </c>
+      <c r="G141">
+        <v>-0.06</v>
+      </c>
+      <c r="H141">
+        <v>0.03</v>
+      </c>
+      <c r="I141">
+        <v>50</v>
+      </c>
+      <c r="J141">
+        <v>0.5</v>
+      </c>
+      <c r="K141">
+        <v>0.3559611446872277</v>
+      </c>
+      <c r="L141">
+        <v>0.4314668498797664</v>
+      </c>
+      <c r="M141" t="s">
+        <v>189</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141">
+        <v>337.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" t="s">
+        <v>177</v>
+      </c>
+      <c r="C142">
+        <v>40</v>
+      </c>
+      <c r="D142">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>20</v>
+      </c>
+      <c r="F142">
+        <v>-0</v>
+      </c>
+      <c r="G142">
+        <v>0.77</v>
+      </c>
+      <c r="H142">
+        <v>0.05</v>
+      </c>
+      <c r="I142">
+        <v>50</v>
+      </c>
+      <c r="J142">
+        <v>0.5</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0.0398406374501992</v>
+      </c>
+      <c r="M142" t="s">
+        <v>189</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" t="s">
+        <v>177</v>
+      </c>
+      <c r="C143">
+        <v>40</v>
+      </c>
+      <c r="D143">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>20</v>
+      </c>
+      <c r="F143">
+        <v>0.13</v>
+      </c>
+      <c r="G143">
+        <v>0.74</v>
+      </c>
+      <c r="H143">
+        <v>-0.13</v>
+      </c>
+      <c r="I143">
+        <v>50</v>
+      </c>
+      <c r="J143">
+        <v>0.5</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0.08227414165919519</v>
+      </c>
+      <c r="M143" t="s">
+        <v>189</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143">
+        <v>1061.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s">
+        <v>177</v>
+      </c>
+      <c r="C144">
+        <v>40</v>
+      </c>
+      <c r="D144">
+        <v>20</v>
+      </c>
+      <c r="E144">
+        <v>20</v>
+      </c>
+      <c r="F144">
+        <v>-0.23</v>
+      </c>
+      <c r="G144">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H144">
+        <v>-0.26</v>
+      </c>
+      <c r="I144">
+        <v>50</v>
+      </c>
+      <c r="J144">
+        <v>0.5</v>
+      </c>
+      <c r="K144">
+        <v>0.1011073663938218</v>
+      </c>
+      <c r="L144">
+        <v>0.2321724709784411</v>
+      </c>
+      <c r="M144" t="s">
+        <v>189</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>1322.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" t="s">
+        <v>178</v>
+      </c>
+      <c r="C145">
+        <v>40</v>
+      </c>
+      <c r="D145">
+        <v>20</v>
+      </c>
+      <c r="E145">
+        <v>20</v>
+      </c>
+      <c r="F145">
+        <v>0.25</v>
+      </c>
+      <c r="G145">
+        <v>1.85</v>
+      </c>
+      <c r="H145">
+        <v>-0.79</v>
+      </c>
+      <c r="I145">
+        <v>50</v>
+      </c>
+      <c r="J145">
+        <v>0.5</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
+        <v>189</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>4450.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" t="s">
+        <v>183</v>
+      </c>
+      <c r="C146">
+        <v>40</v>
+      </c>
+      <c r="D146">
+        <v>20</v>
+      </c>
+      <c r="E146">
+        <v>20</v>
+      </c>
+      <c r="F146">
+        <v>0.57</v>
+      </c>
+      <c r="G146">
+        <v>4.56</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>50</v>
+      </c>
+      <c r="J146">
+        <v>0.5</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0.143448275862069</v>
+      </c>
+      <c r="M146" t="s">
+        <v>189</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146">
+        <v>39080</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" t="s">
+        <v>177</v>
+      </c>
+      <c r="C147">
+        <v>40</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>20</v>
+      </c>
+      <c r="F147">
+        <v>0.63</v>
+      </c>
+      <c r="G147">
+        <v>-0.12</v>
+      </c>
+      <c r="H147">
+        <v>0.18</v>
+      </c>
+      <c r="I147">
+        <v>50</v>
+      </c>
+      <c r="J147">
+        <v>0.5</v>
+      </c>
+      <c r="K147">
+        <v>0.008114669369304342</v>
+      </c>
+      <c r="L147">
+        <v>0.2888476059207766</v>
+      </c>
+      <c r="M147" t="s">
+        <v>189</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147">
+        <v>3090.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C148">
+        <v>40</v>
+      </c>
+      <c r="D148">
+        <v>20</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148">
+        <v>0.34</v>
+      </c>
+      <c r="G148">
+        <v>1.85</v>
+      </c>
+      <c r="H148">
+        <v>-0.65</v>
+      </c>
+      <c r="I148">
+        <v>50</v>
+      </c>
+      <c r="J148">
+        <v>0.5</v>
+      </c>
+      <c r="K148">
+        <v>0.1035412163424612</v>
+      </c>
+      <c r="L148">
+        <v>0.1937674790251698</v>
+      </c>
+      <c r="M148" t="s">
+        <v>189</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149">
+        <v>40</v>
+      </c>
+      <c r="D149">
+        <v>20</v>
+      </c>
+      <c r="E149">
+        <v>20</v>
+      </c>
+      <c r="F149">
+        <v>-0.35</v>
+      </c>
+      <c r="G149">
+        <v>-0.03</v>
+      </c>
+      <c r="H149">
+        <v>0.18</v>
+      </c>
+      <c r="I149">
+        <v>50</v>
+      </c>
+      <c r="J149">
+        <v>0.5</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0.008480530116274719</v>
+      </c>
+      <c r="M149" t="s">
+        <v>189</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" t="s">
+        <v>163</v>
+      </c>
+      <c r="B150" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150">
+        <v>40</v>
+      </c>
+      <c r="D150">
+        <v>20</v>
+      </c>
+      <c r="E150">
+        <v>20</v>
+      </c>
+      <c r="F150">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G150">
+        <v>0.67</v>
+      </c>
+      <c r="H150">
+        <v>-0.97</v>
+      </c>
+      <c r="I150">
+        <v>50</v>
+      </c>
+      <c r="J150">
+        <v>0.5</v>
+      </c>
+      <c r="K150">
+        <v>0.007509931884916626</v>
+      </c>
+      <c r="L150">
+        <v>0.02726578689060966</v>
+      </c>
+      <c r="M150" t="s">
+        <v>189</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C151">
+        <v>40</v>
+      </c>
+      <c r="D151">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>20</v>
+      </c>
+      <c r="F151">
+        <v>0.09</v>
+      </c>
+      <c r="G151">
+        <v>0.24</v>
+      </c>
+      <c r="H151">
+        <v>-0.24</v>
+      </c>
+      <c r="I151">
+        <v>50</v>
+      </c>
+      <c r="J151">
+        <v>0.5</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0.08565989847715735</v>
+      </c>
+      <c r="M151" t="s">
+        <v>189</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152">
+        <v>40</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>30</v>
+      </c>
+      <c r="F152">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G152">
+        <v>1.16</v>
+      </c>
+      <c r="H152">
+        <v>0.51</v>
+      </c>
+      <c r="I152">
+        <v>50</v>
+      </c>
+      <c r="J152">
+        <v>0.5</v>
+      </c>
+      <c r="K152">
+        <v>1.081064182324069</v>
+      </c>
+      <c r="L152">
+        <v>1.526980482204363</v>
+      </c>
+      <c r="M152" t="s">
+        <v>192</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152">
+        <v>18919</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153">
+        <v>40</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>20</v>
+      </c>
+      <c r="F153">
+        <v>0.24</v>
+      </c>
+      <c r="G153">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H153">
+        <v>-0.59</v>
+      </c>
+      <c r="I153">
+        <v>50</v>
+      </c>
+      <c r="J153">
+        <v>0.5</v>
+      </c>
+      <c r="K153">
+        <v>0.01487453833996667</v>
+      </c>
+      <c r="L153">
+        <v>0.03362628964463125</v>
+      </c>
+      <c r="M153" t="s">
+        <v>189</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153">
+        <v>454.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154">
+        <v>35</v>
+      </c>
+      <c r="D154">
+        <v>25</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
+        <v>-0.33</v>
+      </c>
+      <c r="G154">
+        <v>-5.61</v>
+      </c>
+      <c r="H154">
+        <v>2.04</v>
+      </c>
+      <c r="I154">
+        <v>50</v>
+      </c>
+      <c r="J154">
+        <v>0.5</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>189</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>177.35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B155" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155">
+        <v>30</v>
+      </c>
+      <c r="D155">
+        <v>20</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <v>0.04</v>
+      </c>
+      <c r="G155">
+        <v>0.91</v>
+      </c>
+      <c r="H155">
+        <v>-0.66</v>
+      </c>
+      <c r="I155">
+        <v>50</v>
+      </c>
+      <c r="J155">
+        <v>0.5</v>
+      </c>
+      <c r="K155">
+        <v>0.00370396092321226</v>
+      </c>
+      <c r="L155">
+        <v>0.03440860215053763</v>
+      </c>
+      <c r="M155" t="s">
+        <v>189</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" t="s">
+        <v>169</v>
+      </c>
+      <c r="B156" t="s">
+        <v>177</v>
+      </c>
+      <c r="C156">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>-0.27</v>
+      </c>
+      <c r="G156">
+        <v>-0.42</v>
+      </c>
+      <c r="H156">
+        <v>-0.05</v>
+      </c>
+      <c r="I156">
+        <v>50</v>
+      </c>
+      <c r="J156">
+        <v>0.5</v>
+      </c>
+      <c r="K156">
+        <v>0.007283481252886345</v>
+      </c>
+      <c r="L156">
+        <v>0.02772267762827713</v>
+      </c>
+      <c r="M156" t="s">
+        <v>189</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>403.95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" t="s">
+        <v>170</v>
+      </c>
+      <c r="B157" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157">
+        <v>30</v>
+      </c>
+      <c r="D157">
+        <v>20</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+      <c r="F157">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G157">
+        <v>0.75</v>
+      </c>
+      <c r="H157">
+        <v>0.11</v>
+      </c>
+      <c r="I157">
+        <v>50</v>
+      </c>
+      <c r="J157">
+        <v>0.5</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0.1273434736469756</v>
+      </c>
+      <c r="M157" t="s">
+        <v>189</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>357.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" t="s">
+        <v>171</v>
+      </c>
+      <c r="B158" t="s">
+        <v>177</v>
+      </c>
+      <c r="C158">
+        <v>30</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <v>0.03</v>
+      </c>
+      <c r="G158">
+        <v>2.09</v>
+      </c>
+      <c r="H158">
+        <v>0.4</v>
+      </c>
+      <c r="I158">
+        <v>50</v>
+      </c>
+      <c r="J158">
+        <v>0.5</v>
+      </c>
+      <c r="K158">
+        <v>0.004455624762133893</v>
+      </c>
+      <c r="L158">
+        <v>0.01216175129218608</v>
+      </c>
+      <c r="M158" t="s">
+        <v>189</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>738.85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" t="s">
+        <v>184</v>
+      </c>
+      <c r="C159">
+        <v>30</v>
+      </c>
+      <c r="D159">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+      <c r="F159">
+        <v>-0.05</v>
+      </c>
+      <c r="G159">
+        <v>-0.24</v>
+      </c>
+      <c r="H159">
+        <v>0.19</v>
+      </c>
+      <c r="I159">
+        <v>50</v>
+      </c>
+      <c r="J159">
+        <v>0.5</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>189</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>845.05</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" t="s">
+        <v>173</v>
+      </c>
+      <c r="B160" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160">
+        <v>30</v>
+      </c>
+      <c r="D160">
+        <v>20</v>
+      </c>
+      <c r="E160">
+        <v>10</v>
+      </c>
+      <c r="F160">
+        <v>0.16</v>
+      </c>
+      <c r="G160">
+        <v>0.38</v>
+      </c>
+      <c r="H160">
+        <v>-0.76</v>
+      </c>
+      <c r="I160">
+        <v>50</v>
+      </c>
+      <c r="J160">
+        <v>0.5</v>
+      </c>
+      <c r="K160">
+        <v>0.1090628104647427</v>
+      </c>
+      <c r="L160">
+        <v>0.1590572477300534</v>
+      </c>
+      <c r="M160" t="s">
+        <v>189</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <v>215.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" t="s">
+        <v>180</v>
+      </c>
+      <c r="C161">
+        <v>30</v>
+      </c>
+      <c r="D161">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="F161">
+        <v>0.19</v>
+      </c>
+      <c r="G161">
+        <v>0.71</v>
+      </c>
+      <c r="H161">
+        <v>1.37</v>
+      </c>
+      <c r="I161">
+        <v>50</v>
+      </c>
+      <c r="J161">
+        <v>0.5</v>
+      </c>
+      <c r="K161">
+        <v>0.01180052307020922</v>
+      </c>
+      <c r="L161">
+        <v>0.02791682710820177</v>
+      </c>
+      <c r="M161" t="s">
+        <v>189</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161">
+        <v>1212.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+      <c r="D162">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>-0.06</v>
+      </c>
+      <c r="G162">
+        <v>-0.43</v>
+      </c>
+      <c r="H162">
+        <v>0.38</v>
+      </c>
+      <c r="I162">
+        <v>50</v>
+      </c>
+      <c r="J162">
+        <v>0.5</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
+        <v>189</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <v>4532.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" t="s">
+        <v>176</v>
+      </c>
+      <c r="B163" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>0.26</v>
+      </c>
+      <c r="G163">
+        <v>0.93</v>
+      </c>
+      <c r="H163">
+        <v>0.61</v>
+      </c>
+      <c r="I163">
+        <v>50</v>
+      </c>
+      <c r="J163">
+        <v>0.5</v>
+      </c>
+      <c r="K163">
+        <v>1.062959268833875</v>
+      </c>
+      <c r="L163">
+        <v>1.012898845892736</v>
+      </c>
+      <c r="M163" t="s">
+        <v>192</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <v>2062.5</v>
       </c>
     </row>
   </sheetData>
